--- a/Offline/BusinessManagement/ProfitabilitySheet.xlsx
+++ b/Offline/BusinessManagement/ProfitabilitySheet.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3466" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3467" uniqueCount="277">
   <si>
     <t>Hindi</t>
   </si>
@@ -874,6 +874,9 @@
   <si>
     <t>No</t>
   </si>
+  <si>
+    <t>Shamik</t>
+  </si>
 </sst>
 </file>
 
@@ -1347,7 +1350,13 @@
     <xf numFmtId="0" fontId="5" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1396,12 +1405,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="43" fontId="7" fillId="21" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="23" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1709,32 +1712,32 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:AJ224"/>
+  <dimension ref="A1:AH224"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="C100" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B190" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Z105" sqref="Z105"/>
+      <selection pane="bottomRight" activeCell="B193" sqref="B193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.42578125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="32.42578125" style="2" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="21.85546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.28515625" style="1" customWidth="1"/>
     <col min="5" max="5" width="8" style="1" customWidth="1"/>
     <col min="6" max="6" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12" style="1" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.85546875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.85546875" style="1" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="4.5703125" style="1" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.7109375" style="1" hidden="1" customWidth="1"/>
     <col min="16" max="16" width="8.28515625" style="1" customWidth="1"/>
     <col min="17" max="17" width="4.28515625" style="1" hidden="1" customWidth="1"/>
     <col min="18" max="18" width="9" style="1" hidden="1" customWidth="1"/>
@@ -1749,194 +1752,194 @@
     <col min="27" max="27" width="8.7109375" style="1" customWidth="1"/>
     <col min="28" max="28" width="8.5703125" style="1" customWidth="1"/>
     <col min="29" max="29" width="6.42578125" style="1" hidden="1" customWidth="1"/>
-    <col min="30" max="30" width="8.7109375" style="1" customWidth="1"/>
-    <col min="31" max="31" width="9.140625" style="1" customWidth="1"/>
-    <col min="32" max="32" width="8.7109375" style="1" customWidth="1"/>
-    <col min="33" max="33" width="8.5703125" style="1" customWidth="1"/>
+    <col min="30" max="30" width="8.7109375" style="1" hidden="1" customWidth="1"/>
+    <col min="31" max="31" width="9.140625" style="1" hidden="1" customWidth="1"/>
+    <col min="32" max="32" width="8.7109375" style="1" hidden="1" customWidth="1"/>
+    <col min="33" max="33" width="8.5703125" style="1" hidden="1" customWidth="1"/>
     <col min="34" max="34" width="6.42578125" style="1" hidden="1" customWidth="1"/>
     <col min="35" max="16384" width="10.7109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="F1" s="41" t="s">
+      <c r="F1" s="43" t="s">
         <v>257</v>
       </c>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="41"/>
-      <c r="R1" s="41"/>
-      <c r="S1" s="42"/>
-      <c r="T1" s="48" t="s">
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="44"/>
+      <c r="T1" s="50" t="s">
         <v>252</v>
       </c>
-      <c r="U1" s="49"/>
-      <c r="V1" s="49"/>
-      <c r="W1" s="49"/>
-      <c r="X1" s="50"/>
-      <c r="Y1" s="51" t="s">
+      <c r="U1" s="51"/>
+      <c r="V1" s="51"/>
+      <c r="W1" s="51"/>
+      <c r="X1" s="52"/>
+      <c r="Y1" s="53" t="s">
         <v>253</v>
       </c>
-      <c r="Z1" s="52"/>
-      <c r="AA1" s="52"/>
-      <c r="AB1" s="52"/>
-      <c r="AC1" s="53"/>
-      <c r="AD1" s="43" t="s">
+      <c r="Z1" s="54"/>
+      <c r="AA1" s="54"/>
+      <c r="AB1" s="54"/>
+      <c r="AC1" s="55"/>
+      <c r="AD1" s="45" t="s">
         <v>251</v>
       </c>
-      <c r="AE1" s="44"/>
-      <c r="AF1" s="44"/>
-      <c r="AG1" s="44"/>
-      <c r="AH1" s="45"/>
+      <c r="AE1" s="46"/>
+      <c r="AF1" s="46"/>
+      <c r="AG1" s="46"/>
+      <c r="AH1" s="47"/>
     </row>
     <row r="2" spans="1:34" s="2" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="58" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="58" t="s">
+      <c r="C2" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="58" t="s">
+      <c r="E2" s="40" t="s">
         <v>198</v>
       </c>
-      <c r="F2" s="40" t="s">
+      <c r="F2" s="41" t="s">
         <v>116</v>
       </c>
-      <c r="G2" s="40" t="s">
+      <c r="G2" s="41" t="s">
         <v>274</v>
       </c>
-      <c r="H2" s="58" t="s">
+      <c r="H2" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="58" t="s">
+      <c r="I2" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="58" t="s">
+      <c r="J2" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="K2" s="58"/>
-      <c r="L2" s="58" t="s">
+      <c r="K2" s="40"/>
+      <c r="L2" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="M2" s="58" t="s">
+      <c r="M2" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="N2" s="58" t="s">
+      <c r="N2" s="40" t="s">
         <v>99</v>
       </c>
-      <c r="O2" s="58" t="s">
+      <c r="O2" s="40" t="s">
         <v>105</v>
       </c>
-      <c r="P2" s="58" t="s">
+      <c r="P2" s="40" t="s">
         <v>128</v>
       </c>
-      <c r="Q2" s="58" t="s">
+      <c r="Q2" s="40" t="s">
         <v>99</v>
       </c>
-      <c r="R2" s="58" t="s">
+      <c r="R2" s="40" t="s">
         <v>129</v>
       </c>
-      <c r="S2" s="58" t="s">
+      <c r="S2" s="40" t="s">
         <v>250</v>
       </c>
-      <c r="T2" s="57" t="s">
+      <c r="T2" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="U2" s="57" t="s">
+      <c r="U2" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="V2" s="56" t="s">
+      <c r="V2" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="W2" s="57" t="s">
+      <c r="W2" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="X2" s="57" t="s">
+      <c r="X2" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="Y2" s="54" t="s">
+      <c r="Y2" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="Z2" s="54" t="s">
+      <c r="Z2" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="AA2" s="55" t="s">
+      <c r="AA2" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="AB2" s="54" t="s">
+      <c r="AB2" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="AC2" s="54" t="s">
+      <c r="AC2" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="AD2" s="46" t="s">
+      <c r="AD2" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="AE2" s="46" t="s">
+      <c r="AE2" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="AF2" s="47" t="s">
+      <c r="AF2" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="AG2" s="46" t="s">
+      <c r="AG2" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="AH2" s="46" t="s">
+      <c r="AH2" s="48" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:34" s="2" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="58"/>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
+      <c r="A3" s="40"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
       <c r="J3" s="21" t="s">
         <v>38</v>
       </c>
       <c r="K3" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="L3" s="58"/>
-      <c r="M3" s="58"/>
-      <c r="N3" s="58"/>
-      <c r="O3" s="58"/>
-      <c r="P3" s="58"/>
-      <c r="Q3" s="58"/>
-      <c r="R3" s="58"/>
-      <c r="S3" s="58"/>
-      <c r="T3" s="57"/>
-      <c r="U3" s="57"/>
-      <c r="V3" s="56"/>
-      <c r="W3" s="57"/>
-      <c r="X3" s="57"/>
-      <c r="Y3" s="54"/>
-      <c r="Z3" s="54"/>
-      <c r="AA3" s="55"/>
-      <c r="AB3" s="54"/>
-      <c r="AC3" s="54"/>
-      <c r="AD3" s="46"/>
-      <c r="AE3" s="46"/>
-      <c r="AF3" s="47"/>
-      <c r="AG3" s="46"/>
-      <c r="AH3" s="46"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="40"/>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="40"/>
+      <c r="R3" s="40"/>
+      <c r="S3" s="40"/>
+      <c r="T3" s="42"/>
+      <c r="U3" s="42"/>
+      <c r="V3" s="58"/>
+      <c r="W3" s="42"/>
+      <c r="X3" s="42"/>
+      <c r="Y3" s="56"/>
+      <c r="Z3" s="56"/>
+      <c r="AA3" s="57"/>
+      <c r="AB3" s="56"/>
+      <c r="AC3" s="56"/>
+      <c r="AD3" s="48"/>
+      <c r="AE3" s="48"/>
+      <c r="AF3" s="49"/>
+      <c r="AG3" s="48"/>
+      <c r="AH3" s="48"/>
     </row>
     <row r="4" spans="1:34" ht="24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="str">
@@ -13389,7 +13392,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="100" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="22" t="str">
         <f>C100&amp;" Hons "&amp;B100</f>
         <v>B.Com. Hons Adv Accounting I</v>
@@ -13508,7 +13511,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="101" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="22" t="str">
         <f t="shared" ref="A101:A109" si="107">C101&amp;" Hons "&amp;B101</f>
         <v>B.Com. Hons Adv Accounting II</v>
@@ -13627,7 +13630,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="102" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="22" t="str">
         <f t="shared" si="107"/>
         <v>B.Com. Hons Adv Accounting III</v>
@@ -13746,7 +13749,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="103" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="22" t="str">
         <f t="shared" si="107"/>
         <v>B.Com. Hons Cost &amp; Mgmt Ac I</v>
@@ -13865,7 +13868,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="104" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="22" t="str">
         <f t="shared" si="107"/>
         <v>B.Com. Hons Cost &amp; Mgmt Ac II</v>
@@ -13984,7 +13987,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="105" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="22" t="str">
         <f t="shared" si="107"/>
         <v>B.Com. Hons In/Direct Tax I</v>
@@ -14103,7 +14106,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="106" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="22" t="str">
         <f t="shared" si="107"/>
         <v>B.Com. Hons In/Direct Tax II</v>
@@ -14222,7 +14225,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="107" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="22" t="str">
         <f t="shared" si="107"/>
         <v>B.Com. Hons Financial Mgmt</v>
@@ -14341,7 +14344,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="108" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="22" t="str">
         <f t="shared" si="107"/>
         <v>B.Com. Hons Fin Report &amp; Stmt Anlys</v>
@@ -14460,7 +14463,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="109" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="22" t="str">
         <f t="shared" si="107"/>
         <v>B.Com. Hons Audit &amp; Assurance</v>
@@ -14579,7 +14582,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="110" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="22" t="str">
         <f>C110&amp;" "&amp;B110</f>
         <v>B.Com. Micro Economics</v>
@@ -14698,7 +14701,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="111" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="22" t="str">
         <f t="shared" ref="A111:A167" si="133">C111&amp;" "&amp;B111</f>
         <v>B.Com. Macro Economics</v>
@@ -14817,7 +14820,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="112" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="22" t="str">
         <f t="shared" si="133"/>
         <v>B.Com. Development Eco</v>
@@ -14936,7 +14939,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="113" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="22" t="str">
         <f t="shared" si="133"/>
         <v>B.Com. Business Management I</v>
@@ -15055,7 +15058,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="114" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="22" t="str">
         <f t="shared" si="133"/>
         <v>B.Com. Business Management II</v>
@@ -15174,7 +15177,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="115" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="22" t="str">
         <f t="shared" si="133"/>
         <v>B.Com. HRM</v>
@@ -15293,7 +15296,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="116" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="22" t="str">
         <f t="shared" si="133"/>
         <v>B.Com. Business Mathematics</v>
@@ -15412,7 +15415,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="117" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="22" t="str">
         <f t="shared" si="133"/>
         <v>B.Com. Business Statistics</v>
@@ -15531,7 +15534,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="118" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="22" t="str">
         <f t="shared" si="133"/>
         <v>B.Com. Business Law</v>
@@ -15650,7 +15653,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="119" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="22" t="str">
         <f t="shared" si="133"/>
         <v>B.Com. Company Law</v>
@@ -15769,7 +15772,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="120" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="22" t="str">
         <f t="shared" si="133"/>
         <v>B.Com. Enterpreneurship</v>
@@ -15888,7 +15891,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="121" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="22" t="str">
         <f t="shared" si="133"/>
         <v>B.Com. Environmantal Studies</v>
@@ -16007,7 +16010,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="122" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="22" t="str">
         <f t="shared" si="133"/>
         <v>B.Com. Business Comm</v>
@@ -16126,7 +16129,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="123" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="22" t="str">
         <f t="shared" si="133"/>
         <v>B.Com. E-Commerce</v>
@@ -16245,7 +16248,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="124" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="22" t="str">
         <f t="shared" si="133"/>
         <v>B.Com. IT App in Business</v>
@@ -16364,7 +16367,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="125" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="22" t="str">
         <f t="shared" si="133"/>
         <v>B.Com. Comp Ac &amp; Tax eFiling</v>
@@ -16483,7 +16486,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="126" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="22" t="str">
         <f t="shared" si="133"/>
         <v>B.B.A. English</v>
@@ -16602,7 +16605,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="127" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="22" t="str">
         <f t="shared" si="133"/>
         <v>B.B.A. Business Comm</v>
@@ -16721,7 +16724,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="128" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="22" t="str">
         <f t="shared" si="133"/>
         <v>B.B.A. Essentials of Math</v>
@@ -16840,7 +16843,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="129" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="22" t="str">
         <f t="shared" si="133"/>
         <v>B.B.A. Essentials of Stats</v>
@@ -16959,7 +16962,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="130" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="22" t="str">
         <f t="shared" si="133"/>
         <v>B.B.A. Advanced Math &amp; Stats</v>
@@ -17078,7 +17081,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="131" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="22" t="str">
         <f t="shared" si="133"/>
         <v>B.B.A. Computer Applications</v>
@@ -17197,7 +17200,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="132" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="22" t="str">
         <f t="shared" si="133"/>
         <v>B.B.A. Micro Economics</v>
@@ -17316,7 +17319,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="133" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="22" t="str">
         <f t="shared" si="133"/>
         <v>B.B.A. Macro Economics</v>
@@ -17435,7 +17438,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="134" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="22" t="str">
         <f t="shared" si="133"/>
         <v>B.B.A. Organizational Behavior</v>
@@ -17554,7 +17557,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="135" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="22" t="str">
         <f t="shared" si="133"/>
         <v>B.B.A. Social Structure &amp; Ethics</v>
@@ -17673,7 +17676,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="136" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="22" t="str">
         <f t="shared" si="133"/>
         <v>B.B.A. Principles of Mgmt</v>
@@ -17792,7 +17795,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="137" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="22" t="str">
         <f t="shared" si="133"/>
         <v>B.B.A. Managerial Economics</v>
@@ -17911,7 +17914,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="138" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="22" t="str">
         <f t="shared" si="133"/>
         <v>B.B.A. Business Laws</v>
@@ -18030,7 +18033,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="139" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="22" t="str">
         <f t="shared" si="133"/>
         <v>B.B.A. Financial Accounting</v>
@@ -18149,7 +18152,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="140" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="22" t="str">
         <f t="shared" si="133"/>
         <v>B.B.A. Environment Studies</v>
@@ -18268,7 +18271,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="141" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="22" t="str">
         <f t="shared" si="133"/>
         <v>B.B.A. Prod &amp; Materials Mgmt</v>
@@ -18387,7 +18390,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="142" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="22" t="str">
         <f t="shared" si="133"/>
         <v>B.B.A. Mgmt Info System</v>
@@ -18506,7 +18509,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="143" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="22" t="str">
         <f t="shared" si="133"/>
         <v>B.B.A. Cost Accounting</v>
@@ -18625,7 +18628,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="144" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="22" t="str">
         <f t="shared" si="133"/>
         <v>B.B.A. Marketing Management</v>
@@ -18744,7 +18747,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="145" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="22" t="str">
         <f t="shared" si="133"/>
         <v>B.B.A. HRM</v>
@@ -18863,7 +18866,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="146" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="22" t="str">
         <f t="shared" si="133"/>
         <v>B.B.A. Financial Management</v>
@@ -18982,7 +18985,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="147" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="22" t="str">
         <f t="shared" si="133"/>
         <v>B.B.A. Sales &amp; Distribn Mgmt</v>
@@ -19101,7 +19104,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="148" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="22" t="str">
         <f t="shared" si="133"/>
         <v>B.B.A. HR Development</v>
@@ -19220,7 +19223,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="149" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="22" t="str">
         <f t="shared" si="133"/>
         <v>B.B.A. Enterpreneurship Dev</v>
@@ -19339,7 +19342,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="150" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="22" t="str">
         <f t="shared" si="133"/>
         <v>B.B.A. Research Methodology</v>
@@ -19458,7 +19461,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="151" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="22" t="str">
         <f t="shared" si="133"/>
         <v>B.B.A. Mgmt Accounting</v>
@@ -19577,7 +19580,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="152" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="22" t="str">
         <f t="shared" si="133"/>
         <v>B.B.A. Ad &amp; Sales Promotion</v>
@@ -19696,7 +19699,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="153" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="22" t="str">
         <f t="shared" si="133"/>
         <v>B.B.A. Industrial Relations</v>
@@ -19815,7 +19818,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="154" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="22" t="str">
         <f t="shared" si="133"/>
         <v>B.B.A. Public Service Mgmt</v>
@@ -19934,7 +19937,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="155" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="22" t="str">
         <f t="shared" si="133"/>
         <v>B.B.A. Project and Viva</v>
@@ -20053,7 +20056,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="156" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="37" t="str">
         <f t="shared" si="133"/>
         <v>C.A. Foundation</v>
@@ -20172,7 +20175,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="157" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="37" t="str">
         <f t="shared" si="133"/>
         <v>C.A. Intermediate</v>
@@ -20291,7 +20294,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="158" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="37" t="str">
         <f t="shared" si="133"/>
         <v>C.A. Final</v>
@@ -20410,7 +20413,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="159" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="37" t="str">
         <f t="shared" si="133"/>
         <v>C.M.A. Foundation</v>
@@ -20529,7 +20532,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="160" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="37" t="str">
         <f t="shared" si="133"/>
         <v>C.M.A. Intermediate</v>
@@ -20648,7 +20651,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="161" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="37" t="str">
         <f t="shared" si="133"/>
         <v>C.M.A. Final</v>
@@ -20767,7 +20770,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="162" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="37" t="str">
         <f t="shared" si="133"/>
         <v>C.S. Foundation</v>
@@ -20886,7 +20889,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="163" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="37" t="str">
         <f t="shared" si="133"/>
         <v>C.S. Intermediate</v>
@@ -21005,7 +21008,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="164" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="37" t="str">
         <f t="shared" si="133"/>
         <v>C.S. Final</v>
@@ -21124,7 +21127,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="165" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="37" t="str">
         <f t="shared" si="133"/>
         <v>C.F.A. Level-1</v>
@@ -21243,7 +21246,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="166" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="37" t="str">
         <f t="shared" si="133"/>
         <v>C.F.A. Level-2</v>
@@ -21362,7 +21365,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="167" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="37" t="str">
         <f t="shared" si="133"/>
         <v>C.F.A. Level-3</v>
@@ -22570,7 +22573,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="177" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A177" s="25" t="str">
         <f t="shared" ref="A177:A204" si="176">B177</f>
         <v>MS Office</v>
@@ -22691,7 +22694,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="178" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A178" s="25" t="str">
         <f t="shared" si="176"/>
         <v>Advanced Excel (VBA)</v>
@@ -22812,7 +22815,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="179" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A179" s="25" t="str">
         <f t="shared" si="176"/>
         <v>C</v>
@@ -22933,7 +22936,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="180" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A180" s="25" t="str">
         <f t="shared" si="176"/>
         <v>C++</v>
@@ -23054,7 +23057,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="181" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A181" s="25" t="str">
         <f t="shared" si="176"/>
         <v>HTML, CSS, JavaScript</v>
@@ -23175,7 +23178,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="182" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A182" s="25" t="str">
         <f t="shared" si="176"/>
         <v>Java</v>
@@ -23296,7 +23299,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="183" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A183" s="25" t="str">
         <f t="shared" si="176"/>
         <v>Advanced Java</v>
@@ -23417,7 +23420,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="184" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A184" s="25" t="str">
         <f t="shared" si="176"/>
         <v>.Net (C#, VB.Net)</v>
@@ -23538,7 +23541,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="185" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A185" s="25" t="str">
         <f t="shared" si="176"/>
         <v>Advanced .Net</v>
@@ -23659,7 +23662,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="186" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A186" s="25" t="str">
         <f t="shared" si="176"/>
         <v>Microsoft Azure Cloud</v>
@@ -23780,7 +23783,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="187" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A187" s="25" t="str">
         <f t="shared" si="176"/>
         <v>React, MUI</v>
@@ -23901,7 +23904,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="188" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A188" s="25" t="str">
         <f t="shared" si="176"/>
         <v>React Native</v>
@@ -24022,7 +24025,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="189" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A189" s="25" t="str">
         <f t="shared" si="176"/>
         <v>PHP, Wordpress</v>
@@ -24143,7 +24146,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="190" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A190" s="25" t="str">
         <f t="shared" si="176"/>
         <v>Linux, Shell Script</v>
@@ -24264,7 +24267,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="191" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A191" s="25" t="str">
         <f t="shared" si="176"/>
         <v>Networking &amp; CCNA</v>
@@ -24385,7 +24388,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="192" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A192" s="25" t="str">
         <f t="shared" si="176"/>
         <v>Hands-on Network H/W</v>
@@ -24402,7 +24405,9 @@
       <c r="E192" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="F192" s="10"/>
+      <c r="F192" s="10" t="s">
+        <v>276</v>
+      </c>
       <c r="G192" s="10" t="s">
         <v>275</v>
       </c>
@@ -24506,7 +24511,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="193" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A193" s="25" t="str">
         <f t="shared" si="176"/>
         <v>Devops</v>
@@ -24627,7 +24632,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="194" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A194" s="25" t="str">
         <f t="shared" si="176"/>
         <v>Docker &amp; Kubernetes</v>
@@ -24748,7 +24753,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="195" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A195" s="25" t="str">
         <f t="shared" si="176"/>
         <v>Cloud, AWS, GCP</v>
@@ -24869,7 +24874,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="196" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A196" s="25" t="str">
         <f t="shared" si="176"/>
         <v>Cyber security Basics</v>
@@ -24990,7 +24995,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="197" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A197" s="25" t="str">
         <f t="shared" si="176"/>
         <v>Cyber security Advanced</v>
@@ -25111,7 +25116,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="198" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A198" s="25" t="str">
         <f t="shared" si="176"/>
         <v>Testing Automtn Selenium</v>
@@ -25232,7 +25237,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="199" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A199" s="25" t="s">
         <v>258</v>
       </c>
@@ -25352,7 +25357,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="200" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A200" s="25" t="s">
         <v>259</v>
       </c>
@@ -25470,7 +25475,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="201" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A201" s="25" t="s">
         <v>260</v>
       </c>
@@ -25588,7 +25593,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="202" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A202" s="25" t="s">
         <v>261</v>
       </c>
@@ -25706,7 +25711,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="203" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A203" s="25" t="str">
         <f t="shared" si="176"/>
         <v>Tally</v>
@@ -25827,7 +25832,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="204" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A204" s="25" t="str">
         <f t="shared" si="176"/>
         <v>Advanced Commercial Pkg</v>
@@ -25948,7 +25953,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="205" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A205" s="25" t="str">
         <f>B205</f>
         <v>Prince2</v>
@@ -26069,7 +26074,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="206" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A206" s="25" t="str">
         <f>B206</f>
         <v>Agile Scrum</v>
@@ -26190,7 +26195,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="207" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A207" s="23" t="str">
         <f t="shared" ref="A207:A216" si="225">C207&amp;" "&amp;D207&amp;" "&amp;B207</f>
         <v>XII ICSE AI</v>
@@ -26311,7 +26316,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="208" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A208" s="23" t="str">
         <f t="shared" si="225"/>
         <v>XI ICSE AI</v>
@@ -26432,7 +26437,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="209" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A209" s="23" t="str">
         <f t="shared" si="225"/>
         <v>X ICSE AI</v>
@@ -26553,7 +26558,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="210" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A210" s="23" t="str">
         <f t="shared" si="225"/>
         <v>IX ICSE AI</v>
@@ -26674,7 +26679,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="211" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A211" s="23" t="str">
         <f t="shared" si="225"/>
         <v>XII CBSE AI</v>
@@ -26795,7 +26800,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="212" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A212" s="23" t="str">
         <f t="shared" si="225"/>
         <v>XI CBSE AI</v>
@@ -26916,7 +26921,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="213" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A213" s="23" t="str">
         <f t="shared" si="225"/>
         <v>X CBSE AI</v>
@@ -27037,7 +27042,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="214" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A214" s="23" t="str">
         <f t="shared" si="225"/>
         <v>IX CBSE AI</v>
@@ -27158,7 +27163,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="215" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A215" s="23" t="str">
         <f t="shared" si="225"/>
         <v>XII WB AI</v>
@@ -27279,7 +27284,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="216" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A216" s="23" t="str">
         <f t="shared" si="225"/>
         <v>XI WB AI</v>
@@ -27400,7 +27405,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="217" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A217" s="25" t="str">
         <f t="shared" ref="A217:A224" si="234">B217</f>
         <v>Python</v>
@@ -27523,7 +27528,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="218" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A218" s="25" t="str">
         <f t="shared" si="234"/>
         <v>Data Analytics</v>
@@ -27646,7 +27651,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="219" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A219" s="25" t="str">
         <f t="shared" si="234"/>
         <v>Data Science &amp; AI</v>
@@ -27769,7 +27774,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="220" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A220" s="25" t="str">
         <f t="shared" si="234"/>
         <v>AI - DSP</v>
@@ -27892,7 +27897,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="221" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A221" s="25" t="str">
         <f t="shared" si="234"/>
         <v>AI - NLP (RNN)</v>
@@ -28015,7 +28020,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="222" spans="1:34" ht="24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:34" ht="24" x14ac:dyDescent="0.25">
       <c r="A222" s="25" t="str">
         <f t="shared" si="234"/>
         <v>AI - Computer Vision (CNN)</v>
@@ -28138,7 +28143,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="223" spans="1:34" ht="24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:34" ht="24" x14ac:dyDescent="0.25">
       <c r="A223" s="25" t="str">
         <f t="shared" si="234"/>
         <v>IoT, Robotics</v>
@@ -28261,7 +28266,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="224" spans="1:34" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A224" s="25" t="str">
         <f t="shared" si="234"/>
         <v>Advanced IoT, Robotics</v>
@@ -28386,25 +28391,29 @@
     </row>
   </sheetData>
   <autoFilter ref="A2:X224">
-    <filterColumn colId="2">
+    <filterColumn colId="4">
       <filters>
-        <filter val="B.B.A."/>
-        <filter val="B.Com."/>
-        <filter val="C.A."/>
-        <filter val="C.F.A."/>
-        <filter val="C.M.A."/>
-        <filter val="C.S."/>
+        <filter val="IT/AI"/>
       </filters>
     </filterColumn>
     <filterColumn colId="9" showButton="0"/>
   </autoFilter>
   <mergeCells count="37">
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="F1:S1"/>
+    <mergeCell ref="AD1:AH1"/>
+    <mergeCell ref="AD2:AD3"/>
+    <mergeCell ref="AE2:AE3"/>
+    <mergeCell ref="AF2:AF3"/>
+    <mergeCell ref="AG2:AG3"/>
+    <mergeCell ref="AH2:AH3"/>
+    <mergeCell ref="T1:X1"/>
+    <mergeCell ref="Y1:AC1"/>
+    <mergeCell ref="Y2:Y3"/>
+    <mergeCell ref="Z2:Z3"/>
+    <mergeCell ref="AA2:AA3"/>
+    <mergeCell ref="AB2:AB3"/>
+    <mergeCell ref="AC2:AC3"/>
+    <mergeCell ref="V2:V3"/>
     <mergeCell ref="W2:W3"/>
     <mergeCell ref="X2:X3"/>
     <mergeCell ref="E2:E3"/>
@@ -28421,21 +28430,12 @@
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="G2:G3"/>
-    <mergeCell ref="F1:S1"/>
-    <mergeCell ref="AD1:AH1"/>
-    <mergeCell ref="AD2:AD3"/>
-    <mergeCell ref="AE2:AE3"/>
-    <mergeCell ref="AF2:AF3"/>
-    <mergeCell ref="AG2:AG3"/>
-    <mergeCell ref="AH2:AH3"/>
-    <mergeCell ref="T1:X1"/>
-    <mergeCell ref="Y1:AC1"/>
-    <mergeCell ref="Y2:Y3"/>
-    <mergeCell ref="Z2:Z3"/>
-    <mergeCell ref="AA2:AA3"/>
-    <mergeCell ref="AB2:AB3"/>
-    <mergeCell ref="AC2:AC3"/>
-    <mergeCell ref="V2:V3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="F2:F3"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -28494,22 +28494,22 @@
       <c r="S1" s="59"/>
     </row>
     <row r="2" spans="1:22" s="2" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="58" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="58" t="s">
+      <c r="C2" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="58" t="s">
+      <c r="E2" s="40" t="s">
         <v>198</v>
       </c>
-      <c r="F2" s="40" t="s">
+      <c r="F2" s="41" t="s">
         <v>116</v>
       </c>
       <c r="G2" s="60" t="s">
@@ -28521,30 +28521,30 @@
       <c r="I2" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="43" t="s">
+      <c r="J2" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="K2" s="45"/>
-      <c r="L2" s="43" t="s">
+      <c r="K2" s="47"/>
+      <c r="L2" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="M2" s="45"/>
+      <c r="M2" s="47"/>
       <c r="N2" s="63" t="s">
         <v>32</v>
       </c>
       <c r="O2" s="63" t="s">
         <v>254</v>
       </c>
-      <c r="P2" s="46" t="s">
+      <c r="P2" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="Q2" s="46" t="s">
+      <c r="Q2" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="R2" s="47" t="s">
+      <c r="R2" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="S2" s="46" t="s">
+      <c r="S2" s="48" t="s">
         <v>28</v>
       </c>
       <c r="T2" s="2" t="s">
@@ -28558,12 +28558,12 @@
       </c>
     </row>
     <row r="3" spans="1:22" s="2" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="58"/>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="40"/>
+      <c r="A3" s="40"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="41"/>
       <c r="G3" s="61"/>
       <c r="H3" s="64"/>
       <c r="I3" s="64"/>
@@ -28581,10 +28581,10 @@
       </c>
       <c r="N3" s="64"/>
       <c r="O3" s="64"/>
-      <c r="P3" s="46"/>
-      <c r="Q3" s="46"/>
-      <c r="R3" s="47"/>
-      <c r="S3" s="46"/>
+      <c r="P3" s="48"/>
+      <c r="Q3" s="48"/>
+      <c r="R3" s="49"/>
+      <c r="S3" s="48"/>
       <c r="V3" s="62"/>
     </row>
     <row r="4" spans="1:22" ht="24" x14ac:dyDescent="0.25">
@@ -41415,11 +41415,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
     <mergeCell ref="F1:S1"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="V2:V9"/>
@@ -41434,6 +41429,11 @@
     <mergeCell ref="N2:N3"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="H2:H3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Offline/BusinessManagement/ProfitabilitySheet.xlsx
+++ b/Offline/BusinessManagement/ProfitabilitySheet.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3421" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3411" uniqueCount="306">
   <si>
     <t>Hindi</t>
   </si>
@@ -644,9 +644,6 @@
     <t>Avishek</t>
   </si>
   <si>
-    <t>Trisha</t>
-  </si>
-  <si>
     <t>Debasish Dutta</t>
   </si>
   <si>
@@ -669,9 +666,6 @@
   </si>
   <si>
     <t>? Sonali</t>
-  </si>
-  <si>
-    <t>? Trisha</t>
   </si>
   <si>
     <t>Science, Physics</t>
@@ -960,6 +954,12 @@
   </si>
   <si>
     <t>Corp Restrct, Winding Up</t>
+  </si>
+  <si>
+    <t>Atrijit</t>
+  </si>
+  <si>
+    <t>? Hema</t>
   </si>
 </sst>
 </file>
@@ -1724,11 +1724,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ407"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H4" sqref="H1:H1048576"/>
+      <selection pane="bottomRight" activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -1772,7 +1772,7 @@
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.3">
       <c r="F1" s="36" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G1" s="36"/>
       <c r="H1" s="36"/>
@@ -1831,7 +1831,7 @@
         <v>74</v>
       </c>
       <c r="G2" s="54" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="H2" s="53" t="s">
         <v>7</v>
@@ -2362,7 +2362,7 @@
         <v>132</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>192</v>
@@ -2869,9 +2869,7 @@
       <c r="E11" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>200</v>
-      </c>
+      <c r="F11" s="7"/>
       <c r="G11" s="7" t="s">
         <v>192</v>
       </c>
@@ -3377,9 +3375,7 @@
       <c r="E15" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="F15" s="7" t="s">
-        <v>200</v>
-      </c>
+      <c r="F15" s="7"/>
       <c r="G15" s="7" t="s">
         <v>192</v>
       </c>
@@ -3505,7 +3501,7 @@
         <v>133</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>192</v>
@@ -3759,7 +3755,7 @@
         <v>133</v>
       </c>
       <c r="F18" s="24" t="s">
-        <v>29</v>
+        <v>305</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>192</v>
@@ -3886,7 +3882,7 @@
         <v>133</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>192</v>
@@ -4140,7 +4136,7 @@
         <v>133</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>192</v>
@@ -4267,7 +4263,7 @@
         <v>133</v>
       </c>
       <c r="F22" s="24" t="s">
-        <v>29</v>
+        <v>216</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>192</v>
@@ -5156,7 +5152,7 @@
         <v>134</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>192</v>
@@ -5410,7 +5406,7 @@
         <v>133</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G31" s="7" t="s">
         <v>192</v>
@@ -5664,7 +5660,7 @@
         <v>133</v>
       </c>
       <c r="F33" s="24" t="s">
-        <v>29</v>
+        <v>305</v>
       </c>
       <c r="G33" s="7" t="s">
         <v>192</v>
@@ -5791,7 +5787,7 @@
         <v>133</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>192</v>
@@ -6045,7 +6041,7 @@
         <v>133</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G36" s="7" t="s">
         <v>192</v>
@@ -6172,7 +6168,7 @@
         <v>133</v>
       </c>
       <c r="F37" s="24" t="s">
-        <v>29</v>
+        <v>216</v>
       </c>
       <c r="G37" s="7" t="s">
         <v>192</v>
@@ -7061,7 +7057,7 @@
         <v>134</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G44" s="7" t="s">
         <v>192</v>
@@ -7315,7 +7311,7 @@
         <v>133</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G46" s="7" t="s">
         <v>192</v>
@@ -7569,7 +7565,7 @@
         <v>133</v>
       </c>
       <c r="F48" s="24" t="s">
-        <v>29</v>
+        <v>305</v>
       </c>
       <c r="G48" s="7" t="s">
         <v>192</v>
@@ -7823,7 +7819,7 @@
         <v>133</v>
       </c>
       <c r="F50" s="24" t="s">
-        <v>29</v>
+        <v>216</v>
       </c>
       <c r="G50" s="7" t="s">
         <v>192</v>
@@ -7950,7 +7946,7 @@
         <v>133</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G51" s="7" t="s">
         <v>192</v>
@@ -8711,9 +8707,7 @@
       <c r="E57" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="F57" s="24" t="s">
-        <v>209</v>
-      </c>
+      <c r="F57" s="24"/>
       <c r="G57" s="7" t="s">
         <v>192</v>
       </c>
@@ -8839,7 +8833,7 @@
         <v>134</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G58" s="7" t="s">
         <v>192</v>
@@ -9093,7 +9087,7 @@
         <v>133</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G60" s="7" t="s">
         <v>192</v>
@@ -9347,7 +9341,7 @@
         <v>133</v>
       </c>
       <c r="F62" s="24" t="s">
-        <v>29</v>
+        <v>305</v>
       </c>
       <c r="G62" s="7" t="s">
         <v>192</v>
@@ -9601,7 +9595,7 @@
         <v>133</v>
       </c>
       <c r="F64" s="24" t="s">
-        <v>29</v>
+        <v>216</v>
       </c>
       <c r="G64" s="7" t="s">
         <v>192</v>
@@ -9728,7 +9722,7 @@
         <v>133</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G65" s="7" t="s">
         <v>192</v>
@@ -10235,9 +10229,7 @@
       <c r="E69" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="F69" s="24" t="s">
-        <v>209</v>
-      </c>
+      <c r="F69" s="24"/>
       <c r="G69" s="7" t="s">
         <v>192</v>
       </c>
@@ -10617,7 +10609,7 @@
         <v>134</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G72" s="7" t="s">
         <v>192</v>
@@ -10871,7 +10863,7 @@
         <v>133</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G74" s="7" t="s">
         <v>192</v>
@@ -11125,7 +11117,7 @@
         <v>133</v>
       </c>
       <c r="F76" s="24" t="s">
-        <v>29</v>
+        <v>305</v>
       </c>
       <c r="G76" s="7" t="s">
         <v>192</v>
@@ -11379,7 +11371,7 @@
         <v>133</v>
       </c>
       <c r="F78" s="24" t="s">
-        <v>29</v>
+        <v>216</v>
       </c>
       <c r="G78" s="7" t="s">
         <v>192</v>
@@ -11760,7 +11752,7 @@
         <v>133</v>
       </c>
       <c r="F81" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G81" s="7" t="s">
         <v>192</v>
@@ -12013,9 +12005,7 @@
       <c r="E83" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="F83" s="24" t="s">
-        <v>209</v>
-      </c>
+      <c r="F83" s="24"/>
       <c r="G83" s="7" t="s">
         <v>192</v>
       </c>
@@ -12141,7 +12131,7 @@
         <v>134</v>
       </c>
       <c r="F84" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G84" s="7" t="s">
         <v>192</v>
@@ -12268,7 +12258,7 @@
         <v>133</v>
       </c>
       <c r="F85" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G85" s="7" t="s">
         <v>192</v>
@@ -12522,7 +12512,7 @@
         <v>133</v>
       </c>
       <c r="F87" s="24" t="s">
-        <v>29</v>
+        <v>305</v>
       </c>
       <c r="G87" s="7" t="s">
         <v>192</v>
@@ -12649,7 +12639,7 @@
         <v>133</v>
       </c>
       <c r="F88" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G88" s="7" t="s">
         <v>192</v>
@@ -12903,7 +12893,7 @@
         <v>133</v>
       </c>
       <c r="F90" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G90" s="7" t="s">
         <v>192</v>
@@ -13030,7 +13020,7 @@
         <v>133</v>
       </c>
       <c r="F91" s="24" t="s">
-        <v>29</v>
+        <v>216</v>
       </c>
       <c r="G91" s="7" t="s">
         <v>192</v>
@@ -14300,7 +14290,7 @@
         <v>134</v>
       </c>
       <c r="F101" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G101" s="7" t="s">
         <v>192</v>
@@ -14554,7 +14544,7 @@
         <v>133</v>
       </c>
       <c r="F103" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G103" s="7" t="s">
         <v>192</v>
@@ -14808,7 +14798,7 @@
         <v>133</v>
       </c>
       <c r="F105" s="24" t="s">
-        <v>29</v>
+        <v>305</v>
       </c>
       <c r="G105" s="7" t="s">
         <v>192</v>
@@ -14935,7 +14925,7 @@
         <v>133</v>
       </c>
       <c r="F106" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G106" s="7" t="s">
         <v>192</v>
@@ -15189,7 +15179,7 @@
         <v>133</v>
       </c>
       <c r="F108" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G108" s="7" t="s">
         <v>192</v>
@@ -15316,7 +15306,7 @@
         <v>133</v>
       </c>
       <c r="F109" s="24" t="s">
-        <v>29</v>
+        <v>216</v>
       </c>
       <c r="G109" s="7" t="s">
         <v>192</v>
@@ -16586,7 +16576,7 @@
         <v>134</v>
       </c>
       <c r="F119" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G119" s="7" t="s">
         <v>192</v>
@@ -16840,7 +16830,7 @@
         <v>133</v>
       </c>
       <c r="F121" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G121" s="7" t="s">
         <v>192</v>
@@ -17348,7 +17338,7 @@
         <v>133</v>
       </c>
       <c r="F125" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G125" s="7" t="s">
         <v>192</v>
@@ -17474,9 +17464,7 @@
       <c r="E126" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="F126" s="24" t="s">
-        <v>209</v>
-      </c>
+      <c r="F126" s="24"/>
       <c r="G126" s="7" t="s">
         <v>192</v>
       </c>
@@ -17983,7 +17971,7 @@
         <v>134</v>
       </c>
       <c r="F130" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G130" s="7" t="s">
         <v>192</v>
@@ -18237,7 +18225,7 @@
         <v>133</v>
       </c>
       <c r="F132" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G132" s="7" t="s">
         <v>192</v>
@@ -18745,7 +18733,7 @@
         <v>133</v>
       </c>
       <c r="F136" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G136" s="7" t="s">
         <v>192</v>
@@ -18871,9 +18859,7 @@
       <c r="E137" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="F137" s="24" t="s">
-        <v>209</v>
-      </c>
+      <c r="F137" s="24"/>
       <c r="G137" s="7" t="s">
         <v>192</v>
       </c>
@@ -19380,7 +19366,7 @@
         <v>134</v>
       </c>
       <c r="F141" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G141" s="7" t="s">
         <v>192</v>
@@ -19634,7 +19620,7 @@
         <v>133</v>
       </c>
       <c r="F143" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G143" s="7" t="s">
         <v>192</v>
@@ -19888,7 +19874,7 @@
         <v>133</v>
       </c>
       <c r="F145" s="24" t="s">
-        <v>29</v>
+        <v>305</v>
       </c>
       <c r="G145" s="7" t="s">
         <v>192</v>
@@ -20269,7 +20255,7 @@
         <v>133</v>
       </c>
       <c r="F148" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G148" s="7" t="s">
         <v>192</v>
@@ -20523,7 +20509,7 @@
         <v>133</v>
       </c>
       <c r="F150" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G150" s="7" t="s">
         <v>192</v>
@@ -20777,7 +20763,7 @@
         <v>133</v>
       </c>
       <c r="F152" s="24" t="s">
-        <v>29</v>
+        <v>305</v>
       </c>
       <c r="G152" s="7" t="s">
         <v>192</v>
@@ -20904,7 +20890,7 @@
         <v>133</v>
       </c>
       <c r="F153" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G153" s="7" t="s">
         <v>192</v>
@@ -21158,7 +21144,7 @@
         <v>133</v>
       </c>
       <c r="F155" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G155" s="7" t="s">
         <v>192</v>
@@ -21285,7 +21271,7 @@
         <v>133</v>
       </c>
       <c r="F156" s="24" t="s">
-        <v>29</v>
+        <v>216</v>
       </c>
       <c r="G156" s="7" t="s">
         <v>192</v>
@@ -21920,7 +21906,7 @@
         <v>4</v>
       </c>
       <c r="F161" s="24" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="G161" s="7" t="s">
         <v>192</v>
@@ -22301,7 +22287,7 @@
         <v>134</v>
       </c>
       <c r="F164" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G164" s="7" t="s">
         <v>192</v>
@@ -22555,7 +22541,7 @@
         <v>133</v>
       </c>
       <c r="F166" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G166" s="7" t="s">
         <v>192</v>
@@ -22809,7 +22795,7 @@
         <v>133</v>
       </c>
       <c r="F168" s="24" t="s">
-        <v>29</v>
+        <v>305</v>
       </c>
       <c r="G168" s="7" t="s">
         <v>192</v>
@@ -22936,7 +22922,7 @@
         <v>133</v>
       </c>
       <c r="F169" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G169" s="7" t="s">
         <v>192</v>
@@ -23190,7 +23176,7 @@
         <v>133</v>
       </c>
       <c r="F171" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G171" s="7" t="s">
         <v>192</v>
@@ -23317,7 +23303,7 @@
         <v>133</v>
       </c>
       <c r="F172" s="24" t="s">
-        <v>29</v>
+        <v>216</v>
       </c>
       <c r="G172" s="7" t="s">
         <v>192</v>
@@ -23952,7 +23938,7 @@
         <v>4</v>
       </c>
       <c r="F177" s="24" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="G177" s="7" t="s">
         <v>192</v>
@@ -24333,7 +24319,7 @@
         <v>134</v>
       </c>
       <c r="F180" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G180" s="7" t="s">
         <v>192</v>
@@ -24587,7 +24573,7 @@
         <v>133</v>
       </c>
       <c r="F182" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G182" s="7" t="s">
         <v>192</v>
@@ -24841,7 +24827,7 @@
         <v>133</v>
       </c>
       <c r="F184" s="24" t="s">
-        <v>29</v>
+        <v>305</v>
       </c>
       <c r="G184" s="7" t="s">
         <v>192</v>
@@ -24956,7 +24942,7 @@
         <v>CBSE - X - SST, History, Pol Science</v>
       </c>
       <c r="B185" s="6" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C185" s="3" t="s">
         <v>55</v>
@@ -24968,7 +24954,7 @@
         <v>133</v>
       </c>
       <c r="F185" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G185" s="7" t="s">
         <v>192</v>
@@ -25083,7 +25069,7 @@
         <v>CBSE - X - SST, Geography</v>
       </c>
       <c r="B186" s="6" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C186" s="3" t="s">
         <v>55</v>
@@ -25210,7 +25196,7 @@
         <v>CBSE - X - SST, Economics</v>
       </c>
       <c r="B187" s="6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C187" s="3" t="s">
         <v>55</v>
@@ -25464,7 +25450,7 @@
         <v>CBSE - X - Science, Physics</v>
       </c>
       <c r="B189" s="32" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C189" s="3" t="s">
         <v>55</v>
@@ -25591,7 +25577,7 @@
         <v>CBSE - X - Science, Chemistry</v>
       </c>
       <c r="B190" s="32" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C190" s="3" t="s">
         <v>55</v>
@@ -25718,7 +25704,7 @@
         <v>CBSE - X - Science, Biology</v>
       </c>
       <c r="B191" s="32" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C191" s="3" t="s">
         <v>55</v>
@@ -25729,9 +25715,7 @@
       <c r="E191" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="F191" s="24" t="s">
-        <v>209</v>
-      </c>
+      <c r="F191" s="24"/>
       <c r="G191" s="7" t="s">
         <v>192</v>
       </c>
@@ -25857,7 +25841,7 @@
         <v>134</v>
       </c>
       <c r="F192" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G192" s="7" t="s">
         <v>192</v>
@@ -26111,7 +26095,7 @@
         <v>133</v>
       </c>
       <c r="F194" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G194" s="7" t="s">
         <v>192</v>
@@ -26365,7 +26349,7 @@
         <v>133</v>
       </c>
       <c r="F196" s="24" t="s">
-        <v>29</v>
+        <v>305</v>
       </c>
       <c r="G196" s="7" t="s">
         <v>192</v>
@@ -26480,7 +26464,7 @@
         <v>CBSE - IX - SST, History, Pol Science</v>
       </c>
       <c r="B197" s="6" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C197" s="3" t="s">
         <v>56</v>
@@ -26492,7 +26476,7 @@
         <v>133</v>
       </c>
       <c r="F197" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G197" s="7" t="s">
         <v>192</v>
@@ -26607,7 +26591,7 @@
         <v>CBSE - IX - SST, Geography</v>
       </c>
       <c r="B198" s="6" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C198" s="3" t="s">
         <v>56</v>
@@ -26734,7 +26718,7 @@
         <v>CBSE - IX - SST, Economics</v>
       </c>
       <c r="B199" s="6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C199" s="3" t="s">
         <v>56</v>
@@ -26988,7 +26972,7 @@
         <v>CBSE - IX - Science, Physics</v>
       </c>
       <c r="B201" s="32" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C201" s="3" t="s">
         <v>56</v>
@@ -27115,7 +27099,7 @@
         <v>CBSE - IX - Science, Chemistry</v>
       </c>
       <c r="B202" s="32" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C202" s="3" t="s">
         <v>56</v>
@@ -27242,7 +27226,7 @@
         <v>CBSE - IX - Science, Biology</v>
       </c>
       <c r="B203" s="32" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C203" s="3" t="s">
         <v>56</v>
@@ -27253,9 +27237,7 @@
       <c r="E203" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="F203" s="24" t="s">
-        <v>209</v>
-      </c>
+      <c r="F203" s="24"/>
       <c r="G203" s="7" t="s">
         <v>192</v>
       </c>
@@ -27381,7 +27363,7 @@
         <v>134</v>
       </c>
       <c r="F204" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G204" s="7" t="s">
         <v>192</v>
@@ -27635,7 +27617,7 @@
         <v>133</v>
       </c>
       <c r="F206" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G206" s="7" t="s">
         <v>192</v>
@@ -27889,7 +27871,7 @@
         <v>133</v>
       </c>
       <c r="F208" s="24" t="s">
-        <v>29</v>
+        <v>305</v>
       </c>
       <c r="G208" s="7" t="s">
         <v>192</v>
@@ -28258,7 +28240,7 @@
         <v>CBSE - VIII - Science - Physics, Chem</v>
       </c>
       <c r="B211" s="32" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C211" s="3" t="s">
         <v>53</v>
@@ -28270,7 +28252,7 @@
         <v>133</v>
       </c>
       <c r="F211" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G211" s="7" t="s">
         <v>192</v>
@@ -28385,7 +28367,7 @@
         <v>CBSE - VIII - Science - Bio</v>
       </c>
       <c r="B212" s="32" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C212" s="3" t="s">
         <v>53</v>
@@ -28396,9 +28378,7 @@
       <c r="E212" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="F212" s="24" t="s">
-        <v>209</v>
-      </c>
+      <c r="F212" s="24"/>
       <c r="G212" s="7" t="s">
         <v>192</v>
       </c>
@@ -28524,7 +28504,7 @@
         <v>134</v>
       </c>
       <c r="F213" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G213" s="7" t="s">
         <v>192</v>
@@ -28642,7 +28622,7 @@
         <v>80</v>
       </c>
       <c r="C214" s="3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D214" s="3" t="s">
         <v>4</v>
@@ -28769,7 +28749,7 @@
         <v>81</v>
       </c>
       <c r="C215" s="3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D215" s="3" t="s">
         <v>4</v>
@@ -28896,7 +28876,7 @@
         <v>82</v>
       </c>
       <c r="C216" s="3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D216" s="3" t="s">
         <v>4</v>
@@ -29023,7 +29003,7 @@
         <v>95</v>
       </c>
       <c r="C217" s="3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D217" s="3" t="s">
         <v>4</v>
@@ -29150,7 +29130,7 @@
         <v>96</v>
       </c>
       <c r="C218" s="3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D218" s="3" t="s">
         <v>4</v>
@@ -29277,7 +29257,7 @@
         <v>97</v>
       </c>
       <c r="C219" s="3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D219" s="3" t="s">
         <v>4</v>
@@ -29286,7 +29266,7 @@
         <v>4</v>
       </c>
       <c r="F219" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G219" s="7" t="s">
         <v>192</v>
@@ -29404,7 +29384,7 @@
         <v>98</v>
       </c>
       <c r="C220" s="3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D220" s="3" t="s">
         <v>4</v>
@@ -29413,7 +29393,7 @@
         <v>4</v>
       </c>
       <c r="F220" s="7" t="s">
-        <v>186</v>
+        <v>304</v>
       </c>
       <c r="G220" s="7" t="s">
         <v>192</v>
@@ -29531,7 +29511,7 @@
         <v>99</v>
       </c>
       <c r="C221" s="3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D221" s="3" t="s">
         <v>4</v>
@@ -29655,10 +29635,10 @@
         <v>B.Com. (H) - Fin Rpt &amp; Stmt Anlys</v>
       </c>
       <c r="B222" s="9" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C222" s="3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D222" s="3" t="s">
         <v>4</v>
@@ -29785,7 +29765,7 @@
         <v>84</v>
       </c>
       <c r="C223" s="3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D223" s="3" t="s">
         <v>4</v>
@@ -29921,7 +29901,7 @@
         <v>4</v>
       </c>
       <c r="F224" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G224" s="7" t="s">
         <v>192</v>
@@ -30048,7 +30028,7 @@
         <v>4</v>
       </c>
       <c r="F225" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G225" s="7" t="s">
         <v>192</v>
@@ -30175,7 +30155,7 @@
         <v>4</v>
       </c>
       <c r="F226" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G226" s="7" t="s">
         <v>192</v>
@@ -30302,7 +30282,7 @@
         <v>4</v>
       </c>
       <c r="F227" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G227" s="7" t="s">
         <v>192</v>
@@ -30429,7 +30409,7 @@
         <v>4</v>
       </c>
       <c r="F228" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G228" s="7" t="s">
         <v>192</v>
@@ -30556,7 +30536,7 @@
         <v>4</v>
       </c>
       <c r="F229" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G229" s="7" t="s">
         <v>192</v>
@@ -30937,7 +30917,7 @@
         <v>4</v>
       </c>
       <c r="F232" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="G232" s="7" t="s">
         <v>192</v>
@@ -31064,7 +31044,7 @@
         <v>4</v>
       </c>
       <c r="F233" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="G233" s="7" t="s">
         <v>192</v>
@@ -31318,7 +31298,7 @@
         <v>4</v>
       </c>
       <c r="F235" s="7" t="s">
-        <v>186</v>
+        <v>216</v>
       </c>
       <c r="G235" s="7" t="s">
         <v>192</v>
@@ -31445,7 +31425,7 @@
         <v>4</v>
       </c>
       <c r="F236" s="7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G236" s="7" t="s">
         <v>192</v>
@@ -31572,7 +31552,7 @@
         <v>4</v>
       </c>
       <c r="F237" s="7" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G237" s="7" t="s">
         <v>192</v>
@@ -31699,7 +31679,7 @@
         <v>4</v>
       </c>
       <c r="F238" s="7" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G238" s="7" t="s">
         <v>192</v>
@@ -31826,7 +31806,7 @@
         <v>4</v>
       </c>
       <c r="F239" s="7" t="s">
-        <v>298</v>
+        <v>186</v>
       </c>
       <c r="G239" s="7" t="s">
         <v>192</v>
@@ -31953,7 +31933,7 @@
         <v>4</v>
       </c>
       <c r="F240" s="7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G240" s="7" t="s">
         <v>192</v>
@@ -32080,7 +32060,7 @@
         <v>4</v>
       </c>
       <c r="F241" s="7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G241" s="7" t="s">
         <v>192</v>
@@ -32588,7 +32568,7 @@
         <v>4</v>
       </c>
       <c r="F245" s="7" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G245" s="7" t="s">
         <v>192</v>
@@ -32715,7 +32695,7 @@
         <v>4</v>
       </c>
       <c r="F246" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G246" s="7" t="s">
         <v>192</v>
@@ -32842,7 +32822,7 @@
         <v>4</v>
       </c>
       <c r="F247" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G247" s="7" t="s">
         <v>192</v>
@@ -32969,7 +32949,7 @@
         <v>4</v>
       </c>
       <c r="F248" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G248" s="7" t="s">
         <v>192</v>
@@ -33096,7 +33076,7 @@
         <v>4</v>
       </c>
       <c r="F249" s="7" t="s">
-        <v>186</v>
+        <v>216</v>
       </c>
       <c r="G249" s="7" t="s">
         <v>192</v>
@@ -33223,7 +33203,7 @@
         <v>4</v>
       </c>
       <c r="F250" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G250" s="7" t="s">
         <v>192</v>
@@ -33350,7 +33330,7 @@
         <v>4</v>
       </c>
       <c r="F251" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G251" s="7" t="s">
         <v>192</v>
@@ -33477,7 +33457,7 @@
         <v>4</v>
       </c>
       <c r="F252" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="G252" s="7" t="s">
         <v>192</v>
@@ -33731,7 +33711,7 @@
         <v>4</v>
       </c>
       <c r="F254" s="7" t="s">
-        <v>186</v>
+        <v>216</v>
       </c>
       <c r="G254" s="7" t="s">
         <v>192</v>
@@ -33858,7 +33838,7 @@
         <v>4</v>
       </c>
       <c r="F255" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G255" s="7" t="s">
         <v>192</v>
@@ -33985,7 +33965,7 @@
         <v>4</v>
       </c>
       <c r="F256" s="7" t="s">
-        <v>186</v>
+        <v>296</v>
       </c>
       <c r="G256" s="7" t="s">
         <v>192</v>
@@ -34239,7 +34219,7 @@
         <v>4</v>
       </c>
       <c r="F258" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G258" s="7" t="s">
         <v>192</v>
@@ -34366,7 +34346,7 @@
         <v>4</v>
       </c>
       <c r="F259" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G259" s="7" t="s">
         <v>192</v>
@@ -34620,7 +34600,7 @@
         <v>4</v>
       </c>
       <c r="F261" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G261" s="7" t="s">
         <v>192</v>
@@ -34747,7 +34727,7 @@
         <v>4</v>
       </c>
       <c r="F262" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G262" s="7" t="s">
         <v>192</v>
@@ -35255,7 +35235,7 @@
         <v>4</v>
       </c>
       <c r="F266" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G266" s="7" t="s">
         <v>192</v>
@@ -35382,7 +35362,7 @@
         <v>4</v>
       </c>
       <c r="F267" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G267" s="7" t="s">
         <v>192</v>
@@ -35509,7 +35489,7 @@
         <v>4</v>
       </c>
       <c r="F268" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G268" s="7" t="s">
         <v>192</v>
@@ -35751,10 +35731,10 @@
         <v>C.A. - Found - Accountancy</v>
       </c>
       <c r="B270" s="9" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C270" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D270" s="3" t="s">
         <v>171</v>
@@ -35763,7 +35743,7 @@
         <v>4</v>
       </c>
       <c r="F270" s="24" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G270" s="7" t="s">
         <v>192</v>
@@ -35878,10 +35858,10 @@
         <v>C.A. - Found - Biz laws &amp; Corspndnce</v>
       </c>
       <c r="B271" s="9" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C271" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D271" s="3" t="s">
         <v>171</v>
@@ -35890,7 +35870,7 @@
         <v>4</v>
       </c>
       <c r="F271" s="24" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G271" s="7" t="s">
         <v>192</v>
@@ -35945,10 +35925,10 @@
         <v>C.A. - Found - Biz Math &amp; Stat</v>
       </c>
       <c r="B272" s="9" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C272" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D272" s="3" t="s">
         <v>171</v>
@@ -35957,7 +35937,7 @@
         <v>4</v>
       </c>
       <c r="F272" s="24" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="G272" s="7" t="s">
         <v>192</v>
@@ -36012,10 +35992,10 @@
         <v>C.A. - Found - Eco &amp; Comm Knowledge</v>
       </c>
       <c r="B273" s="9" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C273" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D273" s="3" t="s">
         <v>171</v>
@@ -36024,7 +36004,7 @@
         <v>4</v>
       </c>
       <c r="F273" s="24" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G273" s="7" t="s">
         <v>192</v>
@@ -36079,10 +36059,10 @@
         <v>C.A. - Inter - Accountancy</v>
       </c>
       <c r="B274" s="30" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C274" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D274" s="3" t="s">
         <v>171</v>
@@ -36091,7 +36071,7 @@
         <v>4</v>
       </c>
       <c r="F274" s="24" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G274" s="7" t="s">
         <v>192</v>
@@ -36206,10 +36186,10 @@
         <v>C.A. - Inter - Corp &amp; other Laws</v>
       </c>
       <c r="B275" s="30" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C275" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D275" s="3" t="s">
         <v>171</v>
@@ -36218,7 +36198,7 @@
         <v>4</v>
       </c>
       <c r="F275" s="24" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G275" s="7" t="s">
         <v>192</v>
@@ -36263,10 +36243,10 @@
         <v>C.A. - Inter - Cost &amp; Mgmt Ac</v>
       </c>
       <c r="B276" s="30" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C276" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D276" s="3" t="s">
         <v>171</v>
@@ -36275,7 +36255,7 @@
         <v>4</v>
       </c>
       <c r="F276" s="24" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G276" s="7" t="s">
         <v>192</v>
@@ -36320,10 +36300,10 @@
         <v>C.A. - Inter - Tax</v>
       </c>
       <c r="B277" s="30" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C277" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D277" s="3" t="s">
         <v>171</v>
@@ -36332,7 +36312,7 @@
         <v>4</v>
       </c>
       <c r="F277" s="24" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G277" s="7" t="s">
         <v>192</v>
@@ -36377,10 +36357,10 @@
         <v>C.A. - Inter - Audit</v>
       </c>
       <c r="B278" s="30" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C278" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D278" s="3" t="s">
         <v>171</v>
@@ -36389,7 +36369,7 @@
         <v>4</v>
       </c>
       <c r="F278" s="24" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G278" s="7" t="s">
         <v>192</v>
@@ -36434,10 +36414,10 @@
         <v>C.A. - Inter - Adv Ac</v>
       </c>
       <c r="B279" s="30" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C279" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D279" s="3" t="s">
         <v>171</v>
@@ -36446,7 +36426,7 @@
         <v>4</v>
       </c>
       <c r="F279" s="24" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G279" s="7" t="s">
         <v>192</v>
@@ -36491,10 +36471,10 @@
         <v>C.A. - Inter - EIS &amp; Strategic Mgmt</v>
       </c>
       <c r="B280" s="30" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C280" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D280" s="3" t="s">
         <v>171</v>
@@ -36503,7 +36483,7 @@
         <v>4</v>
       </c>
       <c r="F280" s="24" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="G280" s="7" t="s">
         <v>192</v>
@@ -36548,10 +36528,10 @@
         <v>C.A. - Inter - Fin Mgmt &amp; Eco</v>
       </c>
       <c r="B281" s="30" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C281" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D281" s="3" t="s">
         <v>171</v>
@@ -36560,7 +36540,7 @@
         <v>4</v>
       </c>
       <c r="F281" s="24" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G281" s="7" t="s">
         <v>192</v>
@@ -36605,7 +36585,7 @@
         <v>C.A. - Final - Fin Reporting</v>
       </c>
       <c r="B282" s="9" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C282" s="3" t="s">
         <v>170</v>
@@ -36617,7 +36597,7 @@
         <v>4</v>
       </c>
       <c r="F282" s="24" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G282" s="7" t="s">
         <v>192</v>
@@ -36732,7 +36712,7 @@
         <v>C.A. - Final - Strategic Fin Management</v>
       </c>
       <c r="B283" s="9" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C283" s="3" t="s">
         <v>170</v>
@@ -36744,7 +36724,7 @@
         <v>4</v>
       </c>
       <c r="F283" s="24" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G283" s="7" t="s">
         <v>192</v>
@@ -36789,7 +36769,7 @@
         <v>C.A. - Final - Audit &amp; Ethics</v>
       </c>
       <c r="B284" s="9" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C284" s="3" t="s">
         <v>170</v>
@@ -36801,7 +36781,7 @@
         <v>4</v>
       </c>
       <c r="F284" s="24" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G284" s="7" t="s">
         <v>192</v>
@@ -36846,7 +36826,7 @@
         <v>C.A. - Final - Corporate &amp; Eco Laws</v>
       </c>
       <c r="B285" s="9" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C285" s="3" t="s">
         <v>170</v>
@@ -36858,7 +36838,7 @@
         <v>4</v>
       </c>
       <c r="F285" s="24" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G285" s="7" t="s">
         <v>192</v>
@@ -36903,7 +36883,7 @@
         <v>C.A. - Final - Strategic Cost &amp; Perf Eval</v>
       </c>
       <c r="B286" s="9" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C286" s="3" t="s">
         <v>170</v>
@@ -36915,7 +36895,7 @@
         <v>4</v>
       </c>
       <c r="F286" s="24" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G286" s="7" t="s">
         <v>192</v>
@@ -36960,7 +36940,7 @@
         <v>C.A. - Final - Risk, Cptl Mkt, Glbl FinRpt</v>
       </c>
       <c r="B287" s="9" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C287" s="3" t="s">
         <v>170</v>
@@ -37017,7 +36997,7 @@
         <v>C.A. - Final - Direct Tax &amp; Intrtnl Tax</v>
       </c>
       <c r="B288" s="9" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C288" s="3" t="s">
         <v>170</v>
@@ -37029,7 +37009,7 @@
         <v>4</v>
       </c>
       <c r="F288" s="24" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G288" s="7" t="s">
         <v>192</v>
@@ -37074,7 +37054,7 @@
         <v>C.A. - Final - Indirect Tax laws</v>
       </c>
       <c r="B289" s="9" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C289" s="3" t="s">
         <v>170</v>
@@ -37086,7 +37066,7 @@
         <v>4</v>
       </c>
       <c r="F289" s="24" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G289" s="7" t="s">
         <v>192</v>
@@ -37131,10 +37111,10 @@
         <v>C.M.A. - Found - Bizz laws &amp; comm</v>
       </c>
       <c r="B290" s="30" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C290" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D290" s="3" t="s">
         <v>172</v>
@@ -37258,10 +37238,10 @@
         <v>C.M.A. - Found - Fin &amp; Cost Ac</v>
       </c>
       <c r="B291" s="30" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C291" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D291" s="3" t="s">
         <v>172</v>
@@ -37313,10 +37293,10 @@
         <v>C.M.A. - Found - Bizz math &amp; Stat</v>
       </c>
       <c r="B292" s="30" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C292" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D292" s="3" t="s">
         <v>172</v>
@@ -37368,10 +37348,10 @@
         <v>C.M.A. - Found - Bizz Eco &amp; Math</v>
       </c>
       <c r="B293" s="30" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C293" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D293" s="3" t="s">
         <v>172</v>
@@ -37423,10 +37403,10 @@
         <v>C.M.A. - Inter - Biz Law &amp; Ethics</v>
       </c>
       <c r="B294" s="9" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C294" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D294" s="3" t="s">
         <v>172</v>
@@ -37550,10 +37530,10 @@
         <v>C.M.A. - Inter - Fin Ac</v>
       </c>
       <c r="B295" s="9" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C295" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D295" s="3" t="s">
         <v>172</v>
@@ -37605,10 +37585,10 @@
         <v>C.M.A. - Inter - Direct Indirect Tax</v>
       </c>
       <c r="B296" s="9" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C296" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D296" s="3" t="s">
         <v>172</v>
@@ -37660,10 +37640,10 @@
         <v>C.M.A. - Inter - Cost AC</v>
       </c>
       <c r="B297" s="9" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C297" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D297" s="3" t="s">
         <v>172</v>
@@ -37715,10 +37695,10 @@
         <v>C.M.A. - Inter - Ops &amp; Mgmt Strategic</v>
       </c>
       <c r="B298" s="9" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C298" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D298" s="3" t="s">
         <v>172</v>
@@ -37770,10 +37750,10 @@
         <v>C.M.A. - Inter - Corporate AC &amp; Auditing</v>
       </c>
       <c r="B299" s="9" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C299" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D299" s="3" t="s">
         <v>172</v>
@@ -37825,10 +37805,10 @@
         <v>C.M.A. - Inter - Fin Mgmt &amp; Data Anltcs</v>
       </c>
       <c r="B300" s="9" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C300" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D300" s="3" t="s">
         <v>172</v>
@@ -37880,10 +37860,10 @@
         <v>C.M.A. - Inter - Mgmt AC</v>
       </c>
       <c r="B301" s="9" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C301" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D301" s="3" t="s">
         <v>172</v>
@@ -37935,7 +37915,7 @@
         <v>C.M.A. - Final - Corporate &amp; Eco Laws</v>
       </c>
       <c r="B302" s="30" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C302" s="3" t="s">
         <v>170</v>
@@ -38062,7 +38042,7 @@
         <v>C.M.A. - Final - Strategic Fin Mgmt</v>
       </c>
       <c r="B303" s="30" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C303" s="3" t="s">
         <v>170</v>
@@ -38117,7 +38097,7 @@
         <v>C.M.A. - Final - Direct &amp; Intrntnl Tax</v>
       </c>
       <c r="B304" s="30" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C304" s="3" t="s">
         <v>170</v>
@@ -38172,7 +38152,7 @@
         <v>C.M.A. - Final - Strategic Cost Mgmt</v>
       </c>
       <c r="B305" s="30" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C305" s="3" t="s">
         <v>170</v>
@@ -38227,7 +38207,7 @@
         <v>C.M.A. - Final - Cost &amp; Mgmt Audit</v>
       </c>
       <c r="B306" s="30" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C306" s="3" t="s">
         <v>170</v>
@@ -38282,7 +38262,7 @@
         <v>C.M.A. - Final - Corporate Fin Reporting</v>
       </c>
       <c r="B307" s="30" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C307" s="3" t="s">
         <v>170</v>
@@ -38337,7 +38317,7 @@
         <v>C.M.A. - Final - Indirect Tax</v>
       </c>
       <c r="B308" s="30" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C308" s="3" t="s">
         <v>170</v>
@@ -38392,7 +38372,7 @@
         <v>C.M.A. - Final - Strtgc Perf Mgmt &amp; Eval</v>
       </c>
       <c r="B309" s="30" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C309" s="3" t="s">
         <v>170</v>
@@ -38447,10 +38427,10 @@
         <v>C.S. - Found - Biz Env &amp; Law</v>
       </c>
       <c r="B310" s="9" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C310" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D310" s="3" t="s">
         <v>173</v>
@@ -38574,10 +38554,10 @@
         <v>C.S. - Found - Biz Mgmt, Ethics, Entpnsp</v>
       </c>
       <c r="B311" s="9" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C311" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D311" s="3" t="s">
         <v>173</v>
@@ -38625,10 +38605,10 @@
         <v>C.S. - Found - Biz Eco</v>
       </c>
       <c r="B312" s="9" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C312" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D312" s="3" t="s">
         <v>173</v>
@@ -38676,10 +38656,10 @@
         <v>C.S. - Found - Ac &amp; Audit</v>
       </c>
       <c r="B313" s="9" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C313" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D313" s="3" t="s">
         <v>173</v>
@@ -38727,10 +38707,10 @@
         <v>C.S. - Inter - General Law</v>
       </c>
       <c r="B314" s="30" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C314" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D314" s="3" t="s">
         <v>173</v>
@@ -38857,7 +38837,7 @@
         <v>91</v>
       </c>
       <c r="C315" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D315" s="3" t="s">
         <v>173</v>
@@ -38905,10 +38885,10 @@
         <v>C.S. - Inter - Set up of Biz &amp; Closure</v>
       </c>
       <c r="B316" s="30" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C316" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D316" s="3" t="s">
         <v>173</v>
@@ -38956,10 +38936,10 @@
         <v>C.S. - Inter - Tax Law</v>
       </c>
       <c r="B317" s="30" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C317" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D317" s="3" t="s">
         <v>173</v>
@@ -39007,10 +38987,10 @@
         <v>C.S. - Inter - Corporate &amp; Mgmt AC</v>
       </c>
       <c r="B318" s="30" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C318" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D318" s="3" t="s">
         <v>173</v>
@@ -39058,10 +39038,10 @@
         <v>C.S. - Inter - Securities Law &amp; Cptl Mkt</v>
       </c>
       <c r="B319" s="30" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C319" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D319" s="3" t="s">
         <v>173</v>
@@ -39109,10 +39089,10 @@
         <v>C.S. - Inter - Eco, Biz &amp; Comm Law</v>
       </c>
       <c r="B320" s="30" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C320" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D320" s="3" t="s">
         <v>173</v>
@@ -39160,10 +39140,10 @@
         <v>C.S. - Inter - Financial &amp; Strategic Mgmt</v>
       </c>
       <c r="B321" s="30" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C321" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D321" s="3" t="s">
         <v>173</v>
@@ -39211,7 +39191,7 @@
         <v>C.S. - Final - Govrnc, Risk Mgmt, Ethics</v>
       </c>
       <c r="B322" s="9" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C322" s="3" t="s">
         <v>170</v>
@@ -39338,7 +39318,7 @@
         <v>C.S. - Final - Adv Tax laws</v>
       </c>
       <c r="B323" s="9" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C323" s="3" t="s">
         <v>170</v>
@@ -39389,7 +39369,7 @@
         <v>C.S. - Final - Draft, Pleed &amp; Apprncs</v>
       </c>
       <c r="B324" s="9" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C324" s="3" t="s">
         <v>170</v>
@@ -39440,7 +39420,7 @@
         <v>C.S. - Final - Secretl Audit, Due Delgnc</v>
       </c>
       <c r="B325" s="9" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C325" s="3" t="s">
         <v>170</v>
@@ -39491,7 +39471,7 @@
         <v>C.S. - Final - Corp Restrct, Winding Up</v>
       </c>
       <c r="B326" s="9" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C326" s="3" t="s">
         <v>170</v>
@@ -39542,7 +39522,7 @@
         <v>C.S. - Final - Resln of Corp Disputes</v>
       </c>
       <c r="B327" s="9" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C327" s="3" t="s">
         <v>170</v>
@@ -39593,7 +39573,7 @@
         <v>C.S. - Final - Corp Fund &amp; Stock Listing</v>
       </c>
       <c r="B328" s="9" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C328" s="3" t="s">
         <v>170</v>
@@ -39644,7 +39624,7 @@
         <v>C.S. - Final - Multi Discp Case Studies</v>
       </c>
       <c r="B329" s="9" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C329" s="3" t="s">
         <v>170</v>
@@ -39695,7 +39675,7 @@
         <v>C.S. - Final - Intellectual Prpt Rights</v>
       </c>
       <c r="B330" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C330" s="3" t="s">
         <v>170</v>
@@ -39746,10 +39726,10 @@
         <v>C.F.A. - L-1 - Ethical &amp; Prof Standards</v>
       </c>
       <c r="B331" s="30" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C331" s="3" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D331" s="3" t="s">
         <v>174</v>
@@ -39873,10 +39853,10 @@
         <v>C.F.A. - L-1 - Quantitive Methods</v>
       </c>
       <c r="B332" s="30" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C332" s="3" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D332" s="3" t="s">
         <v>174</v>
@@ -39927,7 +39907,7 @@
         <v>31</v>
       </c>
       <c r="C333" s="3" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D333" s="3" t="s">
         <v>174</v>
@@ -39975,10 +39955,10 @@
         <v>C.F.A. - L-1 - Fin Statement Analysis</v>
       </c>
       <c r="B334" s="30" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C334" s="3" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D334" s="3" t="s">
         <v>174</v>
@@ -40026,10 +40006,10 @@
         <v>C.F.A. - L-1 - Corporate Issuers</v>
       </c>
       <c r="B335" s="30" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C335" s="3" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D335" s="3" t="s">
         <v>174</v>
@@ -40077,10 +40057,10 @@
         <v>C.F.A. - L-1 - Equity Investments</v>
       </c>
       <c r="B336" s="30" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C336" s="3" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D336" s="3" t="s">
         <v>174</v>
@@ -40128,10 +40108,10 @@
         <v>C.F.A. - L-1 - Fixed Income</v>
       </c>
       <c r="B337" s="30" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C337" s="3" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D337" s="3" t="s">
         <v>174</v>
@@ -40179,10 +40159,10 @@
         <v>C.F.A. - L-1 - Derivatives</v>
       </c>
       <c r="B338" s="30" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C338" s="3" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D338" s="3" t="s">
         <v>174</v>
@@ -40230,10 +40210,10 @@
         <v>C.F.A. - L-1 - Alternative Investments</v>
       </c>
       <c r="B339" s="30" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C339" s="3" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D339" s="3" t="s">
         <v>174</v>
@@ -40281,10 +40261,10 @@
         <v>C.F.A. - L-1 - Portrfolio Mgmt &amp; Wealth</v>
       </c>
       <c r="B340" s="30" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C340" s="3" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D340" s="3" t="s">
         <v>174</v>
@@ -40332,10 +40312,10 @@
         <v>C.F.A. - L-2 - Ethical &amp; Prof Standards</v>
       </c>
       <c r="B341" s="9" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C341" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D341" s="3" t="s">
         <v>174</v>
@@ -40459,10 +40439,10 @@
         <v>C.F.A. - L-2 - Quantitive Methods</v>
       </c>
       <c r="B342" s="9" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C342" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D342" s="3" t="s">
         <v>174</v>
@@ -40513,7 +40493,7 @@
         <v>31</v>
       </c>
       <c r="C343" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D343" s="3" t="s">
         <v>174</v>
@@ -40561,10 +40541,10 @@
         <v>C.F.A. - L-2 - Fin Statement Analysis</v>
       </c>
       <c r="B344" s="9" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C344" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D344" s="3" t="s">
         <v>174</v>
@@ -40612,10 +40592,10 @@
         <v>C.F.A. - L-2 - Corporate Issuers</v>
       </c>
       <c r="B345" s="9" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C345" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D345" s="3" t="s">
         <v>174</v>
@@ -40663,10 +40643,10 @@
         <v>C.F.A. - L-2 - Equity Investments</v>
       </c>
       <c r="B346" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C346" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D346" s="3" t="s">
         <v>174</v>
@@ -40714,10 +40694,10 @@
         <v>C.F.A. - L-2 - Fixed Income</v>
       </c>
       <c r="B347" s="9" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C347" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D347" s="3" t="s">
         <v>174</v>
@@ -40765,10 +40745,10 @@
         <v>C.F.A. - L-2 - Derivatives</v>
       </c>
       <c r="B348" s="9" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C348" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D348" s="3" t="s">
         <v>174</v>
@@ -40816,10 +40796,10 @@
         <v>C.F.A. - L-2 - Alternative Investments</v>
       </c>
       <c r="B349" s="9" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C349" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D349" s="3" t="s">
         <v>174</v>
@@ -40867,10 +40847,10 @@
         <v>C.F.A. - L-2 - Portrfolio Mgmt-Wealth</v>
       </c>
       <c r="B350" s="9" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C350" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D350" s="3" t="s">
         <v>174</v>
@@ -40918,10 +40898,10 @@
         <v>C.F.A. - L-3 - Ethical &amp; Prof Standards</v>
       </c>
       <c r="B351" s="30" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C351" s="3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D351" s="3" t="s">
         <v>174</v>
@@ -41045,10 +41025,10 @@
         <v>C.F.A. - L-3 - Quantitive Methods</v>
       </c>
       <c r="B352" s="30" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C352" s="3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D352" s="3" t="s">
         <v>174</v>
@@ -41099,7 +41079,7 @@
         <v>31</v>
       </c>
       <c r="C353" s="3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D353" s="3" t="s">
         <v>174</v>
@@ -41147,10 +41127,10 @@
         <v>C.F.A. - L-3 - Fin Statement Analysis</v>
       </c>
       <c r="B354" s="30" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C354" s="3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D354" s="3" t="s">
         <v>174</v>
@@ -41198,10 +41178,10 @@
         <v>C.F.A. - L-3 - Corporate Issuers</v>
       </c>
       <c r="B355" s="30" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C355" s="3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D355" s="3" t="s">
         <v>174</v>
@@ -41249,10 +41229,10 @@
         <v>C.F.A. - L-3 - Equity Investments</v>
       </c>
       <c r="B356" s="30" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C356" s="3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D356" s="3" t="s">
         <v>174</v>
@@ -41300,10 +41280,10 @@
         <v>C.F.A. - L-3 - Fixed Income</v>
       </c>
       <c r="B357" s="30" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C357" s="3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D357" s="3" t="s">
         <v>174</v>
@@ -41351,10 +41331,10 @@
         <v>C.F.A. - L-3 - Derivatives</v>
       </c>
       <c r="B358" s="30" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C358" s="3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D358" s="3" t="s">
         <v>174</v>
@@ -41402,10 +41382,10 @@
         <v>C.F.A. - L-3 - Alternative Investments</v>
       </c>
       <c r="B359" s="30" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C359" s="3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D359" s="3" t="s">
         <v>174</v>
@@ -41453,10 +41433,10 @@
         <v>C.F.A. - L-3 - Portrfolio Mgmt-Wealth</v>
       </c>
       <c r="B360" s="30" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C360" s="3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D360" s="3" t="s">
         <v>174</v>
@@ -41516,7 +41496,7 @@
         <v>138</v>
       </c>
       <c r="F361" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G361" s="7" t="s">
         <v>192</v>
@@ -41645,7 +41625,7 @@
         <v>138</v>
       </c>
       <c r="F362" s="7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G362" s="7" t="s">
         <v>192</v>
@@ -41774,7 +41754,7 @@
         <v>138</v>
       </c>
       <c r="F363" s="7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G363" s="7" t="s">
         <v>192</v>
@@ -41903,7 +41883,7 @@
         <v>138</v>
       </c>
       <c r="F364" s="7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G364" s="7" t="s">
         <v>192</v>
@@ -42032,7 +42012,7 @@
         <v>138</v>
       </c>
       <c r="F365" s="7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G365" s="7" t="s">
         <v>192</v>
@@ -42161,7 +42141,7 @@
         <v>138</v>
       </c>
       <c r="F366" s="7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G366" s="7" t="s">
         <v>192</v>
@@ -42290,7 +42270,7 @@
         <v>138</v>
       </c>
       <c r="F367" s="24" t="s">
-        <v>29</v>
+        <v>216</v>
       </c>
       <c r="G367" s="7" t="s">
         <v>192</v>
@@ -42661,7 +42641,7 @@
     </row>
     <row r="370" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A370" s="13" t="str">
-        <f t="shared" ref="A370:A397" si="524">B370</f>
+        <f t="shared" ref="A370:A396" si="524">B370</f>
         <v>MS Office</v>
       </c>
       <c r="B370" s="8" t="s">
@@ -42692,7 +42672,7 @@
         <v>1</v>
       </c>
       <c r="K370" s="7" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="L370" s="7">
         <v>1</v>
@@ -42935,7 +42915,7 @@
         <v>134</v>
       </c>
       <c r="F372" s="7" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="G372" s="7" t="s">
         <v>192</v>
@@ -43064,7 +43044,7 @@
         <v>134</v>
       </c>
       <c r="F373" s="7" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="G373" s="7" t="s">
         <v>192</v>
@@ -43193,7 +43173,7 @@
         <v>134</v>
       </c>
       <c r="F374" s="7" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="G374" s="7" t="s">
         <v>192</v>
@@ -43322,7 +43302,7 @@
         <v>134</v>
       </c>
       <c r="F375" s="7" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="G375" s="7" t="s">
         <v>192</v>
@@ -43451,7 +43431,7 @@
         <v>134</v>
       </c>
       <c r="F376" s="7" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="G376" s="7" t="s">
         <v>192</v>
@@ -43580,7 +43560,7 @@
         <v>134</v>
       </c>
       <c r="F377" s="7" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="G377" s="7" t="s">
         <v>192</v>
@@ -43709,7 +43689,7 @@
         <v>134</v>
       </c>
       <c r="F378" s="7" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="G378" s="7" t="s">
         <v>192</v>
@@ -43967,7 +43947,7 @@
         <v>134</v>
       </c>
       <c r="F380" s="7" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="G380" s="7" t="s">
         <v>192</v>
@@ -44096,7 +44076,7 @@
         <v>134</v>
       </c>
       <c r="F381" s="7" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="G381" s="7" t="s">
         <v>192</v>
@@ -44225,7 +44205,7 @@
         <v>134</v>
       </c>
       <c r="F382" s="7" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G382" s="7" t="s">
         <v>192</v>
@@ -44354,7 +44334,7 @@
         <v>134</v>
       </c>
       <c r="F383" s="7" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="G383" s="7" t="s">
         <v>192</v>
@@ -45374,7 +45354,7 @@
         <v>Test Automtn Selenium</v>
       </c>
       <c r="B391" s="8" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C391" s="3" t="s">
         <v>71</v>
@@ -45514,7 +45494,7 @@
         <v>134</v>
       </c>
       <c r="F392" s="7" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="G392" s="7" t="s">
         <v>192</v>
@@ -45642,7 +45622,7 @@
         <v>134</v>
       </c>
       <c r="F393" s="7" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="G393" s="7" t="s">
         <v>192</v>
@@ -45768,7 +45748,7 @@
         <v>134</v>
       </c>
       <c r="F394" s="7" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="G394" s="7" t="s">
         <v>192</v>
@@ -45894,7 +45874,7 @@
         <v>134</v>
       </c>
       <c r="F395" s="7" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="G395" s="7" t="s">
         <v>192</v>
@@ -46138,7 +46118,7 @@
         <v>Advanced Comme Pkg</v>
       </c>
       <c r="B397" s="8" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C397" s="3" t="s">
         <v>71</v>
@@ -46279,7 +46259,7 @@
         <v>134</v>
       </c>
       <c r="F398" s="7" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G398" s="7" t="s">
         <v>192</v>
@@ -47170,7 +47150,7 @@
         <v>AI - Comp Vision (CNN)</v>
       </c>
       <c r="B405" s="8" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C405" s="3" t="s">
         <v>71</v>

--- a/Offline/BusinessManagement/ProfitabilitySheet.xlsx
+++ b/Offline/BusinessManagement/ProfitabilitySheet.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3367" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3322" uniqueCount="302">
   <si>
     <t>Hindi</t>
   </si>
@@ -659,12 +659,6 @@
     <t>? Anupam</t>
   </si>
   <si>
-    <t>? Arijit</t>
-  </si>
-  <si>
-    <t>? Sonali</t>
-  </si>
-  <si>
     <t>Science, Physics</t>
   </si>
   <si>
@@ -942,9 +936,6 @@
   </si>
   <si>
     <t>Corp Restrct, Winding Up</t>
-  </si>
-  <si>
-    <t>Atrijit</t>
   </si>
   <si>
     <t>? Hema</t>
@@ -1377,6 +1368,18 @@
     <xf numFmtId="0" fontId="7" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1425,19 +1428,7 @@
     <xf numFmtId="43" fontId="7" fillId="13" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1728,14 +1719,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:AJ403"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G6" sqref="G6"/>
+      <selection pane="bottomRight" activeCell="I410" sqref="I410"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -1778,162 +1768,162 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="F1" s="36" t="s">
-        <v>290</v>
-      </c>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36"/>
-      <c r="T1" s="36"/>
-      <c r="U1" s="37"/>
-      <c r="V1" s="43" t="s">
+      <c r="F1" s="40" t="s">
+        <v>288</v>
+      </c>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40"/>
+      <c r="S1" s="40"/>
+      <c r="T1" s="40"/>
+      <c r="U1" s="41"/>
+      <c r="V1" s="47" t="s">
         <v>176</v>
       </c>
-      <c r="W1" s="44"/>
-      <c r="X1" s="44"/>
-      <c r="Y1" s="44"/>
-      <c r="Z1" s="45"/>
-      <c r="AA1" s="46" t="s">
+      <c r="W1" s="48"/>
+      <c r="X1" s="48"/>
+      <c r="Y1" s="48"/>
+      <c r="Z1" s="49"/>
+      <c r="AA1" s="50" t="s">
         <v>177</v>
       </c>
-      <c r="AB1" s="47"/>
-      <c r="AC1" s="47"/>
-      <c r="AD1" s="47"/>
-      <c r="AE1" s="48"/>
-      <c r="AF1" s="38" t="s">
+      <c r="AB1" s="51"/>
+      <c r="AC1" s="51"/>
+      <c r="AD1" s="51"/>
+      <c r="AE1" s="52"/>
+      <c r="AF1" s="42" t="s">
         <v>175</v>
       </c>
-      <c r="AG1" s="39"/>
-      <c r="AH1" s="39"/>
-      <c r="AI1" s="39"/>
-      <c r="AJ1" s="40"/>
+      <c r="AG1" s="43"/>
+      <c r="AH1" s="43"/>
+      <c r="AI1" s="43"/>
+      <c r="AJ1" s="44"/>
     </row>
     <row r="2" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="53" t="s">
+      <c r="C2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="53" t="s">
+      <c r="D2" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="53" t="s">
+      <c r="E2" s="37" t="s">
         <v>130</v>
       </c>
-      <c r="F2" s="54" t="s">
+      <c r="F2" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="G2" s="54" t="s">
-        <v>288</v>
-      </c>
-      <c r="H2" s="53" t="s">
+      <c r="G2" s="38" t="s">
+        <v>286</v>
+      </c>
+      <c r="H2" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="53" t="s">
+      <c r="I2" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="53" t="s">
+      <c r="J2" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53" t="s">
+      <c r="K2" s="37"/>
+      <c r="L2" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="M2" s="53"/>
-      <c r="N2" s="53" t="s">
+      <c r="M2" s="37"/>
+      <c r="N2" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="53" t="s">
+      <c r="O2" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="P2" s="53" t="s">
+      <c r="P2" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="Q2" s="53" t="s">
+      <c r="Q2" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="R2" s="53" t="s">
+      <c r="R2" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="S2" s="53" t="s">
+      <c r="S2" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="T2" s="53" t="s">
+      <c r="T2" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="U2" s="53" t="s">
+      <c r="U2" s="37" t="s">
         <v>174</v>
       </c>
-      <c r="V2" s="52" t="s">
+      <c r="V2" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="W2" s="52" t="s">
+      <c r="W2" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="X2" s="51" t="s">
+      <c r="X2" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="Y2" s="52" t="s">
+      <c r="Y2" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="Z2" s="52" t="s">
+      <c r="Z2" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="AA2" s="49" t="s">
+      <c r="AA2" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="AB2" s="49" t="s">
+      <c r="AB2" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="AC2" s="50" t="s">
+      <c r="AC2" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="AD2" s="49" t="s">
+      <c r="AD2" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="AE2" s="49" t="s">
+      <c r="AE2" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="AF2" s="41" t="s">
+      <c r="AF2" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="AG2" s="41" t="s">
+      <c r="AG2" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="AH2" s="42" t="s">
+      <c r="AH2" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="AI2" s="41" t="s">
+      <c r="AI2" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="AJ2" s="41" t="s">
+      <c r="AJ2" s="45" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:36" s="2" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="53"/>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
+      <c r="A3" s="37"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
       <c r="J3" s="11" t="s">
         <v>21</v>
       </c>
@@ -1946,31 +1936,31 @@
       <c r="M3" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="N3" s="53"/>
-      <c r="O3" s="53"/>
-      <c r="P3" s="53"/>
-      <c r="Q3" s="53"/>
-      <c r="R3" s="53"/>
-      <c r="S3" s="53"/>
-      <c r="T3" s="53"/>
-      <c r="U3" s="53"/>
-      <c r="V3" s="52"/>
-      <c r="W3" s="52"/>
-      <c r="X3" s="51"/>
-      <c r="Y3" s="52"/>
-      <c r="Z3" s="52"/>
-      <c r="AA3" s="49"/>
-      <c r="AB3" s="49"/>
-      <c r="AC3" s="50"/>
-      <c r="AD3" s="49"/>
-      <c r="AE3" s="49"/>
-      <c r="AF3" s="41"/>
-      <c r="AG3" s="41"/>
-      <c r="AH3" s="42"/>
-      <c r="AI3" s="41"/>
-      <c r="AJ3" s="41"/>
-    </row>
-    <row r="4" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="37"/>
+      <c r="R3" s="37"/>
+      <c r="S3" s="37"/>
+      <c r="T3" s="37"/>
+      <c r="U3" s="37"/>
+      <c r="V3" s="39"/>
+      <c r="W3" s="39"/>
+      <c r="X3" s="55"/>
+      <c r="Y3" s="39"/>
+      <c r="Z3" s="39"/>
+      <c r="AA3" s="53"/>
+      <c r="AB3" s="53"/>
+      <c r="AC3" s="54"/>
+      <c r="AD3" s="53"/>
+      <c r="AE3" s="53"/>
+      <c r="AF3" s="45"/>
+      <c r="AG3" s="45"/>
+      <c r="AH3" s="46"/>
+      <c r="AI3" s="45"/>
+      <c r="AJ3" s="45"/>
+    </row>
+    <row r="4" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="str">
         <f>"NEET &amp; IIT Crash Course "&amp;" " &amp; B4</f>
         <v>NEET &amp; IIT Crash Course  Physics</v>
@@ -2097,7 +2087,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="5" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="str">
         <f t="shared" ref="A5:A7" si="0">"NEET &amp; IIT Crash Course "&amp;" " &amp; B5</f>
         <v>NEET &amp; IIT Crash Course  Chemistry</v>
@@ -2351,7 +2341,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="7" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="str">
         <f t="shared" si="0"/>
         <v>NEET &amp; IIT Crash Course  Biology</v>
@@ -2369,7 +2359,7 @@
         <v>131</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>191</v>
@@ -2478,7 +2468,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="8" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="str">
         <f>C8&amp;" - All Boards - "&amp;B8</f>
         <v>XII - All Boards - Physics</v>
@@ -2605,7 +2595,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="9" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="str">
         <f t="shared" ref="A9:A15" si="9">C9&amp;" - All Boards - "&amp;B9</f>
         <v>XII - All Boards - Chemistry</v>
@@ -2750,7 +2740,7 @@
         <v>132</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>191</v>
@@ -2859,7 +2849,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="11" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="str">
         <f t="shared" si="9"/>
         <v>XII - All Boards - Biology</v>
@@ -2877,9 +2867,7 @@
         <v>132</v>
       </c>
       <c r="F11" s="7"/>
-      <c r="G11" s="7" t="s">
-        <v>191</v>
-      </c>
+      <c r="G11" s="7"/>
       <c r="H11" s="7" t="s">
         <v>72</v>
       </c>
@@ -2984,7 +2972,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="12" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="str">
         <f t="shared" si="9"/>
         <v>XI - All Boards - Physics</v>
@@ -3111,7 +3099,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="13" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="str">
         <f t="shared" si="9"/>
         <v>XI - All Boards - Chemistry</v>
@@ -3255,11 +3243,11 @@
       <c r="E14" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="F14" s="56" t="s">
+      <c r="F14" s="36" t="s">
         <v>198</v>
       </c>
-      <c r="G14" s="56" t="s">
-        <v>302</v>
+      <c r="G14" s="36" t="s">
+        <v>299</v>
       </c>
       <c r="H14" s="7" t="s">
         <v>72</v>
@@ -3365,7 +3353,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="15" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="str">
         <f t="shared" si="9"/>
         <v>XI - All Boards - Biology</v>
@@ -3383,9 +3371,7 @@
         <v>132</v>
       </c>
       <c r="F15" s="7"/>
-      <c r="G15" s="7" t="s">
-        <v>191</v>
-      </c>
+      <c r="G15" s="7"/>
       <c r="H15" s="7" t="s">
         <v>72</v>
       </c>
@@ -3490,7 +3476,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="16" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="26" t="str">
         <f t="shared" ref="A16:A18" si="39">D16&amp;" - "&amp;C16&amp;" - "&amp;B16</f>
         <v>ISC - XII - English</v>
@@ -3507,12 +3493,8 @@
       <c r="E16" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="F16" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>191</v>
-      </c>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
       <c r="H16" s="7" t="s">
         <v>72</v>
       </c>
@@ -3617,7 +3599,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="17" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="26" t="str">
         <f t="shared" si="39"/>
         <v>ISC - XII - Bengali</v>
@@ -3637,9 +3619,7 @@
       <c r="F17" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="G17" s="7" t="s">
-        <v>191</v>
-      </c>
+      <c r="G17" s="7"/>
       <c r="H17" s="7" t="s">
         <v>72</v>
       </c>
@@ -3744,7 +3724,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="26" t="str">
         <f t="shared" si="39"/>
         <v>ISC - XII - Hindi</v>
@@ -3761,8 +3741,8 @@
       <c r="E18" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="F18" s="24" t="s">
-        <v>301</v>
+      <c r="F18" s="7" t="s">
+        <v>298</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>191</v>
@@ -3871,7 +3851,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="19" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="26" t="str">
         <f>D19&amp;" - "&amp;C19&amp;" - "&amp;B19</f>
         <v>ISC - XII - History</v>
@@ -3998,7 +3978,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="20" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="26" t="str">
         <f>D20&amp;" - "&amp;C20&amp;" - "&amp;B20</f>
         <v>ISC - XII - Geography</v>
@@ -4123,7 +4103,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="21" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="26" t="str">
         <f>D21&amp;" - "&amp;C21&amp;" - "&amp;B21</f>
         <v>ISC - XII - Political Science</v>
@@ -4250,7 +4230,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="22" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="26" t="str">
         <f>D22&amp;" - "&amp;C22&amp;" - "&amp;B22</f>
         <v>ISC - XII - Sociology</v>
@@ -4267,11 +4247,11 @@
       <c r="E22" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="F22" s="24" t="s">
-        <v>212</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>191</v>
+      <c r="F22" s="36" t="s">
+        <v>210</v>
+      </c>
+      <c r="G22" s="36" t="s">
+        <v>299</v>
       </c>
       <c r="H22" s="7" t="s">
         <v>72</v>
@@ -4377,7 +4357,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="23" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="26" t="str">
         <f>D23&amp;" - "&amp;C23&amp;" - "&amp;B23</f>
         <v>ISC - XII - Philosophy</v>
@@ -4397,9 +4377,7 @@
       <c r="F23" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="G23" s="7" t="s">
-        <v>191</v>
-      </c>
+      <c r="G23" s="7"/>
       <c r="H23" s="7" t="s">
         <v>72</v>
       </c>
@@ -4504,7 +4482,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="24" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="26" t="str">
         <f t="shared" ref="A24:A43" si="56">D24&amp;" - "&amp;C24&amp;" - "&amp;B24</f>
         <v>ISC - XII - Accounting</v>
@@ -4631,7 +4609,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="25" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="26" t="str">
         <f t="shared" si="56"/>
         <v>ISC - XII - Commercial Study</v>
@@ -4648,11 +4626,11 @@
       <c r="E25" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F25" s="56" t="s">
+      <c r="F25" s="36" t="s">
         <v>183</v>
       </c>
-      <c r="G25" s="56" t="s">
-        <v>302</v>
+      <c r="G25" s="36" t="s">
+        <v>299</v>
       </c>
       <c r="H25" s="7" t="s">
         <v>72</v>
@@ -4758,7 +4736,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="26" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="26" t="str">
         <f t="shared" si="56"/>
         <v>ISC - XII - Economics</v>
@@ -4885,7 +4863,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="27" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="26" t="str">
         <f t="shared" si="56"/>
         <v>ISC - XII - Business Studies</v>
@@ -4902,11 +4880,11 @@
       <c r="E27" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F27" s="56" t="s">
+      <c r="F27" s="36" t="s">
         <v>183</v>
       </c>
-      <c r="G27" s="56" t="s">
-        <v>302</v>
+      <c r="G27" s="36" t="s">
+        <v>299</v>
       </c>
       <c r="H27" s="7" t="s">
         <v>72</v>
@@ -5029,11 +5007,11 @@
       <c r="E28" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F28" s="56" t="s">
+      <c r="F28" s="36" t="s">
         <v>198</v>
       </c>
-      <c r="G28" s="56" t="s">
-        <v>302</v>
+      <c r="G28" s="36" t="s">
+        <v>299</v>
       </c>
       <c r="H28" s="7" t="s">
         <v>72</v>
@@ -5139,7 +5117,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="29" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="26" t="str">
         <f>D29&amp;" - "&amp;C29&amp;" - "&amp;B29</f>
         <v>ISC - XII - Computers</v>
@@ -5266,7 +5244,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="30" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="26" t="str">
         <f>D30&amp;" - "&amp;C30&amp;" - "&amp;B30</f>
         <v>ISC - XII - AI</v>
@@ -5393,7 +5371,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="31" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="26" t="str">
         <f t="shared" si="56"/>
         <v>ISC - XI - English</v>
@@ -5410,12 +5388,8 @@
       <c r="E31" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="F31" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>191</v>
-      </c>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
       <c r="H31" s="7" t="s">
         <v>72</v>
       </c>
@@ -5520,7 +5494,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="32" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="26" t="str">
         <f t="shared" si="56"/>
         <v>ISC - XI - Bengali</v>
@@ -5647,7 +5621,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="33" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="26" t="str">
         <f t="shared" si="56"/>
         <v>ISC - XI - Hindi</v>
@@ -5664,8 +5638,8 @@
       <c r="E33" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="F33" s="24" t="s">
-        <v>301</v>
+      <c r="F33" s="7" t="s">
+        <v>298</v>
       </c>
       <c r="G33" s="7" t="s">
         <v>191</v>
@@ -5774,7 +5748,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="34" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="26" t="str">
         <f>D34&amp;" - "&amp;C34&amp;" - "&amp;B34</f>
         <v>ISC - XI - History</v>
@@ -5901,7 +5875,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="35" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="26" t="str">
         <f>D35&amp;" - "&amp;C35&amp;" - "&amp;B35</f>
         <v>ISC - XI - Geography</v>
@@ -6026,7 +6000,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="36" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="26" t="str">
         <f>D36&amp;" - "&amp;C36&amp;" - "&amp;B36</f>
         <v>ISC - XI - Political Science</v>
@@ -6153,7 +6127,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="37" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="26" t="str">
         <f>D37&amp;" - "&amp;C37&amp;" - "&amp;B37</f>
         <v>ISC - XI - Sociology</v>
@@ -6170,11 +6144,11 @@
       <c r="E37" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="F37" s="56" t="s">
-        <v>212</v>
-      </c>
-      <c r="G37" s="56" t="s">
-        <v>302</v>
+      <c r="F37" s="36" t="s">
+        <v>210</v>
+      </c>
+      <c r="G37" s="36" t="s">
+        <v>299</v>
       </c>
       <c r="H37" s="7" t="s">
         <v>72</v>
@@ -6280,7 +6254,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="38" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="26" t="str">
         <f>D38&amp;" - "&amp;C38&amp;" - "&amp;B38</f>
         <v>ISC - XI - Philosophy</v>
@@ -6407,7 +6381,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="39" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="26" t="str">
         <f t="shared" si="56"/>
         <v>ISC - XI - Accounting</v>
@@ -6534,7 +6508,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="40" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="26" t="str">
         <f t="shared" si="56"/>
         <v>ISC - XI - Commercial Study</v>
@@ -6551,11 +6525,11 @@
       <c r="E40" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F40" s="56" t="s">
+      <c r="F40" s="36" t="s">
         <v>183</v>
       </c>
-      <c r="G40" s="56" t="s">
-        <v>302</v>
+      <c r="G40" s="36" t="s">
+        <v>299</v>
       </c>
       <c r="H40" s="7" t="s">
         <v>72</v>
@@ -6661,7 +6635,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="41" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="26" t="str">
         <f t="shared" si="56"/>
         <v>ISC - XI - Economics</v>
@@ -6788,7 +6762,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="42" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="26" t="str">
         <f t="shared" si="56"/>
         <v>ISC - XI - Business Studies</v>
@@ -6805,11 +6779,11 @@
       <c r="E42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F42" s="56" t="s">
+      <c r="F42" s="36" t="s">
         <v>183</v>
       </c>
-      <c r="G42" s="56" t="s">
-        <v>302</v>
+      <c r="G42" s="36" t="s">
+        <v>299</v>
       </c>
       <c r="H42" s="7" t="s">
         <v>72</v>
@@ -6932,11 +6906,11 @@
       <c r="E43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F43" s="56" t="s">
+      <c r="F43" s="36" t="s">
         <v>198</v>
       </c>
-      <c r="G43" s="56" t="s">
-        <v>302</v>
+      <c r="G43" s="36" t="s">
+        <v>299</v>
       </c>
       <c r="H43" s="7" t="s">
         <v>72</v>
@@ -7042,7 +7016,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="44" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="26" t="str">
         <f>D44&amp;" - "&amp;C44&amp;" - "&amp;B44</f>
         <v>ISC - XI - Computers</v>
@@ -7169,7 +7143,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="45" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="26" t="str">
         <f>D45&amp;" - "&amp;C45&amp;" - "&amp;B45</f>
         <v>ISC - XI - AI</v>
@@ -7296,7 +7270,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="46" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="26" t="str">
         <f>D46&amp;" - "&amp;C46&amp;" - "&amp;B46</f>
         <v>ICSE - X - English</v>
@@ -7423,7 +7397,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="47" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A47" s="26" t="str">
         <f t="shared" ref="A47:A163" si="115">D47&amp;" - "&amp;C47&amp;" - "&amp;B47</f>
         <v>ICSE - X - Bengali</v>
@@ -7440,11 +7414,11 @@
       <c r="E47" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="F47" s="56" t="s">
+      <c r="F47" s="36" t="s">
         <v>183</v>
       </c>
-      <c r="G47" s="56" t="s">
-        <v>302</v>
+      <c r="G47" s="36" t="s">
+        <v>299</v>
       </c>
       <c r="H47" s="7" t="s">
         <v>72</v>
@@ -7550,7 +7524,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="48" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="26" t="str">
         <f t="shared" si="115"/>
         <v>ICSE - X - Hindi</v>
@@ -7568,7 +7542,7 @@
         <v>132</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="G48" s="7" t="s">
         <v>191</v>
@@ -7677,7 +7651,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="49" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A49" s="26" t="str">
         <f>D49&amp;" - "&amp;C49&amp;" - "&amp;B49</f>
         <v>ICSE - X - Geography</v>
@@ -7694,11 +7668,11 @@
       <c r="E49" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="F49" s="56" t="s">
+      <c r="F49" s="36" t="s">
         <v>183</v>
       </c>
-      <c r="G49" s="56" t="s">
-        <v>302</v>
+      <c r="G49" s="36" t="s">
+        <v>299</v>
       </c>
       <c r="H49" s="7" t="s">
         <v>72</v>
@@ -7804,7 +7778,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="50" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="26" t="str">
         <f>D50&amp;" - "&amp;C50&amp;" - "&amp;B50</f>
         <v>ICSE - X - EVS</v>
@@ -7821,11 +7795,11 @@
       <c r="E50" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="F50" s="56" t="s">
-        <v>212</v>
-      </c>
-      <c r="G50" s="56" t="s">
-        <v>302</v>
+      <c r="F50" s="36" t="s">
+        <v>210</v>
+      </c>
+      <c r="G50" s="36" t="s">
+        <v>299</v>
       </c>
       <c r="H50" s="7" t="s">
         <v>72</v>
@@ -7931,7 +7905,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="51" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A51" s="26" t="str">
         <f>D51&amp;" - "&amp;C51&amp;" - "&amp;B51</f>
         <v>ICSE - X - Hist Civics</v>
@@ -7948,11 +7922,11 @@
       <c r="E51" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="F51" s="56" t="s">
+      <c r="F51" s="36" t="s">
         <v>200</v>
       </c>
-      <c r="G51" s="56" t="s">
-        <v>302</v>
+      <c r="G51" s="36" t="s">
+        <v>299</v>
       </c>
       <c r="H51" s="7" t="s">
         <v>72</v>
@@ -8058,7 +8032,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="52" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="26" t="str">
         <f>D52&amp;" - "&amp;C52&amp;" - "&amp;B52</f>
         <v>ICSE - X - Commercial Study</v>
@@ -8075,11 +8049,11 @@
       <c r="E52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F52" s="56" t="s">
+      <c r="F52" s="36" t="s">
         <v>183</v>
       </c>
-      <c r="G52" s="56" t="s">
-        <v>302</v>
+      <c r="G52" s="36" t="s">
+        <v>299</v>
       </c>
       <c r="H52" s="7" t="s">
         <v>72</v>
@@ -8185,7 +8159,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="53" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="26" t="str">
         <f>D53&amp;" - "&amp;C53&amp;" - "&amp;B53</f>
         <v>ICSE - X - Economics</v>
@@ -8329,11 +8303,11 @@
       <c r="E54" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="F54" s="56" t="s">
+      <c r="F54" s="36" t="s">
         <v>198</v>
       </c>
-      <c r="G54" s="56" t="s">
-        <v>302</v>
+      <c r="G54" s="36" t="s">
+        <v>299</v>
       </c>
       <c r="H54" s="7" t="s">
         <v>72</v>
@@ -8439,7 +8413,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="55" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="26" t="str">
         <f t="shared" si="115"/>
         <v>ICSE - X - Physics</v>
@@ -8566,7 +8540,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="56" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="26" t="str">
         <f t="shared" si="115"/>
         <v>ICSE - X - Chemistry</v>
@@ -8693,7 +8667,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="57" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="26" t="str">
         <f t="shared" si="115"/>
         <v>ICSE - X - Biology</v>
@@ -8711,9 +8685,7 @@
         <v>132</v>
       </c>
       <c r="F57" s="7"/>
-      <c r="G57" s="7" t="s">
-        <v>191</v>
-      </c>
+      <c r="G57" s="7"/>
       <c r="H57" s="7" t="s">
         <v>72</v>
       </c>
@@ -8818,7 +8790,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="58" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="26" t="str">
         <f t="shared" si="115"/>
         <v>ICSE - X - Computers</v>
@@ -8945,7 +8917,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="59" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="26" t="str">
         <f t="shared" si="115"/>
         <v>ICSE - X - AI</v>
@@ -9072,7 +9044,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="60" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="26" t="str">
         <f t="shared" si="115"/>
         <v>ICSE - IX - English</v>
@@ -9199,7 +9171,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="61" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A61" s="26" t="str">
         <f t="shared" si="115"/>
         <v>ICSE - IX - Bengali</v>
@@ -9216,11 +9188,11 @@
       <c r="E61" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="F61" s="56" t="s">
+      <c r="F61" s="36" t="s">
         <v>183</v>
       </c>
-      <c r="G61" s="56" t="s">
-        <v>302</v>
+      <c r="G61" s="36" t="s">
+        <v>299</v>
       </c>
       <c r="H61" s="7" t="s">
         <v>72</v>
@@ -9326,7 +9298,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="62" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="26" t="str">
         <f t="shared" si="115"/>
         <v>ICSE - IX - Hindi</v>
@@ -9344,7 +9316,7 @@
         <v>132</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="G62" s="7" t="s">
         <v>191</v>
@@ -9453,7 +9425,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="63" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A63" s="26" t="str">
         <f>D63&amp;" - "&amp;C63&amp;" - "&amp;B63</f>
         <v>ICSE - IX - Geography</v>
@@ -9470,11 +9442,11 @@
       <c r="E63" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="F63" s="56" t="s">
+      <c r="F63" s="36" t="s">
         <v>183</v>
       </c>
-      <c r="G63" s="56" t="s">
-        <v>302</v>
+      <c r="G63" s="36" t="s">
+        <v>299</v>
       </c>
       <c r="H63" s="7" t="s">
         <v>72</v>
@@ -9580,7 +9552,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="64" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="26" t="str">
         <f>D64&amp;" - "&amp;C64&amp;" - "&amp;B64</f>
         <v>ICSE - IX - EVS</v>
@@ -9597,11 +9569,11 @@
       <c r="E64" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="F64" s="56" t="s">
-        <v>212</v>
-      </c>
-      <c r="G64" s="56" t="s">
-        <v>302</v>
+      <c r="F64" s="36" t="s">
+        <v>210</v>
+      </c>
+      <c r="G64" s="36" t="s">
+        <v>299</v>
       </c>
       <c r="H64" s="7" t="s">
         <v>72</v>
@@ -9707,7 +9679,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="65" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A65" s="26" t="str">
         <f>D65&amp;" - "&amp;C65&amp;" - "&amp;B65</f>
         <v>ICSE - IX - Hist Civics</v>
@@ -9724,11 +9696,11 @@
       <c r="E65" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="F65" s="56" t="s">
+      <c r="F65" s="36" t="s">
         <v>200</v>
       </c>
-      <c r="G65" s="56" t="s">
-        <v>302</v>
+      <c r="G65" s="36" t="s">
+        <v>299</v>
       </c>
       <c r="H65" s="7" t="s">
         <v>72</v>
@@ -9851,11 +9823,11 @@
       <c r="E66" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="F66" s="56" t="s">
+      <c r="F66" s="36" t="s">
         <v>198</v>
       </c>
-      <c r="G66" s="56" t="s">
-        <v>302</v>
+      <c r="G66" s="36" t="s">
+        <v>299</v>
       </c>
       <c r="H66" s="7" t="s">
         <v>72</v>
@@ -9961,7 +9933,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="67" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="26" t="str">
         <f t="shared" si="115"/>
         <v>ICSE - IX - Physics</v>
@@ -10088,7 +10060,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="68" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="26" t="str">
         <f t="shared" si="115"/>
         <v>ICSE - IX - Chemistry</v>
@@ -10215,7 +10187,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="69" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="26" t="str">
         <f t="shared" si="115"/>
         <v>ICSE - IX - Biology</v>
@@ -10233,9 +10205,7 @@
         <v>132</v>
       </c>
       <c r="F69" s="7"/>
-      <c r="G69" s="7" t="s">
-        <v>191</v>
-      </c>
+      <c r="G69" s="7"/>
       <c r="H69" s="7" t="s">
         <v>72</v>
       </c>
@@ -10340,7 +10310,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="70" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="26" t="str">
         <f t="shared" si="115"/>
         <v>ICSE - IX - Commercial Study</v>
@@ -10357,11 +10327,11 @@
       <c r="E70" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F70" s="56" t="s">
+      <c r="F70" s="36" t="s">
         <v>183</v>
       </c>
-      <c r="G70" s="56" t="s">
-        <v>302</v>
+      <c r="G70" s="36" t="s">
+        <v>299</v>
       </c>
       <c r="H70" s="7" t="s">
         <v>72</v>
@@ -10467,7 +10437,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="71" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="26" t="str">
         <f t="shared" si="115"/>
         <v>ICSE - IX - Economics</v>
@@ -10594,7 +10564,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="72" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="26" t="str">
         <f>D72&amp;" - "&amp;C72&amp;" - "&amp;B72</f>
         <v>ICSE - IX - Computers</v>
@@ -10721,7 +10691,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="73" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="26" t="str">
         <f t="shared" si="115"/>
         <v>ICSE - IX - AI</v>
@@ -10848,7 +10818,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="74" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="26" t="str">
         <f t="shared" si="115"/>
         <v>ICSE - VIII - English</v>
@@ -10975,7 +10945,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="75" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A75" s="26" t="str">
         <f>D75&amp;" - "&amp;C75&amp;" - "&amp;B75</f>
         <v>ICSE - VIII - Bengali</v>
@@ -10992,11 +10962,11 @@
       <c r="E75" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="F75" s="56" t="s">
+      <c r="F75" s="36" t="s">
         <v>183</v>
       </c>
-      <c r="G75" s="56" t="s">
-        <v>302</v>
+      <c r="G75" s="36" t="s">
+        <v>299</v>
       </c>
       <c r="H75" s="7" t="s">
         <v>72</v>
@@ -11102,7 +11072,7 @@
         <v>399.99999999999994</v>
       </c>
     </row>
-    <row r="76" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="26" t="str">
         <f>D76&amp;" - "&amp;C76&amp;" - "&amp;B76</f>
         <v>ICSE - VIII - Hindi</v>
@@ -11120,7 +11090,7 @@
         <v>132</v>
       </c>
       <c r="F76" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="G76" s="7" t="s">
         <v>191</v>
@@ -11229,7 +11199,7 @@
         <v>399.99999999999994</v>
       </c>
     </row>
-    <row r="77" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A77" s="26" t="str">
         <f>D77&amp;" - "&amp;C77&amp;" - "&amp;B77</f>
         <v>ICSE - VIII - Geography</v>
@@ -11246,11 +11216,11 @@
       <c r="E77" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="F77" s="56" t="s">
+      <c r="F77" s="36" t="s">
         <v>183</v>
       </c>
-      <c r="G77" s="56" t="s">
-        <v>302</v>
+      <c r="G77" s="36" t="s">
+        <v>299</v>
       </c>
       <c r="H77" s="7" t="s">
         <v>72</v>
@@ -11356,7 +11326,7 @@
         <v>399.99999999999994</v>
       </c>
     </row>
-    <row r="78" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="26" t="str">
         <f>D78&amp;" - "&amp;C78&amp;" - "&amp;B78</f>
         <v>ICSE - VIII - EVS</v>
@@ -11373,11 +11343,11 @@
       <c r="E78" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="F78" s="56" t="s">
-        <v>212</v>
-      </c>
-      <c r="G78" s="56" t="s">
-        <v>302</v>
+      <c r="F78" s="36" t="s">
+        <v>210</v>
+      </c>
+      <c r="G78" s="36" t="s">
+        <v>299</v>
       </c>
       <c r="H78" s="7" t="s">
         <v>72</v>
@@ -11483,7 +11453,7 @@
         <v>399.99999999999994</v>
       </c>
     </row>
-    <row r="79" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A79" s="26" t="str">
         <f>D79&amp;" - "&amp;C79&amp;" - "&amp;B79</f>
         <v>ICSE - VIII - Hist Civics</v>
@@ -11500,11 +11470,11 @@
       <c r="E79" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="F79" s="56" t="s">
+      <c r="F79" s="36" t="s">
         <v>200</v>
       </c>
-      <c r="G79" s="56" t="s">
-        <v>302</v>
+      <c r="G79" s="36" t="s">
+        <v>299</v>
       </c>
       <c r="H79" s="7" t="s">
         <v>72</v>
@@ -11627,11 +11597,11 @@
       <c r="E80" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="F80" s="56" t="s">
+      <c r="F80" s="36" t="s">
         <v>198</v>
       </c>
-      <c r="G80" s="56" t="s">
-        <v>302</v>
+      <c r="G80" s="36" t="s">
+        <v>299</v>
       </c>
       <c r="H80" s="7" t="s">
         <v>72</v>
@@ -11737,7 +11707,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="81" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="26" t="str">
         <f t="shared" si="115"/>
         <v>ICSE - VIII - Physics</v>
@@ -11864,7 +11834,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="82" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="26" t="str">
         <f t="shared" si="115"/>
         <v>ICSE - VIII - Chemistry</v>
@@ -11991,7 +11961,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="83" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="26" t="str">
         <f t="shared" si="115"/>
         <v>ICSE - VIII - Biology</v>
@@ -12009,9 +11979,7 @@
         <v>132</v>
       </c>
       <c r="F83" s="7"/>
-      <c r="G83" s="7" t="s">
-        <v>191</v>
-      </c>
+      <c r="G83" s="7"/>
       <c r="H83" s="7" t="s">
         <v>72</v>
       </c>
@@ -12116,7 +12084,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="84" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="26" t="str">
         <f t="shared" si="115"/>
         <v>ICSE - VIII - Computers</v>
@@ -12243,7 +12211,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="85" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="23" t="str">
         <f>D85&amp;" - "&amp;C85&amp;" - "&amp;B85</f>
         <v>WB - XII - English</v>
@@ -12260,12 +12228,8 @@
       <c r="E85" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="F85" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="G85" s="7" t="s">
-        <v>191</v>
-      </c>
+      <c r="F85" s="7"/>
+      <c r="G85" s="7"/>
       <c r="H85" s="7" t="s">
         <v>72</v>
       </c>
@@ -12370,7 +12334,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="86" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="23" t="str">
         <f>D86&amp;" - "&amp;C86&amp;" - "&amp;B86</f>
         <v>WB - XII - Bengali</v>
@@ -12387,12 +12351,8 @@
       <c r="E86" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="F86" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G86" s="7" t="s">
-        <v>191</v>
-      </c>
+      <c r="F86" s="7"/>
+      <c r="G86" s="7"/>
       <c r="H86" s="7" t="s">
         <v>72</v>
       </c>
@@ -12497,7 +12457,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="87" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="23" t="str">
         <f>D87&amp;" - "&amp;C87&amp;" - "&amp;B87</f>
         <v>WB - XII - Hindi</v>
@@ -12515,7 +12475,7 @@
         <v>132</v>
       </c>
       <c r="F87" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="G87" s="7" t="s">
         <v>191</v>
@@ -12624,7 +12584,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="88" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="23" t="str">
         <f>D88&amp;" - "&amp;C88&amp;" - "&amp;B88</f>
         <v>WB - XII - History</v>
@@ -12641,11 +12601,11 @@
       <c r="E88" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="F88" s="56" t="s">
+      <c r="F88" s="36" t="s">
         <v>200</v>
       </c>
-      <c r="G88" s="56" t="s">
-        <v>302</v>
+      <c r="G88" s="36" t="s">
+        <v>299</v>
       </c>
       <c r="H88" s="7" t="s">
         <v>72</v>
@@ -12751,7 +12711,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="89" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="23" t="str">
         <f t="shared" ref="A89" si="160">D89&amp;" - "&amp;C89&amp;" - "&amp;B89</f>
         <v>WB - XII - Geography</v>
@@ -12769,9 +12729,7 @@
         <v>132</v>
       </c>
       <c r="F89" s="7"/>
-      <c r="G89" s="7" t="s">
-        <v>191</v>
-      </c>
+      <c r="G89" s="7"/>
       <c r="H89" s="7" t="s">
         <v>72</v>
       </c>
@@ -12876,7 +12834,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="90" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="23" t="str">
         <f>D90&amp;" - "&amp;C90&amp;" - "&amp;B90</f>
         <v>WB - XII - Political Science</v>
@@ -13003,7 +12961,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="91" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="23" t="str">
         <f>D91&amp;" - "&amp;C91&amp;" - "&amp;B91</f>
         <v>WB - XII - Sociology</v>
@@ -13020,11 +12978,11 @@
       <c r="E91" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="F91" s="56" t="s">
-        <v>212</v>
-      </c>
-      <c r="G91" s="56" t="s">
-        <v>302</v>
+      <c r="F91" s="36" t="s">
+        <v>210</v>
+      </c>
+      <c r="G91" s="36" t="s">
+        <v>299</v>
       </c>
       <c r="H91" s="7" t="s">
         <v>72</v>
@@ -13130,7 +13088,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="92" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="23" t="str">
         <f>D92&amp;" - "&amp;C92&amp;" - "&amp;B92</f>
         <v>WB - XII - Philosophy</v>
@@ -13147,12 +13105,8 @@
       <c r="E92" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="F92" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G92" s="7" t="s">
-        <v>191</v>
-      </c>
+      <c r="F92" s="7"/>
+      <c r="G92" s="7"/>
       <c r="H92" s="7" t="s">
         <v>72</v>
       </c>
@@ -13257,7 +13211,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="93" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="23" t="str">
         <f t="shared" ref="A93:A100" si="161">D93&amp;" - "&amp;C93&amp;" - "&amp;B93</f>
         <v>WB - XII - Accounting</v>
@@ -13384,7 +13338,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="94" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="23" t="str">
         <f t="shared" si="161"/>
         <v>WB - XII - Business Studies</v>
@@ -13401,11 +13355,11 @@
       <c r="E94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F94" s="56" t="s">
+      <c r="F94" s="36" t="s">
         <v>183</v>
       </c>
-      <c r="G94" s="56" t="s">
-        <v>302</v>
+      <c r="G94" s="36" t="s">
+        <v>299</v>
       </c>
       <c r="H94" s="7" t="s">
         <v>72</v>
@@ -13511,7 +13465,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="95" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="23" t="str">
         <f t="shared" si="161"/>
         <v>WB - XII - Costing &amp; Taxation</v>
@@ -13638,7 +13592,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="96" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="23" t="str">
         <f t="shared" si="161"/>
         <v>WB - XII - Business Law</v>
@@ -13782,11 +13736,11 @@
       <c r="E97" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F97" s="56" t="s">
+      <c r="F97" s="36" t="s">
         <v>198</v>
       </c>
-      <c r="G97" s="56" t="s">
-        <v>302</v>
+      <c r="G97" s="36" t="s">
+        <v>299</v>
       </c>
       <c r="H97" s="7" t="s">
         <v>72</v>
@@ -13892,7 +13846,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="98" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="23" t="str">
         <f t="shared" si="161"/>
         <v>WB - XII - Stats</v>
@@ -14019,7 +13973,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="99" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="23" t="str">
         <f t="shared" si="161"/>
         <v>WB - XII - Economics</v>
@@ -14146,7 +14100,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="100" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="23" t="str">
         <f t="shared" si="161"/>
         <v>WB - XII - Eco Geography</v>
@@ -14163,11 +14117,11 @@
       <c r="E100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F100" s="56" t="s">
+      <c r="F100" s="36" t="s">
         <v>183</v>
       </c>
-      <c r="G100" s="56" t="s">
-        <v>302</v>
+      <c r="G100" s="36" t="s">
+        <v>299</v>
       </c>
       <c r="H100" s="7" t="s">
         <v>72</v>
@@ -14273,7 +14227,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="101" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="23" t="str">
         <f t="shared" ref="A101:A132" si="170">D101&amp;" - "&amp;C101&amp;" - "&amp;B101</f>
         <v>WB - XII - Computers</v>
@@ -14400,7 +14354,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="102" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="23" t="str">
         <f t="shared" si="170"/>
         <v>WB - XII - AI</v>
@@ -14527,7 +14481,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="103" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="23" t="str">
         <f t="shared" si="170"/>
         <v>WB - XI - English</v>
@@ -14544,12 +14498,8 @@
       <c r="E103" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="F103" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="G103" s="7" t="s">
-        <v>191</v>
-      </c>
+      <c r="F103" s="7"/>
+      <c r="G103" s="7"/>
       <c r="H103" s="7" t="s">
         <v>72</v>
       </c>
@@ -14654,7 +14604,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="104" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="23" t="str">
         <f t="shared" si="170"/>
         <v>WB - XI - Bengali</v>
@@ -14671,12 +14621,8 @@
       <c r="E104" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="F104" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G104" s="7" t="s">
-        <v>191</v>
-      </c>
+      <c r="F104" s="7"/>
+      <c r="G104" s="7"/>
       <c r="H104" s="7" t="s">
         <v>72</v>
       </c>
@@ -14781,7 +14727,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="105" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="23" t="str">
         <f t="shared" si="170"/>
         <v>WB - XI - Hindi</v>
@@ -14799,7 +14745,7 @@
         <v>132</v>
       </c>
       <c r="F105" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="G105" s="7" t="s">
         <v>191</v>
@@ -14908,7 +14854,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="106" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="23" t="str">
         <f t="shared" si="170"/>
         <v>WB - XI - History</v>
@@ -14925,11 +14871,11 @@
       <c r="E106" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="F106" s="56" t="s">
+      <c r="F106" s="36" t="s">
         <v>200</v>
       </c>
-      <c r="G106" s="56" t="s">
-        <v>302</v>
+      <c r="G106" s="36" t="s">
+        <v>299</v>
       </c>
       <c r="H106" s="7" t="s">
         <v>72</v>
@@ -15035,7 +14981,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="107" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="23" t="str">
         <f t="shared" si="170"/>
         <v>WB - XI - Geography</v>
@@ -15160,7 +15106,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="108" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="23" t="str">
         <f t="shared" si="170"/>
         <v>WB - XI - Political Science</v>
@@ -15287,7 +15233,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="109" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="23" t="str">
         <f t="shared" si="170"/>
         <v>WB - XI - Sociology</v>
@@ -15304,11 +15250,11 @@
       <c r="E109" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="F109" s="56" t="s">
-        <v>212</v>
-      </c>
-      <c r="G109" s="56" t="s">
-        <v>302</v>
+      <c r="F109" s="36" t="s">
+        <v>210</v>
+      </c>
+      <c r="G109" s="36" t="s">
+        <v>299</v>
       </c>
       <c r="H109" s="7" t="s">
         <v>72</v>
@@ -15414,7 +15360,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="110" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="23" t="str">
         <f t="shared" si="170"/>
         <v>WB - XI - Philosophy</v>
@@ -15431,12 +15377,8 @@
       <c r="E110" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="F110" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G110" s="7" t="s">
-        <v>191</v>
-      </c>
+      <c r="F110" s="7"/>
+      <c r="G110" s="7"/>
       <c r="H110" s="7" t="s">
         <v>72</v>
       </c>
@@ -15541,7 +15483,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="111" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="23" t="str">
         <f t="shared" si="170"/>
         <v>WB - XI - Accounting</v>
@@ -15668,7 +15610,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="112" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="23" t="str">
         <f t="shared" si="170"/>
         <v>WB - XI - Business Studies</v>
@@ -15685,11 +15627,11 @@
       <c r="E112" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F112" s="56" t="s">
+      <c r="F112" s="36" t="s">
         <v>183</v>
       </c>
-      <c r="G112" s="56" t="s">
-        <v>302</v>
+      <c r="G112" s="36" t="s">
+        <v>299</v>
       </c>
       <c r="H112" s="7" t="s">
         <v>72</v>
@@ -15795,7 +15737,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="113" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="23" t="str">
         <f t="shared" si="170"/>
         <v>WB - XI - Costing &amp; Taxation</v>
@@ -15922,7 +15864,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="114" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="23" t="str">
         <f t="shared" si="170"/>
         <v>WB - XI - Business Law</v>
@@ -16067,7 +16009,7 @@
         <v>4</v>
       </c>
       <c r="F115" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G115" s="7" t="s">
         <v>191</v>
@@ -16176,7 +16118,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="116" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="23" t="str">
         <f t="shared" si="170"/>
         <v>WB - XI - Stats</v>
@@ -16303,7 +16245,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="117" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="23" t="str">
         <f t="shared" si="170"/>
         <v>WB - XI - Economics</v>
@@ -16430,7 +16372,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="118" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="23" t="str">
         <f t="shared" si="170"/>
         <v>WB - XI - Eco Geography</v>
@@ -16447,11 +16389,11 @@
       <c r="E118" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F118" s="56" t="s">
+      <c r="F118" s="36" t="s">
         <v>183</v>
       </c>
-      <c r="G118" s="56" t="s">
-        <v>302</v>
+      <c r="G118" s="36" t="s">
+        <v>299</v>
       </c>
       <c r="H118" s="7" t="s">
         <v>72</v>
@@ -16557,7 +16499,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="119" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="23" t="str">
         <f t="shared" si="170"/>
         <v>WB - XI - Computers</v>
@@ -16684,7 +16626,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="120" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="23" t="str">
         <f t="shared" si="170"/>
         <v>WB - XI - AI</v>
@@ -16811,7 +16753,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="121" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="23" t="str">
         <f t="shared" si="170"/>
         <v>WB - X - English</v>
@@ -16938,7 +16880,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="122" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="23" t="str">
         <f t="shared" si="170"/>
         <v>WB - X - Bengali</v>
@@ -16955,11 +16897,11 @@
       <c r="E122" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="F122" s="56" t="s">
+      <c r="F122" s="36" t="s">
         <v>183</v>
       </c>
-      <c r="G122" s="56" t="s">
-        <v>302</v>
+      <c r="G122" s="36" t="s">
+        <v>299</v>
       </c>
       <c r="H122" s="7" t="s">
         <v>72</v>
@@ -17065,7 +17007,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="123" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="23" t="str">
         <f t="shared" si="170"/>
         <v>WB - X - History</v>
@@ -17082,11 +17024,11 @@
       <c r="E123" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="F123" s="56" t="s">
+      <c r="F123" s="36" t="s">
         <v>183</v>
       </c>
-      <c r="G123" s="56" t="s">
-        <v>302</v>
+      <c r="G123" s="36" t="s">
+        <v>299</v>
       </c>
       <c r="H123" s="7" t="s">
         <v>72</v>
@@ -17192,7 +17134,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="124" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="23" t="str">
         <f t="shared" si="170"/>
         <v>WB - X - Geography</v>
@@ -17209,11 +17151,11 @@
       <c r="E124" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="F124" s="56" t="s">
+      <c r="F124" s="36" t="s">
         <v>183</v>
       </c>
-      <c r="G124" s="56" t="s">
-        <v>302</v>
+      <c r="G124" s="36" t="s">
+        <v>299</v>
       </c>
       <c r="H124" s="7" t="s">
         <v>72</v>
@@ -17319,7 +17261,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="125" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="23" t="str">
         <f t="shared" si="170"/>
         <v>WB - X - Physical Science</v>
@@ -17446,7 +17388,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="126" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="23" t="str">
         <f t="shared" si="170"/>
         <v>WB - X - Life Science</v>
@@ -17589,7 +17531,7 @@
         <v>132</v>
       </c>
       <c r="F127" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G127" s="7" t="s">
         <v>191</v>
@@ -17698,7 +17640,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="128" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="23" t="str">
         <f t="shared" si="170"/>
         <v>WB - X - Book Keeping</v>
@@ -17825,7 +17767,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="129" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="23" t="str">
         <f t="shared" si="170"/>
         <v>WB - X - Business Studies</v>
@@ -17842,11 +17784,11 @@
       <c r="E129" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F129" s="56" t="s">
+      <c r="F129" s="36" t="s">
         <v>183</v>
       </c>
-      <c r="G129" s="56" t="s">
-        <v>302</v>
+      <c r="G129" s="36" t="s">
+        <v>299</v>
       </c>
       <c r="H129" s="7" t="s">
         <v>72</v>
@@ -17952,7 +17894,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="130" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="23" t="str">
         <f t="shared" si="170"/>
         <v>WB - X - Computers</v>
@@ -18079,7 +18021,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="131" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="23" t="str">
         <f t="shared" si="170"/>
         <v>WB - X - AI</v>
@@ -18206,7 +18148,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="132" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="23" t="str">
         <f t="shared" si="170"/>
         <v>WB - IX - English</v>
@@ -18333,7 +18275,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="133" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="23" t="str">
         <f t="shared" ref="A133:A149" si="246">D133&amp;" - "&amp;C133&amp;" - "&amp;B133</f>
         <v>WB - IX - Bengali</v>
@@ -18350,11 +18292,11 @@
       <c r="E133" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="F133" s="56" t="s">
+      <c r="F133" s="36" t="s">
         <v>183</v>
       </c>
-      <c r="G133" s="56" t="s">
-        <v>302</v>
+      <c r="G133" s="36" t="s">
+        <v>299</v>
       </c>
       <c r="H133" s="7" t="s">
         <v>72</v>
@@ -18460,7 +18402,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="134" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="23" t="str">
         <f t="shared" si="246"/>
         <v>WB - IX - History</v>
@@ -18477,11 +18419,11 @@
       <c r="E134" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="F134" s="56" t="s">
+      <c r="F134" s="36" t="s">
         <v>183</v>
       </c>
-      <c r="G134" s="56" t="s">
-        <v>302</v>
+      <c r="G134" s="36" t="s">
+        <v>299</v>
       </c>
       <c r="H134" s="7" t="s">
         <v>72</v>
@@ -18587,7 +18529,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="135" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="23" t="str">
         <f t="shared" si="246"/>
         <v>WB - IX - Geography</v>
@@ -18604,11 +18546,11 @@
       <c r="E135" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="F135" s="56" t="s">
+      <c r="F135" s="36" t="s">
         <v>183</v>
       </c>
-      <c r="G135" s="56" t="s">
-        <v>302</v>
+      <c r="G135" s="36" t="s">
+        <v>299</v>
       </c>
       <c r="H135" s="7" t="s">
         <v>72</v>
@@ -18714,7 +18656,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="136" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="23" t="str">
         <f t="shared" si="246"/>
         <v>WB - IX - Physical Science</v>
@@ -18841,7 +18783,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="137" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="23" t="str">
         <f t="shared" si="246"/>
         <v>WB - IX - Life Science</v>
@@ -18983,11 +18925,11 @@
       <c r="E138" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="F138" s="56" t="s">
+      <c r="F138" s="36" t="s">
         <v>198</v>
       </c>
-      <c r="G138" s="56" t="s">
-        <v>302</v>
+      <c r="G138" s="36" t="s">
+        <v>299</v>
       </c>
       <c r="H138" s="7" t="s">
         <v>72</v>
@@ -19093,7 +19035,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="139" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="23" t="str">
         <f t="shared" si="246"/>
         <v>WB - IX - Book Keeping</v>
@@ -19220,7 +19162,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="140" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="23" t="str">
         <f t="shared" si="246"/>
         <v>WB - IX - Business Studies</v>
@@ -19237,11 +19179,11 @@
       <c r="E140" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F140" s="56" t="s">
+      <c r="F140" s="36" t="s">
         <v>183</v>
       </c>
-      <c r="G140" s="56" t="s">
-        <v>302</v>
+      <c r="G140" s="36" t="s">
+        <v>299</v>
       </c>
       <c r="H140" s="7" t="s">
         <v>72</v>
@@ -19347,7 +19289,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="141" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="23" t="str">
         <f t="shared" si="246"/>
         <v>WB - IX - Computers</v>
@@ -19474,7 +19416,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="142" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="23" t="str">
         <f t="shared" si="246"/>
         <v>WB - IX - AI</v>
@@ -19601,7 +19543,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="143" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="23" t="str">
         <f t="shared" si="246"/>
         <v>WB - VIII - English</v>
@@ -19728,7 +19670,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="144" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="23" t="str">
         <f t="shared" si="246"/>
         <v>WB - VIII - Bengali</v>
@@ -19745,11 +19687,11 @@
       <c r="E144" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="F144" s="56" t="s">
+      <c r="F144" s="36" t="s">
         <v>183</v>
       </c>
-      <c r="G144" s="56" t="s">
-        <v>302</v>
+      <c r="G144" s="36" t="s">
+        <v>299</v>
       </c>
       <c r="H144" s="7" t="s">
         <v>72</v>
@@ -19855,7 +19797,7 @@
         <v>399.99999999999994</v>
       </c>
     </row>
-    <row r="145" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="23" t="str">
         <f t="shared" si="246"/>
         <v>WB - VIII - Hindi</v>
@@ -19873,7 +19815,7 @@
         <v>132</v>
       </c>
       <c r="F145" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="G145" s="7" t="s">
         <v>191</v>
@@ -19982,7 +19924,7 @@
         <v>399.99999999999994</v>
       </c>
     </row>
-    <row r="146" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="23" t="str">
         <f t="shared" si="246"/>
         <v>WB - VIII - History</v>
@@ -19999,11 +19941,11 @@
       <c r="E146" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="F146" s="56" t="s">
+      <c r="F146" s="36" t="s">
         <v>183</v>
       </c>
-      <c r="G146" s="56" t="s">
-        <v>302</v>
+      <c r="G146" s="36" t="s">
+        <v>299</v>
       </c>
       <c r="H146" s="7" t="s">
         <v>72</v>
@@ -20109,7 +20051,7 @@
         <v>399.99999999999994</v>
       </c>
     </row>
-    <row r="147" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="23" t="str">
         <f t="shared" si="246"/>
         <v>WB - VIII - Geography</v>
@@ -20126,11 +20068,11 @@
       <c r="E147" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="F147" s="56" t="s">
+      <c r="F147" s="36" t="s">
         <v>183</v>
       </c>
-      <c r="G147" s="56" t="s">
-        <v>302</v>
+      <c r="G147" s="36" t="s">
+        <v>299</v>
       </c>
       <c r="H147" s="7" t="s">
         <v>72</v>
@@ -20236,7 +20178,7 @@
         <v>399.99999999999994</v>
       </c>
     </row>
-    <row r="148" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="23" t="str">
         <f t="shared" si="246"/>
         <v>WB - VIII - Physical Science</v>
@@ -20381,7 +20323,7 @@
         <v>132</v>
       </c>
       <c r="F149" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G149" s="7" t="s">
         <v>191</v>
@@ -20490,7 +20432,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="150" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="27" t="str">
         <f t="shared" si="115"/>
         <v>CBSE - XII - English</v>
@@ -20507,12 +20449,8 @@
       <c r="E150" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="F150" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="G150" s="7" t="s">
-        <v>191</v>
-      </c>
+      <c r="F150" s="7"/>
+      <c r="G150" s="7"/>
       <c r="H150" s="7" t="s">
         <v>72</v>
       </c>
@@ -20617,7 +20555,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="151" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="27" t="str">
         <f t="shared" si="115"/>
         <v>CBSE - XII - Bengali</v>
@@ -20744,7 +20682,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="152" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="27" t="str">
         <f t="shared" si="115"/>
         <v>CBSE - XII - Hindi</v>
@@ -20762,7 +20700,7 @@
         <v>132</v>
       </c>
       <c r="F152" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="G152" s="7" t="s">
         <v>191</v>
@@ -20871,7 +20809,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="153" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="27" t="str">
         <f t="shared" si="115"/>
         <v>CBSE - XII - History</v>
@@ -20998,7 +20936,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="154" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="27" t="str">
         <f t="shared" si="115"/>
         <v>CBSE - XII - Geography</v>
@@ -21123,7 +21061,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="155" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="27" t="str">
         <f t="shared" si="115"/>
         <v>CBSE - XII - Political Science</v>
@@ -21250,7 +21188,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="156" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="27" t="str">
         <f t="shared" si="115"/>
         <v>CBSE - XII - Sociology</v>
@@ -21267,11 +21205,11 @@
       <c r="E156" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="F156" s="56" t="s">
-        <v>212</v>
-      </c>
-      <c r="G156" s="56" t="s">
-        <v>302</v>
+      <c r="F156" s="36" t="s">
+        <v>210</v>
+      </c>
+      <c r="G156" s="36" t="s">
+        <v>299</v>
       </c>
       <c r="H156" s="7" t="s">
         <v>72</v>
@@ -21377,7 +21315,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="157" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="27" t="str">
         <f t="shared" si="115"/>
         <v>CBSE - XII - Philosophy</v>
@@ -21504,7 +21442,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="158" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="27" t="str">
         <f t="shared" si="115"/>
         <v>CBSE - XII - Accounting</v>
@@ -21631,7 +21569,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="159" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="27" t="str">
         <f t="shared" si="115"/>
         <v>CBSE - XII - Economics</v>
@@ -21758,7 +21696,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="160" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="27" t="str">
         <f t="shared" si="115"/>
         <v>CBSE - XII - Business Studies</v>
@@ -21775,11 +21713,11 @@
       <c r="E160" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F160" s="56" t="s">
+      <c r="F160" s="36" t="s">
         <v>183</v>
       </c>
-      <c r="G160" s="56" t="s">
-        <v>302</v>
+      <c r="G160" s="36" t="s">
+        <v>299</v>
       </c>
       <c r="H160" s="7" t="s">
         <v>72</v>
@@ -21885,7 +21823,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="161" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="27" t="str">
         <f t="shared" si="115"/>
         <v>CBSE - XII - Info Practices</v>
@@ -21903,7 +21841,7 @@
         <v>4</v>
       </c>
       <c r="F161" s="7" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G161" s="7" t="s">
         <v>191</v>
@@ -22012,7 +21950,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="162" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="27" t="str">
         <f t="shared" si="115"/>
         <v>CBSE - XII - Legal Studies</v>
@@ -22157,7 +22095,7 @@
         <v>4</v>
       </c>
       <c r="F163" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G163" s="7" t="s">
         <v>191</v>
@@ -22266,7 +22204,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="164" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="27" t="str">
         <f>D164&amp;" - "&amp;C164&amp;" - "&amp;B164</f>
         <v>CBSE - XII - Computers</v>
@@ -22393,7 +22331,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="165" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="27" t="str">
         <f>D165&amp;" - "&amp;C165&amp;" - "&amp;B165</f>
         <v>CBSE - XII - AI</v>
@@ -22520,7 +22458,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="166" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="27" t="str">
         <f t="shared" ref="A166:A179" si="308">D166&amp;" - "&amp;C166&amp;" - "&amp;B166</f>
         <v>CBSE - XI - English</v>
@@ -22537,12 +22475,8 @@
       <c r="E166" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="F166" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="G166" s="7" t="s">
-        <v>191</v>
-      </c>
+      <c r="F166" s="7"/>
+      <c r="G166" s="7"/>
       <c r="H166" s="7" t="s">
         <v>72</v>
       </c>
@@ -22647,7 +22581,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="167" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="27" t="str">
         <f t="shared" si="308"/>
         <v>CBSE - XI - Bengali</v>
@@ -22774,7 +22708,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="168" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="27" t="str">
         <f t="shared" si="308"/>
         <v>CBSE - XI - Hindi</v>
@@ -22792,7 +22726,7 @@
         <v>132</v>
       </c>
       <c r="F168" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="G168" s="7" t="s">
         <v>191</v>
@@ -22901,7 +22835,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="169" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="27" t="str">
         <f t="shared" si="308"/>
         <v>CBSE - XI - History</v>
@@ -23028,7 +22962,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="170" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="27" t="str">
         <f t="shared" si="308"/>
         <v>CBSE - XI - Geography</v>
@@ -23153,7 +23087,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="171" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="27" t="str">
         <f t="shared" si="308"/>
         <v>CBSE - XI - Political Science</v>
@@ -23280,7 +23214,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="172" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="27" t="str">
         <f t="shared" si="308"/>
         <v>CBSE - XI - Sociology</v>
@@ -23297,11 +23231,11 @@
       <c r="E172" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="F172" s="56" t="s">
-        <v>212</v>
-      </c>
-      <c r="G172" s="56" t="s">
-        <v>302</v>
+      <c r="F172" s="36" t="s">
+        <v>210</v>
+      </c>
+      <c r="G172" s="36" t="s">
+        <v>299</v>
       </c>
       <c r="H172" s="7" t="s">
         <v>72</v>
@@ -23407,7 +23341,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="173" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="27" t="str">
         <f t="shared" si="308"/>
         <v>CBSE - XI - Philosophy</v>
@@ -23534,7 +23468,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="174" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="27" t="str">
         <f t="shared" si="308"/>
         <v>CBSE - XI - Accounting</v>
@@ -23661,7 +23595,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="175" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="27" t="str">
         <f t="shared" si="308"/>
         <v>CBSE - XI - Economics</v>
@@ -23788,7 +23722,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="176" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="27" t="str">
         <f t="shared" si="308"/>
         <v>CBSE - XI - Business Studies</v>
@@ -23805,11 +23739,11 @@
       <c r="E176" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F176" s="56" t="s">
+      <c r="F176" s="36" t="s">
         <v>183</v>
       </c>
-      <c r="G176" s="56" t="s">
-        <v>302</v>
+      <c r="G176" s="36" t="s">
+        <v>299</v>
       </c>
       <c r="H176" s="7" t="s">
         <v>72</v>
@@ -23915,7 +23849,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="177" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="27" t="str">
         <f t="shared" si="308"/>
         <v>CBSE - XI - Info Practices</v>
@@ -23933,7 +23867,7 @@
         <v>4</v>
       </c>
       <c r="F177" s="7" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G177" s="7" t="s">
         <v>191</v>
@@ -24042,7 +23976,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="178" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="27" t="str">
         <f t="shared" si="308"/>
         <v>CBSE - XI - Legal Studies</v>
@@ -24187,7 +24121,7 @@
         <v>4</v>
       </c>
       <c r="F179" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G179" s="7" t="s">
         <v>191</v>
@@ -24296,7 +24230,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="180" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="27" t="str">
         <f>D180&amp;" - "&amp;C180&amp;" - "&amp;B180</f>
         <v>CBSE - XI - Computers</v>
@@ -24423,7 +24357,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="181" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="27" t="str">
         <f>D181&amp;" - "&amp;C181&amp;" - "&amp;B181</f>
         <v>CBSE - XI - AI</v>
@@ -24550,7 +24484,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="182" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="27" t="str">
         <f>D182&amp;" - "&amp;C182&amp;" - "&amp;B182</f>
         <v>CBSE - X - English</v>
@@ -24677,7 +24611,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="183" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="27" t="str">
         <f t="shared" ref="A183:A209" si="344">D183&amp;" - "&amp;C183&amp;" - "&amp;B183</f>
         <v>CBSE - X - Bengali</v>
@@ -24694,11 +24628,11 @@
       <c r="E183" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="F183" s="56" t="s">
+      <c r="F183" s="36" t="s">
         <v>183</v>
       </c>
-      <c r="G183" s="56" t="s">
-        <v>302</v>
+      <c r="G183" s="36" t="s">
+        <v>299</v>
       </c>
       <c r="H183" s="7" t="s">
         <v>72</v>
@@ -24804,7 +24738,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="184" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="27" t="str">
         <f t="shared" si="344"/>
         <v>CBSE - X - Hindi</v>
@@ -24822,7 +24756,7 @@
         <v>132</v>
       </c>
       <c r="F184" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="G184" s="7" t="s">
         <v>191</v>
@@ -24931,13 +24865,13 @@
         <v>400</v>
       </c>
     </row>
-    <row r="185" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="27" t="str">
         <f>D185&amp;" - "&amp;C185&amp;" - "&amp;B185</f>
         <v>CBSE - X - SST, Hist, Geog, Eco, Civics</v>
       </c>
       <c r="B185" s="6" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C185" s="3" t="s">
         <v>54</v>
@@ -24948,11 +24882,11 @@
       <c r="E185" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="F185" s="56" t="s">
+      <c r="F185" s="36" t="s">
         <v>183</v>
       </c>
-      <c r="G185" s="56" t="s">
-        <v>302</v>
+      <c r="G185" s="36" t="s">
+        <v>299</v>
       </c>
       <c r="H185" s="7" t="s">
         <v>72</v>
@@ -25076,7 +25010,7 @@
         <v>132</v>
       </c>
       <c r="F186" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G186" s="7" t="s">
         <v>191</v>
@@ -25185,13 +25119,13 @@
         <v>400</v>
       </c>
     </row>
-    <row r="187" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="27" t="str">
         <f t="shared" si="344"/>
         <v>CBSE - X - Science, Physics</v>
       </c>
       <c r="B187" s="32" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C187" s="3" t="s">
         <v>54</v>
@@ -25312,13 +25246,13 @@
         <v>400</v>
       </c>
     </row>
-    <row r="188" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="27" t="str">
         <f t="shared" si="344"/>
         <v>CBSE - X - Science, Chemistry</v>
       </c>
       <c r="B188" s="32" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C188" s="3" t="s">
         <v>54</v>
@@ -25439,13 +25373,13 @@
         <v>400</v>
       </c>
     </row>
-    <row r="189" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="27" t="str">
         <f t="shared" si="344"/>
         <v>CBSE - X - Science, Biology</v>
       </c>
       <c r="B189" s="32" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C189" s="3" t="s">
         <v>54</v>
@@ -25564,7 +25498,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="190" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="27" t="str">
         <f t="shared" si="344"/>
         <v>CBSE - X - Computers</v>
@@ -25691,7 +25625,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="191" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="27" t="str">
         <f t="shared" si="344"/>
         <v>CBSE - X - AI</v>
@@ -25818,7 +25752,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="192" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="27" t="str">
         <f>D192&amp;" - "&amp;C192&amp;" - "&amp;B192</f>
         <v>CBSE - IX - English</v>
@@ -25945,7 +25879,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="193" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="27" t="str">
         <f t="shared" ref="A193:A194" si="382">D193&amp;" - "&amp;C193&amp;" - "&amp;B193</f>
         <v>CBSE - IX - Bengali</v>
@@ -25962,11 +25896,11 @@
       <c r="E193" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="F193" s="56" t="s">
+      <c r="F193" s="36" t="s">
         <v>183</v>
       </c>
-      <c r="G193" s="56" t="s">
-        <v>302</v>
+      <c r="G193" s="36" t="s">
+        <v>299</v>
       </c>
       <c r="H193" s="7" t="s">
         <v>72</v>
@@ -26072,7 +26006,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="194" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="27" t="str">
         <f t="shared" si="382"/>
         <v>CBSE - IX - Hindi</v>
@@ -26090,7 +26024,7 @@
         <v>132</v>
       </c>
       <c r="F194" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="G194" s="7" t="s">
         <v>191</v>
@@ -26199,13 +26133,13 @@
         <v>400</v>
       </c>
     </row>
-    <row r="195" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="27" t="str">
         <f>D195&amp;" - "&amp;C195&amp;" - "&amp;B195</f>
         <v>CBSE - IX - SST, Hist, Geog, Eco, Civics</v>
       </c>
       <c r="B195" s="6" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C195" s="3" t="s">
         <v>55</v>
@@ -26216,11 +26150,11 @@
       <c r="E195" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="F195" s="56" t="s">
+      <c r="F195" s="36" t="s">
         <v>183</v>
       </c>
-      <c r="G195" s="56" t="s">
-        <v>302</v>
+      <c r="G195" s="36" t="s">
+        <v>299</v>
       </c>
       <c r="H195" s="7" t="s">
         <v>72</v>
@@ -26344,7 +26278,7 @@
         <v>132</v>
       </c>
       <c r="F196" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G196" s="7" t="s">
         <v>191</v>
@@ -26453,13 +26387,13 @@
         <v>400</v>
       </c>
     </row>
-    <row r="197" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="27" t="str">
         <f t="shared" ref="A197:A201" si="386">D197&amp;" - "&amp;C197&amp;" - "&amp;B197</f>
         <v>CBSE - IX - Science, Physics</v>
       </c>
       <c r="B197" s="32" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C197" s="3" t="s">
         <v>55</v>
@@ -26580,13 +26514,13 @@
         <v>400</v>
       </c>
     </row>
-    <row r="198" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="27" t="str">
         <f t="shared" si="386"/>
         <v>CBSE - IX - Science, Chemistry</v>
       </c>
       <c r="B198" s="32" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C198" s="3" t="s">
         <v>55</v>
@@ -26707,13 +26641,13 @@
         <v>400</v>
       </c>
     </row>
-    <row r="199" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="27" t="str">
         <f t="shared" si="386"/>
         <v>CBSE - IX - Science, Biology</v>
       </c>
       <c r="B199" s="32" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C199" s="3" t="s">
         <v>55</v>
@@ -26832,7 +26766,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="200" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="27" t="str">
         <f t="shared" si="386"/>
         <v>CBSE - IX - Computers</v>
@@ -26959,7 +26893,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="201" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="27" t="str">
         <f t="shared" si="386"/>
         <v>CBSE - IX - AI</v>
@@ -27086,7 +27020,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="202" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="27" t="str">
         <f t="shared" si="344"/>
         <v>CBSE - VIII - English</v>
@@ -27213,7 +27147,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="203" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="27" t="str">
         <f t="shared" si="344"/>
         <v>CBSE - VIII - Bengali</v>
@@ -27230,11 +27164,11 @@
       <c r="E203" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="F203" s="56" t="s">
+      <c r="F203" s="36" t="s">
         <v>183</v>
       </c>
-      <c r="G203" s="56" t="s">
-        <v>302</v>
+      <c r="G203" s="36" t="s">
+        <v>299</v>
       </c>
       <c r="H203" s="7" t="s">
         <v>72</v>
@@ -27340,7 +27274,7 @@
         <v>399.99999999999994</v>
       </c>
     </row>
-    <row r="204" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="27" t="str">
         <f t="shared" si="344"/>
         <v>CBSE - VIII - Hindi</v>
@@ -27358,7 +27292,7 @@
         <v>132</v>
       </c>
       <c r="F204" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="G204" s="7" t="s">
         <v>191</v>
@@ -27467,7 +27401,7 @@
         <v>399.99999999999994</v>
       </c>
     </row>
-    <row r="205" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="27" t="str">
         <f>D205&amp;" - "&amp;C205&amp;" - "&amp;B205</f>
         <v>CBSE - VIII - Social Science</v>
@@ -27608,7 +27542,7 @@
         <v>132</v>
       </c>
       <c r="F206" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G206" s="7" t="s">
         <v>191</v>
@@ -27717,13 +27651,13 @@
         <v>400</v>
       </c>
     </row>
-    <row r="207" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="27" t="str">
         <f t="shared" si="344"/>
         <v>CBSE - VIII - Science - Physics, Chem</v>
       </c>
       <c r="B207" s="32" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C207" s="3" t="s">
         <v>52</v>
@@ -27844,13 +27778,13 @@
         <v>400</v>
       </c>
     </row>
-    <row r="208" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="27" t="str">
         <f t="shared" ref="A208" si="416">D208&amp;" - "&amp;C208&amp;" - "&amp;B208</f>
         <v>CBSE - VIII - Science - Bio</v>
       </c>
       <c r="B208" s="32" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C208" s="3" t="s">
         <v>52</v>
@@ -27969,7 +27903,7 @@
         <v>399.99999999999994</v>
       </c>
     </row>
-    <row r="209" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="27" t="str">
         <f t="shared" si="344"/>
         <v>CBSE - VIII - Computers</v>
@@ -28096,7 +28030,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="210" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="12" t="str">
         <f>C210&amp;" - "&amp;B210</f>
         <v>B.Com. (H) - Adv Accounting I</v>
@@ -28105,7 +28039,7 @@
         <v>79</v>
       </c>
       <c r="C210" s="3" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D210" s="3" t="s">
         <v>4</v>
@@ -28223,7 +28157,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="211" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="12" t="str">
         <f t="shared" ref="A211:A219" si="426">C211&amp;" - "&amp;B211</f>
         <v>B.Com. (H) - Adv Accounting II</v>
@@ -28232,7 +28166,7 @@
         <v>80</v>
       </c>
       <c r="C211" s="3" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D211" s="3" t="s">
         <v>4</v>
@@ -28350,7 +28284,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="212" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="12" t="str">
         <f t="shared" si="426"/>
         <v>B.Com. (H) - Adv Accounting III</v>
@@ -28359,7 +28293,7 @@
         <v>81</v>
       </c>
       <c r="C212" s="3" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D212" s="3" t="s">
         <v>4</v>
@@ -28477,7 +28411,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="213" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" s="12" t="str">
         <f t="shared" si="426"/>
         <v>B.Com. (H) - Cost &amp; Mgmt Ac I</v>
@@ -28486,7 +28420,7 @@
         <v>94</v>
       </c>
       <c r="C213" s="3" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D213" s="3" t="s">
         <v>4</v>
@@ -28604,7 +28538,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="214" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="12" t="str">
         <f t="shared" si="426"/>
         <v>B.Com. (H) - Cost &amp; Mgmt Ac II</v>
@@ -28613,7 +28547,7 @@
         <v>95</v>
       </c>
       <c r="C214" s="3" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D214" s="3" t="s">
         <v>4</v>
@@ -28731,7 +28665,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="215" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="12" t="str">
         <f t="shared" si="426"/>
         <v>B.Com. (H) - In/Direct Tax I</v>
@@ -28740,7 +28674,7 @@
         <v>96</v>
       </c>
       <c r="C215" s="3" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D215" s="3" t="s">
         <v>4</v>
@@ -28858,7 +28792,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="216" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="12" t="str">
         <f t="shared" si="426"/>
         <v>B.Com. (H) - In/Direct Tax II</v>
@@ -28867,7 +28801,7 @@
         <v>97</v>
       </c>
       <c r="C216" s="3" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D216" s="3" t="s">
         <v>4</v>
@@ -28876,7 +28810,7 @@
         <v>4</v>
       </c>
       <c r="F216" s="7" t="s">
-        <v>300</v>
+        <v>187</v>
       </c>
       <c r="G216" s="7" t="s">
         <v>191</v>
@@ -28985,7 +28919,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="217" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="12" t="str">
         <f t="shared" si="426"/>
         <v>B.Com. (H) - Financial Mgmt</v>
@@ -28994,7 +28928,7 @@
         <v>98</v>
       </c>
       <c r="C217" s="3" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D217" s="3" t="s">
         <v>4</v>
@@ -29112,16 +29046,16 @@
         <v>400</v>
       </c>
     </row>
-    <row r="218" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="12" t="str">
         <f t="shared" si="426"/>
         <v>B.Com. (H) - Fin Rpt &amp; Stmt Anlys</v>
       </c>
       <c r="B218" s="9" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C218" s="3" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D218" s="3" t="s">
         <v>4</v>
@@ -29239,7 +29173,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="219" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="12" t="str">
         <f t="shared" si="426"/>
         <v>B.Com. (H) - Audit &amp; Assurance</v>
@@ -29248,7 +29182,7 @@
         <v>83</v>
       </c>
       <c r="C219" s="3" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D219" s="3" t="s">
         <v>4</v>
@@ -29366,7 +29300,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="220" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" s="12" t="str">
         <f>C220&amp;" - "&amp;B220</f>
         <v>B.Com. - Micro Economics</v>
@@ -29493,7 +29427,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="221" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="12" t="str">
         <f t="shared" ref="A221:A265" si="452">C221&amp;" - "&amp;B221</f>
         <v>B.Com. - Macro Economics</v>
@@ -29620,7 +29554,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="222" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="12" t="str">
         <f t="shared" si="452"/>
         <v>B.Com. - Development Eco</v>
@@ -29747,7 +29681,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="223" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" s="12" t="str">
         <f t="shared" si="452"/>
         <v>B.Com. - Business Management I</v>
@@ -29874,7 +29808,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="224" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" s="12" t="str">
         <f t="shared" si="452"/>
         <v>B.Com. - Business Management II</v>
@@ -30001,7 +29935,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="225" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" s="12" t="str">
         <f t="shared" si="452"/>
         <v>B.Com. - HRM</v>
@@ -30128,7 +30062,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="226" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" s="12" t="str">
         <f t="shared" si="452"/>
         <v>B.Com. - Business Mathematics</v>
@@ -30255,7 +30189,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="227" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="12" t="str">
         <f t="shared" si="452"/>
         <v>B.Com. - Business Statistics</v>
@@ -30382,7 +30316,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="228" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" s="12" t="str">
         <f t="shared" si="452"/>
         <v>B.Com. - Business Law</v>
@@ -30509,7 +30443,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="229" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" s="12" t="str">
         <f t="shared" si="452"/>
         <v>B.Com. - Company Law</v>
@@ -30636,7 +30570,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="230" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" s="12" t="str">
         <f t="shared" si="452"/>
         <v>B.Com. - Enterpreneurship</v>
@@ -30763,7 +30697,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="231" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" s="12" t="str">
         <f t="shared" si="452"/>
         <v>B.Com. - Environmantal Studies</v>
@@ -30780,11 +30714,11 @@
       <c r="E231" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F231" s="56" t="s">
-        <v>212</v>
-      </c>
-      <c r="G231" s="56" t="s">
-        <v>302</v>
+      <c r="F231" s="36" t="s">
+        <v>210</v>
+      </c>
+      <c r="G231" s="36" t="s">
+        <v>299</v>
       </c>
       <c r="H231" s="7" t="s">
         <v>104</v>
@@ -30890,7 +30824,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="232" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" s="12" t="str">
         <f t="shared" si="452"/>
         <v>B.Com. - Business Comm</v>
@@ -30907,11 +30841,11 @@
       <c r="E232" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F232" s="56" t="s">
-        <v>212</v>
-      </c>
-      <c r="G232" s="56" t="s">
-        <v>302</v>
+      <c r="F232" s="36" t="s">
+        <v>210</v>
+      </c>
+      <c r="G232" s="36" t="s">
+        <v>299</v>
       </c>
       <c r="H232" s="7" t="s">
         <v>104</v>
@@ -31017,7 +30951,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="233" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" s="12" t="str">
         <f t="shared" si="452"/>
         <v>B.Com. - E-Commerce</v>
@@ -31035,7 +30969,7 @@
         <v>4</v>
       </c>
       <c r="F233" s="7" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G233" s="7" t="s">
         <v>191</v>
@@ -31144,7 +31078,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="234" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" s="12" t="str">
         <f t="shared" si="452"/>
         <v>B.Com. - IT App in Business</v>
@@ -31162,7 +31096,7 @@
         <v>4</v>
       </c>
       <c r="F234" s="7" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G234" s="7" t="s">
         <v>191</v>
@@ -31271,7 +31205,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="235" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" s="12" t="str">
         <f t="shared" si="452"/>
         <v>B.Com. - Comp Ac &amp; Tax eFiling</v>
@@ -31398,7 +31332,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="236" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" s="12" t="str">
         <f t="shared" si="452"/>
         <v>B.B.A. - English</v>
@@ -31415,11 +31349,11 @@
       <c r="E236" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F236" s="56" t="s">
-        <v>212</v>
-      </c>
-      <c r="G236" s="56" t="s">
-        <v>302</v>
+      <c r="F236" s="36" t="s">
+        <v>210</v>
+      </c>
+      <c r="G236" s="36" t="s">
+        <v>299</v>
       </c>
       <c r="H236" s="7" t="s">
         <v>104</v>
@@ -31525,7 +31459,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="237" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" s="12" t="str">
         <f t="shared" si="452"/>
         <v>B.B.A. - Business Comm</v>
@@ -31542,11 +31476,11 @@
       <c r="E237" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F237" s="56" t="s">
-        <v>212</v>
-      </c>
-      <c r="G237" s="56" t="s">
-        <v>302</v>
+      <c r="F237" s="36" t="s">
+        <v>210</v>
+      </c>
+      <c r="G237" s="36" t="s">
+        <v>299</v>
       </c>
       <c r="H237" s="7" t="s">
         <v>104</v>
@@ -31652,7 +31586,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="238" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238" s="12" t="str">
         <f t="shared" si="452"/>
         <v>B.B.A. - Essentials of Math</v>
@@ -31779,7 +31713,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="239" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239" s="12" t="str">
         <f t="shared" si="452"/>
         <v>B.B.A. - Essentials of Stats</v>
@@ -31906,7 +31840,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="240" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" s="12" t="str">
         <f t="shared" si="452"/>
         <v>B.B.A. - Advanced Math &amp; Stats</v>
@@ -32033,7 +31967,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="241" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A241" s="12" t="str">
         <f t="shared" si="452"/>
         <v>B.B.A. - Computer Applications</v>
@@ -32051,7 +31985,7 @@
         <v>4</v>
       </c>
       <c r="F241" s="7" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G241" s="7" t="s">
         <v>191</v>
@@ -32160,7 +32094,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="242" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A242" s="12" t="str">
         <f t="shared" si="452"/>
         <v>B.B.A. - Micro Economics</v>
@@ -32287,7 +32221,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="243" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" s="12" t="str">
         <f t="shared" si="452"/>
         <v>B.B.A. - Macro Economics</v>
@@ -32414,7 +32348,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="244" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" s="12" t="str">
         <f t="shared" si="452"/>
         <v>B.B.A. - Organizational Behavior</v>
@@ -32541,7 +32475,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="245" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="12" t="str">
         <f t="shared" si="452"/>
         <v>B.B.A. - Social Structure &amp; Ethics</v>
@@ -32558,11 +32492,11 @@
       <c r="E245" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F245" s="56" t="s">
-        <v>212</v>
-      </c>
-      <c r="G245" s="56" t="s">
-        <v>302</v>
+      <c r="F245" s="36" t="s">
+        <v>210</v>
+      </c>
+      <c r="G245" s="36" t="s">
+        <v>299</v>
       </c>
       <c r="H245" s="7" t="s">
         <v>104</v>
@@ -32668,7 +32602,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="246" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A246" s="12" t="str">
         <f t="shared" si="452"/>
         <v>B.B.A. - Principles of Mgmt</v>
@@ -32795,7 +32729,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="247" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A247" s="12" t="str">
         <f t="shared" si="452"/>
         <v>B.B.A. - Managerial Economics</v>
@@ -32922,7 +32856,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="248" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A248" s="12" t="str">
         <f t="shared" si="452"/>
         <v>B.B.A. - Business Laws</v>
@@ -33049,7 +32983,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="249" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249" s="12" t="str">
         <f t="shared" si="452"/>
         <v>B.B.A. - Financial Accounting</v>
@@ -33176,7 +33110,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="250" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A250" s="12" t="str">
         <f t="shared" si="452"/>
         <v>B.B.A. - Environment Studies</v>
@@ -33193,11 +33127,11 @@
       <c r="E250" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F250" s="56" t="s">
-        <v>212</v>
-      </c>
-      <c r="G250" s="56" t="s">
-        <v>302</v>
+      <c r="F250" s="36" t="s">
+        <v>210</v>
+      </c>
+      <c r="G250" s="36" t="s">
+        <v>299</v>
       </c>
       <c r="H250" s="7" t="s">
         <v>104</v>
@@ -33303,7 +33237,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="251" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" s="12" t="str">
         <f t="shared" si="452"/>
         <v>B.B.A. - Prod &amp; Materials Mgmt</v>
@@ -33430,7 +33364,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="252" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" s="12" t="str">
         <f t="shared" si="452"/>
         <v>B.B.A. - Mgmt Info System</v>
@@ -33448,7 +33382,7 @@
         <v>4</v>
       </c>
       <c r="F252" s="7" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G252" s="7" t="s">
         <v>191</v>
@@ -33557,7 +33491,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="253" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253" s="12" t="str">
         <f t="shared" si="452"/>
         <v>B.B.A. - Cost Accounting</v>
@@ -33684,7 +33618,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="254" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A254" s="12" t="str">
         <f t="shared" si="452"/>
         <v>B.B.A. - Marketing Management</v>
@@ -33811,7 +33745,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="255" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A255" s="12" t="str">
         <f t="shared" si="452"/>
         <v>B.B.A. - HRM</v>
@@ -33938,7 +33872,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="256" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A256" s="12" t="str">
         <f t="shared" si="452"/>
         <v>B.B.A. - Financial Management</v>
@@ -34065,7 +33999,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="257" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A257" s="12" t="str">
         <f t="shared" si="452"/>
         <v>B.B.A. - Sales &amp; Distribn Mgmt</v>
@@ -34192,7 +34126,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="258" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A258" s="12" t="str">
         <f t="shared" si="452"/>
         <v>B.B.A. - HR Development</v>
@@ -34319,7 +34253,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="259" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A259" s="12" t="str">
         <f t="shared" si="452"/>
         <v>B.B.A. - Enterpreneurship Dev</v>
@@ -34446,7 +34380,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="260" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A260" s="12" t="str">
         <f t="shared" si="452"/>
         <v>B.B.A. - Research Methodology</v>
@@ -34573,7 +34507,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="261" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A261" s="12" t="str">
         <f t="shared" si="452"/>
         <v>B.B.A. - Mgmt Accounting</v>
@@ -34700,7 +34634,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="262" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A262" s="12" t="str">
         <f t="shared" si="452"/>
         <v>B.B.A. - Ad &amp; Sales Promotion</v>
@@ -34827,7 +34761,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="263" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A263" s="12" t="str">
         <f t="shared" si="452"/>
         <v>B.B.A. - Industrial Relations</v>
@@ -34954,7 +34888,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="264" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A264" s="12" t="str">
         <f t="shared" si="452"/>
         <v>B.B.A. - Public Service Mgmt</v>
@@ -35081,7 +35015,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="265" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A265" s="12" t="str">
         <f t="shared" si="452"/>
         <v>B.B.A. - Project and Viva</v>
@@ -35208,16 +35142,16 @@
         <v>400</v>
       </c>
     </row>
-    <row r="266" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A266" s="22" t="str">
         <f>D266&amp;" - "&amp;C266&amp;" - "&amp;B266</f>
         <v>C.A. - Found - Accountancy</v>
       </c>
       <c r="B266" s="9" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C266" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D266" s="3" t="s">
         <v>170</v>
@@ -35335,16 +35269,16 @@
         <v>400</v>
       </c>
     </row>
-    <row r="267" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A267" s="22" t="str">
         <f t="shared" ref="A267:A330" si="472">D267&amp;" - "&amp;C267&amp;" - "&amp;B267</f>
         <v>C.A. - Found - Biz laws &amp; Corspndnce</v>
       </c>
       <c r="B267" s="9" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C267" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D267" s="3" t="s">
         <v>170</v>
@@ -35353,7 +35287,7 @@
         <v>4</v>
       </c>
       <c r="F267" s="7" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G267" s="7" t="s">
         <v>191</v>
@@ -35402,16 +35336,16 @@
       <c r="AI267" s="34"/>
       <c r="AJ267" s="34"/>
     </row>
-    <row r="268" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A268" s="22" t="str">
         <f t="shared" si="472"/>
         <v>C.A. - Found - Biz Math &amp; Stat</v>
       </c>
       <c r="B268" s="9" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C268" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D268" s="3" t="s">
         <v>170</v>
@@ -35420,7 +35354,7 @@
         <v>4</v>
       </c>
       <c r="F268" s="7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G268" s="7" t="s">
         <v>191</v>
@@ -35469,16 +35403,16 @@
       <c r="AI268" s="34"/>
       <c r="AJ268" s="34"/>
     </row>
-    <row r="269" spans="1:36" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A269" s="22" t="str">
         <f t="shared" si="472"/>
         <v>C.A. - Found - Eco &amp; Comm Knowledge</v>
       </c>
       <c r="B269" s="9" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C269" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D269" s="3" t="s">
         <v>170</v>
@@ -35486,12 +35420,8 @@
       <c r="E269" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F269" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="G269" s="7" t="s">
-        <v>191</v>
-      </c>
+      <c r="F269" s="7"/>
+      <c r="G269" s="7"/>
       <c r="H269" s="7" t="s">
         <v>104</v>
       </c>
@@ -35536,16 +35466,16 @@
       <c r="AI269" s="34"/>
       <c r="AJ269" s="34"/>
     </row>
-    <row r="270" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A270" s="22" t="str">
         <f t="shared" si="472"/>
         <v>C.A. - Inter - Accountancy</v>
       </c>
       <c r="B270" s="30" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C270" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D270" s="3" t="s">
         <v>170</v>
@@ -35663,16 +35593,16 @@
         <v>400</v>
       </c>
     </row>
-    <row r="271" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A271" s="22" t="str">
         <f t="shared" si="472"/>
         <v>C.A. - Inter - Corp &amp; other Laws</v>
       </c>
       <c r="B271" s="30" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C271" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D271" s="3" t="s">
         <v>170</v>
@@ -35681,7 +35611,7 @@
         <v>4</v>
       </c>
       <c r="F271" s="7" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G271" s="7" t="s">
         <v>191</v>
@@ -35720,16 +35650,16 @@
       <c r="AI271" s="16"/>
       <c r="AJ271" s="16"/>
     </row>
-    <row r="272" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A272" s="22" t="str">
         <f t="shared" si="472"/>
         <v>C.A. - Inter - Cost &amp; Mgmt Ac</v>
       </c>
       <c r="B272" s="30" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C272" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D272" s="3" t="s">
         <v>170</v>
@@ -35777,16 +35707,16 @@
       <c r="AI272" s="16"/>
       <c r="AJ272" s="16"/>
     </row>
-    <row r="273" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A273" s="22" t="str">
         <f t="shared" si="472"/>
         <v>C.A. - Inter - Tax</v>
       </c>
       <c r="B273" s="30" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C273" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D273" s="3" t="s">
         <v>170</v>
@@ -35794,9 +35724,7 @@
       <c r="E273" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F273" s="7" t="s">
-        <v>205</v>
-      </c>
+      <c r="F273" s="7"/>
       <c r="G273" s="7" t="s">
         <v>191</v>
       </c>
@@ -35834,16 +35762,16 @@
       <c r="AI273" s="16"/>
       <c r="AJ273" s="16"/>
     </row>
-    <row r="274" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A274" s="22" t="str">
         <f t="shared" si="472"/>
         <v>C.A. - Inter - Audit</v>
       </c>
       <c r="B274" s="30" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C274" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D274" s="3" t="s">
         <v>170</v>
@@ -35851,9 +35779,7 @@
       <c r="E274" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F274" s="7" t="s">
-        <v>205</v>
-      </c>
+      <c r="F274" s="7"/>
       <c r="G274" s="7" t="s">
         <v>191</v>
       </c>
@@ -35891,16 +35817,16 @@
       <c r="AI274" s="16"/>
       <c r="AJ274" s="16"/>
     </row>
-    <row r="275" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A275" s="22" t="str">
         <f t="shared" si="472"/>
         <v>C.A. - Inter - Adv Ac</v>
       </c>
       <c r="B275" s="30" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C275" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D275" s="3" t="s">
         <v>170</v>
@@ -35948,16 +35874,16 @@
       <c r="AI275" s="16"/>
       <c r="AJ275" s="16"/>
     </row>
-    <row r="276" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A276" s="22" t="str">
         <f t="shared" si="472"/>
         <v>C.A. - Inter - EIS &amp; Strategic Mgmt</v>
       </c>
       <c r="B276" s="30" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C276" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D276" s="3" t="s">
         <v>170</v>
@@ -35966,7 +35892,7 @@
         <v>4</v>
       </c>
       <c r="F276" s="7" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="G276" s="7" t="s">
         <v>191</v>
@@ -36005,16 +35931,16 @@
       <c r="AI276" s="16"/>
       <c r="AJ276" s="16"/>
     </row>
-    <row r="277" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A277" s="22" t="str">
         <f t="shared" si="472"/>
         <v>C.A. - Inter - Fin Mgmt &amp; Eco</v>
       </c>
       <c r="B277" s="30" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C277" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D277" s="3" t="s">
         <v>170</v>
@@ -36022,12 +35948,8 @@
       <c r="E277" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F277" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="G277" s="7" t="s">
-        <v>191</v>
-      </c>
+      <c r="F277" s="7"/>
+      <c r="G277" s="7"/>
       <c r="H277" s="7" t="s">
         <v>104</v>
       </c>
@@ -36062,13 +35984,13 @@
       <c r="AI277" s="16"/>
       <c r="AJ277" s="16"/>
     </row>
-    <row r="278" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A278" s="22" t="str">
         <f t="shared" si="472"/>
         <v>C.A. - Final - Fin Reporting</v>
       </c>
       <c r="B278" s="9" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C278" s="3" t="s">
         <v>169</v>
@@ -36189,13 +36111,13 @@
         <v>400</v>
       </c>
     </row>
-    <row r="279" spans="1:36" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A279" s="22" t="str">
         <f t="shared" si="472"/>
         <v>C.A. - Final - Strategic Fin Management</v>
       </c>
       <c r="B279" s="9" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C279" s="3" t="s">
         <v>169</v>
@@ -36246,13 +36168,13 @@
       <c r="AI279" s="16"/>
       <c r="AJ279" s="16"/>
     </row>
-    <row r="280" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A280" s="22" t="str">
         <f t="shared" si="472"/>
         <v>C.A. - Final - Audit &amp; Ethics</v>
       </c>
       <c r="B280" s="9" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C280" s="3" t="s">
         <v>169</v>
@@ -36263,9 +36185,7 @@
       <c r="E280" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F280" s="7" t="s">
-        <v>205</v>
-      </c>
+      <c r="F280" s="7"/>
       <c r="G280" s="7" t="s">
         <v>191</v>
       </c>
@@ -36303,13 +36223,13 @@
       <c r="AI280" s="16"/>
       <c r="AJ280" s="16"/>
     </row>
-    <row r="281" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A281" s="22" t="str">
         <f t="shared" si="472"/>
         <v>C.A. - Final - Corporate &amp; Eco Laws</v>
       </c>
       <c r="B281" s="9" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C281" s="3" t="s">
         <v>169</v>
@@ -36321,7 +36241,7 @@
         <v>4</v>
       </c>
       <c r="F281" s="7" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G281" s="7" t="s">
         <v>191</v>
@@ -36360,13 +36280,13 @@
       <c r="AI281" s="16"/>
       <c r="AJ281" s="16"/>
     </row>
-    <row r="282" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A282" s="22" t="str">
         <f t="shared" si="472"/>
         <v>C.A. - Final - Strategic Cost &amp; Perf Eval</v>
       </c>
       <c r="B282" s="9" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C282" s="3" t="s">
         <v>169</v>
@@ -36417,13 +36337,13 @@
       <c r="AI282" s="16"/>
       <c r="AJ282" s="16"/>
     </row>
-    <row r="283" spans="1:36" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A283" s="22" t="str">
         <f t="shared" si="472"/>
         <v>C.A. - Final - Risk, Cptl Mkt, Glbl FinRpt</v>
       </c>
       <c r="B283" s="9" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C283" s="3" t="s">
         <v>169</v>
@@ -36474,13 +36394,13 @@
       <c r="AI283" s="16"/>
       <c r="AJ283" s="16"/>
     </row>
-    <row r="284" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A284" s="22" t="str">
         <f t="shared" si="472"/>
         <v>C.A. - Final - Direct Tax &amp; Intrtnl Tax</v>
       </c>
       <c r="B284" s="9" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C284" s="3" t="s">
         <v>169</v>
@@ -36492,7 +36412,7 @@
         <v>4</v>
       </c>
       <c r="F284" s="7" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G284" s="7" t="s">
         <v>191</v>
@@ -36531,13 +36451,13 @@
       <c r="AI284" s="16"/>
       <c r="AJ284" s="16"/>
     </row>
-    <row r="285" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A285" s="22" t="str">
         <f t="shared" si="472"/>
         <v>C.A. - Final - Indirect Tax laws</v>
       </c>
       <c r="B285" s="9" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C285" s="3" t="s">
         <v>169</v>
@@ -36549,7 +36469,7 @@
         <v>4</v>
       </c>
       <c r="F285" s="7" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G285" s="7" t="s">
         <v>191</v>
@@ -36588,16 +36508,16 @@
       <c r="AI285" s="16"/>
       <c r="AJ285" s="16"/>
     </row>
-    <row r="286" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A286" s="35" t="str">
         <f t="shared" si="472"/>
         <v>C.M.A. - Found - Bizz laws &amp; comm</v>
       </c>
       <c r="B286" s="30" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C286" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D286" s="3" t="s">
         <v>171</v>
@@ -36715,16 +36635,16 @@
         <v>400</v>
       </c>
     </row>
-    <row r="287" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A287" s="35" t="str">
         <f t="shared" si="472"/>
         <v>C.M.A. - Found - Fin &amp; Cost Ac</v>
       </c>
       <c r="B287" s="30" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C287" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D287" s="3" t="s">
         <v>171</v>
@@ -36770,16 +36690,16 @@
       <c r="AI287" s="16"/>
       <c r="AJ287" s="16"/>
     </row>
-    <row r="288" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A288" s="35" t="str">
         <f t="shared" si="472"/>
         <v>C.M.A. - Found - Bizz math &amp; Stat</v>
       </c>
       <c r="B288" s="30" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C288" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D288" s="3" t="s">
         <v>171</v>
@@ -36825,16 +36745,16 @@
       <c r="AI288" s="16"/>
       <c r="AJ288" s="16"/>
     </row>
-    <row r="289" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A289" s="35" t="str">
         <f t="shared" si="472"/>
         <v>C.M.A. - Found - Bizz Eco &amp; Math</v>
       </c>
       <c r="B289" s="30" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C289" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D289" s="3" t="s">
         <v>171</v>
@@ -36880,16 +36800,16 @@
       <c r="AI289" s="16"/>
       <c r="AJ289" s="16"/>
     </row>
-    <row r="290" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A290" s="35" t="str">
         <f t="shared" si="472"/>
         <v>C.M.A. - Inter - Biz Law &amp; Ethics</v>
       </c>
       <c r="B290" s="9" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C290" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D290" s="3" t="s">
         <v>171</v>
@@ -37007,16 +36927,16 @@
         <v>400</v>
       </c>
     </row>
-    <row r="291" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A291" s="35" t="str">
         <f t="shared" si="472"/>
         <v>C.M.A. - Inter - Fin Ac</v>
       </c>
       <c r="B291" s="9" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C291" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D291" s="3" t="s">
         <v>171</v>
@@ -37062,16 +36982,16 @@
       <c r="AI291" s="16"/>
       <c r="AJ291" s="16"/>
     </row>
-    <row r="292" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A292" s="35" t="str">
         <f t="shared" si="472"/>
         <v>C.M.A. - Inter - Direct Indirect Tax</v>
       </c>
       <c r="B292" s="9" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C292" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D292" s="3" t="s">
         <v>171</v>
@@ -37117,16 +37037,16 @@
       <c r="AI292" s="16"/>
       <c r="AJ292" s="16"/>
     </row>
-    <row r="293" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A293" s="35" t="str">
         <f t="shared" si="472"/>
         <v>C.M.A. - Inter - Cost AC</v>
       </c>
       <c r="B293" s="9" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C293" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D293" s="3" t="s">
         <v>171</v>
@@ -37172,16 +37092,16 @@
       <c r="AI293" s="16"/>
       <c r="AJ293" s="16"/>
     </row>
-    <row r="294" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A294" s="35" t="str">
         <f t="shared" si="472"/>
         <v>C.M.A. - Inter - Ops &amp; Mgmt Strategic</v>
       </c>
       <c r="B294" s="9" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C294" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D294" s="3" t="s">
         <v>171</v>
@@ -37227,16 +37147,16 @@
       <c r="AI294" s="16"/>
       <c r="AJ294" s="16"/>
     </row>
-    <row r="295" spans="1:36" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A295" s="35" t="str">
         <f t="shared" si="472"/>
         <v>C.M.A. - Inter - Corporate AC &amp; Auditing</v>
       </c>
       <c r="B295" s="9" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C295" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D295" s="3" t="s">
         <v>171</v>
@@ -37282,16 +37202,16 @@
       <c r="AI295" s="16"/>
       <c r="AJ295" s="16"/>
     </row>
-    <row r="296" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A296" s="35" t="str">
         <f t="shared" si="472"/>
         <v>C.M.A. - Inter - Fin Mgmt &amp; Data Anltcs</v>
       </c>
       <c r="B296" s="9" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C296" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D296" s="3" t="s">
         <v>171</v>
@@ -37337,16 +37257,16 @@
       <c r="AI296" s="16"/>
       <c r="AJ296" s="16"/>
     </row>
-    <row r="297" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A297" s="35" t="str">
         <f t="shared" si="472"/>
         <v>C.M.A. - Inter - Mgmt AC</v>
       </c>
       <c r="B297" s="9" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C297" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D297" s="3" t="s">
         <v>171</v>
@@ -37392,13 +37312,13 @@
       <c r="AI297" s="16"/>
       <c r="AJ297" s="16"/>
     </row>
-    <row r="298" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A298" s="35" t="str">
         <f t="shared" si="472"/>
         <v>C.M.A. - Final - Corporate &amp; Eco Laws</v>
       </c>
       <c r="B298" s="30" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C298" s="3" t="s">
         <v>169</v>
@@ -37519,13 +37439,13 @@
         <v>400</v>
       </c>
     </row>
-    <row r="299" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A299" s="35" t="str">
         <f t="shared" si="472"/>
         <v>C.M.A. - Final - Strategic Fin Mgmt</v>
       </c>
       <c r="B299" s="30" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C299" s="3" t="s">
         <v>169</v>
@@ -37574,13 +37494,13 @@
       <c r="AI299" s="16"/>
       <c r="AJ299" s="16"/>
     </row>
-    <row r="300" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A300" s="35" t="str">
         <f t="shared" si="472"/>
         <v>C.M.A. - Final - Direct &amp; Intrntnl Tax</v>
       </c>
       <c r="B300" s="30" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C300" s="3" t="s">
         <v>169</v>
@@ -37629,13 +37549,13 @@
       <c r="AI300" s="16"/>
       <c r="AJ300" s="16"/>
     </row>
-    <row r="301" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A301" s="35" t="str">
         <f t="shared" si="472"/>
         <v>C.M.A. - Final - Strategic Cost Mgmt</v>
       </c>
       <c r="B301" s="30" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C301" s="3" t="s">
         <v>169</v>
@@ -37684,13 +37604,13 @@
       <c r="AI301" s="16"/>
       <c r="AJ301" s="16"/>
     </row>
-    <row r="302" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A302" s="35" t="str">
         <f t="shared" si="472"/>
         <v>C.M.A. - Final - Cost &amp; Mgmt Audit</v>
       </c>
       <c r="B302" s="30" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C302" s="3" t="s">
         <v>169</v>
@@ -37739,13 +37659,13 @@
       <c r="AI302" s="16"/>
       <c r="AJ302" s="16"/>
     </row>
-    <row r="303" spans="1:36" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A303" s="35" t="str">
         <f t="shared" si="472"/>
         <v>C.M.A. - Final - Corporate Fin Reporting</v>
       </c>
       <c r="B303" s="30" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C303" s="3" t="s">
         <v>169</v>
@@ -37794,13 +37714,13 @@
       <c r="AI303" s="16"/>
       <c r="AJ303" s="16"/>
     </row>
-    <row r="304" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A304" s="35" t="str">
         <f t="shared" si="472"/>
         <v>C.M.A. - Final - Indirect Tax</v>
       </c>
       <c r="B304" s="30" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C304" s="3" t="s">
         <v>169</v>
@@ -37849,13 +37769,13 @@
       <c r="AI304" s="16"/>
       <c r="AJ304" s="16"/>
     </row>
-    <row r="305" spans="1:36" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A305" s="35" t="str">
         <f t="shared" si="472"/>
         <v>C.M.A. - Final - Strtgc Perf Mgmt &amp; Eval</v>
       </c>
       <c r="B305" s="30" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C305" s="3" t="s">
         <v>169</v>
@@ -37904,16 +37824,16 @@
       <c r="AI305" s="16"/>
       <c r="AJ305" s="16"/>
     </row>
-    <row r="306" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A306" s="22" t="str">
         <f t="shared" si="472"/>
         <v>C.S. - Found - Biz Env &amp; Law</v>
       </c>
       <c r="B306" s="9" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C306" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D306" s="3" t="s">
         <v>172</v>
@@ -38031,16 +37951,16 @@
         <v>400</v>
       </c>
     </row>
-    <row r="307" spans="1:36" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A307" s="22" t="str">
         <f t="shared" si="472"/>
         <v>C.S. - Found - Biz Mgmt, Ethics, Entpnsp</v>
       </c>
       <c r="B307" s="9" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C307" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D307" s="3" t="s">
         <v>172</v>
@@ -38082,16 +38002,16 @@
       <c r="AI307" s="16"/>
       <c r="AJ307" s="16"/>
     </row>
-    <row r="308" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A308" s="22" t="str">
         <f t="shared" si="472"/>
         <v>C.S. - Found - Biz Eco</v>
       </c>
       <c r="B308" s="9" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C308" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D308" s="3" t="s">
         <v>172</v>
@@ -38133,16 +38053,16 @@
       <c r="AI308" s="16"/>
       <c r="AJ308" s="16"/>
     </row>
-    <row r="309" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A309" s="22" t="str">
         <f t="shared" si="472"/>
         <v>C.S. - Found - Ac &amp; Audit</v>
       </c>
       <c r="B309" s="9" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C309" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D309" s="3" t="s">
         <v>172</v>
@@ -38184,16 +38104,16 @@
       <c r="AI309" s="16"/>
       <c r="AJ309" s="16"/>
     </row>
-    <row r="310" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A310" s="22" t="str">
         <f t="shared" si="472"/>
         <v>C.S. - Inter - General Law</v>
       </c>
       <c r="B310" s="30" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C310" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D310" s="3" t="s">
         <v>172</v>
@@ -38311,7 +38231,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="311" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A311" s="22" t="str">
         <f t="shared" si="472"/>
         <v>C.S. - Inter - Company Law</v>
@@ -38320,7 +38240,7 @@
         <v>90</v>
       </c>
       <c r="C311" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D311" s="3" t="s">
         <v>172</v>
@@ -38362,16 +38282,16 @@
       <c r="AI311" s="16"/>
       <c r="AJ311" s="16"/>
     </row>
-    <row r="312" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A312" s="22" t="str">
         <f t="shared" si="472"/>
         <v>C.S. - Inter - Set up of Biz &amp; Closure</v>
       </c>
       <c r="B312" s="30" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C312" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D312" s="3" t="s">
         <v>172</v>
@@ -38413,16 +38333,16 @@
       <c r="AI312" s="16"/>
       <c r="AJ312" s="16"/>
     </row>
-    <row r="313" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A313" s="22" t="str">
         <f t="shared" si="472"/>
         <v>C.S. - Inter - Tax Law</v>
       </c>
       <c r="B313" s="30" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C313" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D313" s="3" t="s">
         <v>172</v>
@@ -38464,16 +38384,16 @@
       <c r="AI313" s="16"/>
       <c r="AJ313" s="16"/>
     </row>
-    <row r="314" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A314" s="22" t="str">
         <f t="shared" si="472"/>
         <v>C.S. - Inter - Corporate &amp; Mgmt AC</v>
       </c>
       <c r="B314" s="30" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C314" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D314" s="3" t="s">
         <v>172</v>
@@ -38515,16 +38435,16 @@
       <c r="AI314" s="16"/>
       <c r="AJ314" s="16"/>
     </row>
-    <row r="315" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A315" s="22" t="str">
         <f t="shared" si="472"/>
         <v>C.S. - Inter - Securities Law &amp; Cptl Mkt</v>
       </c>
       <c r="B315" s="30" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C315" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D315" s="3" t="s">
         <v>172</v>
@@ -38566,16 +38486,16 @@
       <c r="AI315" s="16"/>
       <c r="AJ315" s="16"/>
     </row>
-    <row r="316" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A316" s="22" t="str">
         <f t="shared" si="472"/>
         <v>C.S. - Inter - Eco, Biz &amp; Comm Law</v>
       </c>
       <c r="B316" s="30" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C316" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D316" s="3" t="s">
         <v>172</v>
@@ -38617,16 +38537,16 @@
       <c r="AI316" s="16"/>
       <c r="AJ316" s="16"/>
     </row>
-    <row r="317" spans="1:36" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A317" s="22" t="str">
         <f t="shared" si="472"/>
         <v>C.S. - Inter - Financial &amp; Strategic Mgmt</v>
       </c>
       <c r="B317" s="30" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C317" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D317" s="3" t="s">
         <v>172</v>
@@ -38668,13 +38588,13 @@
       <c r="AI317" s="16"/>
       <c r="AJ317" s="16"/>
     </row>
-    <row r="318" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A318" s="22" t="str">
         <f t="shared" si="472"/>
         <v>C.S. - Final - Govrnc, Risk Mgmt, Ethics</v>
       </c>
       <c r="B318" s="9" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C318" s="3" t="s">
         <v>169</v>
@@ -38795,13 +38715,13 @@
         <v>400</v>
       </c>
     </row>
-    <row r="319" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A319" s="22" t="str">
         <f t="shared" si="472"/>
         <v>C.S. - Final - Adv Tax laws</v>
       </c>
       <c r="B319" s="9" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C319" s="3" t="s">
         <v>169</v>
@@ -38846,13 +38766,13 @@
       <c r="AI319" s="16"/>
       <c r="AJ319" s="16"/>
     </row>
-    <row r="320" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A320" s="22" t="str">
         <f t="shared" si="472"/>
         <v>C.S. - Final - Draft, Pleed &amp; Apprncs</v>
       </c>
       <c r="B320" s="9" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C320" s="3" t="s">
         <v>169</v>
@@ -38897,13 +38817,13 @@
       <c r="AI320" s="16"/>
       <c r="AJ320" s="16"/>
     </row>
-    <row r="321" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A321" s="22" t="str">
         <f t="shared" si="472"/>
         <v>C.S. - Final - Secretl Audit, Due Delgnc</v>
       </c>
       <c r="B321" s="9" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C321" s="3" t="s">
         <v>169</v>
@@ -38948,13 +38868,13 @@
       <c r="AI321" s="16"/>
       <c r="AJ321" s="16"/>
     </row>
-    <row r="322" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A322" s="22" t="str">
         <f t="shared" si="472"/>
         <v>C.S. - Final - Corp Restrct, Winding Up</v>
       </c>
       <c r="B322" s="9" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C322" s="3" t="s">
         <v>169</v>
@@ -38999,13 +38919,13 @@
       <c r="AI322" s="16"/>
       <c r="AJ322" s="16"/>
     </row>
-    <row r="323" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A323" s="22" t="str">
         <f t="shared" si="472"/>
         <v>C.S. - Final - Resln of Corp Disputes</v>
       </c>
       <c r="B323" s="9" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C323" s="3" t="s">
         <v>169</v>
@@ -39050,13 +38970,13 @@
       <c r="AI323" s="16"/>
       <c r="AJ323" s="16"/>
     </row>
-    <row r="324" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A324" s="22" t="str">
         <f t="shared" si="472"/>
         <v>C.S. - Final - Corp Fund &amp; Stock Listing</v>
       </c>
       <c r="B324" s="9" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C324" s="3" t="s">
         <v>169</v>
@@ -39101,13 +39021,13 @@
       <c r="AI324" s="16"/>
       <c r="AJ324" s="16"/>
     </row>
-    <row r="325" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A325" s="22" t="str">
         <f t="shared" si="472"/>
         <v>C.S. - Final - Multi Discp Case Studies</v>
       </c>
       <c r="B325" s="9" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C325" s="3" t="s">
         <v>169</v>
@@ -39152,13 +39072,13 @@
       <c r="AI325" s="16"/>
       <c r="AJ325" s="16"/>
     </row>
-    <row r="326" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A326" s="22" t="str">
         <f t="shared" si="472"/>
         <v>C.S. - Final - Intellectual Prpt Rights</v>
       </c>
       <c r="B326" s="9" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C326" s="3" t="s">
         <v>169</v>
@@ -39203,16 +39123,16 @@
       <c r="AI326" s="16"/>
       <c r="AJ326" s="16"/>
     </row>
-    <row r="327" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A327" s="35" t="str">
         <f t="shared" si="472"/>
         <v>C.F.A. - L-1 - Ethical &amp; Prof Standards</v>
       </c>
       <c r="B327" s="30" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C327" s="3" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D327" s="3" t="s">
         <v>173</v>
@@ -39330,16 +39250,16 @@
         <v>400</v>
       </c>
     </row>
-    <row r="328" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A328" s="35" t="str">
         <f t="shared" si="472"/>
         <v>C.F.A. - L-1 - Quantitive Methods</v>
       </c>
       <c r="B328" s="30" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C328" s="3" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D328" s="3" t="s">
         <v>173</v>
@@ -39381,7 +39301,7 @@
       <c r="AI328" s="16"/>
       <c r="AJ328" s="16"/>
     </row>
-    <row r="329" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A329" s="35" t="str">
         <f t="shared" si="472"/>
         <v>C.F.A. - L-1 - Economics</v>
@@ -39390,7 +39310,7 @@
         <v>31</v>
       </c>
       <c r="C329" s="3" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D329" s="3" t="s">
         <v>173</v>
@@ -39432,16 +39352,16 @@
       <c r="AI329" s="16"/>
       <c r="AJ329" s="16"/>
     </row>
-    <row r="330" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A330" s="35" t="str">
         <f t="shared" si="472"/>
         <v>C.F.A. - L-1 - Fin Statement Analysis</v>
       </c>
       <c r="B330" s="30" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C330" s="3" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D330" s="3" t="s">
         <v>173</v>
@@ -39483,16 +39403,16 @@
       <c r="AI330" s="16"/>
       <c r="AJ330" s="16"/>
     </row>
-    <row r="331" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A331" s="35" t="str">
         <f t="shared" ref="A331:A356" si="485">D331&amp;" - "&amp;C331&amp;" - "&amp;B331</f>
         <v>C.F.A. - L-1 - Corporate Issuers</v>
       </c>
       <c r="B331" s="30" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C331" s="3" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D331" s="3" t="s">
         <v>173</v>
@@ -39534,16 +39454,16 @@
       <c r="AI331" s="16"/>
       <c r="AJ331" s="16"/>
     </row>
-    <row r="332" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A332" s="35" t="str">
         <f t="shared" si="485"/>
         <v>C.F.A. - L-1 - Equity Investments</v>
       </c>
       <c r="B332" s="30" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C332" s="3" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D332" s="3" t="s">
         <v>173</v>
@@ -39585,16 +39505,16 @@
       <c r="AI332" s="16"/>
       <c r="AJ332" s="16"/>
     </row>
-    <row r="333" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A333" s="35" t="str">
         <f t="shared" si="485"/>
         <v>C.F.A. - L-1 - Fixed Income</v>
       </c>
       <c r="B333" s="30" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C333" s="3" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D333" s="3" t="s">
         <v>173</v>
@@ -39636,16 +39556,16 @@
       <c r="AI333" s="16"/>
       <c r="AJ333" s="16"/>
     </row>
-    <row r="334" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A334" s="35" t="str">
         <f t="shared" si="485"/>
         <v>C.F.A. - L-1 - Derivatives</v>
       </c>
       <c r="B334" s="30" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C334" s="3" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D334" s="3" t="s">
         <v>173</v>
@@ -39687,16 +39607,16 @@
       <c r="AI334" s="16"/>
       <c r="AJ334" s="16"/>
     </row>
-    <row r="335" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A335" s="35" t="str">
         <f t="shared" si="485"/>
         <v>C.F.A. - L-1 - Alternative Investments</v>
       </c>
       <c r="B335" s="30" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C335" s="3" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D335" s="3" t="s">
         <v>173</v>
@@ -39738,16 +39658,16 @@
       <c r="AI335" s="16"/>
       <c r="AJ335" s="16"/>
     </row>
-    <row r="336" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A336" s="35" t="str">
         <f t="shared" si="485"/>
         <v>C.F.A. - L-1 - Portrfolio Mgmt &amp; Wealth</v>
       </c>
       <c r="B336" s="30" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C336" s="3" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D336" s="3" t="s">
         <v>173</v>
@@ -39789,16 +39709,16 @@
       <c r="AI336" s="16"/>
       <c r="AJ336" s="16"/>
     </row>
-    <row r="337" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A337" s="35" t="str">
         <f t="shared" si="485"/>
         <v>C.F.A. - L-2 - Ethical &amp; Prof Standards</v>
       </c>
       <c r="B337" s="9" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C337" s="3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D337" s="3" t="s">
         <v>173</v>
@@ -39916,16 +39836,16 @@
         <v>400</v>
       </c>
     </row>
-    <row r="338" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A338" s="35" t="str">
         <f t="shared" si="485"/>
         <v>C.F.A. - L-2 - Quantitive Methods</v>
       </c>
       <c r="B338" s="9" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C338" s="3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D338" s="3" t="s">
         <v>173</v>
@@ -39967,7 +39887,7 @@
       <c r="AI338" s="16"/>
       <c r="AJ338" s="16"/>
     </row>
-    <row r="339" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A339" s="35" t="str">
         <f t="shared" si="485"/>
         <v>C.F.A. - L-2 - Economics</v>
@@ -39976,7 +39896,7 @@
         <v>31</v>
       </c>
       <c r="C339" s="3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D339" s="3" t="s">
         <v>173</v>
@@ -40018,16 +39938,16 @@
       <c r="AI339" s="16"/>
       <c r="AJ339" s="16"/>
     </row>
-    <row r="340" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A340" s="35" t="str">
         <f t="shared" si="485"/>
         <v>C.F.A. - L-2 - Fin Statement Analysis</v>
       </c>
       <c r="B340" s="9" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C340" s="3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D340" s="3" t="s">
         <v>173</v>
@@ -40069,16 +39989,16 @@
       <c r="AI340" s="16"/>
       <c r="AJ340" s="16"/>
     </row>
-    <row r="341" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A341" s="35" t="str">
         <f t="shared" si="485"/>
         <v>C.F.A. - L-2 - Corporate Issuers</v>
       </c>
       <c r="B341" s="9" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C341" s="3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D341" s="3" t="s">
         <v>173</v>
@@ -40120,16 +40040,16 @@
       <c r="AI341" s="16"/>
       <c r="AJ341" s="16"/>
     </row>
-    <row r="342" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A342" s="35" t="str">
         <f t="shared" si="485"/>
         <v>C.F.A. - L-2 - Equity Investments</v>
       </c>
       <c r="B342" s="9" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C342" s="3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D342" s="3" t="s">
         <v>173</v>
@@ -40171,16 +40091,16 @@
       <c r="AI342" s="16"/>
       <c r="AJ342" s="16"/>
     </row>
-    <row r="343" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A343" s="35" t="str">
         <f t="shared" si="485"/>
         <v>C.F.A. - L-2 - Fixed Income</v>
       </c>
       <c r="B343" s="9" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C343" s="3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D343" s="3" t="s">
         <v>173</v>
@@ -40222,16 +40142,16 @@
       <c r="AI343" s="16"/>
       <c r="AJ343" s="16"/>
     </row>
-    <row r="344" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A344" s="35" t="str">
         <f t="shared" si="485"/>
         <v>C.F.A. - L-2 - Derivatives</v>
       </c>
       <c r="B344" s="9" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C344" s="3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D344" s="3" t="s">
         <v>173</v>
@@ -40273,16 +40193,16 @@
       <c r="AI344" s="16"/>
       <c r="AJ344" s="16"/>
     </row>
-    <row r="345" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A345" s="35" t="str">
         <f t="shared" si="485"/>
         <v>C.F.A. - L-2 - Alternative Investments</v>
       </c>
       <c r="B345" s="9" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C345" s="3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D345" s="3" t="s">
         <v>173</v>
@@ -40324,16 +40244,16 @@
       <c r="AI345" s="16"/>
       <c r="AJ345" s="16"/>
     </row>
-    <row r="346" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A346" s="35" t="str">
         <f t="shared" si="485"/>
         <v>C.F.A. - L-2 - Portrfolio Mgmt-Wealth</v>
       </c>
       <c r="B346" s="9" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C346" s="3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D346" s="3" t="s">
         <v>173</v>
@@ -40375,16 +40295,16 @@
       <c r="AI346" s="16"/>
       <c r="AJ346" s="16"/>
     </row>
-    <row r="347" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A347" s="35" t="str">
         <f t="shared" si="485"/>
         <v>C.F.A. - L-3 - Ethical &amp; Prof Standards</v>
       </c>
       <c r="B347" s="30" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C347" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D347" s="3" t="s">
         <v>173</v>
@@ -40502,16 +40422,16 @@
         <v>400</v>
       </c>
     </row>
-    <row r="348" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A348" s="35" t="str">
         <f t="shared" si="485"/>
         <v>C.F.A. - L-3 - Quantitive Methods</v>
       </c>
       <c r="B348" s="30" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C348" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D348" s="3" t="s">
         <v>173</v>
@@ -40553,7 +40473,7 @@
       <c r="AI348" s="16"/>
       <c r="AJ348" s="16"/>
     </row>
-    <row r="349" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A349" s="35" t="str">
         <f t="shared" si="485"/>
         <v>C.F.A. - L-3 - Economics</v>
@@ -40562,7 +40482,7 @@
         <v>31</v>
       </c>
       <c r="C349" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D349" s="3" t="s">
         <v>173</v>
@@ -40604,16 +40524,16 @@
       <c r="AI349" s="16"/>
       <c r="AJ349" s="16"/>
     </row>
-    <row r="350" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A350" s="35" t="str">
         <f t="shared" si="485"/>
         <v>C.F.A. - L-3 - Fin Statement Analysis</v>
       </c>
       <c r="B350" s="30" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C350" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D350" s="3" t="s">
         <v>173</v>
@@ -40655,16 +40575,16 @@
       <c r="AI350" s="16"/>
       <c r="AJ350" s="16"/>
     </row>
-    <row r="351" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A351" s="35" t="str">
         <f t="shared" si="485"/>
         <v>C.F.A. - L-3 - Corporate Issuers</v>
       </c>
       <c r="B351" s="30" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C351" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D351" s="3" t="s">
         <v>173</v>
@@ -40706,16 +40626,16 @@
       <c r="AI351" s="16"/>
       <c r="AJ351" s="16"/>
     </row>
-    <row r="352" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A352" s="35" t="str">
         <f t="shared" si="485"/>
         <v>C.F.A. - L-3 - Equity Investments</v>
       </c>
       <c r="B352" s="30" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C352" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D352" s="3" t="s">
         <v>173</v>
@@ -40757,16 +40677,16 @@
       <c r="AI352" s="16"/>
       <c r="AJ352" s="16"/>
     </row>
-    <row r="353" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A353" s="35" t="str">
         <f t="shared" si="485"/>
         <v>C.F.A. - L-3 - Fixed Income</v>
       </c>
       <c r="B353" s="30" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C353" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D353" s="3" t="s">
         <v>173</v>
@@ -40808,16 +40728,16 @@
       <c r="AI353" s="16"/>
       <c r="AJ353" s="16"/>
     </row>
-    <row r="354" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A354" s="35" t="str">
         <f t="shared" si="485"/>
         <v>C.F.A. - L-3 - Derivatives</v>
       </c>
       <c r="B354" s="30" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C354" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D354" s="3" t="s">
         <v>173</v>
@@ -40859,16 +40779,16 @@
       <c r="AI354" s="16"/>
       <c r="AJ354" s="16"/>
     </row>
-    <row r="355" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A355" s="35" t="str">
         <f t="shared" si="485"/>
         <v>C.F.A. - L-3 - Alternative Investments</v>
       </c>
       <c r="B355" s="30" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C355" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D355" s="3" t="s">
         <v>173</v>
@@ -40910,16 +40830,16 @@
       <c r="AI355" s="16"/>
       <c r="AJ355" s="16"/>
     </row>
-    <row r="356" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A356" s="35" t="str">
         <f t="shared" si="485"/>
         <v>C.F.A. - L-3 - Portrfolio Mgmt-Wealth</v>
       </c>
       <c r="B356" s="30" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C356" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D356" s="3" t="s">
         <v>173</v>
@@ -40961,7 +40881,7 @@
       <c r="AI356" s="16"/>
       <c r="AJ356" s="16"/>
     </row>
-    <row r="357" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A357" s="21" t="str">
         <f>B357</f>
         <v>Spoken English</v>
@@ -41090,7 +41010,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="358" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A358" s="21" t="str">
         <f>B358</f>
         <v>Advanced Grooming</v>
@@ -41107,11 +41027,11 @@
       <c r="E358" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="F358" s="56" t="s">
-        <v>212</v>
-      </c>
-      <c r="G358" s="56" t="s">
-        <v>302</v>
+      <c r="F358" s="36" t="s">
+        <v>210</v>
+      </c>
+      <c r="G358" s="36" t="s">
+        <v>299</v>
       </c>
       <c r="H358" s="7" t="s">
         <v>140</v>
@@ -41219,7 +41139,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="359" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A359" s="21" t="str">
         <f t="shared" ref="A359:A362" si="495">B359</f>
         <v>IELTS</v>
@@ -41236,12 +41156,8 @@
       <c r="E359" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="F359" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="G359" s="7" t="s">
-        <v>191</v>
-      </c>
+      <c r="F359" s="7"/>
+      <c r="G359" s="7"/>
       <c r="H359" s="7" t="s">
         <v>140</v>
       </c>
@@ -41348,7 +41264,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="360" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A360" s="21" t="str">
         <f t="shared" si="495"/>
         <v>TOEFL</v>
@@ -41365,12 +41281,8 @@
       <c r="E360" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="F360" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="G360" s="7" t="s">
-        <v>191</v>
-      </c>
+      <c r="F360" s="7"/>
+      <c r="G360" s="7"/>
       <c r="H360" s="7" t="s">
         <v>140</v>
       </c>
@@ -41477,7 +41389,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="361" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A361" s="21" t="str">
         <f t="shared" si="495"/>
         <v>PTE</v>
@@ -41494,12 +41406,8 @@
       <c r="E361" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="F361" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="G361" s="7" t="s">
-        <v>191</v>
-      </c>
+      <c r="F361" s="7"/>
+      <c r="G361" s="7"/>
       <c r="H361" s="7" t="s">
         <v>140</v>
       </c>
@@ -41606,7 +41514,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="362" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A362" s="21" t="str">
         <f t="shared" si="495"/>
         <v>GRE</v>
@@ -41623,12 +41531,8 @@
       <c r="E362" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="F362" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="G362" s="7" t="s">
-        <v>191</v>
-      </c>
+      <c r="F362" s="7"/>
+      <c r="G362" s="7"/>
       <c r="H362" s="7" t="s">
         <v>140</v>
       </c>
@@ -41735,7 +41639,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="363" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A363" s="21" t="str">
         <f>B363</f>
         <v>Classroom2Boardroom</v>
@@ -41752,12 +41656,8 @@
       <c r="E363" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="F363" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="G363" s="7" t="s">
-        <v>191</v>
-      </c>
+      <c r="F363" s="7"/>
+      <c r="G363" s="7"/>
       <c r="H363" s="7" t="s">
         <v>141</v>
       </c>
@@ -41864,7 +41764,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="364" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A364" s="21" t="str">
         <f t="shared" ref="A364:A365" si="496">B364</f>
         <v>Employee to Manager</v>
@@ -41993,7 +41893,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="365" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A365" s="21" t="str">
         <f t="shared" si="496"/>
         <v>Executive Training</v>
@@ -42122,7 +42022,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="366" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A366" s="13" t="str">
         <f t="shared" ref="A366:A392" si="497">B366</f>
         <v>MS Office</v>
@@ -42155,7 +42055,7 @@
         <v>1</v>
       </c>
       <c r="K366" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="L366" s="7">
         <v>1</v>
@@ -42251,7 +42151,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="367" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A367" s="13" t="str">
         <f t="shared" si="497"/>
         <v>Advanced Excel (VBA)</v>
@@ -42380,7 +42280,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="368" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A368" s="13" t="str">
         <f t="shared" si="497"/>
         <v>C</v>
@@ -42398,7 +42298,7 @@
         <v>133</v>
       </c>
       <c r="F368" s="7" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="G368" s="7" t="s">
         <v>191</v>
@@ -42509,7 +42409,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="369" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A369" s="13" t="str">
         <f t="shared" si="497"/>
         <v>C++</v>
@@ -42527,7 +42427,7 @@
         <v>133</v>
       </c>
       <c r="F369" s="7" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="G369" s="7" t="s">
         <v>191</v>
@@ -42638,7 +42538,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="370" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A370" s="13" t="str">
         <f t="shared" si="497"/>
         <v>HTML, CSS, JavaScript</v>
@@ -42656,7 +42556,7 @@
         <v>133</v>
       </c>
       <c r="F370" s="7" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="G370" s="7" t="s">
         <v>191</v>
@@ -42767,7 +42667,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="371" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A371" s="13" t="str">
         <f t="shared" si="497"/>
         <v>Java</v>
@@ -42785,7 +42685,7 @@
         <v>133</v>
       </c>
       <c r="F371" s="7" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="G371" s="7" t="s">
         <v>191</v>
@@ -42896,7 +42796,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="372" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A372" s="13" t="str">
         <f t="shared" si="497"/>
         <v>Advanced Java</v>
@@ -42914,7 +42814,7 @@
         <v>133</v>
       </c>
       <c r="F372" s="7" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="G372" s="7" t="s">
         <v>191</v>
@@ -43025,7 +42925,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="373" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A373" s="13" t="str">
         <f t="shared" si="497"/>
         <v>.Net (C#, VB.Net)</v>
@@ -43043,7 +42943,7 @@
         <v>133</v>
       </c>
       <c r="F373" s="7" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="G373" s="7" t="s">
         <v>191</v>
@@ -43154,7 +43054,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="374" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A374" s="13" t="str">
         <f t="shared" si="497"/>
         <v>Advanced .Net</v>
@@ -43172,7 +43072,7 @@
         <v>133</v>
       </c>
       <c r="F374" s="7" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="G374" s="7" t="s">
         <v>191</v>
@@ -43283,7 +43183,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="375" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A375" s="13" t="str">
         <f t="shared" si="497"/>
         <v>Microsoft Azure Cloud</v>
@@ -43412,7 +43312,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="376" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A376" s="13" t="str">
         <f t="shared" si="497"/>
         <v>React, MUI</v>
@@ -43430,7 +43330,7 @@
         <v>133</v>
       </c>
       <c r="F376" s="7" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="G376" s="7" t="s">
         <v>191</v>
@@ -43541,7 +43441,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="377" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A377" s="13" t="str">
         <f t="shared" si="497"/>
         <v>React Native</v>
@@ -43559,7 +43459,7 @@
         <v>133</v>
       </c>
       <c r="F377" s="7" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="G377" s="7" t="s">
         <v>191</v>
@@ -43670,7 +43570,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="378" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A378" s="13" t="str">
         <f t="shared" si="497"/>
         <v>PHP, Wordpress</v>
@@ -43688,7 +43588,7 @@
         <v>133</v>
       </c>
       <c r="F378" s="7" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G378" s="7" t="s">
         <v>191</v>
@@ -43799,7 +43699,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="379" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A379" s="13" t="str">
         <f t="shared" si="497"/>
         <v>Linux, Shell Script</v>
@@ -43817,7 +43717,7 @@
         <v>133</v>
       </c>
       <c r="F379" s="7" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="G379" s="7" t="s">
         <v>191</v>
@@ -43928,7 +43828,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="380" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A380" s="13" t="str">
         <f t="shared" si="497"/>
         <v>Networking &amp; CCNA</v>
@@ -44057,7 +43957,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="381" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A381" s="13" t="str">
         <f t="shared" si="497"/>
         <v>Hands-on Network H/W</v>
@@ -44186,7 +44086,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="382" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A382" s="13" t="str">
         <f t="shared" si="497"/>
         <v>Devops</v>
@@ -44315,7 +44215,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="383" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A383" s="13" t="str">
         <f t="shared" si="497"/>
         <v>Docker &amp; Kubernetes</v>
@@ -44444,7 +44344,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="384" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A384" s="13" t="str">
         <f t="shared" si="497"/>
         <v>Cloud, AWS, GCP</v>
@@ -44573,7 +44473,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="385" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A385" s="13" t="str">
         <f t="shared" si="497"/>
         <v>Cyber security Basics</v>
@@ -44702,7 +44602,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="386" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A386" s="13" t="str">
         <f t="shared" si="497"/>
         <v>Cyber security Advanced</v>
@@ -44831,13 +44731,13 @@
         <v>400</v>
       </c>
     </row>
-    <row r="387" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A387" s="13" t="str">
         <f t="shared" si="497"/>
         <v>Test Automtn Selenium</v>
       </c>
       <c r="B387" s="8" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C387" s="3" t="s">
         <v>70</v>
@@ -44960,7 +44860,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="388" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A388" s="13" t="s">
         <v>178</v>
       </c>
@@ -44977,7 +44877,7 @@
         <v>133</v>
       </c>
       <c r="F388" s="7" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="G388" s="7" t="s">
         <v>191</v>
@@ -45088,7 +44988,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="389" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A389" s="13" t="s">
         <v>179</v>
       </c>
@@ -45105,7 +45005,7 @@
         <v>133</v>
       </c>
       <c r="F389" s="7" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="G389" s="7" t="s">
         <v>191</v>
@@ -45214,7 +45114,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="390" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A390" s="13" t="s">
         <v>180</v>
       </c>
@@ -45231,7 +45131,7 @@
         <v>133</v>
       </c>
       <c r="F390" s="7" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="G390" s="7" t="s">
         <v>191</v>
@@ -45340,7 +45240,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="391" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A391" s="13" t="s">
         <v>181</v>
       </c>
@@ -45357,7 +45257,7 @@
         <v>133</v>
       </c>
       <c r="F391" s="7" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="G391" s="7" t="s">
         <v>191</v>
@@ -45466,7 +45366,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="392" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A392" s="13" t="str">
         <f t="shared" si="497"/>
         <v>Tally</v>
@@ -45595,13 +45495,13 @@
         <v>400</v>
       </c>
     </row>
-    <row r="393" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A393" s="13" t="str">
         <f>B393</f>
         <v>Advanced Comme Pkg</v>
       </c>
       <c r="B393" s="8" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C393" s="3" t="s">
         <v>70</v>
@@ -45724,7 +45624,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="394" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A394" s="13" t="str">
         <f>B394</f>
         <v>Prince2</v>
@@ -45742,7 +45642,7 @@
         <v>133</v>
       </c>
       <c r="F394" s="7" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G394" s="7" t="s">
         <v>191</v>
@@ -45853,7 +45753,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="395" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A395" s="13" t="str">
         <f>B395</f>
         <v>Agile Scrum</v>
@@ -45982,7 +45882,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="396" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A396" s="13" t="str">
         <f t="shared" ref="A396:A403" si="546">B396</f>
         <v>Python</v>
@@ -46111,7 +46011,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="397" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A397" s="13" t="str">
         <f t="shared" si="546"/>
         <v>Data Analytics</v>
@@ -46240,7 +46140,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="398" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A398" s="13" t="str">
         <f t="shared" si="546"/>
         <v>Data Science &amp; AI</v>
@@ -46369,7 +46269,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="399" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A399" s="13" t="str">
         <f t="shared" si="546"/>
         <v>AI - DSP</v>
@@ -46498,7 +46398,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="400" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A400" s="13" t="str">
         <f t="shared" si="546"/>
         <v>AI - NLP (RNN)</v>
@@ -46627,13 +46527,13 @@
         <v>400</v>
       </c>
     </row>
-    <row r="401" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A401" s="13" t="str">
         <f t="shared" si="546"/>
         <v>AI - Comp Vision (CNN)</v>
       </c>
       <c r="B401" s="8" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C401" s="3" t="s">
         <v>70</v>
@@ -46756,7 +46656,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="402" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A402" s="13" t="str">
         <f t="shared" si="546"/>
         <v>IoT, Robotics</v>
@@ -46885,7 +46785,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="403" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A403" s="13" t="str">
         <f t="shared" si="546"/>
         <v>Advanced IoT, Robotics</v>
@@ -47015,21 +46915,24 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:AJ403">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="Maths"/>
-        <filter val="Maths (Comm)"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A3:AJ403"/>
   <mergeCells count="38">
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="F1:U1"/>
+    <mergeCell ref="AF1:AJ1"/>
+    <mergeCell ref="AF2:AF3"/>
+    <mergeCell ref="AG2:AG3"/>
+    <mergeCell ref="AH2:AH3"/>
+    <mergeCell ref="AI2:AI3"/>
+    <mergeCell ref="AJ2:AJ3"/>
+    <mergeCell ref="V1:Z1"/>
+    <mergeCell ref="AA1:AE1"/>
+    <mergeCell ref="AA2:AA3"/>
+    <mergeCell ref="AB2:AB3"/>
+    <mergeCell ref="AC2:AC3"/>
+    <mergeCell ref="AD2:AD3"/>
+    <mergeCell ref="AE2:AE3"/>
+    <mergeCell ref="X2:X3"/>
+    <mergeCell ref="Y2:Y3"/>
     <mergeCell ref="Z2:Z3"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="S2:S3"/>
@@ -47046,22 +46949,12 @@
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="I2:I3"/>
-    <mergeCell ref="F1:U1"/>
-    <mergeCell ref="AF1:AJ1"/>
-    <mergeCell ref="AF2:AF3"/>
-    <mergeCell ref="AG2:AG3"/>
-    <mergeCell ref="AH2:AH3"/>
-    <mergeCell ref="AI2:AI3"/>
-    <mergeCell ref="AJ2:AJ3"/>
-    <mergeCell ref="V1:Z1"/>
-    <mergeCell ref="AA1:AE1"/>
-    <mergeCell ref="AA2:AA3"/>
-    <mergeCell ref="AB2:AB3"/>
-    <mergeCell ref="AC2:AC3"/>
-    <mergeCell ref="AD2:AD3"/>
-    <mergeCell ref="AE2:AE3"/>
-    <mergeCell ref="X2:X3"/>
-    <mergeCell ref="Y2:Y3"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="F2:F3"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -47105,7 +46998,7 @@
       <c r="S1" s="33"/>
       <c r="T1" s="33"/>
       <c r="U1" s="33"/>
-      <c r="V1" s="55"/>
+      <c r="V1" s="56"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="33"/>
@@ -47129,7 +47022,7 @@
       <c r="S2" s="33"/>
       <c r="T2" s="33"/>
       <c r="U2" s="33"/>
-      <c r="V2" s="55"/>
+      <c r="V2" s="56"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="33"/>
@@ -47153,7 +47046,7 @@
       <c r="S3" s="33"/>
       <c r="T3" s="33"/>
       <c r="U3" s="33"/>
-      <c r="V3" s="55"/>
+      <c r="V3" s="56"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" s="33"/>
@@ -47177,7 +47070,7 @@
       <c r="S4" s="33"/>
       <c r="T4" s="33"/>
       <c r="U4" s="33"/>
-      <c r="V4" s="55"/>
+      <c r="V4" s="56"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" s="33"/>
@@ -47201,7 +47094,7 @@
       <c r="S5" s="33"/>
       <c r="T5" s="33"/>
       <c r="U5" s="33"/>
-      <c r="V5" s="55"/>
+      <c r="V5" s="56"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" s="33"/>

--- a/Offline/BusinessManagement/ProfitabilitySheet.xlsx
+++ b/Offline/BusinessManagement/ProfitabilitySheet.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3315" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3315" uniqueCount="298">
   <si>
     <t>Hindi</t>
   </si>
@@ -671,9 +671,6 @@
     <t>Pradipta</t>
   </si>
   <si>
-    <t>Eco &amp; Comm Knowledge</t>
-  </si>
-  <si>
     <t>Found</t>
   </si>
   <si>
@@ -716,9 +713,6 @@
     <t>Fin Reporting</t>
   </si>
   <si>
-    <t>Strategic Fin Management</t>
-  </si>
-  <si>
     <t>Audit &amp; Ethics</t>
   </si>
   <si>
@@ -732,9 +726,6 @@
   </si>
   <si>
     <t>Direct Tax &amp; Intrtnl Tax</t>
-  </si>
-  <si>
-    <t>Risk, Cptl Mkt, Glbl FinRpt</t>
   </si>
   <si>
     <t>Bizz laws &amp; comm</t>
@@ -770,9 +761,6 @@
     <t>Ops &amp; Mgmt Strategic</t>
   </si>
   <si>
-    <t>Fin Mgmt &amp; Data Anltcs</t>
-  </si>
-  <si>
     <t>Corporate Fin Reporting</t>
   </si>
   <si>
@@ -791,9 +779,6 @@
     <t>Cost &amp; Mgmt Audit</t>
   </si>
   <si>
-    <t>Strtgc Perf Mgmt &amp; Eval</t>
-  </si>
-  <si>
     <t>S</t>
   </si>
   <si>
@@ -809,16 +794,10 @@
     <t>Corporate &amp; Mgmt AC</t>
   </si>
   <si>
-    <t>Financial &amp; Strategic Mgmt</t>
-  </si>
-  <si>
     <t>Adv Tax laws</t>
   </si>
   <si>
     <t>Set up of Biz &amp; Closure</t>
-  </si>
-  <si>
-    <t>Biz Mgmt, Ethics, Entpnsp</t>
   </si>
   <si>
     <t>Biz Eco</t>
@@ -939,6 +918,24 @@
   </si>
   <si>
     <t>? Sujata</t>
+  </si>
+  <si>
+    <t>Eco &amp; Comm Knwldge</t>
+  </si>
+  <si>
+    <t>Risk, Cptl Mkt, Glbl FnRpt</t>
+  </si>
+  <si>
+    <t>Fin Mgmt-Data Anltcs</t>
+  </si>
+  <si>
+    <t>Strt Perf Mgmt &amp; Eval</t>
+  </si>
+  <si>
+    <t>Biz Mgmt, Ethics, Entsp</t>
+  </si>
+  <si>
+    <t>Fin &amp; Strategic Mgmt</t>
   </si>
 </sst>
 </file>
@@ -1362,6 +1359,15 @@
     <xf numFmtId="0" fontId="5" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1408,15 +1414,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="43" fontId="7" fillId="13" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1716,7 +1713,7 @@
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -1759,162 +1756,162 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="F1" s="37" t="s">
-        <v>286</v>
-      </c>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="37"/>
-      <c r="S1" s="37"/>
-      <c r="T1" s="37"/>
-      <c r="U1" s="38"/>
-      <c r="V1" s="44" t="s">
+      <c r="F1" s="40" t="s">
+        <v>279</v>
+      </c>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40"/>
+      <c r="S1" s="40"/>
+      <c r="T1" s="40"/>
+      <c r="U1" s="41"/>
+      <c r="V1" s="47" t="s">
         <v>176</v>
       </c>
-      <c r="W1" s="45"/>
-      <c r="X1" s="45"/>
-      <c r="Y1" s="45"/>
-      <c r="Z1" s="46"/>
-      <c r="AA1" s="47" t="s">
+      <c r="W1" s="48"/>
+      <c r="X1" s="48"/>
+      <c r="Y1" s="48"/>
+      <c r="Z1" s="49"/>
+      <c r="AA1" s="50" t="s">
         <v>177</v>
       </c>
-      <c r="AB1" s="48"/>
-      <c r="AC1" s="48"/>
-      <c r="AD1" s="48"/>
-      <c r="AE1" s="49"/>
-      <c r="AF1" s="39" t="s">
+      <c r="AB1" s="51"/>
+      <c r="AC1" s="51"/>
+      <c r="AD1" s="51"/>
+      <c r="AE1" s="52"/>
+      <c r="AF1" s="42" t="s">
         <v>175</v>
       </c>
-      <c r="AG1" s="40"/>
-      <c r="AH1" s="40"/>
-      <c r="AI1" s="40"/>
-      <c r="AJ1" s="41"/>
+      <c r="AG1" s="43"/>
+      <c r="AH1" s="43"/>
+      <c r="AI1" s="43"/>
+      <c r="AJ1" s="44"/>
     </row>
     <row r="2" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="54" t="s">
+      <c r="C2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="54" t="s">
+      <c r="D2" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="54" t="s">
+      <c r="E2" s="37" t="s">
         <v>130</v>
       </c>
-      <c r="F2" s="55" t="s">
+      <c r="F2" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="G2" s="55" t="s">
-        <v>284</v>
-      </c>
-      <c r="H2" s="54" t="s">
+      <c r="G2" s="38" t="s">
+        <v>277</v>
+      </c>
+      <c r="H2" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="54" t="s">
+      <c r="I2" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="54" t="s">
+      <c r="J2" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54" t="s">
+      <c r="K2" s="37"/>
+      <c r="L2" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="M2" s="54"/>
-      <c r="N2" s="54" t="s">
+      <c r="M2" s="37"/>
+      <c r="N2" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="54" t="s">
+      <c r="O2" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="P2" s="54" t="s">
+      <c r="P2" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="Q2" s="54" t="s">
+      <c r="Q2" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="R2" s="54" t="s">
+      <c r="R2" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="S2" s="54" t="s">
+      <c r="S2" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="T2" s="54" t="s">
+      <c r="T2" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="U2" s="54" t="s">
+      <c r="U2" s="37" t="s">
         <v>174</v>
       </c>
-      <c r="V2" s="53" t="s">
+      <c r="V2" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="W2" s="53" t="s">
+      <c r="W2" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="X2" s="52" t="s">
+      <c r="X2" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="Y2" s="53" t="s">
+      <c r="Y2" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="Z2" s="53" t="s">
+      <c r="Z2" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="AA2" s="50" t="s">
+      <c r="AA2" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="AB2" s="50" t="s">
+      <c r="AB2" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="AC2" s="51" t="s">
+      <c r="AC2" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="AD2" s="50" t="s">
+      <c r="AD2" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="AE2" s="50" t="s">
+      <c r="AE2" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="AF2" s="42" t="s">
+      <c r="AF2" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="AG2" s="42" t="s">
+      <c r="AG2" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="AH2" s="43" t="s">
+      <c r="AH2" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="AI2" s="42" t="s">
+      <c r="AI2" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="AJ2" s="42" t="s">
+      <c r="AJ2" s="45" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:36" s="2" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="54"/>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
+      <c r="A3" s="37"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
       <c r="J3" s="11" t="s">
         <v>21</v>
       </c>
@@ -1927,29 +1924,29 @@
       <c r="M3" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="N3" s="54"/>
-      <c r="O3" s="54"/>
-      <c r="P3" s="54"/>
-      <c r="Q3" s="54"/>
-      <c r="R3" s="54"/>
-      <c r="S3" s="54"/>
-      <c r="T3" s="54"/>
-      <c r="U3" s="54"/>
-      <c r="V3" s="53"/>
-      <c r="W3" s="53"/>
-      <c r="X3" s="52"/>
-      <c r="Y3" s="53"/>
-      <c r="Z3" s="53"/>
-      <c r="AA3" s="50"/>
-      <c r="AB3" s="50"/>
-      <c r="AC3" s="51"/>
-      <c r="AD3" s="50"/>
-      <c r="AE3" s="50"/>
-      <c r="AF3" s="42"/>
-      <c r="AG3" s="42"/>
-      <c r="AH3" s="43"/>
-      <c r="AI3" s="42"/>
-      <c r="AJ3" s="42"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="37"/>
+      <c r="R3" s="37"/>
+      <c r="S3" s="37"/>
+      <c r="T3" s="37"/>
+      <c r="U3" s="37"/>
+      <c r="V3" s="39"/>
+      <c r="W3" s="39"/>
+      <c r="X3" s="55"/>
+      <c r="Y3" s="39"/>
+      <c r="Z3" s="39"/>
+      <c r="AA3" s="53"/>
+      <c r="AB3" s="53"/>
+      <c r="AC3" s="54"/>
+      <c r="AD3" s="53"/>
+      <c r="AE3" s="53"/>
+      <c r="AF3" s="45"/>
+      <c r="AG3" s="45"/>
+      <c r="AH3" s="46"/>
+      <c r="AI3" s="45"/>
+      <c r="AJ3" s="45"/>
     </row>
     <row r="4" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="str">
@@ -2099,7 +2096,7 @@
         <v>192</v>
       </c>
       <c r="G5" s="36" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H5" s="7" t="s">
         <v>72</v>
@@ -2350,7 +2347,7 @@
         <v>131</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>189</v>
@@ -2731,7 +2728,7 @@
         <v>132</v>
       </c>
       <c r="F10" s="24" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="G10" s="24" t="s">
         <v>189</v>
@@ -3240,7 +3237,7 @@
         <v>196</v>
       </c>
       <c r="G14" s="36" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H14" s="7" t="s">
         <v>72</v>
@@ -3492,7 +3489,7 @@
         <v>208</v>
       </c>
       <c r="G16" s="36" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H16" s="7" t="s">
         <v>72</v>
@@ -3741,7 +3738,7 @@
         <v>132</v>
       </c>
       <c r="F18" s="24" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="G18" s="24" t="s">
         <v>189</v>
@@ -3871,7 +3868,7 @@
         <v>198</v>
       </c>
       <c r="G19" s="36" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H19" s="7" t="s">
         <v>72</v>
@@ -4123,7 +4120,7 @@
         <v>198</v>
       </c>
       <c r="G21" s="36" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H21" s="7" t="s">
         <v>72</v>
@@ -4250,7 +4247,7 @@
         <v>208</v>
       </c>
       <c r="G22" s="36" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H22" s="7" t="s">
         <v>72</v>
@@ -4502,7 +4499,7 @@
         <v>185</v>
       </c>
       <c r="G24" s="36" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H24" s="7" t="s">
         <v>72</v>
@@ -4629,7 +4626,7 @@
         <v>183</v>
       </c>
       <c r="G25" s="36" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H25" s="7" t="s">
         <v>72</v>
@@ -4756,7 +4753,7 @@
         <v>184</v>
       </c>
       <c r="G26" s="36" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H26" s="7" t="s">
         <v>72</v>
@@ -4883,7 +4880,7 @@
         <v>183</v>
       </c>
       <c r="G27" s="36" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H27" s="7" t="s">
         <v>72</v>
@@ -5010,7 +5007,7 @@
         <v>196</v>
       </c>
       <c r="G28" s="36" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H28" s="7" t="s">
         <v>72</v>
@@ -5264,7 +5261,7 @@
         <v>64</v>
       </c>
       <c r="G30" s="36" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H30" s="7" t="s">
         <v>72</v>
@@ -5391,7 +5388,7 @@
         <v>208</v>
       </c>
       <c r="G31" s="36" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H31" s="7" t="s">
         <v>72</v>
@@ -5640,7 +5637,7 @@
         <v>132</v>
       </c>
       <c r="F33" s="24" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="G33" s="24" t="s">
         <v>189</v>
@@ -5770,7 +5767,7 @@
         <v>198</v>
       </c>
       <c r="G34" s="36" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H34" s="7" t="s">
         <v>72</v>
@@ -6022,7 +6019,7 @@
         <v>198</v>
       </c>
       <c r="G36" s="36" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H36" s="7" t="s">
         <v>72</v>
@@ -6149,7 +6146,7 @@
         <v>208</v>
       </c>
       <c r="G37" s="36" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H37" s="7" t="s">
         <v>72</v>
@@ -6401,7 +6398,7 @@
         <v>185</v>
       </c>
       <c r="G39" s="36" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H39" s="7" t="s">
         <v>72</v>
@@ -6528,7 +6525,7 @@
         <v>183</v>
       </c>
       <c r="G40" s="36" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H40" s="7" t="s">
         <v>72</v>
@@ -6655,7 +6652,7 @@
         <v>184</v>
       </c>
       <c r="G41" s="36" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H41" s="7" t="s">
         <v>72</v>
@@ -6782,7 +6779,7 @@
         <v>183</v>
       </c>
       <c r="G42" s="36" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H42" s="7" t="s">
         <v>72</v>
@@ -6909,7 +6906,7 @@
         <v>196</v>
       </c>
       <c r="G43" s="36" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H43" s="7" t="s">
         <v>72</v>
@@ -7163,7 +7160,7 @@
         <v>64</v>
       </c>
       <c r="G45" s="36" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H45" s="7" t="s">
         <v>72</v>
@@ -7290,7 +7287,7 @@
         <v>201</v>
       </c>
       <c r="G46" s="36" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H46" s="7" t="s">
         <v>72</v>
@@ -7539,7 +7536,7 @@
         <v>132</v>
       </c>
       <c r="F48" s="24" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="G48" s="24" t="s">
         <v>189</v>
@@ -7669,7 +7666,7 @@
         <v>183</v>
       </c>
       <c r="G49" s="36" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H49" s="7" t="s">
         <v>72</v>
@@ -7796,7 +7793,7 @@
         <v>208</v>
       </c>
       <c r="G50" s="36" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H50" s="7" t="s">
         <v>72</v>
@@ -7923,7 +7920,7 @@
         <v>198</v>
       </c>
       <c r="G51" s="36" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H51" s="7" t="s">
         <v>72</v>
@@ -8050,7 +8047,7 @@
         <v>183</v>
       </c>
       <c r="G52" s="36" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H52" s="7" t="s">
         <v>72</v>
@@ -8177,7 +8174,7 @@
         <v>184</v>
       </c>
       <c r="G53" s="36" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H53" s="7" t="s">
         <v>72</v>
@@ -8304,7 +8301,7 @@
         <v>196</v>
       </c>
       <c r="G54" s="36" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H54" s="7" t="s">
         <v>72</v>
@@ -8937,7 +8934,7 @@
         <v>64</v>
       </c>
       <c r="G59" s="36" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H59" s="7" t="s">
         <v>72</v>
@@ -9064,7 +9061,7 @@
         <v>201</v>
       </c>
       <c r="G60" s="36" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H60" s="7" t="s">
         <v>72</v>
@@ -9313,7 +9310,7 @@
         <v>132</v>
       </c>
       <c r="F62" s="24" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="G62" s="24" t="s">
         <v>189</v>
@@ -9443,7 +9440,7 @@
         <v>183</v>
       </c>
       <c r="G63" s="36" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H63" s="7" t="s">
         <v>72</v>
@@ -9570,7 +9567,7 @@
         <v>208</v>
       </c>
       <c r="G64" s="36" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H64" s="7" t="s">
         <v>72</v>
@@ -9697,7 +9694,7 @@
         <v>198</v>
       </c>
       <c r="G65" s="36" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H65" s="7" t="s">
         <v>72</v>
@@ -9824,7 +9821,7 @@
         <v>183</v>
       </c>
       <c r="G66" s="36" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H66" s="7" t="s">
         <v>72</v>
@@ -9951,7 +9948,7 @@
         <v>184</v>
       </c>
       <c r="G67" s="36" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H67" s="7" t="s">
         <v>72</v>
@@ -10078,7 +10075,7 @@
         <v>196</v>
       </c>
       <c r="G68" s="36" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H68" s="7" t="s">
         <v>72</v>
@@ -10711,7 +10708,7 @@
         <v>64</v>
       </c>
       <c r="G73" s="36" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H73" s="7" t="s">
         <v>72</v>
@@ -10838,7 +10835,7 @@
         <v>201</v>
       </c>
       <c r="G74" s="36" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H74" s="7" t="s">
         <v>72</v>
@@ -11087,7 +11084,7 @@
         <v>132</v>
       </c>
       <c r="F76" s="24" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="G76" s="24" t="s">
         <v>189</v>
@@ -11217,7 +11214,7 @@
         <v>183</v>
       </c>
       <c r="G77" s="36" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H77" s="7" t="s">
         <v>72</v>
@@ -11344,7 +11341,7 @@
         <v>208</v>
       </c>
       <c r="G78" s="36" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H78" s="7" t="s">
         <v>72</v>
@@ -11471,7 +11468,7 @@
         <v>198</v>
       </c>
       <c r="G79" s="36" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H79" s="7" t="s">
         <v>72</v>
@@ -11598,7 +11595,7 @@
         <v>196</v>
       </c>
       <c r="G80" s="36" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H80" s="7" t="s">
         <v>72</v>
@@ -12231,7 +12228,7 @@
         <v>208</v>
       </c>
       <c r="G85" s="36" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H85" s="7" t="s">
         <v>72</v>
@@ -12480,7 +12477,7 @@
         <v>132</v>
       </c>
       <c r="F87" s="24" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="G87" s="24" t="s">
         <v>189</v>
@@ -12610,7 +12607,7 @@
         <v>198</v>
       </c>
       <c r="G88" s="36" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H88" s="7" t="s">
         <v>72</v>
@@ -12862,7 +12859,7 @@
         <v>198</v>
       </c>
       <c r="G90" s="36" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H90" s="7" t="s">
         <v>72</v>
@@ -12989,7 +12986,7 @@
         <v>208</v>
       </c>
       <c r="G91" s="36" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H91" s="7" t="s">
         <v>72</v>
@@ -13241,7 +13238,7 @@
         <v>185</v>
       </c>
       <c r="G93" s="36" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H93" s="7" t="s">
         <v>72</v>
@@ -13368,7 +13365,7 @@
         <v>183</v>
       </c>
       <c r="G94" s="36" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H94" s="7" t="s">
         <v>72</v>
@@ -13495,7 +13492,7 @@
         <v>187</v>
       </c>
       <c r="G95" s="36" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H95" s="7" t="s">
         <v>72</v>
@@ -13619,7 +13616,7 @@
         <v>4</v>
       </c>
       <c r="F96" s="24" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="G96" s="24" t="s">
         <v>189</v>
@@ -13749,7 +13746,7 @@
         <v>196</v>
       </c>
       <c r="G97" s="36" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H97" s="7" t="s">
         <v>72</v>
@@ -13873,7 +13870,7 @@
         <v>4</v>
       </c>
       <c r="F98" s="24" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G98" s="24" t="s">
         <v>189</v>
@@ -14003,7 +14000,7 @@
         <v>184</v>
       </c>
       <c r="G99" s="36" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H99" s="7" t="s">
         <v>72</v>
@@ -14130,7 +14127,7 @@
         <v>183</v>
       </c>
       <c r="G100" s="36" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H100" s="7" t="s">
         <v>72</v>
@@ -14384,7 +14381,7 @@
         <v>64</v>
       </c>
       <c r="G102" s="36" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H102" s="7" t="s">
         <v>72</v>
@@ -14511,7 +14508,7 @@
         <v>208</v>
       </c>
       <c r="G103" s="36" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H103" s="7" t="s">
         <v>72</v>
@@ -14760,7 +14757,7 @@
         <v>132</v>
       </c>
       <c r="F105" s="24" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="G105" s="24" t="s">
         <v>189</v>
@@ -14890,7 +14887,7 @@
         <v>198</v>
       </c>
       <c r="G106" s="36" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H106" s="7" t="s">
         <v>72</v>
@@ -15142,7 +15139,7 @@
         <v>198</v>
       </c>
       <c r="G108" s="36" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H108" s="7" t="s">
         <v>72</v>
@@ -15269,7 +15266,7 @@
         <v>208</v>
       </c>
       <c r="G109" s="36" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H109" s="7" t="s">
         <v>72</v>
@@ -15521,7 +15518,7 @@
         <v>185</v>
       </c>
       <c r="G111" s="36" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H111" s="7" t="s">
         <v>72</v>
@@ -15648,7 +15645,7 @@
         <v>183</v>
       </c>
       <c r="G112" s="36" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H112" s="7" t="s">
         <v>72</v>
@@ -15775,7 +15772,7 @@
         <v>187</v>
       </c>
       <c r="G113" s="36" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H113" s="7" t="s">
         <v>72</v>
@@ -15899,7 +15896,7 @@
         <v>4</v>
       </c>
       <c r="F114" s="24" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="G114" s="24" t="s">
         <v>189</v>
@@ -16026,7 +16023,7 @@
         <v>4</v>
       </c>
       <c r="F115" s="24" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="G115" s="24" t="s">
         <v>189</v>
@@ -16153,7 +16150,7 @@
         <v>4</v>
       </c>
       <c r="F116" s="24" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G116" s="24" t="s">
         <v>189</v>
@@ -16283,7 +16280,7 @@
         <v>184</v>
       </c>
       <c r="G117" s="36" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H117" s="7" t="s">
         <v>72</v>
@@ -16410,7 +16407,7 @@
         <v>183</v>
       </c>
       <c r="G118" s="36" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H118" s="7" t="s">
         <v>72</v>
@@ -16664,7 +16661,7 @@
         <v>64</v>
       </c>
       <c r="G120" s="36" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H120" s="7" t="s">
         <v>72</v>
@@ -16791,7 +16788,7 @@
         <v>201</v>
       </c>
       <c r="G121" s="36" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H121" s="7" t="s">
         <v>72</v>
@@ -17043,7 +17040,7 @@
         <v>183</v>
       </c>
       <c r="G123" s="36" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H123" s="7" t="s">
         <v>72</v>
@@ -17170,7 +17167,7 @@
         <v>183</v>
       </c>
       <c r="G124" s="36" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H124" s="7" t="s">
         <v>72</v>
@@ -17546,7 +17543,7 @@
         <v>132</v>
       </c>
       <c r="F127" s="24" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="G127" s="24" t="s">
         <v>189</v>
@@ -17676,7 +17673,7 @@
         <v>185</v>
       </c>
       <c r="G128" s="36" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H128" s="7" t="s">
         <v>72</v>
@@ -17803,7 +17800,7 @@
         <v>183</v>
       </c>
       <c r="G129" s="36" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H129" s="7" t="s">
         <v>72</v>
@@ -18057,7 +18054,7 @@
         <v>64</v>
       </c>
       <c r="G131" s="36" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H131" s="7" t="s">
         <v>72</v>
@@ -18184,7 +18181,7 @@
         <v>201</v>
       </c>
       <c r="G132" s="36" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H132" s="7" t="s">
         <v>72</v>
@@ -18436,7 +18433,7 @@
         <v>183</v>
       </c>
       <c r="G134" s="36" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H134" s="7" t="s">
         <v>72</v>
@@ -18563,7 +18560,7 @@
         <v>183</v>
       </c>
       <c r="G135" s="36" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H135" s="7" t="s">
         <v>72</v>
@@ -18942,7 +18939,7 @@
         <v>196</v>
       </c>
       <c r="G138" s="36" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H138" s="7" t="s">
         <v>72</v>
@@ -19069,7 +19066,7 @@
         <v>185</v>
       </c>
       <c r="G139" s="36" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H139" s="7" t="s">
         <v>72</v>
@@ -19196,7 +19193,7 @@
         <v>183</v>
       </c>
       <c r="G140" s="36" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H140" s="7" t="s">
         <v>72</v>
@@ -19450,7 +19447,7 @@
         <v>64</v>
       </c>
       <c r="G142" s="36" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H142" s="7" t="s">
         <v>72</v>
@@ -19577,7 +19574,7 @@
         <v>201</v>
       </c>
       <c r="G143" s="36" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H143" s="7" t="s">
         <v>72</v>
@@ -19826,7 +19823,7 @@
         <v>132</v>
       </c>
       <c r="F145" s="24" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="G145" s="24" t="s">
         <v>189</v>
@@ -19956,7 +19953,7 @@
         <v>183</v>
       </c>
       <c r="G146" s="36" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H146" s="7" t="s">
         <v>72</v>
@@ -20083,7 +20080,7 @@
         <v>183</v>
       </c>
       <c r="G147" s="36" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H147" s="7" t="s">
         <v>72</v>
@@ -20334,7 +20331,7 @@
         <v>132</v>
       </c>
       <c r="F149" s="24" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="G149" s="24" t="s">
         <v>189</v>
@@ -20464,7 +20461,7 @@
         <v>208</v>
       </c>
       <c r="G150" s="36" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H150" s="7" t="s">
         <v>72</v>
@@ -20713,7 +20710,7 @@
         <v>132</v>
       </c>
       <c r="F152" s="24" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="G152" s="24" t="s">
         <v>189</v>
@@ -20843,7 +20840,7 @@
         <v>198</v>
       </c>
       <c r="G153" s="36" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H153" s="7" t="s">
         <v>72</v>
@@ -21095,7 +21092,7 @@
         <v>198</v>
       </c>
       <c r="G155" s="36" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H155" s="7" t="s">
         <v>72</v>
@@ -21222,7 +21219,7 @@
         <v>208</v>
       </c>
       <c r="G156" s="36" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H156" s="7" t="s">
         <v>72</v>
@@ -21474,7 +21471,7 @@
         <v>185</v>
       </c>
       <c r="G158" s="36" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H158" s="7" t="s">
         <v>72</v>
@@ -21601,7 +21598,7 @@
         <v>184</v>
       </c>
       <c r="G159" s="36" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H159" s="7" t="s">
         <v>72</v>
@@ -21728,7 +21725,7 @@
         <v>183</v>
       </c>
       <c r="G160" s="36" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H160" s="7" t="s">
         <v>72</v>
@@ -21852,10 +21849,10 @@
         <v>4</v>
       </c>
       <c r="F161" s="36" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="G161" s="36" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H161" s="7" t="s">
         <v>72</v>
@@ -21979,7 +21976,7 @@
         <v>4</v>
       </c>
       <c r="F162" s="24" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="G162" s="24" t="s">
         <v>189</v>
@@ -22106,7 +22103,7 @@
         <v>4</v>
       </c>
       <c r="F163" s="24" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="G163" s="24" t="s">
         <v>189</v>
@@ -22363,7 +22360,7 @@
         <v>64</v>
       </c>
       <c r="G165" s="36" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H165" s="7" t="s">
         <v>72</v>
@@ -22490,7 +22487,7 @@
         <v>208</v>
       </c>
       <c r="G166" s="36" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H166" s="7" t="s">
         <v>72</v>
@@ -22739,7 +22736,7 @@
         <v>132</v>
       </c>
       <c r="F168" s="24" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="G168" s="24" t="s">
         <v>189</v>
@@ -22869,7 +22866,7 @@
         <v>198</v>
       </c>
       <c r="G169" s="36" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H169" s="7" t="s">
         <v>72</v>
@@ -23121,7 +23118,7 @@
         <v>198</v>
       </c>
       <c r="G171" s="36" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H171" s="7" t="s">
         <v>72</v>
@@ -23248,7 +23245,7 @@
         <v>208</v>
       </c>
       <c r="G172" s="36" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H172" s="7" t="s">
         <v>72</v>
@@ -23500,7 +23497,7 @@
         <v>185</v>
       </c>
       <c r="G174" s="36" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H174" s="7" t="s">
         <v>72</v>
@@ -23627,7 +23624,7 @@
         <v>184</v>
       </c>
       <c r="G175" s="36" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H175" s="7" t="s">
         <v>72</v>
@@ -23754,7 +23751,7 @@
         <v>183</v>
       </c>
       <c r="G176" s="36" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H176" s="7" t="s">
         <v>72</v>
@@ -23878,10 +23875,10 @@
         <v>4</v>
       </c>
       <c r="F177" s="36" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="G177" s="36" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H177" s="7" t="s">
         <v>72</v>
@@ -24005,7 +24002,7 @@
         <v>4</v>
       </c>
       <c r="F178" s="24" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="G178" s="24" t="s">
         <v>189</v>
@@ -24132,7 +24129,7 @@
         <v>4</v>
       </c>
       <c r="F179" s="24" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="G179" s="24" t="s">
         <v>189</v>
@@ -24389,7 +24386,7 @@
         <v>64</v>
       </c>
       <c r="G181" s="36" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H181" s="7" t="s">
         <v>72</v>
@@ -24516,7 +24513,7 @@
         <v>201</v>
       </c>
       <c r="G182" s="36" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H182" s="7" t="s">
         <v>72</v>
@@ -24765,7 +24762,7 @@
         <v>132</v>
       </c>
       <c r="F184" s="24" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="G184" s="24" t="s">
         <v>189</v>
@@ -24880,7 +24877,7 @@
         <v>CBSE - X - SST, Hist, Geog, Eco, Civics</v>
       </c>
       <c r="B185" s="6" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="C185" s="3" t="s">
         <v>54</v>
@@ -24895,7 +24892,7 @@
         <v>183</v>
       </c>
       <c r="G185" s="36" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H185" s="7" t="s">
         <v>72</v>
@@ -25019,7 +25016,7 @@
         <v>132</v>
       </c>
       <c r="F186" s="24" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="G186" s="24" t="s">
         <v>189</v>
@@ -25655,7 +25652,7 @@
         <v>64</v>
       </c>
       <c r="G191" s="36" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H191" s="7" t="s">
         <v>72</v>
@@ -25782,7 +25779,7 @@
         <v>201</v>
       </c>
       <c r="G192" s="36" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H192" s="7" t="s">
         <v>72</v>
@@ -26031,7 +26028,7 @@
         <v>132</v>
       </c>
       <c r="F194" s="24" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="G194" s="24" t="s">
         <v>189</v>
@@ -26146,7 +26143,7 @@
         <v>CBSE - IX - SST, Hist, Geog, Eco, Civics</v>
       </c>
       <c r="B195" s="6" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="C195" s="3" t="s">
         <v>55</v>
@@ -26161,7 +26158,7 @@
         <v>183</v>
       </c>
       <c r="G195" s="36" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H195" s="7" t="s">
         <v>72</v>
@@ -26285,7 +26282,7 @@
         <v>132</v>
       </c>
       <c r="F196" s="24" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="G196" s="24" t="s">
         <v>189</v>
@@ -26921,7 +26918,7 @@
         <v>64</v>
       </c>
       <c r="G201" s="36" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H201" s="7" t="s">
         <v>72</v>
@@ -27048,7 +27045,7 @@
         <v>201</v>
       </c>
       <c r="G202" s="36" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H202" s="7" t="s">
         <v>72</v>
@@ -27297,7 +27294,7 @@
         <v>132</v>
       </c>
       <c r="F204" s="24" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="G204" s="24" t="s">
         <v>189</v>
@@ -27549,7 +27546,7 @@
         <v>132</v>
       </c>
       <c r="F206" s="24" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="G206" s="24" t="s">
         <v>189</v>
@@ -28046,7 +28043,7 @@
         <v>79</v>
       </c>
       <c r="C210" s="3" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="D210" s="3" t="s">
         <v>4</v>
@@ -28058,7 +28055,7 @@
         <v>185</v>
       </c>
       <c r="G210" s="36" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H210" s="7" t="s">
         <v>104</v>
@@ -28173,7 +28170,7 @@
         <v>80</v>
       </c>
       <c r="C211" s="3" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="D211" s="3" t="s">
         <v>4</v>
@@ -28185,7 +28182,7 @@
         <v>185</v>
       </c>
       <c r="G211" s="36" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H211" s="7" t="s">
         <v>104</v>
@@ -28300,7 +28297,7 @@
         <v>81</v>
       </c>
       <c r="C212" s="3" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="D212" s="3" t="s">
         <v>4</v>
@@ -28312,7 +28309,7 @@
         <v>185</v>
       </c>
       <c r="G212" s="36" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H212" s="7" t="s">
         <v>104</v>
@@ -28427,7 +28424,7 @@
         <v>94</v>
       </c>
       <c r="C213" s="3" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="D213" s="3" t="s">
         <v>4</v>
@@ -28439,7 +28436,7 @@
         <v>185</v>
       </c>
       <c r="G213" s="36" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H213" s="7" t="s">
         <v>104</v>
@@ -28554,7 +28551,7 @@
         <v>95</v>
       </c>
       <c r="C214" s="3" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="D214" s="3" t="s">
         <v>4</v>
@@ -28566,7 +28563,7 @@
         <v>185</v>
       </c>
       <c r="G214" s="36" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H214" s="7" t="s">
         <v>104</v>
@@ -28681,7 +28678,7 @@
         <v>96</v>
       </c>
       <c r="C215" s="3" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="D215" s="3" t="s">
         <v>4</v>
@@ -28693,7 +28690,7 @@
         <v>187</v>
       </c>
       <c r="G215" s="36" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H215" s="7" t="s">
         <v>104</v>
@@ -28808,7 +28805,7 @@
         <v>97</v>
       </c>
       <c r="C216" s="3" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="D216" s="3" t="s">
         <v>4</v>
@@ -28820,7 +28817,7 @@
         <v>187</v>
       </c>
       <c r="G216" s="36" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H216" s="7" t="s">
         <v>104</v>
@@ -28935,7 +28932,7 @@
         <v>98</v>
       </c>
       <c r="C217" s="3" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="D217" s="3" t="s">
         <v>4</v>
@@ -28947,7 +28944,7 @@
         <v>185</v>
       </c>
       <c r="G217" s="36" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H217" s="7" t="s">
         <v>104</v>
@@ -29059,10 +29056,10 @@
         <v>B.Com. (H) - Fin Rpt &amp; Stmt Anlys</v>
       </c>
       <c r="B218" s="9" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="C218" s="3" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="D218" s="3" t="s">
         <v>4</v>
@@ -29074,7 +29071,7 @@
         <v>185</v>
       </c>
       <c r="G218" s="36" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H218" s="7" t="s">
         <v>104</v>
@@ -29189,7 +29186,7 @@
         <v>83</v>
       </c>
       <c r="C219" s="3" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="D219" s="3" t="s">
         <v>4</v>
@@ -29201,7 +29198,7 @@
         <v>185</v>
       </c>
       <c r="G219" s="36" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H219" s="7" t="s">
         <v>104</v>
@@ -29328,7 +29325,7 @@
         <v>184</v>
       </c>
       <c r="G220" s="36" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H220" s="7" t="s">
         <v>104</v>
@@ -29455,7 +29452,7 @@
         <v>184</v>
       </c>
       <c r="G221" s="36" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H221" s="7" t="s">
         <v>104</v>
@@ -29582,7 +29579,7 @@
         <v>184</v>
       </c>
       <c r="G222" s="36" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H222" s="7" t="s">
         <v>104</v>
@@ -29709,7 +29706,7 @@
         <v>187</v>
       </c>
       <c r="G223" s="36" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H223" s="7" t="s">
         <v>104</v>
@@ -29836,7 +29833,7 @@
         <v>187</v>
       </c>
       <c r="G224" s="36" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H224" s="7" t="s">
         <v>104</v>
@@ -29963,7 +29960,7 @@
         <v>187</v>
       </c>
       <c r="G225" s="36" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H225" s="7" t="s">
         <v>104</v>
@@ -30087,7 +30084,7 @@
         <v>4</v>
       </c>
       <c r="F226" s="24" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G226" s="24" t="s">
         <v>189</v>
@@ -30214,7 +30211,7 @@
         <v>4</v>
       </c>
       <c r="F227" s="24" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G227" s="24" t="s">
         <v>189</v>
@@ -30341,7 +30338,7 @@
         <v>4</v>
       </c>
       <c r="F228" s="24" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="G228" s="24" t="s">
         <v>189</v>
@@ -30468,7 +30465,7 @@
         <v>4</v>
       </c>
       <c r="F229" s="24" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="G229" s="24" t="s">
         <v>189</v>
@@ -30598,7 +30595,7 @@
         <v>185</v>
       </c>
       <c r="G230" s="36" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H230" s="7" t="s">
         <v>104</v>
@@ -30725,7 +30722,7 @@
         <v>208</v>
       </c>
       <c r="G231" s="36" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H231" s="7" t="s">
         <v>104</v>
@@ -30852,7 +30849,7 @@
         <v>208</v>
       </c>
       <c r="G232" s="36" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H232" s="7" t="s">
         <v>104</v>
@@ -30976,10 +30973,10 @@
         <v>4</v>
       </c>
       <c r="F233" s="36" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="G233" s="36" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H233" s="7" t="s">
         <v>104</v>
@@ -31103,10 +31100,10 @@
         <v>4</v>
       </c>
       <c r="F234" s="36" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="G234" s="36" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H234" s="7" t="s">
         <v>104</v>
@@ -31233,7 +31230,7 @@
         <v>185</v>
       </c>
       <c r="G235" s="36" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H235" s="7" t="s">
         <v>104</v>
@@ -31360,7 +31357,7 @@
         <v>208</v>
       </c>
       <c r="G236" s="36" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H236" s="7" t="s">
         <v>104</v>
@@ -31487,7 +31484,7 @@
         <v>208</v>
       </c>
       <c r="G237" s="36" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H237" s="7" t="s">
         <v>104</v>
@@ -31611,7 +31608,7 @@
         <v>4</v>
       </c>
       <c r="F238" s="24" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G238" s="24" t="s">
         <v>189</v>
@@ -31738,7 +31735,7 @@
         <v>4</v>
       </c>
       <c r="F239" s="24" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G239" s="24" t="s">
         <v>189</v>
@@ -31865,7 +31862,7 @@
         <v>4</v>
       </c>
       <c r="F240" s="24" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G240" s="24" t="s">
         <v>189</v>
@@ -31992,10 +31989,10 @@
         <v>4</v>
       </c>
       <c r="F241" s="36" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="G241" s="36" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H241" s="7" t="s">
         <v>104</v>
@@ -32122,7 +32119,7 @@
         <v>184</v>
       </c>
       <c r="G242" s="36" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H242" s="7" t="s">
         <v>104</v>
@@ -32249,7 +32246,7 @@
         <v>184</v>
       </c>
       <c r="G243" s="36" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H243" s="7" t="s">
         <v>104</v>
@@ -32376,7 +32373,7 @@
         <v>187</v>
       </c>
       <c r="G244" s="36" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H244" s="7" t="s">
         <v>104</v>
@@ -32503,7 +32500,7 @@
         <v>208</v>
       </c>
       <c r="G245" s="36" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H245" s="7" t="s">
         <v>104</v>
@@ -32630,7 +32627,7 @@
         <v>187</v>
       </c>
       <c r="G246" s="36" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H246" s="7" t="s">
         <v>104</v>
@@ -32757,7 +32754,7 @@
         <v>184</v>
       </c>
       <c r="G247" s="36" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H247" s="7" t="s">
         <v>104</v>
@@ -32881,7 +32878,7 @@
         <v>4</v>
       </c>
       <c r="F248" s="24" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="G248" s="24" t="s">
         <v>189</v>
@@ -33011,7 +33008,7 @@
         <v>185</v>
       </c>
       <c r="G249" s="36" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H249" s="7" t="s">
         <v>104</v>
@@ -33138,7 +33135,7 @@
         <v>208</v>
       </c>
       <c r="G250" s="36" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H250" s="7" t="s">
         <v>104</v>
@@ -33265,7 +33262,7 @@
         <v>187</v>
       </c>
       <c r="G251" s="36" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H251" s="7" t="s">
         <v>104</v>
@@ -33389,10 +33386,10 @@
         <v>4</v>
       </c>
       <c r="F252" s="36" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="G252" s="36" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H252" s="7" t="s">
         <v>104</v>
@@ -33519,7 +33516,7 @@
         <v>185</v>
       </c>
       <c r="G253" s="36" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H253" s="7" t="s">
         <v>104</v>
@@ -33646,7 +33643,7 @@
         <v>187</v>
       </c>
       <c r="G254" s="36" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H254" s="7" t="s">
         <v>104</v>
@@ -33773,7 +33770,7 @@
         <v>187</v>
       </c>
       <c r="G255" s="36" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H255" s="7" t="s">
         <v>104</v>
@@ -33900,7 +33897,7 @@
         <v>185</v>
       </c>
       <c r="G256" s="36" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H256" s="7" t="s">
         <v>104</v>
@@ -34027,7 +34024,7 @@
         <v>187</v>
       </c>
       <c r="G257" s="36" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H257" s="7" t="s">
         <v>104</v>
@@ -34154,7 +34151,7 @@
         <v>187</v>
       </c>
       <c r="G258" s="36" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H258" s="7" t="s">
         <v>104</v>
@@ -34281,7 +34278,7 @@
         <v>185</v>
       </c>
       <c r="G259" s="36" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H259" s="7" t="s">
         <v>104</v>
@@ -34408,7 +34405,7 @@
         <v>185</v>
       </c>
       <c r="G260" s="36" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H260" s="7" t="s">
         <v>104</v>
@@ -34535,7 +34532,7 @@
         <v>185</v>
       </c>
       <c r="G261" s="36" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H261" s="7" t="s">
         <v>104</v>
@@ -34662,7 +34659,7 @@
         <v>187</v>
       </c>
       <c r="G262" s="36" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H262" s="7" t="s">
         <v>104</v>
@@ -34789,7 +34786,7 @@
         <v>187</v>
       </c>
       <c r="G263" s="36" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H263" s="7" t="s">
         <v>104</v>
@@ -34916,7 +34913,7 @@
         <v>187</v>
       </c>
       <c r="G264" s="36" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H264" s="7" t="s">
         <v>104</v>
@@ -35043,7 +35040,7 @@
         <v>185</v>
       </c>
       <c r="G265" s="36" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H265" s="7" t="s">
         <v>104</v>
@@ -35155,10 +35152,10 @@
         <v>C.A. - Found - Accountancy</v>
       </c>
       <c r="B266" s="9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C266" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D266" s="3" t="s">
         <v>170</v>
@@ -35282,10 +35279,10 @@
         <v>C.A. - Found - Biz laws &amp; Corspndnce</v>
       </c>
       <c r="B267" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C267" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D267" s="3" t="s">
         <v>170</v>
@@ -35294,7 +35291,7 @@
         <v>4</v>
       </c>
       <c r="F267" s="24" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="G267" s="24" t="s">
         <v>189</v>
@@ -35349,10 +35346,10 @@
         <v>C.A. - Found - Biz Math &amp; Stat</v>
       </c>
       <c r="B268" s="9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C268" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D268" s="3" t="s">
         <v>170</v>
@@ -35361,7 +35358,7 @@
         <v>4</v>
       </c>
       <c r="F268" s="24" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G268" s="24" t="s">
         <v>189</v>
@@ -35410,16 +35407,16 @@
       <c r="AI268" s="34"/>
       <c r="AJ268" s="34"/>
     </row>
-    <row r="269" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A269" s="22" t="str">
         <f t="shared" si="472"/>
-        <v>C.A. - Found - Eco &amp; Comm Knowledge</v>
+        <v>C.A. - Found - Eco &amp; Comm Knwldge</v>
       </c>
       <c r="B269" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="C269" s="3" t="s">
         <v>209</v>
-      </c>
-      <c r="C269" s="3" t="s">
-        <v>210</v>
       </c>
       <c r="D269" s="3" t="s">
         <v>170</v>
@@ -35481,10 +35478,10 @@
         <v>C.A. - Inter - Accountancy</v>
       </c>
       <c r="B270" s="30" t="s">
+        <v>210</v>
+      </c>
+      <c r="C270" s="3" t="s">
         <v>211</v>
-      </c>
-      <c r="C270" s="3" t="s">
-        <v>212</v>
       </c>
       <c r="D270" s="3" t="s">
         <v>170</v>
@@ -35608,10 +35605,10 @@
         <v>C.A. - Inter - Corp &amp; other Laws</v>
       </c>
       <c r="B271" s="30" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C271" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D271" s="3" t="s">
         <v>170</v>
@@ -35620,7 +35617,7 @@
         <v>4</v>
       </c>
       <c r="F271" s="24" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="G271" s="24" t="s">
         <v>189</v>
@@ -35665,10 +35662,10 @@
         <v>C.A. - Inter - Cost &amp; Mgmt Ac</v>
       </c>
       <c r="B272" s="30" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C272" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D272" s="3" t="s">
         <v>170</v>
@@ -35722,10 +35719,10 @@
         <v>C.A. - Inter - Tax</v>
       </c>
       <c r="B273" s="30" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C273" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D273" s="3" t="s">
         <v>170</v>
@@ -35777,10 +35774,10 @@
         <v>C.A. - Inter - Audit</v>
       </c>
       <c r="B274" s="30" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C274" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D274" s="3" t="s">
         <v>170</v>
@@ -35832,10 +35829,10 @@
         <v>C.A. - Inter - Adv Ac</v>
       </c>
       <c r="B275" s="30" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C275" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D275" s="3" t="s">
         <v>170</v>
@@ -35889,10 +35886,10 @@
         <v>C.A. - Inter - EIS &amp; Strategic Mgmt</v>
       </c>
       <c r="B276" s="30" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C276" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D276" s="3" t="s">
         <v>170</v>
@@ -35901,10 +35898,10 @@
         <v>4</v>
       </c>
       <c r="F276" s="36" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="G276" s="36" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H276" s="7" t="s">
         <v>104</v>
@@ -35946,10 +35943,10 @@
         <v>C.A. - Inter - Fin Mgmt &amp; Eco</v>
       </c>
       <c r="B277" s="30" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C277" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D277" s="3" t="s">
         <v>170</v>
@@ -36001,7 +35998,7 @@
         <v>C.A. - Final - Fin Reporting</v>
       </c>
       <c r="B278" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C278" s="3" t="s">
         <v>169</v>
@@ -36122,13 +36119,13 @@
         <v>400</v>
       </c>
     </row>
-    <row r="279" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A279" s="22" t="str">
         <f t="shared" si="472"/>
-        <v>C.A. - Final - Strategic Fin Management</v>
+        <v>C.A. - Final - Strategic Fin Mgmt</v>
       </c>
       <c r="B279" s="9" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
       <c r="C279" s="3" t="s">
         <v>169</v>
@@ -36185,7 +36182,7 @@
         <v>C.A. - Final - Audit &amp; Ethics</v>
       </c>
       <c r="B280" s="9" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C280" s="3" t="s">
         <v>169</v>
@@ -36240,7 +36237,7 @@
         <v>C.A. - Final - Corporate &amp; Eco Laws</v>
       </c>
       <c r="B281" s="9" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C281" s="3" t="s">
         <v>169</v>
@@ -36252,7 +36249,7 @@
         <v>4</v>
       </c>
       <c r="F281" s="24" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="G281" s="24" t="s">
         <v>189</v>
@@ -36297,7 +36294,7 @@
         <v>C.A. - Final - Strategic Cost &amp; Perf Eval</v>
       </c>
       <c r="B282" s="9" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C282" s="3" t="s">
         <v>169</v>
@@ -36348,13 +36345,13 @@
       <c r="AI282" s="16"/>
       <c r="AJ282" s="16"/>
     </row>
-    <row r="283" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:36" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A283" s="22" t="str">
         <f t="shared" si="472"/>
-        <v>C.A. - Final - Risk, Cptl Mkt, Glbl FinRpt</v>
+        <v>C.A. - Final - Risk, Cptl Mkt, Glbl FnRpt</v>
       </c>
       <c r="B283" s="9" t="s">
-        <v>230</v>
+        <v>293</v>
       </c>
       <c r="C283" s="3" t="s">
         <v>169</v>
@@ -36409,7 +36406,7 @@
         <v>C.A. - Final - Direct Tax &amp; Intrtnl Tax</v>
       </c>
       <c r="B284" s="9" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C284" s="3" t="s">
         <v>169</v>
@@ -36421,7 +36418,7 @@
         <v>4</v>
       </c>
       <c r="F284" s="24" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="G284" s="24" t="s">
         <v>189</v>
@@ -36466,7 +36463,7 @@
         <v>C.A. - Final - Indirect Tax laws</v>
       </c>
       <c r="B285" s="9" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C285" s="3" t="s">
         <v>169</v>
@@ -36478,7 +36475,7 @@
         <v>4</v>
       </c>
       <c r="F285" s="24" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="G285" s="24" t="s">
         <v>189</v>
@@ -36523,10 +36520,10 @@
         <v>C.M.A. - Found - Bizz laws &amp; comm</v>
       </c>
       <c r="B286" s="30" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C286" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D286" s="3" t="s">
         <v>171</v>
@@ -36648,10 +36645,10 @@
         <v>C.M.A. - Found - Fin &amp; Cost Ac</v>
       </c>
       <c r="B287" s="30" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C287" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D287" s="3" t="s">
         <v>171</v>
@@ -36703,10 +36700,10 @@
         <v>C.M.A. - Found - Bizz math &amp; Stat</v>
       </c>
       <c r="B288" s="30" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C288" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D288" s="3" t="s">
         <v>171</v>
@@ -36758,10 +36755,10 @@
         <v>C.M.A. - Found - Bizz Eco &amp; Math</v>
       </c>
       <c r="B289" s="30" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C289" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D289" s="3" t="s">
         <v>171</v>
@@ -36813,10 +36810,10 @@
         <v>C.M.A. - Inter - Biz Law &amp; Ethics</v>
       </c>
       <c r="B290" s="9" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C290" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D290" s="3" t="s">
         <v>171</v>
@@ -36938,10 +36935,10 @@
         <v>C.M.A. - Inter - Fin Ac</v>
       </c>
       <c r="B291" s="9" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C291" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D291" s="3" t="s">
         <v>171</v>
@@ -36993,10 +36990,10 @@
         <v>C.M.A. - Inter - Direct Indirect Tax</v>
       </c>
       <c r="B292" s="9" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C292" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D292" s="3" t="s">
         <v>171</v>
@@ -37048,10 +37045,10 @@
         <v>C.M.A. - Inter - Cost AC</v>
       </c>
       <c r="B293" s="9" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C293" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D293" s="3" t="s">
         <v>171</v>
@@ -37103,10 +37100,10 @@
         <v>C.M.A. - Inter - Ops &amp; Mgmt Strategic</v>
       </c>
       <c r="B294" s="9" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C294" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D294" s="3" t="s">
         <v>171</v>
@@ -37158,10 +37155,10 @@
         <v>C.M.A. - Inter - Corporate AC &amp; Auditing</v>
       </c>
       <c r="B295" s="9" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C295" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D295" s="3" t="s">
         <v>171</v>
@@ -37210,13 +37207,13 @@
     <row r="296" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A296" s="35" t="str">
         <f t="shared" si="472"/>
-        <v>C.M.A. - Inter - Fin Mgmt &amp; Data Anltcs</v>
+        <v>C.M.A. - Inter - Fin Mgmt-Data Anltcs</v>
       </c>
       <c r="B296" s="9" t="s">
-        <v>242</v>
+        <v>294</v>
       </c>
       <c r="C296" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D296" s="3" t="s">
         <v>171</v>
@@ -37268,10 +37265,10 @@
         <v>C.M.A. - Inter - Mgmt AC</v>
       </c>
       <c r="B297" s="9" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C297" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D297" s="3" t="s">
         <v>171</v>
@@ -37323,7 +37320,7 @@
         <v>C.M.A. - Final - Corporate &amp; Eco Laws</v>
       </c>
       <c r="B298" s="30" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C298" s="3" t="s">
         <v>169</v>
@@ -37448,7 +37445,7 @@
         <v>C.M.A. - Final - Strategic Fin Mgmt</v>
       </c>
       <c r="B299" s="30" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C299" s="3" t="s">
         <v>169</v>
@@ -37503,7 +37500,7 @@
         <v>C.M.A. - Final - Direct &amp; Intrntnl Tax</v>
       </c>
       <c r="B300" s="30" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C300" s="3" t="s">
         <v>169</v>
@@ -37558,7 +37555,7 @@
         <v>C.M.A. - Final - Strategic Cost Mgmt</v>
       </c>
       <c r="B301" s="30" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C301" s="3" t="s">
         <v>169</v>
@@ -37613,7 +37610,7 @@
         <v>C.M.A. - Final - Cost &amp; Mgmt Audit</v>
       </c>
       <c r="B302" s="30" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C302" s="3" t="s">
         <v>169</v>
@@ -37668,7 +37665,7 @@
         <v>C.M.A. - Final - Corporate Fin Reporting</v>
       </c>
       <c r="B303" s="30" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C303" s="3" t="s">
         <v>169</v>
@@ -37723,7 +37720,7 @@
         <v>C.M.A. - Final - Indirect Tax</v>
       </c>
       <c r="B304" s="30" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C304" s="3" t="s">
         <v>169</v>
@@ -37772,13 +37769,13 @@
       <c r="AI304" s="16"/>
       <c r="AJ304" s="16"/>
     </row>
-    <row r="305" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A305" s="35" t="str">
         <f t="shared" si="472"/>
-        <v>C.M.A. - Final - Strtgc Perf Mgmt &amp; Eval</v>
+        <v>C.M.A. - Final - Strt Perf Mgmt &amp; Eval</v>
       </c>
       <c r="B305" s="30" t="s">
-        <v>249</v>
+        <v>295</v>
       </c>
       <c r="C305" s="3" t="s">
         <v>169</v>
@@ -37833,10 +37830,10 @@
         <v>C.S. - Found - Biz Env &amp; Law</v>
       </c>
       <c r="B306" s="9" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="C306" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D306" s="3" t="s">
         <v>172</v>
@@ -37952,16 +37949,16 @@
         <v>400</v>
       </c>
     </row>
-    <row r="307" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A307" s="22" t="str">
         <f t="shared" si="472"/>
-        <v>C.S. - Found - Biz Mgmt, Ethics, Entpnsp</v>
+        <v>C.S. - Found - Biz Mgmt, Ethics, Entsp</v>
       </c>
       <c r="B307" s="9" t="s">
-        <v>258</v>
+        <v>296</v>
       </c>
       <c r="C307" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D307" s="3" t="s">
         <v>172</v>
@@ -38009,10 +38006,10 @@
         <v>C.S. - Found - Biz Eco</v>
       </c>
       <c r="B308" s="9" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="C308" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D308" s="3" t="s">
         <v>172</v>
@@ -38060,10 +38057,10 @@
         <v>C.S. - Found - Ac &amp; Audit</v>
       </c>
       <c r="B309" s="9" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="C309" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D309" s="3" t="s">
         <v>172</v>
@@ -38111,10 +38108,10 @@
         <v>C.S. - Inter - General Law</v>
       </c>
       <c r="B310" s="30" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="C310" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D310" s="3" t="s">
         <v>172</v>
@@ -38239,7 +38236,7 @@
         <v>90</v>
       </c>
       <c r="C311" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D311" s="3" t="s">
         <v>172</v>
@@ -38287,10 +38284,10 @@
         <v>C.S. - Inter - Set up of Biz &amp; Closure</v>
       </c>
       <c r="B312" s="30" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C312" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D312" s="3" t="s">
         <v>172</v>
@@ -38338,10 +38335,10 @@
         <v>C.S. - Inter - Tax Law</v>
       </c>
       <c r="B313" s="30" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="C313" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D313" s="3" t="s">
         <v>172</v>
@@ -38389,10 +38386,10 @@
         <v>C.S. - Inter - Corporate &amp; Mgmt AC</v>
       </c>
       <c r="B314" s="30" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="C314" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D314" s="3" t="s">
         <v>172</v>
@@ -38440,10 +38437,10 @@
         <v>C.S. - Inter - Securities Law &amp; Cptl Mkt</v>
       </c>
       <c r="B315" s="30" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="C315" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D315" s="3" t="s">
         <v>172</v>
@@ -38491,10 +38488,10 @@
         <v>C.S. - Inter - Eco, Biz &amp; Comm Law</v>
       </c>
       <c r="B316" s="30" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="C316" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D316" s="3" t="s">
         <v>172</v>
@@ -38536,16 +38533,16 @@
       <c r="AI316" s="16"/>
       <c r="AJ316" s="16"/>
     </row>
-    <row r="317" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A317" s="22" t="str">
         <f t="shared" si="472"/>
-        <v>C.S. - Inter - Financial &amp; Strategic Mgmt</v>
+        <v>C.S. - Inter - Fin &amp; Strategic Mgmt</v>
       </c>
       <c r="B317" s="30" t="s">
-        <v>255</v>
+        <v>297</v>
       </c>
       <c r="C317" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D317" s="3" t="s">
         <v>172</v>
@@ -38593,7 +38590,7 @@
         <v>C.S. - Final - Govrnc, Risk Mgmt, Ethics</v>
       </c>
       <c r="B318" s="9" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="C318" s="3" t="s">
         <v>169</v>
@@ -38718,7 +38715,7 @@
         <v>C.S. - Final - Adv Tax laws</v>
       </c>
       <c r="B319" s="9" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C319" s="3" t="s">
         <v>169</v>
@@ -38769,7 +38766,7 @@
         <v>C.S. - Final - Draft, Pleed &amp; Apprncs</v>
       </c>
       <c r="B320" s="9" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="C320" s="3" t="s">
         <v>169</v>
@@ -38820,7 +38817,7 @@
         <v>C.S. - Final - Secretl Audit, Due Delgnc</v>
       </c>
       <c r="B321" s="9" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="C321" s="3" t="s">
         <v>169</v>
@@ -38871,7 +38868,7 @@
         <v>C.S. - Final - Corp Restrct, Winding Up</v>
       </c>
       <c r="B322" s="9" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="C322" s="3" t="s">
         <v>169</v>
@@ -38922,7 +38919,7 @@
         <v>C.S. - Final - Resln of Corp Disputes</v>
       </c>
       <c r="B323" s="9" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="C323" s="3" t="s">
         <v>169</v>
@@ -38973,7 +38970,7 @@
         <v>C.S. - Final - Corp Fund &amp; Stock Listing</v>
       </c>
       <c r="B324" s="9" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="C324" s="3" t="s">
         <v>169</v>
@@ -39024,7 +39021,7 @@
         <v>C.S. - Final - Multi Discp Case Studies</v>
       </c>
       <c r="B325" s="9" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="C325" s="3" t="s">
         <v>169</v>
@@ -39075,7 +39072,7 @@
         <v>C.S. - Final - Intellectual Prpt Rights</v>
       </c>
       <c r="B326" s="9" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="C326" s="3" t="s">
         <v>169</v>
@@ -39126,10 +39123,10 @@
         <v>C.F.A. - L-1 - Ethical &amp; Prof Standards</v>
       </c>
       <c r="B327" s="30" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="C327" s="3" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="D327" s="3" t="s">
         <v>173</v>
@@ -39251,10 +39248,10 @@
         <v>C.F.A. - L-1 - Quantitive Methods</v>
       </c>
       <c r="B328" s="30" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="C328" s="3" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="D328" s="3" t="s">
         <v>173</v>
@@ -39305,7 +39302,7 @@
         <v>31</v>
       </c>
       <c r="C329" s="3" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="D329" s="3" t="s">
         <v>173</v>
@@ -39353,10 +39350,10 @@
         <v>C.F.A. - L-1 - Fin Statement Analysis</v>
       </c>
       <c r="B330" s="30" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="C330" s="3" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="D330" s="3" t="s">
         <v>173</v>
@@ -39404,10 +39401,10 @@
         <v>C.F.A. - L-1 - Corporate Issuers</v>
       </c>
       <c r="B331" s="30" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="C331" s="3" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="D331" s="3" t="s">
         <v>173</v>
@@ -39455,10 +39452,10 @@
         <v>C.F.A. - L-1 - Equity Investments</v>
       </c>
       <c r="B332" s="30" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="C332" s="3" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="D332" s="3" t="s">
         <v>173</v>
@@ -39506,10 +39503,10 @@
         <v>C.F.A. - L-1 - Fixed Income</v>
       </c>
       <c r="B333" s="30" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="C333" s="3" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="D333" s="3" t="s">
         <v>173</v>
@@ -39557,10 +39554,10 @@
         <v>C.F.A. - L-1 - Derivatives</v>
       </c>
       <c r="B334" s="30" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="C334" s="3" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="D334" s="3" t="s">
         <v>173</v>
@@ -39608,10 +39605,10 @@
         <v>C.F.A. - L-1 - Alternative Investments</v>
       </c>
       <c r="B335" s="30" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="C335" s="3" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="D335" s="3" t="s">
         <v>173</v>
@@ -39659,10 +39656,10 @@
         <v>C.F.A. - L-1 - Portrfolio Mgmt &amp; Wealth</v>
       </c>
       <c r="B336" s="30" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="C336" s="3" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="D336" s="3" t="s">
         <v>173</v>
@@ -39710,10 +39707,10 @@
         <v>C.F.A. - L-2 - Ethical &amp; Prof Standards</v>
       </c>
       <c r="B337" s="9" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="C337" s="3" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="D337" s="3" t="s">
         <v>173</v>
@@ -39835,10 +39832,10 @@
         <v>C.F.A. - L-2 - Quantitive Methods</v>
       </c>
       <c r="B338" s="9" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="C338" s="3" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="D338" s="3" t="s">
         <v>173</v>
@@ -39889,7 +39886,7 @@
         <v>31</v>
       </c>
       <c r="C339" s="3" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="D339" s="3" t="s">
         <v>173</v>
@@ -39937,10 +39934,10 @@
         <v>C.F.A. - L-2 - Fin Statement Analysis</v>
       </c>
       <c r="B340" s="9" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="C340" s="3" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="D340" s="3" t="s">
         <v>173</v>
@@ -39988,10 +39985,10 @@
         <v>C.F.A. - L-2 - Corporate Issuers</v>
       </c>
       <c r="B341" s="9" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="C341" s="3" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="D341" s="3" t="s">
         <v>173</v>
@@ -40039,10 +40036,10 @@
         <v>C.F.A. - L-2 - Equity Investments</v>
       </c>
       <c r="B342" s="9" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="C342" s="3" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="D342" s="3" t="s">
         <v>173</v>
@@ -40090,10 +40087,10 @@
         <v>C.F.A. - L-2 - Fixed Income</v>
       </c>
       <c r="B343" s="9" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="C343" s="3" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="D343" s="3" t="s">
         <v>173</v>
@@ -40141,10 +40138,10 @@
         <v>C.F.A. - L-2 - Derivatives</v>
       </c>
       <c r="B344" s="9" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="C344" s="3" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="D344" s="3" t="s">
         <v>173</v>
@@ -40192,10 +40189,10 @@
         <v>C.F.A. - L-2 - Alternative Investments</v>
       </c>
       <c r="B345" s="9" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="C345" s="3" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="D345" s="3" t="s">
         <v>173</v>
@@ -40243,10 +40240,10 @@
         <v>C.F.A. - L-2 - Portrfolio Mgmt-Wealth</v>
       </c>
       <c r="B346" s="9" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="C346" s="3" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="D346" s="3" t="s">
         <v>173</v>
@@ -40294,10 +40291,10 @@
         <v>C.F.A. - L-3 - Ethical &amp; Prof Standards</v>
       </c>
       <c r="B347" s="30" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="C347" s="3" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="D347" s="3" t="s">
         <v>173</v>
@@ -40419,10 +40416,10 @@
         <v>C.F.A. - L-3 - Quantitive Methods</v>
       </c>
       <c r="B348" s="30" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="C348" s="3" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="D348" s="3" t="s">
         <v>173</v>
@@ -40473,7 +40470,7 @@
         <v>31</v>
       </c>
       <c r="C349" s="3" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="D349" s="3" t="s">
         <v>173</v>
@@ -40521,10 +40518,10 @@
         <v>C.F.A. - L-3 - Fin Statement Analysis</v>
       </c>
       <c r="B350" s="30" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="C350" s="3" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="D350" s="3" t="s">
         <v>173</v>
@@ -40572,10 +40569,10 @@
         <v>C.F.A. - L-3 - Corporate Issuers</v>
       </c>
       <c r="B351" s="30" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="C351" s="3" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="D351" s="3" t="s">
         <v>173</v>
@@ -40623,10 +40620,10 @@
         <v>C.F.A. - L-3 - Equity Investments</v>
       </c>
       <c r="B352" s="30" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="C352" s="3" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="D352" s="3" t="s">
         <v>173</v>
@@ -40674,10 +40671,10 @@
         <v>C.F.A. - L-3 - Fixed Income</v>
       </c>
       <c r="B353" s="30" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="C353" s="3" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="D353" s="3" t="s">
         <v>173</v>
@@ -40725,10 +40722,10 @@
         <v>C.F.A. - L-3 - Derivatives</v>
       </c>
       <c r="B354" s="30" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="C354" s="3" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="D354" s="3" t="s">
         <v>173</v>
@@ -40776,10 +40773,10 @@
         <v>C.F.A. - L-3 - Alternative Investments</v>
       </c>
       <c r="B355" s="30" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="C355" s="3" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="D355" s="3" t="s">
         <v>173</v>
@@ -40827,10 +40824,10 @@
         <v>C.F.A. - L-3 - Portrfolio Mgmt-Wealth</v>
       </c>
       <c r="B356" s="30" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="C356" s="3" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="D356" s="3" t="s">
         <v>173</v>
@@ -40893,7 +40890,7 @@
         <v>201</v>
       </c>
       <c r="G357" s="36" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H357" s="7" t="s">
         <v>140</v>
@@ -41022,7 +41019,7 @@
         <v>208</v>
       </c>
       <c r="G358" s="36" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H358" s="7" t="s">
         <v>140</v>
@@ -42037,10 +42034,10 @@
         <v>133</v>
       </c>
       <c r="F366" s="36" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="G366" s="36" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H366" s="7" t="s">
         <v>140</v>
@@ -42052,7 +42049,7 @@
         <v>1</v>
       </c>
       <c r="K366" s="7" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="L366" s="7">
         <v>1</v>
@@ -42166,10 +42163,10 @@
         <v>133</v>
       </c>
       <c r="F367" s="36" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="G367" s="36" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H367" s="7" t="s">
         <v>140</v>
@@ -42295,10 +42292,10 @@
         <v>133</v>
       </c>
       <c r="F368" s="36" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="G368" s="36" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H368" s="7" t="s">
         <v>140</v>
@@ -42424,10 +42421,10 @@
         <v>133</v>
       </c>
       <c r="F369" s="36" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="G369" s="36" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H369" s="7" t="s">
         <v>140</v>
@@ -42553,10 +42550,10 @@
         <v>133</v>
       </c>
       <c r="F370" s="36" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="G370" s="36" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H370" s="7" t="s">
         <v>140</v>
@@ -42682,10 +42679,10 @@
         <v>133</v>
       </c>
       <c r="F371" s="36" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="G371" s="36" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H371" s="7" t="s">
         <v>140</v>
@@ -42811,10 +42808,10 @@
         <v>133</v>
       </c>
       <c r="F372" s="36" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="G372" s="36" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H372" s="7" t="s">
         <v>140</v>
@@ -42940,10 +42937,10 @@
         <v>133</v>
       </c>
       <c r="F373" s="36" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="G373" s="36" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H373" s="7" t="s">
         <v>140</v>
@@ -43069,10 +43066,10 @@
         <v>133</v>
       </c>
       <c r="F374" s="36" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="G374" s="36" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H374" s="7" t="s">
         <v>140</v>
@@ -43325,10 +43322,10 @@
         <v>133</v>
       </c>
       <c r="F376" s="36" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="G376" s="36" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H376" s="7" t="s">
         <v>140</v>
@@ -43454,10 +43451,10 @@
         <v>133</v>
       </c>
       <c r="F377" s="36" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="G377" s="36" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H377" s="7" t="s">
         <v>140</v>
@@ -43583,10 +43580,10 @@
         <v>133</v>
       </c>
       <c r="F378" s="36" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="G378" s="36" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H378" s="7" t="s">
         <v>140</v>
@@ -43712,10 +43709,10 @@
         <v>133</v>
       </c>
       <c r="F379" s="36" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="G379" s="36" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H379" s="7" t="s">
         <v>140</v>
@@ -43971,7 +43968,7 @@
         <v>190</v>
       </c>
       <c r="G381" s="36" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H381" s="7" t="s">
         <v>140</v>
@@ -44720,7 +44717,7 @@
         <v>Test Automtn Selenium</v>
       </c>
       <c r="B387" s="8" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="C387" s="3" t="s">
         <v>70</v>
@@ -44858,10 +44855,10 @@
         <v>133</v>
       </c>
       <c r="F388" s="36" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="G388" s="36" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H388" s="7" t="s">
         <v>140</v>
@@ -44986,10 +44983,10 @@
         <v>133</v>
       </c>
       <c r="F389" s="36" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="G389" s="36" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H389" s="7" t="s">
         <v>140</v>
@@ -45112,10 +45109,10 @@
         <v>133</v>
       </c>
       <c r="F390" s="36" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="G390" s="36" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H390" s="7" t="s">
         <v>140</v>
@@ -45238,10 +45235,10 @@
         <v>133</v>
       </c>
       <c r="F391" s="36" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="G391" s="36" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H391" s="7" t="s">
         <v>140</v>
@@ -45480,7 +45477,7 @@
         <v>Advanced Comme Pkg</v>
       </c>
       <c r="B393" s="8" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="C393" s="3" t="s">
         <v>70</v>
@@ -45619,10 +45616,10 @@
         <v>133</v>
       </c>
       <c r="F394" s="36" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="G394" s="36" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H394" s="7" t="s">
         <v>141</v>
@@ -45751,7 +45748,7 @@
         <v>64</v>
       </c>
       <c r="G395" s="36" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H395" s="7" t="s">
         <v>141</v>
@@ -45880,7 +45877,7 @@
         <v>64</v>
       </c>
       <c r="G396" s="36" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H396" s="7" t="s">
         <v>140</v>
@@ -46009,7 +46006,7 @@
         <v>64</v>
       </c>
       <c r="G397" s="36" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H397" s="7" t="s">
         <v>140</v>
@@ -46138,7 +46135,7 @@
         <v>64</v>
       </c>
       <c r="G398" s="36" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H398" s="7" t="s">
         <v>140</v>
@@ -46267,7 +46264,7 @@
         <v>64</v>
       </c>
       <c r="G399" s="36" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H399" s="7" t="s">
         <v>140</v>
@@ -46396,7 +46393,7 @@
         <v>64</v>
       </c>
       <c r="G400" s="36" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H400" s="7" t="s">
         <v>140</v>
@@ -46510,7 +46507,7 @@
         <v>AI - Comp Vision (CNN)</v>
       </c>
       <c r="B401" s="8" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="C401" s="3" t="s">
         <v>70</v>
@@ -46525,7 +46522,7 @@
         <v>64</v>
       </c>
       <c r="G401" s="36" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H401" s="7" t="s">
         <v>140</v>
@@ -46654,7 +46651,7 @@
         <v>65</v>
       </c>
       <c r="G402" s="36" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H402" s="7" t="s">
         <v>140</v>
@@ -46783,7 +46780,7 @@
         <v>65</v>
       </c>
       <c r="G403" s="36" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="H403" s="7" t="s">
         <v>140</v>
@@ -46894,12 +46891,22 @@
   </sheetData>
   <autoFilter ref="A3:AJ403"/>
   <mergeCells count="38">
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="F1:U1"/>
+    <mergeCell ref="AF1:AJ1"/>
+    <mergeCell ref="AF2:AF3"/>
+    <mergeCell ref="AG2:AG3"/>
+    <mergeCell ref="AH2:AH3"/>
+    <mergeCell ref="AI2:AI3"/>
+    <mergeCell ref="AJ2:AJ3"/>
+    <mergeCell ref="V1:Z1"/>
+    <mergeCell ref="AA1:AE1"/>
+    <mergeCell ref="AA2:AA3"/>
+    <mergeCell ref="AB2:AB3"/>
+    <mergeCell ref="AC2:AC3"/>
+    <mergeCell ref="AD2:AD3"/>
+    <mergeCell ref="AE2:AE3"/>
+    <mergeCell ref="X2:X3"/>
+    <mergeCell ref="Y2:Y3"/>
     <mergeCell ref="Z2:Z3"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="S2:S3"/>
@@ -46916,22 +46923,12 @@
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="I2:I3"/>
-    <mergeCell ref="F1:U1"/>
-    <mergeCell ref="AF1:AJ1"/>
-    <mergeCell ref="AF2:AF3"/>
-    <mergeCell ref="AG2:AG3"/>
-    <mergeCell ref="AH2:AH3"/>
-    <mergeCell ref="AI2:AI3"/>
-    <mergeCell ref="AJ2:AJ3"/>
-    <mergeCell ref="V1:Z1"/>
-    <mergeCell ref="AA1:AE1"/>
-    <mergeCell ref="AA2:AA3"/>
-    <mergeCell ref="AB2:AB3"/>
-    <mergeCell ref="AC2:AC3"/>
-    <mergeCell ref="AD2:AD3"/>
-    <mergeCell ref="AE2:AE3"/>
-    <mergeCell ref="X2:X3"/>
-    <mergeCell ref="Y2:Y3"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="F2:F3"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Offline/BusinessManagement/ProfitabilitySheet.xlsx
+++ b/Offline/BusinessManagement/ProfitabilitySheet.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Anodiam\Docs\Offline\BusinessManagement\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\Offline\BusinessManagement\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" tabRatio="703"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="703"/>
   </bookViews>
   <sheets>
     <sheet name="Profitability" sheetId="5" r:id="rId1"/>
@@ -917,9 +917,6 @@
     <t>SST, Hist, Geog, Eco, Civics</t>
   </si>
   <si>
-    <t>? Sujata</t>
-  </si>
-  <si>
     <t>Eco &amp; Comm Knwldge</t>
   </si>
   <si>
@@ -940,13 +937,16 @@
   <si>
     <t>? Debolina</t>
   </si>
+  <si>
+    <t>Sujata</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -1250,7 +1250,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1362,6 +1362,15 @@
     <xf numFmtId="0" fontId="5" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1380,7 +1389,7 @@
     <xf numFmtId="0" fontId="7" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="15" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="7" fillId="15" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1404,19 +1413,10 @@
     <xf numFmtId="0" fontId="7" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="14" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="7" fillId="14" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="13" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="7" fillId="13" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1710,211 +1710,212 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AJ403"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G7" sqref="G7"/>
+      <selection pane="bottomRight" activeCell="F10" sqref="F10:F206"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.28515625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="21.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="31.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="21.88671875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="8" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="7.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="7.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="7.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="7.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="6.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="6" style="1" customWidth="1"/>
-    <col min="14" max="14" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.85546875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="4.5703125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="7.7109375" style="1" customWidth="1"/>
-    <col min="18" max="18" width="8.28515625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="4.28515625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="7.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.88671875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="4.5546875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="7.6640625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="8.33203125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="4.33203125" style="1" customWidth="1"/>
     <col min="20" max="20" width="9" style="1" customWidth="1"/>
-    <col min="21" max="21" width="8.140625" style="1" customWidth="1"/>
-    <col min="22" max="22" width="8.7109375" style="1" customWidth="1"/>
-    <col min="23" max="23" width="9.140625" style="1" customWidth="1"/>
-    <col min="24" max="24" width="8.7109375" style="1" customWidth="1"/>
-    <col min="25" max="25" width="8.5703125" style="1" customWidth="1"/>
-    <col min="26" max="26" width="6.42578125" style="1" customWidth="1"/>
-    <col min="27" max="27" width="8.7109375" style="1" customWidth="1"/>
-    <col min="28" max="28" width="9.140625" style="1" customWidth="1"/>
-    <col min="29" max="29" width="8.7109375" style="1" customWidth="1"/>
-    <col min="30" max="30" width="8.5703125" style="1" customWidth="1"/>
-    <col min="31" max="31" width="6.42578125" style="1" customWidth="1"/>
-    <col min="32" max="32" width="8.7109375" style="1" customWidth="1"/>
-    <col min="33" max="33" width="9.140625" style="1" customWidth="1"/>
-    <col min="34" max="34" width="8.7109375" style="1" customWidth="1"/>
-    <col min="35" max="35" width="8.5703125" style="1" customWidth="1"/>
-    <col min="36" max="36" width="6.42578125" style="1" customWidth="1"/>
-    <col min="37" max="16384" width="10.7109375" style="1"/>
+    <col min="21" max="21" width="8.109375" style="1" customWidth="1"/>
+    <col min="22" max="22" width="8.6640625" style="1" customWidth="1"/>
+    <col min="23" max="23" width="9.109375" style="1" customWidth="1"/>
+    <col min="24" max="24" width="8.6640625" style="1" customWidth="1"/>
+    <col min="25" max="25" width="8.5546875" style="1" customWidth="1"/>
+    <col min="26" max="26" width="6.44140625" style="1" customWidth="1"/>
+    <col min="27" max="27" width="8.6640625" style="1" customWidth="1"/>
+    <col min="28" max="28" width="9.109375" style="1" customWidth="1"/>
+    <col min="29" max="29" width="8.6640625" style="1" customWidth="1"/>
+    <col min="30" max="30" width="8.5546875" style="1" customWidth="1"/>
+    <col min="31" max="31" width="6.44140625" style="1" customWidth="1"/>
+    <col min="32" max="32" width="8.6640625" style="1" customWidth="1"/>
+    <col min="33" max="33" width="9.109375" style="1" customWidth="1"/>
+    <col min="34" max="34" width="8.6640625" style="1" customWidth="1"/>
+    <col min="35" max="35" width="8.5546875" style="1" customWidth="1"/>
+    <col min="36" max="36" width="6.44140625" style="1" customWidth="1"/>
+    <col min="37" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="F1" s="37" t="s">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="F1" s="40" t="s">
         <v>279</v>
       </c>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="37"/>
-      <c r="S1" s="37"/>
-      <c r="T1" s="37"/>
-      <c r="U1" s="38"/>
-      <c r="V1" s="44" t="s">
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40"/>
+      <c r="S1" s="40"/>
+      <c r="T1" s="40"/>
+      <c r="U1" s="41"/>
+      <c r="V1" s="47" t="s">
         <v>176</v>
       </c>
-      <c r="W1" s="45"/>
-      <c r="X1" s="45"/>
-      <c r="Y1" s="45"/>
-      <c r="Z1" s="46"/>
-      <c r="AA1" s="47" t="s">
+      <c r="W1" s="48"/>
+      <c r="X1" s="48"/>
+      <c r="Y1" s="48"/>
+      <c r="Z1" s="49"/>
+      <c r="AA1" s="50" t="s">
         <v>177</v>
       </c>
-      <c r="AB1" s="48"/>
-      <c r="AC1" s="48"/>
-      <c r="AD1" s="48"/>
-      <c r="AE1" s="49"/>
-      <c r="AF1" s="39" t="s">
+      <c r="AB1" s="51"/>
+      <c r="AC1" s="51"/>
+      <c r="AD1" s="51"/>
+      <c r="AE1" s="52"/>
+      <c r="AF1" s="42" t="s">
         <v>175</v>
       </c>
-      <c r="AG1" s="40"/>
-      <c r="AH1" s="40"/>
-      <c r="AI1" s="40"/>
-      <c r="AJ1" s="41"/>
-    </row>
-    <row r="2" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="54" t="s">
+      <c r="AG1" s="43"/>
+      <c r="AH1" s="43"/>
+      <c r="AI1" s="43"/>
+      <c r="AJ1" s="44"/>
+    </row>
+    <row r="2" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="54" t="s">
+      <c r="C2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="54" t="s">
+      <c r="D2" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="54" t="s">
+      <c r="E2" s="37" t="s">
         <v>130</v>
       </c>
-      <c r="F2" s="55" t="s">
+      <c r="F2" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="G2" s="55" t="s">
+      <c r="G2" s="38" t="s">
         <v>277</v>
       </c>
-      <c r="H2" s="54" t="s">
+      <c r="H2" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="54" t="s">
+      <c r="I2" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="54" t="s">
+      <c r="J2" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54" t="s">
+      <c r="K2" s="37"/>
+      <c r="L2" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="M2" s="54"/>
-      <c r="N2" s="54" t="s">
+      <c r="M2" s="37"/>
+      <c r="N2" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="54" t="s">
+      <c r="O2" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="P2" s="54" t="s">
+      <c r="P2" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="Q2" s="54" t="s">
+      <c r="Q2" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="R2" s="54" t="s">
+      <c r="R2" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="S2" s="54" t="s">
+      <c r="S2" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="T2" s="54" t="s">
+      <c r="T2" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="U2" s="54" t="s">
+      <c r="U2" s="37" t="s">
         <v>174</v>
       </c>
-      <c r="V2" s="53" t="s">
+      <c r="V2" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="W2" s="53" t="s">
+      <c r="W2" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="X2" s="52" t="s">
+      <c r="X2" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="Y2" s="53" t="s">
+      <c r="Y2" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="Z2" s="53" t="s">
+      <c r="Z2" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="AA2" s="50" t="s">
+      <c r="AA2" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="AB2" s="50" t="s">
+      <c r="AB2" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="AC2" s="51" t="s">
+      <c r="AC2" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="AD2" s="50" t="s">
+      <c r="AD2" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="AE2" s="50" t="s">
+      <c r="AE2" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="AF2" s="42" t="s">
+      <c r="AF2" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="AG2" s="42" t="s">
+      <c r="AG2" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="AH2" s="43" t="s">
+      <c r="AH2" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="AI2" s="42" t="s">
+      <c r="AI2" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="AJ2" s="42" t="s">
+      <c r="AJ2" s="45" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:36" s="2" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="54"/>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
+    <row r="3" spans="1:36" s="2" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="37"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
       <c r="J3" s="11" t="s">
         <v>21</v>
       </c>
@@ -1927,31 +1928,31 @@
       <c r="M3" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="N3" s="54"/>
-      <c r="O3" s="54"/>
-      <c r="P3" s="54"/>
-      <c r="Q3" s="54"/>
-      <c r="R3" s="54"/>
-      <c r="S3" s="54"/>
-      <c r="T3" s="54"/>
-      <c r="U3" s="54"/>
-      <c r="V3" s="53"/>
-      <c r="W3" s="53"/>
-      <c r="X3" s="52"/>
-      <c r="Y3" s="53"/>
-      <c r="Z3" s="53"/>
-      <c r="AA3" s="50"/>
-      <c r="AB3" s="50"/>
-      <c r="AC3" s="51"/>
-      <c r="AD3" s="50"/>
-      <c r="AE3" s="50"/>
-      <c r="AF3" s="42"/>
-      <c r="AG3" s="42"/>
-      <c r="AH3" s="43"/>
-      <c r="AI3" s="42"/>
-      <c r="AJ3" s="42"/>
-    </row>
-    <row r="4" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="37"/>
+      <c r="R3" s="37"/>
+      <c r="S3" s="37"/>
+      <c r="T3" s="37"/>
+      <c r="U3" s="37"/>
+      <c r="V3" s="39"/>
+      <c r="W3" s="39"/>
+      <c r="X3" s="55"/>
+      <c r="Y3" s="39"/>
+      <c r="Z3" s="39"/>
+      <c r="AA3" s="53"/>
+      <c r="AB3" s="53"/>
+      <c r="AC3" s="54"/>
+      <c r="AD3" s="53"/>
+      <c r="AE3" s="53"/>
+      <c r="AF3" s="45"/>
+      <c r="AG3" s="45"/>
+      <c r="AH3" s="46"/>
+      <c r="AI3" s="45"/>
+      <c r="AJ3" s="45"/>
+    </row>
+    <row r="4" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="str">
         <f>"NEET &amp; IIT Crash Course "&amp;" " &amp; B4</f>
         <v>NEET &amp; IIT Crash Course  Physics</v>
@@ -2078,7 +2079,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="5" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="12" t="str">
         <f t="shared" ref="A5:A7" si="0">"NEET &amp; IIT Crash Course "&amp;" " &amp; B5</f>
         <v>NEET &amp; IIT Crash Course  Chemistry</v>
@@ -2205,7 +2206,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="6" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="str">
         <f>"IIT Crash Course "&amp;" " &amp; B6</f>
         <v>IIT Crash Course  Maths</v>
@@ -2332,7 +2333,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="7" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="str">
         <f t="shared" si="0"/>
         <v>NEET &amp; IIT Crash Course  Biology</v>
@@ -2459,7 +2460,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="8" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="str">
         <f>C8&amp;" - All Boards - "&amp;B8</f>
         <v>XII - All Boards - Physics</v>
@@ -2586,7 +2587,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="9" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="str">
         <f t="shared" ref="A9:A15" si="9">C9&amp;" - All Boards - "&amp;B9</f>
         <v>XII - All Boards - Chemistry</v>
@@ -2713,7 +2714,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="10" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="str">
         <f t="shared" si="9"/>
         <v>XII - All Boards - Maths</v>
@@ -2730,11 +2731,11 @@
       <c r="E10" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="F10" s="24" t="s">
-        <v>291</v>
-      </c>
-      <c r="G10" s="24" t="s">
-        <v>189</v>
+      <c r="F10" s="36" t="s">
+        <v>298</v>
+      </c>
+      <c r="G10" s="36" t="s">
+        <v>289</v>
       </c>
       <c r="H10" s="7" t="s">
         <v>72</v>
@@ -2840,7 +2841,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="11" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="str">
         <f t="shared" si="9"/>
         <v>XII - All Boards - Biology</v>
@@ -2965,7 +2966,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="12" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="str">
         <f t="shared" si="9"/>
         <v>XI - All Boards - Physics</v>
@@ -3092,7 +3093,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="13" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="str">
         <f t="shared" si="9"/>
         <v>XI - All Boards - Chemistry</v>
@@ -3219,7 +3220,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="14" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="str">
         <f t="shared" si="9"/>
         <v>XI - All Boards - Maths</v>
@@ -3346,7 +3347,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="15" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="str">
         <f t="shared" si="9"/>
         <v>XI - All Boards - Biology</v>
@@ -3471,7 +3472,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="16" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="26" t="str">
         <f t="shared" ref="A16:A18" si="39">D16&amp;" - "&amp;C16&amp;" - "&amp;B16</f>
         <v>ISC - XII - English</v>
@@ -3598,7 +3599,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="17" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="26" t="str">
         <f t="shared" si="39"/>
         <v>ISC - XII - Bengali</v>
@@ -3723,7 +3724,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="26" t="str">
         <f t="shared" si="39"/>
         <v>ISC - XII - Hindi</v>
@@ -3850,7 +3851,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="19" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="26" t="str">
         <f>D19&amp;" - "&amp;C19&amp;" - "&amp;B19</f>
         <v>ISC - XII - History</v>
@@ -3977,7 +3978,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="20" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="26" t="str">
         <f>D20&amp;" - "&amp;C20&amp;" - "&amp;B20</f>
         <v>ISC - XII - Geography</v>
@@ -3995,7 +3996,7 @@
         <v>132</v>
       </c>
       <c r="F20" s="24" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G20" s="24"/>
       <c r="H20" s="7" t="s">
@@ -4102,7 +4103,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="21" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="26" t="str">
         <f>D21&amp;" - "&amp;C21&amp;" - "&amp;B21</f>
         <v>ISC - XII - Political Science</v>
@@ -4229,7 +4230,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="22" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="26" t="str">
         <f>D22&amp;" - "&amp;C22&amp;" - "&amp;B22</f>
         <v>ISC - XII - Sociology</v>
@@ -4356,7 +4357,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="23" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="26" t="str">
         <f>D23&amp;" - "&amp;C23&amp;" - "&amp;B23</f>
         <v>ISC - XII - Philosophy</v>
@@ -4481,7 +4482,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="24" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="26" t="str">
         <f t="shared" ref="A24:A43" si="56">D24&amp;" - "&amp;C24&amp;" - "&amp;B24</f>
         <v>ISC - XII - Accounting</v>
@@ -4608,7 +4609,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="25" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="26" t="str">
         <f t="shared" si="56"/>
         <v>ISC - XII - Commercial Study</v>
@@ -4735,7 +4736,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="26" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="26" t="str">
         <f t="shared" si="56"/>
         <v>ISC - XII - Economics</v>
@@ -4862,7 +4863,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="27" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="26" t="str">
         <f t="shared" si="56"/>
         <v>ISC - XII - Business Studies</v>
@@ -4989,7 +4990,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="28" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="26" t="str">
         <f t="shared" si="56"/>
         <v>ISC - XII - Maths (Comm)</v>
@@ -5116,7 +5117,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="29" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="26" t="str">
         <f>D29&amp;" - "&amp;C29&amp;" - "&amp;B29</f>
         <v>ISC - XII - Computers</v>
@@ -5243,7 +5244,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="30" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="26" t="str">
         <f>D30&amp;" - "&amp;C30&amp;" - "&amp;B30</f>
         <v>ISC - XII - AI</v>
@@ -5370,7 +5371,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="31" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="26" t="str">
         <f t="shared" si="56"/>
         <v>ISC - XI - English</v>
@@ -5497,7 +5498,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="32" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="26" t="str">
         <f t="shared" si="56"/>
         <v>ISC - XI - Bengali</v>
@@ -5622,7 +5623,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="33" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="26" t="str">
         <f t="shared" si="56"/>
         <v>ISC - XI - Hindi</v>
@@ -5749,7 +5750,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="34" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="26" t="str">
         <f>D34&amp;" - "&amp;C34&amp;" - "&amp;B34</f>
         <v>ISC - XI - History</v>
@@ -5876,7 +5877,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="35" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="26" t="str">
         <f>D35&amp;" - "&amp;C35&amp;" - "&amp;B35</f>
         <v>ISC - XI - Geography</v>
@@ -5894,7 +5895,7 @@
         <v>132</v>
       </c>
       <c r="F35" s="24" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G35" s="24"/>
       <c r="H35" s="7" t="s">
@@ -6001,7 +6002,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="36" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="26" t="str">
         <f>D36&amp;" - "&amp;C36&amp;" - "&amp;B36</f>
         <v>ISC - XI - Political Science</v>
@@ -6128,7 +6129,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="37" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="26" t="str">
         <f>D37&amp;" - "&amp;C37&amp;" - "&amp;B37</f>
         <v>ISC - XI - Sociology</v>
@@ -6255,7 +6256,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="38" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="26" t="str">
         <f>D38&amp;" - "&amp;C38&amp;" - "&amp;B38</f>
         <v>ISC - XI - Philosophy</v>
@@ -6380,7 +6381,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="39" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="26" t="str">
         <f t="shared" si="56"/>
         <v>ISC - XI - Accounting</v>
@@ -6507,7 +6508,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="40" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="26" t="str">
         <f t="shared" si="56"/>
         <v>ISC - XI - Commercial Study</v>
@@ -6634,7 +6635,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="41" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="26" t="str">
         <f t="shared" si="56"/>
         <v>ISC - XI - Economics</v>
@@ -6761,7 +6762,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="42" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="26" t="str">
         <f t="shared" si="56"/>
         <v>ISC - XI - Business Studies</v>
@@ -6888,7 +6889,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="43" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="26" t="str">
         <f t="shared" si="56"/>
         <v>ISC - XI - Maths (Comm)</v>
@@ -7015,7 +7016,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="44" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="26" t="str">
         <f>D44&amp;" - "&amp;C44&amp;" - "&amp;B44</f>
         <v>ISC - XI - Computers</v>
@@ -7142,7 +7143,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="45" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="26" t="str">
         <f>D45&amp;" - "&amp;C45&amp;" - "&amp;B45</f>
         <v>ISC - XI - AI</v>
@@ -7269,7 +7270,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="46" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="26" t="str">
         <f>D46&amp;" - "&amp;C46&amp;" - "&amp;B46</f>
         <v>ICSE - X - English</v>
@@ -7396,7 +7397,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="47" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="26" t="str">
         <f t="shared" ref="A47:A163" si="115">D47&amp;" - "&amp;C47&amp;" - "&amp;B47</f>
         <v>ICSE - X - Bengali</v>
@@ -7521,7 +7522,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="48" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="26" t="str">
         <f t="shared" si="115"/>
         <v>ICSE - X - Hindi</v>
@@ -7648,7 +7649,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="49" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="26" t="str">
         <f>D49&amp;" - "&amp;C49&amp;" - "&amp;B49</f>
         <v>ICSE - X - Geography</v>
@@ -7775,7 +7776,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="50" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="26" t="str">
         <f>D50&amp;" - "&amp;C50&amp;" - "&amp;B50</f>
         <v>ICSE - X - EVS</v>
@@ -7902,7 +7903,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="51" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="26" t="str">
         <f>D51&amp;" - "&amp;C51&amp;" - "&amp;B51</f>
         <v>ICSE - X - Hist Civics</v>
@@ -8029,7 +8030,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="52" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="26" t="str">
         <f>D52&amp;" - "&amp;C52&amp;" - "&amp;B52</f>
         <v>ICSE - X - Commercial Study</v>
@@ -8156,7 +8157,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="53" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="26" t="str">
         <f>D53&amp;" - "&amp;C53&amp;" - "&amp;B53</f>
         <v>ICSE - X - Economics</v>
@@ -8283,7 +8284,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="54" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="26" t="str">
         <f t="shared" si="115"/>
         <v>ICSE - X - Maths</v>
@@ -8410,7 +8411,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="55" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="26" t="str">
         <f t="shared" si="115"/>
         <v>ICSE - X - Physics</v>
@@ -8537,7 +8538,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="56" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="26" t="str">
         <f t="shared" si="115"/>
         <v>ICSE - X - Chemistry</v>
@@ -8664,7 +8665,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="57" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="26" t="str">
         <f t="shared" si="115"/>
         <v>ICSE - X - Biology</v>
@@ -8789,7 +8790,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="58" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="26" t="str">
         <f t="shared" si="115"/>
         <v>ICSE - X - Computers</v>
@@ -8916,7 +8917,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="59" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="26" t="str">
         <f t="shared" si="115"/>
         <v>ICSE - X - AI</v>
@@ -9043,7 +9044,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="60" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="26" t="str">
         <f t="shared" si="115"/>
         <v>ICSE - IX - English</v>
@@ -9170,7 +9171,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="61" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="26" t="str">
         <f t="shared" si="115"/>
         <v>ICSE - IX - Bengali</v>
@@ -9295,7 +9296,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="62" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="26" t="str">
         <f t="shared" si="115"/>
         <v>ICSE - IX - Hindi</v>
@@ -9422,7 +9423,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="63" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="26" t="str">
         <f>D63&amp;" - "&amp;C63&amp;" - "&amp;B63</f>
         <v>ICSE - IX - Geography</v>
@@ -9549,7 +9550,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="64" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="26" t="str">
         <f>D64&amp;" - "&amp;C64&amp;" - "&amp;B64</f>
         <v>ICSE - IX - EVS</v>
@@ -9676,7 +9677,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="65" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="26" t="str">
         <f>D65&amp;" - "&amp;C65&amp;" - "&amp;B65</f>
         <v>ICSE - IX - Hist Civics</v>
@@ -9803,7 +9804,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="66" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="26" t="str">
         <f>D66&amp;" - "&amp;C66&amp;" - "&amp;B66</f>
         <v>ICSE - IX - Commercial Study</v>
@@ -9930,7 +9931,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="67" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="26" t="str">
         <f>D67&amp;" - "&amp;C67&amp;" - "&amp;B67</f>
         <v>ICSE - IX - Economics</v>
@@ -10057,7 +10058,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="68" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="26" t="str">
         <f t="shared" si="115"/>
         <v>ICSE - IX - Maths</v>
@@ -10184,7 +10185,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="69" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="26" t="str">
         <f t="shared" si="115"/>
         <v>ICSE - IX - Physics</v>
@@ -10311,7 +10312,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="70" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="26" t="str">
         <f t="shared" si="115"/>
         <v>ICSE - IX - Chemistry</v>
@@ -10438,7 +10439,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="71" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="26" t="str">
         <f t="shared" si="115"/>
         <v>ICSE - IX - Biology</v>
@@ -10563,7 +10564,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="72" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="26" t="str">
         <f>D72&amp;" - "&amp;C72&amp;" - "&amp;B72</f>
         <v>ICSE - IX - Computers</v>
@@ -10690,7 +10691,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="73" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="26" t="str">
         <f t="shared" si="115"/>
         <v>ICSE - IX - AI</v>
@@ -10817,7 +10818,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="74" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="26" t="str">
         <f t="shared" si="115"/>
         <v>ICSE - VIII - English</v>
@@ -10944,7 +10945,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="75" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" s="26" t="str">
         <f>D75&amp;" - "&amp;C75&amp;" - "&amp;B75</f>
         <v>ICSE - VIII - Bengali</v>
@@ -11069,7 +11070,7 @@
         <v>399.99999999999994</v>
       </c>
     </row>
-    <row r="76" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="26" t="str">
         <f>D76&amp;" - "&amp;C76&amp;" - "&amp;B76</f>
         <v>ICSE - VIII - Hindi</v>
@@ -11196,7 +11197,7 @@
         <v>399.99999999999994</v>
       </c>
     </row>
-    <row r="77" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" s="26" t="str">
         <f>D77&amp;" - "&amp;C77&amp;" - "&amp;B77</f>
         <v>ICSE - VIII - Geography</v>
@@ -11323,7 +11324,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="78" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="26" t="str">
         <f>D78&amp;" - "&amp;C78&amp;" - "&amp;B78</f>
         <v>ICSE - VIII - EVS</v>
@@ -11450,7 +11451,7 @@
         <v>399.99999999999994</v>
       </c>
     </row>
-    <row r="79" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" s="26" t="str">
         <f>D79&amp;" - "&amp;C79&amp;" - "&amp;B79</f>
         <v>ICSE - VIII - Hist Civics</v>
@@ -11577,7 +11578,7 @@
         <v>399.99999999999994</v>
       </c>
     </row>
-    <row r="80" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="26" t="str">
         <f t="shared" si="115"/>
         <v>ICSE - VIII - Maths</v>
@@ -11704,7 +11705,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="81" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="26" t="str">
         <f t="shared" si="115"/>
         <v>ICSE - VIII - Physics</v>
@@ -11831,7 +11832,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="82" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="26" t="str">
         <f t="shared" si="115"/>
         <v>ICSE - VIII - Chemistry</v>
@@ -11958,7 +11959,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="83" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="26" t="str">
         <f t="shared" si="115"/>
         <v>ICSE - VIII - Biology</v>
@@ -12083,7 +12084,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="84" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="26" t="str">
         <f t="shared" si="115"/>
         <v>ICSE - VIII - Computers</v>
@@ -12210,7 +12211,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="85" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="23" t="str">
         <f>D85&amp;" - "&amp;C85&amp;" - "&amp;B85</f>
         <v>WB - XII - English</v>
@@ -12337,7 +12338,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="86" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="23" t="str">
         <f>D86&amp;" - "&amp;C86&amp;" - "&amp;B86</f>
         <v>WB - XII - Bengali</v>
@@ -12462,7 +12463,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="87" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="23" t="str">
         <f>D87&amp;" - "&amp;C87&amp;" - "&amp;B87</f>
         <v>WB - XII - Hindi</v>
@@ -12589,7 +12590,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="88" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="23" t="str">
         <f>D88&amp;" - "&amp;C88&amp;" - "&amp;B88</f>
         <v>WB - XII - History</v>
@@ -12716,7 +12717,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="89" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="23" t="str">
         <f t="shared" ref="A89" si="160">D89&amp;" - "&amp;C89&amp;" - "&amp;B89</f>
         <v>WB - XII - Geography</v>
@@ -12734,7 +12735,7 @@
         <v>132</v>
       </c>
       <c r="F89" s="24" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G89" s="24"/>
       <c r="H89" s="7" t="s">
@@ -12841,7 +12842,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="90" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="23" t="str">
         <f>D90&amp;" - "&amp;C90&amp;" - "&amp;B90</f>
         <v>WB - XII - Political Science</v>
@@ -12968,7 +12969,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="91" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="23" t="str">
         <f>D91&amp;" - "&amp;C91&amp;" - "&amp;B91</f>
         <v>WB - XII - Sociology</v>
@@ -13095,7 +13096,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="92" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="23" t="str">
         <f>D92&amp;" - "&amp;C92&amp;" - "&amp;B92</f>
         <v>WB - XII - Philosophy</v>
@@ -13220,7 +13221,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="93" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="23" t="str">
         <f t="shared" ref="A93:A100" si="161">D93&amp;" - "&amp;C93&amp;" - "&amp;B93</f>
         <v>WB - XII - Accounting</v>
@@ -13347,7 +13348,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="94" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="23" t="str">
         <f t="shared" si="161"/>
         <v>WB - XII - Business Studies</v>
@@ -13474,7 +13475,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="95" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="23" t="str">
         <f t="shared" si="161"/>
         <v>WB - XII - Costing &amp; Taxation</v>
@@ -13601,7 +13602,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="96" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="23" t="str">
         <f t="shared" si="161"/>
         <v>WB - XII - Business Law</v>
@@ -13728,7 +13729,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="97" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="23" t="str">
         <f t="shared" si="161"/>
         <v>WB - XII - Maths (Comm)</v>
@@ -13855,7 +13856,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="98" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="23" t="str">
         <f t="shared" si="161"/>
         <v>WB - XII - Stats</v>
@@ -13982,7 +13983,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="99" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="23" t="str">
         <f t="shared" si="161"/>
         <v>WB - XII - Economics</v>
@@ -14109,7 +14110,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="100" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="23" t="str">
         <f t="shared" si="161"/>
         <v>WB - XII - Eco Geography</v>
@@ -14236,7 +14237,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="101" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="23" t="str">
         <f t="shared" ref="A101:A132" si="170">D101&amp;" - "&amp;C101&amp;" - "&amp;B101</f>
         <v>WB - XII - Computers</v>
@@ -14363,7 +14364,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="102" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="23" t="str">
         <f t="shared" si="170"/>
         <v>WB - XII - AI</v>
@@ -14490,7 +14491,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="103" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="23" t="str">
         <f t="shared" si="170"/>
         <v>WB - XI - English</v>
@@ -14617,7 +14618,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="104" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="23" t="str">
         <f t="shared" si="170"/>
         <v>WB - XI - Bengali</v>
@@ -14742,7 +14743,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="105" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="23" t="str">
         <f t="shared" si="170"/>
         <v>WB - XI - Hindi</v>
@@ -14869,7 +14870,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="106" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="23" t="str">
         <f t="shared" si="170"/>
         <v>WB - XI - History</v>
@@ -14996,7 +14997,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="107" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="23" t="str">
         <f t="shared" si="170"/>
         <v>WB - XI - Geography</v>
@@ -15014,7 +15015,7 @@
         <v>132</v>
       </c>
       <c r="F107" s="24" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G107" s="24"/>
       <c r="H107" s="7" t="s">
@@ -15121,7 +15122,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="108" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="23" t="str">
         <f t="shared" si="170"/>
         <v>WB - XI - Political Science</v>
@@ -15248,7 +15249,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="109" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="23" t="str">
         <f t="shared" si="170"/>
         <v>WB - XI - Sociology</v>
@@ -15375,7 +15376,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="110" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="23" t="str">
         <f t="shared" si="170"/>
         <v>WB - XI - Philosophy</v>
@@ -15500,7 +15501,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="111" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="23" t="str">
         <f t="shared" si="170"/>
         <v>WB - XI - Accounting</v>
@@ -15627,7 +15628,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="112" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="23" t="str">
         <f t="shared" si="170"/>
         <v>WB - XI - Business Studies</v>
@@ -15754,7 +15755,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="113" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="23" t="str">
         <f t="shared" si="170"/>
         <v>WB - XI - Costing &amp; Taxation</v>
@@ -15881,7 +15882,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="114" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="23" t="str">
         <f t="shared" si="170"/>
         <v>WB - XI - Business Law</v>
@@ -16008,7 +16009,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="115" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="23" t="str">
         <f t="shared" si="170"/>
         <v>WB - XI - Maths (Comm)</v>
@@ -16025,11 +16026,11 @@
       <c r="E115" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F115" s="24" t="s">
-        <v>291</v>
-      </c>
-      <c r="G115" s="24" t="s">
-        <v>189</v>
+      <c r="F115" s="36" t="s">
+        <v>298</v>
+      </c>
+      <c r="G115" s="36" t="s">
+        <v>289</v>
       </c>
       <c r="H115" s="7" t="s">
         <v>72</v>
@@ -16135,7 +16136,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="116" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="23" t="str">
         <f t="shared" si="170"/>
         <v>WB - XI - Stats</v>
@@ -16262,7 +16263,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="117" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="23" t="str">
         <f t="shared" si="170"/>
         <v>WB - XI - Economics</v>
@@ -16389,7 +16390,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="118" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="23" t="str">
         <f t="shared" si="170"/>
         <v>WB - XI - Eco Geography</v>
@@ -16516,7 +16517,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="119" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="23" t="str">
         <f t="shared" si="170"/>
         <v>WB - XI - Computers</v>
@@ -16643,7 +16644,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="120" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="23" t="str">
         <f t="shared" si="170"/>
         <v>WB - XI - AI</v>
@@ -16770,7 +16771,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="121" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="23" t="str">
         <f t="shared" si="170"/>
         <v>WB - X - English</v>
@@ -16897,7 +16898,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="122" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="23" t="str">
         <f t="shared" si="170"/>
         <v>WB - X - Bengali</v>
@@ -17022,7 +17023,7 @@
         <v>399.99999999999994</v>
       </c>
     </row>
-    <row r="123" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="23" t="str">
         <f t="shared" si="170"/>
         <v>WB - X - History</v>
@@ -17149,7 +17150,7 @@
         <v>399.99999999999994</v>
       </c>
     </row>
-    <row r="124" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="23" t="str">
         <f t="shared" si="170"/>
         <v>WB - X - Geography</v>
@@ -17276,7 +17277,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="125" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="23" t="str">
         <f t="shared" si="170"/>
         <v>WB - X - Physical Science</v>
@@ -17403,7 +17404,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="126" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="23" t="str">
         <f t="shared" si="170"/>
         <v>WB - X - Life Science</v>
@@ -17528,7 +17529,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="127" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="23" t="str">
         <f t="shared" si="170"/>
         <v>WB - X - Maths</v>
@@ -17545,11 +17546,11 @@
       <c r="E127" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="F127" s="24" t="s">
-        <v>291</v>
-      </c>
-      <c r="G127" s="24" t="s">
-        <v>189</v>
+      <c r="F127" s="36" t="s">
+        <v>298</v>
+      </c>
+      <c r="G127" s="36" t="s">
+        <v>289</v>
       </c>
       <c r="H127" s="7" t="s">
         <v>72</v>
@@ -17655,7 +17656,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="128" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="23" t="str">
         <f t="shared" si="170"/>
         <v>WB - X - Book Keeping</v>
@@ -17782,7 +17783,7 @@
         <v>399.99999999999994</v>
       </c>
     </row>
-    <row r="129" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="23" t="str">
         <f t="shared" si="170"/>
         <v>WB - X - Business Studies</v>
@@ -17909,7 +17910,7 @@
         <v>399.99999999999994</v>
       </c>
     </row>
-    <row r="130" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="23" t="str">
         <f t="shared" si="170"/>
         <v>WB - X - Computers</v>
@@ -18036,7 +18037,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="131" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="23" t="str">
         <f t="shared" si="170"/>
         <v>WB - X - AI</v>
@@ -18163,7 +18164,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="132" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="23" t="str">
         <f t="shared" si="170"/>
         <v>WB - IX - English</v>
@@ -18290,7 +18291,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="133" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="23" t="str">
         <f t="shared" ref="A133:A149" si="246">D133&amp;" - "&amp;C133&amp;" - "&amp;B133</f>
         <v>WB - IX - Bengali</v>
@@ -18415,7 +18416,7 @@
         <v>399.99999999999994</v>
       </c>
     </row>
-    <row r="134" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="23" t="str">
         <f t="shared" si="246"/>
         <v>WB - IX - History</v>
@@ -18542,7 +18543,7 @@
         <v>399.99999999999994</v>
       </c>
     </row>
-    <row r="135" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="23" t="str">
         <f t="shared" si="246"/>
         <v>WB - IX - Geography</v>
@@ -18669,7 +18670,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="136" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="23" t="str">
         <f t="shared" si="246"/>
         <v>WB - IX - Physical Science</v>
@@ -18796,7 +18797,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="137" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="23" t="str">
         <f t="shared" si="246"/>
         <v>WB - IX - Life Science</v>
@@ -18921,7 +18922,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="138" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="23" t="str">
         <f t="shared" si="246"/>
         <v>WB - IX - Maths</v>
@@ -19048,7 +19049,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="139" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="23" t="str">
         <f t="shared" si="246"/>
         <v>WB - IX - Book Keeping</v>
@@ -19175,7 +19176,7 @@
         <v>399.99999999999994</v>
       </c>
     </row>
-    <row r="140" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="23" t="str">
         <f t="shared" si="246"/>
         <v>WB - IX - Business Studies</v>
@@ -19302,7 +19303,7 @@
         <v>399.99999999999994</v>
       </c>
     </row>
-    <row r="141" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="23" t="str">
         <f t="shared" si="246"/>
         <v>WB - IX - Computers</v>
@@ -19429,7 +19430,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="142" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="23" t="str">
         <f t="shared" si="246"/>
         <v>WB - IX - AI</v>
@@ -19556,7 +19557,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="143" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="23" t="str">
         <f t="shared" si="246"/>
         <v>WB - VIII - English</v>
@@ -19683,7 +19684,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="144" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="23" t="str">
         <f t="shared" si="246"/>
         <v>WB - VIII - Bengali</v>
@@ -19808,7 +19809,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="145" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="23" t="str">
         <f t="shared" si="246"/>
         <v>WB - VIII - Hindi</v>
@@ -19935,7 +19936,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="146" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="23" t="str">
         <f t="shared" si="246"/>
         <v>WB - VIII - History</v>
@@ -20062,7 +20063,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="147" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="23" t="str">
         <f t="shared" si="246"/>
         <v>WB - VIII - Geography</v>
@@ -20189,7 +20190,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="148" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="23" t="str">
         <f t="shared" si="246"/>
         <v>WB - VIII - Physical Science</v>
@@ -20316,7 +20317,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="149" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="23" t="str">
         <f t="shared" si="246"/>
         <v>WB - VIII - Maths</v>
@@ -20333,11 +20334,11 @@
       <c r="E149" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="F149" s="24" t="s">
-        <v>291</v>
-      </c>
-      <c r="G149" s="24" t="s">
-        <v>189</v>
+      <c r="F149" s="36" t="s">
+        <v>298</v>
+      </c>
+      <c r="G149" s="36" t="s">
+        <v>289</v>
       </c>
       <c r="H149" s="7" t="s">
         <v>72</v>
@@ -20443,7 +20444,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="150" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="27" t="str">
         <f t="shared" si="115"/>
         <v>CBSE - XII - English</v>
@@ -20570,7 +20571,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="151" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="27" t="str">
         <f t="shared" si="115"/>
         <v>CBSE - XII - Bengali</v>
@@ -20695,7 +20696,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="152" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="27" t="str">
         <f t="shared" si="115"/>
         <v>CBSE - XII - Hindi</v>
@@ -20822,7 +20823,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="153" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="27" t="str">
         <f t="shared" si="115"/>
         <v>CBSE - XII - History</v>
@@ -20949,7 +20950,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="154" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="27" t="str">
         <f t="shared" si="115"/>
         <v>CBSE - XII - Geography</v>
@@ -20967,7 +20968,7 @@
         <v>132</v>
       </c>
       <c r="F154" s="24" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G154" s="24"/>
       <c r="H154" s="7" t="s">
@@ -21074,7 +21075,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="155" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="27" t="str">
         <f t="shared" si="115"/>
         <v>CBSE - XII - Political Science</v>
@@ -21201,7 +21202,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="156" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="27" t="str">
         <f t="shared" si="115"/>
         <v>CBSE - XII - Sociology</v>
@@ -21328,7 +21329,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="157" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="27" t="str">
         <f t="shared" si="115"/>
         <v>CBSE - XII - Philosophy</v>
@@ -21453,7 +21454,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="158" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="27" t="str">
         <f t="shared" si="115"/>
         <v>CBSE - XII - Accounting</v>
@@ -21580,7 +21581,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="159" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="27" t="str">
         <f t="shared" si="115"/>
         <v>CBSE - XII - Economics</v>
@@ -21707,7 +21708,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="160" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="27" t="str">
         <f t="shared" si="115"/>
         <v>CBSE - XII - Business Studies</v>
@@ -21834,7 +21835,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="161" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="27" t="str">
         <f t="shared" si="115"/>
         <v>CBSE - XII - Info Practices</v>
@@ -21961,7 +21962,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="162" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="27" t="str">
         <f t="shared" si="115"/>
         <v>CBSE - XII - Legal Studies</v>
@@ -22088,7 +22089,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="163" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="27" t="str">
         <f t="shared" si="115"/>
         <v>CBSE - XII - Maths (Comm)</v>
@@ -22105,11 +22106,11 @@
       <c r="E163" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F163" s="24" t="s">
-        <v>291</v>
-      </c>
-      <c r="G163" s="24" t="s">
-        <v>189</v>
+      <c r="F163" s="36" t="s">
+        <v>298</v>
+      </c>
+      <c r="G163" s="36" t="s">
+        <v>289</v>
       </c>
       <c r="H163" s="7" t="s">
         <v>72</v>
@@ -22215,7 +22216,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="164" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="27" t="str">
         <f>D164&amp;" - "&amp;C164&amp;" - "&amp;B164</f>
         <v>CBSE - XII - Computers</v>
@@ -22342,7 +22343,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="165" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="27" t="str">
         <f>D165&amp;" - "&amp;C165&amp;" - "&amp;B165</f>
         <v>CBSE - XII - AI</v>
@@ -22469,7 +22470,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="166" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="27" t="str">
         <f t="shared" ref="A166:A179" si="308">D166&amp;" - "&amp;C166&amp;" - "&amp;B166</f>
         <v>CBSE - XI - English</v>
@@ -22596,7 +22597,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="167" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="27" t="str">
         <f t="shared" si="308"/>
         <v>CBSE - XI - Bengali</v>
@@ -22721,7 +22722,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="168" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="27" t="str">
         <f t="shared" si="308"/>
         <v>CBSE - XI - Hindi</v>
@@ -22848,7 +22849,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="169" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="27" t="str">
         <f t="shared" si="308"/>
         <v>CBSE - XI - History</v>
@@ -22975,7 +22976,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="170" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="27" t="str">
         <f t="shared" si="308"/>
         <v>CBSE - XI - Geography</v>
@@ -22993,7 +22994,7 @@
         <v>132</v>
       </c>
       <c r="F170" s="24" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G170" s="24"/>
       <c r="H170" s="7" t="s">
@@ -23100,7 +23101,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="171" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="27" t="str">
         <f t="shared" si="308"/>
         <v>CBSE - XI - Political Science</v>
@@ -23227,7 +23228,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="172" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="27" t="str">
         <f t="shared" si="308"/>
         <v>CBSE - XI - Sociology</v>
@@ -23354,7 +23355,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="173" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="27" t="str">
         <f t="shared" si="308"/>
         <v>CBSE - XI - Philosophy</v>
@@ -23479,7 +23480,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="174" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="27" t="str">
         <f t="shared" si="308"/>
         <v>CBSE - XI - Accounting</v>
@@ -23606,7 +23607,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="175" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="27" t="str">
         <f t="shared" si="308"/>
         <v>CBSE - XI - Economics</v>
@@ -23733,7 +23734,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="176" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="27" t="str">
         <f t="shared" si="308"/>
         <v>CBSE - XI - Business Studies</v>
@@ -23860,7 +23861,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="177" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="27" t="str">
         <f t="shared" si="308"/>
         <v>CBSE - XI - Info Practices</v>
@@ -23987,7 +23988,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="178" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="27" t="str">
         <f t="shared" si="308"/>
         <v>CBSE - XI - Legal Studies</v>
@@ -24114,7 +24115,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="179" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="27" t="str">
         <f t="shared" si="308"/>
         <v>CBSE - XI - Maths (Comm)</v>
@@ -24131,11 +24132,11 @@
       <c r="E179" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F179" s="24" t="s">
-        <v>291</v>
-      </c>
-      <c r="G179" s="24" t="s">
-        <v>189</v>
+      <c r="F179" s="36" t="s">
+        <v>298</v>
+      </c>
+      <c r="G179" s="36" t="s">
+        <v>289</v>
       </c>
       <c r="H179" s="7" t="s">
         <v>72</v>
@@ -24241,7 +24242,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="180" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="27" t="str">
         <f>D180&amp;" - "&amp;C180&amp;" - "&amp;B180</f>
         <v>CBSE - XI - Computers</v>
@@ -24368,7 +24369,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="181" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="27" t="str">
         <f>D181&amp;" - "&amp;C181&amp;" - "&amp;B181</f>
         <v>CBSE - XI - AI</v>
@@ -24495,7 +24496,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="182" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="27" t="str">
         <f>D182&amp;" - "&amp;C182&amp;" - "&amp;B182</f>
         <v>CBSE - X - English</v>
@@ -24622,7 +24623,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="183" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="27" t="str">
         <f t="shared" ref="A183:A209" si="344">D183&amp;" - "&amp;C183&amp;" - "&amp;B183</f>
         <v>CBSE - X - Bengali</v>
@@ -24747,7 +24748,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="184" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="27" t="str">
         <f t="shared" si="344"/>
         <v>CBSE - X - Hindi</v>
@@ -24874,7 +24875,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="185" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="27" t="str">
         <f>D185&amp;" - "&amp;C185&amp;" - "&amp;B185</f>
         <v>CBSE - X - SST, Hist, Geog, Eco, Civics</v>
@@ -25001,7 +25002,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="186" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="27" t="str">
         <f>D186&amp;" - "&amp;C186&amp;" - "&amp;B186</f>
         <v>CBSE - X - Maths</v>
@@ -25018,11 +25019,11 @@
       <c r="E186" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="F186" s="24" t="s">
-        <v>291</v>
-      </c>
-      <c r="G186" s="24" t="s">
-        <v>189</v>
+      <c r="F186" s="36" t="s">
+        <v>298</v>
+      </c>
+      <c r="G186" s="36" t="s">
+        <v>289</v>
       </c>
       <c r="H186" s="7" t="s">
         <v>72</v>
@@ -25128,7 +25129,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="187" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="27" t="str">
         <f t="shared" si="344"/>
         <v>CBSE - X - Science, Physics</v>
@@ -25255,7 +25256,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="188" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="27" t="str">
         <f t="shared" si="344"/>
         <v>CBSE - X - Science, Chemistry</v>
@@ -25382,7 +25383,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="189" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="27" t="str">
         <f t="shared" si="344"/>
         <v>CBSE - X - Science, Biology</v>
@@ -25507,7 +25508,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="190" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="27" t="str">
         <f t="shared" si="344"/>
         <v>CBSE - X - Computers</v>
@@ -25634,7 +25635,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="191" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="27" t="str">
         <f t="shared" si="344"/>
         <v>CBSE - X - AI</v>
@@ -25761,7 +25762,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="192" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="27" t="str">
         <f>D192&amp;" - "&amp;C192&amp;" - "&amp;B192</f>
         <v>CBSE - IX - English</v>
@@ -25888,7 +25889,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="193" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="27" t="str">
         <f t="shared" ref="A193:A194" si="382">D193&amp;" - "&amp;C193&amp;" - "&amp;B193</f>
         <v>CBSE - IX - Bengali</v>
@@ -26013,7 +26014,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="194" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="27" t="str">
         <f t="shared" si="382"/>
         <v>CBSE - IX - Hindi</v>
@@ -26140,7 +26141,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="195" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="27" t="str">
         <f>D195&amp;" - "&amp;C195&amp;" - "&amp;B195</f>
         <v>CBSE - IX - SST, Hist, Geog, Eco, Civics</v>
@@ -26267,7 +26268,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="196" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="27" t="str">
         <f>D196&amp;" - "&amp;C196&amp;" - "&amp;B196</f>
         <v>CBSE - IX - Maths</v>
@@ -26284,11 +26285,11 @@
       <c r="E196" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="F196" s="24" t="s">
-        <v>291</v>
-      </c>
-      <c r="G196" s="24" t="s">
-        <v>189</v>
+      <c r="F196" s="36" t="s">
+        <v>298</v>
+      </c>
+      <c r="G196" s="36" t="s">
+        <v>289</v>
       </c>
       <c r="H196" s="7" t="s">
         <v>72</v>
@@ -26394,7 +26395,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="197" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="27" t="str">
         <f t="shared" ref="A197:A201" si="386">D197&amp;" - "&amp;C197&amp;" - "&amp;B197</f>
         <v>CBSE - IX - Science, Physics</v>
@@ -26521,7 +26522,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="198" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="27" t="str">
         <f t="shared" si="386"/>
         <v>CBSE - IX - Science, Chemistry</v>
@@ -26648,7 +26649,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="199" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="27" t="str">
         <f t="shared" si="386"/>
         <v>CBSE - IX - Science, Biology</v>
@@ -26773,7 +26774,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="200" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="27" t="str">
         <f t="shared" si="386"/>
         <v>CBSE - IX - Computers</v>
@@ -26900,7 +26901,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="201" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="27" t="str">
         <f t="shared" si="386"/>
         <v>CBSE - IX - AI</v>
@@ -27027,7 +27028,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="202" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="27" t="str">
         <f t="shared" si="344"/>
         <v>CBSE - VIII - English</v>
@@ -27154,7 +27155,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="203" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="27" t="str">
         <f t="shared" si="344"/>
         <v>CBSE - VIII - Bengali</v>
@@ -27279,7 +27280,7 @@
         <v>399.99999999999994</v>
       </c>
     </row>
-    <row r="204" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="27" t="str">
         <f t="shared" si="344"/>
         <v>CBSE - VIII - Hindi</v>
@@ -27406,7 +27407,7 @@
         <v>399.99999999999994</v>
       </c>
     </row>
-    <row r="205" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="27" t="str">
         <f>D205&amp;" - "&amp;C205&amp;" - "&amp;B205</f>
         <v>CBSE - VIII - Social Science</v>
@@ -27531,7 +27532,7 @@
         <v>399.99999999999994</v>
       </c>
     </row>
-    <row r="206" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:36" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="27" t="str">
         <f t="shared" si="344"/>
         <v>CBSE - VIII - Maths</v>
@@ -27548,11 +27549,11 @@
       <c r="E206" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="F206" s="24" t="s">
-        <v>291</v>
-      </c>
-      <c r="G206" s="24" t="s">
-        <v>189</v>
+      <c r="F206" s="36" t="s">
+        <v>298</v>
+      </c>
+      <c r="G206" s="36" t="s">
+        <v>289</v>
       </c>
       <c r="H206" s="7" t="s">
         <v>72</v>
@@ -27658,7 +27659,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="207" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="27" t="str">
         <f t="shared" si="344"/>
         <v>CBSE - VIII - Science - Physics, Chem</v>
@@ -27785,7 +27786,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="208" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="27" t="str">
         <f t="shared" ref="A208" si="416">D208&amp;" - "&amp;C208&amp;" - "&amp;B208</f>
         <v>CBSE - VIII - Science - Bio</v>
@@ -27910,7 +27911,7 @@
         <v>399.99999999999994</v>
       </c>
     </row>
-    <row r="209" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="27" t="str">
         <f t="shared" si="344"/>
         <v>CBSE - VIII - Computers</v>
@@ -28037,7 +28038,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="210" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="12" t="str">
         <f>C210&amp;" - "&amp;B210</f>
         <v>B.Com. (H) - Adv Accounting I</v>
@@ -28164,7 +28165,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="211" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="12" t="str">
         <f t="shared" ref="A211:A219" si="426">C211&amp;" - "&amp;B211</f>
         <v>B.Com. (H) - Adv Accounting II</v>
@@ -28291,7 +28292,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="212" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="12" t="str">
         <f t="shared" si="426"/>
         <v>B.Com. (H) - Adv Accounting III</v>
@@ -28418,7 +28419,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="213" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" s="12" t="str">
         <f t="shared" si="426"/>
         <v>B.Com. (H) - Cost &amp; Mgmt Ac I</v>
@@ -28545,7 +28546,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="214" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="12" t="str">
         <f t="shared" si="426"/>
         <v>B.Com. (H) - Cost &amp; Mgmt Ac II</v>
@@ -28672,7 +28673,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="215" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="12" t="str">
         <f t="shared" si="426"/>
         <v>B.Com. (H) - In/Direct Tax I</v>
@@ -28799,7 +28800,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="216" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="12" t="str">
         <f t="shared" si="426"/>
         <v>B.Com. (H) - In/Direct Tax II</v>
@@ -28926,7 +28927,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="217" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="12" t="str">
         <f t="shared" si="426"/>
         <v>B.Com. (H) - Financial Mgmt</v>
@@ -29053,7 +29054,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="218" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="12" t="str">
         <f t="shared" si="426"/>
         <v>B.Com. (H) - Fin Rpt &amp; Stmt Anlys</v>
@@ -29180,7 +29181,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="219" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="12" t="str">
         <f t="shared" si="426"/>
         <v>B.Com. (H) - Audit &amp; Assurance</v>
@@ -29307,7 +29308,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="220" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" s="12" t="str">
         <f>C220&amp;" - "&amp;B220</f>
         <v>B.Com. - Micro Economics</v>
@@ -29434,7 +29435,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="221" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="12" t="str">
         <f t="shared" ref="A221:A265" si="452">C221&amp;" - "&amp;B221</f>
         <v>B.Com. - Macro Economics</v>
@@ -29561,7 +29562,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="222" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="12" t="str">
         <f t="shared" si="452"/>
         <v>B.Com. - Development Eco</v>
@@ -29688,7 +29689,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="223" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" s="12" t="str">
         <f t="shared" si="452"/>
         <v>B.Com. - Business Management I</v>
@@ -29815,7 +29816,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="224" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" s="12" t="str">
         <f t="shared" si="452"/>
         <v>B.Com. - Business Management II</v>
@@ -29942,7 +29943,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="225" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" s="12" t="str">
         <f t="shared" si="452"/>
         <v>B.Com. - HRM</v>
@@ -30069,7 +30070,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="226" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" s="12" t="str">
         <f t="shared" si="452"/>
         <v>B.Com. - Business Mathematics</v>
@@ -30196,7 +30197,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="227" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="12" t="str">
         <f t="shared" si="452"/>
         <v>B.Com. - Business Statistics</v>
@@ -30323,7 +30324,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="228" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" s="12" t="str">
         <f t="shared" si="452"/>
         <v>B.Com. - Business Law</v>
@@ -30450,7 +30451,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="229" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" s="12" t="str">
         <f t="shared" si="452"/>
         <v>B.Com. - Company Law</v>
@@ -30577,7 +30578,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="230" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" s="12" t="str">
         <f t="shared" si="452"/>
         <v>B.Com. - Enterpreneurship</v>
@@ -30704,7 +30705,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="231" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" s="12" t="str">
         <f t="shared" si="452"/>
         <v>B.Com. - Environmantal Studies</v>
@@ -30831,7 +30832,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="232" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" s="12" t="str">
         <f t="shared" si="452"/>
         <v>B.Com. - Business Comm</v>
@@ -30958,7 +30959,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="233" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" s="12" t="str">
         <f t="shared" si="452"/>
         <v>B.Com. - E-Commerce</v>
@@ -31085,7 +31086,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="234" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" s="12" t="str">
         <f t="shared" si="452"/>
         <v>B.Com. - IT App in Business</v>
@@ -31212,7 +31213,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="235" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" s="12" t="str">
         <f t="shared" si="452"/>
         <v>B.Com. - Comp Ac &amp; Tax eFiling</v>
@@ -31339,7 +31340,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="236" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" s="12" t="str">
         <f t="shared" si="452"/>
         <v>B.B.A. - English</v>
@@ -31466,7 +31467,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="237" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" s="12" t="str">
         <f t="shared" si="452"/>
         <v>B.B.A. - Business Comm</v>
@@ -31593,7 +31594,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="238" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238" s="12" t="str">
         <f t="shared" si="452"/>
         <v>B.B.A. - Essentials of Math</v>
@@ -31720,7 +31721,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="239" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239" s="12" t="str">
         <f t="shared" si="452"/>
         <v>B.B.A. - Essentials of Stats</v>
@@ -31847,7 +31848,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="240" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" s="12" t="str">
         <f t="shared" si="452"/>
         <v>B.B.A. - Advanced Math &amp; Stats</v>
@@ -31974,7 +31975,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="241" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A241" s="12" t="str">
         <f t="shared" si="452"/>
         <v>B.B.A. - Computer Applications</v>
@@ -32101,7 +32102,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="242" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A242" s="12" t="str">
         <f t="shared" si="452"/>
         <v>B.B.A. - Micro Economics</v>
@@ -32228,7 +32229,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="243" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" s="12" t="str">
         <f t="shared" si="452"/>
         <v>B.B.A. - Macro Economics</v>
@@ -32355,7 +32356,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="244" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" s="12" t="str">
         <f t="shared" si="452"/>
         <v>B.B.A. - Organizational Behavior</v>
@@ -32482,7 +32483,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="245" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="12" t="str">
         <f t="shared" si="452"/>
         <v>B.B.A. - Social Structure &amp; Ethics</v>
@@ -32609,7 +32610,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="246" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A246" s="12" t="str">
         <f t="shared" si="452"/>
         <v>B.B.A. - Principles of Mgmt</v>
@@ -32736,7 +32737,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="247" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A247" s="12" t="str">
         <f t="shared" si="452"/>
         <v>B.B.A. - Managerial Economics</v>
@@ -32863,7 +32864,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="248" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A248" s="12" t="str">
         <f t="shared" si="452"/>
         <v>B.B.A. - Business Laws</v>
@@ -32990,7 +32991,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="249" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249" s="12" t="str">
         <f t="shared" si="452"/>
         <v>B.B.A. - Financial Accounting</v>
@@ -33117,7 +33118,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="250" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A250" s="12" t="str">
         <f t="shared" si="452"/>
         <v>B.B.A. - Environment Studies</v>
@@ -33244,7 +33245,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="251" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" s="12" t="str">
         <f t="shared" si="452"/>
         <v>B.B.A. - Prod &amp; Materials Mgmt</v>
@@ -33371,7 +33372,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="252" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" s="12" t="str">
         <f t="shared" si="452"/>
         <v>B.B.A. - Mgmt Info System</v>
@@ -33498,7 +33499,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="253" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253" s="12" t="str">
         <f t="shared" si="452"/>
         <v>B.B.A. - Cost Accounting</v>
@@ -33625,7 +33626,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="254" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A254" s="12" t="str">
         <f t="shared" si="452"/>
         <v>B.B.A. - Marketing Management</v>
@@ -33752,7 +33753,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="255" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A255" s="12" t="str">
         <f t="shared" si="452"/>
         <v>B.B.A. - HRM</v>
@@ -33879,7 +33880,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="256" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A256" s="12" t="str">
         <f t="shared" si="452"/>
         <v>B.B.A. - Financial Management</v>
@@ -34006,7 +34007,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="257" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A257" s="12" t="str">
         <f t="shared" si="452"/>
         <v>B.B.A. - Sales &amp; Distribn Mgmt</v>
@@ -34133,7 +34134,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="258" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A258" s="12" t="str">
         <f t="shared" si="452"/>
         <v>B.B.A. - HR Development</v>
@@ -34260,7 +34261,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="259" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A259" s="12" t="str">
         <f t="shared" si="452"/>
         <v>B.B.A. - Enterpreneurship Dev</v>
@@ -34387,7 +34388,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="260" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A260" s="12" t="str">
         <f t="shared" si="452"/>
         <v>B.B.A. - Research Methodology</v>
@@ -34514,7 +34515,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="261" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A261" s="12" t="str">
         <f t="shared" si="452"/>
         <v>B.B.A. - Mgmt Accounting</v>
@@ -34641,7 +34642,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="262" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A262" s="12" t="str">
         <f t="shared" si="452"/>
         <v>B.B.A. - Ad &amp; Sales Promotion</v>
@@ -34768,7 +34769,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="263" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A263" s="12" t="str">
         <f t="shared" si="452"/>
         <v>B.B.A. - Industrial Relations</v>
@@ -34895,7 +34896,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="264" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A264" s="12" t="str">
         <f t="shared" si="452"/>
         <v>B.B.A. - Public Service Mgmt</v>
@@ -35022,7 +35023,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="265" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A265" s="12" t="str">
         <f t="shared" si="452"/>
         <v>B.B.A. - Project and Viva</v>
@@ -35149,7 +35150,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="266" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A266" s="22" t="str">
         <f>D266&amp;" - "&amp;C266&amp;" - "&amp;B266</f>
         <v>C.A. - Found - Accountancy</v>
@@ -35276,7 +35277,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="267" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A267" s="22" t="str">
         <f t="shared" ref="A267:A330" si="472">D267&amp;" - "&amp;C267&amp;" - "&amp;B267</f>
         <v>C.A. - Found - Biz laws &amp; Corspndnce</v>
@@ -35343,7 +35344,7 @@
       <c r="AI267" s="34"/>
       <c r="AJ267" s="34"/>
     </row>
-    <row r="268" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A268" s="22" t="str">
         <f t="shared" si="472"/>
         <v>C.A. - Found - Biz Math &amp; Stat</v>
@@ -35410,13 +35411,13 @@
       <c r="AI268" s="34"/>
       <c r="AJ268" s="34"/>
     </row>
-    <row r="269" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="A269" s="22" t="str">
         <f t="shared" si="472"/>
         <v>C.A. - Found - Eco &amp; Comm Knwldge</v>
       </c>
       <c r="B269" s="9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C269" s="3" t="s">
         <v>209</v>
@@ -35475,7 +35476,7 @@
       <c r="AI269" s="34"/>
       <c r="AJ269" s="34"/>
     </row>
-    <row r="270" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A270" s="22" t="str">
         <f t="shared" si="472"/>
         <v>C.A. - Inter - Accountancy</v>
@@ -35602,7 +35603,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="271" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A271" s="22" t="str">
         <f t="shared" si="472"/>
         <v>C.A. - Inter - Corp &amp; other Laws</v>
@@ -35659,7 +35660,7 @@
       <c r="AI271" s="16"/>
       <c r="AJ271" s="16"/>
     </row>
-    <row r="272" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A272" s="22" t="str">
         <f t="shared" si="472"/>
         <v>C.A. - Inter - Cost &amp; Mgmt Ac</v>
@@ -35716,7 +35717,7 @@
       <c r="AI272" s="16"/>
       <c r="AJ272" s="16"/>
     </row>
-    <row r="273" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A273" s="22" t="str">
         <f t="shared" si="472"/>
         <v>C.A. - Inter - Tax</v>
@@ -35771,7 +35772,7 @@
       <c r="AI273" s="16"/>
       <c r="AJ273" s="16"/>
     </row>
-    <row r="274" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A274" s="22" t="str">
         <f t="shared" si="472"/>
         <v>C.A. - Inter - Audit</v>
@@ -35826,7 +35827,7 @@
       <c r="AI274" s="16"/>
       <c r="AJ274" s="16"/>
     </row>
-    <row r="275" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A275" s="22" t="str">
         <f t="shared" si="472"/>
         <v>C.A. - Inter - Adv Ac</v>
@@ -35883,7 +35884,7 @@
       <c r="AI275" s="16"/>
       <c r="AJ275" s="16"/>
     </row>
-    <row r="276" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A276" s="22" t="str">
         <f t="shared" si="472"/>
         <v>C.A. - Inter - EIS &amp; Strategic Mgmt</v>
@@ -35940,7 +35941,7 @@
       <c r="AI276" s="16"/>
       <c r="AJ276" s="16"/>
     </row>
-    <row r="277" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A277" s="22" t="str">
         <f t="shared" si="472"/>
         <v>C.A. - Inter - Fin Mgmt &amp; Eco</v>
@@ -35995,7 +35996,7 @@
       <c r="AI277" s="16"/>
       <c r="AJ277" s="16"/>
     </row>
-    <row r="278" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A278" s="22" t="str">
         <f t="shared" si="472"/>
         <v>C.A. - Final - Fin Reporting</v>
@@ -36122,7 +36123,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="279" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="A279" s="22" t="str">
         <f t="shared" si="472"/>
         <v>C.A. - Final - Strategic Fin Mgmt</v>
@@ -36179,7 +36180,7 @@
       <c r="AI279" s="16"/>
       <c r="AJ279" s="16"/>
     </row>
-    <row r="280" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A280" s="22" t="str">
         <f t="shared" si="472"/>
         <v>C.A. - Final - Audit &amp; Ethics</v>
@@ -36234,7 +36235,7 @@
       <c r="AI280" s="16"/>
       <c r="AJ280" s="16"/>
     </row>
-    <row r="281" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A281" s="22" t="str">
         <f t="shared" si="472"/>
         <v>C.A. - Final - Corporate &amp; Eco Laws</v>
@@ -36291,7 +36292,7 @@
       <c r="AI281" s="16"/>
       <c r="AJ281" s="16"/>
     </row>
-    <row r="282" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A282" s="22" t="str">
         <f t="shared" si="472"/>
         <v>C.A. - Final - Strategic Cost &amp; Perf Eval</v>
@@ -36348,13 +36349,13 @@
       <c r="AI282" s="16"/>
       <c r="AJ282" s="16"/>
     </row>
-    <row r="283" spans="1:36" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:36" ht="16.95" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A283" s="22" t="str">
         <f t="shared" si="472"/>
         <v>C.A. - Final - Risk, Cptl Mkt, Glbl FnRpt</v>
       </c>
       <c r="B283" s="9" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C283" s="3" t="s">
         <v>169</v>
@@ -36403,7 +36404,7 @@
       <c r="AI283" s="16"/>
       <c r="AJ283" s="16"/>
     </row>
-    <row r="284" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A284" s="22" t="str">
         <f t="shared" si="472"/>
         <v>C.A. - Final - Direct Tax &amp; Intrtnl Tax</v>
@@ -36460,7 +36461,7 @@
       <c r="AI284" s="16"/>
       <c r="AJ284" s="16"/>
     </row>
-    <row r="285" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A285" s="22" t="str">
         <f t="shared" si="472"/>
         <v>C.A. - Final - Indirect Tax laws</v>
@@ -36517,7 +36518,7 @@
       <c r="AI285" s="16"/>
       <c r="AJ285" s="16"/>
     </row>
-    <row r="286" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A286" s="35" t="str">
         <f t="shared" si="472"/>
         <v>C.M.A. - Found - Bizz laws &amp; comm</v>
@@ -36642,7 +36643,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="287" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A287" s="35" t="str">
         <f t="shared" si="472"/>
         <v>C.M.A. - Found - Fin &amp; Cost Ac</v>
@@ -36697,7 +36698,7 @@
       <c r="AI287" s="16"/>
       <c r="AJ287" s="16"/>
     </row>
-    <row r="288" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A288" s="35" t="str">
         <f t="shared" si="472"/>
         <v>C.M.A. - Found - Bizz math &amp; Stat</v>
@@ -36752,7 +36753,7 @@
       <c r="AI288" s="16"/>
       <c r="AJ288" s="16"/>
     </row>
-    <row r="289" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A289" s="35" t="str">
         <f t="shared" si="472"/>
         <v>C.M.A. - Found - Bizz Eco &amp; Math</v>
@@ -36807,7 +36808,7 @@
       <c r="AI289" s="16"/>
       <c r="AJ289" s="16"/>
     </row>
-    <row r="290" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A290" s="35" t="str">
         <f t="shared" si="472"/>
         <v>C.M.A. - Inter - Biz Law &amp; Ethics</v>
@@ -36932,7 +36933,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="291" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A291" s="35" t="str">
         <f t="shared" si="472"/>
         <v>C.M.A. - Inter - Fin Ac</v>
@@ -36987,7 +36988,7 @@
       <c r="AI291" s="16"/>
       <c r="AJ291" s="16"/>
     </row>
-    <row r="292" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A292" s="35" t="str">
         <f t="shared" si="472"/>
         <v>C.M.A. - Inter - Direct Indirect Tax</v>
@@ -37042,7 +37043,7 @@
       <c r="AI292" s="16"/>
       <c r="AJ292" s="16"/>
     </row>
-    <row r="293" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A293" s="35" t="str">
         <f t="shared" si="472"/>
         <v>C.M.A. - Inter - Cost AC</v>
@@ -37097,7 +37098,7 @@
       <c r="AI293" s="16"/>
       <c r="AJ293" s="16"/>
     </row>
-    <row r="294" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A294" s="35" t="str">
         <f t="shared" si="472"/>
         <v>C.M.A. - Inter - Ops &amp; Mgmt Strategic</v>
@@ -37152,7 +37153,7 @@
       <c r="AI294" s="16"/>
       <c r="AJ294" s="16"/>
     </row>
-    <row r="295" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:36" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A295" s="35" t="str">
         <f t="shared" si="472"/>
         <v>C.M.A. - Inter - Corporate AC &amp; Auditing</v>
@@ -37207,13 +37208,13 @@
       <c r="AI295" s="16"/>
       <c r="AJ295" s="16"/>
     </row>
-    <row r="296" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A296" s="35" t="str">
         <f t="shared" si="472"/>
         <v>C.M.A. - Inter - Fin Mgmt-Data Anltcs</v>
       </c>
       <c r="B296" s="9" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C296" s="3" t="s">
         <v>211</v>
@@ -37262,7 +37263,7 @@
       <c r="AI296" s="16"/>
       <c r="AJ296" s="16"/>
     </row>
-    <row r="297" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A297" s="35" t="str">
         <f t="shared" si="472"/>
         <v>C.M.A. - Inter - Mgmt AC</v>
@@ -37317,7 +37318,7 @@
       <c r="AI297" s="16"/>
       <c r="AJ297" s="16"/>
     </row>
-    <row r="298" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A298" s="35" t="str">
         <f t="shared" si="472"/>
         <v>C.M.A. - Final - Corporate &amp; Eco Laws</v>
@@ -37442,7 +37443,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="299" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A299" s="35" t="str">
         <f t="shared" si="472"/>
         <v>C.M.A. - Final - Strategic Fin Mgmt</v>
@@ -37497,7 +37498,7 @@
       <c r="AI299" s="16"/>
       <c r="AJ299" s="16"/>
     </row>
-    <row r="300" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A300" s="35" t="str">
         <f t="shared" si="472"/>
         <v>C.M.A. - Final - Direct &amp; Intrntnl Tax</v>
@@ -37552,7 +37553,7 @@
       <c r="AI300" s="16"/>
       <c r="AJ300" s="16"/>
     </row>
-    <row r="301" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A301" s="35" t="str">
         <f t="shared" si="472"/>
         <v>C.M.A. - Final - Strategic Cost Mgmt</v>
@@ -37607,7 +37608,7 @@
       <c r="AI301" s="16"/>
       <c r="AJ301" s="16"/>
     </row>
-    <row r="302" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A302" s="35" t="str">
         <f t="shared" si="472"/>
         <v>C.M.A. - Final - Cost &amp; Mgmt Audit</v>
@@ -37662,7 +37663,7 @@
       <c r="AI302" s="16"/>
       <c r="AJ302" s="16"/>
     </row>
-    <row r="303" spans="1:36" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:36" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A303" s="35" t="str">
         <f t="shared" si="472"/>
         <v>C.M.A. - Final - Corporate Fin Reporting</v>
@@ -37717,7 +37718,7 @@
       <c r="AI303" s="16"/>
       <c r="AJ303" s="16"/>
     </row>
-    <row r="304" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A304" s="35" t="str">
         <f t="shared" si="472"/>
         <v>C.M.A. - Final - Indirect Tax</v>
@@ -37772,13 +37773,13 @@
       <c r="AI304" s="16"/>
       <c r="AJ304" s="16"/>
     </row>
-    <row r="305" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="A305" s="35" t="str">
         <f t="shared" si="472"/>
         <v>C.M.A. - Final - Strt Perf Mgmt &amp; Eval</v>
       </c>
       <c r="B305" s="30" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C305" s="3" t="s">
         <v>169</v>
@@ -37827,7 +37828,7 @@
       <c r="AI305" s="16"/>
       <c r="AJ305" s="16"/>
     </row>
-    <row r="306" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A306" s="22" t="str">
         <f t="shared" si="472"/>
         <v>C.S. - Found - Biz Env &amp; Law</v>
@@ -37952,13 +37953,13 @@
         <v>400</v>
       </c>
     </row>
-    <row r="307" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="A307" s="22" t="str">
         <f t="shared" si="472"/>
         <v>C.S. - Found - Biz Mgmt, Ethics, Entsp</v>
       </c>
       <c r="B307" s="9" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C307" s="3" t="s">
         <v>209</v>
@@ -38003,7 +38004,7 @@
       <c r="AI307" s="16"/>
       <c r="AJ307" s="16"/>
     </row>
-    <row r="308" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A308" s="22" t="str">
         <f t="shared" si="472"/>
         <v>C.S. - Found - Biz Eco</v>
@@ -38054,7 +38055,7 @@
       <c r="AI308" s="16"/>
       <c r="AJ308" s="16"/>
     </row>
-    <row r="309" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A309" s="22" t="str">
         <f t="shared" si="472"/>
         <v>C.S. - Found - Ac &amp; Audit</v>
@@ -38105,7 +38106,7 @@
       <c r="AI309" s="16"/>
       <c r="AJ309" s="16"/>
     </row>
-    <row r="310" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A310" s="22" t="str">
         <f t="shared" si="472"/>
         <v>C.S. - Inter - General Law</v>
@@ -38230,7 +38231,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="311" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A311" s="22" t="str">
         <f t="shared" si="472"/>
         <v>C.S. - Inter - Company Law</v>
@@ -38281,7 +38282,7 @@
       <c r="AI311" s="16"/>
       <c r="AJ311" s="16"/>
     </row>
-    <row r="312" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A312" s="22" t="str">
         <f t="shared" si="472"/>
         <v>C.S. - Inter - Set up of Biz &amp; Closure</v>
@@ -38332,7 +38333,7 @@
       <c r="AI312" s="16"/>
       <c r="AJ312" s="16"/>
     </row>
-    <row r="313" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A313" s="22" t="str">
         <f t="shared" si="472"/>
         <v>C.S. - Inter - Tax Law</v>
@@ -38383,7 +38384,7 @@
       <c r="AI313" s="16"/>
       <c r="AJ313" s="16"/>
     </row>
-    <row r="314" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A314" s="22" t="str">
         <f t="shared" si="472"/>
         <v>C.S. - Inter - Corporate &amp; Mgmt AC</v>
@@ -38434,7 +38435,7 @@
       <c r="AI314" s="16"/>
       <c r="AJ314" s="16"/>
     </row>
-    <row r="315" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A315" s="22" t="str">
         <f t="shared" si="472"/>
         <v>C.S. - Inter - Securities Law &amp; Cptl Mkt</v>
@@ -38485,7 +38486,7 @@
       <c r="AI315" s="16"/>
       <c r="AJ315" s="16"/>
     </row>
-    <row r="316" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A316" s="22" t="str">
         <f t="shared" si="472"/>
         <v>C.S. - Inter - Eco, Biz &amp; Comm Law</v>
@@ -38536,13 +38537,13 @@
       <c r="AI316" s="16"/>
       <c r="AJ316" s="16"/>
     </row>
-    <row r="317" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:36" hidden="1" x14ac:dyDescent="0.3">
       <c r="A317" s="22" t="str">
         <f t="shared" si="472"/>
         <v>C.S. - Inter - Fin &amp; Strategic Mgmt</v>
       </c>
       <c r="B317" s="30" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C317" s="3" t="s">
         <v>211</v>
@@ -38587,7 +38588,7 @@
       <c r="AI317" s="16"/>
       <c r="AJ317" s="16"/>
     </row>
-    <row r="318" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A318" s="22" t="str">
         <f t="shared" si="472"/>
         <v>C.S. - Final - Govrnc, Risk Mgmt, Ethics</v>
@@ -38712,7 +38713,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="319" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A319" s="22" t="str">
         <f t="shared" si="472"/>
         <v>C.S. - Final - Adv Tax laws</v>
@@ -38763,7 +38764,7 @@
       <c r="AI319" s="16"/>
       <c r="AJ319" s="16"/>
     </row>
-    <row r="320" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A320" s="22" t="str">
         <f t="shared" si="472"/>
         <v>C.S. - Final - Draft, Pleed &amp; Apprncs</v>
@@ -38814,7 +38815,7 @@
       <c r="AI320" s="16"/>
       <c r="AJ320" s="16"/>
     </row>
-    <row r="321" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A321" s="22" t="str">
         <f t="shared" si="472"/>
         <v>C.S. - Final - Secretl Audit, Due Delgnc</v>
@@ -38865,7 +38866,7 @@
       <c r="AI321" s="16"/>
       <c r="AJ321" s="16"/>
     </row>
-    <row r="322" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A322" s="22" t="str">
         <f t="shared" si="472"/>
         <v>C.S. - Final - Corp Restrct, Winding Up</v>
@@ -38916,7 +38917,7 @@
       <c r="AI322" s="16"/>
       <c r="AJ322" s="16"/>
     </row>
-    <row r="323" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A323" s="22" t="str">
         <f t="shared" si="472"/>
         <v>C.S. - Final - Resln of Corp Disputes</v>
@@ -38967,7 +38968,7 @@
       <c r="AI323" s="16"/>
       <c r="AJ323" s="16"/>
     </row>
-    <row r="324" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A324" s="22" t="str">
         <f t="shared" si="472"/>
         <v>C.S. - Final - Corp Fund &amp; Stock Listing</v>
@@ -39018,7 +39019,7 @@
       <c r="AI324" s="16"/>
       <c r="AJ324" s="16"/>
     </row>
-    <row r="325" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A325" s="22" t="str">
         <f t="shared" si="472"/>
         <v>C.S. - Final - Multi Discp Case Studies</v>
@@ -39069,7 +39070,7 @@
       <c r="AI325" s="16"/>
       <c r="AJ325" s="16"/>
     </row>
-    <row r="326" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A326" s="22" t="str">
         <f t="shared" si="472"/>
         <v>C.S. - Final - Intellectual Prpt Rights</v>
@@ -39120,7 +39121,7 @@
       <c r="AI326" s="16"/>
       <c r="AJ326" s="16"/>
     </row>
-    <row r="327" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A327" s="35" t="str">
         <f t="shared" si="472"/>
         <v>C.F.A. - L-1 - Ethical &amp; Prof Standards</v>
@@ -39245,7 +39246,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="328" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A328" s="35" t="str">
         <f t="shared" si="472"/>
         <v>C.F.A. - L-1 - Quantitive Methods</v>
@@ -39296,7 +39297,7 @@
       <c r="AI328" s="16"/>
       <c r="AJ328" s="16"/>
     </row>
-    <row r="329" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A329" s="35" t="str">
         <f t="shared" si="472"/>
         <v>C.F.A. - L-1 - Economics</v>
@@ -39347,7 +39348,7 @@
       <c r="AI329" s="16"/>
       <c r="AJ329" s="16"/>
     </row>
-    <row r="330" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A330" s="35" t="str">
         <f t="shared" si="472"/>
         <v>C.F.A. - L-1 - Fin Statement Analysis</v>
@@ -39398,7 +39399,7 @@
       <c r="AI330" s="16"/>
       <c r="AJ330" s="16"/>
     </row>
-    <row r="331" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A331" s="35" t="str">
         <f t="shared" ref="A331:A356" si="485">D331&amp;" - "&amp;C331&amp;" - "&amp;B331</f>
         <v>C.F.A. - L-1 - Corporate Issuers</v>
@@ -39449,7 +39450,7 @@
       <c r="AI331" s="16"/>
       <c r="AJ331" s="16"/>
     </row>
-    <row r="332" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A332" s="35" t="str">
         <f t="shared" si="485"/>
         <v>C.F.A. - L-1 - Equity Investments</v>
@@ -39500,7 +39501,7 @@
       <c r="AI332" s="16"/>
       <c r="AJ332" s="16"/>
     </row>
-    <row r="333" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A333" s="35" t="str">
         <f t="shared" si="485"/>
         <v>C.F.A. - L-1 - Fixed Income</v>
@@ -39551,7 +39552,7 @@
       <c r="AI333" s="16"/>
       <c r="AJ333" s="16"/>
     </row>
-    <row r="334" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A334" s="35" t="str">
         <f t="shared" si="485"/>
         <v>C.F.A. - L-1 - Derivatives</v>
@@ -39602,7 +39603,7 @@
       <c r="AI334" s="16"/>
       <c r="AJ334" s="16"/>
     </row>
-    <row r="335" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A335" s="35" t="str">
         <f t="shared" si="485"/>
         <v>C.F.A. - L-1 - Alternative Investments</v>
@@ -39653,7 +39654,7 @@
       <c r="AI335" s="16"/>
       <c r="AJ335" s="16"/>
     </row>
-    <row r="336" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A336" s="35" t="str">
         <f t="shared" si="485"/>
         <v>C.F.A. - L-1 - Portrfolio Mgmt &amp; Wealth</v>
@@ -39704,7 +39705,7 @@
       <c r="AI336" s="16"/>
       <c r="AJ336" s="16"/>
     </row>
-    <row r="337" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A337" s="35" t="str">
         <f t="shared" si="485"/>
         <v>C.F.A. - L-2 - Ethical &amp; Prof Standards</v>
@@ -39829,7 +39830,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="338" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A338" s="35" t="str">
         <f t="shared" si="485"/>
         <v>C.F.A. - L-2 - Quantitive Methods</v>
@@ -39880,7 +39881,7 @@
       <c r="AI338" s="16"/>
       <c r="AJ338" s="16"/>
     </row>
-    <row r="339" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A339" s="35" t="str">
         <f t="shared" si="485"/>
         <v>C.F.A. - L-2 - Economics</v>
@@ -39931,7 +39932,7 @@
       <c r="AI339" s="16"/>
       <c r="AJ339" s="16"/>
     </row>
-    <row r="340" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A340" s="35" t="str">
         <f t="shared" si="485"/>
         <v>C.F.A. - L-2 - Fin Statement Analysis</v>
@@ -39982,7 +39983,7 @@
       <c r="AI340" s="16"/>
       <c r="AJ340" s="16"/>
     </row>
-    <row r="341" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A341" s="35" t="str">
         <f t="shared" si="485"/>
         <v>C.F.A. - L-2 - Corporate Issuers</v>
@@ -40033,7 +40034,7 @@
       <c r="AI341" s="16"/>
       <c r="AJ341" s="16"/>
     </row>
-    <row r="342" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A342" s="35" t="str">
         <f t="shared" si="485"/>
         <v>C.F.A. - L-2 - Equity Investments</v>
@@ -40084,7 +40085,7 @@
       <c r="AI342" s="16"/>
       <c r="AJ342" s="16"/>
     </row>
-    <row r="343" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A343" s="35" t="str">
         <f t="shared" si="485"/>
         <v>C.F.A. - L-2 - Fixed Income</v>
@@ -40135,7 +40136,7 @@
       <c r="AI343" s="16"/>
       <c r="AJ343" s="16"/>
     </row>
-    <row r="344" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A344" s="35" t="str">
         <f t="shared" si="485"/>
         <v>C.F.A. - L-2 - Derivatives</v>
@@ -40186,7 +40187,7 @@
       <c r="AI344" s="16"/>
       <c r="AJ344" s="16"/>
     </row>
-    <row r="345" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A345" s="35" t="str">
         <f t="shared" si="485"/>
         <v>C.F.A. - L-2 - Alternative Investments</v>
@@ -40237,7 +40238,7 @@
       <c r="AI345" s="16"/>
       <c r="AJ345" s="16"/>
     </row>
-    <row r="346" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A346" s="35" t="str">
         <f t="shared" si="485"/>
         <v>C.F.A. - L-2 - Portrfolio Mgmt-Wealth</v>
@@ -40288,7 +40289,7 @@
       <c r="AI346" s="16"/>
       <c r="AJ346" s="16"/>
     </row>
-    <row r="347" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A347" s="35" t="str">
         <f t="shared" si="485"/>
         <v>C.F.A. - L-3 - Ethical &amp; Prof Standards</v>
@@ -40413,7 +40414,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="348" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A348" s="35" t="str">
         <f t="shared" si="485"/>
         <v>C.F.A. - L-3 - Quantitive Methods</v>
@@ -40464,7 +40465,7 @@
       <c r="AI348" s="16"/>
       <c r="AJ348" s="16"/>
     </row>
-    <row r="349" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A349" s="35" t="str">
         <f t="shared" si="485"/>
         <v>C.F.A. - L-3 - Economics</v>
@@ -40515,7 +40516,7 @@
       <c r="AI349" s="16"/>
       <c r="AJ349" s="16"/>
     </row>
-    <row r="350" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A350" s="35" t="str">
         <f t="shared" si="485"/>
         <v>C.F.A. - L-3 - Fin Statement Analysis</v>
@@ -40566,7 +40567,7 @@
       <c r="AI350" s="16"/>
       <c r="AJ350" s="16"/>
     </row>
-    <row r="351" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A351" s="35" t="str">
         <f t="shared" si="485"/>
         <v>C.F.A. - L-3 - Corporate Issuers</v>
@@ -40617,7 +40618,7 @@
       <c r="AI351" s="16"/>
       <c r="AJ351" s="16"/>
     </row>
-    <row r="352" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A352" s="35" t="str">
         <f t="shared" si="485"/>
         <v>C.F.A. - L-3 - Equity Investments</v>
@@ -40668,7 +40669,7 @@
       <c r="AI352" s="16"/>
       <c r="AJ352" s="16"/>
     </row>
-    <row r="353" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A353" s="35" t="str">
         <f t="shared" si="485"/>
         <v>C.F.A. - L-3 - Fixed Income</v>
@@ -40719,7 +40720,7 @@
       <c r="AI353" s="16"/>
       <c r="AJ353" s="16"/>
     </row>
-    <row r="354" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A354" s="35" t="str">
         <f t="shared" si="485"/>
         <v>C.F.A. - L-3 - Derivatives</v>
@@ -40770,7 +40771,7 @@
       <c r="AI354" s="16"/>
       <c r="AJ354" s="16"/>
     </row>
-    <row r="355" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A355" s="35" t="str">
         <f t="shared" si="485"/>
         <v>C.F.A. - L-3 - Alternative Investments</v>
@@ -40821,7 +40822,7 @@
       <c r="AI355" s="16"/>
       <c r="AJ355" s="16"/>
     </row>
-    <row r="356" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A356" s="35" t="str">
         <f t="shared" si="485"/>
         <v>C.F.A. - L-3 - Portrfolio Mgmt-Wealth</v>
@@ -40872,7 +40873,7 @@
       <c r="AI356" s="16"/>
       <c r="AJ356" s="16"/>
     </row>
-    <row r="357" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A357" s="21" t="str">
         <f>B357</f>
         <v>Spoken English</v>
@@ -41001,7 +41002,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="358" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A358" s="21" t="str">
         <f>B358</f>
         <v>Advanced Grooming</v>
@@ -41130,7 +41131,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="359" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A359" s="21" t="str">
         <f t="shared" ref="A359:A362" si="495">B359</f>
         <v>IELTS</v>
@@ -41257,7 +41258,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="360" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A360" s="21" t="str">
         <f t="shared" si="495"/>
         <v>TOEFL</v>
@@ -41384,7 +41385,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="361" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A361" s="21" t="str">
         <f t="shared" si="495"/>
         <v>PTE</v>
@@ -41511,7 +41512,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="362" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A362" s="21" t="str">
         <f t="shared" si="495"/>
         <v>GRE</v>
@@ -41638,7 +41639,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="363" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A363" s="21" t="str">
         <f>B363</f>
         <v>Classroom2Boardroom</v>
@@ -41765,7 +41766,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="364" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A364" s="21" t="str">
         <f t="shared" ref="A364:A365" si="496">B364</f>
         <v>Employee to Manager</v>
@@ -41892,7 +41893,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="365" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A365" s="21" t="str">
         <f t="shared" si="496"/>
         <v>Executive Training</v>
@@ -42019,7 +42020,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="366" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A366" s="13" t="str">
         <f t="shared" ref="A366:A392" si="497">B366</f>
         <v>MS Office</v>
@@ -42148,7 +42149,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="367" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A367" s="13" t="str">
         <f t="shared" si="497"/>
         <v>Advanced Excel (VBA)</v>
@@ -42277,7 +42278,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="368" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A368" s="13" t="str">
         <f t="shared" si="497"/>
         <v>C</v>
@@ -42406,7 +42407,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="369" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A369" s="13" t="str">
         <f t="shared" si="497"/>
         <v>C++</v>
@@ -42535,7 +42536,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="370" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A370" s="13" t="str">
         <f t="shared" si="497"/>
         <v>HTML, CSS, JavaScript</v>
@@ -42664,7 +42665,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="371" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A371" s="13" t="str">
         <f t="shared" si="497"/>
         <v>Java</v>
@@ -42793,7 +42794,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="372" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A372" s="13" t="str">
         <f t="shared" si="497"/>
         <v>Advanced Java</v>
@@ -42922,7 +42923,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="373" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A373" s="13" t="str">
         <f t="shared" si="497"/>
         <v>.Net (C#, VB.Net)</v>
@@ -43051,7 +43052,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="374" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A374" s="13" t="str">
         <f t="shared" si="497"/>
         <v>Advanced .Net</v>
@@ -43180,7 +43181,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="375" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A375" s="13" t="str">
         <f t="shared" si="497"/>
         <v>Microsoft Azure Cloud</v>
@@ -43307,7 +43308,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="376" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A376" s="13" t="str">
         <f t="shared" si="497"/>
         <v>React, MUI</v>
@@ -43436,7 +43437,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="377" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A377" s="13" t="str">
         <f t="shared" si="497"/>
         <v>React Native</v>
@@ -43565,7 +43566,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="378" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A378" s="13" t="str">
         <f t="shared" si="497"/>
         <v>PHP, Wordpress</v>
@@ -43694,7 +43695,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="379" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A379" s="13" t="str">
         <f t="shared" si="497"/>
         <v>Linux, Shell Script</v>
@@ -43823,7 +43824,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="380" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A380" s="13" t="str">
         <f t="shared" si="497"/>
         <v>Networking &amp; CCNA</v>
@@ -43950,7 +43951,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="381" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A381" s="13" t="str">
         <f t="shared" si="497"/>
         <v>Hands-on Network H/W</v>
@@ -44079,7 +44080,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="382" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A382" s="13" t="str">
         <f t="shared" si="497"/>
         <v>Devops</v>
@@ -44206,7 +44207,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="383" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A383" s="13" t="str">
         <f t="shared" si="497"/>
         <v>Docker &amp; Kubernetes</v>
@@ -44333,7 +44334,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="384" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A384" s="13" t="str">
         <f t="shared" si="497"/>
         <v>Cloud, AWS, GCP</v>
@@ -44460,7 +44461,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="385" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A385" s="13" t="str">
         <f t="shared" si="497"/>
         <v>Cyber security Basics</v>
@@ -44587,7 +44588,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="386" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A386" s="13" t="str">
         <f t="shared" si="497"/>
         <v>Cyber security Advanced</v>
@@ -44714,7 +44715,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="387" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A387" s="13" t="str">
         <f t="shared" si="497"/>
         <v>Test Automtn Selenium</v>
@@ -44841,7 +44842,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="388" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A388" s="13" t="s">
         <v>178</v>
       </c>
@@ -44969,7 +44970,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="389" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A389" s="13" t="s">
         <v>179</v>
       </c>
@@ -45095,7 +45096,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="390" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A390" s="13" t="s">
         <v>180</v>
       </c>
@@ -45221,7 +45222,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="391" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A391" s="13" t="s">
         <v>181</v>
       </c>
@@ -45347,7 +45348,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="392" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A392" s="13" t="str">
         <f t="shared" si="497"/>
         <v>Tally</v>
@@ -45474,7 +45475,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="393" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A393" s="13" t="str">
         <f>B393</f>
         <v>Advanced Comme Pkg</v>
@@ -45601,7 +45602,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="394" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A394" s="13" t="str">
         <f>B394</f>
         <v>Prince2</v>
@@ -45730,7 +45731,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="395" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A395" s="13" t="str">
         <f>B395</f>
         <v>Agile Scrum</v>
@@ -45859,7 +45860,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="396" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A396" s="13" t="str">
         <f t="shared" ref="A396:A403" si="546">B396</f>
         <v>Python</v>
@@ -45988,7 +45989,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="397" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A397" s="13" t="str">
         <f t="shared" si="546"/>
         <v>Data Analytics</v>
@@ -46117,7 +46118,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="398" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A398" s="13" t="str">
         <f t="shared" si="546"/>
         <v>Data Science &amp; AI</v>
@@ -46246,7 +46247,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="399" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A399" s="13" t="str">
         <f t="shared" si="546"/>
         <v>AI - DSP</v>
@@ -46375,7 +46376,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="400" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A400" s="13" t="str">
         <f t="shared" si="546"/>
         <v>AI - NLP (RNN)</v>
@@ -46504,7 +46505,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="401" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A401" s="13" t="str">
         <f t="shared" si="546"/>
         <v>AI - Comp Vision (CNN)</v>
@@ -46633,7 +46634,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="402" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A402" s="13" t="str">
         <f t="shared" si="546"/>
         <v>IoT, Robotics</v>
@@ -46762,7 +46763,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="403" spans="1:36" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:36" ht="13.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A403" s="13" t="str">
         <f t="shared" si="546"/>
         <v>Advanced IoT, Robotics</v>
@@ -46892,14 +46893,30 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:AJ403"/>
+  <autoFilter ref="A3:AJ403">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="? Sujata"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="38">
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="F1:U1"/>
+    <mergeCell ref="AF1:AJ1"/>
+    <mergeCell ref="AF2:AF3"/>
+    <mergeCell ref="AG2:AG3"/>
+    <mergeCell ref="AH2:AH3"/>
+    <mergeCell ref="AI2:AI3"/>
+    <mergeCell ref="AJ2:AJ3"/>
+    <mergeCell ref="V1:Z1"/>
+    <mergeCell ref="AA1:AE1"/>
+    <mergeCell ref="AA2:AA3"/>
+    <mergeCell ref="AB2:AB3"/>
+    <mergeCell ref="AC2:AC3"/>
+    <mergeCell ref="AD2:AD3"/>
+    <mergeCell ref="AE2:AE3"/>
+    <mergeCell ref="X2:X3"/>
+    <mergeCell ref="Y2:Y3"/>
     <mergeCell ref="Z2:Z3"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="S2:S3"/>
@@ -46916,22 +46933,12 @@
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="I2:I3"/>
-    <mergeCell ref="F1:U1"/>
-    <mergeCell ref="AF1:AJ1"/>
-    <mergeCell ref="AF2:AF3"/>
-    <mergeCell ref="AG2:AG3"/>
-    <mergeCell ref="AH2:AH3"/>
-    <mergeCell ref="AI2:AI3"/>
-    <mergeCell ref="AJ2:AJ3"/>
-    <mergeCell ref="V1:Z1"/>
-    <mergeCell ref="AA1:AE1"/>
-    <mergeCell ref="AA2:AA3"/>
-    <mergeCell ref="AB2:AB3"/>
-    <mergeCell ref="AC2:AC3"/>
-    <mergeCell ref="AD2:AD3"/>
-    <mergeCell ref="AE2:AE3"/>
-    <mergeCell ref="X2:X3"/>
-    <mergeCell ref="Y2:Y3"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="F2:F3"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -46947,13 +46954,13 @@
       <selection activeCell="B1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="6.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" style="2"/>
-    <col min="2" max="16384" width="6.7109375" style="1"/>
+    <col min="1" max="1" width="6.6640625" style="2"/>
+    <col min="2" max="16384" width="6.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" s="33"/>
       <c r="B1" s="33"/>
       <c r="C1" s="33"/>
@@ -46977,7 +46984,7 @@
       <c r="U1" s="33"/>
       <c r="V1" s="56"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="33"/>
       <c r="B2" s="33"/>
       <c r="C2" s="33"/>
@@ -47001,7 +47008,7 @@
       <c r="U2" s="33"/>
       <c r="V2" s="56"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="33"/>
       <c r="B3" s="33"/>
       <c r="C3" s="33"/>
@@ -47025,7 +47032,7 @@
       <c r="U3" s="33"/>
       <c r="V3" s="56"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" s="33"/>
       <c r="B4" s="33"/>
       <c r="C4" s="33"/>
@@ -47049,7 +47056,7 @@
       <c r="U4" s="33"/>
       <c r="V4" s="56"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" s="33"/>
       <c r="B5" s="33"/>
       <c r="C5" s="33"/>
@@ -47073,7 +47080,7 @@
       <c r="U5" s="33"/>
       <c r="V5" s="56"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" s="33"/>
       <c r="B6" s="33"/>
       <c r="C6" s="33"/>
@@ -47096,7 +47103,7 @@
       <c r="T6" s="33"/>
       <c r="U6" s="33"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" s="33"/>
       <c r="B7" s="33"/>
       <c r="C7" s="33"/>
@@ -47119,7 +47126,7 @@
       <c r="T7" s="33"/>
       <c r="U7" s="33"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" s="33"/>
       <c r="B8" s="33"/>
       <c r="C8" s="33"/>
@@ -47142,7 +47149,7 @@
       <c r="T8" s="33"/>
       <c r="U8" s="33"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" s="33"/>
       <c r="B9" s="33"/>
       <c r="C9" s="33"/>
@@ -47165,7 +47172,7 @@
       <c r="T9" s="33"/>
       <c r="U9" s="33"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" s="33"/>
       <c r="B10" s="33"/>
       <c r="C10" s="33"/>
@@ -47188,7 +47195,7 @@
       <c r="T10" s="33"/>
       <c r="U10" s="33"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" s="33"/>
       <c r="B11" s="33"/>
       <c r="C11" s="33"/>
@@ -47211,7 +47218,7 @@
       <c r="T11" s="33"/>
       <c r="U11" s="33"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" s="33"/>
       <c r="B12" s="33"/>
       <c r="C12" s="33"/>
@@ -47234,7 +47241,7 @@
       <c r="T12" s="33"/>
       <c r="U12" s="33"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" s="33"/>
       <c r="B13" s="33"/>
       <c r="C13" s="33"/>
@@ -47257,7 +47264,7 @@
       <c r="T13" s="33"/>
       <c r="U13" s="33"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" s="33"/>
       <c r="B14" s="33"/>
       <c r="C14" s="33"/>
@@ -47280,7 +47287,7 @@
       <c r="T14" s="33"/>
       <c r="U14" s="33"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" s="33"/>
       <c r="B15" s="33"/>
       <c r="C15" s="33"/>
@@ -47303,7 +47310,7 @@
       <c r="T15" s="33"/>
       <c r="U15" s="33"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" s="33"/>
       <c r="B16" s="33"/>
       <c r="C16" s="33"/>
@@ -47326,7 +47333,7 @@
       <c r="T16" s="33"/>
       <c r="U16" s="33"/>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" s="33"/>
       <c r="B17" s="33"/>
       <c r="C17" s="33"/>
@@ -47349,7 +47356,7 @@
       <c r="T17" s="33"/>
       <c r="U17" s="33"/>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" s="33"/>
       <c r="B18" s="33"/>
       <c r="C18" s="33"/>
@@ -47372,7 +47379,7 @@
       <c r="T18" s="33"/>
       <c r="U18" s="33"/>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" s="33"/>
       <c r="B19" s="33"/>
       <c r="C19" s="33"/>
@@ -47395,7 +47402,7 @@
       <c r="T19" s="33"/>
       <c r="U19" s="33"/>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" s="33"/>
       <c r="B20" s="33"/>
       <c r="C20" s="33"/>
@@ -47418,7 +47425,7 @@
       <c r="T20" s="33"/>
       <c r="U20" s="33"/>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21" s="33"/>
       <c r="B21" s="33"/>
       <c r="C21" s="33"/>
@@ -47441,7 +47448,7 @@
       <c r="T21" s="33"/>
       <c r="U21" s="33"/>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22" s="33"/>
       <c r="B22" s="33"/>
       <c r="C22" s="33"/>
@@ -47464,7 +47471,7 @@
       <c r="T22" s="33"/>
       <c r="U22" s="33"/>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23" s="33"/>
       <c r="B23" s="33"/>
       <c r="C23" s="33"/>
@@ -47487,7 +47494,7 @@
       <c r="T23" s="33"/>
       <c r="U23" s="33"/>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24" s="33"/>
       <c r="B24" s="33"/>
       <c r="C24" s="33"/>
@@ -47510,7 +47517,7 @@
       <c r="T24" s="33"/>
       <c r="U24" s="33"/>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25" s="33"/>
       <c r="B25" s="33"/>
       <c r="C25" s="33"/>
@@ -47533,7 +47540,7 @@
       <c r="T25" s="33"/>
       <c r="U25" s="33"/>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26" s="33"/>
       <c r="B26" s="33"/>
       <c r="C26" s="33"/>
@@ -47556,7 +47563,7 @@
       <c r="T26" s="33"/>
       <c r="U26" s="33"/>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27" s="33"/>
       <c r="B27" s="33"/>
       <c r="C27" s="33"/>
@@ -47579,7 +47586,7 @@
       <c r="T27" s="33"/>
       <c r="U27" s="33"/>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A28" s="33"/>
       <c r="B28" s="33"/>
       <c r="C28" s="33"/>
@@ -47602,7 +47609,7 @@
       <c r="T28" s="33"/>
       <c r="U28" s="33"/>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A29" s="33"/>
       <c r="B29" s="33"/>
       <c r="C29" s="33"/>
@@ -47625,7 +47632,7 @@
       <c r="T29" s="33"/>
       <c r="U29" s="33"/>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A30" s="33"/>
       <c r="B30" s="33"/>
       <c r="C30" s="33"/>
@@ -47648,7 +47655,7 @@
       <c r="T30" s="33"/>
       <c r="U30" s="33"/>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A31" s="33"/>
       <c r="B31" s="33"/>
       <c r="C31" s="33"/>
@@ -47671,7 +47678,7 @@
       <c r="T31" s="33"/>
       <c r="U31" s="33"/>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A32" s="33"/>
       <c r="B32" s="33"/>
       <c r="C32" s="33"/>
@@ -47694,7 +47701,7 @@
       <c r="T32" s="33"/>
       <c r="U32" s="33"/>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A33" s="33"/>
       <c r="B33" s="33"/>
       <c r="C33" s="33"/>
@@ -47717,7 +47724,7 @@
       <c r="T33" s="33"/>
       <c r="U33" s="33"/>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A34" s="33"/>
       <c r="B34" s="33"/>
       <c r="C34" s="33"/>
@@ -47740,7 +47747,7 @@
       <c r="T34" s="33"/>
       <c r="U34" s="33"/>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A35" s="33"/>
       <c r="B35" s="33"/>
       <c r="C35" s="33"/>
@@ -47763,7 +47770,7 @@
       <c r="T35" s="33"/>
       <c r="U35" s="33"/>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A36" s="33"/>
       <c r="B36" s="33"/>
       <c r="C36" s="33"/>
@@ -47786,7 +47793,7 @@
       <c r="T36" s="33"/>
       <c r="U36" s="33"/>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A37" s="33"/>
       <c r="B37" s="33"/>
       <c r="C37" s="33"/>
@@ -47809,7 +47816,7 @@
       <c r="T37" s="33"/>
       <c r="U37" s="33"/>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A38" s="33"/>
       <c r="B38" s="33"/>
       <c r="C38" s="33"/>
@@ -47832,7 +47839,7 @@
       <c r="T38" s="33"/>
       <c r="U38" s="33"/>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A39" s="33"/>
       <c r="B39" s="33"/>
       <c r="C39" s="33"/>
@@ -47855,7 +47862,7 @@
       <c r="T39" s="33"/>
       <c r="U39" s="33"/>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A40" s="33"/>
       <c r="B40" s="33"/>
       <c r="C40" s="33"/>
@@ -47878,7 +47885,7 @@
       <c r="T40" s="33"/>
       <c r="U40" s="33"/>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A41" s="33"/>
       <c r="B41" s="33"/>
       <c r="C41" s="33"/>
@@ -47901,7 +47908,7 @@
       <c r="T41" s="33"/>
       <c r="U41" s="33"/>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A42" s="33"/>
       <c r="B42" s="33"/>
       <c r="C42" s="33"/>
@@ -47924,7 +47931,7 @@
       <c r="T42" s="33"/>
       <c r="U42" s="33"/>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A43" s="33"/>
       <c r="B43" s="33"/>
       <c r="C43" s="33"/>
@@ -47947,7 +47954,7 @@
       <c r="T43" s="33"/>
       <c r="U43" s="33"/>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A44" s="33"/>
       <c r="B44" s="33"/>
       <c r="C44" s="33"/>
@@ -47970,7 +47977,7 @@
       <c r="T44" s="33"/>
       <c r="U44" s="33"/>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A45" s="33"/>
       <c r="B45" s="33"/>
       <c r="C45" s="33"/>
@@ -47993,7 +48000,7 @@
       <c r="T45" s="33"/>
       <c r="U45" s="33"/>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A46" s="33"/>
       <c r="B46" s="33"/>
       <c r="C46" s="33"/>
@@ -48016,7 +48023,7 @@
       <c r="T46" s="33"/>
       <c r="U46" s="33"/>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A47" s="33"/>
       <c r="B47" s="33"/>
       <c r="C47" s="33"/>
@@ -48039,7 +48046,7 @@
       <c r="T47" s="33"/>
       <c r="U47" s="33"/>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A48" s="33"/>
       <c r="B48" s="33"/>
       <c r="C48" s="33"/>
@@ -48062,7 +48069,7 @@
       <c r="T48" s="33"/>
       <c r="U48" s="33"/>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A49" s="33"/>
       <c r="B49" s="33"/>
       <c r="C49" s="33"/>
@@ -48085,7 +48092,7 @@
       <c r="T49" s="33"/>
       <c r="U49" s="33"/>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A50" s="33"/>
       <c r="B50" s="33"/>
       <c r="C50" s="33"/>
@@ -48108,7 +48115,7 @@
       <c r="T50" s="33"/>
       <c r="U50" s="33"/>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A51" s="33"/>
       <c r="B51" s="33"/>
       <c r="C51" s="33"/>
@@ -48131,7 +48138,7 @@
       <c r="T51" s="33"/>
       <c r="U51" s="33"/>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A52" s="33"/>
       <c r="B52" s="33"/>
       <c r="C52" s="33"/>
@@ -48154,7 +48161,7 @@
       <c r="T52" s="33"/>
       <c r="U52" s="33"/>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A53" s="33"/>
       <c r="B53" s="33"/>
       <c r="C53" s="33"/>
@@ -48177,7 +48184,7 @@
       <c r="T53" s="33"/>
       <c r="U53" s="33"/>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A54" s="33"/>
       <c r="B54" s="33"/>
       <c r="C54" s="33"/>
@@ -48200,7 +48207,7 @@
       <c r="T54" s="33"/>
       <c r="U54" s="33"/>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A55" s="33"/>
       <c r="B55" s="33"/>
       <c r="C55" s="33"/>
@@ -48223,7 +48230,7 @@
       <c r="T55" s="33"/>
       <c r="U55" s="33"/>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A56" s="33"/>
       <c r="B56" s="33"/>
       <c r="C56" s="33"/>
@@ -48246,7 +48253,7 @@
       <c r="T56" s="33"/>
       <c r="U56" s="33"/>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A57" s="33"/>
       <c r="B57" s="33"/>
       <c r="C57" s="33"/>
@@ -48269,7 +48276,7 @@
       <c r="T57" s="33"/>
       <c r="U57" s="33"/>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A58" s="33"/>
       <c r="B58" s="33"/>
       <c r="C58" s="33"/>
@@ -48292,7 +48299,7 @@
       <c r="T58" s="33"/>
       <c r="U58" s="33"/>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A59" s="33"/>
       <c r="B59" s="33"/>
       <c r="C59" s="33"/>
@@ -48315,7 +48322,7 @@
       <c r="T59" s="33"/>
       <c r="U59" s="33"/>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A60" s="33"/>
       <c r="B60" s="33"/>
       <c r="C60" s="33"/>
@@ -48338,7 +48345,7 @@
       <c r="T60" s="33"/>
       <c r="U60" s="33"/>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A61" s="33"/>
       <c r="B61" s="33"/>
       <c r="C61" s="33"/>
@@ -48361,7 +48368,7 @@
       <c r="T61" s="33"/>
       <c r="U61" s="33"/>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A62" s="33"/>
       <c r="B62" s="33"/>
       <c r="C62" s="33"/>
@@ -48384,7 +48391,7 @@
       <c r="T62" s="33"/>
       <c r="U62" s="33"/>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A63" s="33"/>
       <c r="B63" s="33"/>
       <c r="C63" s="33"/>
@@ -48407,7 +48414,7 @@
       <c r="T63" s="33"/>
       <c r="U63" s="33"/>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A64" s="33"/>
       <c r="B64" s="33"/>
       <c r="C64" s="33"/>
@@ -48430,7 +48437,7 @@
       <c r="T64" s="33"/>
       <c r="U64" s="33"/>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A65" s="33"/>
       <c r="B65" s="33"/>
       <c r="C65" s="33"/>
@@ -48453,7 +48460,7 @@
       <c r="T65" s="33"/>
       <c r="U65" s="33"/>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A66" s="33"/>
       <c r="B66" s="33"/>
       <c r="C66" s="33"/>
@@ -48476,7 +48483,7 @@
       <c r="T66" s="33"/>
       <c r="U66" s="33"/>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A67" s="33"/>
       <c r="B67" s="33"/>
       <c r="C67" s="33"/>
@@ -48499,7 +48506,7 @@
       <c r="T67" s="33"/>
       <c r="U67" s="33"/>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A68" s="33"/>
       <c r="B68" s="33"/>
       <c r="C68" s="33"/>
@@ -48522,7 +48529,7 @@
       <c r="T68" s="33"/>
       <c r="U68" s="33"/>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A69" s="33"/>
       <c r="B69" s="33"/>
       <c r="C69" s="33"/>
@@ -48545,7 +48552,7 @@
       <c r="T69" s="33"/>
       <c r="U69" s="33"/>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A70" s="33"/>
       <c r="B70" s="33"/>
       <c r="C70" s="33"/>
@@ -48568,7 +48575,7 @@
       <c r="T70" s="33"/>
       <c r="U70" s="33"/>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A71" s="33"/>
       <c r="B71" s="33"/>
       <c r="C71" s="33"/>
@@ -48591,7 +48598,7 @@
       <c r="T71" s="33"/>
       <c r="U71" s="33"/>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A72" s="33"/>
       <c r="B72" s="33"/>
       <c r="C72" s="33"/>
@@ -48614,7 +48621,7 @@
       <c r="T72" s="33"/>
       <c r="U72" s="33"/>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A73" s="33"/>
       <c r="B73" s="33"/>
       <c r="C73" s="33"/>
@@ -48637,7 +48644,7 @@
       <c r="T73" s="33"/>
       <c r="U73" s="33"/>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A74" s="33"/>
       <c r="B74" s="33"/>
       <c r="C74" s="33"/>
@@ -48660,7 +48667,7 @@
       <c r="T74" s="33"/>
       <c r="U74" s="33"/>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A75" s="33"/>
       <c r="B75" s="33"/>
       <c r="C75" s="33"/>
@@ -48683,7 +48690,7 @@
       <c r="T75" s="33"/>
       <c r="U75" s="33"/>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A76" s="33"/>
       <c r="B76" s="33"/>
       <c r="C76" s="33"/>
@@ -48706,7 +48713,7 @@
       <c r="T76" s="33"/>
       <c r="U76" s="33"/>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A77" s="33"/>
       <c r="B77" s="33"/>
       <c r="C77" s="33"/>
@@ -48729,7 +48736,7 @@
       <c r="T77" s="33"/>
       <c r="U77" s="33"/>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A78" s="33"/>
       <c r="B78" s="33"/>
       <c r="C78" s="33"/>
@@ -48752,7 +48759,7 @@
       <c r="T78" s="33"/>
       <c r="U78" s="33"/>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A79" s="33"/>
       <c r="B79" s="33"/>
       <c r="C79" s="33"/>
@@ -48775,7 +48782,7 @@
       <c r="T79" s="33"/>
       <c r="U79" s="33"/>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A80" s="33"/>
       <c r="B80" s="33"/>
       <c r="C80" s="33"/>
@@ -48798,7 +48805,7 @@
       <c r="T80" s="33"/>
       <c r="U80" s="33"/>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A81" s="33"/>
       <c r="B81" s="33"/>
       <c r="C81" s="33"/>
@@ -48821,7 +48828,7 @@
       <c r="T81" s="33"/>
       <c r="U81" s="33"/>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A82" s="33"/>
       <c r="B82" s="33"/>
       <c r="C82" s="33"/>
@@ -48844,7 +48851,7 @@
       <c r="T82" s="33"/>
       <c r="U82" s="33"/>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A83" s="33"/>
       <c r="B83" s="33"/>
       <c r="C83" s="33"/>
@@ -48867,7 +48874,7 @@
       <c r="T83" s="33"/>
       <c r="U83" s="33"/>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A84" s="33"/>
       <c r="B84" s="33"/>
       <c r="C84" s="33"/>
@@ -48890,7 +48897,7 @@
       <c r="T84" s="33"/>
       <c r="U84" s="33"/>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A85" s="33"/>
       <c r="B85" s="33"/>
       <c r="C85" s="33"/>
@@ -48913,7 +48920,7 @@
       <c r="T85" s="33"/>
       <c r="U85" s="33"/>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A86" s="33"/>
       <c r="B86" s="33"/>
       <c r="C86" s="33"/>
@@ -48936,7 +48943,7 @@
       <c r="T86" s="33"/>
       <c r="U86" s="33"/>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A87" s="33"/>
       <c r="B87" s="33"/>
       <c r="C87" s="33"/>
@@ -48959,7 +48966,7 @@
       <c r="T87" s="33"/>
       <c r="U87" s="33"/>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A88" s="33"/>
       <c r="B88" s="33"/>
       <c r="C88" s="33"/>
@@ -48982,7 +48989,7 @@
       <c r="T88" s="33"/>
       <c r="U88" s="33"/>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A89" s="33"/>
       <c r="B89" s="33"/>
       <c r="C89" s="33"/>
@@ -49005,7 +49012,7 @@
       <c r="T89" s="33"/>
       <c r="U89" s="33"/>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A90" s="33"/>
       <c r="B90" s="33"/>
       <c r="C90" s="33"/>
@@ -49028,7 +49035,7 @@
       <c r="T90" s="33"/>
       <c r="U90" s="33"/>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A91" s="33"/>
       <c r="B91" s="33"/>
       <c r="C91" s="33"/>
@@ -49051,7 +49058,7 @@
       <c r="T91" s="33"/>
       <c r="U91" s="33"/>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A92" s="33"/>
       <c r="B92" s="33"/>
       <c r="C92" s="33"/>
@@ -49074,7 +49081,7 @@
       <c r="T92" s="33"/>
       <c r="U92" s="33"/>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A93" s="33"/>
       <c r="B93" s="33"/>
       <c r="C93" s="33"/>
@@ -49097,7 +49104,7 @@
       <c r="T93" s="33"/>
       <c r="U93" s="33"/>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A94" s="33"/>
       <c r="B94" s="33"/>
       <c r="C94" s="33"/>
@@ -49120,7 +49127,7 @@
       <c r="T94" s="33"/>
       <c r="U94" s="33"/>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A95" s="33"/>
       <c r="B95" s="33"/>
       <c r="C95" s="33"/>
@@ -49143,7 +49150,7 @@
       <c r="T95" s="33"/>
       <c r="U95" s="33"/>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A96" s="33"/>
       <c r="B96" s="33"/>
       <c r="C96" s="33"/>
@@ -49166,7 +49173,7 @@
       <c r="T96" s="33"/>
       <c r="U96" s="33"/>
     </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A97" s="33"/>
       <c r="B97" s="33"/>
       <c r="C97" s="33"/>
@@ -49189,7 +49196,7 @@
       <c r="T97" s="33"/>
       <c r="U97" s="33"/>
     </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A98" s="33"/>
       <c r="B98" s="33"/>
       <c r="C98" s="33"/>
@@ -49212,7 +49219,7 @@
       <c r="T98" s="33"/>
       <c r="U98" s="33"/>
     </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A99" s="33"/>
       <c r="B99" s="33"/>
       <c r="C99" s="33"/>
@@ -49235,7 +49242,7 @@
       <c r="T99" s="33"/>
       <c r="U99" s="33"/>
     </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A100" s="33"/>
       <c r="B100" s="33"/>
       <c r="C100" s="33"/>
@@ -49258,7 +49265,7 @@
       <c r="T100" s="33"/>
       <c r="U100" s="33"/>
     </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A101" s="33"/>
       <c r="B101" s="33"/>
       <c r="C101" s="33"/>
@@ -49281,7 +49288,7 @@
       <c r="T101" s="33"/>
       <c r="U101" s="33"/>
     </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A102" s="33"/>
       <c r="B102" s="33"/>
       <c r="C102" s="33"/>
@@ -49304,7 +49311,7 @@
       <c r="T102" s="33"/>
       <c r="U102" s="33"/>
     </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A103" s="33"/>
       <c r="B103" s="33"/>
       <c r="C103" s="33"/>
@@ -49327,7 +49334,7 @@
       <c r="T103" s="33"/>
       <c r="U103" s="33"/>
     </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A104" s="33"/>
       <c r="B104" s="33"/>
       <c r="C104" s="33"/>
@@ -49350,7 +49357,7 @@
       <c r="T104" s="33"/>
       <c r="U104" s="33"/>
     </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A105" s="33"/>
       <c r="B105" s="33"/>
       <c r="C105" s="33"/>
@@ -49373,7 +49380,7 @@
       <c r="T105" s="33"/>
       <c r="U105" s="33"/>
     </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A106" s="33"/>
       <c r="B106" s="33"/>
       <c r="C106" s="33"/>
@@ -49396,7 +49403,7 @@
       <c r="T106" s="33"/>
       <c r="U106" s="33"/>
     </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A107" s="33"/>
       <c r="B107" s="33"/>
       <c r="C107" s="33"/>
@@ -49419,7 +49426,7 @@
       <c r="T107" s="33"/>
       <c r="U107" s="33"/>
     </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A108" s="33"/>
       <c r="B108" s="33"/>
       <c r="C108" s="33"/>
@@ -49442,7 +49449,7 @@
       <c r="T108" s="33"/>
       <c r="U108" s="33"/>
     </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A109" s="33"/>
       <c r="B109" s="33"/>
       <c r="C109" s="33"/>
@@ -49465,7 +49472,7 @@
       <c r="T109" s="33"/>
       <c r="U109" s="33"/>
     </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A110" s="33"/>
       <c r="B110" s="33"/>
       <c r="C110" s="33"/>
@@ -49488,7 +49495,7 @@
       <c r="T110" s="33"/>
       <c r="U110" s="33"/>
     </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A111" s="33"/>
       <c r="B111" s="33"/>
       <c r="C111" s="33"/>
@@ -49511,7 +49518,7 @@
       <c r="T111" s="33"/>
       <c r="U111" s="33"/>
     </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A112" s="33"/>
       <c r="B112" s="33"/>
       <c r="C112" s="33"/>
@@ -49534,7 +49541,7 @@
       <c r="T112" s="33"/>
       <c r="U112" s="33"/>
     </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A113" s="33"/>
       <c r="B113" s="33"/>
       <c r="C113" s="33"/>
@@ -49557,7 +49564,7 @@
       <c r="T113" s="33"/>
       <c r="U113" s="33"/>
     </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A114" s="33"/>
       <c r="B114" s="33"/>
       <c r="C114" s="33"/>
@@ -49580,7 +49587,7 @@
       <c r="T114" s="33"/>
       <c r="U114" s="33"/>
     </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A115" s="33"/>
       <c r="B115" s="33"/>
       <c r="C115" s="33"/>
@@ -49603,7 +49610,7 @@
       <c r="T115" s="33"/>
       <c r="U115" s="33"/>
     </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A116" s="33"/>
       <c r="B116" s="33"/>
       <c r="C116" s="33"/>
@@ -49626,7 +49633,7 @@
       <c r="T116" s="33"/>
       <c r="U116" s="33"/>
     </row>
-    <row r="117" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A117" s="33"/>
       <c r="B117" s="33"/>
       <c r="C117" s="33"/>
@@ -49649,7 +49656,7 @@
       <c r="T117" s="33"/>
       <c r="U117" s="33"/>
     </row>
-    <row r="118" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A118" s="33"/>
       <c r="B118" s="33"/>
       <c r="C118" s="33"/>
@@ -49672,7 +49679,7 @@
       <c r="T118" s="33"/>
       <c r="U118" s="33"/>
     </row>
-    <row r="119" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A119" s="33"/>
       <c r="B119" s="33"/>
       <c r="C119" s="33"/>
@@ -49695,7 +49702,7 @@
       <c r="T119" s="33"/>
       <c r="U119" s="33"/>
     </row>
-    <row r="120" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A120" s="33"/>
       <c r="B120" s="33"/>
       <c r="C120" s="33"/>
@@ -49718,7 +49725,7 @@
       <c r="T120" s="33"/>
       <c r="U120" s="33"/>
     </row>
-    <row r="121" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A121" s="33"/>
       <c r="B121" s="33"/>
       <c r="C121" s="33"/>
@@ -49741,7 +49748,7 @@
       <c r="T121" s="33"/>
       <c r="U121" s="33"/>
     </row>
-    <row r="122" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A122" s="33"/>
       <c r="B122" s="33"/>
       <c r="C122" s="33"/>
@@ -49764,7 +49771,7 @@
       <c r="T122" s="33"/>
       <c r="U122" s="33"/>
     </row>
-    <row r="123" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A123" s="33"/>
       <c r="B123" s="33"/>
       <c r="C123" s="33"/>
@@ -49787,7 +49794,7 @@
       <c r="T123" s="33"/>
       <c r="U123" s="33"/>
     </row>
-    <row r="124" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A124" s="33"/>
       <c r="B124" s="33"/>
       <c r="C124" s="33"/>
@@ -49810,7 +49817,7 @@
       <c r="T124" s="33"/>
       <c r="U124" s="33"/>
     </row>
-    <row r="125" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A125" s="33"/>
       <c r="B125" s="33"/>
       <c r="C125" s="33"/>
@@ -49833,7 +49840,7 @@
       <c r="T125" s="33"/>
       <c r="U125" s="33"/>
     </row>
-    <row r="126" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A126" s="33"/>
       <c r="B126" s="33"/>
       <c r="C126" s="33"/>
@@ -49856,7 +49863,7 @@
       <c r="T126" s="33"/>
       <c r="U126" s="33"/>
     </row>
-    <row r="127" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A127" s="33"/>
       <c r="B127" s="33"/>
       <c r="C127" s="33"/>
@@ -49879,7 +49886,7 @@
       <c r="T127" s="33"/>
       <c r="U127" s="33"/>
     </row>
-    <row r="128" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A128" s="33"/>
       <c r="B128" s="33"/>
       <c r="C128" s="33"/>
@@ -49902,7 +49909,7 @@
       <c r="T128" s="33"/>
       <c r="U128" s="33"/>
     </row>
-    <row r="129" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A129" s="33"/>
       <c r="B129" s="33"/>
       <c r="C129" s="33"/>
@@ -49925,7 +49932,7 @@
       <c r="T129" s="33"/>
       <c r="U129" s="33"/>
     </row>
-    <row r="130" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A130" s="33"/>
       <c r="B130" s="33"/>
       <c r="C130" s="33"/>
@@ -49948,7 +49955,7 @@
       <c r="T130" s="33"/>
       <c r="U130" s="33"/>
     </row>
-    <row r="131" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A131" s="33"/>
       <c r="B131" s="33"/>
       <c r="C131" s="33"/>
@@ -49971,7 +49978,7 @@
       <c r="T131" s="33"/>
       <c r="U131" s="33"/>
     </row>
-    <row r="132" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A132" s="33"/>
       <c r="B132" s="33"/>
       <c r="C132" s="33"/>
@@ -49994,7 +50001,7 @@
       <c r="T132" s="33"/>
       <c r="U132" s="33"/>
     </row>
-    <row r="133" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A133" s="33"/>
       <c r="B133" s="33"/>
       <c r="C133" s="33"/>
@@ -50017,7 +50024,7 @@
       <c r="T133" s="33"/>
       <c r="U133" s="33"/>
     </row>
-    <row r="134" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A134" s="33"/>
       <c r="B134" s="33"/>
       <c r="C134" s="33"/>
@@ -50040,7 +50047,7 @@
       <c r="T134" s="33"/>
       <c r="U134" s="33"/>
     </row>
-    <row r="135" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A135" s="33"/>
       <c r="B135" s="33"/>
       <c r="C135" s="33"/>
@@ -50063,7 +50070,7 @@
       <c r="T135" s="33"/>
       <c r="U135" s="33"/>
     </row>
-    <row r="136" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A136" s="33"/>
       <c r="B136" s="33"/>
       <c r="C136" s="33"/>
@@ -50086,7 +50093,7 @@
       <c r="T136" s="33"/>
       <c r="U136" s="33"/>
     </row>
-    <row r="137" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A137" s="33"/>
       <c r="B137" s="33"/>
       <c r="C137" s="33"/>
@@ -50109,7 +50116,7 @@
       <c r="T137" s="33"/>
       <c r="U137" s="33"/>
     </row>
-    <row r="138" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A138" s="33"/>
       <c r="B138" s="33"/>
       <c r="C138" s="33"/>
@@ -50132,7 +50139,7 @@
       <c r="T138" s="33"/>
       <c r="U138" s="33"/>
     </row>
-    <row r="139" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A139" s="33"/>
       <c r="B139" s="33"/>
       <c r="C139" s="33"/>
@@ -50155,7 +50162,7 @@
       <c r="T139" s="33"/>
       <c r="U139" s="33"/>
     </row>
-    <row r="140" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A140" s="33"/>
       <c r="B140" s="33"/>
       <c r="C140" s="33"/>
@@ -50178,7 +50185,7 @@
       <c r="T140" s="33"/>
       <c r="U140" s="33"/>
     </row>
-    <row r="141" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A141" s="33"/>
       <c r="B141" s="33"/>
       <c r="C141" s="33"/>
@@ -50201,7 +50208,7 @@
       <c r="T141" s="33"/>
       <c r="U141" s="33"/>
     </row>
-    <row r="142" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A142" s="33"/>
       <c r="B142" s="33"/>
       <c r="C142" s="33"/>
@@ -50224,7 +50231,7 @@
       <c r="T142" s="33"/>
       <c r="U142" s="33"/>
     </row>
-    <row r="143" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A143" s="33"/>
       <c r="B143" s="33"/>
       <c r="C143" s="33"/>
@@ -50247,7 +50254,7 @@
       <c r="T143" s="33"/>
       <c r="U143" s="33"/>
     </row>
-    <row r="144" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A144" s="33"/>
       <c r="B144" s="33"/>
       <c r="C144" s="33"/>
@@ -50270,7 +50277,7 @@
       <c r="T144" s="33"/>
       <c r="U144" s="33"/>
     </row>
-    <row r="145" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A145" s="33"/>
       <c r="B145" s="33"/>
       <c r="C145" s="33"/>
@@ -50293,7 +50300,7 @@
       <c r="T145" s="33"/>
       <c r="U145" s="33"/>
     </row>
-    <row r="146" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A146" s="33"/>
       <c r="B146" s="33"/>
       <c r="C146" s="33"/>
@@ -50316,7 +50323,7 @@
       <c r="T146" s="33"/>
       <c r="U146" s="33"/>
     </row>
-    <row r="147" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A147" s="33"/>
       <c r="B147" s="33"/>
       <c r="C147" s="33"/>
@@ -50339,7 +50346,7 @@
       <c r="T147" s="33"/>
       <c r="U147" s="33"/>
     </row>
-    <row r="148" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A148" s="33"/>
       <c r="B148" s="33"/>
       <c r="C148" s="33"/>
@@ -50362,7 +50369,7 @@
       <c r="T148" s="33"/>
       <c r="U148" s="33"/>
     </row>
-    <row r="149" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A149" s="33"/>
       <c r="B149" s="33"/>
       <c r="C149" s="33"/>
@@ -50385,7 +50392,7 @@
       <c r="T149" s="33"/>
       <c r="U149" s="33"/>
     </row>
-    <row r="150" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A150" s="33"/>
       <c r="B150" s="33"/>
       <c r="C150" s="33"/>
@@ -50408,7 +50415,7 @@
       <c r="T150" s="33"/>
       <c r="U150" s="33"/>
     </row>
-    <row r="151" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A151" s="33"/>
       <c r="B151" s="33"/>
       <c r="C151" s="33"/>
@@ -50431,7 +50438,7 @@
       <c r="T151" s="33"/>
       <c r="U151" s="33"/>
     </row>
-    <row r="152" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A152" s="33"/>
       <c r="B152" s="33"/>
       <c r="C152" s="33"/>
@@ -50454,7 +50461,7 @@
       <c r="T152" s="33"/>
       <c r="U152" s="33"/>
     </row>
-    <row r="153" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A153" s="33"/>
       <c r="B153" s="33"/>
       <c r="C153" s="33"/>
@@ -50477,7 +50484,7 @@
       <c r="T153" s="33"/>
       <c r="U153" s="33"/>
     </row>
-    <row r="154" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A154" s="33"/>
       <c r="B154" s="33"/>
       <c r="C154" s="33"/>
@@ -50500,7 +50507,7 @@
       <c r="T154" s="33"/>
       <c r="U154" s="33"/>
     </row>
-    <row r="155" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A155" s="33"/>
       <c r="B155" s="33"/>
       <c r="C155" s="33"/>
@@ -50523,7 +50530,7 @@
       <c r="T155" s="33"/>
       <c r="U155" s="33"/>
     </row>
-    <row r="156" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A156" s="33"/>
       <c r="B156" s="33"/>
       <c r="C156" s="33"/>
@@ -50546,7 +50553,7 @@
       <c r="T156" s="33"/>
       <c r="U156" s="33"/>
     </row>
-    <row r="157" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A157" s="33"/>
       <c r="B157" s="33"/>
       <c r="C157" s="33"/>
@@ -50569,7 +50576,7 @@
       <c r="T157" s="33"/>
       <c r="U157" s="33"/>
     </row>
-    <row r="158" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A158" s="33"/>
       <c r="B158" s="33"/>
       <c r="C158" s="33"/>
@@ -50592,7 +50599,7 @@
       <c r="T158" s="33"/>
       <c r="U158" s="33"/>
     </row>
-    <row r="159" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A159" s="33"/>
       <c r="B159" s="33"/>
       <c r="C159" s="33"/>
@@ -50615,7 +50622,7 @@
       <c r="T159" s="33"/>
       <c r="U159" s="33"/>
     </row>
-    <row r="160" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A160" s="33"/>
       <c r="B160" s="33"/>
       <c r="C160" s="33"/>
@@ -50638,7 +50645,7 @@
       <c r="T160" s="33"/>
       <c r="U160" s="33"/>
     </row>
-    <row r="161" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A161" s="33"/>
       <c r="B161" s="33"/>
       <c r="C161" s="33"/>
@@ -50661,7 +50668,7 @@
       <c r="T161" s="33"/>
       <c r="U161" s="33"/>
     </row>
-    <row r="162" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A162" s="33"/>
       <c r="B162" s="33"/>
       <c r="C162" s="33"/>
@@ -50684,7 +50691,7 @@
       <c r="T162" s="33"/>
       <c r="U162" s="33"/>
     </row>
-    <row r="163" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A163" s="33"/>
       <c r="B163" s="33"/>
       <c r="C163" s="33"/>
@@ -50707,7 +50714,7 @@
       <c r="T163" s="33"/>
       <c r="U163" s="33"/>
     </row>
-    <row r="164" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A164" s="33"/>
       <c r="B164" s="33"/>
       <c r="C164" s="33"/>
@@ -50730,7 +50737,7 @@
       <c r="T164" s="33"/>
       <c r="U164" s="33"/>
     </row>
-    <row r="165" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A165" s="33"/>
       <c r="B165" s="33"/>
       <c r="C165" s="33"/>
@@ -50753,7 +50760,7 @@
       <c r="T165" s="33"/>
       <c r="U165" s="33"/>
     </row>
-    <row r="166" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A166" s="33"/>
       <c r="B166" s="33"/>
       <c r="C166" s="33"/>
@@ -50776,7 +50783,7 @@
       <c r="T166" s="33"/>
       <c r="U166" s="33"/>
     </row>
-    <row r="167" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A167" s="33"/>
       <c r="B167" s="33"/>
       <c r="C167" s="33"/>
@@ -50799,7 +50806,7 @@
       <c r="T167" s="33"/>
       <c r="U167" s="33"/>
     </row>
-    <row r="168" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A168" s="33"/>
       <c r="B168" s="33"/>
       <c r="C168" s="33"/>
@@ -50822,7 +50829,7 @@
       <c r="T168" s="33"/>
       <c r="U168" s="33"/>
     </row>
-    <row r="169" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A169" s="33"/>
       <c r="B169" s="33"/>
       <c r="C169" s="33"/>
@@ -50845,7 +50852,7 @@
       <c r="T169" s="33"/>
       <c r="U169" s="33"/>
     </row>
-    <row r="170" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A170" s="33"/>
       <c r="B170" s="33"/>
       <c r="C170" s="33"/>
@@ -50868,7 +50875,7 @@
       <c r="T170" s="33"/>
       <c r="U170" s="33"/>
     </row>
-    <row r="171" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A171" s="33"/>
       <c r="B171" s="33"/>
       <c r="C171" s="33"/>
@@ -50891,7 +50898,7 @@
       <c r="T171" s="33"/>
       <c r="U171" s="33"/>
     </row>
-    <row r="172" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A172" s="33"/>
       <c r="B172" s="33"/>
       <c r="C172" s="33"/>
@@ -50914,7 +50921,7 @@
       <c r="T172" s="33"/>
       <c r="U172" s="33"/>
     </row>
-    <row r="173" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A173" s="33"/>
       <c r="B173" s="33"/>
       <c r="C173" s="33"/>
@@ -50937,7 +50944,7 @@
       <c r="T173" s="33"/>
       <c r="U173" s="33"/>
     </row>
-    <row r="174" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A174" s="33"/>
       <c r="B174" s="33"/>
       <c r="C174" s="33"/>
@@ -50960,7 +50967,7 @@
       <c r="T174" s="33"/>
       <c r="U174" s="33"/>
     </row>
-    <row r="175" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A175" s="33"/>
       <c r="B175" s="33"/>
       <c r="C175" s="33"/>
@@ -50983,7 +50990,7 @@
       <c r="T175" s="33"/>
       <c r="U175" s="33"/>
     </row>
-    <row r="176" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A176" s="33"/>
       <c r="B176" s="33"/>
       <c r="C176" s="33"/>
@@ -51006,7 +51013,7 @@
       <c r="T176" s="33"/>
       <c r="U176" s="33"/>
     </row>
-    <row r="177" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A177" s="33"/>
       <c r="B177" s="33"/>
       <c r="C177" s="33"/>
@@ -51029,7 +51036,7 @@
       <c r="T177" s="33"/>
       <c r="U177" s="33"/>
     </row>
-    <row r="178" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A178" s="33"/>
       <c r="B178" s="33"/>
       <c r="C178" s="33"/>
@@ -51052,7 +51059,7 @@
       <c r="T178" s="33"/>
       <c r="U178" s="33"/>
     </row>
-    <row r="179" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A179" s="33"/>
       <c r="B179" s="33"/>
       <c r="C179" s="33"/>
@@ -51075,7 +51082,7 @@
       <c r="T179" s="33"/>
       <c r="U179" s="33"/>
     </row>
-    <row r="180" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A180" s="33"/>
       <c r="B180" s="33"/>
       <c r="C180" s="33"/>
@@ -51098,7 +51105,7 @@
       <c r="T180" s="33"/>
       <c r="U180" s="33"/>
     </row>
-    <row r="181" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A181" s="33"/>
       <c r="B181" s="33"/>
       <c r="C181" s="33"/>
@@ -51121,7 +51128,7 @@
       <c r="T181" s="33"/>
       <c r="U181" s="33"/>
     </row>
-    <row r="182" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A182" s="33"/>
       <c r="B182" s="33"/>
       <c r="C182" s="33"/>
@@ -51144,7 +51151,7 @@
       <c r="T182" s="33"/>
       <c r="U182" s="33"/>
     </row>
-    <row r="183" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A183" s="33"/>
       <c r="B183" s="33"/>
       <c r="C183" s="33"/>
@@ -51167,7 +51174,7 @@
       <c r="T183" s="33"/>
       <c r="U183" s="33"/>
     </row>
-    <row r="184" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A184" s="33"/>
       <c r="B184" s="33"/>
       <c r="C184" s="33"/>
@@ -51190,7 +51197,7 @@
       <c r="T184" s="33"/>
       <c r="U184" s="33"/>
     </row>
-    <row r="185" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A185" s="33"/>
       <c r="B185" s="33"/>
       <c r="C185" s="33"/>
@@ -51213,7 +51220,7 @@
       <c r="T185" s="33"/>
       <c r="U185" s="33"/>
     </row>
-    <row r="186" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A186" s="33"/>
       <c r="B186" s="33"/>
       <c r="C186" s="33"/>
@@ -51236,7 +51243,7 @@
       <c r="T186" s="33"/>
       <c r="U186" s="33"/>
     </row>
-    <row r="187" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A187" s="33"/>
       <c r="B187" s="33"/>
       <c r="C187" s="33"/>
@@ -51259,7 +51266,7 @@
       <c r="T187" s="33"/>
       <c r="U187" s="33"/>
     </row>
-    <row r="188" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A188" s="33"/>
       <c r="B188" s="33"/>
       <c r="C188" s="33"/>
@@ -51282,7 +51289,7 @@
       <c r="T188" s="33"/>
       <c r="U188" s="33"/>
     </row>
-    <row r="189" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A189" s="33"/>
       <c r="B189" s="33"/>
       <c r="C189" s="33"/>
@@ -51305,7 +51312,7 @@
       <c r="T189" s="33"/>
       <c r="U189" s="33"/>
     </row>
-    <row r="190" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A190" s="33"/>
       <c r="B190" s="33"/>
       <c r="C190" s="33"/>
@@ -51328,7 +51335,7 @@
       <c r="T190" s="33"/>
       <c r="U190" s="33"/>
     </row>
-    <row r="191" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A191" s="33"/>
       <c r="B191" s="33"/>
       <c r="C191" s="33"/>
@@ -51351,7 +51358,7 @@
       <c r="T191" s="33"/>
       <c r="U191" s="33"/>
     </row>
-    <row r="192" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A192" s="33"/>
       <c r="B192" s="33"/>
       <c r="C192" s="33"/>
@@ -51374,7 +51381,7 @@
       <c r="T192" s="33"/>
       <c r="U192" s="33"/>
     </row>
-    <row r="193" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A193" s="33"/>
       <c r="B193" s="33"/>
       <c r="C193" s="33"/>
@@ -51397,7 +51404,7 @@
       <c r="T193" s="33"/>
       <c r="U193" s="33"/>
     </row>
-    <row r="194" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A194" s="33"/>
       <c r="B194" s="33"/>
       <c r="C194" s="33"/>
@@ -51420,7 +51427,7 @@
       <c r="T194" s="33"/>
       <c r="U194" s="33"/>
     </row>
-    <row r="195" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A195" s="33"/>
       <c r="B195" s="33"/>
       <c r="C195" s="33"/>
@@ -51443,7 +51450,7 @@
       <c r="T195" s="33"/>
       <c r="U195" s="33"/>
     </row>
-    <row r="196" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A196" s="33"/>
       <c r="B196" s="33"/>
       <c r="C196" s="33"/>
@@ -51466,7 +51473,7 @@
       <c r="T196" s="33"/>
       <c r="U196" s="33"/>
     </row>
-    <row r="197" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A197" s="33"/>
       <c r="B197" s="33"/>
       <c r="C197" s="33"/>
@@ -51489,7 +51496,7 @@
       <c r="T197" s="33"/>
       <c r="U197" s="33"/>
     </row>
-    <row r="198" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A198" s="33"/>
       <c r="B198" s="33"/>
       <c r="C198" s="33"/>
@@ -51512,7 +51519,7 @@
       <c r="T198" s="33"/>
       <c r="U198" s="33"/>
     </row>
-    <row r="199" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A199" s="33"/>
       <c r="B199" s="33"/>
       <c r="C199" s="33"/>
@@ -51535,7 +51542,7 @@
       <c r="T199" s="33"/>
       <c r="U199" s="33"/>
     </row>
-    <row r="200" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A200" s="33"/>
       <c r="B200" s="33"/>
       <c r="C200" s="33"/>
@@ -51558,7 +51565,7 @@
       <c r="T200" s="33"/>
       <c r="U200" s="33"/>
     </row>
-    <row r="201" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A201" s="33"/>
       <c r="B201" s="33"/>
       <c r="C201" s="33"/>
@@ -51581,7 +51588,7 @@
       <c r="T201" s="33"/>
       <c r="U201" s="33"/>
     </row>
-    <row r="202" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A202" s="33"/>
       <c r="B202" s="33"/>
       <c r="C202" s="33"/>
@@ -51604,7 +51611,7 @@
       <c r="T202" s="33"/>
       <c r="U202" s="33"/>
     </row>
-    <row r="203" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A203" s="33"/>
       <c r="B203" s="33"/>
       <c r="C203" s="33"/>
@@ -51627,7 +51634,7 @@
       <c r="T203" s="33"/>
       <c r="U203" s="33"/>
     </row>
-    <row r="204" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A204" s="33"/>
       <c r="B204" s="33"/>
       <c r="C204" s="33"/>
@@ -51650,7 +51657,7 @@
       <c r="T204" s="33"/>
       <c r="U204" s="33"/>
     </row>
-    <row r="205" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A205" s="33"/>
       <c r="B205" s="33"/>
       <c r="C205" s="33"/>
@@ -51673,7 +51680,7 @@
       <c r="T205" s="33"/>
       <c r="U205" s="33"/>
     </row>
-    <row r="206" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A206" s="33"/>
       <c r="B206" s="33"/>
       <c r="C206" s="33"/>
@@ -51696,7 +51703,7 @@
       <c r="T206" s="33"/>
       <c r="U206" s="33"/>
     </row>
-    <row r="207" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A207" s="33"/>
       <c r="B207" s="33"/>
       <c r="C207" s="33"/>
@@ -51719,7 +51726,7 @@
       <c r="T207" s="33"/>
       <c r="U207" s="33"/>
     </row>
-    <row r="208" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A208" s="33"/>
       <c r="B208" s="33"/>
       <c r="C208" s="33"/>
@@ -51742,7 +51749,7 @@
       <c r="T208" s="33"/>
       <c r="U208" s="33"/>
     </row>
-    <row r="209" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A209" s="33"/>
       <c r="B209" s="33"/>
       <c r="C209" s="33"/>
@@ -51765,7 +51772,7 @@
       <c r="T209" s="33"/>
       <c r="U209" s="33"/>
     </row>
-    <row r="210" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A210" s="33"/>
       <c r="B210" s="33"/>
       <c r="C210" s="33"/>
@@ -51788,7 +51795,7 @@
       <c r="T210" s="33"/>
       <c r="U210" s="33"/>
     </row>
-    <row r="211" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A211" s="33"/>
       <c r="B211" s="33"/>
       <c r="C211" s="33"/>
@@ -51811,7 +51818,7 @@
       <c r="T211" s="33"/>
       <c r="U211" s="33"/>
     </row>
-    <row r="212" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A212" s="33"/>
       <c r="B212" s="33"/>
       <c r="C212" s="33"/>
@@ -51834,7 +51841,7 @@
       <c r="T212" s="33"/>
       <c r="U212" s="33"/>
     </row>
-    <row r="213" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A213" s="33"/>
       <c r="B213" s="33"/>
       <c r="C213" s="33"/>
@@ -51857,7 +51864,7 @@
       <c r="T213" s="33"/>
       <c r="U213" s="33"/>
     </row>
-    <row r="214" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A214" s="33"/>
       <c r="B214" s="33"/>
       <c r="C214" s="33"/>
@@ -51880,7 +51887,7 @@
       <c r="T214" s="33"/>
       <c r="U214" s="33"/>
     </row>
-    <row r="215" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A215" s="33"/>
       <c r="B215" s="33"/>
       <c r="C215" s="33"/>
@@ -51903,7 +51910,7 @@
       <c r="T215" s="33"/>
       <c r="U215" s="33"/>
     </row>
-    <row r="216" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A216" s="33"/>
       <c r="B216" s="33"/>
       <c r="C216" s="33"/>
@@ -51926,7 +51933,7 @@
       <c r="T216" s="33"/>
       <c r="U216" s="33"/>
     </row>
-    <row r="217" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A217" s="33"/>
       <c r="B217" s="33"/>
       <c r="C217" s="33"/>
@@ -51949,7 +51956,7 @@
       <c r="T217" s="33"/>
       <c r="U217" s="33"/>
     </row>
-    <row r="218" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A218" s="33"/>
       <c r="B218" s="33"/>
       <c r="C218" s="33"/>
@@ -51972,7 +51979,7 @@
       <c r="T218" s="33"/>
       <c r="U218" s="33"/>
     </row>
-    <row r="219" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A219" s="33"/>
       <c r="B219" s="33"/>
       <c r="C219" s="33"/>
@@ -51995,7 +52002,7 @@
       <c r="T219" s="33"/>
       <c r="U219" s="33"/>
     </row>
-    <row r="220" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A220" s="33"/>
       <c r="B220" s="33"/>
       <c r="C220" s="33"/>
@@ -52018,7 +52025,7 @@
       <c r="T220" s="33"/>
       <c r="U220" s="33"/>
     </row>
-    <row r="221" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A221" s="33"/>
       <c r="B221" s="33"/>
       <c r="C221" s="33"/>
@@ -52041,7 +52048,7 @@
       <c r="T221" s="33"/>
       <c r="U221" s="33"/>
     </row>
-    <row r="222" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A222" s="33"/>
       <c r="B222" s="33"/>
       <c r="C222" s="33"/>
@@ -52064,7 +52071,7 @@
       <c r="T222" s="33"/>
       <c r="U222" s="33"/>
     </row>
-    <row r="223" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A223" s="33"/>
       <c r="B223" s="33"/>
       <c r="C223" s="33"/>
@@ -52087,7 +52094,7 @@
       <c r="T223" s="33"/>
       <c r="U223" s="33"/>
     </row>
-    <row r="224" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A224" s="33"/>
       <c r="B224" s="33"/>
       <c r="C224" s="33"/>
@@ -52110,7 +52117,7 @@
       <c r="T224" s="33"/>
       <c r="U224" s="33"/>
     </row>
-    <row r="225" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A225" s="33"/>
       <c r="B225" s="33"/>
       <c r="C225" s="33"/>
@@ -52133,7 +52140,7 @@
       <c r="T225" s="33"/>
       <c r="U225" s="33"/>
     </row>
-    <row r="226" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A226" s="33"/>
       <c r="B226" s="33"/>
       <c r="C226" s="33"/>
@@ -52156,7 +52163,7 @@
       <c r="T226" s="33"/>
       <c r="U226" s="33"/>
     </row>
-    <row r="227" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A227" s="33"/>
       <c r="B227" s="33"/>
       <c r="C227" s="33"/>
@@ -52179,7 +52186,7 @@
       <c r="T227" s="33"/>
       <c r="U227" s="33"/>
     </row>
-    <row r="228" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A228" s="33"/>
       <c r="B228" s="33"/>
       <c r="C228" s="33"/>
@@ -52202,7 +52209,7 @@
       <c r="T228" s="33"/>
       <c r="U228" s="33"/>
     </row>
-    <row r="229" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A229" s="33"/>
       <c r="B229" s="33"/>
       <c r="C229" s="33"/>
@@ -52225,7 +52232,7 @@
       <c r="T229" s="33"/>
       <c r="U229" s="33"/>
     </row>
-    <row r="230" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A230" s="33"/>
       <c r="B230" s="33"/>
       <c r="C230" s="33"/>
@@ -52248,7 +52255,7 @@
       <c r="T230" s="33"/>
       <c r="U230" s="33"/>
     </row>
-    <row r="231" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A231" s="33"/>
       <c r="B231" s="33"/>
       <c r="C231" s="33"/>
@@ -52271,7 +52278,7 @@
       <c r="T231" s="33"/>
       <c r="U231" s="33"/>
     </row>
-    <row r="232" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A232" s="33"/>
       <c r="B232" s="33"/>
       <c r="C232" s="33"/>
@@ -52294,7 +52301,7 @@
       <c r="T232" s="33"/>
       <c r="U232" s="33"/>
     </row>
-    <row r="233" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A233" s="33"/>
       <c r="B233" s="33"/>
       <c r="C233" s="33"/>
@@ -52317,7 +52324,7 @@
       <c r="T233" s="33"/>
       <c r="U233" s="33"/>
     </row>
-    <row r="234" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A234" s="33"/>
       <c r="B234" s="33"/>
       <c r="C234" s="33"/>
@@ -52340,7 +52347,7 @@
       <c r="T234" s="33"/>
       <c r="U234" s="33"/>
     </row>
-    <row r="235" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A235" s="33"/>
       <c r="B235" s="33"/>
       <c r="C235" s="33"/>
@@ -52363,7 +52370,7 @@
       <c r="T235" s="33"/>
       <c r="U235" s="33"/>
     </row>
-    <row r="236" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A236" s="33"/>
       <c r="B236" s="33"/>
       <c r="C236" s="33"/>
@@ -52386,7 +52393,7 @@
       <c r="T236" s="33"/>
       <c r="U236" s="33"/>
     </row>
-    <row r="237" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A237" s="33"/>
       <c r="B237" s="33"/>
       <c r="C237" s="33"/>
@@ -52409,7 +52416,7 @@
       <c r="T237" s="33"/>
       <c r="U237" s="33"/>
     </row>
-    <row r="238" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A238" s="33"/>
       <c r="B238" s="33"/>
       <c r="C238" s="33"/>
@@ -52432,7 +52439,7 @@
       <c r="T238" s="33"/>
       <c r="U238" s="33"/>
     </row>
-    <row r="239" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A239" s="33"/>
       <c r="B239" s="33"/>
       <c r="C239" s="33"/>
@@ -52455,7 +52462,7 @@
       <c r="T239" s="33"/>
       <c r="U239" s="33"/>
     </row>
-    <row r="240" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A240" s="33"/>
       <c r="B240" s="33"/>
       <c r="C240" s="33"/>
@@ -52478,7 +52485,7 @@
       <c r="T240" s="33"/>
       <c r="U240" s="33"/>
     </row>
-    <row r="241" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A241" s="33"/>
       <c r="B241" s="33"/>
       <c r="C241" s="33"/>
@@ -52501,7 +52508,7 @@
       <c r="T241" s="33"/>
       <c r="U241" s="33"/>
     </row>
-    <row r="242" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A242" s="33"/>
       <c r="B242" s="33"/>
       <c r="C242" s="33"/>
@@ -52524,7 +52531,7 @@
       <c r="T242" s="33"/>
       <c r="U242" s="33"/>
     </row>
-    <row r="243" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A243" s="33"/>
       <c r="B243" s="33"/>
       <c r="C243" s="33"/>
@@ -52547,7 +52554,7 @@
       <c r="T243" s="33"/>
       <c r="U243" s="33"/>
     </row>
-    <row r="244" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A244" s="33"/>
       <c r="B244" s="33"/>
       <c r="C244" s="33"/>
@@ -52570,7 +52577,7 @@
       <c r="T244" s="33"/>
       <c r="U244" s="33"/>
     </row>
-    <row r="245" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A245" s="33"/>
       <c r="B245" s="33"/>
       <c r="C245" s="33"/>
@@ -52593,7 +52600,7 @@
       <c r="T245" s="33"/>
       <c r="U245" s="33"/>
     </row>
-    <row r="246" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A246" s="33"/>
       <c r="B246" s="33"/>
       <c r="C246" s="33"/>
@@ -52616,7 +52623,7 @@
       <c r="T246" s="33"/>
       <c r="U246" s="33"/>
     </row>
-    <row r="247" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A247" s="33"/>
       <c r="B247" s="33"/>
       <c r="C247" s="33"/>
@@ -52639,7 +52646,7 @@
       <c r="T247" s="33"/>
       <c r="U247" s="33"/>
     </row>
-    <row r="248" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A248" s="33"/>
       <c r="B248" s="33"/>
       <c r="C248" s="33"/>
@@ -52662,7 +52669,7 @@
       <c r="T248" s="33"/>
       <c r="U248" s="33"/>
     </row>
-    <row r="249" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A249" s="33"/>
       <c r="B249" s="33"/>
       <c r="C249" s="33"/>
@@ -52685,7 +52692,7 @@
       <c r="T249" s="33"/>
       <c r="U249" s="33"/>
     </row>
-    <row r="250" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A250" s="33"/>
       <c r="B250" s="33"/>
       <c r="C250" s="33"/>
@@ -52708,7 +52715,7 @@
       <c r="T250" s="33"/>
       <c r="U250" s="33"/>
     </row>
-    <row r="251" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A251" s="33"/>
       <c r="B251" s="33"/>
       <c r="C251" s="33"/>
@@ -52731,7 +52738,7 @@
       <c r="T251" s="33"/>
       <c r="U251" s="33"/>
     </row>
-    <row r="252" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A252" s="33"/>
       <c r="B252" s="33"/>
       <c r="C252" s="33"/>
@@ -52754,7 +52761,7 @@
       <c r="T252" s="33"/>
       <c r="U252" s="33"/>
     </row>
-    <row r="253" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A253" s="33"/>
       <c r="B253" s="33"/>
       <c r="C253" s="33"/>
@@ -52777,7 +52784,7 @@
       <c r="T253" s="33"/>
       <c r="U253" s="33"/>
     </row>
-    <row r="254" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A254" s="33"/>
       <c r="B254" s="33"/>
       <c r="C254" s="33"/>
@@ -52800,7 +52807,7 @@
       <c r="T254" s="33"/>
       <c r="U254" s="33"/>
     </row>
-    <row r="255" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A255" s="33"/>
       <c r="B255" s="33"/>
       <c r="C255" s="33"/>
@@ -52823,7 +52830,7 @@
       <c r="T255" s="33"/>
       <c r="U255" s="33"/>
     </row>
-    <row r="256" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A256" s="33"/>
       <c r="B256" s="33"/>
       <c r="C256" s="33"/>
@@ -52846,7 +52853,7 @@
       <c r="T256" s="33"/>
       <c r="U256" s="33"/>
     </row>
-    <row r="257" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A257" s="33"/>
       <c r="B257" s="33"/>
       <c r="C257" s="33"/>
@@ -52869,7 +52876,7 @@
       <c r="T257" s="33"/>
       <c r="U257" s="33"/>
     </row>
-    <row r="258" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A258" s="33"/>
       <c r="B258" s="33"/>
       <c r="C258" s="33"/>
@@ -52892,7 +52899,7 @@
       <c r="T258" s="33"/>
       <c r="U258" s="33"/>
     </row>
-    <row r="259" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A259" s="33"/>
       <c r="B259" s="33"/>
       <c r="C259" s="33"/>
@@ -52915,7 +52922,7 @@
       <c r="T259" s="33"/>
       <c r="U259" s="33"/>
     </row>
-    <row r="260" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A260" s="33"/>
       <c r="B260" s="33"/>
       <c r="C260" s="33"/>
@@ -52938,7 +52945,7 @@
       <c r="T260" s="33"/>
       <c r="U260" s="33"/>
     </row>
-    <row r="261" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A261" s="33"/>
       <c r="B261" s="33"/>
       <c r="C261" s="33"/>
@@ -52961,7 +52968,7 @@
       <c r="T261" s="33"/>
       <c r="U261" s="33"/>
     </row>
-    <row r="262" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A262" s="33"/>
       <c r="B262" s="33"/>
       <c r="C262" s="33"/>
@@ -52984,7 +52991,7 @@
       <c r="T262" s="33"/>
       <c r="U262" s="33"/>
     </row>
-    <row r="263" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A263" s="33"/>
       <c r="B263" s="33"/>
       <c r="C263" s="33"/>
@@ -53007,7 +53014,7 @@
       <c r="T263" s="33"/>
       <c r="U263" s="33"/>
     </row>
-    <row r="264" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A264" s="33"/>
       <c r="B264" s="33"/>
       <c r="C264" s="33"/>
@@ -53030,7 +53037,7 @@
       <c r="T264" s="33"/>
       <c r="U264" s="33"/>
     </row>
-    <row r="265" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A265" s="33"/>
       <c r="B265" s="33"/>
       <c r="C265" s="33"/>
@@ -53053,7 +53060,7 @@
       <c r="T265" s="33"/>
       <c r="U265" s="33"/>
     </row>
-    <row r="266" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A266" s="33"/>
       <c r="B266" s="33"/>
       <c r="C266" s="33"/>
@@ -53076,7 +53083,7 @@
       <c r="T266" s="33"/>
       <c r="U266" s="33"/>
     </row>
-    <row r="267" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A267" s="33"/>
       <c r="B267" s="33"/>
       <c r="C267" s="33"/>
@@ -53099,7 +53106,7 @@
       <c r="T267" s="33"/>
       <c r="U267" s="33"/>
     </row>
-    <row r="268" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A268" s="33"/>
       <c r="B268" s="33"/>
       <c r="C268" s="33"/>
@@ -53122,7 +53129,7 @@
       <c r="T268" s="33"/>
       <c r="U268" s="33"/>
     </row>
-    <row r="269" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A269" s="33"/>
       <c r="B269" s="33"/>
       <c r="C269" s="33"/>
@@ -53145,7 +53152,7 @@
       <c r="T269" s="33"/>
       <c r="U269" s="33"/>
     </row>
-    <row r="270" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A270" s="33"/>
       <c r="B270" s="33"/>
       <c r="C270" s="33"/>
@@ -53168,7 +53175,7 @@
       <c r="T270" s="33"/>
       <c r="U270" s="33"/>
     </row>
-    <row r="271" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A271" s="33"/>
       <c r="B271" s="33"/>
       <c r="C271" s="33"/>
@@ -53191,7 +53198,7 @@
       <c r="T271" s="33"/>
       <c r="U271" s="33"/>
     </row>
-    <row r="272" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A272" s="33"/>
       <c r="B272" s="33"/>
       <c r="C272" s="33"/>
@@ -53214,7 +53221,7 @@
       <c r="T272" s="33"/>
       <c r="U272" s="33"/>
     </row>
-    <row r="273" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A273" s="33"/>
       <c r="B273" s="33"/>
       <c r="C273" s="33"/>
@@ -53237,7 +53244,7 @@
       <c r="T273" s="33"/>
       <c r="U273" s="33"/>
     </row>
-    <row r="274" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A274" s="33"/>
       <c r="B274" s="33"/>
       <c r="C274" s="33"/>
@@ -53260,7 +53267,7 @@
       <c r="T274" s="33"/>
       <c r="U274" s="33"/>
     </row>
-    <row r="275" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A275" s="33"/>
       <c r="B275" s="33"/>
       <c r="C275" s="33"/>
@@ -53283,7 +53290,7 @@
       <c r="T275" s="33"/>
       <c r="U275" s="33"/>
     </row>
-    <row r="276" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A276" s="33"/>
       <c r="B276" s="33"/>
       <c r="C276" s="33"/>
@@ -53306,7 +53313,7 @@
       <c r="T276" s="33"/>
       <c r="U276" s="33"/>
     </row>
-    <row r="277" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A277" s="33"/>
       <c r="B277" s="33"/>
       <c r="C277" s="33"/>
@@ -53329,7 +53336,7 @@
       <c r="T277" s="33"/>
       <c r="U277" s="33"/>
     </row>
-    <row r="278" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A278" s="33"/>
       <c r="B278" s="33"/>
       <c r="C278" s="33"/>
@@ -53352,7 +53359,7 @@
       <c r="T278" s="33"/>
       <c r="U278" s="33"/>
     </row>
-    <row r="279" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A279" s="33"/>
       <c r="B279" s="33"/>
       <c r="C279" s="33"/>
@@ -53375,7 +53382,7 @@
       <c r="T279" s="33"/>
       <c r="U279" s="33"/>
     </row>
-    <row r="280" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A280" s="33"/>
       <c r="B280" s="33"/>
       <c r="C280" s="33"/>
@@ -53398,7 +53405,7 @@
       <c r="T280" s="33"/>
       <c r="U280" s="33"/>
     </row>
-    <row r="281" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A281" s="33"/>
       <c r="B281" s="33"/>
       <c r="C281" s="33"/>
@@ -53421,7 +53428,7 @@
       <c r="T281" s="33"/>
       <c r="U281" s="33"/>
     </row>
-    <row r="282" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A282" s="33"/>
       <c r="B282" s="33"/>
       <c r="C282" s="33"/>
@@ -53444,7 +53451,7 @@
       <c r="T282" s="33"/>
       <c r="U282" s="33"/>
     </row>
-    <row r="283" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A283" s="33"/>
       <c r="B283" s="33"/>
       <c r="C283" s="33"/>
@@ -53467,7 +53474,7 @@
       <c r="T283" s="33"/>
       <c r="U283" s="33"/>
     </row>
-    <row r="284" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A284" s="33"/>
       <c r="B284" s="33"/>
       <c r="C284" s="33"/>
@@ -53490,7 +53497,7 @@
       <c r="T284" s="33"/>
       <c r="U284" s="33"/>
     </row>
-    <row r="285" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A285" s="33"/>
       <c r="B285" s="33"/>
       <c r="C285" s="33"/>
@@ -53513,7 +53520,7 @@
       <c r="T285" s="33"/>
       <c r="U285" s="33"/>
     </row>
-    <row r="286" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A286" s="33"/>
       <c r="B286" s="33"/>
       <c r="C286" s="33"/>
@@ -53536,7 +53543,7 @@
       <c r="T286" s="33"/>
       <c r="U286" s="33"/>
     </row>
-    <row r="287" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A287" s="33"/>
       <c r="B287" s="33"/>
       <c r="C287" s="33"/>
@@ -53559,7 +53566,7 @@
       <c r="T287" s="33"/>
       <c r="U287" s="33"/>
     </row>
-    <row r="288" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A288" s="33"/>
       <c r="B288" s="33"/>
       <c r="C288" s="33"/>
@@ -53582,7 +53589,7 @@
       <c r="T288" s="33"/>
       <c r="U288" s="33"/>
     </row>
-    <row r="289" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A289" s="33"/>
       <c r="B289" s="33"/>
       <c r="C289" s="33"/>
@@ -53605,7 +53612,7 @@
       <c r="T289" s="33"/>
       <c r="U289" s="33"/>
     </row>
-    <row r="290" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A290" s="33"/>
       <c r="B290" s="33"/>
       <c r="C290" s="33"/>
@@ -53628,7 +53635,7 @@
       <c r="T290" s="33"/>
       <c r="U290" s="33"/>
     </row>
-    <row r="291" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A291" s="33"/>
       <c r="B291" s="33"/>
       <c r="C291" s="33"/>
@@ -53651,7 +53658,7 @@
       <c r="T291" s="33"/>
       <c r="U291" s="33"/>
     </row>
-    <row r="292" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A292" s="33"/>
       <c r="B292" s="33"/>
       <c r="C292" s="33"/>
@@ -53674,7 +53681,7 @@
       <c r="T292" s="33"/>
       <c r="U292" s="33"/>
     </row>
-    <row r="293" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A293" s="33"/>
       <c r="B293" s="33"/>
       <c r="C293" s="33"/>
@@ -53697,7 +53704,7 @@
       <c r="T293" s="33"/>
       <c r="U293" s="33"/>
     </row>
-    <row r="294" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A294" s="33"/>
       <c r="B294" s="33"/>
       <c r="C294" s="33"/>
@@ -53720,7 +53727,7 @@
       <c r="T294" s="33"/>
       <c r="U294" s="33"/>
     </row>
-    <row r="295" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A295" s="33"/>
       <c r="B295" s="33"/>
       <c r="C295" s="33"/>
@@ -53743,7 +53750,7 @@
       <c r="T295" s="33"/>
       <c r="U295" s="33"/>
     </row>
-    <row r="296" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A296" s="33"/>
       <c r="B296" s="33"/>
       <c r="C296" s="33"/>
@@ -53766,7 +53773,7 @@
       <c r="T296" s="33"/>
       <c r="U296" s="33"/>
     </row>
-    <row r="297" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A297" s="33"/>
       <c r="B297" s="33"/>
       <c r="C297" s="33"/>
@@ -53789,7 +53796,7 @@
       <c r="T297" s="33"/>
       <c r="U297" s="33"/>
     </row>
-    <row r="298" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A298" s="33"/>
       <c r="B298" s="33"/>
       <c r="C298" s="33"/>
@@ -53812,7 +53819,7 @@
       <c r="T298" s="33"/>
       <c r="U298" s="33"/>
     </row>
-    <row r="299" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A299" s="33"/>
       <c r="B299" s="33"/>
       <c r="C299" s="33"/>
@@ -53835,7 +53842,7 @@
       <c r="T299" s="33"/>
       <c r="U299" s="33"/>
     </row>
-    <row r="300" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A300" s="33"/>
       <c r="B300" s="33"/>
       <c r="C300" s="33"/>
@@ -53858,7 +53865,7 @@
       <c r="T300" s="33"/>
       <c r="U300" s="33"/>
     </row>
-    <row r="301" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A301" s="33"/>
       <c r="B301" s="33"/>
       <c r="C301" s="33"/>
@@ -53881,7 +53888,7 @@
       <c r="T301" s="33"/>
       <c r="U301" s="33"/>
     </row>
-    <row r="302" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A302" s="33"/>
       <c r="B302" s="33"/>
       <c r="C302" s="33"/>
@@ -53904,7 +53911,7 @@
       <c r="T302" s="33"/>
       <c r="U302" s="33"/>
     </row>
-    <row r="303" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A303" s="33"/>
       <c r="B303" s="33"/>
       <c r="C303" s="33"/>
@@ -53927,7 +53934,7 @@
       <c r="T303" s="33"/>
       <c r="U303" s="33"/>
     </row>
-    <row r="304" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A304" s="33"/>
       <c r="B304" s="33"/>
       <c r="C304" s="33"/>
@@ -53950,7 +53957,7 @@
       <c r="T304" s="33"/>
       <c r="U304" s="33"/>
     </row>
-    <row r="305" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A305" s="33"/>
       <c r="B305" s="33"/>
       <c r="C305" s="33"/>
@@ -53973,7 +53980,7 @@
       <c r="T305" s="33"/>
       <c r="U305" s="33"/>
     </row>
-    <row r="306" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A306" s="33"/>
       <c r="B306" s="33"/>
       <c r="C306" s="33"/>
@@ -53996,7 +54003,7 @@
       <c r="T306" s="33"/>
       <c r="U306" s="33"/>
     </row>
-    <row r="307" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A307" s="33"/>
       <c r="B307" s="33"/>
       <c r="C307" s="33"/>
@@ -54036,7 +54043,7 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -54050,7 +54057,7 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Offline/BusinessManagement/ProfitabilitySheet.xlsx
+++ b/Offline/BusinessManagement/ProfitabilitySheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Offline\BusinessManagement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07917E5C-90CF-4609-871F-7CFC656D6AE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71847059-F020-497C-8E49-7377413F9014}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,16 +25,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1410,6 +1400,48 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="13" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="20" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1447,48 +1479,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="20" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="13" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1782,7 +1772,6 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:AN403"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="119" zoomScaleNormal="110" workbookViewId="0">
@@ -1792,7 +1781,7 @@
       <selection pane="bottomRight" activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="13.15" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="13.5" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="31.33203125" style="2" customWidth="1"/>
     <col min="2" max="2" width="21.86328125" style="1" customWidth="1"/>
@@ -1828,181 +1817,181 @@
     <col min="38" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="F1" s="51" t="s">
+    <row r="1" spans="1:40" ht="13.15" x14ac:dyDescent="0.45">
+      <c r="F1" s="35" t="s">
         <v>275</v>
       </c>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
-      <c r="O1" s="51"/>
-      <c r="P1" s="51"/>
-      <c r="Q1" s="51"/>
-      <c r="R1" s="51"/>
-      <c r="S1" s="51"/>
-      <c r="T1" s="51"/>
-      <c r="U1" s="52"/>
-      <c r="V1" s="53" t="s">
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="35"/>
+      <c r="T1" s="35"/>
+      <c r="U1" s="36"/>
+      <c r="V1" s="37" t="s">
         <v>296</v>
       </c>
-      <c r="W1" s="54"/>
-      <c r="X1" s="54"/>
-      <c r="Y1" s="54"/>
-      <c r="Z1" s="55"/>
-      <c r="AA1" s="56" t="s">
+      <c r="W1" s="38"/>
+      <c r="X1" s="38"/>
+      <c r="Y1" s="38"/>
+      <c r="Z1" s="39"/>
+      <c r="AA1" s="40" t="s">
         <v>295</v>
       </c>
-      <c r="AB1" s="57"/>
-      <c r="AC1" s="57"/>
-      <c r="AD1" s="57"/>
-      <c r="AE1" s="58"/>
-      <c r="AF1" s="35" t="s">
+      <c r="AB1" s="41"/>
+      <c r="AC1" s="41"/>
+      <c r="AD1" s="41"/>
+      <c r="AE1" s="42"/>
+      <c r="AF1" s="49" t="s">
         <v>303</v>
       </c>
-      <c r="AG1" s="36"/>
-      <c r="AH1" s="36"/>
-      <c r="AI1" s="36"/>
-      <c r="AJ1" s="37"/>
-      <c r="AK1" s="42" t="s">
+      <c r="AG1" s="50"/>
+      <c r="AH1" s="50"/>
+      <c r="AI1" s="50"/>
+      <c r="AJ1" s="51"/>
+      <c r="AK1" s="56" t="s">
         <v>297</v>
       </c>
-      <c r="AL1" s="43"/>
-      <c r="AM1" s="43"/>
-      <c r="AN1" s="43"/>
+      <c r="AL1" s="57"/>
+      <c r="AM1" s="57"/>
+      <c r="AN1" s="57"/>
     </row>
     <row r="2" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="48" t="s">
+      <c r="C2" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="48" t="s">
+      <c r="D2" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="48" t="s">
+      <c r="E2" s="47" t="s">
         <v>130</v>
       </c>
-      <c r="F2" s="49" t="s">
+      <c r="F2" s="48" t="s">
         <v>73</v>
       </c>
-      <c r="G2" s="49" t="s">
+      <c r="G2" s="48" t="s">
         <v>273</v>
       </c>
-      <c r="H2" s="48" t="s">
+      <c r="H2" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="48" t="s">
+      <c r="I2" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="48" t="s">
+      <c r="J2" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48" t="s">
+      <c r="K2" s="47"/>
+      <c r="L2" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="M2" s="48"/>
-      <c r="N2" s="48" t="s">
+      <c r="M2" s="47"/>
+      <c r="N2" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="48" t="s">
+      <c r="O2" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="P2" s="48" t="s">
+      <c r="P2" s="47" t="s">
         <v>66</v>
       </c>
-      <c r="Q2" s="48" t="s">
+      <c r="Q2" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="R2" s="48" t="s">
+      <c r="R2" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="S2" s="48" t="s">
+      <c r="S2" s="47" t="s">
         <v>66</v>
       </c>
-      <c r="T2" s="48" t="s">
+      <c r="T2" s="47" t="s">
         <v>77</v>
       </c>
-      <c r="U2" s="48" t="s">
+      <c r="U2" s="47" t="s">
         <v>173</v>
       </c>
-      <c r="V2" s="50" t="s">
+      <c r="V2" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="W2" s="50" t="s">
+      <c r="W2" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="X2" s="61" t="s">
+      <c r="X2" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="Y2" s="50" t="s">
+      <c r="Y2" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="Z2" s="50" t="s">
+      <c r="Z2" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="AA2" s="59" t="s">
+      <c r="AA2" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="AB2" s="59" t="s">
+      <c r="AB2" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="AC2" s="60" t="s">
+      <c r="AC2" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="AD2" s="59" t="s">
+      <c r="AD2" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="AE2" s="59" t="s">
+      <c r="AE2" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="AF2" s="44" t="s">
+      <c r="AF2" s="58" t="s">
         <v>302</v>
       </c>
-      <c r="AG2" s="45" t="s">
+      <c r="AG2" s="59" t="s">
         <v>298</v>
       </c>
-      <c r="AH2" s="45" t="s">
+      <c r="AH2" s="59" t="s">
         <v>299</v>
       </c>
-      <c r="AI2" s="47" t="s">
+      <c r="AI2" s="61" t="s">
         <v>300</v>
       </c>
-      <c r="AJ2" s="44" t="s">
+      <c r="AJ2" s="58" t="s">
         <v>301</v>
       </c>
-      <c r="AK2" s="38" t="s">
+      <c r="AK2" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="AL2" s="38" t="s">
+      <c r="AL2" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="AM2" s="40" t="s">
+      <c r="AM2" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="AN2" s="41" t="s">
+      <c r="AN2" s="55" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:40" s="2" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="48"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
+      <c r="A3" s="47"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
       <c r="J3" s="11" t="s">
         <v>21</v>
       </c>
@@ -2015,35 +2004,35 @@
       <c r="M3" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="N3" s="48"/>
-      <c r="O3" s="48"/>
-      <c r="P3" s="48"/>
-      <c r="Q3" s="48"/>
-      <c r="R3" s="48"/>
-      <c r="S3" s="48"/>
-      <c r="T3" s="48"/>
-      <c r="U3" s="48"/>
-      <c r="V3" s="50"/>
-      <c r="W3" s="50"/>
-      <c r="X3" s="61"/>
-      <c r="Y3" s="50"/>
-      <c r="Z3" s="50"/>
-      <c r="AA3" s="59"/>
-      <c r="AB3" s="59"/>
-      <c r="AC3" s="60"/>
-      <c r="AD3" s="59"/>
-      <c r="AE3" s="59"/>
-      <c r="AF3" s="44"/>
-      <c r="AG3" s="46"/>
-      <c r="AH3" s="46"/>
-      <c r="AI3" s="47"/>
-      <c r="AJ3" s="44"/>
-      <c r="AK3" s="39"/>
-      <c r="AL3" s="39"/>
-      <c r="AM3" s="40"/>
-      <c r="AN3" s="41"/>
-    </row>
-    <row r="4" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N3" s="47"/>
+      <c r="O3" s="47"/>
+      <c r="P3" s="47"/>
+      <c r="Q3" s="47"/>
+      <c r="R3" s="47"/>
+      <c r="S3" s="47"/>
+      <c r="T3" s="47"/>
+      <c r="U3" s="47"/>
+      <c r="V3" s="46"/>
+      <c r="W3" s="46"/>
+      <c r="X3" s="45"/>
+      <c r="Y3" s="46"/>
+      <c r="Z3" s="46"/>
+      <c r="AA3" s="43"/>
+      <c r="AB3" s="43"/>
+      <c r="AC3" s="44"/>
+      <c r="AD3" s="43"/>
+      <c r="AE3" s="43"/>
+      <c r="AF3" s="58"/>
+      <c r="AG3" s="60"/>
+      <c r="AH3" s="60"/>
+      <c r="AI3" s="61"/>
+      <c r="AJ3" s="58"/>
+      <c r="AK3" s="53"/>
+      <c r="AL3" s="53"/>
+      <c r="AM3" s="54"/>
+      <c r="AN3" s="55"/>
+    </row>
+    <row r="4" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="12" t="str">
         <f>"NEET &amp; IIT Crash Course "&amp;" " &amp; B4</f>
         <v>NEET &amp; IIT Crash Course  Physics</v>
@@ -2186,7 +2175,7 @@
         <v>142.85714183673468</v>
       </c>
     </row>
-    <row r="5" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="12" t="str">
         <f t="shared" ref="A5:A7" si="5">"NEET &amp; IIT Crash Course "&amp;" " &amp; B5</f>
         <v>NEET &amp; IIT Crash Course  Chemistry</v>
@@ -2329,7 +2318,7 @@
         <v>142.85719387756922</v>
       </c>
     </row>
-    <row r="6" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="12" t="str">
         <f>"IIT Crash Course "&amp;" " &amp; B6</f>
         <v>IIT Crash Course  Maths</v>
@@ -2472,7 +2461,7 @@
         <v>107.1428954081769</v>
       </c>
     </row>
-    <row r="7" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="12" t="str">
         <f t="shared" si="5"/>
         <v>NEET &amp; IIT Crash Course  Biology</v>
@@ -2615,7 +2604,7 @@
         <v>107.1428954081769</v>
       </c>
     </row>
-    <row r="8" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="12" t="str">
         <f>C8&amp;" - All Boards - "&amp;B8</f>
         <v>XII - All Boards - Physics</v>
@@ -2758,7 +2747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="12" t="str">
         <f t="shared" ref="A9:A15" si="16">C9&amp;" - All Boards - "&amp;B9</f>
         <v>XII - All Boards - Chemistry</v>
@@ -3044,7 +3033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="12" t="str">
         <f t="shared" si="16"/>
         <v>XII - All Boards - Biology</v>
@@ -3185,7 +3174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="12" t="str">
         <f t="shared" si="16"/>
         <v>XI - All Boards - Physics</v>
@@ -3328,7 +3317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="12" t="str">
         <f t="shared" si="16"/>
         <v>XI - All Boards - Chemistry</v>
@@ -3614,7 +3603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="12" t="str">
         <f t="shared" si="16"/>
         <v>XI - All Boards - Biology</v>
@@ -3755,7 +3744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="23" t="str">
         <f t="shared" ref="A16:A18" si="39">D16&amp;" - "&amp;C16&amp;" - "&amp;B16</f>
         <v>ISC - XII - English</v>
@@ -3898,7 +3887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="23" t="str">
         <f t="shared" si="39"/>
         <v>ISC - XII - Bengali</v>
@@ -4039,7 +4028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="23" t="str">
         <f t="shared" si="39"/>
         <v>ISC - XII - Hindi</v>
@@ -4182,7 +4171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="23" t="str">
         <f>D19&amp;" - "&amp;C19&amp;" - "&amp;B19</f>
         <v>ISC - XII - History</v>
@@ -4325,7 +4314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="23" t="str">
         <f>D20&amp;" - "&amp;C20&amp;" - "&amp;B20</f>
         <v>ISC - XII - Geography</v>
@@ -4466,7 +4455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="23" t="str">
         <f>D21&amp;" - "&amp;C21&amp;" - "&amp;B21</f>
         <v>ISC - XII - Political Science</v>
@@ -4609,7 +4598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="23" t="str">
         <f>D22&amp;" - "&amp;C22&amp;" - "&amp;B22</f>
         <v>ISC - XII - Sociology</v>
@@ -4752,7 +4741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="23" t="str">
         <f>D23&amp;" - "&amp;C23&amp;" - "&amp;B23</f>
         <v>ISC - XII - Philosophy</v>
@@ -4893,7 +4882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="23" t="str">
         <f t="shared" ref="A24:A43" si="52">D24&amp;" - "&amp;C24&amp;" - "&amp;B24</f>
         <v>ISC - XII - Accounting</v>
@@ -5036,7 +5025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="23" t="str">
         <f t="shared" si="52"/>
         <v>ISC - XII - Commercial Study</v>
@@ -5179,7 +5168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="23" t="str">
         <f t="shared" si="52"/>
         <v>ISC - XII - Economics</v>
@@ -5322,7 +5311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="23" t="str">
         <f t="shared" si="52"/>
         <v>ISC - XII - Business Studies</v>
@@ -5608,7 +5597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="23" t="str">
         <f>D29&amp;" - "&amp;C29&amp;" - "&amp;B29</f>
         <v>ISC - XII - Computers</v>
@@ -5751,7 +5740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="23" t="str">
         <f>D30&amp;" - "&amp;C30&amp;" - "&amp;B30</f>
         <v>ISC - XII - AI</v>
@@ -5894,7 +5883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="23" t="str">
         <f t="shared" si="52"/>
         <v>ISC - XI - English</v>
@@ -6037,7 +6026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="23" t="str">
         <f t="shared" si="52"/>
         <v>ISC - XI - Bengali</v>
@@ -6178,7 +6167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="23" t="str">
         <f t="shared" si="52"/>
         <v>ISC - XI - Hindi</v>
@@ -6321,7 +6310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="23" t="str">
         <f>D34&amp;" - "&amp;C34&amp;" - "&amp;B34</f>
         <v>ISC - XI - History</v>
@@ -6464,7 +6453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="23" t="str">
         <f>D35&amp;" - "&amp;C35&amp;" - "&amp;B35</f>
         <v>ISC - XI - Geography</v>
@@ -6605,7 +6594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="23" t="str">
         <f>D36&amp;" - "&amp;C36&amp;" - "&amp;B36</f>
         <v>ISC - XI - Political Science</v>
@@ -6748,7 +6737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="23" t="str">
         <f>D37&amp;" - "&amp;C37&amp;" - "&amp;B37</f>
         <v>ISC - XI - Sociology</v>
@@ -6891,7 +6880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="23" t="str">
         <f>D38&amp;" - "&amp;C38&amp;" - "&amp;B38</f>
         <v>ISC - XI - Philosophy</v>
@@ -7032,7 +7021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="23" t="str">
         <f t="shared" si="52"/>
         <v>ISC - XI - Accounting</v>
@@ -7175,7 +7164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="23" t="str">
         <f t="shared" si="52"/>
         <v>ISC - XI - Commercial Study</v>
@@ -7318,7 +7307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41" s="23" t="str">
         <f t="shared" si="52"/>
         <v>ISC - XI - Economics</v>
@@ -7461,7 +7450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42" s="23" t="str">
         <f t="shared" si="52"/>
         <v>ISC - XI - Business Studies</v>
@@ -7747,7 +7736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A44" s="23" t="str">
         <f>D44&amp;" - "&amp;C44&amp;" - "&amp;B44</f>
         <v>ISC - XI - Computers</v>
@@ -7890,7 +7879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A45" s="23" t="str">
         <f>D45&amp;" - "&amp;C45&amp;" - "&amp;B45</f>
         <v>ISC - XI - AI</v>
@@ -8033,7 +8022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A46" s="23" t="str">
         <f>D46&amp;" - "&amp;C46&amp;" - "&amp;B46</f>
         <v>ICSE - X - English</v>
@@ -8176,7 +8165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:40" ht="13.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A47" s="23" t="str">
         <f t="shared" ref="A47:A163" si="95">D47&amp;" - "&amp;C47&amp;" - "&amp;B47</f>
         <v>ICSE - X - Bengali</v>
@@ -8317,7 +8306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A48" s="23" t="str">
         <f t="shared" si="95"/>
         <v>ICSE - X - Hindi</v>
@@ -8460,7 +8449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:40" ht="13.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A49" s="23" t="str">
         <f>D49&amp;" - "&amp;C49&amp;" - "&amp;B49</f>
         <v>ICSE - X - Geography</v>
@@ -8603,7 +8592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A50" s="23" t="str">
         <f>D50&amp;" - "&amp;C50&amp;" - "&amp;B50</f>
         <v>ICSE - X - EVS</v>
@@ -8746,7 +8735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:40" ht="13.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A51" s="23" t="str">
         <f>D51&amp;" - "&amp;C51&amp;" - "&amp;B51</f>
         <v>ICSE - X - Hist Civics</v>
@@ -8889,7 +8878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A52" s="23" t="str">
         <f>D52&amp;" - "&amp;C52&amp;" - "&amp;B52</f>
         <v>ICSE - X - Commercial Study</v>
@@ -9032,7 +9021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A53" s="23" t="str">
         <f>D53&amp;" - "&amp;C53&amp;" - "&amp;B53</f>
         <v>ICSE - X - Economics</v>
@@ -9318,7 +9307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A55" s="23" t="str">
         <f t="shared" si="95"/>
         <v>ICSE - X - Physics</v>
@@ -9461,7 +9450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A56" s="23" t="str">
         <f t="shared" si="95"/>
         <v>ICSE - X - Chemistry</v>
@@ -9604,7 +9593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A57" s="23" t="str">
         <f t="shared" si="95"/>
         <v>ICSE - X - Biology</v>
@@ -9745,7 +9734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A58" s="23" t="str">
         <f t="shared" si="95"/>
         <v>ICSE - X - Computers</v>
@@ -9888,7 +9877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A59" s="23" t="str">
         <f t="shared" si="95"/>
         <v>ICSE - X - AI</v>
@@ -10031,7 +10020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A60" s="23" t="str">
         <f t="shared" si="95"/>
         <v>ICSE - IX - English</v>
@@ -10174,7 +10163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:40" ht="13.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A61" s="23" t="str">
         <f t="shared" si="95"/>
         <v>ICSE - IX - Bengali</v>
@@ -10315,7 +10304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A62" s="23" t="str">
         <f t="shared" si="95"/>
         <v>ICSE - IX - Hindi</v>
@@ -10458,7 +10447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:40" ht="13.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A63" s="23" t="str">
         <f>D63&amp;" - "&amp;C63&amp;" - "&amp;B63</f>
         <v>ICSE - IX - Geography</v>
@@ -10601,7 +10590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A64" s="23" t="str">
         <f>D64&amp;" - "&amp;C64&amp;" - "&amp;B64</f>
         <v>ICSE - IX - EVS</v>
@@ -10744,7 +10733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:40" ht="13.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A65" s="23" t="str">
         <f>D65&amp;" - "&amp;C65&amp;" - "&amp;B65</f>
         <v>ICSE - IX - Hist Civics</v>
@@ -10887,7 +10876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A66" s="23" t="str">
         <f>D66&amp;" - "&amp;C66&amp;" - "&amp;B66</f>
         <v>ICSE - IX - Commercial Study</v>
@@ -11030,7 +11019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A67" s="23" t="str">
         <f>D67&amp;" - "&amp;C67&amp;" - "&amp;B67</f>
         <v>ICSE - IX - Economics</v>
@@ -11316,7 +11305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A69" s="23" t="str">
         <f t="shared" si="95"/>
         <v>ICSE - IX - Physics</v>
@@ -11459,7 +11448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A70" s="23" t="str">
         <f t="shared" si="95"/>
         <v>ICSE - IX - Chemistry</v>
@@ -11602,7 +11591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A71" s="23" t="str">
         <f t="shared" si="95"/>
         <v>ICSE - IX - Biology</v>
@@ -11743,7 +11732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A72" s="23" t="str">
         <f>D72&amp;" - "&amp;C72&amp;" - "&amp;B72</f>
         <v>ICSE - IX - Computers</v>
@@ -11886,7 +11875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A73" s="23" t="str">
         <f t="shared" si="95"/>
         <v>ICSE - IX - AI</v>
@@ -12029,7 +12018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A74" s="23" t="str">
         <f t="shared" si="95"/>
         <v>ICSE - VIII - English</v>
@@ -12172,7 +12161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:40" ht="13.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A75" s="23" t="str">
         <f>D75&amp;" - "&amp;C75&amp;" - "&amp;B75</f>
         <v>ICSE - VIII - Bengali</v>
@@ -12313,7 +12302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A76" s="23" t="str">
         <f>D76&amp;" - "&amp;C76&amp;" - "&amp;B76</f>
         <v>ICSE - VIII - Hindi</v>
@@ -12456,7 +12445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:40" ht="13.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A77" s="23" t="str">
         <f>D77&amp;" - "&amp;C77&amp;" - "&amp;B77</f>
         <v>ICSE - VIII - Geography</v>
@@ -12599,7 +12588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A78" s="23" t="str">
         <f>D78&amp;" - "&amp;C78&amp;" - "&amp;B78</f>
         <v>ICSE - VIII - EVS</v>
@@ -12742,7 +12731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:40" ht="13.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A79" s="23" t="str">
         <f>D79&amp;" - "&amp;C79&amp;" - "&amp;B79</f>
         <v>ICSE - VIII - Hist Civics</v>
@@ -13028,7 +13017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A81" s="23" t="str">
         <f t="shared" si="95"/>
         <v>ICSE - VIII - Physics</v>
@@ -13171,7 +13160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A82" s="23" t="str">
         <f t="shared" si="95"/>
         <v>ICSE - VIII - Chemistry</v>
@@ -13314,7 +13303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A83" s="23" t="str">
         <f t="shared" si="95"/>
         <v>ICSE - VIII - Biology</v>
@@ -13455,7 +13444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A84" s="23" t="str">
         <f t="shared" si="95"/>
         <v>ICSE - VIII - Computers</v>
@@ -13598,7 +13587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A85" s="21" t="str">
         <f>D85&amp;" - "&amp;C85&amp;" - "&amp;B85</f>
         <v>WB - XII - English</v>
@@ -13741,7 +13730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A86" s="21" t="str">
         <f>D86&amp;" - "&amp;C86&amp;" - "&amp;B86</f>
         <v>WB - XII - Bengali</v>
@@ -13882,7 +13871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A87" s="21" t="str">
         <f>D87&amp;" - "&amp;C87&amp;" - "&amp;B87</f>
         <v>WB - XII - Hindi</v>
@@ -14025,7 +14014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A88" s="21" t="str">
         <f>D88&amp;" - "&amp;C88&amp;" - "&amp;B88</f>
         <v>WB - XII - History</v>
@@ -14168,7 +14157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A89" s="21" t="str">
         <f t="shared" ref="A89" si="140">D89&amp;" - "&amp;C89&amp;" - "&amp;B89</f>
         <v>WB - XII - Geography</v>
@@ -14309,7 +14298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A90" s="21" t="str">
         <f>D90&amp;" - "&amp;C90&amp;" - "&amp;B90</f>
         <v>WB - XII - Political Science</v>
@@ -14452,7 +14441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A91" s="21" t="str">
         <f>D91&amp;" - "&amp;C91&amp;" - "&amp;B91</f>
         <v>WB - XII - Sociology</v>
@@ -14595,7 +14584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A92" s="21" t="str">
         <f>D92&amp;" - "&amp;C92&amp;" - "&amp;B92</f>
         <v>WB - XII - Philosophy</v>
@@ -14736,7 +14725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A93" s="21" t="str">
         <f t="shared" ref="A93:A100" si="141">D93&amp;" - "&amp;C93&amp;" - "&amp;B93</f>
         <v>WB - XII - Accounting</v>
@@ -14879,7 +14868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A94" s="21" t="str">
         <f t="shared" si="141"/>
         <v>WB - XII - Business Studies</v>
@@ -15022,7 +15011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A95" s="21" t="str">
         <f t="shared" si="141"/>
         <v>WB - XII - Costing &amp; Taxation</v>
@@ -15165,7 +15154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A96" s="21" t="str">
         <f t="shared" si="141"/>
         <v>WB - XII - Business Law</v>
@@ -15451,7 +15440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A98" s="21" t="str">
         <f t="shared" si="141"/>
         <v>WB - XII - Stats</v>
@@ -15594,7 +15583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A99" s="21" t="str">
         <f t="shared" si="141"/>
         <v>WB - XII - Economics</v>
@@ -15737,7 +15726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A100" s="21" t="str">
         <f t="shared" si="141"/>
         <v>WB - XII - Eco Geography</v>
@@ -15880,7 +15869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A101" s="21" t="str">
         <f t="shared" ref="A101:A132" si="150">D101&amp;" - "&amp;C101&amp;" - "&amp;B101</f>
         <v>WB - XII - Computers</v>
@@ -16023,7 +16012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A102" s="21" t="str">
         <f t="shared" si="150"/>
         <v>WB - XII - AI</v>
@@ -16166,7 +16155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A103" s="21" t="str">
         <f t="shared" si="150"/>
         <v>WB - XI - English</v>
@@ -16309,7 +16298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A104" s="21" t="str">
         <f t="shared" si="150"/>
         <v>WB - XI - Bengali</v>
@@ -16450,7 +16439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A105" s="21" t="str">
         <f t="shared" si="150"/>
         <v>WB - XI - Hindi</v>
@@ -16593,7 +16582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A106" s="21" t="str">
         <f t="shared" si="150"/>
         <v>WB - XI - History</v>
@@ -16736,7 +16725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A107" s="21" t="str">
         <f t="shared" si="150"/>
         <v>WB - XI - Geography</v>
@@ -16877,7 +16866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A108" s="21" t="str">
         <f t="shared" si="150"/>
         <v>WB - XI - Political Science</v>
@@ -17020,7 +17009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A109" s="21" t="str">
         <f t="shared" si="150"/>
         <v>WB - XI - Sociology</v>
@@ -17163,7 +17152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A110" s="21" t="str">
         <f t="shared" si="150"/>
         <v>WB - XI - Philosophy</v>
@@ -17304,7 +17293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A111" s="21" t="str">
         <f t="shared" si="150"/>
         <v>WB - XI - Accounting</v>
@@ -17447,7 +17436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A112" s="21" t="str">
         <f t="shared" si="150"/>
         <v>WB - XI - Business Studies</v>
@@ -17590,7 +17579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A113" s="21" t="str">
         <f t="shared" si="150"/>
         <v>WB - XI - Costing &amp; Taxation</v>
@@ -17733,7 +17722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A114" s="21" t="str">
         <f t="shared" si="150"/>
         <v>WB - XI - Business Law</v>
@@ -18019,7 +18008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A116" s="21" t="str">
         <f t="shared" si="150"/>
         <v>WB - XI - Stats</v>
@@ -18162,7 +18151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A117" s="21" t="str">
         <f t="shared" si="150"/>
         <v>WB - XI - Economics</v>
@@ -18305,7 +18294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A118" s="21" t="str">
         <f t="shared" si="150"/>
         <v>WB - XI - Eco Geography</v>
@@ -18448,7 +18437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A119" s="21" t="str">
         <f t="shared" si="150"/>
         <v>WB - XI - Computers</v>
@@ -18591,7 +18580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A120" s="21" t="str">
         <f t="shared" si="150"/>
         <v>WB - XI - AI</v>
@@ -18734,7 +18723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A121" s="21" t="str">
         <f t="shared" si="150"/>
         <v>WB - X - English</v>
@@ -18877,7 +18866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A122" s="21" t="str">
         <f t="shared" si="150"/>
         <v>WB - X - Bengali</v>
@@ -19018,7 +19007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A123" s="21" t="str">
         <f t="shared" si="150"/>
         <v>WB - X - History</v>
@@ -19161,7 +19150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A124" s="21" t="str">
         <f t="shared" si="150"/>
         <v>WB - X - Geography</v>
@@ -19304,7 +19293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A125" s="21" t="str">
         <f t="shared" si="150"/>
         <v>WB - X - Physical Science</v>
@@ -19447,7 +19436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A126" s="21" t="str">
         <f t="shared" si="150"/>
         <v>WB - X - Life Science</v>
@@ -19731,7 +19720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A128" s="21" t="str">
         <f t="shared" si="150"/>
         <v>WB - X - Book Keeping</v>
@@ -19874,7 +19863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A129" s="21" t="str">
         <f t="shared" si="150"/>
         <v>WB - X - Business Studies</v>
@@ -20017,7 +20006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A130" s="21" t="str">
         <f t="shared" si="150"/>
         <v>WB - X - Computers</v>
@@ -20160,7 +20149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A131" s="21" t="str">
         <f t="shared" si="150"/>
         <v>WB - X - AI</v>
@@ -20303,7 +20292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A132" s="21" t="str">
         <f t="shared" si="150"/>
         <v>WB - IX - English</v>
@@ -20446,7 +20435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A133" s="21" t="str">
         <f t="shared" ref="A133:A149" si="214">D133&amp;" - "&amp;C133&amp;" - "&amp;B133</f>
         <v>WB - IX - Bengali</v>
@@ -20587,7 +20576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A134" s="21" t="str">
         <f t="shared" si="214"/>
         <v>WB - IX - History</v>
@@ -20730,7 +20719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A135" s="21" t="str">
         <f t="shared" si="214"/>
         <v>WB - IX - Geography</v>
@@ -20873,7 +20862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A136" s="21" t="str">
         <f t="shared" si="214"/>
         <v>WB - IX - Physical Science</v>
@@ -21016,7 +21005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A137" s="21" t="str">
         <f t="shared" si="214"/>
         <v>WB - IX - Life Science</v>
@@ -21300,7 +21289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A139" s="21" t="str">
         <f t="shared" si="214"/>
         <v>WB - IX - Book Keeping</v>
@@ -21443,7 +21432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A140" s="21" t="str">
         <f t="shared" si="214"/>
         <v>WB - IX - Business Studies</v>
@@ -21586,7 +21575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A141" s="21" t="str">
         <f t="shared" si="214"/>
         <v>WB - IX - Computers</v>
@@ -21729,7 +21718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A142" s="21" t="str">
         <f t="shared" si="214"/>
         <v>WB - IX - AI</v>
@@ -21872,7 +21861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A143" s="21" t="str">
         <f t="shared" si="214"/>
         <v>WB - VIII - English</v>
@@ -22015,7 +22004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A144" s="21" t="str">
         <f t="shared" si="214"/>
         <v>WB - VIII - Bengali</v>
@@ -22156,7 +22145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A145" s="21" t="str">
         <f t="shared" si="214"/>
         <v>WB - VIII - Hindi</v>
@@ -22299,7 +22288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A146" s="21" t="str">
         <f t="shared" si="214"/>
         <v>WB - VIII - History</v>
@@ -22442,7 +22431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A147" s="21" t="str">
         <f t="shared" si="214"/>
         <v>WB - VIII - Geography</v>
@@ -22585,7 +22574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A148" s="21" t="str">
         <f t="shared" si="214"/>
         <v>WB - VIII - Physical Science</v>
@@ -22871,7 +22860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A150" s="24" t="str">
         <f t="shared" si="95"/>
         <v>CBSE - XII - English</v>
@@ -23014,7 +23003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A151" s="24" t="str">
         <f t="shared" si="95"/>
         <v>CBSE - XII - Bengali</v>
@@ -23155,7 +23144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A152" s="24" t="str">
         <f t="shared" si="95"/>
         <v>CBSE - XII - Hindi</v>
@@ -23298,7 +23287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A153" s="24" t="str">
         <f t="shared" si="95"/>
         <v>CBSE - XII - History</v>
@@ -23441,7 +23430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A154" s="24" t="str">
         <f t="shared" si="95"/>
         <v>CBSE - XII - Geography</v>
@@ -23582,7 +23571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A155" s="24" t="str">
         <f t="shared" si="95"/>
         <v>CBSE - XII - Political Science</v>
@@ -23725,7 +23714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A156" s="24" t="str">
         <f t="shared" si="95"/>
         <v>CBSE - XII - Sociology</v>
@@ -23868,7 +23857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A157" s="24" t="str">
         <f t="shared" si="95"/>
         <v>CBSE - XII - Philosophy</v>
@@ -24009,7 +23998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A158" s="24" t="str">
         <f t="shared" si="95"/>
         <v>CBSE - XII - Accounting</v>
@@ -24152,7 +24141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A159" s="24" t="str">
         <f t="shared" si="95"/>
         <v>CBSE - XII - Economics</v>
@@ -24295,7 +24284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A160" s="24" t="str">
         <f t="shared" si="95"/>
         <v>CBSE - XII - Business Studies</v>
@@ -24438,7 +24427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A161" s="24" t="str">
         <f t="shared" si="95"/>
         <v>CBSE - XII - Info Practices</v>
@@ -24581,7 +24570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A162" s="24" t="str">
         <f t="shared" si="95"/>
         <v>CBSE - XII - Legal Studies</v>
@@ -24867,7 +24856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A164" s="24" t="str">
         <f>D164&amp;" - "&amp;C164&amp;" - "&amp;B164</f>
         <v>CBSE - XII - Computers</v>
@@ -25010,7 +24999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A165" s="24" t="str">
         <f>D165&amp;" - "&amp;C165&amp;" - "&amp;B165</f>
         <v>CBSE - XII - AI</v>
@@ -25153,7 +25142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A166" s="24" t="str">
         <f t="shared" ref="A166:A179" si="264">D166&amp;" - "&amp;C166&amp;" - "&amp;B166</f>
         <v>CBSE - XI - English</v>
@@ -25296,7 +25285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A167" s="24" t="str">
         <f t="shared" si="264"/>
         <v>CBSE - XI - Bengali</v>
@@ -25437,7 +25426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A168" s="24" t="str">
         <f t="shared" si="264"/>
         <v>CBSE - XI - Hindi</v>
@@ -25580,7 +25569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A169" s="24" t="str">
         <f t="shared" si="264"/>
         <v>CBSE - XI - History</v>
@@ -25723,7 +25712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A170" s="24" t="str">
         <f t="shared" si="264"/>
         <v>CBSE - XI - Geography</v>
@@ -25864,7 +25853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A171" s="24" t="str">
         <f t="shared" si="264"/>
         <v>CBSE - XI - Political Science</v>
@@ -26007,7 +25996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A172" s="24" t="str">
         <f t="shared" si="264"/>
         <v>CBSE - XI - Sociology</v>
@@ -26150,7 +26139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A173" s="24" t="str">
         <f t="shared" si="264"/>
         <v>CBSE - XI - Philosophy</v>
@@ -26291,7 +26280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A174" s="24" t="str">
         <f t="shared" si="264"/>
         <v>CBSE - XI - Accounting</v>
@@ -26434,7 +26423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A175" s="24" t="str">
         <f t="shared" si="264"/>
         <v>CBSE - XI - Economics</v>
@@ -26577,7 +26566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A176" s="24" t="str">
         <f t="shared" si="264"/>
         <v>CBSE - XI - Business Studies</v>
@@ -26720,7 +26709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A177" s="24" t="str">
         <f t="shared" si="264"/>
         <v>CBSE - XI - Info Practices</v>
@@ -26863,7 +26852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A178" s="24" t="str">
         <f t="shared" si="264"/>
         <v>CBSE - XI - Legal Studies</v>
@@ -27149,7 +27138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A180" s="24" t="str">
         <f>D180&amp;" - "&amp;C180&amp;" - "&amp;B180</f>
         <v>CBSE - XI - Computers</v>
@@ -27292,7 +27281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A181" s="24" t="str">
         <f>D181&amp;" - "&amp;C181&amp;" - "&amp;B181</f>
         <v>CBSE - XI - AI</v>
@@ -27435,7 +27424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A182" s="24" t="str">
         <f>D182&amp;" - "&amp;C182&amp;" - "&amp;B182</f>
         <v>CBSE - X - English</v>
@@ -27578,7 +27567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A183" s="24" t="str">
         <f t="shared" ref="A183:A209" si="292">D183&amp;" - "&amp;C183&amp;" - "&amp;B183</f>
         <v>CBSE - X - Bengali</v>
@@ -27719,7 +27708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A184" s="24" t="str">
         <f t="shared" si="292"/>
         <v>CBSE - X - Hindi</v>
@@ -27862,7 +27851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A185" s="24" t="str">
         <f>D185&amp;" - "&amp;C185&amp;" - "&amp;B185</f>
         <v>CBSE - X - SST, Hist, Geog, Eco, Civics</v>
@@ -28148,7 +28137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A187" s="24" t="str">
         <f t="shared" si="292"/>
         <v>CBSE - X - Science, Physics</v>
@@ -28291,7 +28280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A188" s="24" t="str">
         <f t="shared" si="292"/>
         <v>CBSE - X - Science, Chemistry</v>
@@ -28434,7 +28423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A189" s="24" t="str">
         <f t="shared" si="292"/>
         <v>CBSE - X - Science, Biology</v>
@@ -28575,7 +28564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A190" s="24" t="str">
         <f t="shared" si="292"/>
         <v>CBSE - X - Computers</v>
@@ -28718,7 +28707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A191" s="24" t="str">
         <f t="shared" si="292"/>
         <v>CBSE - X - AI</v>
@@ -28861,7 +28850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A192" s="24" t="str">
         <f>D192&amp;" - "&amp;C192&amp;" - "&amp;B192</f>
         <v>CBSE - IX - English</v>
@@ -29004,7 +28993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A193" s="24" t="str">
         <f t="shared" ref="A193:A194" si="322">D193&amp;" - "&amp;C193&amp;" - "&amp;B193</f>
         <v>CBSE - IX - Bengali</v>
@@ -29145,7 +29134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A194" s="24" t="str">
         <f t="shared" si="322"/>
         <v>CBSE - IX - Hindi</v>
@@ -29288,7 +29277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A195" s="24" t="str">
         <f>D195&amp;" - "&amp;C195&amp;" - "&amp;B195</f>
         <v>CBSE - IX - SST, Hist, Geog, Eco, Civics</v>
@@ -29574,7 +29563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A197" s="24" t="str">
         <f t="shared" ref="A197:A201" si="330">D197&amp;" - "&amp;C197&amp;" - "&amp;B197</f>
         <v>CBSE - IX - Science, Physics</v>
@@ -29717,7 +29706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A198" s="24" t="str">
         <f t="shared" si="330"/>
         <v>CBSE - IX - Science, Chemistry</v>
@@ -29860,7 +29849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A199" s="24" t="str">
         <f t="shared" si="330"/>
         <v>CBSE - IX - Science, Biology</v>
@@ -30001,7 +29990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A200" s="24" t="str">
         <f t="shared" si="330"/>
         <v>CBSE - IX - Computers</v>
@@ -30144,7 +30133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A201" s="24" t="str">
         <f t="shared" si="330"/>
         <v>CBSE - IX - AI</v>
@@ -30287,7 +30276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A202" s="24" t="str">
         <f t="shared" si="292"/>
         <v>CBSE - VIII - English</v>
@@ -30430,7 +30419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A203" s="24" t="str">
         <f t="shared" si="292"/>
         <v>CBSE - VIII - Bengali</v>
@@ -30571,7 +30560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A204" s="24" t="str">
         <f t="shared" si="292"/>
         <v>CBSE - VIII - Hindi</v>
@@ -30714,7 +30703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A205" s="24" t="str">
         <f>D205&amp;" - "&amp;C205&amp;" - "&amp;B205</f>
         <v>CBSE - VIII - Social Science</v>
@@ -30998,7 +30987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A207" s="24" t="str">
         <f t="shared" si="292"/>
         <v>CBSE - VIII - Science - Physics, Chem</v>
@@ -31141,7 +31130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A208" s="24" t="str">
         <f t="shared" ref="A208" si="356">D208&amp;" - "&amp;C208&amp;" - "&amp;B208</f>
         <v>CBSE - VIII - Science - Bio</v>
@@ -31282,7 +31271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A209" s="24" t="str">
         <f t="shared" si="292"/>
         <v>CBSE - VIII - Computers</v>
@@ -31425,7 +31414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A210" s="12" t="str">
         <f>C210&amp;" - "&amp;B210</f>
         <v>B.Com. (H) - Adv Accounting I</v>
@@ -31568,7 +31557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A211" s="12" t="str">
         <f t="shared" ref="A211:A219" si="364">C211&amp;" - "&amp;B211</f>
         <v>B.Com. (H) - Adv Accounting II</v>
@@ -31711,7 +31700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A212" s="12" t="str">
         <f t="shared" si="364"/>
         <v>B.Com. (H) - Adv Accounting III</v>
@@ -31854,7 +31843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A213" s="12" t="str">
         <f t="shared" si="364"/>
         <v>B.Com. (H) - Cost &amp; Mgmt Ac I</v>
@@ -31997,7 +31986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A214" s="12" t="str">
         <f t="shared" si="364"/>
         <v>B.Com. (H) - Cost &amp; Mgmt Ac II</v>
@@ -32140,7 +32129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A215" s="12" t="str">
         <f t="shared" si="364"/>
         <v>B.Com. (H) - In/Direct Tax I</v>
@@ -32283,7 +32272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A216" s="12" t="str">
         <f t="shared" si="364"/>
         <v>B.Com. (H) - In/Direct Tax II</v>
@@ -32426,7 +32415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A217" s="12" t="str">
         <f t="shared" si="364"/>
         <v>B.Com. (H) - Financial Mgmt</v>
@@ -32569,7 +32558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A218" s="12" t="str">
         <f t="shared" si="364"/>
         <v>B.Com. (H) - Fin Rpt &amp; Stmt Anlys</v>
@@ -32712,7 +32701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A219" s="12" t="str">
         <f t="shared" si="364"/>
         <v>B.Com. (H) - Audit &amp; Assurance</v>
@@ -32855,7 +32844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A220" s="12" t="str">
         <f>C220&amp;" - "&amp;B220</f>
         <v>B.Com. - Micro Economics</v>
@@ -32998,7 +32987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A221" s="12" t="str">
         <f t="shared" ref="A221:A265" si="388">C221&amp;" - "&amp;B221</f>
         <v>B.Com. - Macro Economics</v>
@@ -33141,7 +33130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A222" s="12" t="str">
         <f t="shared" si="388"/>
         <v>B.Com. - Development Eco</v>
@@ -33284,7 +33273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A223" s="12" t="str">
         <f t="shared" si="388"/>
         <v>B.Com. - Business Management I</v>
@@ -33427,7 +33416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A224" s="12" t="str">
         <f t="shared" si="388"/>
         <v>B.Com. - Business Management II</v>
@@ -33570,7 +33559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A225" s="12" t="str">
         <f t="shared" si="388"/>
         <v>B.Com. - HRM</v>
@@ -33713,7 +33702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A226" s="12" t="str">
         <f t="shared" si="388"/>
         <v>B.Com. - Business Mathematics</v>
@@ -33856,7 +33845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A227" s="12" t="str">
         <f t="shared" si="388"/>
         <v>B.Com. - Business Statistics</v>
@@ -33999,7 +33988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A228" s="12" t="str">
         <f t="shared" si="388"/>
         <v>B.Com. - Business Law</v>
@@ -34142,7 +34131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A229" s="12" t="str">
         <f t="shared" si="388"/>
         <v>B.Com. - Company Law</v>
@@ -34285,7 +34274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A230" s="12" t="str">
         <f t="shared" si="388"/>
         <v>B.Com. - Enterpreneurship</v>
@@ -34428,7 +34417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A231" s="12" t="str">
         <f t="shared" si="388"/>
         <v>B.Com. - Environmantal Studies</v>
@@ -34571,7 +34560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A232" s="12" t="str">
         <f t="shared" si="388"/>
         <v>B.Com. - Business Comm</v>
@@ -34714,7 +34703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A233" s="12" t="str">
         <f t="shared" si="388"/>
         <v>B.Com. - E-Commerce</v>
@@ -34857,7 +34846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="234" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A234" s="12" t="str">
         <f t="shared" si="388"/>
         <v>B.Com. - IT App in Business</v>
@@ -35000,7 +34989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A235" s="12" t="str">
         <f t="shared" si="388"/>
         <v>B.Com. - Comp Ac &amp; Tax eFiling</v>
@@ -35143,7 +35132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A236" s="12" t="str">
         <f t="shared" si="388"/>
         <v>B.B.A. - English</v>
@@ -35286,7 +35275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A237" s="12" t="str">
         <f t="shared" si="388"/>
         <v>B.B.A. - Business Comm</v>
@@ -35429,7 +35418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A238" s="12" t="str">
         <f t="shared" si="388"/>
         <v>B.B.A. - Essentials of Math</v>
@@ -35572,7 +35561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A239" s="12" t="str">
         <f t="shared" si="388"/>
         <v>B.B.A. - Essentials of Stats</v>
@@ -35715,7 +35704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="240" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A240" s="12" t="str">
         <f t="shared" si="388"/>
         <v>B.B.A. - Advanced Math &amp; Stats</v>
@@ -35858,7 +35847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A241" s="12" t="str">
         <f t="shared" si="388"/>
         <v>B.B.A. - Computer Applications</v>
@@ -36001,7 +35990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A242" s="12" t="str">
         <f t="shared" si="388"/>
         <v>B.B.A. - Micro Economics</v>
@@ -36144,7 +36133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A243" s="12" t="str">
         <f t="shared" si="388"/>
         <v>B.B.A. - Macro Economics</v>
@@ -36287,7 +36276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="244" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A244" s="12" t="str">
         <f t="shared" si="388"/>
         <v>B.B.A. - Organizational Behavior</v>
@@ -36430,7 +36419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A245" s="12" t="str">
         <f t="shared" si="388"/>
         <v>B.B.A. - Social Structure &amp; Ethics</v>
@@ -36573,7 +36562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="246" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A246" s="12" t="str">
         <f t="shared" si="388"/>
         <v>B.B.A. - Principles of Mgmt</v>
@@ -36716,7 +36705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A247" s="12" t="str">
         <f t="shared" si="388"/>
         <v>B.B.A. - Managerial Economics</v>
@@ -36859,7 +36848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A248" s="12" t="str">
         <f t="shared" si="388"/>
         <v>B.B.A. - Business Laws</v>
@@ -37002,7 +36991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="249" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A249" s="12" t="str">
         <f t="shared" si="388"/>
         <v>B.B.A. - Financial Accounting</v>
@@ -37145,7 +37134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A250" s="12" t="str">
         <f t="shared" si="388"/>
         <v>B.B.A. - Environment Studies</v>
@@ -37288,7 +37277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A251" s="12" t="str">
         <f t="shared" si="388"/>
         <v>B.B.A. - Prod &amp; Materials Mgmt</v>
@@ -37431,7 +37420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A252" s="12" t="str">
         <f t="shared" si="388"/>
         <v>B.B.A. - Mgmt Info System</v>
@@ -37574,7 +37563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A253" s="12" t="str">
         <f t="shared" si="388"/>
         <v>B.B.A. - Cost Accounting</v>
@@ -37717,7 +37706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="254" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A254" s="12" t="str">
         <f t="shared" si="388"/>
         <v>B.B.A. - Marketing Management</v>
@@ -37860,7 +37849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="255" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A255" s="12" t="str">
         <f t="shared" si="388"/>
         <v>B.B.A. - HRM</v>
@@ -38003,7 +37992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="256" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A256" s="12" t="str">
         <f t="shared" si="388"/>
         <v>B.B.A. - Financial Management</v>
@@ -38146,7 +38135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="257" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A257" s="12" t="str">
         <f t="shared" si="388"/>
         <v>B.B.A. - Sales &amp; Distribn Mgmt</v>
@@ -38289,7 +38278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="258" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A258" s="12" t="str">
         <f t="shared" si="388"/>
         <v>B.B.A. - HR Development</v>
@@ -38432,7 +38421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="259" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A259" s="12" t="str">
         <f t="shared" si="388"/>
         <v>B.B.A. - Enterpreneurship Dev</v>
@@ -38575,7 +38564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="260" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A260" s="12" t="str">
         <f t="shared" si="388"/>
         <v>B.B.A. - Research Methodology</v>
@@ -38718,7 +38707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="261" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A261" s="12" t="str">
         <f t="shared" si="388"/>
         <v>B.B.A. - Mgmt Accounting</v>
@@ -38861,7 +38850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="262" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A262" s="12" t="str">
         <f t="shared" si="388"/>
         <v>B.B.A. - Ad &amp; Sales Promotion</v>
@@ -39004,7 +38993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="263" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A263" s="12" t="str">
         <f t="shared" si="388"/>
         <v>B.B.A. - Industrial Relations</v>
@@ -39147,7 +39136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="264" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A264" s="12" t="str">
         <f t="shared" si="388"/>
         <v>B.B.A. - Public Service Mgmt</v>
@@ -39290,7 +39279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="265" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A265" s="12" t="str">
         <f t="shared" si="388"/>
         <v>B.B.A. - Project and Viva</v>
@@ -39433,7 +39422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="266" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A266" s="20" t="str">
         <f>D266&amp;" - "&amp;C266&amp;" - "&amp;B266</f>
         <v>C.A. - Found - Accountancy</v>
@@ -39576,7 +39565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="267" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A267" s="20" t="str">
         <f t="shared" ref="A267:A330" si="414">D267&amp;" - "&amp;C267&amp;" - "&amp;B267</f>
         <v>C.A. - Found - Biz laws &amp; Corspndnce</v>
@@ -39673,7 +39662,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="268" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="268" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A268" s="20" t="str">
         <f t="shared" si="414"/>
         <v>C.A. - Found - Biz Math &amp; Stat</v>
@@ -39770,7 +39759,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="269" spans="1:40" ht="13.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="269" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A269" s="20" t="str">
         <f t="shared" si="414"/>
         <v>C.A. - Found - Eco &amp; Comm Knwldge</v>
@@ -39865,7 +39854,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="270" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="270" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A270" s="20" t="str">
         <f t="shared" si="414"/>
         <v>C.A. - Inter - Accountancy</v>
@@ -40008,7 +39997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="271" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A271" s="20" t="str">
         <f t="shared" si="414"/>
         <v>C.A. - Inter - Corp &amp; other Laws</v>
@@ -40095,7 +40084,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="272" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="272" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A272" s="20" t="str">
         <f t="shared" si="414"/>
         <v>C.A. - Inter - Cost &amp; Mgmt Ac</v>
@@ -40182,7 +40171,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="273" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="273" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A273" s="20" t="str">
         <f t="shared" si="414"/>
         <v>C.A. - Inter - Tax</v>
@@ -40267,7 +40256,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="274" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="274" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A274" s="20" t="str">
         <f t="shared" si="414"/>
         <v>C.A. - Inter - Audit</v>
@@ -40352,7 +40341,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="275" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="275" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A275" s="20" t="str">
         <f t="shared" si="414"/>
         <v>C.A. - Inter - Adv Ac</v>
@@ -40439,7 +40428,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="276" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="276" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A276" s="20" t="str">
         <f t="shared" si="414"/>
         <v>C.A. - Inter - EIS &amp; Strategic Mgmt</v>
@@ -40526,7 +40515,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="277" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="277" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A277" s="20" t="str">
         <f t="shared" si="414"/>
         <v>C.A. - Inter - Fin Mgmt &amp; Eco</v>
@@ -40611,7 +40600,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="278" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="278" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A278" s="20" t="str">
         <f t="shared" si="414"/>
         <v>C.A. - Final - Fin Reporting</v>
@@ -40754,7 +40743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:40" ht="13.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="279" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A279" s="20" t="str">
         <f t="shared" si="414"/>
         <v>C.A. - Final - Strategic Fin Mgmt</v>
@@ -40841,7 +40830,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="280" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="280" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A280" s="20" t="str">
         <f t="shared" si="414"/>
         <v>C.A. - Final - Audit &amp; Ethics</v>
@@ -40926,7 +40915,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="281" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="281" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A281" s="20" t="str">
         <f t="shared" si="414"/>
         <v>C.A. - Final - Corporate &amp; Eco Laws</v>
@@ -41013,7 +41002,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="282" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="282" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A282" s="20" t="str">
         <f t="shared" si="414"/>
         <v>C.A. - Final - Strategic Cost &amp; Perf Eval</v>
@@ -41100,7 +41089,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="283" spans="1:40" ht="17" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="283" spans="1:40" ht="17" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A283" s="20" t="str">
         <f t="shared" si="414"/>
         <v>C.A. - Final - Risk, Cptl Mkt, Glbl FnRpt</v>
@@ -41185,7 +41174,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="284" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="284" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A284" s="20" t="str">
         <f t="shared" si="414"/>
         <v>C.A. - Final - Direct Tax &amp; Intrtnl Tax</v>
@@ -41272,7 +41261,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="285" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="285" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A285" s="20" t="str">
         <f t="shared" si="414"/>
         <v>C.A. - Final - Indirect Tax laws</v>
@@ -41359,7 +41348,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="286" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="286" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A286" s="32" t="str">
         <f t="shared" si="414"/>
         <v>C.M.A. - Found - Bizz laws &amp; comm</v>
@@ -41500,7 +41489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="287" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A287" s="32" t="str">
         <f t="shared" si="414"/>
         <v>C.M.A. - Found - Fin &amp; Cost Ac</v>
@@ -41585,7 +41574,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="288" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="288" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A288" s="32" t="str">
         <f t="shared" si="414"/>
         <v>C.M.A. - Found - Bizz math &amp; Stat</v>
@@ -41670,7 +41659,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="289" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="289" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A289" s="32" t="str">
         <f t="shared" si="414"/>
         <v>C.M.A. - Found - Bizz Eco &amp; Math</v>
@@ -41755,7 +41744,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="290" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="290" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A290" s="32" t="str">
         <f t="shared" si="414"/>
         <v>C.M.A. - Inter - Biz Law &amp; Ethics</v>
@@ -41896,7 +41885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="291" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A291" s="32" t="str">
         <f t="shared" si="414"/>
         <v>C.M.A. - Inter - Fin Ac</v>
@@ -41981,7 +41970,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="292" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="292" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A292" s="32" t="str">
         <f t="shared" si="414"/>
         <v>C.M.A. - Inter - Direct Indirect Tax</v>
@@ -42066,7 +42055,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="293" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="293" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A293" s="32" t="str">
         <f t="shared" si="414"/>
         <v>C.M.A. - Inter - Cost AC</v>
@@ -42151,7 +42140,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="294" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="294" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A294" s="32" t="str">
         <f t="shared" si="414"/>
         <v>C.M.A. - Inter - Ops &amp; Mgmt Strategic</v>
@@ -42236,7 +42225,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="295" spans="1:40" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="295" spans="1:40" ht="24" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A295" s="32" t="str">
         <f t="shared" si="414"/>
         <v>C.M.A. - Inter - Corporate AC &amp; Auditing</v>
@@ -42321,7 +42310,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="296" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="296" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A296" s="32" t="str">
         <f t="shared" si="414"/>
         <v>C.M.A. - Inter - Fin Mgmt-Data Anltcs</v>
@@ -42406,7 +42395,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="297" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="297" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A297" s="32" t="str">
         <f t="shared" si="414"/>
         <v>C.M.A. - Inter - Mgmt AC</v>
@@ -42491,7 +42480,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="298" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="298" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A298" s="32" t="str">
         <f t="shared" si="414"/>
         <v>C.M.A. - Final - Corporate &amp; Eco Laws</v>
@@ -42632,7 +42621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="299" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A299" s="32" t="str">
         <f t="shared" si="414"/>
         <v>C.M.A. - Final - Strategic Fin Mgmt</v>
@@ -42717,7 +42706,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="300" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="300" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A300" s="32" t="str">
         <f t="shared" si="414"/>
         <v>C.M.A. - Final - Direct &amp; Intrntnl Tax</v>
@@ -42802,7 +42791,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="301" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="301" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A301" s="32" t="str">
         <f t="shared" si="414"/>
         <v>C.M.A. - Final - Strategic Cost Mgmt</v>
@@ -42887,7 +42876,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="302" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="302" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A302" s="32" t="str">
         <f t="shared" si="414"/>
         <v>C.M.A. - Final - Cost &amp; Mgmt Audit</v>
@@ -42972,7 +42961,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="303" spans="1:40" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="303" spans="1:40" ht="24" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A303" s="32" t="str">
         <f t="shared" si="414"/>
         <v>C.M.A. - Final - Corporate Fin Reporting</v>
@@ -43057,7 +43046,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="304" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="304" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A304" s="32" t="str">
         <f t="shared" si="414"/>
         <v>C.M.A. - Final - Indirect Tax</v>
@@ -43142,7 +43131,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="305" spans="1:40" ht="13.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="305" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A305" s="32" t="str">
         <f t="shared" si="414"/>
         <v>C.M.A. - Final - Strt Perf Mgmt &amp; Eval</v>
@@ -43227,7 +43216,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="306" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="306" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A306" s="20" t="str">
         <f t="shared" si="414"/>
         <v>C.S. - Found - Biz Env &amp; Law</v>
@@ -43368,7 +43357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:40" ht="13.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="307" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A307" s="20" t="str">
         <f t="shared" si="414"/>
         <v>C.S. - Found - Biz Mgmt, Ethics, Entsp</v>
@@ -43449,7 +43438,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="308" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="308" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A308" s="20" t="str">
         <f t="shared" si="414"/>
         <v>C.S. - Found - Biz Eco</v>
@@ -43530,7 +43519,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="309" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="309" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A309" s="20" t="str">
         <f t="shared" si="414"/>
         <v>C.S. - Found - Ac &amp; Audit</v>
@@ -43611,7 +43600,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="310" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="310" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A310" s="20" t="str">
         <f t="shared" si="414"/>
         <v>C.S. - Inter - General Law</v>
@@ -43752,7 +43741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="311" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A311" s="20" t="str">
         <f t="shared" si="414"/>
         <v>C.S. - Inter - Company Law</v>
@@ -43833,7 +43822,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="312" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="312" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A312" s="20" t="str">
         <f t="shared" si="414"/>
         <v>C.S. - Inter - Set up of Biz &amp; Closure</v>
@@ -43914,7 +43903,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="313" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="313" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A313" s="20" t="str">
         <f t="shared" si="414"/>
         <v>C.S. - Inter - Tax Law</v>
@@ -43995,7 +43984,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="314" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="314" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A314" s="20" t="str">
         <f t="shared" si="414"/>
         <v>C.S. - Inter - Corporate &amp; Mgmt AC</v>
@@ -44076,7 +44065,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="315" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="315" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A315" s="20" t="str">
         <f t="shared" si="414"/>
         <v>C.S. - Inter - Securities Law &amp; Cptl Mkt</v>
@@ -44157,7 +44146,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="316" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="316" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A316" s="20" t="str">
         <f t="shared" si="414"/>
         <v>C.S. - Inter - Eco, Biz &amp; Comm Law</v>
@@ -44238,7 +44227,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="317" spans="1:40" ht="13.5" hidden="1" x14ac:dyDescent="0.45">
+    <row r="317" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A317" s="20" t="str">
         <f t="shared" si="414"/>
         <v>C.S. - Inter - Fin &amp; Strategic Mgmt</v>
@@ -44319,7 +44308,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="318" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="318" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A318" s="20" t="str">
         <f t="shared" si="414"/>
         <v>C.S. - Final - Govrnc, Risk Mgmt, Ethics</v>
@@ -44460,7 +44449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="319" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A319" s="20" t="str">
         <f t="shared" si="414"/>
         <v>C.S. - Final - Adv Tax laws</v>
@@ -44541,7 +44530,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="320" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="320" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A320" s="20" t="str">
         <f t="shared" si="414"/>
         <v>C.S. - Final - Draft, Pleed &amp; Apprncs</v>
@@ -44622,7 +44611,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="321" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="321" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A321" s="20" t="str">
         <f t="shared" si="414"/>
         <v>C.S. - Final - Secretl Audit, Due Delgnc</v>
@@ -44703,7 +44692,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="322" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="322" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A322" s="20" t="str">
         <f t="shared" si="414"/>
         <v>C.S. - Final - Corp Restrct, Winding Up</v>
@@ -44784,7 +44773,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="323" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="323" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A323" s="20" t="str">
         <f t="shared" si="414"/>
         <v>C.S. - Final - Resln of Corp Disputes</v>
@@ -44865,7 +44854,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="324" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="324" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A324" s="20" t="str">
         <f t="shared" si="414"/>
         <v>C.S. - Final - Corp Fund &amp; Stock Listing</v>
@@ -44946,7 +44935,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="325" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="325" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A325" s="20" t="str">
         <f t="shared" si="414"/>
         <v>C.S. - Final - Multi Discp Case Studies</v>
@@ -45027,7 +45016,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="326" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="326" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A326" s="20" t="str">
         <f t="shared" si="414"/>
         <v>C.S. - Final - Intellectual Prpt Rights</v>
@@ -45108,7 +45097,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="327" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="327" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A327" s="32" t="str">
         <f t="shared" si="414"/>
         <v>C.F.A. - L-1 - Ethical &amp; Prof Standards</v>
@@ -45249,7 +45238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="328" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A328" s="32" t="str">
         <f t="shared" si="414"/>
         <v>C.F.A. - L-1 - Quantitive Methods</v>
@@ -45330,7 +45319,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="329" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="329" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A329" s="32" t="str">
         <f t="shared" si="414"/>
         <v>C.F.A. - L-1 - Economics</v>
@@ -45411,7 +45400,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="330" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="330" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A330" s="32" t="str">
         <f t="shared" si="414"/>
         <v>C.F.A. - L-1 - Fin Statement Analysis</v>
@@ -45492,7 +45481,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="331" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="331" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A331" s="32" t="str">
         <f t="shared" ref="A331:A356" si="433">D331&amp;" - "&amp;C331&amp;" - "&amp;B331</f>
         <v>C.F.A. - L-1 - Corporate Issuers</v>
@@ -45573,7 +45562,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="332" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="332" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A332" s="32" t="str">
         <f t="shared" si="433"/>
         <v>C.F.A. - L-1 - Equity Investments</v>
@@ -45654,7 +45643,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="333" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="333" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A333" s="32" t="str">
         <f t="shared" si="433"/>
         <v>C.F.A. - L-1 - Fixed Income</v>
@@ -45735,7 +45724,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="334" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="334" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A334" s="32" t="str">
         <f t="shared" si="433"/>
         <v>C.F.A. - L-1 - Derivatives</v>
@@ -45816,7 +45805,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="335" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="335" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A335" s="32" t="str">
         <f t="shared" si="433"/>
         <v>C.F.A. - L-1 - Alternative Investments</v>
@@ -45897,7 +45886,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="336" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="336" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A336" s="32" t="str">
         <f t="shared" si="433"/>
         <v>C.F.A. - L-1 - Portrfolio Mgmt &amp; Wealth</v>
@@ -45978,7 +45967,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="337" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="337" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A337" s="32" t="str">
         <f t="shared" si="433"/>
         <v>C.F.A. - L-2 - Ethical &amp; Prof Standards</v>
@@ -46119,7 +46108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="338" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A338" s="32" t="str">
         <f t="shared" si="433"/>
         <v>C.F.A. - L-2 - Quantitive Methods</v>
@@ -46200,7 +46189,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="339" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="339" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A339" s="32" t="str">
         <f t="shared" si="433"/>
         <v>C.F.A. - L-2 - Economics</v>
@@ -46281,7 +46270,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="340" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="340" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A340" s="32" t="str">
         <f t="shared" si="433"/>
         <v>C.F.A. - L-2 - Fin Statement Analysis</v>
@@ -46362,7 +46351,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="341" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="341" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A341" s="32" t="str">
         <f t="shared" si="433"/>
         <v>C.F.A. - L-2 - Corporate Issuers</v>
@@ -46443,7 +46432,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="342" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="342" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A342" s="32" t="str">
         <f t="shared" si="433"/>
         <v>C.F.A. - L-2 - Equity Investments</v>
@@ -46524,7 +46513,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="343" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="343" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A343" s="32" t="str">
         <f t="shared" si="433"/>
         <v>C.F.A. - L-2 - Fixed Income</v>
@@ -46605,7 +46594,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="344" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="344" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A344" s="32" t="str">
         <f t="shared" si="433"/>
         <v>C.F.A. - L-2 - Derivatives</v>
@@ -46686,7 +46675,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="345" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="345" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A345" s="32" t="str">
         <f t="shared" si="433"/>
         <v>C.F.A. - L-2 - Alternative Investments</v>
@@ -46767,7 +46756,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="346" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="346" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A346" s="32" t="str">
         <f t="shared" si="433"/>
         <v>C.F.A. - L-2 - Portrfolio Mgmt-Wealth</v>
@@ -46848,7 +46837,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="347" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="347" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A347" s="32" t="str">
         <f t="shared" si="433"/>
         <v>C.F.A. - L-3 - Ethical &amp; Prof Standards</v>
@@ -46989,7 +46978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="348" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A348" s="32" t="str">
         <f t="shared" si="433"/>
         <v>C.F.A. - L-3 - Quantitive Methods</v>
@@ -47070,7 +47059,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="349" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="349" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A349" s="32" t="str">
         <f t="shared" si="433"/>
         <v>C.F.A. - L-3 - Economics</v>
@@ -47151,7 +47140,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="350" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="350" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A350" s="32" t="str">
         <f t="shared" si="433"/>
         <v>C.F.A. - L-3 - Fin Statement Analysis</v>
@@ -47232,7 +47221,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="351" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="351" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A351" s="32" t="str">
         <f t="shared" si="433"/>
         <v>C.F.A. - L-3 - Corporate Issuers</v>
@@ -47313,7 +47302,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="352" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="352" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A352" s="32" t="str">
         <f t="shared" si="433"/>
         <v>C.F.A. - L-3 - Equity Investments</v>
@@ -47394,7 +47383,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="353" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="353" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A353" s="32" t="str">
         <f t="shared" si="433"/>
         <v>C.F.A. - L-3 - Fixed Income</v>
@@ -47475,7 +47464,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="354" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="354" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A354" s="32" t="str">
         <f t="shared" si="433"/>
         <v>C.F.A. - L-3 - Derivatives</v>
@@ -47556,7 +47545,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="355" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="355" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A355" s="32" t="str">
         <f t="shared" si="433"/>
         <v>C.F.A. - L-3 - Alternative Investments</v>
@@ -47637,7 +47626,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="356" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="356" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A356" s="32" t="str">
         <f t="shared" si="433"/>
         <v>C.F.A. - L-3 - Portrfolio Mgmt-Wealth</v>
@@ -47718,7 +47707,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="357" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="357" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A357" s="19" t="str">
         <f>B357</f>
         <v>Spoken English</v>
@@ -47863,7 +47852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="358" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A358" s="19" t="str">
         <f>B358</f>
         <v>Advanced Grooming</v>
@@ -48008,7 +47997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="359" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A359" s="19" t="str">
         <f t="shared" ref="A359:A362" si="443">B359</f>
         <v>IELTS</v>
@@ -48151,7 +48140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="360" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A360" s="19" t="str">
         <f t="shared" si="443"/>
         <v>TOEFL</v>
@@ -48294,7 +48283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="361" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A361" s="19" t="str">
         <f t="shared" si="443"/>
         <v>PTE</v>
@@ -48437,7 +48426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="362" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A362" s="19" t="str">
         <f t="shared" si="443"/>
         <v>GRE</v>
@@ -48580,7 +48569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="363" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A363" s="19" t="str">
         <f>B363</f>
         <v>Classroom2Boardroom</v>
@@ -48723,7 +48712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="364" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A364" s="19" t="str">
         <f t="shared" ref="A364:A365" si="444">B364</f>
         <v>Employee to Manager</v>
@@ -48866,7 +48855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="365" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A365" s="19" t="str">
         <f t="shared" si="444"/>
         <v>Executive Training</v>
@@ -49009,7 +48998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="366" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A366" s="13" t="str">
         <f t="shared" ref="A366:A392" si="445">B366</f>
         <v>MS Office</v>
@@ -49154,7 +49143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="367" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A367" s="13" t="str">
         <f t="shared" si="445"/>
         <v>Advanced Excel (VBA)</v>
@@ -49299,7 +49288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="368" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A368" s="13" t="str">
         <f t="shared" si="445"/>
         <v>C</v>
@@ -49444,7 +49433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="369" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A369" s="13" t="str">
         <f t="shared" si="445"/>
         <v>C++</v>
@@ -49589,7 +49578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="370" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A370" s="13" t="str">
         <f t="shared" si="445"/>
         <v>HTML, CSS, JavaScript</v>
@@ -49734,7 +49723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="371" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A371" s="13" t="str">
         <f t="shared" si="445"/>
         <v>Java</v>
@@ -49879,7 +49868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="372" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A372" s="13" t="str">
         <f t="shared" si="445"/>
         <v>Advanced Java</v>
@@ -50024,7 +50013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="373" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A373" s="13" t="str">
         <f t="shared" si="445"/>
         <v>.Net (C#, VB.Net)</v>
@@ -50169,7 +50158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="374" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A374" s="13" t="str">
         <f t="shared" si="445"/>
         <v>Advanced .Net</v>
@@ -50314,7 +50303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="375" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A375" s="13" t="str">
         <f t="shared" si="445"/>
         <v>Microsoft Azure Cloud</v>
@@ -50457,7 +50446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="376" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A376" s="13" t="str">
         <f t="shared" si="445"/>
         <v>React, MUI</v>
@@ -50602,7 +50591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="377" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A377" s="13" t="str">
         <f t="shared" si="445"/>
         <v>React Native</v>
@@ -50747,7 +50736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="378" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A378" s="13" t="str">
         <f t="shared" si="445"/>
         <v>PHP, Wordpress</v>
@@ -50892,7 +50881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="379" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A379" s="13" t="str">
         <f t="shared" si="445"/>
         <v>Linux, Shell Script</v>
@@ -51037,7 +51026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="380" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A380" s="13" t="str">
         <f t="shared" si="445"/>
         <v>Networking &amp; CCNA</v>
@@ -51180,7 +51169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="381" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A381" s="13" t="str">
         <f t="shared" si="445"/>
         <v>Hands-on Network H/W</v>
@@ -51325,7 +51314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="382" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A382" s="13" t="str">
         <f t="shared" si="445"/>
         <v>Devops</v>
@@ -51468,7 +51457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="383" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A383" s="13" t="str">
         <f t="shared" si="445"/>
         <v>Docker &amp; Kubernetes</v>
@@ -51611,7 +51600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="384" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A384" s="13" t="str">
         <f t="shared" si="445"/>
         <v>Cloud, AWS, GCP</v>
@@ -51754,7 +51743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="385" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A385" s="13" t="str">
         <f t="shared" si="445"/>
         <v>Cyber security Basics</v>
@@ -51897,7 +51886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="386" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A386" s="13" t="str">
         <f t="shared" si="445"/>
         <v>Cyber security Advanced</v>
@@ -52040,7 +52029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="387" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A387" s="13" t="str">
         <f t="shared" si="445"/>
         <v>Test Automtn Selenium</v>
@@ -52183,7 +52172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="388" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A388" s="13" t="s">
         <v>174</v>
       </c>
@@ -52327,7 +52316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="389" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A389" s="13" t="s">
         <v>175</v>
       </c>
@@ -52471,7 +52460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="390" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A390" s="13" t="s">
         <v>176</v>
       </c>
@@ -52615,7 +52604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="391" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A391" s="13" t="s">
         <v>177</v>
       </c>
@@ -52758,7 +52747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="392" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A392" s="13" t="str">
         <f t="shared" si="445"/>
         <v>Tally</v>
@@ -52901,7 +52890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="393" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A393" s="13" t="str">
         <f>B393</f>
         <v>Advanced Comme Pkg</v>
@@ -53044,7 +53033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="394" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A394" s="13" t="str">
         <f>B394</f>
         <v>Prince2</v>
@@ -53189,7 +53178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="395" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A395" s="13" t="str">
         <f>B395</f>
         <v>Agile Scrum</v>
@@ -53334,7 +53323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="396" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A396" s="13" t="str">
         <f t="shared" ref="A396:A403" si="497">B396</f>
         <v>Python</v>
@@ -53479,7 +53468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="397" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A397" s="13" t="str">
         <f t="shared" si="497"/>
         <v>Data Analytics</v>
@@ -53624,7 +53613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="398" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A398" s="13" t="str">
         <f t="shared" si="497"/>
         <v>Data Science &amp; AI</v>
@@ -53769,7 +53758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="399" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A399" s="13" t="str">
         <f t="shared" si="497"/>
         <v>AI - DSP</v>
@@ -53914,7 +53903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="400" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A400" s="13" t="str">
         <f t="shared" si="497"/>
         <v>AI - NLP (RNN)</v>
@@ -54059,7 +54048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="401" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A401" s="13" t="str">
         <f t="shared" si="497"/>
         <v>AI - Comp Vision (CNN)</v>
@@ -54204,7 +54193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="402" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A402" s="13" t="str">
         <f t="shared" si="497"/>
         <v>IoT, Robotics</v>
@@ -54349,7 +54338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="403" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A403" s="13" t="str">
         <f t="shared" si="497"/>
         <v>Advanced IoT, Robotics</v>
@@ -54495,15 +54484,39 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:AE403" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <filterColumn colId="5">
-      <filters>
-        <filter val="Avishek"/>
-        <filter val="Sujata"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A3:AE403" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="43">
+    <mergeCell ref="AF1:AJ1"/>
+    <mergeCell ref="AK2:AK3"/>
+    <mergeCell ref="AL2:AL3"/>
+    <mergeCell ref="AM2:AM3"/>
+    <mergeCell ref="AN2:AN3"/>
+    <mergeCell ref="AK1:AN1"/>
+    <mergeCell ref="AF2:AF3"/>
+    <mergeCell ref="AG2:AG3"/>
+    <mergeCell ref="AH2:AH3"/>
+    <mergeCell ref="AI2:AI3"/>
+    <mergeCell ref="AJ2:AJ3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="V2:V3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="L2:M2"/>
     <mergeCell ref="F1:U1"/>
     <mergeCell ref="V1:Z1"/>
     <mergeCell ref="AA1:AE1"/>
@@ -54515,38 +54528,7 @@
     <mergeCell ref="X2:X3"/>
     <mergeCell ref="Y2:Y3"/>
     <mergeCell ref="Z2:Z3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="U2:U3"/>
-    <mergeCell ref="V2:V3"/>
     <mergeCell ref="W2:W3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="AF1:AJ1"/>
-    <mergeCell ref="AK2:AK3"/>
-    <mergeCell ref="AL2:AL3"/>
-    <mergeCell ref="AM2:AM3"/>
-    <mergeCell ref="AN2:AN3"/>
-    <mergeCell ref="AK1:AN1"/>
-    <mergeCell ref="AF2:AF3"/>
-    <mergeCell ref="AG2:AG3"/>
-    <mergeCell ref="AH2:AH3"/>
-    <mergeCell ref="AI2:AI3"/>
-    <mergeCell ref="AJ2:AJ3"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -54562,13 +54544,13 @@
       <selection activeCell="B1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.6640625" defaultRowHeight="13.15" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="6.6640625" defaultRowHeight="13.5" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="6.6640625" style="2"/>
     <col min="2" max="16384" width="6.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="12.75" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A1" s="30"/>
       <c r="B1" s="30"/>
       <c r="C1" s="30"/>
@@ -54592,7 +54574,7 @@
       <c r="U1" s="30"/>
       <c r="V1" s="62"/>
     </row>
-    <row r="2" spans="1:22" ht="12.75" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A2" s="30"/>
       <c r="B2" s="30"/>
       <c r="C2" s="30"/>
@@ -54616,7 +54598,7 @@
       <c r="U2" s="30"/>
       <c r="V2" s="62"/>
     </row>
-    <row r="3" spans="1:22" ht="12.75" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A3" s="30"/>
       <c r="B3" s="30"/>
       <c r="C3" s="30"/>
@@ -54640,7 +54622,7 @@
       <c r="U3" s="30"/>
       <c r="V3" s="62"/>
     </row>
-    <row r="4" spans="1:22" ht="12.75" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A4" s="30"/>
       <c r="B4" s="30"/>
       <c r="C4" s="30"/>
@@ -54664,7 +54646,7 @@
       <c r="U4" s="30"/>
       <c r="V4" s="62"/>
     </row>
-    <row r="5" spans="1:22" ht="12.75" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A5" s="30"/>
       <c r="B5" s="30"/>
       <c r="C5" s="30"/>
@@ -55148,7 +55130,7 @@
       <c r="T25" s="30"/>
       <c r="U25" s="30"/>
     </row>
-    <row r="26" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A26" s="30"/>
       <c r="B26" s="30"/>
       <c r="C26" s="30"/>
@@ -55171,7 +55153,7 @@
       <c r="T26" s="30"/>
       <c r="U26" s="30"/>
     </row>
-    <row r="27" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A27" s="30"/>
       <c r="B27" s="30"/>
       <c r="C27" s="30"/>
@@ -55194,7 +55176,7 @@
       <c r="T27" s="30"/>
       <c r="U27" s="30"/>
     </row>
-    <row r="28" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A28" s="30"/>
       <c r="B28" s="30"/>
       <c r="C28" s="30"/>
@@ -55217,7 +55199,7 @@
       <c r="T28" s="30"/>
       <c r="U28" s="30"/>
     </row>
-    <row r="29" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A29" s="30"/>
       <c r="B29" s="30"/>
       <c r="C29" s="30"/>
@@ -55240,7 +55222,7 @@
       <c r="T29" s="30"/>
       <c r="U29" s="30"/>
     </row>
-    <row r="30" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A30" s="30"/>
       <c r="B30" s="30"/>
       <c r="C30" s="30"/>
@@ -55263,7 +55245,7 @@
       <c r="T30" s="30"/>
       <c r="U30" s="30"/>
     </row>
-    <row r="31" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A31" s="30"/>
       <c r="B31" s="30"/>
       <c r="C31" s="30"/>
@@ -55286,7 +55268,7 @@
       <c r="T31" s="30"/>
       <c r="U31" s="30"/>
     </row>
-    <row r="32" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A32" s="30"/>
       <c r="B32" s="30"/>
       <c r="C32" s="30"/>
@@ -55309,7 +55291,7 @@
       <c r="T32" s="30"/>
       <c r="U32" s="30"/>
     </row>
-    <row r="33" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A33" s="30"/>
       <c r="B33" s="30"/>
       <c r="C33" s="30"/>
@@ -55332,7 +55314,7 @@
       <c r="T33" s="30"/>
       <c r="U33" s="30"/>
     </row>
-    <row r="34" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A34" s="30"/>
       <c r="B34" s="30"/>
       <c r="C34" s="30"/>
@@ -55355,7 +55337,7 @@
       <c r="T34" s="30"/>
       <c r="U34" s="30"/>
     </row>
-    <row r="35" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A35" s="30"/>
       <c r="B35" s="30"/>
       <c r="C35" s="30"/>
@@ -55378,7 +55360,7 @@
       <c r="T35" s="30"/>
       <c r="U35" s="30"/>
     </row>
-    <row r="36" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A36" s="30"/>
       <c r="B36" s="30"/>
       <c r="C36" s="30"/>
@@ -55401,7 +55383,7 @@
       <c r="T36" s="30"/>
       <c r="U36" s="30"/>
     </row>
-    <row r="37" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A37" s="30"/>
       <c r="B37" s="30"/>
       <c r="C37" s="30"/>
@@ -55424,7 +55406,7 @@
       <c r="T37" s="30"/>
       <c r="U37" s="30"/>
     </row>
-    <row r="38" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A38" s="30"/>
       <c r="B38" s="30"/>
       <c r="C38" s="30"/>
@@ -55447,7 +55429,7 @@
       <c r="T38" s="30"/>
       <c r="U38" s="30"/>
     </row>
-    <row r="39" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A39" s="30"/>
       <c r="B39" s="30"/>
       <c r="C39" s="30"/>
@@ -55470,7 +55452,7 @@
       <c r="T39" s="30"/>
       <c r="U39" s="30"/>
     </row>
-    <row r="40" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A40" s="30"/>
       <c r="B40" s="30"/>
       <c r="C40" s="30"/>
@@ -55493,7 +55475,7 @@
       <c r="T40" s="30"/>
       <c r="U40" s="30"/>
     </row>
-    <row r="41" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A41" s="30"/>
       <c r="B41" s="30"/>
       <c r="C41" s="30"/>
@@ -55516,7 +55498,7 @@
       <c r="T41" s="30"/>
       <c r="U41" s="30"/>
     </row>
-    <row r="42" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A42" s="30"/>
       <c r="B42" s="30"/>
       <c r="C42" s="30"/>
@@ -55539,7 +55521,7 @@
       <c r="T42" s="30"/>
       <c r="U42" s="30"/>
     </row>
-    <row r="43" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A43" s="30"/>
       <c r="B43" s="30"/>
       <c r="C43" s="30"/>
@@ -55562,7 +55544,7 @@
       <c r="T43" s="30"/>
       <c r="U43" s="30"/>
     </row>
-    <row r="44" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A44" s="30"/>
       <c r="B44" s="30"/>
       <c r="C44" s="30"/>
@@ -55585,7 +55567,7 @@
       <c r="T44" s="30"/>
       <c r="U44" s="30"/>
     </row>
-    <row r="45" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A45" s="30"/>
       <c r="B45" s="30"/>
       <c r="C45" s="30"/>
@@ -55608,7 +55590,7 @@
       <c r="T45" s="30"/>
       <c r="U45" s="30"/>
     </row>
-    <row r="46" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A46" s="30"/>
       <c r="B46" s="30"/>
       <c r="C46" s="30"/>
@@ -55631,7 +55613,7 @@
       <c r="T46" s="30"/>
       <c r="U46" s="30"/>
     </row>
-    <row r="47" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A47" s="30"/>
       <c r="B47" s="30"/>
       <c r="C47" s="30"/>
@@ -55654,7 +55636,7 @@
       <c r="T47" s="30"/>
       <c r="U47" s="30"/>
     </row>
-    <row r="48" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A48" s="30"/>
       <c r="B48" s="30"/>
       <c r="C48" s="30"/>
@@ -55677,7 +55659,7 @@
       <c r="T48" s="30"/>
       <c r="U48" s="30"/>
     </row>
-    <row r="49" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A49" s="30"/>
       <c r="B49" s="30"/>
       <c r="C49" s="30"/>
@@ -55700,7 +55682,7 @@
       <c r="T49" s="30"/>
       <c r="U49" s="30"/>
     </row>
-    <row r="50" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A50" s="30"/>
       <c r="B50" s="30"/>
       <c r="C50" s="30"/>
@@ -55723,7 +55705,7 @@
       <c r="T50" s="30"/>
       <c r="U50" s="30"/>
     </row>
-    <row r="51" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A51" s="30"/>
       <c r="B51" s="30"/>
       <c r="C51" s="30"/>
@@ -55746,7 +55728,7 @@
       <c r="T51" s="30"/>
       <c r="U51" s="30"/>
     </row>
-    <row r="52" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A52" s="30"/>
       <c r="B52" s="30"/>
       <c r="C52" s="30"/>
@@ -55769,7 +55751,7 @@
       <c r="T52" s="30"/>
       <c r="U52" s="30"/>
     </row>
-    <row r="53" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A53" s="30"/>
       <c r="B53" s="30"/>
       <c r="C53" s="30"/>
@@ -55792,7 +55774,7 @@
       <c r="T53" s="30"/>
       <c r="U53" s="30"/>
     </row>
-    <row r="54" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A54" s="30"/>
       <c r="B54" s="30"/>
       <c r="C54" s="30"/>
@@ -55815,7 +55797,7 @@
       <c r="T54" s="30"/>
       <c r="U54" s="30"/>
     </row>
-    <row r="55" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A55" s="30"/>
       <c r="B55" s="30"/>
       <c r="C55" s="30"/>
@@ -55838,7 +55820,7 @@
       <c r="T55" s="30"/>
       <c r="U55" s="30"/>
     </row>
-    <row r="56" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A56" s="30"/>
       <c r="B56" s="30"/>
       <c r="C56" s="30"/>
@@ -55861,7 +55843,7 @@
       <c r="T56" s="30"/>
       <c r="U56" s="30"/>
     </row>
-    <row r="57" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A57" s="30"/>
       <c r="B57" s="30"/>
       <c r="C57" s="30"/>
@@ -55884,7 +55866,7 @@
       <c r="T57" s="30"/>
       <c r="U57" s="30"/>
     </row>
-    <row r="58" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A58" s="30"/>
       <c r="B58" s="30"/>
       <c r="C58" s="30"/>
@@ -55907,7 +55889,7 @@
       <c r="T58" s="30"/>
       <c r="U58" s="30"/>
     </row>
-    <row r="59" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A59" s="30"/>
       <c r="B59" s="30"/>
       <c r="C59" s="30"/>
@@ -55930,7 +55912,7 @@
       <c r="T59" s="30"/>
       <c r="U59" s="30"/>
     </row>
-    <row r="60" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A60" s="30"/>
       <c r="B60" s="30"/>
       <c r="C60" s="30"/>
@@ -55953,7 +55935,7 @@
       <c r="T60" s="30"/>
       <c r="U60" s="30"/>
     </row>
-    <row r="61" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A61" s="30"/>
       <c r="B61" s="30"/>
       <c r="C61" s="30"/>
@@ -55976,7 +55958,7 @@
       <c r="T61" s="30"/>
       <c r="U61" s="30"/>
     </row>
-    <row r="62" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A62" s="30"/>
       <c r="B62" s="30"/>
       <c r="C62" s="30"/>
@@ -55999,7 +55981,7 @@
       <c r="T62" s="30"/>
       <c r="U62" s="30"/>
     </row>
-    <row r="63" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A63" s="30"/>
       <c r="B63" s="30"/>
       <c r="C63" s="30"/>
@@ -56022,7 +56004,7 @@
       <c r="T63" s="30"/>
       <c r="U63" s="30"/>
     </row>
-    <row r="64" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A64" s="30"/>
       <c r="B64" s="30"/>
       <c r="C64" s="30"/>
@@ -56045,7 +56027,7 @@
       <c r="T64" s="30"/>
       <c r="U64" s="30"/>
     </row>
-    <row r="65" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A65" s="30"/>
       <c r="B65" s="30"/>
       <c r="C65" s="30"/>
@@ -56068,7 +56050,7 @@
       <c r="T65" s="30"/>
       <c r="U65" s="30"/>
     </row>
-    <row r="66" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A66" s="30"/>
       <c r="B66" s="30"/>
       <c r="C66" s="30"/>
@@ -56091,7 +56073,7 @@
       <c r="T66" s="30"/>
       <c r="U66" s="30"/>
     </row>
-    <row r="67" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A67" s="30"/>
       <c r="B67" s="30"/>
       <c r="C67" s="30"/>
@@ -56114,7 +56096,7 @@
       <c r="T67" s="30"/>
       <c r="U67" s="30"/>
     </row>
-    <row r="68" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A68" s="30"/>
       <c r="B68" s="30"/>
       <c r="C68" s="30"/>
@@ -56137,7 +56119,7 @@
       <c r="T68" s="30"/>
       <c r="U68" s="30"/>
     </row>
-    <row r="69" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A69" s="30"/>
       <c r="B69" s="30"/>
       <c r="C69" s="30"/>
@@ -56160,7 +56142,7 @@
       <c r="T69" s="30"/>
       <c r="U69" s="30"/>
     </row>
-    <row r="70" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A70" s="30"/>
       <c r="B70" s="30"/>
       <c r="C70" s="30"/>
@@ -56183,7 +56165,7 @@
       <c r="T70" s="30"/>
       <c r="U70" s="30"/>
     </row>
-    <row r="71" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A71" s="30"/>
       <c r="B71" s="30"/>
       <c r="C71" s="30"/>
@@ -56206,7 +56188,7 @@
       <c r="T71" s="30"/>
       <c r="U71" s="30"/>
     </row>
-    <row r="72" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A72" s="30"/>
       <c r="B72" s="30"/>
       <c r="C72" s="30"/>
@@ -56229,7 +56211,7 @@
       <c r="T72" s="30"/>
       <c r="U72" s="30"/>
     </row>
-    <row r="73" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A73" s="30"/>
       <c r="B73" s="30"/>
       <c r="C73" s="30"/>
@@ -56252,7 +56234,7 @@
       <c r="T73" s="30"/>
       <c r="U73" s="30"/>
     </row>
-    <row r="74" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A74" s="30"/>
       <c r="B74" s="30"/>
       <c r="C74" s="30"/>
@@ -56275,7 +56257,7 @@
       <c r="T74" s="30"/>
       <c r="U74" s="30"/>
     </row>
-    <row r="75" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A75" s="30"/>
       <c r="B75" s="30"/>
       <c r="C75" s="30"/>
@@ -56298,7 +56280,7 @@
       <c r="T75" s="30"/>
       <c r="U75" s="30"/>
     </row>
-    <row r="76" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A76" s="30"/>
       <c r="B76" s="30"/>
       <c r="C76" s="30"/>
@@ -56321,7 +56303,7 @@
       <c r="T76" s="30"/>
       <c r="U76" s="30"/>
     </row>
-    <row r="77" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A77" s="30"/>
       <c r="B77" s="30"/>
       <c r="C77" s="30"/>
@@ -56344,7 +56326,7 @@
       <c r="T77" s="30"/>
       <c r="U77" s="30"/>
     </row>
-    <row r="78" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A78" s="30"/>
       <c r="B78" s="30"/>
       <c r="C78" s="30"/>
@@ -56367,7 +56349,7 @@
       <c r="T78" s="30"/>
       <c r="U78" s="30"/>
     </row>
-    <row r="79" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A79" s="30"/>
       <c r="B79" s="30"/>
       <c r="C79" s="30"/>
@@ -56390,7 +56372,7 @@
       <c r="T79" s="30"/>
       <c r="U79" s="30"/>
     </row>
-    <row r="80" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A80" s="30"/>
       <c r="B80" s="30"/>
       <c r="C80" s="30"/>
@@ -56413,7 +56395,7 @@
       <c r="T80" s="30"/>
       <c r="U80" s="30"/>
     </row>
-    <row r="81" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A81" s="30"/>
       <c r="B81" s="30"/>
       <c r="C81" s="30"/>
@@ -56436,7 +56418,7 @@
       <c r="T81" s="30"/>
       <c r="U81" s="30"/>
     </row>
-    <row r="82" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A82" s="30"/>
       <c r="B82" s="30"/>
       <c r="C82" s="30"/>
@@ -56459,7 +56441,7 @@
       <c r="T82" s="30"/>
       <c r="U82" s="30"/>
     </row>
-    <row r="83" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A83" s="30"/>
       <c r="B83" s="30"/>
       <c r="C83" s="30"/>
@@ -56482,7 +56464,7 @@
       <c r="T83" s="30"/>
       <c r="U83" s="30"/>
     </row>
-    <row r="84" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A84" s="30"/>
       <c r="B84" s="30"/>
       <c r="C84" s="30"/>
@@ -56505,7 +56487,7 @@
       <c r="T84" s="30"/>
       <c r="U84" s="30"/>
     </row>
-    <row r="85" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A85" s="30"/>
       <c r="B85" s="30"/>
       <c r="C85" s="30"/>
@@ -56528,7 +56510,7 @@
       <c r="T85" s="30"/>
       <c r="U85" s="30"/>
     </row>
-    <row r="86" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A86" s="30"/>
       <c r="B86" s="30"/>
       <c r="C86" s="30"/>
@@ -56551,7 +56533,7 @@
       <c r="T86" s="30"/>
       <c r="U86" s="30"/>
     </row>
-    <row r="87" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A87" s="30"/>
       <c r="B87" s="30"/>
       <c r="C87" s="30"/>
@@ -56574,7 +56556,7 @@
       <c r="T87" s="30"/>
       <c r="U87" s="30"/>
     </row>
-    <row r="88" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A88" s="30"/>
       <c r="B88" s="30"/>
       <c r="C88" s="30"/>
@@ -56597,7 +56579,7 @@
       <c r="T88" s="30"/>
       <c r="U88" s="30"/>
     </row>
-    <row r="89" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A89" s="30"/>
       <c r="B89" s="30"/>
       <c r="C89" s="30"/>
@@ -56620,7 +56602,7 @@
       <c r="T89" s="30"/>
       <c r="U89" s="30"/>
     </row>
-    <row r="90" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A90" s="30"/>
       <c r="B90" s="30"/>
       <c r="C90" s="30"/>
@@ -56643,7 +56625,7 @@
       <c r="T90" s="30"/>
       <c r="U90" s="30"/>
     </row>
-    <row r="91" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A91" s="30"/>
       <c r="B91" s="30"/>
       <c r="C91" s="30"/>
@@ -56666,7 +56648,7 @@
       <c r="T91" s="30"/>
       <c r="U91" s="30"/>
     </row>
-    <row r="92" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A92" s="30"/>
       <c r="B92" s="30"/>
       <c r="C92" s="30"/>
@@ -56689,7 +56671,7 @@
       <c r="T92" s="30"/>
       <c r="U92" s="30"/>
     </row>
-    <row r="93" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A93" s="30"/>
       <c r="B93" s="30"/>
       <c r="C93" s="30"/>
@@ -56712,7 +56694,7 @@
       <c r="T93" s="30"/>
       <c r="U93" s="30"/>
     </row>
-    <row r="94" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A94" s="30"/>
       <c r="B94" s="30"/>
       <c r="C94" s="30"/>
@@ -56735,7 +56717,7 @@
       <c r="T94" s="30"/>
       <c r="U94" s="30"/>
     </row>
-    <row r="95" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A95" s="30"/>
       <c r="B95" s="30"/>
       <c r="C95" s="30"/>
@@ -56758,7 +56740,7 @@
       <c r="T95" s="30"/>
       <c r="U95" s="30"/>
     </row>
-    <row r="96" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A96" s="30"/>
       <c r="B96" s="30"/>
       <c r="C96" s="30"/>
@@ -56781,7 +56763,7 @@
       <c r="T96" s="30"/>
       <c r="U96" s="30"/>
     </row>
-    <row r="97" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A97" s="30"/>
       <c r="B97" s="30"/>
       <c r="C97" s="30"/>
@@ -56804,7 +56786,7 @@
       <c r="T97" s="30"/>
       <c r="U97" s="30"/>
     </row>
-    <row r="98" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A98" s="30"/>
       <c r="B98" s="30"/>
       <c r="C98" s="30"/>
@@ -56827,7 +56809,7 @@
       <c r="T98" s="30"/>
       <c r="U98" s="30"/>
     </row>
-    <row r="99" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A99" s="30"/>
       <c r="B99" s="30"/>
       <c r="C99" s="30"/>
@@ -56850,7 +56832,7 @@
       <c r="T99" s="30"/>
       <c r="U99" s="30"/>
     </row>
-    <row r="100" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A100" s="30"/>
       <c r="B100" s="30"/>
       <c r="C100" s="30"/>
@@ -56873,7 +56855,7 @@
       <c r="T100" s="30"/>
       <c r="U100" s="30"/>
     </row>
-    <row r="101" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A101" s="30"/>
       <c r="B101" s="30"/>
       <c r="C101" s="30"/>
@@ -56896,7 +56878,7 @@
       <c r="T101" s="30"/>
       <c r="U101" s="30"/>
     </row>
-    <row r="102" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A102" s="30"/>
       <c r="B102" s="30"/>
       <c r="C102" s="30"/>
@@ -56919,7 +56901,7 @@
       <c r="T102" s="30"/>
       <c r="U102" s="30"/>
     </row>
-    <row r="103" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A103" s="30"/>
       <c r="B103" s="30"/>
       <c r="C103" s="30"/>
@@ -56942,7 +56924,7 @@
       <c r="T103" s="30"/>
       <c r="U103" s="30"/>
     </row>
-    <row r="104" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A104" s="30"/>
       <c r="B104" s="30"/>
       <c r="C104" s="30"/>
@@ -56965,7 +56947,7 @@
       <c r="T104" s="30"/>
       <c r="U104" s="30"/>
     </row>
-    <row r="105" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A105" s="30"/>
       <c r="B105" s="30"/>
       <c r="C105" s="30"/>
@@ -56988,7 +56970,7 @@
       <c r="T105" s="30"/>
       <c r="U105" s="30"/>
     </row>
-    <row r="106" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A106" s="30"/>
       <c r="B106" s="30"/>
       <c r="C106" s="30"/>
@@ -57011,7 +56993,7 @@
       <c r="T106" s="30"/>
       <c r="U106" s="30"/>
     </row>
-    <row r="107" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A107" s="30"/>
       <c r="B107" s="30"/>
       <c r="C107" s="30"/>
@@ -57034,7 +57016,7 @@
       <c r="T107" s="30"/>
       <c r="U107" s="30"/>
     </row>
-    <row r="108" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A108" s="30"/>
       <c r="B108" s="30"/>
       <c r="C108" s="30"/>
@@ -57057,7 +57039,7 @@
       <c r="T108" s="30"/>
       <c r="U108" s="30"/>
     </row>
-    <row r="109" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A109" s="30"/>
       <c r="B109" s="30"/>
       <c r="C109" s="30"/>
@@ -57080,7 +57062,7 @@
       <c r="T109" s="30"/>
       <c r="U109" s="30"/>
     </row>
-    <row r="110" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A110" s="30"/>
       <c r="B110" s="30"/>
       <c r="C110" s="30"/>
@@ -57103,7 +57085,7 @@
       <c r="T110" s="30"/>
       <c r="U110" s="30"/>
     </row>
-    <row r="111" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A111" s="30"/>
       <c r="B111" s="30"/>
       <c r="C111" s="30"/>
@@ -57126,7 +57108,7 @@
       <c r="T111" s="30"/>
       <c r="U111" s="30"/>
     </row>
-    <row r="112" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A112" s="30"/>
       <c r="B112" s="30"/>
       <c r="C112" s="30"/>
@@ -57149,7 +57131,7 @@
       <c r="T112" s="30"/>
       <c r="U112" s="30"/>
     </row>
-    <row r="113" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A113" s="30"/>
       <c r="B113" s="30"/>
       <c r="C113" s="30"/>
@@ -57172,7 +57154,7 @@
       <c r="T113" s="30"/>
       <c r="U113" s="30"/>
     </row>
-    <row r="114" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A114" s="30"/>
       <c r="B114" s="30"/>
       <c r="C114" s="30"/>
@@ -57195,7 +57177,7 @@
       <c r="T114" s="30"/>
       <c r="U114" s="30"/>
     </row>
-    <row r="115" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A115" s="30"/>
       <c r="B115" s="30"/>
       <c r="C115" s="30"/>
@@ -57218,7 +57200,7 @@
       <c r="T115" s="30"/>
       <c r="U115" s="30"/>
     </row>
-    <row r="116" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A116" s="30"/>
       <c r="B116" s="30"/>
       <c r="C116" s="30"/>
@@ -57241,7 +57223,7 @@
       <c r="T116" s="30"/>
       <c r="U116" s="30"/>
     </row>
-    <row r="117" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A117" s="30"/>
       <c r="B117" s="30"/>
       <c r="C117" s="30"/>
@@ -57264,7 +57246,7 @@
       <c r="T117" s="30"/>
       <c r="U117" s="30"/>
     </row>
-    <row r="118" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A118" s="30"/>
       <c r="B118" s="30"/>
       <c r="C118" s="30"/>
@@ -57287,7 +57269,7 @@
       <c r="T118" s="30"/>
       <c r="U118" s="30"/>
     </row>
-    <row r="119" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A119" s="30"/>
       <c r="B119" s="30"/>
       <c r="C119" s="30"/>
@@ -57310,7 +57292,7 @@
       <c r="T119" s="30"/>
       <c r="U119" s="30"/>
     </row>
-    <row r="120" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A120" s="30"/>
       <c r="B120" s="30"/>
       <c r="C120" s="30"/>
@@ -57333,7 +57315,7 @@
       <c r="T120" s="30"/>
       <c r="U120" s="30"/>
     </row>
-    <row r="121" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A121" s="30"/>
       <c r="B121" s="30"/>
       <c r="C121" s="30"/>
@@ -57356,7 +57338,7 @@
       <c r="T121" s="30"/>
       <c r="U121" s="30"/>
     </row>
-    <row r="122" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A122" s="30"/>
       <c r="B122" s="30"/>
       <c r="C122" s="30"/>
@@ -57379,7 +57361,7 @@
       <c r="T122" s="30"/>
       <c r="U122" s="30"/>
     </row>
-    <row r="123" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A123" s="30"/>
       <c r="B123" s="30"/>
       <c r="C123" s="30"/>
@@ -57402,7 +57384,7 @@
       <c r="T123" s="30"/>
       <c r="U123" s="30"/>
     </row>
-    <row r="124" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A124" s="30"/>
       <c r="B124" s="30"/>
       <c r="C124" s="30"/>
@@ -57425,7 +57407,7 @@
       <c r="T124" s="30"/>
       <c r="U124" s="30"/>
     </row>
-    <row r="125" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A125" s="30"/>
       <c r="B125" s="30"/>
       <c r="C125" s="30"/>
@@ -57448,7 +57430,7 @@
       <c r="T125" s="30"/>
       <c r="U125" s="30"/>
     </row>
-    <row r="126" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A126" s="30"/>
       <c r="B126" s="30"/>
       <c r="C126" s="30"/>
@@ -57471,7 +57453,7 @@
       <c r="T126" s="30"/>
       <c r="U126" s="30"/>
     </row>
-    <row r="127" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A127" s="30"/>
       <c r="B127" s="30"/>
       <c r="C127" s="30"/>
@@ -57494,7 +57476,7 @@
       <c r="T127" s="30"/>
       <c r="U127" s="30"/>
     </row>
-    <row r="128" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A128" s="30"/>
       <c r="B128" s="30"/>
       <c r="C128" s="30"/>
@@ -57517,7 +57499,7 @@
       <c r="T128" s="30"/>
       <c r="U128" s="30"/>
     </row>
-    <row r="129" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A129" s="30"/>
       <c r="B129" s="30"/>
       <c r="C129" s="30"/>
@@ -57540,7 +57522,7 @@
       <c r="T129" s="30"/>
       <c r="U129" s="30"/>
     </row>
-    <row r="130" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A130" s="30"/>
       <c r="B130" s="30"/>
       <c r="C130" s="30"/>
@@ -57563,7 +57545,7 @@
       <c r="T130" s="30"/>
       <c r="U130" s="30"/>
     </row>
-    <row r="131" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A131" s="30"/>
       <c r="B131" s="30"/>
       <c r="C131" s="30"/>
@@ -57586,7 +57568,7 @@
       <c r="T131" s="30"/>
       <c r="U131" s="30"/>
     </row>
-    <row r="132" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A132" s="30"/>
       <c r="B132" s="30"/>
       <c r="C132" s="30"/>
@@ -57609,7 +57591,7 @@
       <c r="T132" s="30"/>
       <c r="U132" s="30"/>
     </row>
-    <row r="133" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A133" s="30"/>
       <c r="B133" s="30"/>
       <c r="C133" s="30"/>
@@ -57632,7 +57614,7 @@
       <c r="T133" s="30"/>
       <c r="U133" s="30"/>
     </row>
-    <row r="134" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A134" s="30"/>
       <c r="B134" s="30"/>
       <c r="C134" s="30"/>
@@ -57655,7 +57637,7 @@
       <c r="T134" s="30"/>
       <c r="U134" s="30"/>
     </row>
-    <row r="135" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A135" s="30"/>
       <c r="B135" s="30"/>
       <c r="C135" s="30"/>
@@ -57678,7 +57660,7 @@
       <c r="T135" s="30"/>
       <c r="U135" s="30"/>
     </row>
-    <row r="136" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A136" s="30"/>
       <c r="B136" s="30"/>
       <c r="C136" s="30"/>
@@ -57701,7 +57683,7 @@
       <c r="T136" s="30"/>
       <c r="U136" s="30"/>
     </row>
-    <row r="137" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A137" s="30"/>
       <c r="B137" s="30"/>
       <c r="C137" s="30"/>
@@ -57724,7 +57706,7 @@
       <c r="T137" s="30"/>
       <c r="U137" s="30"/>
     </row>
-    <row r="138" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A138" s="30"/>
       <c r="B138" s="30"/>
       <c r="C138" s="30"/>
@@ -57747,7 +57729,7 @@
       <c r="T138" s="30"/>
       <c r="U138" s="30"/>
     </row>
-    <row r="139" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A139" s="30"/>
       <c r="B139" s="30"/>
       <c r="C139" s="30"/>
@@ -57770,7 +57752,7 @@
       <c r="T139" s="30"/>
       <c r="U139" s="30"/>
     </row>
-    <row r="140" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A140" s="30"/>
       <c r="B140" s="30"/>
       <c r="C140" s="30"/>
@@ -57793,7 +57775,7 @@
       <c r="T140" s="30"/>
       <c r="U140" s="30"/>
     </row>
-    <row r="141" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A141" s="30"/>
       <c r="B141" s="30"/>
       <c r="C141" s="30"/>
@@ -57816,7 +57798,7 @@
       <c r="T141" s="30"/>
       <c r="U141" s="30"/>
     </row>
-    <row r="142" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A142" s="30"/>
       <c r="B142" s="30"/>
       <c r="C142" s="30"/>
@@ -57839,7 +57821,7 @@
       <c r="T142" s="30"/>
       <c r="U142" s="30"/>
     </row>
-    <row r="143" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A143" s="30"/>
       <c r="B143" s="30"/>
       <c r="C143" s="30"/>
@@ -57862,7 +57844,7 @@
       <c r="T143" s="30"/>
       <c r="U143" s="30"/>
     </row>
-    <row r="144" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A144" s="30"/>
       <c r="B144" s="30"/>
       <c r="C144" s="30"/>
@@ -57885,7 +57867,7 @@
       <c r="T144" s="30"/>
       <c r="U144" s="30"/>
     </row>
-    <row r="145" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A145" s="30"/>
       <c r="B145" s="30"/>
       <c r="C145" s="30"/>
@@ -57908,7 +57890,7 @@
       <c r="T145" s="30"/>
       <c r="U145" s="30"/>
     </row>
-    <row r="146" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A146" s="30"/>
       <c r="B146" s="30"/>
       <c r="C146" s="30"/>
@@ -57931,7 +57913,7 @@
       <c r="T146" s="30"/>
       <c r="U146" s="30"/>
     </row>
-    <row r="147" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A147" s="30"/>
       <c r="B147" s="30"/>
       <c r="C147" s="30"/>
@@ -57954,7 +57936,7 @@
       <c r="T147" s="30"/>
       <c r="U147" s="30"/>
     </row>
-    <row r="148" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A148" s="30"/>
       <c r="B148" s="30"/>
       <c r="C148" s="30"/>
@@ -57977,7 +57959,7 @@
       <c r="T148" s="30"/>
       <c r="U148" s="30"/>
     </row>
-    <row r="149" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A149" s="30"/>
       <c r="B149" s="30"/>
       <c r="C149" s="30"/>
@@ -58000,7 +57982,7 @@
       <c r="T149" s="30"/>
       <c r="U149" s="30"/>
     </row>
-    <row r="150" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A150" s="30"/>
       <c r="B150" s="30"/>
       <c r="C150" s="30"/>
@@ -58023,7 +58005,7 @@
       <c r="T150" s="30"/>
       <c r="U150" s="30"/>
     </row>
-    <row r="151" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A151" s="30"/>
       <c r="B151" s="30"/>
       <c r="C151" s="30"/>
@@ -58046,7 +58028,7 @@
       <c r="T151" s="30"/>
       <c r="U151" s="30"/>
     </row>
-    <row r="152" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A152" s="30"/>
       <c r="B152" s="30"/>
       <c r="C152" s="30"/>
@@ -58069,7 +58051,7 @@
       <c r="T152" s="30"/>
       <c r="U152" s="30"/>
     </row>
-    <row r="153" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A153" s="30"/>
       <c r="B153" s="30"/>
       <c r="C153" s="30"/>
@@ -58092,7 +58074,7 @@
       <c r="T153" s="30"/>
       <c r="U153" s="30"/>
     </row>
-    <row r="154" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A154" s="30"/>
       <c r="B154" s="30"/>
       <c r="C154" s="30"/>
@@ -58115,7 +58097,7 @@
       <c r="T154" s="30"/>
       <c r="U154" s="30"/>
     </row>
-    <row r="155" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A155" s="30"/>
       <c r="B155" s="30"/>
       <c r="C155" s="30"/>
@@ -58138,7 +58120,7 @@
       <c r="T155" s="30"/>
       <c r="U155" s="30"/>
     </row>
-    <row r="156" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A156" s="30"/>
       <c r="B156" s="30"/>
       <c r="C156" s="30"/>
@@ -58161,7 +58143,7 @@
       <c r="T156" s="30"/>
       <c r="U156" s="30"/>
     </row>
-    <row r="157" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A157" s="30"/>
       <c r="B157" s="30"/>
       <c r="C157" s="30"/>
@@ -58184,7 +58166,7 @@
       <c r="T157" s="30"/>
       <c r="U157" s="30"/>
     </row>
-    <row r="158" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A158" s="30"/>
       <c r="B158" s="30"/>
       <c r="C158" s="30"/>
@@ -58207,7 +58189,7 @@
       <c r="T158" s="30"/>
       <c r="U158" s="30"/>
     </row>
-    <row r="159" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A159" s="30"/>
       <c r="B159" s="30"/>
       <c r="C159" s="30"/>
@@ -58230,7 +58212,7 @@
       <c r="T159" s="30"/>
       <c r="U159" s="30"/>
     </row>
-    <row r="160" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A160" s="30"/>
       <c r="B160" s="30"/>
       <c r="C160" s="30"/>
@@ -58253,7 +58235,7 @@
       <c r="T160" s="30"/>
       <c r="U160" s="30"/>
     </row>
-    <row r="161" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A161" s="30"/>
       <c r="B161" s="30"/>
       <c r="C161" s="30"/>
@@ -58276,7 +58258,7 @@
       <c r="T161" s="30"/>
       <c r="U161" s="30"/>
     </row>
-    <row r="162" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A162" s="30"/>
       <c r="B162" s="30"/>
       <c r="C162" s="30"/>
@@ -58299,7 +58281,7 @@
       <c r="T162" s="30"/>
       <c r="U162" s="30"/>
     </row>
-    <row r="163" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A163" s="30"/>
       <c r="B163" s="30"/>
       <c r="C163" s="30"/>
@@ -58322,7 +58304,7 @@
       <c r="T163" s="30"/>
       <c r="U163" s="30"/>
     </row>
-    <row r="164" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A164" s="30"/>
       <c r="B164" s="30"/>
       <c r="C164" s="30"/>
@@ -58345,7 +58327,7 @@
       <c r="T164" s="30"/>
       <c r="U164" s="30"/>
     </row>
-    <row r="165" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A165" s="30"/>
       <c r="B165" s="30"/>
       <c r="C165" s="30"/>
@@ -58368,7 +58350,7 @@
       <c r="T165" s="30"/>
       <c r="U165" s="30"/>
     </row>
-    <row r="166" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A166" s="30"/>
       <c r="B166" s="30"/>
       <c r="C166" s="30"/>
@@ -58391,7 +58373,7 @@
       <c r="T166" s="30"/>
       <c r="U166" s="30"/>
     </row>
-    <row r="167" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A167" s="30"/>
       <c r="B167" s="30"/>
       <c r="C167" s="30"/>
@@ -58414,7 +58396,7 @@
       <c r="T167" s="30"/>
       <c r="U167" s="30"/>
     </row>
-    <row r="168" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A168" s="30"/>
       <c r="B168" s="30"/>
       <c r="C168" s="30"/>
@@ -58437,7 +58419,7 @@
       <c r="T168" s="30"/>
       <c r="U168" s="30"/>
     </row>
-    <row r="169" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A169" s="30"/>
       <c r="B169" s="30"/>
       <c r="C169" s="30"/>
@@ -58460,7 +58442,7 @@
       <c r="T169" s="30"/>
       <c r="U169" s="30"/>
     </row>
-    <row r="170" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A170" s="30"/>
       <c r="B170" s="30"/>
       <c r="C170" s="30"/>
@@ -58483,7 +58465,7 @@
       <c r="T170" s="30"/>
       <c r="U170" s="30"/>
     </row>
-    <row r="171" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A171" s="30"/>
       <c r="B171" s="30"/>
       <c r="C171" s="30"/>
@@ -58506,7 +58488,7 @@
       <c r="T171" s="30"/>
       <c r="U171" s="30"/>
     </row>
-    <row r="172" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A172" s="30"/>
       <c r="B172" s="30"/>
       <c r="C172" s="30"/>
@@ -58529,7 +58511,7 @@
       <c r="T172" s="30"/>
       <c r="U172" s="30"/>
     </row>
-    <row r="173" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A173" s="30"/>
       <c r="B173" s="30"/>
       <c r="C173" s="30"/>
@@ -58552,7 +58534,7 @@
       <c r="T173" s="30"/>
       <c r="U173" s="30"/>
     </row>
-    <row r="174" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A174" s="30"/>
       <c r="B174" s="30"/>
       <c r="C174" s="30"/>
@@ -58575,7 +58557,7 @@
       <c r="T174" s="30"/>
       <c r="U174" s="30"/>
     </row>
-    <row r="175" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A175" s="30"/>
       <c r="B175" s="30"/>
       <c r="C175" s="30"/>
@@ -58598,7 +58580,7 @@
       <c r="T175" s="30"/>
       <c r="U175" s="30"/>
     </row>
-    <row r="176" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A176" s="30"/>
       <c r="B176" s="30"/>
       <c r="C176" s="30"/>
@@ -58621,7 +58603,7 @@
       <c r="T176" s="30"/>
       <c r="U176" s="30"/>
     </row>
-    <row r="177" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A177" s="30"/>
       <c r="B177" s="30"/>
       <c r="C177" s="30"/>
@@ -58644,7 +58626,7 @@
       <c r="T177" s="30"/>
       <c r="U177" s="30"/>
     </row>
-    <row r="178" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A178" s="30"/>
       <c r="B178" s="30"/>
       <c r="C178" s="30"/>
@@ -58667,7 +58649,7 @@
       <c r="T178" s="30"/>
       <c r="U178" s="30"/>
     </row>
-    <row r="179" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A179" s="30"/>
       <c r="B179" s="30"/>
       <c r="C179" s="30"/>
@@ -58690,7 +58672,7 @@
       <c r="T179" s="30"/>
       <c r="U179" s="30"/>
     </row>
-    <row r="180" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A180" s="30"/>
       <c r="B180" s="30"/>
       <c r="C180" s="30"/>
@@ -58713,7 +58695,7 @@
       <c r="T180" s="30"/>
       <c r="U180" s="30"/>
     </row>
-    <row r="181" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A181" s="30"/>
       <c r="B181" s="30"/>
       <c r="C181" s="30"/>
@@ -58736,7 +58718,7 @@
       <c r="T181" s="30"/>
       <c r="U181" s="30"/>
     </row>
-    <row r="182" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A182" s="30"/>
       <c r="B182" s="30"/>
       <c r="C182" s="30"/>
@@ -58759,7 +58741,7 @@
       <c r="T182" s="30"/>
       <c r="U182" s="30"/>
     </row>
-    <row r="183" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A183" s="30"/>
       <c r="B183" s="30"/>
       <c r="C183" s="30"/>
@@ -58782,7 +58764,7 @@
       <c r="T183" s="30"/>
       <c r="U183" s="30"/>
     </row>
-    <row r="184" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A184" s="30"/>
       <c r="B184" s="30"/>
       <c r="C184" s="30"/>
@@ -58805,7 +58787,7 @@
       <c r="T184" s="30"/>
       <c r="U184" s="30"/>
     </row>
-    <row r="185" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A185" s="30"/>
       <c r="B185" s="30"/>
       <c r="C185" s="30"/>
@@ -58828,7 +58810,7 @@
       <c r="T185" s="30"/>
       <c r="U185" s="30"/>
     </row>
-    <row r="186" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A186" s="30"/>
       <c r="B186" s="30"/>
       <c r="C186" s="30"/>
@@ -58851,7 +58833,7 @@
       <c r="T186" s="30"/>
       <c r="U186" s="30"/>
     </row>
-    <row r="187" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A187" s="30"/>
       <c r="B187" s="30"/>
       <c r="C187" s="30"/>
@@ -58874,7 +58856,7 @@
       <c r="T187" s="30"/>
       <c r="U187" s="30"/>
     </row>
-    <row r="188" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A188" s="30"/>
       <c r="B188" s="30"/>
       <c r="C188" s="30"/>
@@ -58897,7 +58879,7 @@
       <c r="T188" s="30"/>
       <c r="U188" s="30"/>
     </row>
-    <row r="189" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A189" s="30"/>
       <c r="B189" s="30"/>
       <c r="C189" s="30"/>
@@ -58920,7 +58902,7 @@
       <c r="T189" s="30"/>
       <c r="U189" s="30"/>
     </row>
-    <row r="190" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A190" s="30"/>
       <c r="B190" s="30"/>
       <c r="C190" s="30"/>
@@ -58943,7 +58925,7 @@
       <c r="T190" s="30"/>
       <c r="U190" s="30"/>
     </row>
-    <row r="191" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A191" s="30"/>
       <c r="B191" s="30"/>
       <c r="C191" s="30"/>
@@ -58966,7 +58948,7 @@
       <c r="T191" s="30"/>
       <c r="U191" s="30"/>
     </row>
-    <row r="192" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A192" s="30"/>
       <c r="B192" s="30"/>
       <c r="C192" s="30"/>
@@ -58989,7 +58971,7 @@
       <c r="T192" s="30"/>
       <c r="U192" s="30"/>
     </row>
-    <row r="193" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A193" s="30"/>
       <c r="B193" s="30"/>
       <c r="C193" s="30"/>
@@ -59012,7 +58994,7 @@
       <c r="T193" s="30"/>
       <c r="U193" s="30"/>
     </row>
-    <row r="194" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A194" s="30"/>
       <c r="B194" s="30"/>
       <c r="C194" s="30"/>
@@ -59035,7 +59017,7 @@
       <c r="T194" s="30"/>
       <c r="U194" s="30"/>
     </row>
-    <row r="195" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A195" s="30"/>
       <c r="B195" s="30"/>
       <c r="C195" s="30"/>
@@ -59058,7 +59040,7 @@
       <c r="T195" s="30"/>
       <c r="U195" s="30"/>
     </row>
-    <row r="196" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A196" s="30"/>
       <c r="B196" s="30"/>
       <c r="C196" s="30"/>
@@ -59081,7 +59063,7 @@
       <c r="T196" s="30"/>
       <c r="U196" s="30"/>
     </row>
-    <row r="197" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A197" s="30"/>
       <c r="B197" s="30"/>
       <c r="C197" s="30"/>
@@ -59104,7 +59086,7 @@
       <c r="T197" s="30"/>
       <c r="U197" s="30"/>
     </row>
-    <row r="198" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A198" s="30"/>
       <c r="B198" s="30"/>
       <c r="C198" s="30"/>
@@ -59127,7 +59109,7 @@
       <c r="T198" s="30"/>
       <c r="U198" s="30"/>
     </row>
-    <row r="199" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A199" s="30"/>
       <c r="B199" s="30"/>
       <c r="C199" s="30"/>
@@ -59150,7 +59132,7 @@
       <c r="T199" s="30"/>
       <c r="U199" s="30"/>
     </row>
-    <row r="200" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A200" s="30"/>
       <c r="B200" s="30"/>
       <c r="C200" s="30"/>
@@ -59173,7 +59155,7 @@
       <c r="T200" s="30"/>
       <c r="U200" s="30"/>
     </row>
-    <row r="201" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A201" s="30"/>
       <c r="B201" s="30"/>
       <c r="C201" s="30"/>
@@ -59196,7 +59178,7 @@
       <c r="T201" s="30"/>
       <c r="U201" s="30"/>
     </row>
-    <row r="202" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A202" s="30"/>
       <c r="B202" s="30"/>
       <c r="C202" s="30"/>
@@ -59219,7 +59201,7 @@
       <c r="T202" s="30"/>
       <c r="U202" s="30"/>
     </row>
-    <row r="203" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A203" s="30"/>
       <c r="B203" s="30"/>
       <c r="C203" s="30"/>
@@ -59242,7 +59224,7 @@
       <c r="T203" s="30"/>
       <c r="U203" s="30"/>
     </row>
-    <row r="204" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A204" s="30"/>
       <c r="B204" s="30"/>
       <c r="C204" s="30"/>
@@ -59265,7 +59247,7 @@
       <c r="T204" s="30"/>
       <c r="U204" s="30"/>
     </row>
-    <row r="205" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A205" s="30"/>
       <c r="B205" s="30"/>
       <c r="C205" s="30"/>
@@ -59288,7 +59270,7 @@
       <c r="T205" s="30"/>
       <c r="U205" s="30"/>
     </row>
-    <row r="206" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A206" s="30"/>
       <c r="B206" s="30"/>
       <c r="C206" s="30"/>
@@ -59311,7 +59293,7 @@
       <c r="T206" s="30"/>
       <c r="U206" s="30"/>
     </row>
-    <row r="207" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A207" s="30"/>
       <c r="B207" s="30"/>
       <c r="C207" s="30"/>
@@ -59334,7 +59316,7 @@
       <c r="T207" s="30"/>
       <c r="U207" s="30"/>
     </row>
-    <row r="208" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A208" s="30"/>
       <c r="B208" s="30"/>
       <c r="C208" s="30"/>
@@ -59357,7 +59339,7 @@
       <c r="T208" s="30"/>
       <c r="U208" s="30"/>
     </row>
-    <row r="209" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A209" s="30"/>
       <c r="B209" s="30"/>
       <c r="C209" s="30"/>
@@ -59380,7 +59362,7 @@
       <c r="T209" s="30"/>
       <c r="U209" s="30"/>
     </row>
-    <row r="210" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A210" s="30"/>
       <c r="B210" s="30"/>
       <c r="C210" s="30"/>
@@ -59403,7 +59385,7 @@
       <c r="T210" s="30"/>
       <c r="U210" s="30"/>
     </row>
-    <row r="211" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A211" s="30"/>
       <c r="B211" s="30"/>
       <c r="C211" s="30"/>
@@ -59426,7 +59408,7 @@
       <c r="T211" s="30"/>
       <c r="U211" s="30"/>
     </row>
-    <row r="212" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A212" s="30"/>
       <c r="B212" s="30"/>
       <c r="C212" s="30"/>
@@ -59449,7 +59431,7 @@
       <c r="T212" s="30"/>
       <c r="U212" s="30"/>
     </row>
-    <row r="213" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A213" s="30"/>
       <c r="B213" s="30"/>
       <c r="C213" s="30"/>
@@ -59472,7 +59454,7 @@
       <c r="T213" s="30"/>
       <c r="U213" s="30"/>
     </row>
-    <row r="214" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A214" s="30"/>
       <c r="B214" s="30"/>
       <c r="C214" s="30"/>
@@ -59495,7 +59477,7 @@
       <c r="T214" s="30"/>
       <c r="U214" s="30"/>
     </row>
-    <row r="215" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A215" s="30"/>
       <c r="B215" s="30"/>
       <c r="C215" s="30"/>
@@ -59518,7 +59500,7 @@
       <c r="T215" s="30"/>
       <c r="U215" s="30"/>
     </row>
-    <row r="216" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A216" s="30"/>
       <c r="B216" s="30"/>
       <c r="C216" s="30"/>
@@ -59541,7 +59523,7 @@
       <c r="T216" s="30"/>
       <c r="U216" s="30"/>
     </row>
-    <row r="217" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A217" s="30"/>
       <c r="B217" s="30"/>
       <c r="C217" s="30"/>
@@ -59564,7 +59546,7 @@
       <c r="T217" s="30"/>
       <c r="U217" s="30"/>
     </row>
-    <row r="218" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A218" s="30"/>
       <c r="B218" s="30"/>
       <c r="C218" s="30"/>
@@ -59587,7 +59569,7 @@
       <c r="T218" s="30"/>
       <c r="U218" s="30"/>
     </row>
-    <row r="219" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A219" s="30"/>
       <c r="B219" s="30"/>
       <c r="C219" s="30"/>
@@ -59610,7 +59592,7 @@
       <c r="T219" s="30"/>
       <c r="U219" s="30"/>
     </row>
-    <row r="220" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A220" s="30"/>
       <c r="B220" s="30"/>
       <c r="C220" s="30"/>
@@ -59633,7 +59615,7 @@
       <c r="T220" s="30"/>
       <c r="U220" s="30"/>
     </row>
-    <row r="221" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A221" s="30"/>
       <c r="B221" s="30"/>
       <c r="C221" s="30"/>
@@ -59656,7 +59638,7 @@
       <c r="T221" s="30"/>
       <c r="U221" s="30"/>
     </row>
-    <row r="222" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A222" s="30"/>
       <c r="B222" s="30"/>
       <c r="C222" s="30"/>
@@ -59679,7 +59661,7 @@
       <c r="T222" s="30"/>
       <c r="U222" s="30"/>
     </row>
-    <row r="223" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A223" s="30"/>
       <c r="B223" s="30"/>
       <c r="C223" s="30"/>
@@ -59702,7 +59684,7 @@
       <c r="T223" s="30"/>
       <c r="U223" s="30"/>
     </row>
-    <row r="224" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A224" s="30"/>
       <c r="B224" s="30"/>
       <c r="C224" s="30"/>
@@ -59725,7 +59707,7 @@
       <c r="T224" s="30"/>
       <c r="U224" s="30"/>
     </row>
-    <row r="225" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A225" s="30"/>
       <c r="B225" s="30"/>
       <c r="C225" s="30"/>
@@ -59748,7 +59730,7 @@
       <c r="T225" s="30"/>
       <c r="U225" s="30"/>
     </row>
-    <row r="226" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A226" s="30"/>
       <c r="B226" s="30"/>
       <c r="C226" s="30"/>
@@ -59771,7 +59753,7 @@
       <c r="T226" s="30"/>
       <c r="U226" s="30"/>
     </row>
-    <row r="227" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A227" s="30"/>
       <c r="B227" s="30"/>
       <c r="C227" s="30"/>
@@ -59794,7 +59776,7 @@
       <c r="T227" s="30"/>
       <c r="U227" s="30"/>
     </row>
-    <row r="228" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A228" s="30"/>
       <c r="B228" s="30"/>
       <c r="C228" s="30"/>
@@ -59817,7 +59799,7 @@
       <c r="T228" s="30"/>
       <c r="U228" s="30"/>
     </row>
-    <row r="229" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A229" s="30"/>
       <c r="B229" s="30"/>
       <c r="C229" s="30"/>
@@ -59840,7 +59822,7 @@
       <c r="T229" s="30"/>
       <c r="U229" s="30"/>
     </row>
-    <row r="230" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A230" s="30"/>
       <c r="B230" s="30"/>
       <c r="C230" s="30"/>
@@ -59863,7 +59845,7 @@
       <c r="T230" s="30"/>
       <c r="U230" s="30"/>
     </row>
-    <row r="231" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A231" s="30"/>
       <c r="B231" s="30"/>
       <c r="C231" s="30"/>
@@ -59886,7 +59868,7 @@
       <c r="T231" s="30"/>
       <c r="U231" s="30"/>
     </row>
-    <row r="232" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A232" s="30"/>
       <c r="B232" s="30"/>
       <c r="C232" s="30"/>
@@ -59909,7 +59891,7 @@
       <c r="T232" s="30"/>
       <c r="U232" s="30"/>
     </row>
-    <row r="233" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A233" s="30"/>
       <c r="B233" s="30"/>
       <c r="C233" s="30"/>
@@ -59932,7 +59914,7 @@
       <c r="T233" s="30"/>
       <c r="U233" s="30"/>
     </row>
-    <row r="234" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="234" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A234" s="30"/>
       <c r="B234" s="30"/>
       <c r="C234" s="30"/>
@@ -59955,7 +59937,7 @@
       <c r="T234" s="30"/>
       <c r="U234" s="30"/>
     </row>
-    <row r="235" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A235" s="30"/>
       <c r="B235" s="30"/>
       <c r="C235" s="30"/>
@@ -59978,7 +59960,7 @@
       <c r="T235" s="30"/>
       <c r="U235" s="30"/>
     </row>
-    <row r="236" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A236" s="30"/>
       <c r="B236" s="30"/>
       <c r="C236" s="30"/>
@@ -60001,7 +59983,7 @@
       <c r="T236" s="30"/>
       <c r="U236" s="30"/>
     </row>
-    <row r="237" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A237" s="30"/>
       <c r="B237" s="30"/>
       <c r="C237" s="30"/>
@@ -60024,7 +60006,7 @@
       <c r="T237" s="30"/>
       <c r="U237" s="30"/>
     </row>
-    <row r="238" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A238" s="30"/>
       <c r="B238" s="30"/>
       <c r="C238" s="30"/>
@@ -60047,7 +60029,7 @@
       <c r="T238" s="30"/>
       <c r="U238" s="30"/>
     </row>
-    <row r="239" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A239" s="30"/>
       <c r="B239" s="30"/>
       <c r="C239" s="30"/>
@@ -60070,7 +60052,7 @@
       <c r="T239" s="30"/>
       <c r="U239" s="30"/>
     </row>
-    <row r="240" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="240" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A240" s="30"/>
       <c r="B240" s="30"/>
       <c r="C240" s="30"/>
@@ -60093,7 +60075,7 @@
       <c r="T240" s="30"/>
       <c r="U240" s="30"/>
     </row>
-    <row r="241" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A241" s="30"/>
       <c r="B241" s="30"/>
       <c r="C241" s="30"/>
@@ -60116,7 +60098,7 @@
       <c r="T241" s="30"/>
       <c r="U241" s="30"/>
     </row>
-    <row r="242" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A242" s="30"/>
       <c r="B242" s="30"/>
       <c r="C242" s="30"/>
@@ -60139,7 +60121,7 @@
       <c r="T242" s="30"/>
       <c r="U242" s="30"/>
     </row>
-    <row r="243" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A243" s="30"/>
       <c r="B243" s="30"/>
       <c r="C243" s="30"/>
@@ -60162,7 +60144,7 @@
       <c r="T243" s="30"/>
       <c r="U243" s="30"/>
     </row>
-    <row r="244" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="244" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A244" s="30"/>
       <c r="B244" s="30"/>
       <c r="C244" s="30"/>
@@ -60185,7 +60167,7 @@
       <c r="T244" s="30"/>
       <c r="U244" s="30"/>
     </row>
-    <row r="245" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A245" s="30"/>
       <c r="B245" s="30"/>
       <c r="C245" s="30"/>
@@ -60208,7 +60190,7 @@
       <c r="T245" s="30"/>
       <c r="U245" s="30"/>
     </row>
-    <row r="246" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="246" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A246" s="30"/>
       <c r="B246" s="30"/>
       <c r="C246" s="30"/>
@@ -60231,7 +60213,7 @@
       <c r="T246" s="30"/>
       <c r="U246" s="30"/>
     </row>
-    <row r="247" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A247" s="30"/>
       <c r="B247" s="30"/>
       <c r="C247" s="30"/>
@@ -60254,7 +60236,7 @@
       <c r="T247" s="30"/>
       <c r="U247" s="30"/>
     </row>
-    <row r="248" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A248" s="30"/>
       <c r="B248" s="30"/>
       <c r="C248" s="30"/>
@@ -60277,7 +60259,7 @@
       <c r="T248" s="30"/>
       <c r="U248" s="30"/>
     </row>
-    <row r="249" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="249" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A249" s="30"/>
       <c r="B249" s="30"/>
       <c r="C249" s="30"/>
@@ -60300,7 +60282,7 @@
       <c r="T249" s="30"/>
       <c r="U249" s="30"/>
     </row>
-    <row r="250" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A250" s="30"/>
       <c r="B250" s="30"/>
       <c r="C250" s="30"/>
@@ -60323,7 +60305,7 @@
       <c r="T250" s="30"/>
       <c r="U250" s="30"/>
     </row>
-    <row r="251" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A251" s="30"/>
       <c r="B251" s="30"/>
       <c r="C251" s="30"/>
@@ -60346,7 +60328,7 @@
       <c r="T251" s="30"/>
       <c r="U251" s="30"/>
     </row>
-    <row r="252" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A252" s="30"/>
       <c r="B252" s="30"/>
       <c r="C252" s="30"/>
@@ -60369,7 +60351,7 @@
       <c r="T252" s="30"/>
       <c r="U252" s="30"/>
     </row>
-    <row r="253" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A253" s="30"/>
       <c r="B253" s="30"/>
       <c r="C253" s="30"/>
@@ -60392,7 +60374,7 @@
       <c r="T253" s="30"/>
       <c r="U253" s="30"/>
     </row>
-    <row r="254" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="254" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A254" s="30"/>
       <c r="B254" s="30"/>
       <c r="C254" s="30"/>
@@ -60415,7 +60397,7 @@
       <c r="T254" s="30"/>
       <c r="U254" s="30"/>
     </row>
-    <row r="255" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="255" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A255" s="30"/>
       <c r="B255" s="30"/>
       <c r="C255" s="30"/>
@@ -60438,7 +60420,7 @@
       <c r="T255" s="30"/>
       <c r="U255" s="30"/>
     </row>
-    <row r="256" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="256" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A256" s="30"/>
       <c r="B256" s="30"/>
       <c r="C256" s="30"/>
@@ -60461,7 +60443,7 @@
       <c r="T256" s="30"/>
       <c r="U256" s="30"/>
     </row>
-    <row r="257" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="257" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A257" s="30"/>
       <c r="B257" s="30"/>
       <c r="C257" s="30"/>
@@ -60484,7 +60466,7 @@
       <c r="T257" s="30"/>
       <c r="U257" s="30"/>
     </row>
-    <row r="258" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="258" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A258" s="30"/>
       <c r="B258" s="30"/>
       <c r="C258" s="30"/>
@@ -60507,7 +60489,7 @@
       <c r="T258" s="30"/>
       <c r="U258" s="30"/>
     </row>
-    <row r="259" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="259" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A259" s="30"/>
       <c r="B259" s="30"/>
       <c r="C259" s="30"/>
@@ -60530,7 +60512,7 @@
       <c r="T259" s="30"/>
       <c r="U259" s="30"/>
     </row>
-    <row r="260" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="260" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A260" s="30"/>
       <c r="B260" s="30"/>
       <c r="C260" s="30"/>
@@ -60553,7 +60535,7 @@
       <c r="T260" s="30"/>
       <c r="U260" s="30"/>
     </row>
-    <row r="261" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="261" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A261" s="30"/>
       <c r="B261" s="30"/>
       <c r="C261" s="30"/>
@@ -60576,7 +60558,7 @@
       <c r="T261" s="30"/>
       <c r="U261" s="30"/>
     </row>
-    <row r="262" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="262" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A262" s="30"/>
       <c r="B262" s="30"/>
       <c r="C262" s="30"/>
@@ -60599,7 +60581,7 @@
       <c r="T262" s="30"/>
       <c r="U262" s="30"/>
     </row>
-    <row r="263" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="263" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A263" s="30"/>
       <c r="B263" s="30"/>
       <c r="C263" s="30"/>
@@ -60622,7 +60604,7 @@
       <c r="T263" s="30"/>
       <c r="U263" s="30"/>
     </row>
-    <row r="264" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="264" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A264" s="30"/>
       <c r="B264" s="30"/>
       <c r="C264" s="30"/>
@@ -60645,7 +60627,7 @@
       <c r="T264" s="30"/>
       <c r="U264" s="30"/>
     </row>
-    <row r="265" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="265" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A265" s="30"/>
       <c r="B265" s="30"/>
       <c r="C265" s="30"/>
@@ -60668,7 +60650,7 @@
       <c r="T265" s="30"/>
       <c r="U265" s="30"/>
     </row>
-    <row r="266" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="266" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A266" s="30"/>
       <c r="B266" s="30"/>
       <c r="C266" s="30"/>
@@ -60691,7 +60673,7 @@
       <c r="T266" s="30"/>
       <c r="U266" s="30"/>
     </row>
-    <row r="267" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="267" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A267" s="30"/>
       <c r="B267" s="30"/>
       <c r="C267" s="30"/>
@@ -60714,7 +60696,7 @@
       <c r="T267" s="30"/>
       <c r="U267" s="30"/>
     </row>
-    <row r="268" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="268" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A268" s="30"/>
       <c r="B268" s="30"/>
       <c r="C268" s="30"/>
@@ -60737,7 +60719,7 @@
       <c r="T268" s="30"/>
       <c r="U268" s="30"/>
     </row>
-    <row r="269" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="269" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A269" s="30"/>
       <c r="B269" s="30"/>
       <c r="C269" s="30"/>
@@ -60760,7 +60742,7 @@
       <c r="T269" s="30"/>
       <c r="U269" s="30"/>
     </row>
-    <row r="270" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="270" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A270" s="30"/>
       <c r="B270" s="30"/>
       <c r="C270" s="30"/>
@@ -60783,7 +60765,7 @@
       <c r="T270" s="30"/>
       <c r="U270" s="30"/>
     </row>
-    <row r="271" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="271" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A271" s="30"/>
       <c r="B271" s="30"/>
       <c r="C271" s="30"/>
@@ -60806,7 +60788,7 @@
       <c r="T271" s="30"/>
       <c r="U271" s="30"/>
     </row>
-    <row r="272" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="272" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A272" s="30"/>
       <c r="B272" s="30"/>
       <c r="C272" s="30"/>
@@ -60829,7 +60811,7 @@
       <c r="T272" s="30"/>
       <c r="U272" s="30"/>
     </row>
-    <row r="273" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="273" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A273" s="30"/>
       <c r="B273" s="30"/>
       <c r="C273" s="30"/>
@@ -60852,7 +60834,7 @@
       <c r="T273" s="30"/>
       <c r="U273" s="30"/>
     </row>
-    <row r="274" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="274" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A274" s="30"/>
       <c r="B274" s="30"/>
       <c r="C274" s="30"/>
@@ -60875,7 +60857,7 @@
       <c r="T274" s="30"/>
       <c r="U274" s="30"/>
     </row>
-    <row r="275" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="275" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A275" s="30"/>
       <c r="B275" s="30"/>
       <c r="C275" s="30"/>
@@ -60898,7 +60880,7 @@
       <c r="T275" s="30"/>
       <c r="U275" s="30"/>
     </row>
-    <row r="276" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="276" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A276" s="30"/>
       <c r="B276" s="30"/>
       <c r="C276" s="30"/>
@@ -60921,7 +60903,7 @@
       <c r="T276" s="30"/>
       <c r="U276" s="30"/>
     </row>
-    <row r="277" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="277" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A277" s="30"/>
       <c r="B277" s="30"/>
       <c r="C277" s="30"/>
@@ -60944,7 +60926,7 @@
       <c r="T277" s="30"/>
       <c r="U277" s="30"/>
     </row>
-    <row r="278" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="278" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A278" s="30"/>
       <c r="B278" s="30"/>
       <c r="C278" s="30"/>
@@ -60967,7 +60949,7 @@
       <c r="T278" s="30"/>
       <c r="U278" s="30"/>
     </row>
-    <row r="279" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="279" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A279" s="30"/>
       <c r="B279" s="30"/>
       <c r="C279" s="30"/>
@@ -60990,7 +60972,7 @@
       <c r="T279" s="30"/>
       <c r="U279" s="30"/>
     </row>
-    <row r="280" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="280" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A280" s="30"/>
       <c r="B280" s="30"/>
       <c r="C280" s="30"/>
@@ -61013,7 +60995,7 @@
       <c r="T280" s="30"/>
       <c r="U280" s="30"/>
     </row>
-    <row r="281" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="281" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A281" s="30"/>
       <c r="B281" s="30"/>
       <c r="C281" s="30"/>
@@ -61036,7 +61018,7 @@
       <c r="T281" s="30"/>
       <c r="U281" s="30"/>
     </row>
-    <row r="282" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="282" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A282" s="30"/>
       <c r="B282" s="30"/>
       <c r="C282" s="30"/>
@@ -61059,7 +61041,7 @@
       <c r="T282" s="30"/>
       <c r="U282" s="30"/>
     </row>
-    <row r="283" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="283" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A283" s="30"/>
       <c r="B283" s="30"/>
       <c r="C283" s="30"/>
@@ -61082,7 +61064,7 @@
       <c r="T283" s="30"/>
       <c r="U283" s="30"/>
     </row>
-    <row r="284" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="284" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A284" s="30"/>
       <c r="B284" s="30"/>
       <c r="C284" s="30"/>
@@ -61105,7 +61087,7 @@
       <c r="T284" s="30"/>
       <c r="U284" s="30"/>
     </row>
-    <row r="285" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="285" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A285" s="30"/>
       <c r="B285" s="30"/>
       <c r="C285" s="30"/>
@@ -61128,7 +61110,7 @@
       <c r="T285" s="30"/>
       <c r="U285" s="30"/>
     </row>
-    <row r="286" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="286" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A286" s="30"/>
       <c r="B286" s="30"/>
       <c r="C286" s="30"/>
@@ -61151,7 +61133,7 @@
       <c r="T286" s="30"/>
       <c r="U286" s="30"/>
     </row>
-    <row r="287" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="287" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A287" s="30"/>
       <c r="B287" s="30"/>
       <c r="C287" s="30"/>
@@ -61174,7 +61156,7 @@
       <c r="T287" s="30"/>
       <c r="U287" s="30"/>
     </row>
-    <row r="288" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="288" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A288" s="30"/>
       <c r="B288" s="30"/>
       <c r="C288" s="30"/>
@@ -61197,7 +61179,7 @@
       <c r="T288" s="30"/>
       <c r="U288" s="30"/>
     </row>
-    <row r="289" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="289" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A289" s="30"/>
       <c r="B289" s="30"/>
       <c r="C289" s="30"/>
@@ -61220,7 +61202,7 @@
       <c r="T289" s="30"/>
       <c r="U289" s="30"/>
     </row>
-    <row r="290" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="290" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A290" s="30"/>
       <c r="B290" s="30"/>
       <c r="C290" s="30"/>
@@ -61243,7 +61225,7 @@
       <c r="T290" s="30"/>
       <c r="U290" s="30"/>
     </row>
-    <row r="291" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="291" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A291" s="30"/>
       <c r="B291" s="30"/>
       <c r="C291" s="30"/>
@@ -61266,7 +61248,7 @@
       <c r="T291" s="30"/>
       <c r="U291" s="30"/>
     </row>
-    <row r="292" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="292" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A292" s="30"/>
       <c r="B292" s="30"/>
       <c r="C292" s="30"/>
@@ -61289,7 +61271,7 @@
       <c r="T292" s="30"/>
       <c r="U292" s="30"/>
     </row>
-    <row r="293" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="293" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A293" s="30"/>
       <c r="B293" s="30"/>
       <c r="C293" s="30"/>
@@ -61312,7 +61294,7 @@
       <c r="T293" s="30"/>
       <c r="U293" s="30"/>
     </row>
-    <row r="294" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="294" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A294" s="30"/>
       <c r="B294" s="30"/>
       <c r="C294" s="30"/>
@@ -61335,7 +61317,7 @@
       <c r="T294" s="30"/>
       <c r="U294" s="30"/>
     </row>
-    <row r="295" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="295" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A295" s="30"/>
       <c r="B295" s="30"/>
       <c r="C295" s="30"/>
@@ -61358,7 +61340,7 @@
       <c r="T295" s="30"/>
       <c r="U295" s="30"/>
     </row>
-    <row r="296" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="296" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A296" s="30"/>
       <c r="B296" s="30"/>
       <c r="C296" s="30"/>
@@ -61381,7 +61363,7 @@
       <c r="T296" s="30"/>
       <c r="U296" s="30"/>
     </row>
-    <row r="297" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="297" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A297" s="30"/>
       <c r="B297" s="30"/>
       <c r="C297" s="30"/>
@@ -61404,7 +61386,7 @@
       <c r="T297" s="30"/>
       <c r="U297" s="30"/>
     </row>
-    <row r="298" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="298" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A298" s="30"/>
       <c r="B298" s="30"/>
       <c r="C298" s="30"/>
@@ -61427,7 +61409,7 @@
       <c r="T298" s="30"/>
       <c r="U298" s="30"/>
     </row>
-    <row r="299" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="299" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A299" s="30"/>
       <c r="B299" s="30"/>
       <c r="C299" s="30"/>
@@ -61450,7 +61432,7 @@
       <c r="T299" s="30"/>
       <c r="U299" s="30"/>
     </row>
-    <row r="300" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="300" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A300" s="30"/>
       <c r="B300" s="30"/>
       <c r="C300" s="30"/>
@@ -61473,7 +61455,7 @@
       <c r="T300" s="30"/>
       <c r="U300" s="30"/>
     </row>
-    <row r="301" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="301" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A301" s="30"/>
       <c r="B301" s="30"/>
       <c r="C301" s="30"/>
@@ -61496,7 +61478,7 @@
       <c r="T301" s="30"/>
       <c r="U301" s="30"/>
     </row>
-    <row r="302" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="302" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A302" s="30"/>
       <c r="B302" s="30"/>
       <c r="C302" s="30"/>
@@ -61519,7 +61501,7 @@
       <c r="T302" s="30"/>
       <c r="U302" s="30"/>
     </row>
-    <row r="303" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="303" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A303" s="30"/>
       <c r="B303" s="30"/>
       <c r="C303" s="30"/>
@@ -61542,7 +61524,7 @@
       <c r="T303" s="30"/>
       <c r="U303" s="30"/>
     </row>
-    <row r="304" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="304" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A304" s="30"/>
       <c r="B304" s="30"/>
       <c r="C304" s="30"/>
@@ -61565,7 +61547,7 @@
       <c r="T304" s="30"/>
       <c r="U304" s="30"/>
     </row>
-    <row r="305" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="305" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A305" s="30"/>
       <c r="B305" s="30"/>
       <c r="C305" s="30"/>
@@ -61588,7 +61570,7 @@
       <c r="T305" s="30"/>
       <c r="U305" s="30"/>
     </row>
-    <row r="306" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="306" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A306" s="30"/>
       <c r="B306" s="30"/>
       <c r="C306" s="30"/>
@@ -61611,7 +61593,7 @@
       <c r="T306" s="30"/>
       <c r="U306" s="30"/>
     </row>
-    <row r="307" spans="1:21" ht="13.5" x14ac:dyDescent="0.45">
+    <row r="307" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A307" s="30"/>
       <c r="B307" s="30"/>
       <c r="C307" s="30"/>

--- a/Offline/BusinessManagement/ProfitabilitySheet.xlsx
+++ b/Offline/BusinessManagement/ProfitabilitySheet.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Offline\BusinessManagement\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Anodiam\Docs\Offline\BusinessManagement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20812FB9-DE28-4202-89F7-86243C47629B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19395" windowHeight="10395" tabRatio="703"/>
   </bookViews>
   <sheets>
     <sheet name="Profitability" sheetId="5" r:id="rId1"/>
@@ -21,7 +20,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Profitability!$A$3:$AE$405</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -954,7 +953,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
@@ -1397,6 +1396,48 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="13" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="20" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1434,48 +1475,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="20" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="13" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1768,228 +1767,228 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:AN405"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="119" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B393" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B93" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B404" sqref="B404"/>
+      <selection pane="bottomRight" activeCell="C348" sqref="C348"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="13.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.33203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="21.86328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.53125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="31.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" style="1" customWidth="1"/>
     <col min="5" max="5" width="8" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="7.33203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="7.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.86328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="7.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="7.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="6" style="1" customWidth="1"/>
-    <col min="14" max="14" width="7.46484375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.86328125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="4.53125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="7.6640625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="8.33203125" style="1" customWidth="1"/>
-    <col min="19" max="19" width="4.33203125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.85546875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="4.5703125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="7.7109375" style="1" customWidth="1"/>
+    <col min="18" max="18" width="8.28515625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="4.28515625" style="1" customWidth="1"/>
     <col min="20" max="20" width="9" style="1" customWidth="1"/>
-    <col min="21" max="21" width="8.1328125" style="1" customWidth="1"/>
-    <col min="22" max="22" width="8.6640625" style="1" customWidth="1"/>
-    <col min="23" max="23" width="9.1328125" style="1" customWidth="1"/>
-    <col min="24" max="24" width="8.6640625" style="1" customWidth="1"/>
-    <col min="25" max="25" width="8.53125" style="1" customWidth="1"/>
-    <col min="26" max="26" width="6.46484375" style="1" customWidth="1"/>
-    <col min="27" max="27" width="8.6640625" style="1" customWidth="1"/>
-    <col min="28" max="28" width="9.1328125" style="1" customWidth="1"/>
-    <col min="29" max="29" width="8.6640625" style="1" customWidth="1"/>
-    <col min="30" max="30" width="8.53125" style="1" customWidth="1"/>
-    <col min="31" max="31" width="6.46484375" style="1" customWidth="1"/>
-    <col min="32" max="36" width="10.6640625" style="1"/>
-    <col min="37" max="37" width="11.265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="38" max="16384" width="10.6640625" style="1"/>
+    <col min="21" max="21" width="8.140625" style="1" customWidth="1"/>
+    <col min="22" max="22" width="8.7109375" style="1" customWidth="1"/>
+    <col min="23" max="23" width="9.140625" style="1" customWidth="1"/>
+    <col min="24" max="24" width="8.7109375" style="1" customWidth="1"/>
+    <col min="25" max="25" width="8.5703125" style="1" customWidth="1"/>
+    <col min="26" max="26" width="6.42578125" style="1" customWidth="1"/>
+    <col min="27" max="27" width="8.7109375" style="1" customWidth="1"/>
+    <col min="28" max="28" width="9.140625" style="1" customWidth="1"/>
+    <col min="29" max="29" width="8.7109375" style="1" customWidth="1"/>
+    <col min="30" max="30" width="8.5703125" style="1" customWidth="1"/>
+    <col min="31" max="31" width="6.42578125" style="1" customWidth="1"/>
+    <col min="32" max="36" width="10.7109375" style="1"/>
+    <col min="37" max="37" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="38" max="16384" width="10.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="13.15" x14ac:dyDescent="0.45">
-      <c r="F1" s="51" t="s">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="F1" s="35" t="s">
         <v>273</v>
       </c>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
-      <c r="O1" s="51"/>
-      <c r="P1" s="51"/>
-      <c r="Q1" s="51"/>
-      <c r="R1" s="51"/>
-      <c r="S1" s="51"/>
-      <c r="T1" s="51"/>
-      <c r="U1" s="52"/>
-      <c r="V1" s="53" t="s">
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="35"/>
+      <c r="T1" s="35"/>
+      <c r="U1" s="36"/>
+      <c r="V1" s="37" t="s">
         <v>293</v>
       </c>
-      <c r="W1" s="54"/>
-      <c r="X1" s="54"/>
-      <c r="Y1" s="54"/>
-      <c r="Z1" s="55"/>
-      <c r="AA1" s="56" t="s">
+      <c r="W1" s="38"/>
+      <c r="X1" s="38"/>
+      <c r="Y1" s="38"/>
+      <c r="Z1" s="39"/>
+      <c r="AA1" s="40" t="s">
         <v>292</v>
       </c>
-      <c r="AB1" s="57"/>
-      <c r="AC1" s="57"/>
-      <c r="AD1" s="57"/>
-      <c r="AE1" s="58"/>
-      <c r="AF1" s="35" t="s">
+      <c r="AB1" s="41"/>
+      <c r="AC1" s="41"/>
+      <c r="AD1" s="41"/>
+      <c r="AE1" s="42"/>
+      <c r="AF1" s="49" t="s">
         <v>300</v>
       </c>
-      <c r="AG1" s="36"/>
-      <c r="AH1" s="36"/>
-      <c r="AI1" s="36"/>
-      <c r="AJ1" s="37"/>
-      <c r="AK1" s="42" t="s">
+      <c r="AG1" s="50"/>
+      <c r="AH1" s="50"/>
+      <c r="AI1" s="50"/>
+      <c r="AJ1" s="51"/>
+      <c r="AK1" s="56" t="s">
         <v>294</v>
       </c>
-      <c r="AL1" s="43"/>
-      <c r="AM1" s="43"/>
-      <c r="AN1" s="43"/>
-    </row>
-    <row r="2" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="48" t="s">
+      <c r="AL1" s="57"/>
+      <c r="AM1" s="57"/>
+      <c r="AN1" s="57"/>
+    </row>
+    <row r="2" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="48" t="s">
+      <c r="C2" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="48" t="s">
+      <c r="D2" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="48" t="s">
+      <c r="E2" s="47" t="s">
         <v>129</v>
       </c>
-      <c r="F2" s="49" t="s">
+      <c r="F2" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="G2" s="49" t="s">
+      <c r="G2" s="48" t="s">
         <v>272</v>
       </c>
-      <c r="H2" s="48" t="s">
+      <c r="H2" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="48" t="s">
+      <c r="I2" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="48" t="s">
+      <c r="J2" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48" t="s">
+      <c r="K2" s="47"/>
+      <c r="L2" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="M2" s="48"/>
-      <c r="N2" s="48" t="s">
+      <c r="M2" s="47"/>
+      <c r="N2" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="48" t="s">
+      <c r="O2" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="P2" s="48" t="s">
+      <c r="P2" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="Q2" s="48" t="s">
+      <c r="Q2" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="R2" s="48" t="s">
+      <c r="R2" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="S2" s="48" t="s">
+      <c r="S2" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="T2" s="48" t="s">
+      <c r="T2" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="U2" s="48" t="s">
+      <c r="U2" s="47" t="s">
         <v>172</v>
       </c>
-      <c r="V2" s="50" t="s">
+      <c r="V2" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="W2" s="50" t="s">
+      <c r="W2" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="X2" s="61" t="s">
+      <c r="X2" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="Y2" s="50" t="s">
+      <c r="Y2" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="Z2" s="50" t="s">
+      <c r="Z2" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="AA2" s="59" t="s">
+      <c r="AA2" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="AB2" s="59" t="s">
+      <c r="AB2" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="AC2" s="60" t="s">
+      <c r="AC2" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="AD2" s="59" t="s">
+      <c r="AD2" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="AE2" s="59" t="s">
+      <c r="AE2" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="AF2" s="44" t="s">
+      <c r="AF2" s="58" t="s">
         <v>299</v>
       </c>
-      <c r="AG2" s="45" t="s">
+      <c r="AG2" s="59" t="s">
         <v>295</v>
       </c>
-      <c r="AH2" s="45" t="s">
+      <c r="AH2" s="59" t="s">
         <v>296</v>
       </c>
-      <c r="AI2" s="47" t="s">
+      <c r="AI2" s="61" t="s">
         <v>297</v>
       </c>
-      <c r="AJ2" s="44" t="s">
+      <c r="AJ2" s="58" t="s">
         <v>298</v>
       </c>
-      <c r="AK2" s="38" t="s">
+      <c r="AK2" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="AL2" s="38" t="s">
+      <c r="AL2" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="AM2" s="40" t="s">
+      <c r="AM2" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="AN2" s="41" t="s">
+      <c r="AN2" s="55" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:40" s="2" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="48"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
+    <row r="3" spans="1:40" s="2" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="47"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
       <c r="J3" s="11" t="s">
         <v>21</v>
       </c>
@@ -2002,35 +2001,35 @@
       <c r="M3" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="N3" s="48"/>
-      <c r="O3" s="48"/>
-      <c r="P3" s="48"/>
-      <c r="Q3" s="48"/>
-      <c r="R3" s="48"/>
-      <c r="S3" s="48"/>
-      <c r="T3" s="48"/>
-      <c r="U3" s="48"/>
-      <c r="V3" s="50"/>
-      <c r="W3" s="50"/>
-      <c r="X3" s="61"/>
-      <c r="Y3" s="50"/>
-      <c r="Z3" s="50"/>
-      <c r="AA3" s="59"/>
-      <c r="AB3" s="59"/>
-      <c r="AC3" s="60"/>
-      <c r="AD3" s="59"/>
-      <c r="AE3" s="59"/>
-      <c r="AF3" s="44"/>
-      <c r="AG3" s="46"/>
-      <c r="AH3" s="46"/>
-      <c r="AI3" s="47"/>
-      <c r="AJ3" s="44"/>
-      <c r="AK3" s="39"/>
-      <c r="AL3" s="39"/>
-      <c r="AM3" s="40"/>
-      <c r="AN3" s="41"/>
-    </row>
-    <row r="4" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N3" s="47"/>
+      <c r="O3" s="47"/>
+      <c r="P3" s="47"/>
+      <c r="Q3" s="47"/>
+      <c r="R3" s="47"/>
+      <c r="S3" s="47"/>
+      <c r="T3" s="47"/>
+      <c r="U3" s="47"/>
+      <c r="V3" s="46"/>
+      <c r="W3" s="46"/>
+      <c r="X3" s="45"/>
+      <c r="Y3" s="46"/>
+      <c r="Z3" s="46"/>
+      <c r="AA3" s="43"/>
+      <c r="AB3" s="43"/>
+      <c r="AC3" s="44"/>
+      <c r="AD3" s="43"/>
+      <c r="AE3" s="43"/>
+      <c r="AF3" s="58"/>
+      <c r="AG3" s="60"/>
+      <c r="AH3" s="60"/>
+      <c r="AI3" s="61"/>
+      <c r="AJ3" s="58"/>
+      <c r="AK3" s="53"/>
+      <c r="AL3" s="53"/>
+      <c r="AM3" s="54"/>
+      <c r="AN3" s="55"/>
+    </row>
+    <row r="4" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="str">
         <f>"NEET &amp; IIT Crash Course "&amp;" " &amp; B4</f>
         <v>NEET &amp; IIT Crash Course  Physics</v>
@@ -2173,7 +2172,7 @@
         <v>142.85714183673468</v>
       </c>
     </row>
-    <row r="5" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="str">
         <f t="shared" ref="A5:A7" si="5">"NEET &amp; IIT Crash Course "&amp;" " &amp; B5</f>
         <v>NEET &amp; IIT Crash Course  Chemistry</v>
@@ -2316,7 +2315,7 @@
         <v>142.85719387756922</v>
       </c>
     </row>
-    <row r="6" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="str">
         <f>"IIT Crash Course "&amp;" " &amp; B6</f>
         <v>IIT Crash Course  Maths</v>
@@ -2459,7 +2458,7 @@
         <v>107.1428954081769</v>
       </c>
     </row>
-    <row r="7" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="str">
         <f t="shared" si="5"/>
         <v>NEET &amp; IIT Crash Course  Biology</v>
@@ -2602,7 +2601,7 @@
         <v>107.1428954081769</v>
       </c>
     </row>
-    <row r="8" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="str">
         <f>C8&amp;" - All Boards - "&amp;B8</f>
         <v>XII - All Boards - Physics</v>
@@ -2745,7 +2744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="str">
         <f t="shared" ref="A9:A15" si="16">C9&amp;" - All Boards - "&amp;B9</f>
         <v>XII - All Boards - Chemistry</v>
@@ -2888,7 +2887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="str">
         <f t="shared" si="16"/>
         <v>XII - All Boards - Maths</v>
@@ -3031,7 +3030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="str">
         <f t="shared" si="16"/>
         <v>XII - All Boards - Biology</v>
@@ -3174,7 +3173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="str">
         <f t="shared" si="16"/>
         <v>XI - All Boards - Physics</v>
@@ -3317,7 +3316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="str">
         <f t="shared" si="16"/>
         <v>XI - All Boards - Chemistry</v>
@@ -3460,7 +3459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="str">
         <f t="shared" si="16"/>
         <v>XI - All Boards - Maths</v>
@@ -3603,7 +3602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="str">
         <f t="shared" si="16"/>
         <v>XI - All Boards - Biology</v>
@@ -3746,7 +3745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="23" t="str">
         <f t="shared" ref="A16:A18" si="39">D16&amp;" - "&amp;C16&amp;" - "&amp;B16</f>
         <v>ISC - XII - English</v>
@@ -3889,7 +3888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="23" t="str">
         <f t="shared" si="39"/>
         <v>ISC - XII - Bengali</v>
@@ -4032,7 +4031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="23" t="str">
         <f t="shared" si="39"/>
         <v>ISC - XII - Hindi</v>
@@ -4175,7 +4174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="23" t="str">
         <f>D19&amp;" - "&amp;C19&amp;" - "&amp;B19</f>
         <v>ISC - XII - History</v>
@@ -4318,7 +4317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="23" t="str">
         <f>D20&amp;" - "&amp;C20&amp;" - "&amp;B20</f>
         <v>ISC - XII - Geography</v>
@@ -4461,7 +4460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="23" t="str">
         <f>D21&amp;" - "&amp;C21&amp;" - "&amp;B21</f>
         <v>ISC - XII - Political Science</v>
@@ -4604,7 +4603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="23" t="str">
         <f>D22&amp;" - "&amp;C22&amp;" - "&amp;B22</f>
         <v>ISC - XII - Sociology</v>
@@ -4747,7 +4746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="23" t="str">
         <f>D23&amp;" - "&amp;C23&amp;" - "&amp;B23</f>
         <v>ISC - XII - Philosophy</v>
@@ -4890,7 +4889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="23" t="str">
         <f t="shared" ref="A24:A43" si="52">D24&amp;" - "&amp;C24&amp;" - "&amp;B24</f>
         <v>ISC - XII - Accounting</v>
@@ -5033,7 +5032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="23" t="str">
         <f t="shared" si="52"/>
         <v>ISC - XII - Commercial Study</v>
@@ -5176,7 +5175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="23" t="str">
         <f t="shared" si="52"/>
         <v>ISC - XII - Economics</v>
@@ -5319,7 +5318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="23" t="str">
         <f t="shared" si="52"/>
         <v>ISC - XII - Business Studies</v>
@@ -5462,7 +5461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="23" t="str">
         <f t="shared" si="52"/>
         <v>ISC - XII - Maths (Comm)</v>
@@ -5605,7 +5604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="23" t="str">
         <f>D29&amp;" - "&amp;C29&amp;" - "&amp;B29</f>
         <v>ISC - XII - Computers</v>
@@ -5748,7 +5747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="23" t="str">
         <f>D30&amp;" - "&amp;C30&amp;" - "&amp;B30</f>
         <v>ISC - XII - AI</v>
@@ -5891,7 +5890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="23" t="str">
         <f t="shared" si="52"/>
         <v>ISC - XI - English</v>
@@ -6034,7 +6033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="23" t="str">
         <f t="shared" si="52"/>
         <v>ISC - XI - Bengali</v>
@@ -6177,7 +6176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="23" t="str">
         <f t="shared" si="52"/>
         <v>ISC - XI - Hindi</v>
@@ -6320,7 +6319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="23" t="str">
         <f>D34&amp;" - "&amp;C34&amp;" - "&amp;B34</f>
         <v>ISC - XI - History</v>
@@ -6463,7 +6462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="23" t="str">
         <f>D35&amp;" - "&amp;C35&amp;" - "&amp;B35</f>
         <v>ISC - XI - Geography</v>
@@ -6606,7 +6605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="23" t="str">
         <f>D36&amp;" - "&amp;C36&amp;" - "&amp;B36</f>
         <v>ISC - XI - Political Science</v>
@@ -6749,7 +6748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="23" t="str">
         <f>D37&amp;" - "&amp;C37&amp;" - "&amp;B37</f>
         <v>ISC - XI - Sociology</v>
@@ -6892,7 +6891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="23" t="str">
         <f>D38&amp;" - "&amp;C38&amp;" - "&amp;B38</f>
         <v>ISC - XI - Philosophy</v>
@@ -7035,7 +7034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="23" t="str">
         <f t="shared" si="52"/>
         <v>ISC - XI - Accounting</v>
@@ -7178,7 +7177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="23" t="str">
         <f t="shared" si="52"/>
         <v>ISC - XI - Commercial Study</v>
@@ -7321,7 +7320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="23" t="str">
         <f t="shared" si="52"/>
         <v>ISC - XI - Economics</v>
@@ -7464,7 +7463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="23" t="str">
         <f t="shared" si="52"/>
         <v>ISC - XI - Business Studies</v>
@@ -7607,7 +7606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="23" t="str">
         <f t="shared" si="52"/>
         <v>ISC - XI - Maths (Comm)</v>
@@ -7750,7 +7749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="23" t="str">
         <f>D44&amp;" - "&amp;C44&amp;" - "&amp;B44</f>
         <v>ISC - XI - Computers</v>
@@ -7893,7 +7892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="23" t="str">
         <f>D45&amp;" - "&amp;C45&amp;" - "&amp;B45</f>
         <v>ISC - XI - AI</v>
@@ -8036,7 +8035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="23" t="str">
         <f>D46&amp;" - "&amp;C46&amp;" - "&amp;B46</f>
         <v>ICSE - X - English</v>
@@ -8179,7 +8178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:40" hidden="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:40" ht="24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="23" t="str">
         <f t="shared" ref="A47:A165" si="95">D47&amp;" - "&amp;C47&amp;" - "&amp;B47</f>
         <v>ICSE - X - Bengali</v>
@@ -8322,7 +8321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="23" t="str">
         <f t="shared" si="95"/>
         <v>ICSE - X - Hindi</v>
@@ -8465,7 +8464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:40" hidden="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:40" ht="24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="23" t="str">
         <f>D49&amp;" - "&amp;C49&amp;" - "&amp;B49</f>
         <v>ICSE - X - Geography</v>
@@ -8608,7 +8607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="23" t="str">
         <f>D50&amp;" - "&amp;C50&amp;" - "&amp;B50</f>
         <v>ICSE - X - EVS</v>
@@ -8751,7 +8750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:40" hidden="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:40" ht="24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="23" t="str">
         <f>D51&amp;" - "&amp;C51&amp;" - "&amp;B51</f>
         <v>ICSE - X - Hist Civics</v>
@@ -8894,7 +8893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="23" t="str">
         <f>D52&amp;" - "&amp;C52&amp;" - "&amp;B52</f>
         <v>ICSE - X - Commercial Study</v>
@@ -9037,7 +9036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="23" t="str">
         <f>D53&amp;" - "&amp;C53&amp;" - "&amp;B53</f>
         <v>ICSE - X - Economics</v>
@@ -9180,7 +9179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="23" t="str">
         <f t="shared" si="95"/>
         <v>ICSE - X - Maths</v>
@@ -9323,7 +9322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="23" t="str">
         <f t="shared" si="95"/>
         <v>ICSE - X - Physics</v>
@@ -9466,7 +9465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="23" t="str">
         <f t="shared" si="95"/>
         <v>ICSE - X - Chemistry</v>
@@ -9609,7 +9608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="23" t="str">
         <f t="shared" si="95"/>
         <v>ICSE - X - Biology</v>
@@ -9752,7 +9751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="23" t="str">
         <f t="shared" si="95"/>
         <v>ICSE - X - Computers</v>
@@ -9895,7 +9894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="23" t="str">
         <f t="shared" si="95"/>
         <v>ICSE - X - AI</v>
@@ -10038,7 +10037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="23" t="str">
         <f t="shared" si="95"/>
         <v>ICSE - IX - English</v>
@@ -10181,7 +10180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:40" hidden="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:40" ht="24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="23" t="str">
         <f t="shared" si="95"/>
         <v>ICSE - IX - Bengali</v>
@@ -10324,7 +10323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="23" t="str">
         <f t="shared" si="95"/>
         <v>ICSE - IX - Hindi</v>
@@ -10467,7 +10466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:40" hidden="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:40" ht="24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="23" t="str">
         <f>D63&amp;" - "&amp;C63&amp;" - "&amp;B63</f>
         <v>ICSE - IX - Geography</v>
@@ -10610,7 +10609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="23" t="str">
         <f>D64&amp;" - "&amp;C64&amp;" - "&amp;B64</f>
         <v>ICSE - IX - EVS</v>
@@ -10753,7 +10752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:40" hidden="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:40" ht="24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="23" t="str">
         <f>D65&amp;" - "&amp;C65&amp;" - "&amp;B65</f>
         <v>ICSE - IX - Hist Civics</v>
@@ -10896,7 +10895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="23" t="str">
         <f>D66&amp;" - "&amp;C66&amp;" - "&amp;B66</f>
         <v>ICSE - IX - Commercial Study</v>
@@ -11039,7 +11038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="23" t="str">
         <f>D67&amp;" - "&amp;C67&amp;" - "&amp;B67</f>
         <v>ICSE - IX - Economics</v>
@@ -11182,7 +11181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="23" t="str">
         <f t="shared" si="95"/>
         <v>ICSE - IX - Maths</v>
@@ -11325,7 +11324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="23" t="str">
         <f t="shared" si="95"/>
         <v>ICSE - IX - Physics</v>
@@ -11468,7 +11467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="23" t="str">
         <f t="shared" si="95"/>
         <v>ICSE - IX - Chemistry</v>
@@ -11611,7 +11610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="23" t="str">
         <f t="shared" si="95"/>
         <v>ICSE - IX - Biology</v>
@@ -11754,7 +11753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="23" t="str">
         <f>D72&amp;" - "&amp;C72&amp;" - "&amp;B72</f>
         <v>ICSE - IX - Computers</v>
@@ -11897,7 +11896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="23" t="str">
         <f t="shared" si="95"/>
         <v>ICSE - IX - AI</v>
@@ -12040,7 +12039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="23" t="str">
         <f t="shared" si="95"/>
         <v>ICSE - VIII - English</v>
@@ -12183,7 +12182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:40" hidden="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:40" ht="24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="23" t="str">
         <f>D75&amp;" - "&amp;C75&amp;" - "&amp;B75</f>
         <v>ICSE - VIII - Bengali</v>
@@ -12326,7 +12325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="23" t="str">
         <f>D76&amp;" - "&amp;C76&amp;" - "&amp;B76</f>
         <v>ICSE - VIII - Hindi</v>
@@ -12469,7 +12468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:40" hidden="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:40" ht="24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="23" t="str">
         <f>D77&amp;" - "&amp;C77&amp;" - "&amp;B77</f>
         <v>ICSE - VIII - Geography</v>
@@ -12612,7 +12611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="23" t="str">
         <f>D78&amp;" - "&amp;C78&amp;" - "&amp;B78</f>
         <v>ICSE - VIII - EVS</v>
@@ -12755,7 +12754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:40" hidden="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:40" ht="24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="23" t="str">
         <f>D79&amp;" - "&amp;C79&amp;" - "&amp;B79</f>
         <v>ICSE - VIII - Hist Civics</v>
@@ -12898,7 +12897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="23" t="str">
         <f t="shared" si="95"/>
         <v>ICSE - VIII - Maths</v>
@@ -13041,7 +13040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="23" t="str">
         <f t="shared" si="95"/>
         <v>ICSE - VIII - Physics</v>
@@ -13184,7 +13183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="23" t="str">
         <f t="shared" si="95"/>
         <v>ICSE - VIII - Chemistry</v>
@@ -13327,7 +13326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="23" t="str">
         <f t="shared" si="95"/>
         <v>ICSE - VIII - Biology</v>
@@ -13470,7 +13469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="23" t="str">
         <f t="shared" si="95"/>
         <v>ICSE - VIII - Computers</v>
@@ -13613,7 +13612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="21" t="str">
         <f>D85&amp;" - "&amp;C85&amp;" - "&amp;B85</f>
         <v>WB - XII - English</v>
@@ -13756,7 +13755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="21" t="str">
         <f>D86&amp;" - "&amp;C86&amp;" - "&amp;B86</f>
         <v>WB - XII - Bengali</v>
@@ -13899,7 +13898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="21" t="str">
         <f>D87&amp;" - "&amp;C87&amp;" - "&amp;B87</f>
         <v>WB - XII - Hindi</v>
@@ -14042,7 +14041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="21" t="str">
         <f>D88&amp;" - "&amp;C88&amp;" - "&amp;B88</f>
         <v>WB - XII - History</v>
@@ -14185,7 +14184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="21" t="str">
         <f t="shared" ref="A89" si="140">D89&amp;" - "&amp;C89&amp;" - "&amp;B89</f>
         <v>WB - XII - Geography</v>
@@ -14328,7 +14327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="21" t="str">
         <f>D90&amp;" - "&amp;C90&amp;" - "&amp;B90</f>
         <v>WB - XII - Political Science</v>
@@ -14471,7 +14470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="21" t="str">
         <f>D91&amp;" - "&amp;C91&amp;" - "&amp;B91</f>
         <v>WB - XII - Sociology</v>
@@ -14614,7 +14613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="21" t="str">
         <f>D92&amp;" - "&amp;C92&amp;" - "&amp;B92</f>
         <v>WB - XII - Philosophy</v>
@@ -14757,7 +14756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="21" t="str">
         <f t="shared" ref="A93:A100" si="141">D93&amp;" - "&amp;C93&amp;" - "&amp;B93</f>
         <v>WB - XII - Accounting</v>
@@ -14900,7 +14899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="21" t="str">
         <f t="shared" si="141"/>
         <v>WB - XII - Business Studies</v>
@@ -15043,7 +15042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="21" t="str">
         <f t="shared" si="141"/>
         <v>WB - XII - Costing &amp; Taxation</v>
@@ -15186,7 +15185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="21" t="str">
         <f t="shared" si="141"/>
         <v>WB - XII - Business Law</v>
@@ -15329,7 +15328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="21" t="str">
         <f t="shared" si="141"/>
         <v>WB - XII - Maths (Comm)</v>
@@ -15472,7 +15471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="21" t="str">
         <f t="shared" si="141"/>
         <v>WB - XII - Stats</v>
@@ -15615,7 +15614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="21" t="str">
         <f t="shared" si="141"/>
         <v>WB - XII - Economics</v>
@@ -15758,7 +15757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="21" t="str">
         <f t="shared" si="141"/>
         <v>WB - XII - Eco Geography</v>
@@ -15901,7 +15900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="21" t="str">
         <f t="shared" ref="A101:A133" si="150">D101&amp;" - "&amp;C101&amp;" - "&amp;B101</f>
         <v>WB - XII - Computers</v>
@@ -16044,7 +16043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="21" t="str">
         <f t="shared" si="150"/>
         <v>WB - XII - AI</v>
@@ -16187,7 +16186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="21" t="str">
         <f t="shared" si="150"/>
         <v>WB - XI - English</v>
@@ -16330,7 +16329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="21" t="str">
         <f t="shared" si="150"/>
         <v>WB - XI - Bengali</v>
@@ -16473,7 +16472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="21" t="str">
         <f t="shared" si="150"/>
         <v>WB - XI - Hindi</v>
@@ -16616,7 +16615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="21" t="str">
         <f t="shared" si="150"/>
         <v>WB - XI - History</v>
@@ -16759,7 +16758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="21" t="str">
         <f t="shared" si="150"/>
         <v>WB - XI - Geography</v>
@@ -16902,7 +16901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="21" t="str">
         <f t="shared" si="150"/>
         <v>WB - XI - Political Science</v>
@@ -17045,7 +17044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="21" t="str">
         <f t="shared" si="150"/>
         <v>WB - XI - Sociology</v>
@@ -17188,7 +17187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="21" t="str">
         <f t="shared" si="150"/>
         <v>WB - XI - Philosophy</v>
@@ -17331,7 +17330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="21" t="str">
         <f t="shared" si="150"/>
         <v>WB - XI - Accounting</v>
@@ -17474,7 +17473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="21" t="str">
         <f t="shared" si="150"/>
         <v>WB - XI - Business Studies</v>
@@ -17617,7 +17616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="21" t="str">
         <f t="shared" si="150"/>
         <v>WB - XI - Costing &amp; Taxation</v>
@@ -17760,7 +17759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="21" t="str">
         <f t="shared" si="150"/>
         <v>WB - XI - Business Law</v>
@@ -17903,7 +17902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="21" t="str">
         <f t="shared" si="150"/>
         <v>WB - XI - Maths (Comm)</v>
@@ -18046,7 +18045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="21" t="str">
         <f t="shared" si="150"/>
         <v>WB - XI - Stats</v>
@@ -18189,7 +18188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="21" t="str">
         <f t="shared" si="150"/>
         <v>WB - XI - Economics</v>
@@ -18332,7 +18331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="21" t="str">
         <f t="shared" si="150"/>
         <v>WB - XI - Eco Geography</v>
@@ -18475,7 +18474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="21" t="str">
         <f t="shared" si="150"/>
         <v>WB - XI - Computers</v>
@@ -18618,7 +18617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="21" t="str">
         <f t="shared" si="150"/>
         <v>WB - XI - AI</v>
@@ -18761,7 +18760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="21" t="str">
         <f t="shared" si="150"/>
         <v>WB - X - English</v>
@@ -18904,7 +18903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="21" t="str">
         <f t="shared" si="150"/>
         <v>WB - X - Bengali</v>
@@ -19047,7 +19046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="21" t="str">
         <f t="shared" ref="A123" si="175">D123&amp;" - "&amp;C123&amp;" - "&amp;B123</f>
         <v>WB - X - History</v>
@@ -19190,7 +19189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="21" t="str">
         <f t="shared" si="150"/>
         <v>WB - X - Hindi</v>
@@ -19333,7 +19332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="21" t="str">
         <f t="shared" si="150"/>
         <v>WB - X - Geography</v>
@@ -19476,7 +19475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="21" t="str">
         <f t="shared" si="150"/>
         <v>WB - X - Physical Science</v>
@@ -19619,7 +19618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="21" t="str">
         <f t="shared" si="150"/>
         <v>WB - X - Life Science</v>
@@ -19762,7 +19761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="21" t="str">
         <f t="shared" si="150"/>
         <v>WB - X - Maths</v>
@@ -19905,7 +19904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="21" t="str">
         <f t="shared" si="150"/>
         <v>WB - X - Book Keeping</v>
@@ -20048,7 +20047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="21" t="str">
         <f t="shared" si="150"/>
         <v>WB - X - Business Studies</v>
@@ -20191,7 +20190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="21" t="str">
         <f t="shared" si="150"/>
         <v>WB - X - Computers</v>
@@ -20334,7 +20333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="21" t="str">
         <f t="shared" si="150"/>
         <v>WB - X - AI</v>
@@ -20477,7 +20476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="21" t="str">
         <f t="shared" si="150"/>
         <v>WB - IX - English</v>
@@ -20620,7 +20619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="21" t="str">
         <f t="shared" ref="A134:A151" si="226">D134&amp;" - "&amp;C134&amp;" - "&amp;B134</f>
         <v>WB - IX - Bengali</v>
@@ -20763,7 +20762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="21" t="str">
         <f t="shared" si="226"/>
         <v>WB - IX - Hindi</v>
@@ -20906,7 +20905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="21" t="str">
         <f t="shared" si="226"/>
         <v>WB - IX - History</v>
@@ -21049,7 +21048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="21" t="str">
         <f t="shared" si="226"/>
         <v>WB - IX - Geography</v>
@@ -21192,7 +21191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="21" t="str">
         <f t="shared" si="226"/>
         <v>WB - IX - Physical Science</v>
@@ -21335,7 +21334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="21" t="str">
         <f t="shared" si="226"/>
         <v>WB - IX - Life Science</v>
@@ -21478,7 +21477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="21" t="str">
         <f t="shared" si="226"/>
         <v>WB - IX - Maths</v>
@@ -21621,7 +21620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="21" t="str">
         <f t="shared" si="226"/>
         <v>WB - IX - Book Keeping</v>
@@ -21764,7 +21763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="21" t="str">
         <f t="shared" si="226"/>
         <v>WB - IX - Business Studies</v>
@@ -21907,7 +21906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="21" t="str">
         <f t="shared" si="226"/>
         <v>WB - IX - Computers</v>
@@ -22050,7 +22049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="21" t="str">
         <f t="shared" si="226"/>
         <v>WB - IX - AI</v>
@@ -22193,7 +22192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="21" t="str">
         <f t="shared" si="226"/>
         <v>WB - VIII - English</v>
@@ -22336,7 +22335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="21" t="str">
         <f t="shared" si="226"/>
         <v>WB - VIII - Bengali</v>
@@ -22479,7 +22478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="21" t="str">
         <f t="shared" si="226"/>
         <v>WB - VIII - Hindi</v>
@@ -22622,7 +22621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="21" t="str">
         <f t="shared" si="226"/>
         <v>WB - VIII - History</v>
@@ -22765,7 +22764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="21" t="str">
         <f t="shared" si="226"/>
         <v>WB - VIII - Geography</v>
@@ -22908,7 +22907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="21" t="str">
         <f t="shared" si="226"/>
         <v>WB - VIII - Physical Science</v>
@@ -23051,7 +23050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="21" t="str">
         <f t="shared" si="226"/>
         <v>WB - VIII - Maths</v>
@@ -23194,7 +23193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="24" t="str">
         <f t="shared" si="95"/>
         <v>CBSE - XII - English</v>
@@ -23337,7 +23336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="24" t="str">
         <f t="shared" si="95"/>
         <v>CBSE - XII - Bengali</v>
@@ -23480,7 +23479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="24" t="str">
         <f t="shared" si="95"/>
         <v>CBSE - XII - Hindi</v>
@@ -23623,7 +23622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="24" t="str">
         <f t="shared" si="95"/>
         <v>CBSE - XII - History</v>
@@ -23766,7 +23765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="24" t="str">
         <f t="shared" si="95"/>
         <v>CBSE - XII - Geography</v>
@@ -23909,7 +23908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="24" t="str">
         <f t="shared" si="95"/>
         <v>CBSE - XII - Political Science</v>
@@ -24052,7 +24051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="24" t="str">
         <f t="shared" si="95"/>
         <v>CBSE - XII - Sociology</v>
@@ -24195,7 +24194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="24" t="str">
         <f t="shared" si="95"/>
         <v>CBSE - XII - Philosophy</v>
@@ -24338,7 +24337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="24" t="str">
         <f t="shared" si="95"/>
         <v>CBSE - XII - Accounting</v>
@@ -24481,7 +24480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="24" t="str">
         <f t="shared" si="95"/>
         <v>CBSE - XII - Economics</v>
@@ -24624,7 +24623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="24" t="str">
         <f t="shared" si="95"/>
         <v>CBSE - XII - Business Studies</v>
@@ -24767,7 +24766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="24" t="str">
         <f t="shared" si="95"/>
         <v>CBSE - XII - Info Practices</v>
@@ -24910,7 +24909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="24" t="str">
         <f t="shared" si="95"/>
         <v>CBSE - XII - Legal Studies</v>
@@ -25053,7 +25052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="24" t="str">
         <f t="shared" si="95"/>
         <v>CBSE - XII - Maths (Comm)</v>
@@ -25196,7 +25195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="24" t="str">
         <f>D166&amp;" - "&amp;C166&amp;" - "&amp;B166</f>
         <v>CBSE - XII - Computers</v>
@@ -25339,7 +25338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="24" t="str">
         <f>D167&amp;" - "&amp;C167&amp;" - "&amp;B167</f>
         <v>CBSE - XII - AI</v>
@@ -25482,7 +25481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="24" t="str">
         <f t="shared" ref="A168:A181" si="276">D168&amp;" - "&amp;C168&amp;" - "&amp;B168</f>
         <v>CBSE - XI - English</v>
@@ -25625,7 +25624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="24" t="str">
         <f t="shared" si="276"/>
         <v>CBSE - XI - Bengali</v>
@@ -25768,7 +25767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="24" t="str">
         <f t="shared" si="276"/>
         <v>CBSE - XI - Hindi</v>
@@ -25911,7 +25910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="24" t="str">
         <f t="shared" si="276"/>
         <v>CBSE - XI - History</v>
@@ -26054,7 +26053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="24" t="str">
         <f t="shared" si="276"/>
         <v>CBSE - XI - Geography</v>
@@ -26197,7 +26196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="24" t="str">
         <f t="shared" si="276"/>
         <v>CBSE - XI - Political Science</v>
@@ -26340,7 +26339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="24" t="str">
         <f t="shared" si="276"/>
         <v>CBSE - XI - Sociology</v>
@@ -26483,7 +26482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="24" t="str">
         <f t="shared" si="276"/>
         <v>CBSE - XI - Philosophy</v>
@@ -26626,7 +26625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="24" t="str">
         <f t="shared" si="276"/>
         <v>CBSE - XI - Accounting</v>
@@ -26769,7 +26768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="24" t="str">
         <f t="shared" si="276"/>
         <v>CBSE - XI - Economics</v>
@@ -26912,7 +26911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="24" t="str">
         <f t="shared" si="276"/>
         <v>CBSE - XI - Business Studies</v>
@@ -27055,7 +27054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="24" t="str">
         <f t="shared" si="276"/>
         <v>CBSE - XI - Info Practices</v>
@@ -27198,7 +27197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="24" t="str">
         <f t="shared" si="276"/>
         <v>CBSE - XI - Legal Studies</v>
@@ -27341,7 +27340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="24" t="str">
         <f t="shared" si="276"/>
         <v>CBSE - XI - Maths (Comm)</v>
@@ -27484,7 +27483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="24" t="str">
         <f>D182&amp;" - "&amp;C182&amp;" - "&amp;B182</f>
         <v>CBSE - XI - Computers</v>
@@ -27627,7 +27626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="24" t="str">
         <f>D183&amp;" - "&amp;C183&amp;" - "&amp;B183</f>
         <v>CBSE - XI - AI</v>
@@ -27770,7 +27769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="24" t="str">
         <f>D184&amp;" - "&amp;C184&amp;" - "&amp;B184</f>
         <v>CBSE - X - English</v>
@@ -27913,7 +27912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="24" t="str">
         <f t="shared" ref="A185:A211" si="304">D185&amp;" - "&amp;C185&amp;" - "&amp;B185</f>
         <v>CBSE - X - Bengali</v>
@@ -28056,7 +28055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="24" t="str">
         <f t="shared" si="304"/>
         <v>CBSE - X - Hindi</v>
@@ -28199,7 +28198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="24" t="str">
         <f>D187&amp;" - "&amp;C187&amp;" - "&amp;B187</f>
         <v>CBSE - X - SST, Hist, Geog, Eco, Civics</v>
@@ -28342,7 +28341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="24" t="str">
         <f>D188&amp;" - "&amp;C188&amp;" - "&amp;B188</f>
         <v>CBSE - X - Maths</v>
@@ -28485,7 +28484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="24" t="str">
         <f t="shared" si="304"/>
         <v>CBSE - X - Science, Physics</v>
@@ -28628,7 +28627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="24" t="str">
         <f t="shared" si="304"/>
         <v>CBSE - X - Science, Chemistry</v>
@@ -28771,7 +28770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="24" t="str">
         <f t="shared" si="304"/>
         <v>CBSE - X - Science, Biology</v>
@@ -28914,7 +28913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="24" t="str">
         <f t="shared" si="304"/>
         <v>CBSE - X - Computers</v>
@@ -29057,7 +29056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="24" t="str">
         <f t="shared" si="304"/>
         <v>CBSE - X - AI</v>
@@ -29200,7 +29199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="24" t="str">
         <f>D194&amp;" - "&amp;C194&amp;" - "&amp;B194</f>
         <v>CBSE - IX - English</v>
@@ -29343,7 +29342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="24" t="str">
         <f t="shared" ref="A195:A196" si="334">D195&amp;" - "&amp;C195&amp;" - "&amp;B195</f>
         <v>CBSE - IX - Bengali</v>
@@ -29486,7 +29485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="24" t="str">
         <f t="shared" si="334"/>
         <v>CBSE - IX - Hindi</v>
@@ -29629,7 +29628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="24" t="str">
         <f>D197&amp;" - "&amp;C197&amp;" - "&amp;B197</f>
         <v>CBSE - IX - SST, Hist, Geog, Eco, Civics</v>
@@ -29772,7 +29771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="24" t="str">
         <f>D198&amp;" - "&amp;C198&amp;" - "&amp;B198</f>
         <v>CBSE - IX - Maths</v>
@@ -29915,7 +29914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="24" t="str">
         <f t="shared" ref="A199:A203" si="342">D199&amp;" - "&amp;C199&amp;" - "&amp;B199</f>
         <v>CBSE - IX - Science, Physics</v>
@@ -30058,7 +30057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="24" t="str">
         <f t="shared" si="342"/>
         <v>CBSE - IX - Science, Chemistry</v>
@@ -30201,7 +30200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="24" t="str">
         <f t="shared" si="342"/>
         <v>CBSE - IX - Science, Biology</v>
@@ -30344,7 +30343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="24" t="str">
         <f t="shared" si="342"/>
         <v>CBSE - IX - Computers</v>
@@ -30487,7 +30486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="24" t="str">
         <f t="shared" si="342"/>
         <v>CBSE - IX - AI</v>
@@ -30630,7 +30629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="24" t="str">
         <f t="shared" si="304"/>
         <v>CBSE - VIII - English</v>
@@ -30773,7 +30772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="24" t="str">
         <f t="shared" si="304"/>
         <v>CBSE - VIII - Bengali</v>
@@ -30916,7 +30915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="24" t="str">
         <f t="shared" si="304"/>
         <v>CBSE - VIII - Hindi</v>
@@ -31059,7 +31058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="24" t="str">
         <f>D207&amp;" - "&amp;C207&amp;" - "&amp;B207</f>
         <v>CBSE - VIII - Social Science</v>
@@ -31202,7 +31201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="24" t="str">
         <f t="shared" si="304"/>
         <v>CBSE - VIII - Maths</v>
@@ -31345,7 +31344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="24" t="str">
         <f t="shared" si="304"/>
         <v>CBSE - VIII - Science - Physics, Chem</v>
@@ -31488,7 +31487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="24" t="str">
         <f t="shared" ref="A210" si="368">D210&amp;" - "&amp;C210&amp;" - "&amp;B210</f>
         <v>CBSE - VIII - Science - Bio</v>
@@ -31631,7 +31630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="24" t="str">
         <f t="shared" si="304"/>
         <v>CBSE - VIII - Computers</v>
@@ -31774,7 +31773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="12" t="str">
         <f>C212&amp;" - "&amp;B212</f>
         <v>B.Com. (H) - Adv Accounting I</v>
@@ -31917,7 +31916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="12" t="str">
         <f t="shared" ref="A213:A221" si="376">C213&amp;" - "&amp;B213</f>
         <v>B.Com. (H) - Adv Accounting II</v>
@@ -32060,7 +32059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="12" t="str">
         <f t="shared" si="376"/>
         <v>B.Com. (H) - Adv Accounting III</v>
@@ -32203,7 +32202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="12" t="str">
         <f t="shared" si="376"/>
         <v>B.Com. (H) - Cost &amp; Mgmt Ac I</v>
@@ -32346,7 +32345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="12" t="str">
         <f t="shared" si="376"/>
         <v>B.Com. (H) - Cost &amp; Mgmt Ac II</v>
@@ -32489,7 +32488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="12" t="str">
         <f t="shared" si="376"/>
         <v>B.Com. (H) - In/Direct Tax I</v>
@@ -32632,7 +32631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="12" t="str">
         <f t="shared" si="376"/>
         <v>B.Com. (H) - In/Direct Tax II</v>
@@ -32775,7 +32774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="12" t="str">
         <f t="shared" si="376"/>
         <v>B.Com. (H) - Financial Mgmt</v>
@@ -32918,7 +32917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="12" t="str">
         <f t="shared" si="376"/>
         <v>B.Com. (H) - Fin Rpt &amp; Stmt Anlys</v>
@@ -33061,7 +33060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="12" t="str">
         <f t="shared" si="376"/>
         <v>B.Com. (H) - Audit &amp; Assurance</v>
@@ -33204,7 +33203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="12" t="str">
         <f>C222&amp;" - "&amp;B222</f>
         <v>B.Com. - Micro Economics</v>
@@ -33347,7 +33346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="12" t="str">
         <f t="shared" ref="A223:A267" si="400">C223&amp;" - "&amp;B223</f>
         <v>B.Com. - Macro Economics</v>
@@ -33490,7 +33489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="12" t="str">
         <f t="shared" si="400"/>
         <v>B.Com. - Development Eco</v>
@@ -33633,7 +33632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="12" t="str">
         <f t="shared" si="400"/>
         <v>B.Com. - Business Management I</v>
@@ -33776,7 +33775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="12" t="str">
         <f t="shared" si="400"/>
         <v>B.Com. - Business Management II</v>
@@ -33919,7 +33918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="12" t="str">
         <f t="shared" si="400"/>
         <v>B.Com. - HRM</v>
@@ -34062,7 +34061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="12" t="str">
         <f t="shared" si="400"/>
         <v>B.Com. - Business Mathematics</v>
@@ -34205,7 +34204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="12" t="str">
         <f t="shared" si="400"/>
         <v>B.Com. - Business Statistics</v>
@@ -34348,7 +34347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="12" t="str">
         <f t="shared" si="400"/>
         <v>B.Com. - Business Law</v>
@@ -34491,7 +34490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="12" t="str">
         <f t="shared" si="400"/>
         <v>B.Com. - Company Law</v>
@@ -34634,7 +34633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="12" t="str">
         <f t="shared" si="400"/>
         <v>B.Com. - Enterpreneurship</v>
@@ -34777,7 +34776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="12" t="str">
         <f t="shared" si="400"/>
         <v>B.Com. - Environmantal Studies</v>
@@ -34920,7 +34919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="234" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="12" t="str">
         <f t="shared" si="400"/>
         <v>B.Com. - Business Comm</v>
@@ -35063,7 +35062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="12" t="str">
         <f t="shared" si="400"/>
         <v>B.Com. - E-Commerce</v>
@@ -35206,7 +35205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="12" t="str">
         <f t="shared" si="400"/>
         <v>B.Com. - IT App in Business</v>
@@ -35349,7 +35348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="12" t="str">
         <f t="shared" si="400"/>
         <v>B.Com. - Comp Ac &amp; Tax eFiling</v>
@@ -35492,7 +35491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="12" t="str">
         <f t="shared" si="400"/>
         <v>B.B.A. - English</v>
@@ -35635,7 +35634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="12" t="str">
         <f t="shared" si="400"/>
         <v>B.B.A. - Business Comm</v>
@@ -35778,7 +35777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="240" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="12" t="str">
         <f t="shared" si="400"/>
         <v>B.B.A. - Essentials of Math</v>
@@ -35921,7 +35920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="12" t="str">
         <f t="shared" si="400"/>
         <v>B.B.A. - Essentials of Stats</v>
@@ -36064,7 +36063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="12" t="str">
         <f t="shared" si="400"/>
         <v>B.B.A. - Advanced Math &amp; Stats</v>
@@ -36207,7 +36206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="12" t="str">
         <f t="shared" si="400"/>
         <v>B.B.A. - Computer Applications</v>
@@ -36350,7 +36349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="244" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="12" t="str">
         <f t="shared" si="400"/>
         <v>B.B.A. - Micro Economics</v>
@@ -36493,7 +36492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="12" t="str">
         <f t="shared" si="400"/>
         <v>B.B.A. - Macro Economics</v>
@@ -36636,7 +36635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="246" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="12" t="str">
         <f t="shared" si="400"/>
         <v>B.B.A. - Organizational Behavior</v>
@@ -36779,7 +36778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="12" t="str">
         <f t="shared" si="400"/>
         <v>B.B.A. - Social Structure &amp; Ethics</v>
@@ -36922,7 +36921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="12" t="str">
         <f t="shared" si="400"/>
         <v>B.B.A. - Principles of Mgmt</v>
@@ -37065,7 +37064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="249" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="12" t="str">
         <f t="shared" si="400"/>
         <v>B.B.A. - Managerial Economics</v>
@@ -37208,7 +37207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="12" t="str">
         <f t="shared" si="400"/>
         <v>B.B.A. - Business Laws</v>
@@ -37351,7 +37350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="12" t="str">
         <f t="shared" si="400"/>
         <v>B.B.A. - Financial Accounting</v>
@@ -37494,7 +37493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="12" t="str">
         <f t="shared" si="400"/>
         <v>B.B.A. - Environment Studies</v>
@@ -37637,7 +37636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="12" t="str">
         <f t="shared" si="400"/>
         <v>B.B.A. - Prod &amp; Materials Mgmt</v>
@@ -37780,7 +37779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="254" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="12" t="str">
         <f t="shared" si="400"/>
         <v>B.B.A. - Mgmt Info System</v>
@@ -37923,7 +37922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="255" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="12" t="str">
         <f t="shared" si="400"/>
         <v>B.B.A. - Cost Accounting</v>
@@ -38066,7 +38065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="256" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="12" t="str">
         <f t="shared" si="400"/>
         <v>B.B.A. - Marketing Management</v>
@@ -38209,7 +38208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="257" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="12" t="str">
         <f t="shared" si="400"/>
         <v>B.B.A. - HRM</v>
@@ -38352,7 +38351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="258" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="12" t="str">
         <f t="shared" si="400"/>
         <v>B.B.A. - Financial Management</v>
@@ -38495,7 +38494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="259" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="12" t="str">
         <f t="shared" si="400"/>
         <v>B.B.A. - Sales &amp; Distribn Mgmt</v>
@@ -38638,7 +38637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="260" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="12" t="str">
         <f t="shared" si="400"/>
         <v>B.B.A. - HR Development</v>
@@ -38781,7 +38780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="261" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="12" t="str">
         <f t="shared" si="400"/>
         <v>B.B.A. - Enterpreneurship Dev</v>
@@ -38924,7 +38923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="262" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="12" t="str">
         <f t="shared" si="400"/>
         <v>B.B.A. - Research Methodology</v>
@@ -39067,7 +39066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="263" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="12" t="str">
         <f t="shared" si="400"/>
         <v>B.B.A. - Mgmt Accounting</v>
@@ -39210,7 +39209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="264" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="12" t="str">
         <f t="shared" si="400"/>
         <v>B.B.A. - Ad &amp; Sales Promotion</v>
@@ -39353,7 +39352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="265" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="12" t="str">
         <f t="shared" si="400"/>
         <v>B.B.A. - Industrial Relations</v>
@@ -39496,7 +39495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="266" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="12" t="str">
         <f t="shared" si="400"/>
         <v>B.B.A. - Public Service Mgmt</v>
@@ -39639,7 +39638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="267" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="12" t="str">
         <f t="shared" si="400"/>
         <v>B.B.A. - Project and Viva</v>
@@ -39782,7 +39781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="268" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="20" t="str">
         <f>D268&amp;" - "&amp;C268&amp;" - "&amp;B268</f>
         <v>C.A. - Found - Accountancy</v>
@@ -39925,7 +39924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="269" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="20" t="str">
         <f t="shared" ref="A269:A332" si="426">D269&amp;" - "&amp;C269&amp;" - "&amp;B269</f>
         <v>C.A. - Found - Biz laws &amp; Corspndnce</v>
@@ -40022,7 +40021,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="270" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="270" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="20" t="str">
         <f t="shared" si="426"/>
         <v>C.A. - Found - Biz Math &amp; Stat</v>
@@ -40119,7 +40118,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="271" spans="1:40" hidden="1" x14ac:dyDescent="0.45">
+    <row r="271" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A271" s="20" t="str">
         <f t="shared" si="426"/>
         <v>C.A. - Found - Eco &amp; Comm Knwldge</v>
@@ -40214,7 +40213,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="272" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="272" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="20" t="str">
         <f t="shared" si="426"/>
         <v>C.A. - Inter - Accountancy</v>
@@ -40357,7 +40356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="273" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="20" t="str">
         <f t="shared" si="426"/>
         <v>C.A. - Inter - Corp &amp; other Laws</v>
@@ -40444,7 +40443,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="274" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="274" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="20" t="str">
         <f t="shared" si="426"/>
         <v>C.A. - Inter - Cost &amp; Mgmt Ac</v>
@@ -40531,7 +40530,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="275" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="275" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="20" t="str">
         <f t="shared" si="426"/>
         <v>C.A. - Inter - Tax</v>
@@ -40616,7 +40615,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="276" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="276" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="20" t="str">
         <f t="shared" si="426"/>
         <v>C.A. - Inter - Audit</v>
@@ -40701,7 +40700,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="277" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="277" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="20" t="str">
         <f t="shared" si="426"/>
         <v>C.A. - Inter - Adv Ac</v>
@@ -40788,7 +40787,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="278" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="278" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="20" t="str">
         <f t="shared" si="426"/>
         <v>C.A. - Inter - EIS &amp; Strategic Mgmt</v>
@@ -40875,7 +40874,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="279" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="279" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="20" t="str">
         <f t="shared" si="426"/>
         <v>C.A. - Inter - Fin Mgmt &amp; Eco</v>
@@ -40960,7 +40959,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="280" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="280" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="20" t="str">
         <f t="shared" si="426"/>
         <v>C.A. - Final - Fin Reporting</v>
@@ -41103,7 +41102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:40" hidden="1" x14ac:dyDescent="0.45">
+    <row r="281" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A281" s="20" t="str">
         <f t="shared" si="426"/>
         <v>C.A. - Final - Strategic Fin Mgmt</v>
@@ -41190,7 +41189,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="282" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="282" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="20" t="str">
         <f t="shared" si="426"/>
         <v>C.A. - Final - Audit &amp; Ethics</v>
@@ -41275,7 +41274,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="283" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="283" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="20" t="str">
         <f t="shared" si="426"/>
         <v>C.A. - Final - Corporate &amp; Eco Laws</v>
@@ -41362,7 +41361,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="284" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="284" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="20" t="str">
         <f t="shared" si="426"/>
         <v>C.A. - Final - Strategic Cost &amp; Perf Eval</v>
@@ -41449,7 +41448,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="285" spans="1:40" ht="17" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="285" spans="1:40" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="20" t="str">
         <f t="shared" si="426"/>
         <v>C.A. - Final - Risk, Cptl Mkt, Glbl FnRpt</v>
@@ -41534,7 +41533,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="286" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="286" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="20" t="str">
         <f t="shared" si="426"/>
         <v>C.A. - Final - Direct Tax &amp; Intrtnl Tax</v>
@@ -41621,7 +41620,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="287" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="287" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="20" t="str">
         <f t="shared" si="426"/>
         <v>C.A. - Final - Indirect Tax laws</v>
@@ -41708,7 +41707,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="288" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="288" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="32" t="str">
         <f t="shared" si="426"/>
         <v>C.M.A. - Found - Bizz laws &amp; comm</v>
@@ -41849,7 +41848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="289" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="32" t="str">
         <f t="shared" si="426"/>
         <v>C.M.A. - Found - Fin &amp; Cost Ac</v>
@@ -41934,7 +41933,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="290" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="290" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="32" t="str">
         <f t="shared" si="426"/>
         <v>C.M.A. - Found - Bizz math &amp; Stat</v>
@@ -42019,7 +42018,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="291" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="291" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="32" t="str">
         <f t="shared" si="426"/>
         <v>C.M.A. - Found - Bizz Eco &amp; Math</v>
@@ -42104,7 +42103,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="292" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="292" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="32" t="str">
         <f t="shared" si="426"/>
         <v>C.M.A. - Inter - Biz Law &amp; Ethics</v>
@@ -42245,7 +42244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="293" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="32" t="str">
         <f t="shared" si="426"/>
         <v>C.M.A. - Inter - Fin Ac</v>
@@ -42330,7 +42329,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="294" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="294" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="32" t="str">
         <f t="shared" si="426"/>
         <v>C.M.A. - Inter - Direct Indirect Tax</v>
@@ -42415,7 +42414,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="295" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="295" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="32" t="str">
         <f t="shared" si="426"/>
         <v>C.M.A. - Inter - Cost AC</v>
@@ -42500,7 +42499,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="296" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="296" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="32" t="str">
         <f t="shared" si="426"/>
         <v>C.M.A. - Inter - Ops &amp; Mgmt Strategic</v>
@@ -42585,7 +42584,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="297" spans="1:40" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="297" spans="1:40" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="32" t="str">
         <f t="shared" si="426"/>
         <v>C.M.A. - Inter - Corporate AC &amp; Auditing</v>
@@ -42670,7 +42669,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="298" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="298" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="32" t="str">
         <f t="shared" si="426"/>
         <v>C.M.A. - Inter - Fin Mgmt-Data Anltcs</v>
@@ -42755,7 +42754,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="299" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="299" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="32" t="str">
         <f t="shared" si="426"/>
         <v>C.M.A. - Inter - Mgmt AC</v>
@@ -42840,7 +42839,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="300" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="300" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="32" t="str">
         <f t="shared" si="426"/>
         <v>C.M.A. - Final - Corporate &amp; Eco Laws</v>
@@ -42981,7 +42980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="301" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="32" t="str">
         <f t="shared" si="426"/>
         <v>C.M.A. - Final - Strategic Fin Mgmt</v>
@@ -43066,7 +43065,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="302" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="302" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="32" t="str">
         <f t="shared" si="426"/>
         <v>C.M.A. - Final - Direct &amp; Intrntnl Tax</v>
@@ -43151,7 +43150,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="303" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="303" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="32" t="str">
         <f t="shared" si="426"/>
         <v>C.M.A. - Final - Strategic Cost Mgmt</v>
@@ -43236,7 +43235,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="304" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="304" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="32" t="str">
         <f t="shared" si="426"/>
         <v>C.M.A. - Final - Cost &amp; Mgmt Audit</v>
@@ -43321,7 +43320,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="305" spans="1:40" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="305" spans="1:40" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="32" t="str">
         <f t="shared" si="426"/>
         <v>C.M.A. - Final - Corporate Fin Reporting</v>
@@ -43406,7 +43405,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="306" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="306" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="32" t="str">
         <f t="shared" si="426"/>
         <v>C.M.A. - Final - Indirect Tax</v>
@@ -43491,7 +43490,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="307" spans="1:40" hidden="1" x14ac:dyDescent="0.45">
+    <row r="307" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A307" s="32" t="str">
         <f t="shared" si="426"/>
         <v>C.M.A. - Final - Strt Perf Mgmt &amp; Eval</v>
@@ -43576,7 +43575,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="308" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="308" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="20" t="str">
         <f t="shared" si="426"/>
         <v>C.S. - Found - Biz Env &amp; Law</v>
@@ -43717,7 +43716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:40" hidden="1" x14ac:dyDescent="0.45">
+    <row r="309" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A309" s="20" t="str">
         <f t="shared" si="426"/>
         <v>C.S. - Found - Biz Mgmt, Ethics, Entsp</v>
@@ -43798,7 +43797,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="310" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="310" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="20" t="str">
         <f t="shared" si="426"/>
         <v>C.S. - Found - Biz Eco</v>
@@ -43879,7 +43878,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="311" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="311" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="20" t="str">
         <f t="shared" si="426"/>
         <v>C.S. - Found - Ac &amp; Audit</v>
@@ -43960,7 +43959,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="312" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="312" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="20" t="str">
         <f t="shared" si="426"/>
         <v>C.S. - Inter - General Law</v>
@@ -44101,7 +44100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="313" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="20" t="str">
         <f t="shared" si="426"/>
         <v>C.S. - Inter - Company Law</v>
@@ -44182,7 +44181,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="314" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="314" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="20" t="str">
         <f t="shared" si="426"/>
         <v>C.S. - Inter - Set up of Biz &amp; Closure</v>
@@ -44263,7 +44262,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="315" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="315" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="20" t="str">
         <f t="shared" si="426"/>
         <v>C.S. - Inter - Tax Law</v>
@@ -44344,7 +44343,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="316" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="316" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="20" t="str">
         <f t="shared" si="426"/>
         <v>C.S. - Inter - Corporate &amp; Mgmt AC</v>
@@ -44425,7 +44424,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="317" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="317" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="20" t="str">
         <f t="shared" si="426"/>
         <v>C.S. - Inter - Securities Law &amp; Cptl Mkt</v>
@@ -44506,7 +44505,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="318" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="318" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="20" t="str">
         <f t="shared" si="426"/>
         <v>C.S. - Inter - Eco, Biz &amp; Comm Law</v>
@@ -44587,7 +44586,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="319" spans="1:40" hidden="1" x14ac:dyDescent="0.45">
+    <row r="319" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A319" s="20" t="str">
         <f t="shared" si="426"/>
         <v>C.S. - Inter - Fin &amp; Strategic Mgmt</v>
@@ -44668,7 +44667,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="320" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="320" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="20" t="str">
         <f t="shared" si="426"/>
         <v>C.S. - Final - Govrnc, Risk Mgmt, Ethics</v>
@@ -44809,7 +44808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="321" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" s="20" t="str">
         <f t="shared" si="426"/>
         <v>C.S. - Final - Adv Tax laws</v>
@@ -44890,7 +44889,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="322" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="322" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="20" t="str">
         <f t="shared" si="426"/>
         <v>C.S. - Final - Draft, Pleed &amp; Apprncs</v>
@@ -44971,7 +44970,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="323" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="323" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="20" t="str">
         <f t="shared" si="426"/>
         <v>C.S. - Final - Secretl Audit, Due Delgnc</v>
@@ -45052,7 +45051,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="324" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="324" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="20" t="str">
         <f t="shared" si="426"/>
         <v>C.S. - Final - Corp Restrct, Winding Up</v>
@@ -45133,7 +45132,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="325" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="325" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="20" t="str">
         <f t="shared" si="426"/>
         <v>C.S. - Final - Resln of Corp Disputes</v>
@@ -45214,7 +45213,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="326" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="326" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="20" t="str">
         <f t="shared" si="426"/>
         <v>C.S. - Final - Corp Fund &amp; Stock Listing</v>
@@ -45295,7 +45294,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="327" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="327" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" s="20" t="str">
         <f t="shared" si="426"/>
         <v>C.S. - Final - Multi Discp Case Studies</v>
@@ -45376,7 +45375,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="328" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="328" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" s="20" t="str">
         <f t="shared" si="426"/>
         <v>C.S. - Final - Intellectual Prpt Rights</v>
@@ -45457,7 +45456,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="329" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="329" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" s="32" t="str">
         <f t="shared" si="426"/>
         <v>C.F.A. - L-1 - Ethical &amp; Prof Standards</v>
@@ -45598,7 +45597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="330" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="32" t="str">
         <f t="shared" si="426"/>
         <v>C.F.A. - L-1 - Quantitive Methods</v>
@@ -45679,7 +45678,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="331" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="331" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" s="32" t="str">
         <f t="shared" si="426"/>
         <v>C.F.A. - L-1 - Economics</v>
@@ -45760,7 +45759,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="332" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="332" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="32" t="str">
         <f t="shared" si="426"/>
         <v>C.F.A. - L-1 - Fin Statement Analysis</v>
@@ -45841,7 +45840,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="333" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="333" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" s="32" t="str">
         <f t="shared" ref="A333:A358" si="445">D333&amp;" - "&amp;C333&amp;" - "&amp;B333</f>
         <v>C.F.A. - L-1 - Corporate Issuers</v>
@@ -45922,7 +45921,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="334" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="334" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" s="32" t="str">
         <f t="shared" si="445"/>
         <v>C.F.A. - L-1 - Equity Investments</v>
@@ -46003,7 +46002,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="335" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="335" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="32" t="str">
         <f t="shared" si="445"/>
         <v>C.F.A. - L-1 - Fixed Income</v>
@@ -46084,7 +46083,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="336" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="336" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" s="32" t="str">
         <f t="shared" si="445"/>
         <v>C.F.A. - L-1 - Derivatives</v>
@@ -46165,7 +46164,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="337" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="337" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="32" t="str">
         <f t="shared" si="445"/>
         <v>C.F.A. - L-1 - Alternative Investments</v>
@@ -46246,7 +46245,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="338" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="338" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="32" t="str">
         <f t="shared" si="445"/>
         <v>C.F.A. - L-1 - Portrfolio Mgmt &amp; Wealth</v>
@@ -46327,7 +46326,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="339" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="339" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="32" t="str">
         <f t="shared" si="445"/>
         <v>C.F.A. - L-2 - Ethical &amp; Prof Standards</v>
@@ -46468,7 +46467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="340" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="32" t="str">
         <f t="shared" si="445"/>
         <v>C.F.A. - L-2 - Quantitive Methods</v>
@@ -46549,7 +46548,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="341" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="341" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" s="32" t="str">
         <f t="shared" si="445"/>
         <v>C.F.A. - L-2 - Economics</v>
@@ -46630,7 +46629,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="342" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="342" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A342" s="32" t="str">
         <f t="shared" si="445"/>
         <v>C.F.A. - L-2 - Fin Statement Analysis</v>
@@ -46711,7 +46710,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="343" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="343" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" s="32" t="str">
         <f t="shared" si="445"/>
         <v>C.F.A. - L-2 - Corporate Issuers</v>
@@ -46792,7 +46791,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="344" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="344" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" s="32" t="str">
         <f t="shared" si="445"/>
         <v>C.F.A. - L-2 - Equity Investments</v>
@@ -46873,7 +46872,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="345" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="345" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A345" s="32" t="str">
         <f t="shared" si="445"/>
         <v>C.F.A. - L-2 - Fixed Income</v>
@@ -46954,7 +46953,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="346" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="346" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A346" s="32" t="str">
         <f t="shared" si="445"/>
         <v>C.F.A. - L-2 - Derivatives</v>
@@ -47035,7 +47034,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="347" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="347" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347" s="32" t="str">
         <f t="shared" si="445"/>
         <v>C.F.A. - L-2 - Alternative Investments</v>
@@ -47116,7 +47115,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="348" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="348" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348" s="32" t="str">
         <f t="shared" si="445"/>
         <v>C.F.A. - L-2 - Portrfolio Mgmt-Wealth</v>
@@ -47197,7 +47196,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="349" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="349" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A349" s="32" t="str">
         <f t="shared" si="445"/>
         <v>C.F.A. - L-3 - Ethical &amp; Prof Standards</v>
@@ -47338,7 +47337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="350" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A350" s="32" t="str">
         <f t="shared" si="445"/>
         <v>C.F.A. - L-3 - Quantitive Methods</v>
@@ -47419,7 +47418,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="351" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="351" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351" s="32" t="str">
         <f t="shared" si="445"/>
         <v>C.F.A. - L-3 - Economics</v>
@@ -47500,7 +47499,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="352" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="352" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A352" s="32" t="str">
         <f t="shared" si="445"/>
         <v>C.F.A. - L-3 - Fin Statement Analysis</v>
@@ -47581,7 +47580,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="353" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="353" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A353" s="32" t="str">
         <f t="shared" si="445"/>
         <v>C.F.A. - L-3 - Corporate Issuers</v>
@@ -47662,7 +47661,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="354" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="354" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A354" s="32" t="str">
         <f t="shared" si="445"/>
         <v>C.F.A. - L-3 - Equity Investments</v>
@@ -47743,7 +47742,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="355" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="355" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A355" s="32" t="str">
         <f t="shared" si="445"/>
         <v>C.F.A. - L-3 - Fixed Income</v>
@@ -47824,7 +47823,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="356" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="356" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A356" s="32" t="str">
         <f t="shared" si="445"/>
         <v>C.F.A. - L-3 - Derivatives</v>
@@ -47905,7 +47904,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="357" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="357" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A357" s="32" t="str">
         <f t="shared" si="445"/>
         <v>C.F.A. - L-3 - Alternative Investments</v>
@@ -47986,7 +47985,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="358" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="358" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A358" s="32" t="str">
         <f t="shared" si="445"/>
         <v>C.F.A. - L-3 - Portrfolio Mgmt-Wealth</v>
@@ -48067,7 +48066,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="359" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="359" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A359" s="19" t="str">
         <f>B359</f>
         <v>Spoken English</v>
@@ -48212,7 +48211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="360" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A360" s="19" t="str">
         <f>B360</f>
         <v>Advanced Grooming</v>
@@ -48357,7 +48356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="361" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A361" s="19" t="str">
         <f t="shared" ref="A361:A364" si="455">B361</f>
         <v>IELTS</v>
@@ -48500,7 +48499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="362" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A362" s="19" t="str">
         <f t="shared" si="455"/>
         <v>TOEFL</v>
@@ -48643,7 +48642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="363" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A363" s="19" t="str">
         <f t="shared" si="455"/>
         <v>PTE</v>
@@ -48786,7 +48785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="364" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A364" s="19" t="str">
         <f t="shared" si="455"/>
         <v>GRE</v>
@@ -48929,7 +48928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="365" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A365" s="19" t="str">
         <f>B365</f>
         <v>Classroom2Boardroom</v>
@@ -49072,7 +49071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="366" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A366" s="19" t="str">
         <f t="shared" ref="A366:A367" si="456">B366</f>
         <v>Employee to Manager</v>
@@ -49215,7 +49214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:40" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="367" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A367" s="19" t="str">
         <f t="shared" si="456"/>
         <v>Executive Training</v>
@@ -49358,7 +49357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="368" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368" s="13" t="str">
         <f t="shared" ref="A368:A394" si="457">B368</f>
         <v>MS Office</v>
@@ -49503,7 +49502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="369" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A369" s="13" t="str">
         <f t="shared" si="457"/>
         <v>Advanced Excel (VBA)</v>
@@ -49648,7 +49647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="370" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A370" s="13" t="str">
         <f t="shared" si="457"/>
         <v>C</v>
@@ -49793,7 +49792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="371" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A371" s="13" t="str">
         <f t="shared" si="457"/>
         <v>C++</v>
@@ -49938,7 +49937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="372" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A372" s="13" t="str">
         <f t="shared" si="457"/>
         <v>HTML, CSS, JavaScript</v>
@@ -50083,7 +50082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="373" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A373" s="13" t="str">
         <f t="shared" si="457"/>
         <v>Java</v>
@@ -50228,7 +50227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="374" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A374" s="13" t="str">
         <f t="shared" si="457"/>
         <v>Advanced Java</v>
@@ -50373,7 +50372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="375" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A375" s="13" t="str">
         <f t="shared" si="457"/>
         <v>.Net (C#, VB.Net)</v>
@@ -50518,7 +50517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="376" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A376" s="13" t="str">
         <f t="shared" si="457"/>
         <v>Advanced .Net</v>
@@ -50663,7 +50662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="377" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A377" s="13" t="str">
         <f t="shared" si="457"/>
         <v>Microsoft Azure Cloud</v>
@@ -50806,7 +50805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="378" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A378" s="13" t="str">
         <f t="shared" si="457"/>
         <v>React, MUI</v>
@@ -50951,7 +50950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="379" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A379" s="13" t="str">
         <f t="shared" si="457"/>
         <v>React Native</v>
@@ -51096,7 +51095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="380" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A380" s="13" t="str">
         <f t="shared" si="457"/>
         <v>PHP, Wordpress</v>
@@ -51241,7 +51240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="381" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A381" s="13" t="str">
         <f t="shared" si="457"/>
         <v>Linux, Shell Script</v>
@@ -51386,7 +51385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="382" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A382" s="13" t="str">
         <f t="shared" si="457"/>
         <v>Networking &amp; CCNA</v>
@@ -51529,7 +51528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="383" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A383" s="13" t="str">
         <f t="shared" si="457"/>
         <v>Hands-on Network H/W</v>
@@ -51674,7 +51673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="384" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A384" s="13" t="str">
         <f t="shared" si="457"/>
         <v>Devops</v>
@@ -51817,7 +51816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="385" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A385" s="13" t="str">
         <f t="shared" si="457"/>
         <v>Docker &amp; Kubernetes</v>
@@ -51960,7 +51959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="386" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A386" s="13" t="str">
         <f t="shared" si="457"/>
         <v>Cloud, AWS, GCP</v>
@@ -52103,7 +52102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="387" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A387" s="13" t="str">
         <f t="shared" si="457"/>
         <v>Cyber security Basics</v>
@@ -52246,7 +52245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="388" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A388" s="13" t="str">
         <f t="shared" si="457"/>
         <v>Cyber security Advanced</v>
@@ -52389,7 +52388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="389" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A389" s="13" t="str">
         <f t="shared" si="457"/>
         <v>Test Automtn Selenium</v>
@@ -52532,7 +52531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="390" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A390" s="13" t="s">
         <v>173</v>
       </c>
@@ -52676,7 +52675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="391" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A391" s="13" t="s">
         <v>174</v>
       </c>
@@ -52820,7 +52819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="392" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A392" s="13" t="s">
         <v>175</v>
       </c>
@@ -52964,7 +52963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="393" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A393" s="13" t="s">
         <v>176</v>
       </c>
@@ -53107,7 +53106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="394" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A394" s="13" t="str">
         <f t="shared" si="457"/>
         <v>Tally</v>
@@ -53250,7 +53249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="395" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A395" s="13" t="str">
         <f>B395</f>
         <v>Advanced Comme Pkg</v>
@@ -53393,7 +53392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="396" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A396" s="13" t="str">
         <f>B396</f>
         <v>Prince2</v>
@@ -53538,7 +53537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="397" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A397" s="13" t="str">
         <f>B397</f>
         <v>Agile Scrum</v>
@@ -53683,7 +53682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="398" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A398" s="13" t="str">
         <f t="shared" ref="A398:A405" si="509">B398</f>
         <v>Python</v>
@@ -53828,7 +53827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="399" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A399" s="13" t="str">
         <f t="shared" si="509"/>
         <v>Data Analytics</v>
@@ -53973,7 +53972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="400" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A400" s="13" t="str">
         <f t="shared" si="509"/>
         <v>Data Science &amp; AI</v>
@@ -54118,7 +54117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="401" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A401" s="13" t="str">
         <f t="shared" si="509"/>
         <v>AI - DSP</v>
@@ -54263,7 +54262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="402" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A402" s="13" t="str">
         <f t="shared" si="509"/>
         <v>AI - NLP</v>
@@ -54408,7 +54407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="403" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A403" s="13" t="str">
         <f t="shared" si="509"/>
         <v>AI - Comp Vision (CNN)</v>
@@ -54553,7 +54552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="404" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A404" s="13" t="str">
         <f t="shared" si="509"/>
         <v>IoT, Robotics</v>
@@ -54698,7 +54697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:40" ht="13.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="405" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A405" s="13" t="str">
         <f t="shared" si="509"/>
         <v>Advanced IoT, Robotics</v>
@@ -54844,14 +54843,41 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:AE405" xr:uid="{00000000-0009-0000-0000-000000000000}">
+  <autoFilter ref="A3:AE405">
     <filterColumn colId="4">
       <filters>
-        <filter val="IT/AI"/>
+        <filter val="Comm"/>
       </filters>
     </filterColumn>
   </autoFilter>
   <mergeCells count="43">
+    <mergeCell ref="AF1:AJ1"/>
+    <mergeCell ref="AK2:AK3"/>
+    <mergeCell ref="AL2:AL3"/>
+    <mergeCell ref="AM2:AM3"/>
+    <mergeCell ref="AN2:AN3"/>
+    <mergeCell ref="AK1:AN1"/>
+    <mergeCell ref="AF2:AF3"/>
+    <mergeCell ref="AG2:AG3"/>
+    <mergeCell ref="AH2:AH3"/>
+    <mergeCell ref="AI2:AI3"/>
+    <mergeCell ref="AJ2:AJ3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="V2:V3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="R2:R3"/>
     <mergeCell ref="F1:U1"/>
     <mergeCell ref="V1:Z1"/>
     <mergeCell ref="AA1:AE1"/>
@@ -54868,33 +54894,6 @@
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="I2:I3"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="U2:U3"/>
-    <mergeCell ref="V2:V3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="AF1:AJ1"/>
-    <mergeCell ref="AK2:AK3"/>
-    <mergeCell ref="AL2:AL3"/>
-    <mergeCell ref="AM2:AM3"/>
-    <mergeCell ref="AN2:AN3"/>
-    <mergeCell ref="AK1:AN1"/>
-    <mergeCell ref="AF2:AF3"/>
-    <mergeCell ref="AG2:AG3"/>
-    <mergeCell ref="AH2:AH3"/>
-    <mergeCell ref="AI2:AI3"/>
-    <mergeCell ref="AJ2:AJ3"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -54903,20 +54902,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V307"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.6640625" defaultRowHeight="13.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.6640625" style="2"/>
-    <col min="2" max="16384" width="6.6640625" style="1"/>
+    <col min="1" max="1" width="6.7109375" style="2"/>
+    <col min="2" max="16384" width="6.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="30"/>
       <c r="B1" s="30"/>
       <c r="C1" s="30"/>
@@ -54940,7 +54939,7 @@
       <c r="U1" s="30"/>
       <c r="V1" s="62"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="30"/>
       <c r="B2" s="30"/>
       <c r="C2" s="30"/>
@@ -54964,7 +54963,7 @@
       <c r="U2" s="30"/>
       <c r="V2" s="62"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="30"/>
       <c r="B3" s="30"/>
       <c r="C3" s="30"/>
@@ -54988,7 +54987,7 @@
       <c r="U3" s="30"/>
       <c r="V3" s="62"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="30"/>
       <c r="B4" s="30"/>
       <c r="C4" s="30"/>
@@ -55012,7 +55011,7 @@
       <c r="U4" s="30"/>
       <c r="V4" s="62"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="30"/>
       <c r="B5" s="30"/>
       <c r="C5" s="30"/>
@@ -55036,7 +55035,7 @@
       <c r="U5" s="30"/>
       <c r="V5" s="62"/>
     </row>
-    <row r="6" spans="1:22" ht="12.75" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="30"/>
       <c r="B6" s="30"/>
       <c r="C6" s="30"/>
@@ -55059,7 +55058,7 @@
       <c r="T6" s="30"/>
       <c r="U6" s="30"/>
     </row>
-    <row r="7" spans="1:22" ht="12.75" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="30"/>
       <c r="B7" s="30"/>
       <c r="C7" s="30"/>
@@ -55082,7 +55081,7 @@
       <c r="T7" s="30"/>
       <c r="U7" s="30"/>
     </row>
-    <row r="8" spans="1:22" ht="12.75" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="30"/>
       <c r="B8" s="30"/>
       <c r="C8" s="30"/>
@@ -55105,7 +55104,7 @@
       <c r="T8" s="30"/>
       <c r="U8" s="30"/>
     </row>
-    <row r="9" spans="1:22" ht="12.75" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="30"/>
       <c r="B9" s="30"/>
       <c r="C9" s="30"/>
@@ -55128,7 +55127,7 @@
       <c r="T9" s="30"/>
       <c r="U9" s="30"/>
     </row>
-    <row r="10" spans="1:22" ht="12.75" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="30"/>
       <c r="B10" s="30"/>
       <c r="C10" s="30"/>
@@ -55151,7 +55150,7 @@
       <c r="T10" s="30"/>
       <c r="U10" s="30"/>
     </row>
-    <row r="11" spans="1:22" ht="12.75" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="30"/>
       <c r="B11" s="30"/>
       <c r="C11" s="30"/>
@@ -55174,7 +55173,7 @@
       <c r="T11" s="30"/>
       <c r="U11" s="30"/>
     </row>
-    <row r="12" spans="1:22" ht="12.75" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="30"/>
       <c r="B12" s="30"/>
       <c r="C12" s="30"/>
@@ -55197,7 +55196,7 @@
       <c r="T12" s="30"/>
       <c r="U12" s="30"/>
     </row>
-    <row r="13" spans="1:22" ht="12.75" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="30"/>
       <c r="B13" s="30"/>
       <c r="C13" s="30"/>
@@ -55220,7 +55219,7 @@
       <c r="T13" s="30"/>
       <c r="U13" s="30"/>
     </row>
-    <row r="14" spans="1:22" ht="12.75" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="30"/>
       <c r="B14" s="30"/>
       <c r="C14" s="30"/>
@@ -55243,7 +55242,7 @@
       <c r="T14" s="30"/>
       <c r="U14" s="30"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="30"/>
       <c r="B15" s="30"/>
       <c r="C15" s="30"/>
@@ -55266,7 +55265,7 @@
       <c r="T15" s="30"/>
       <c r="U15" s="30"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="30"/>
       <c r="B16" s="30"/>
       <c r="C16" s="30"/>
@@ -55289,7 +55288,7 @@
       <c r="T16" s="30"/>
       <c r="U16" s="30"/>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="30"/>
       <c r="B17" s="30"/>
       <c r="C17" s="30"/>
@@ -55312,7 +55311,7 @@
       <c r="T17" s="30"/>
       <c r="U17" s="30"/>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="30"/>
       <c r="B18" s="30"/>
       <c r="C18" s="30"/>
@@ -55335,7 +55334,7 @@
       <c r="T18" s="30"/>
       <c r="U18" s="30"/>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="30"/>
       <c r="B19" s="30"/>
       <c r="C19" s="30"/>
@@ -55358,7 +55357,7 @@
       <c r="T19" s="30"/>
       <c r="U19" s="30"/>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="30"/>
       <c r="B20" s="30"/>
       <c r="C20" s="30"/>
@@ -55381,7 +55380,7 @@
       <c r="T20" s="30"/>
       <c r="U20" s="30"/>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="30"/>
       <c r="B21" s="30"/>
       <c r="C21" s="30"/>
@@ -55404,7 +55403,7 @@
       <c r="T21" s="30"/>
       <c r="U21" s="30"/>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="30"/>
       <c r="B22" s="30"/>
       <c r="C22" s="30"/>
@@ -55427,7 +55426,7 @@
       <c r="T22" s="30"/>
       <c r="U22" s="30"/>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="30"/>
       <c r="B23" s="30"/>
       <c r="C23" s="30"/>
@@ -55450,7 +55449,7 @@
       <c r="T23" s="30"/>
       <c r="U23" s="30"/>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="30"/>
       <c r="B24" s="30"/>
       <c r="C24" s="30"/>
@@ -55473,7 +55472,7 @@
       <c r="T24" s="30"/>
       <c r="U24" s="30"/>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="30"/>
       <c r="B25" s="30"/>
       <c r="C25" s="30"/>
@@ -55496,7 +55495,7 @@
       <c r="T25" s="30"/>
       <c r="U25" s="30"/>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="30"/>
       <c r="B26" s="30"/>
       <c r="C26" s="30"/>
@@ -55519,7 +55518,7 @@
       <c r="T26" s="30"/>
       <c r="U26" s="30"/>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="30"/>
       <c r="B27" s="30"/>
       <c r="C27" s="30"/>
@@ -55542,7 +55541,7 @@
       <c r="T27" s="30"/>
       <c r="U27" s="30"/>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="30"/>
       <c r="B28" s="30"/>
       <c r="C28" s="30"/>
@@ -55565,7 +55564,7 @@
       <c r="T28" s="30"/>
       <c r="U28" s="30"/>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="30"/>
       <c r="B29" s="30"/>
       <c r="C29" s="30"/>
@@ -55588,7 +55587,7 @@
       <c r="T29" s="30"/>
       <c r="U29" s="30"/>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="30"/>
       <c r="B30" s="30"/>
       <c r="C30" s="30"/>
@@ -55611,7 +55610,7 @@
       <c r="T30" s="30"/>
       <c r="U30" s="30"/>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="30"/>
       <c r="B31" s="30"/>
       <c r="C31" s="30"/>
@@ -55634,7 +55633,7 @@
       <c r="T31" s="30"/>
       <c r="U31" s="30"/>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="30"/>
       <c r="B32" s="30"/>
       <c r="C32" s="30"/>
@@ -55657,7 +55656,7 @@
       <c r="T32" s="30"/>
       <c r="U32" s="30"/>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" s="30"/>
       <c r="B33" s="30"/>
       <c r="C33" s="30"/>
@@ -55680,7 +55679,7 @@
       <c r="T33" s="30"/>
       <c r="U33" s="30"/>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" s="30"/>
       <c r="B34" s="30"/>
       <c r="C34" s="30"/>
@@ -55703,7 +55702,7 @@
       <c r="T34" s="30"/>
       <c r="U34" s="30"/>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" s="30"/>
       <c r="B35" s="30"/>
       <c r="C35" s="30"/>
@@ -55726,7 +55725,7 @@
       <c r="T35" s="30"/>
       <c r="U35" s="30"/>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" s="30"/>
       <c r="B36" s="30"/>
       <c r="C36" s="30"/>
@@ -55749,7 +55748,7 @@
       <c r="T36" s="30"/>
       <c r="U36" s="30"/>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" s="30"/>
       <c r="B37" s="30"/>
       <c r="C37" s="30"/>
@@ -55772,7 +55771,7 @@
       <c r="T37" s="30"/>
       <c r="U37" s="30"/>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" s="30"/>
       <c r="B38" s="30"/>
       <c r="C38" s="30"/>
@@ -55795,7 +55794,7 @@
       <c r="T38" s="30"/>
       <c r="U38" s="30"/>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39" s="30"/>
       <c r="B39" s="30"/>
       <c r="C39" s="30"/>
@@ -55818,7 +55817,7 @@
       <c r="T39" s="30"/>
       <c r="U39" s="30"/>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" s="30"/>
       <c r="B40" s="30"/>
       <c r="C40" s="30"/>
@@ -55841,7 +55840,7 @@
       <c r="T40" s="30"/>
       <c r="U40" s="30"/>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41" s="30"/>
       <c r="B41" s="30"/>
       <c r="C41" s="30"/>
@@ -55864,7 +55863,7 @@
       <c r="T41" s="30"/>
       <c r="U41" s="30"/>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" s="30"/>
       <c r="B42" s="30"/>
       <c r="C42" s="30"/>
@@ -55887,7 +55886,7 @@
       <c r="T42" s="30"/>
       <c r="U42" s="30"/>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43" s="30"/>
       <c r="B43" s="30"/>
       <c r="C43" s="30"/>
@@ -55910,7 +55909,7 @@
       <c r="T43" s="30"/>
       <c r="U43" s="30"/>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44" s="30"/>
       <c r="B44" s="30"/>
       <c r="C44" s="30"/>
@@ -55933,7 +55932,7 @@
       <c r="T44" s="30"/>
       <c r="U44" s="30"/>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45" s="30"/>
       <c r="B45" s="30"/>
       <c r="C45" s="30"/>
@@ -55956,7 +55955,7 @@
       <c r="T45" s="30"/>
       <c r="U45" s="30"/>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46" s="30"/>
       <c r="B46" s="30"/>
       <c r="C46" s="30"/>
@@ -55979,7 +55978,7 @@
       <c r="T46" s="30"/>
       <c r="U46" s="30"/>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47" s="30"/>
       <c r="B47" s="30"/>
       <c r="C47" s="30"/>
@@ -56002,7 +56001,7 @@
       <c r="T47" s="30"/>
       <c r="U47" s="30"/>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A48" s="30"/>
       <c r="B48" s="30"/>
       <c r="C48" s="30"/>
@@ -56025,7 +56024,7 @@
       <c r="T48" s="30"/>
       <c r="U48" s="30"/>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A49" s="30"/>
       <c r="B49" s="30"/>
       <c r="C49" s="30"/>
@@ -56048,7 +56047,7 @@
       <c r="T49" s="30"/>
       <c r="U49" s="30"/>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A50" s="30"/>
       <c r="B50" s="30"/>
       <c r="C50" s="30"/>
@@ -56071,7 +56070,7 @@
       <c r="T50" s="30"/>
       <c r="U50" s="30"/>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A51" s="30"/>
       <c r="B51" s="30"/>
       <c r="C51" s="30"/>
@@ -56094,7 +56093,7 @@
       <c r="T51" s="30"/>
       <c r="U51" s="30"/>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A52" s="30"/>
       <c r="B52" s="30"/>
       <c r="C52" s="30"/>
@@ -56117,7 +56116,7 @@
       <c r="T52" s="30"/>
       <c r="U52" s="30"/>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A53" s="30"/>
       <c r="B53" s="30"/>
       <c r="C53" s="30"/>
@@ -56140,7 +56139,7 @@
       <c r="T53" s="30"/>
       <c r="U53" s="30"/>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A54" s="30"/>
       <c r="B54" s="30"/>
       <c r="C54" s="30"/>
@@ -56163,7 +56162,7 @@
       <c r="T54" s="30"/>
       <c r="U54" s="30"/>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A55" s="30"/>
       <c r="B55" s="30"/>
       <c r="C55" s="30"/>
@@ -56186,7 +56185,7 @@
       <c r="T55" s="30"/>
       <c r="U55" s="30"/>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A56" s="30"/>
       <c r="B56" s="30"/>
       <c r="C56" s="30"/>
@@ -56209,7 +56208,7 @@
       <c r="T56" s="30"/>
       <c r="U56" s="30"/>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A57" s="30"/>
       <c r="B57" s="30"/>
       <c r="C57" s="30"/>
@@ -56232,7 +56231,7 @@
       <c r="T57" s="30"/>
       <c r="U57" s="30"/>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A58" s="30"/>
       <c r="B58" s="30"/>
       <c r="C58" s="30"/>
@@ -56255,7 +56254,7 @@
       <c r="T58" s="30"/>
       <c r="U58" s="30"/>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A59" s="30"/>
       <c r="B59" s="30"/>
       <c r="C59" s="30"/>
@@ -56278,7 +56277,7 @@
       <c r="T59" s="30"/>
       <c r="U59" s="30"/>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A60" s="30"/>
       <c r="B60" s="30"/>
       <c r="C60" s="30"/>
@@ -56301,7 +56300,7 @@
       <c r="T60" s="30"/>
       <c r="U60" s="30"/>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A61" s="30"/>
       <c r="B61" s="30"/>
       <c r="C61" s="30"/>
@@ -56324,7 +56323,7 @@
       <c r="T61" s="30"/>
       <c r="U61" s="30"/>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A62" s="30"/>
       <c r="B62" s="30"/>
       <c r="C62" s="30"/>
@@ -56347,7 +56346,7 @@
       <c r="T62" s="30"/>
       <c r="U62" s="30"/>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A63" s="30"/>
       <c r="B63" s="30"/>
       <c r="C63" s="30"/>
@@ -56370,7 +56369,7 @@
       <c r="T63" s="30"/>
       <c r="U63" s="30"/>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A64" s="30"/>
       <c r="B64" s="30"/>
       <c r="C64" s="30"/>
@@ -56393,7 +56392,7 @@
       <c r="T64" s="30"/>
       <c r="U64" s="30"/>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A65" s="30"/>
       <c r="B65" s="30"/>
       <c r="C65" s="30"/>
@@ -56416,7 +56415,7 @@
       <c r="T65" s="30"/>
       <c r="U65" s="30"/>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A66" s="30"/>
       <c r="B66" s="30"/>
       <c r="C66" s="30"/>
@@ -56439,7 +56438,7 @@
       <c r="T66" s="30"/>
       <c r="U66" s="30"/>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A67" s="30"/>
       <c r="B67" s="30"/>
       <c r="C67" s="30"/>
@@ -56462,7 +56461,7 @@
       <c r="T67" s="30"/>
       <c r="U67" s="30"/>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A68" s="30"/>
       <c r="B68" s="30"/>
       <c r="C68" s="30"/>
@@ -56485,7 +56484,7 @@
       <c r="T68" s="30"/>
       <c r="U68" s="30"/>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A69" s="30"/>
       <c r="B69" s="30"/>
       <c r="C69" s="30"/>
@@ -56508,7 +56507,7 @@
       <c r="T69" s="30"/>
       <c r="U69" s="30"/>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A70" s="30"/>
       <c r="B70" s="30"/>
       <c r="C70" s="30"/>
@@ -56531,7 +56530,7 @@
       <c r="T70" s="30"/>
       <c r="U70" s="30"/>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A71" s="30"/>
       <c r="B71" s="30"/>
       <c r="C71" s="30"/>
@@ -56554,7 +56553,7 @@
       <c r="T71" s="30"/>
       <c r="U71" s="30"/>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A72" s="30"/>
       <c r="B72" s="30"/>
       <c r="C72" s="30"/>
@@ -56577,7 +56576,7 @@
       <c r="T72" s="30"/>
       <c r="U72" s="30"/>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A73" s="30"/>
       <c r="B73" s="30"/>
       <c r="C73" s="30"/>
@@ -56600,7 +56599,7 @@
       <c r="T73" s="30"/>
       <c r="U73" s="30"/>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A74" s="30"/>
       <c r="B74" s="30"/>
       <c r="C74" s="30"/>
@@ -56623,7 +56622,7 @@
       <c r="T74" s="30"/>
       <c r="U74" s="30"/>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A75" s="30"/>
       <c r="B75" s="30"/>
       <c r="C75" s="30"/>
@@ -56646,7 +56645,7 @@
       <c r="T75" s="30"/>
       <c r="U75" s="30"/>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A76" s="30"/>
       <c r="B76" s="30"/>
       <c r="C76" s="30"/>
@@ -56669,7 +56668,7 @@
       <c r="T76" s="30"/>
       <c r="U76" s="30"/>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A77" s="30"/>
       <c r="B77" s="30"/>
       <c r="C77" s="30"/>
@@ -56692,7 +56691,7 @@
       <c r="T77" s="30"/>
       <c r="U77" s="30"/>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A78" s="30"/>
       <c r="B78" s="30"/>
       <c r="C78" s="30"/>
@@ -56715,7 +56714,7 @@
       <c r="T78" s="30"/>
       <c r="U78" s="30"/>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A79" s="30"/>
       <c r="B79" s="30"/>
       <c r="C79" s="30"/>
@@ -56738,7 +56737,7 @@
       <c r="T79" s="30"/>
       <c r="U79" s="30"/>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A80" s="30"/>
       <c r="B80" s="30"/>
       <c r="C80" s="30"/>
@@ -56761,7 +56760,7 @@
       <c r="T80" s="30"/>
       <c r="U80" s="30"/>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A81" s="30"/>
       <c r="B81" s="30"/>
       <c r="C81" s="30"/>
@@ -56784,7 +56783,7 @@
       <c r="T81" s="30"/>
       <c r="U81" s="30"/>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A82" s="30"/>
       <c r="B82" s="30"/>
       <c r="C82" s="30"/>
@@ -56807,7 +56806,7 @@
       <c r="T82" s="30"/>
       <c r="U82" s="30"/>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A83" s="30"/>
       <c r="B83" s="30"/>
       <c r="C83" s="30"/>
@@ -56830,7 +56829,7 @@
       <c r="T83" s="30"/>
       <c r="U83" s="30"/>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A84" s="30"/>
       <c r="B84" s="30"/>
       <c r="C84" s="30"/>
@@ -56853,7 +56852,7 @@
       <c r="T84" s="30"/>
       <c r="U84" s="30"/>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A85" s="30"/>
       <c r="B85" s="30"/>
       <c r="C85" s="30"/>
@@ -56876,7 +56875,7 @@
       <c r="T85" s="30"/>
       <c r="U85" s="30"/>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A86" s="30"/>
       <c r="B86" s="30"/>
       <c r="C86" s="30"/>
@@ -56899,7 +56898,7 @@
       <c r="T86" s="30"/>
       <c r="U86" s="30"/>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A87" s="30"/>
       <c r="B87" s="30"/>
       <c r="C87" s="30"/>
@@ -56922,7 +56921,7 @@
       <c r="T87" s="30"/>
       <c r="U87" s="30"/>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A88" s="30"/>
       <c r="B88" s="30"/>
       <c r="C88" s="30"/>
@@ -56945,7 +56944,7 @@
       <c r="T88" s="30"/>
       <c r="U88" s="30"/>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A89" s="30"/>
       <c r="B89" s="30"/>
       <c r="C89" s="30"/>
@@ -56968,7 +56967,7 @@
       <c r="T89" s="30"/>
       <c r="U89" s="30"/>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A90" s="30"/>
       <c r="B90" s="30"/>
       <c r="C90" s="30"/>
@@ -56991,7 +56990,7 @@
       <c r="T90" s="30"/>
       <c r="U90" s="30"/>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A91" s="30"/>
       <c r="B91" s="30"/>
       <c r="C91" s="30"/>
@@ -57014,7 +57013,7 @@
       <c r="T91" s="30"/>
       <c r="U91" s="30"/>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A92" s="30"/>
       <c r="B92" s="30"/>
       <c r="C92" s="30"/>
@@ -57037,7 +57036,7 @@
       <c r="T92" s="30"/>
       <c r="U92" s="30"/>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A93" s="30"/>
       <c r="B93" s="30"/>
       <c r="C93" s="30"/>
@@ -57060,7 +57059,7 @@
       <c r="T93" s="30"/>
       <c r="U93" s="30"/>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A94" s="30"/>
       <c r="B94" s="30"/>
       <c r="C94" s="30"/>
@@ -57083,7 +57082,7 @@
       <c r="T94" s="30"/>
       <c r="U94" s="30"/>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A95" s="30"/>
       <c r="B95" s="30"/>
       <c r="C95" s="30"/>
@@ -57106,7 +57105,7 @@
       <c r="T95" s="30"/>
       <c r="U95" s="30"/>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A96" s="30"/>
       <c r="B96" s="30"/>
       <c r="C96" s="30"/>
@@ -57129,7 +57128,7 @@
       <c r="T96" s="30"/>
       <c r="U96" s="30"/>
     </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A97" s="30"/>
       <c r="B97" s="30"/>
       <c r="C97" s="30"/>
@@ -57152,7 +57151,7 @@
       <c r="T97" s="30"/>
       <c r="U97" s="30"/>
     </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A98" s="30"/>
       <c r="B98" s="30"/>
       <c r="C98" s="30"/>
@@ -57175,7 +57174,7 @@
       <c r="T98" s="30"/>
       <c r="U98" s="30"/>
     </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A99" s="30"/>
       <c r="B99" s="30"/>
       <c r="C99" s="30"/>
@@ -57198,7 +57197,7 @@
       <c r="T99" s="30"/>
       <c r="U99" s="30"/>
     </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A100" s="30"/>
       <c r="B100" s="30"/>
       <c r="C100" s="30"/>
@@ -57221,7 +57220,7 @@
       <c r="T100" s="30"/>
       <c r="U100" s="30"/>
     </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A101" s="30"/>
       <c r="B101" s="30"/>
       <c r="C101" s="30"/>
@@ -57244,7 +57243,7 @@
       <c r="T101" s="30"/>
       <c r="U101" s="30"/>
     </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A102" s="30"/>
       <c r="B102" s="30"/>
       <c r="C102" s="30"/>
@@ -57267,7 +57266,7 @@
       <c r="T102" s="30"/>
       <c r="U102" s="30"/>
     </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A103" s="30"/>
       <c r="B103" s="30"/>
       <c r="C103" s="30"/>
@@ -57290,7 +57289,7 @@
       <c r="T103" s="30"/>
       <c r="U103" s="30"/>
     </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A104" s="30"/>
       <c r="B104" s="30"/>
       <c r="C104" s="30"/>
@@ -57313,7 +57312,7 @@
       <c r="T104" s="30"/>
       <c r="U104" s="30"/>
     </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A105" s="30"/>
       <c r="B105" s="30"/>
       <c r="C105" s="30"/>
@@ -57336,7 +57335,7 @@
       <c r="T105" s="30"/>
       <c r="U105" s="30"/>
     </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A106" s="30"/>
       <c r="B106" s="30"/>
       <c r="C106" s="30"/>
@@ -57359,7 +57358,7 @@
       <c r="T106" s="30"/>
       <c r="U106" s="30"/>
     </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A107" s="30"/>
       <c r="B107" s="30"/>
       <c r="C107" s="30"/>
@@ -57382,7 +57381,7 @@
       <c r="T107" s="30"/>
       <c r="U107" s="30"/>
     </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A108" s="30"/>
       <c r="B108" s="30"/>
       <c r="C108" s="30"/>
@@ -57405,7 +57404,7 @@
       <c r="T108" s="30"/>
       <c r="U108" s="30"/>
     </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A109" s="30"/>
       <c r="B109" s="30"/>
       <c r="C109" s="30"/>
@@ -57428,7 +57427,7 @@
       <c r="T109" s="30"/>
       <c r="U109" s="30"/>
     </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A110" s="30"/>
       <c r="B110" s="30"/>
       <c r="C110" s="30"/>
@@ -57451,7 +57450,7 @@
       <c r="T110" s="30"/>
       <c r="U110" s="30"/>
     </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A111" s="30"/>
       <c r="B111" s="30"/>
       <c r="C111" s="30"/>
@@ -57474,7 +57473,7 @@
       <c r="T111" s="30"/>
       <c r="U111" s="30"/>
     </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A112" s="30"/>
       <c r="B112" s="30"/>
       <c r="C112" s="30"/>
@@ -57497,7 +57496,7 @@
       <c r="T112" s="30"/>
       <c r="U112" s="30"/>
     </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A113" s="30"/>
       <c r="B113" s="30"/>
       <c r="C113" s="30"/>
@@ -57520,7 +57519,7 @@
       <c r="T113" s="30"/>
       <c r="U113" s="30"/>
     </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A114" s="30"/>
       <c r="B114" s="30"/>
       <c r="C114" s="30"/>
@@ -57543,7 +57542,7 @@
       <c r="T114" s="30"/>
       <c r="U114" s="30"/>
     </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A115" s="30"/>
       <c r="B115" s="30"/>
       <c r="C115" s="30"/>
@@ -57566,7 +57565,7 @@
       <c r="T115" s="30"/>
       <c r="U115" s="30"/>
     </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A116" s="30"/>
       <c r="B116" s="30"/>
       <c r="C116" s="30"/>
@@ -57589,7 +57588,7 @@
       <c r="T116" s="30"/>
       <c r="U116" s="30"/>
     </row>
-    <row r="117" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A117" s="30"/>
       <c r="B117" s="30"/>
       <c r="C117" s="30"/>
@@ -57612,7 +57611,7 @@
       <c r="T117" s="30"/>
       <c r="U117" s="30"/>
     </row>
-    <row r="118" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A118" s="30"/>
       <c r="B118" s="30"/>
       <c r="C118" s="30"/>
@@ -57635,7 +57634,7 @@
       <c r="T118" s="30"/>
       <c r="U118" s="30"/>
     </row>
-    <row r="119" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A119" s="30"/>
       <c r="B119" s="30"/>
       <c r="C119" s="30"/>
@@ -57658,7 +57657,7 @@
       <c r="T119" s="30"/>
       <c r="U119" s="30"/>
     </row>
-    <row r="120" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A120" s="30"/>
       <c r="B120" s="30"/>
       <c r="C120" s="30"/>
@@ -57681,7 +57680,7 @@
       <c r="T120" s="30"/>
       <c r="U120" s="30"/>
     </row>
-    <row r="121" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A121" s="30"/>
       <c r="B121" s="30"/>
       <c r="C121" s="30"/>
@@ -57704,7 +57703,7 @@
       <c r="T121" s="30"/>
       <c r="U121" s="30"/>
     </row>
-    <row r="122" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A122" s="30"/>
       <c r="B122" s="30"/>
       <c r="C122" s="30"/>
@@ -57727,7 +57726,7 @@
       <c r="T122" s="30"/>
       <c r="U122" s="30"/>
     </row>
-    <row r="123" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A123" s="30"/>
       <c r="B123" s="30"/>
       <c r="C123" s="30"/>
@@ -57750,7 +57749,7 @@
       <c r="T123" s="30"/>
       <c r="U123" s="30"/>
     </row>
-    <row r="124" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A124" s="30"/>
       <c r="B124" s="30"/>
       <c r="C124" s="30"/>
@@ -57773,7 +57772,7 @@
       <c r="T124" s="30"/>
       <c r="U124" s="30"/>
     </row>
-    <row r="125" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A125" s="30"/>
       <c r="B125" s="30"/>
       <c r="C125" s="30"/>
@@ -57796,7 +57795,7 @@
       <c r="T125" s="30"/>
       <c r="U125" s="30"/>
     </row>
-    <row r="126" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A126" s="30"/>
       <c r="B126" s="30"/>
       <c r="C126" s="30"/>
@@ -57819,7 +57818,7 @@
       <c r="T126" s="30"/>
       <c r="U126" s="30"/>
     </row>
-    <row r="127" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A127" s="30"/>
       <c r="B127" s="30"/>
       <c r="C127" s="30"/>
@@ -57842,7 +57841,7 @@
       <c r="T127" s="30"/>
       <c r="U127" s="30"/>
     </row>
-    <row r="128" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A128" s="30"/>
       <c r="B128" s="30"/>
       <c r="C128" s="30"/>
@@ -57865,7 +57864,7 @@
       <c r="T128" s="30"/>
       <c r="U128" s="30"/>
     </row>
-    <row r="129" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A129" s="30"/>
       <c r="B129" s="30"/>
       <c r="C129" s="30"/>
@@ -57888,7 +57887,7 @@
       <c r="T129" s="30"/>
       <c r="U129" s="30"/>
     </row>
-    <row r="130" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A130" s="30"/>
       <c r="B130" s="30"/>
       <c r="C130" s="30"/>
@@ -57911,7 +57910,7 @@
       <c r="T130" s="30"/>
       <c r="U130" s="30"/>
     </row>
-    <row r="131" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A131" s="30"/>
       <c r="B131" s="30"/>
       <c r="C131" s="30"/>
@@ -57934,7 +57933,7 @@
       <c r="T131" s="30"/>
       <c r="U131" s="30"/>
     </row>
-    <row r="132" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A132" s="30"/>
       <c r="B132" s="30"/>
       <c r="C132" s="30"/>
@@ -57957,7 +57956,7 @@
       <c r="T132" s="30"/>
       <c r="U132" s="30"/>
     </row>
-    <row r="133" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A133" s="30"/>
       <c r="B133" s="30"/>
       <c r="C133" s="30"/>
@@ -57980,7 +57979,7 @@
       <c r="T133" s="30"/>
       <c r="U133" s="30"/>
     </row>
-    <row r="134" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A134" s="30"/>
       <c r="B134" s="30"/>
       <c r="C134" s="30"/>
@@ -58003,7 +58002,7 @@
       <c r="T134" s="30"/>
       <c r="U134" s="30"/>
     </row>
-    <row r="135" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A135" s="30"/>
       <c r="B135" s="30"/>
       <c r="C135" s="30"/>
@@ -58026,7 +58025,7 @@
       <c r="T135" s="30"/>
       <c r="U135" s="30"/>
     </row>
-    <row r="136" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A136" s="30"/>
       <c r="B136" s="30"/>
       <c r="C136" s="30"/>
@@ -58049,7 +58048,7 @@
       <c r="T136" s="30"/>
       <c r="U136" s="30"/>
     </row>
-    <row r="137" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A137" s="30"/>
       <c r="B137" s="30"/>
       <c r="C137" s="30"/>
@@ -58072,7 +58071,7 @@
       <c r="T137" s="30"/>
       <c r="U137" s="30"/>
     </row>
-    <row r="138" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A138" s="30"/>
       <c r="B138" s="30"/>
       <c r="C138" s="30"/>
@@ -58095,7 +58094,7 @@
       <c r="T138" s="30"/>
       <c r="U138" s="30"/>
     </row>
-    <row r="139" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A139" s="30"/>
       <c r="B139" s="30"/>
       <c r="C139" s="30"/>
@@ -58118,7 +58117,7 @@
       <c r="T139" s="30"/>
       <c r="U139" s="30"/>
     </row>
-    <row r="140" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A140" s="30"/>
       <c r="B140" s="30"/>
       <c r="C140" s="30"/>
@@ -58141,7 +58140,7 @@
       <c r="T140" s="30"/>
       <c r="U140" s="30"/>
     </row>
-    <row r="141" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A141" s="30"/>
       <c r="B141" s="30"/>
       <c r="C141" s="30"/>
@@ -58164,7 +58163,7 @@
       <c r="T141" s="30"/>
       <c r="U141" s="30"/>
     </row>
-    <row r="142" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A142" s="30"/>
       <c r="B142" s="30"/>
       <c r="C142" s="30"/>
@@ -58187,7 +58186,7 @@
       <c r="T142" s="30"/>
       <c r="U142" s="30"/>
     </row>
-    <row r="143" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A143" s="30"/>
       <c r="B143" s="30"/>
       <c r="C143" s="30"/>
@@ -58210,7 +58209,7 @@
       <c r="T143" s="30"/>
       <c r="U143" s="30"/>
     </row>
-    <row r="144" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A144" s="30"/>
       <c r="B144" s="30"/>
       <c r="C144" s="30"/>
@@ -58233,7 +58232,7 @@
       <c r="T144" s="30"/>
       <c r="U144" s="30"/>
     </row>
-    <row r="145" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A145" s="30"/>
       <c r="B145" s="30"/>
       <c r="C145" s="30"/>
@@ -58256,7 +58255,7 @@
       <c r="T145" s="30"/>
       <c r="U145" s="30"/>
     </row>
-    <row r="146" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A146" s="30"/>
       <c r="B146" s="30"/>
       <c r="C146" s="30"/>
@@ -58279,7 +58278,7 @@
       <c r="T146" s="30"/>
       <c r="U146" s="30"/>
     </row>
-    <row r="147" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A147" s="30"/>
       <c r="B147" s="30"/>
       <c r="C147" s="30"/>
@@ -58302,7 +58301,7 @@
       <c r="T147" s="30"/>
       <c r="U147" s="30"/>
     </row>
-    <row r="148" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A148" s="30"/>
       <c r="B148" s="30"/>
       <c r="C148" s="30"/>
@@ -58325,7 +58324,7 @@
       <c r="T148" s="30"/>
       <c r="U148" s="30"/>
     </row>
-    <row r="149" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A149" s="30"/>
       <c r="B149" s="30"/>
       <c r="C149" s="30"/>
@@ -58348,7 +58347,7 @@
       <c r="T149" s="30"/>
       <c r="U149" s="30"/>
     </row>
-    <row r="150" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A150" s="30"/>
       <c r="B150" s="30"/>
       <c r="C150" s="30"/>
@@ -58371,7 +58370,7 @@
       <c r="T150" s="30"/>
       <c r="U150" s="30"/>
     </row>
-    <row r="151" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A151" s="30"/>
       <c r="B151" s="30"/>
       <c r="C151" s="30"/>
@@ -58394,7 +58393,7 @@
       <c r="T151" s="30"/>
       <c r="U151" s="30"/>
     </row>
-    <row r="152" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A152" s="30"/>
       <c r="B152" s="30"/>
       <c r="C152" s="30"/>
@@ -58417,7 +58416,7 @@
       <c r="T152" s="30"/>
       <c r="U152" s="30"/>
     </row>
-    <row r="153" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A153" s="30"/>
       <c r="B153" s="30"/>
       <c r="C153" s="30"/>
@@ -58440,7 +58439,7 @@
       <c r="T153" s="30"/>
       <c r="U153" s="30"/>
     </row>
-    <row r="154" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A154" s="30"/>
       <c r="B154" s="30"/>
       <c r="C154" s="30"/>
@@ -58463,7 +58462,7 @@
       <c r="T154" s="30"/>
       <c r="U154" s="30"/>
     </row>
-    <row r="155" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A155" s="30"/>
       <c r="B155" s="30"/>
       <c r="C155" s="30"/>
@@ -58486,7 +58485,7 @@
       <c r="T155" s="30"/>
       <c r="U155" s="30"/>
     </row>
-    <row r="156" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A156" s="30"/>
       <c r="B156" s="30"/>
       <c r="C156" s="30"/>
@@ -58509,7 +58508,7 @@
       <c r="T156" s="30"/>
       <c r="U156" s="30"/>
     </row>
-    <row r="157" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A157" s="30"/>
       <c r="B157" s="30"/>
       <c r="C157" s="30"/>
@@ -58532,7 +58531,7 @@
       <c r="T157" s="30"/>
       <c r="U157" s="30"/>
     </row>
-    <row r="158" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A158" s="30"/>
       <c r="B158" s="30"/>
       <c r="C158" s="30"/>
@@ -58555,7 +58554,7 @@
       <c r="T158" s="30"/>
       <c r="U158" s="30"/>
     </row>
-    <row r="159" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A159" s="30"/>
       <c r="B159" s="30"/>
       <c r="C159" s="30"/>
@@ -58578,7 +58577,7 @@
       <c r="T159" s="30"/>
       <c r="U159" s="30"/>
     </row>
-    <row r="160" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A160" s="30"/>
       <c r="B160" s="30"/>
       <c r="C160" s="30"/>
@@ -58601,7 +58600,7 @@
       <c r="T160" s="30"/>
       <c r="U160" s="30"/>
     </row>
-    <row r="161" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A161" s="30"/>
       <c r="B161" s="30"/>
       <c r="C161" s="30"/>
@@ -58624,7 +58623,7 @@
       <c r="T161" s="30"/>
       <c r="U161" s="30"/>
     </row>
-    <row r="162" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A162" s="30"/>
       <c r="B162" s="30"/>
       <c r="C162" s="30"/>
@@ -58647,7 +58646,7 @@
       <c r="T162" s="30"/>
       <c r="U162" s="30"/>
     </row>
-    <row r="163" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A163" s="30"/>
       <c r="B163" s="30"/>
       <c r="C163" s="30"/>
@@ -58670,7 +58669,7 @@
       <c r="T163" s="30"/>
       <c r="U163" s="30"/>
     </row>
-    <row r="164" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A164" s="30"/>
       <c r="B164" s="30"/>
       <c r="C164" s="30"/>
@@ -58693,7 +58692,7 @@
       <c r="T164" s="30"/>
       <c r="U164" s="30"/>
     </row>
-    <row r="165" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A165" s="30"/>
       <c r="B165" s="30"/>
       <c r="C165" s="30"/>
@@ -58716,7 +58715,7 @@
       <c r="T165" s="30"/>
       <c r="U165" s="30"/>
     </row>
-    <row r="166" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A166" s="30"/>
       <c r="B166" s="30"/>
       <c r="C166" s="30"/>
@@ -58739,7 +58738,7 @@
       <c r="T166" s="30"/>
       <c r="U166" s="30"/>
     </row>
-    <row r="167" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A167" s="30"/>
       <c r="B167" s="30"/>
       <c r="C167" s="30"/>
@@ -58762,7 +58761,7 @@
       <c r="T167" s="30"/>
       <c r="U167" s="30"/>
     </row>
-    <row r="168" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A168" s="30"/>
       <c r="B168" s="30"/>
       <c r="C168" s="30"/>
@@ -58785,7 +58784,7 @@
       <c r="T168" s="30"/>
       <c r="U168" s="30"/>
     </row>
-    <row r="169" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A169" s="30"/>
       <c r="B169" s="30"/>
       <c r="C169" s="30"/>
@@ -58808,7 +58807,7 @@
       <c r="T169" s="30"/>
       <c r="U169" s="30"/>
     </row>
-    <row r="170" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A170" s="30"/>
       <c r="B170" s="30"/>
       <c r="C170" s="30"/>
@@ -58831,7 +58830,7 @@
       <c r="T170" s="30"/>
       <c r="U170" s="30"/>
     </row>
-    <row r="171" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A171" s="30"/>
       <c r="B171" s="30"/>
       <c r="C171" s="30"/>
@@ -58854,7 +58853,7 @@
       <c r="T171" s="30"/>
       <c r="U171" s="30"/>
     </row>
-    <row r="172" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A172" s="30"/>
       <c r="B172" s="30"/>
       <c r="C172" s="30"/>
@@ -58877,7 +58876,7 @@
       <c r="T172" s="30"/>
       <c r="U172" s="30"/>
     </row>
-    <row r="173" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A173" s="30"/>
       <c r="B173" s="30"/>
       <c r="C173" s="30"/>
@@ -58900,7 +58899,7 @@
       <c r="T173" s="30"/>
       <c r="U173" s="30"/>
     </row>
-    <row r="174" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A174" s="30"/>
       <c r="B174" s="30"/>
       <c r="C174" s="30"/>
@@ -58923,7 +58922,7 @@
       <c r="T174" s="30"/>
       <c r="U174" s="30"/>
     </row>
-    <row r="175" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A175" s="30"/>
       <c r="B175" s="30"/>
       <c r="C175" s="30"/>
@@ -58946,7 +58945,7 @@
       <c r="T175" s="30"/>
       <c r="U175" s="30"/>
     </row>
-    <row r="176" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A176" s="30"/>
       <c r="B176" s="30"/>
       <c r="C176" s="30"/>
@@ -58969,7 +58968,7 @@
       <c r="T176" s="30"/>
       <c r="U176" s="30"/>
     </row>
-    <row r="177" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A177" s="30"/>
       <c r="B177" s="30"/>
       <c r="C177" s="30"/>
@@ -58992,7 +58991,7 @@
       <c r="T177" s="30"/>
       <c r="U177" s="30"/>
     </row>
-    <row r="178" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A178" s="30"/>
       <c r="B178" s="30"/>
       <c r="C178" s="30"/>
@@ -59015,7 +59014,7 @@
       <c r="T178" s="30"/>
       <c r="U178" s="30"/>
     </row>
-    <row r="179" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A179" s="30"/>
       <c r="B179" s="30"/>
       <c r="C179" s="30"/>
@@ -59038,7 +59037,7 @@
       <c r="T179" s="30"/>
       <c r="U179" s="30"/>
     </row>
-    <row r="180" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A180" s="30"/>
       <c r="B180" s="30"/>
       <c r="C180" s="30"/>
@@ -59061,7 +59060,7 @@
       <c r="T180" s="30"/>
       <c r="U180" s="30"/>
     </row>
-    <row r="181" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A181" s="30"/>
       <c r="B181" s="30"/>
       <c r="C181" s="30"/>
@@ -59084,7 +59083,7 @@
       <c r="T181" s="30"/>
       <c r="U181" s="30"/>
     </row>
-    <row r="182" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A182" s="30"/>
       <c r="B182" s="30"/>
       <c r="C182" s="30"/>
@@ -59107,7 +59106,7 @@
       <c r="T182" s="30"/>
       <c r="U182" s="30"/>
     </row>
-    <row r="183" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A183" s="30"/>
       <c r="B183" s="30"/>
       <c r="C183" s="30"/>
@@ -59130,7 +59129,7 @@
       <c r="T183" s="30"/>
       <c r="U183" s="30"/>
     </row>
-    <row r="184" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A184" s="30"/>
       <c r="B184" s="30"/>
       <c r="C184" s="30"/>
@@ -59153,7 +59152,7 @@
       <c r="T184" s="30"/>
       <c r="U184" s="30"/>
     </row>
-    <row r="185" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A185" s="30"/>
       <c r="B185" s="30"/>
       <c r="C185" s="30"/>
@@ -59176,7 +59175,7 @@
       <c r="T185" s="30"/>
       <c r="U185" s="30"/>
     </row>
-    <row r="186" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A186" s="30"/>
       <c r="B186" s="30"/>
       <c r="C186" s="30"/>
@@ -59199,7 +59198,7 @@
       <c r="T186" s="30"/>
       <c r="U186" s="30"/>
     </row>
-    <row r="187" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A187" s="30"/>
       <c r="B187" s="30"/>
       <c r="C187" s="30"/>
@@ -59222,7 +59221,7 @@
       <c r="T187" s="30"/>
       <c r="U187" s="30"/>
     </row>
-    <row r="188" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A188" s="30"/>
       <c r="B188" s="30"/>
       <c r="C188" s="30"/>
@@ -59245,7 +59244,7 @@
       <c r="T188" s="30"/>
       <c r="U188" s="30"/>
     </row>
-    <row r="189" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A189" s="30"/>
       <c r="B189" s="30"/>
       <c r="C189" s="30"/>
@@ -59268,7 +59267,7 @@
       <c r="T189" s="30"/>
       <c r="U189" s="30"/>
     </row>
-    <row r="190" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A190" s="30"/>
       <c r="B190" s="30"/>
       <c r="C190" s="30"/>
@@ -59291,7 +59290,7 @@
       <c r="T190" s="30"/>
       <c r="U190" s="30"/>
     </row>
-    <row r="191" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A191" s="30"/>
       <c r="B191" s="30"/>
       <c r="C191" s="30"/>
@@ -59314,7 +59313,7 @@
       <c r="T191" s="30"/>
       <c r="U191" s="30"/>
     </row>
-    <row r="192" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A192" s="30"/>
       <c r="B192" s="30"/>
       <c r="C192" s="30"/>
@@ -59337,7 +59336,7 @@
       <c r="T192" s="30"/>
       <c r="U192" s="30"/>
     </row>
-    <row r="193" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A193" s="30"/>
       <c r="B193" s="30"/>
       <c r="C193" s="30"/>
@@ -59360,7 +59359,7 @@
       <c r="T193" s="30"/>
       <c r="U193" s="30"/>
     </row>
-    <row r="194" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A194" s="30"/>
       <c r="B194" s="30"/>
       <c r="C194" s="30"/>
@@ -59383,7 +59382,7 @@
       <c r="T194" s="30"/>
       <c r="U194" s="30"/>
     </row>
-    <row r="195" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A195" s="30"/>
       <c r="B195" s="30"/>
       <c r="C195" s="30"/>
@@ -59406,7 +59405,7 @@
       <c r="T195" s="30"/>
       <c r="U195" s="30"/>
     </row>
-    <row r="196" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A196" s="30"/>
       <c r="B196" s="30"/>
       <c r="C196" s="30"/>
@@ -59429,7 +59428,7 @@
       <c r="T196" s="30"/>
       <c r="U196" s="30"/>
     </row>
-    <row r="197" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A197" s="30"/>
       <c r="B197" s="30"/>
       <c r="C197" s="30"/>
@@ -59452,7 +59451,7 @@
       <c r="T197" s="30"/>
       <c r="U197" s="30"/>
     </row>
-    <row r="198" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A198" s="30"/>
       <c r="B198" s="30"/>
       <c r="C198" s="30"/>
@@ -59475,7 +59474,7 @@
       <c r="T198" s="30"/>
       <c r="U198" s="30"/>
     </row>
-    <row r="199" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A199" s="30"/>
       <c r="B199" s="30"/>
       <c r="C199" s="30"/>
@@ -59498,7 +59497,7 @@
       <c r="T199" s="30"/>
       <c r="U199" s="30"/>
     </row>
-    <row r="200" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A200" s="30"/>
       <c r="B200" s="30"/>
       <c r="C200" s="30"/>
@@ -59521,7 +59520,7 @@
       <c r="T200" s="30"/>
       <c r="U200" s="30"/>
     </row>
-    <row r="201" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A201" s="30"/>
       <c r="B201" s="30"/>
       <c r="C201" s="30"/>
@@ -59544,7 +59543,7 @@
       <c r="T201" s="30"/>
       <c r="U201" s="30"/>
     </row>
-    <row r="202" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A202" s="30"/>
       <c r="B202" s="30"/>
       <c r="C202" s="30"/>
@@ -59567,7 +59566,7 @@
       <c r="T202" s="30"/>
       <c r="U202" s="30"/>
     </row>
-    <row r="203" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A203" s="30"/>
       <c r="B203" s="30"/>
       <c r="C203" s="30"/>
@@ -59590,7 +59589,7 @@
       <c r="T203" s="30"/>
       <c r="U203" s="30"/>
     </row>
-    <row r="204" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A204" s="30"/>
       <c r="B204" s="30"/>
       <c r="C204" s="30"/>
@@ -59613,7 +59612,7 @@
       <c r="T204" s="30"/>
       <c r="U204" s="30"/>
     </row>
-    <row r="205" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A205" s="30"/>
       <c r="B205" s="30"/>
       <c r="C205" s="30"/>
@@ -59636,7 +59635,7 @@
       <c r="T205" s="30"/>
       <c r="U205" s="30"/>
     </row>
-    <row r="206" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A206" s="30"/>
       <c r="B206" s="30"/>
       <c r="C206" s="30"/>
@@ -59659,7 +59658,7 @@
       <c r="T206" s="30"/>
       <c r="U206" s="30"/>
     </row>
-    <row r="207" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A207" s="30"/>
       <c r="B207" s="30"/>
       <c r="C207" s="30"/>
@@ -59682,7 +59681,7 @@
       <c r="T207" s="30"/>
       <c r="U207" s="30"/>
     </row>
-    <row r="208" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A208" s="30"/>
       <c r="B208" s="30"/>
       <c r="C208" s="30"/>
@@ -59705,7 +59704,7 @@
       <c r="T208" s="30"/>
       <c r="U208" s="30"/>
     </row>
-    <row r="209" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A209" s="30"/>
       <c r="B209" s="30"/>
       <c r="C209" s="30"/>
@@ -59728,7 +59727,7 @@
       <c r="T209" s="30"/>
       <c r="U209" s="30"/>
     </row>
-    <row r="210" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A210" s="30"/>
       <c r="B210" s="30"/>
       <c r="C210" s="30"/>
@@ -59751,7 +59750,7 @@
       <c r="T210" s="30"/>
       <c r="U210" s="30"/>
     </row>
-    <row r="211" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A211" s="30"/>
       <c r="B211" s="30"/>
       <c r="C211" s="30"/>
@@ -59774,7 +59773,7 @@
       <c r="T211" s="30"/>
       <c r="U211" s="30"/>
     </row>
-    <row r="212" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A212" s="30"/>
       <c r="B212" s="30"/>
       <c r="C212" s="30"/>
@@ -59797,7 +59796,7 @@
       <c r="T212" s="30"/>
       <c r="U212" s="30"/>
     </row>
-    <row r="213" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A213" s="30"/>
       <c r="B213" s="30"/>
       <c r="C213" s="30"/>
@@ -59820,7 +59819,7 @@
       <c r="T213" s="30"/>
       <c r="U213" s="30"/>
     </row>
-    <row r="214" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A214" s="30"/>
       <c r="B214" s="30"/>
       <c r="C214" s="30"/>
@@ -59843,7 +59842,7 @@
       <c r="T214" s="30"/>
       <c r="U214" s="30"/>
     </row>
-    <row r="215" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A215" s="30"/>
       <c r="B215" s="30"/>
       <c r="C215" s="30"/>
@@ -59866,7 +59865,7 @@
       <c r="T215" s="30"/>
       <c r="U215" s="30"/>
     </row>
-    <row r="216" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A216" s="30"/>
       <c r="B216" s="30"/>
       <c r="C216" s="30"/>
@@ -59889,7 +59888,7 @@
       <c r="T216" s="30"/>
       <c r="U216" s="30"/>
     </row>
-    <row r="217" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A217" s="30"/>
       <c r="B217" s="30"/>
       <c r="C217" s="30"/>
@@ -59912,7 +59911,7 @@
       <c r="T217" s="30"/>
       <c r="U217" s="30"/>
     </row>
-    <row r="218" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A218" s="30"/>
       <c r="B218" s="30"/>
       <c r="C218" s="30"/>
@@ -59935,7 +59934,7 @@
       <c r="T218" s="30"/>
       <c r="U218" s="30"/>
     </row>
-    <row r="219" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A219" s="30"/>
       <c r="B219" s="30"/>
       <c r="C219" s="30"/>
@@ -59958,7 +59957,7 @@
       <c r="T219" s="30"/>
       <c r="U219" s="30"/>
     </row>
-    <row r="220" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A220" s="30"/>
       <c r="B220" s="30"/>
       <c r="C220" s="30"/>
@@ -59981,7 +59980,7 @@
       <c r="T220" s="30"/>
       <c r="U220" s="30"/>
     </row>
-    <row r="221" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A221" s="30"/>
       <c r="B221" s="30"/>
       <c r="C221" s="30"/>
@@ -60004,7 +60003,7 @@
       <c r="T221" s="30"/>
       <c r="U221" s="30"/>
     </row>
-    <row r="222" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A222" s="30"/>
       <c r="B222" s="30"/>
       <c r="C222" s="30"/>
@@ -60027,7 +60026,7 @@
       <c r="T222" s="30"/>
       <c r="U222" s="30"/>
     </row>
-    <row r="223" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A223" s="30"/>
       <c r="B223" s="30"/>
       <c r="C223" s="30"/>
@@ -60050,7 +60049,7 @@
       <c r="T223" s="30"/>
       <c r="U223" s="30"/>
     </row>
-    <row r="224" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A224" s="30"/>
       <c r="B224" s="30"/>
       <c r="C224" s="30"/>
@@ -60073,7 +60072,7 @@
       <c r="T224" s="30"/>
       <c r="U224" s="30"/>
     </row>
-    <row r="225" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A225" s="30"/>
       <c r="B225" s="30"/>
       <c r="C225" s="30"/>
@@ -60096,7 +60095,7 @@
       <c r="T225" s="30"/>
       <c r="U225" s="30"/>
     </row>
-    <row r="226" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A226" s="30"/>
       <c r="B226" s="30"/>
       <c r="C226" s="30"/>
@@ -60119,7 +60118,7 @@
       <c r="T226" s="30"/>
       <c r="U226" s="30"/>
     </row>
-    <row r="227" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A227" s="30"/>
       <c r="B227" s="30"/>
       <c r="C227" s="30"/>
@@ -60142,7 +60141,7 @@
       <c r="T227" s="30"/>
       <c r="U227" s="30"/>
     </row>
-    <row r="228" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A228" s="30"/>
       <c r="B228" s="30"/>
       <c r="C228" s="30"/>
@@ -60165,7 +60164,7 @@
       <c r="T228" s="30"/>
       <c r="U228" s="30"/>
     </row>
-    <row r="229" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A229" s="30"/>
       <c r="B229" s="30"/>
       <c r="C229" s="30"/>
@@ -60188,7 +60187,7 @@
       <c r="T229" s="30"/>
       <c r="U229" s="30"/>
     </row>
-    <row r="230" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A230" s="30"/>
       <c r="B230" s="30"/>
       <c r="C230" s="30"/>
@@ -60211,7 +60210,7 @@
       <c r="T230" s="30"/>
       <c r="U230" s="30"/>
     </row>
-    <row r="231" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A231" s="30"/>
       <c r="B231" s="30"/>
       <c r="C231" s="30"/>
@@ -60234,7 +60233,7 @@
       <c r="T231" s="30"/>
       <c r="U231" s="30"/>
     </row>
-    <row r="232" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A232" s="30"/>
       <c r="B232" s="30"/>
       <c r="C232" s="30"/>
@@ -60257,7 +60256,7 @@
       <c r="T232" s="30"/>
       <c r="U232" s="30"/>
     </row>
-    <row r="233" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A233" s="30"/>
       <c r="B233" s="30"/>
       <c r="C233" s="30"/>
@@ -60280,7 +60279,7 @@
       <c r="T233" s="30"/>
       <c r="U233" s="30"/>
     </row>
-    <row r="234" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="234" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A234" s="30"/>
       <c r="B234" s="30"/>
       <c r="C234" s="30"/>
@@ -60303,7 +60302,7 @@
       <c r="T234" s="30"/>
       <c r="U234" s="30"/>
     </row>
-    <row r="235" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A235" s="30"/>
       <c r="B235" s="30"/>
       <c r="C235" s="30"/>
@@ -60326,7 +60325,7 @@
       <c r="T235" s="30"/>
       <c r="U235" s="30"/>
     </row>
-    <row r="236" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A236" s="30"/>
       <c r="B236" s="30"/>
       <c r="C236" s="30"/>
@@ -60349,7 +60348,7 @@
       <c r="T236" s="30"/>
       <c r="U236" s="30"/>
     </row>
-    <row r="237" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A237" s="30"/>
       <c r="B237" s="30"/>
       <c r="C237" s="30"/>
@@ -60372,7 +60371,7 @@
       <c r="T237" s="30"/>
       <c r="U237" s="30"/>
     </row>
-    <row r="238" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A238" s="30"/>
       <c r="B238" s="30"/>
       <c r="C238" s="30"/>
@@ -60395,7 +60394,7 @@
       <c r="T238" s="30"/>
       <c r="U238" s="30"/>
     </row>
-    <row r="239" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A239" s="30"/>
       <c r="B239" s="30"/>
       <c r="C239" s="30"/>
@@ -60418,7 +60417,7 @@
       <c r="T239" s="30"/>
       <c r="U239" s="30"/>
     </row>
-    <row r="240" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="240" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A240" s="30"/>
       <c r="B240" s="30"/>
       <c r="C240" s="30"/>
@@ -60441,7 +60440,7 @@
       <c r="T240" s="30"/>
       <c r="U240" s="30"/>
     </row>
-    <row r="241" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A241" s="30"/>
       <c r="B241" s="30"/>
       <c r="C241" s="30"/>
@@ -60464,7 +60463,7 @@
       <c r="T241" s="30"/>
       <c r="U241" s="30"/>
     </row>
-    <row r="242" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A242" s="30"/>
       <c r="B242" s="30"/>
       <c r="C242" s="30"/>
@@ -60487,7 +60486,7 @@
       <c r="T242" s="30"/>
       <c r="U242" s="30"/>
     </row>
-    <row r="243" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A243" s="30"/>
       <c r="B243" s="30"/>
       <c r="C243" s="30"/>
@@ -60510,7 +60509,7 @@
       <c r="T243" s="30"/>
       <c r="U243" s="30"/>
     </row>
-    <row r="244" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="244" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A244" s="30"/>
       <c r="B244" s="30"/>
       <c r="C244" s="30"/>
@@ -60533,7 +60532,7 @@
       <c r="T244" s="30"/>
       <c r="U244" s="30"/>
     </row>
-    <row r="245" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A245" s="30"/>
       <c r="B245" s="30"/>
       <c r="C245" s="30"/>
@@ -60556,7 +60555,7 @@
       <c r="T245" s="30"/>
       <c r="U245" s="30"/>
     </row>
-    <row r="246" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="246" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A246" s="30"/>
       <c r="B246" s="30"/>
       <c r="C246" s="30"/>
@@ -60579,7 +60578,7 @@
       <c r="T246" s="30"/>
       <c r="U246" s="30"/>
     </row>
-    <row r="247" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A247" s="30"/>
       <c r="B247" s="30"/>
       <c r="C247" s="30"/>
@@ -60602,7 +60601,7 @@
       <c r="T247" s="30"/>
       <c r="U247" s="30"/>
     </row>
-    <row r="248" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A248" s="30"/>
       <c r="B248" s="30"/>
       <c r="C248" s="30"/>
@@ -60625,7 +60624,7 @@
       <c r="T248" s="30"/>
       <c r="U248" s="30"/>
     </row>
-    <row r="249" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="249" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A249" s="30"/>
       <c r="B249" s="30"/>
       <c r="C249" s="30"/>
@@ -60648,7 +60647,7 @@
       <c r="T249" s="30"/>
       <c r="U249" s="30"/>
     </row>
-    <row r="250" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A250" s="30"/>
       <c r="B250" s="30"/>
       <c r="C250" s="30"/>
@@ -60671,7 +60670,7 @@
       <c r="T250" s="30"/>
       <c r="U250" s="30"/>
     </row>
-    <row r="251" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A251" s="30"/>
       <c r="B251" s="30"/>
       <c r="C251" s="30"/>
@@ -60694,7 +60693,7 @@
       <c r="T251" s="30"/>
       <c r="U251" s="30"/>
     </row>
-    <row r="252" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A252" s="30"/>
       <c r="B252" s="30"/>
       <c r="C252" s="30"/>
@@ -60717,7 +60716,7 @@
       <c r="T252" s="30"/>
       <c r="U252" s="30"/>
     </row>
-    <row r="253" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A253" s="30"/>
       <c r="B253" s="30"/>
       <c r="C253" s="30"/>
@@ -60740,7 +60739,7 @@
       <c r="T253" s="30"/>
       <c r="U253" s="30"/>
     </row>
-    <row r="254" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="254" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A254" s="30"/>
       <c r="B254" s="30"/>
       <c r="C254" s="30"/>
@@ -60763,7 +60762,7 @@
       <c r="T254" s="30"/>
       <c r="U254" s="30"/>
     </row>
-    <row r="255" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="255" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A255" s="30"/>
       <c r="B255" s="30"/>
       <c r="C255" s="30"/>
@@ -60786,7 +60785,7 @@
       <c r="T255" s="30"/>
       <c r="U255" s="30"/>
     </row>
-    <row r="256" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="256" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A256" s="30"/>
       <c r="B256" s="30"/>
       <c r="C256" s="30"/>
@@ -60809,7 +60808,7 @@
       <c r="T256" s="30"/>
       <c r="U256" s="30"/>
     </row>
-    <row r="257" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="257" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A257" s="30"/>
       <c r="B257" s="30"/>
       <c r="C257" s="30"/>
@@ -60832,7 +60831,7 @@
       <c r="T257" s="30"/>
       <c r="U257" s="30"/>
     </row>
-    <row r="258" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="258" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A258" s="30"/>
       <c r="B258" s="30"/>
       <c r="C258" s="30"/>
@@ -60855,7 +60854,7 @@
       <c r="T258" s="30"/>
       <c r="U258" s="30"/>
     </row>
-    <row r="259" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="259" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A259" s="30"/>
       <c r="B259" s="30"/>
       <c r="C259" s="30"/>
@@ -60878,7 +60877,7 @@
       <c r="T259" s="30"/>
       <c r="U259" s="30"/>
     </row>
-    <row r="260" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="260" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A260" s="30"/>
       <c r="B260" s="30"/>
       <c r="C260" s="30"/>
@@ -60901,7 +60900,7 @@
       <c r="T260" s="30"/>
       <c r="U260" s="30"/>
     </row>
-    <row r="261" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="261" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A261" s="30"/>
       <c r="B261" s="30"/>
       <c r="C261" s="30"/>
@@ -60924,7 +60923,7 @@
       <c r="T261" s="30"/>
       <c r="U261" s="30"/>
     </row>
-    <row r="262" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="262" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A262" s="30"/>
       <c r="B262" s="30"/>
       <c r="C262" s="30"/>
@@ -60947,7 +60946,7 @@
       <c r="T262" s="30"/>
       <c r="U262" s="30"/>
     </row>
-    <row r="263" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="263" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A263" s="30"/>
       <c r="B263" s="30"/>
       <c r="C263" s="30"/>
@@ -60970,7 +60969,7 @@
       <c r="T263" s="30"/>
       <c r="U263" s="30"/>
     </row>
-    <row r="264" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="264" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A264" s="30"/>
       <c r="B264" s="30"/>
       <c r="C264" s="30"/>
@@ -60993,7 +60992,7 @@
       <c r="T264" s="30"/>
       <c r="U264" s="30"/>
     </row>
-    <row r="265" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="265" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A265" s="30"/>
       <c r="B265" s="30"/>
       <c r="C265" s="30"/>
@@ -61016,7 +61015,7 @@
       <c r="T265" s="30"/>
       <c r="U265" s="30"/>
     </row>
-    <row r="266" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="266" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A266" s="30"/>
       <c r="B266" s="30"/>
       <c r="C266" s="30"/>
@@ -61039,7 +61038,7 @@
       <c r="T266" s="30"/>
       <c r="U266" s="30"/>
     </row>
-    <row r="267" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="267" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A267" s="30"/>
       <c r="B267" s="30"/>
       <c r="C267" s="30"/>
@@ -61062,7 +61061,7 @@
       <c r="T267" s="30"/>
       <c r="U267" s="30"/>
     </row>
-    <row r="268" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="268" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A268" s="30"/>
       <c r="B268" s="30"/>
       <c r="C268" s="30"/>
@@ -61085,7 +61084,7 @@
       <c r="T268" s="30"/>
       <c r="U268" s="30"/>
     </row>
-    <row r="269" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="269" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A269" s="30"/>
       <c r="B269" s="30"/>
       <c r="C269" s="30"/>
@@ -61108,7 +61107,7 @@
       <c r="T269" s="30"/>
       <c r="U269" s="30"/>
     </row>
-    <row r="270" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="270" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A270" s="30"/>
       <c r="B270" s="30"/>
       <c r="C270" s="30"/>
@@ -61131,7 +61130,7 @@
       <c r="T270" s="30"/>
       <c r="U270" s="30"/>
     </row>
-    <row r="271" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="271" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A271" s="30"/>
       <c r="B271" s="30"/>
       <c r="C271" s="30"/>
@@ -61154,7 +61153,7 @@
       <c r="T271" s="30"/>
       <c r="U271" s="30"/>
     </row>
-    <row r="272" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="272" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A272" s="30"/>
       <c r="B272" s="30"/>
       <c r="C272" s="30"/>
@@ -61177,7 +61176,7 @@
       <c r="T272" s="30"/>
       <c r="U272" s="30"/>
     </row>
-    <row r="273" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="273" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A273" s="30"/>
       <c r="B273" s="30"/>
       <c r="C273" s="30"/>
@@ -61200,7 +61199,7 @@
       <c r="T273" s="30"/>
       <c r="U273" s="30"/>
     </row>
-    <row r="274" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="274" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A274" s="30"/>
       <c r="B274" s="30"/>
       <c r="C274" s="30"/>
@@ -61223,7 +61222,7 @@
       <c r="T274" s="30"/>
       <c r="U274" s="30"/>
     </row>
-    <row r="275" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="275" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A275" s="30"/>
       <c r="B275" s="30"/>
       <c r="C275" s="30"/>
@@ -61246,7 +61245,7 @@
       <c r="T275" s="30"/>
       <c r="U275" s="30"/>
     </row>
-    <row r="276" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="276" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A276" s="30"/>
       <c r="B276" s="30"/>
       <c r="C276" s="30"/>
@@ -61269,7 +61268,7 @@
       <c r="T276" s="30"/>
       <c r="U276" s="30"/>
     </row>
-    <row r="277" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="277" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A277" s="30"/>
       <c r="B277" s="30"/>
       <c r="C277" s="30"/>
@@ -61292,7 +61291,7 @@
       <c r="T277" s="30"/>
       <c r="U277" s="30"/>
     </row>
-    <row r="278" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="278" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A278" s="30"/>
       <c r="B278" s="30"/>
       <c r="C278" s="30"/>
@@ -61315,7 +61314,7 @@
       <c r="T278" s="30"/>
       <c r="U278" s="30"/>
     </row>
-    <row r="279" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="279" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A279" s="30"/>
       <c r="B279" s="30"/>
       <c r="C279" s="30"/>
@@ -61338,7 +61337,7 @@
       <c r="T279" s="30"/>
       <c r="U279" s="30"/>
     </row>
-    <row r="280" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="280" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A280" s="30"/>
       <c r="B280" s="30"/>
       <c r="C280" s="30"/>
@@ -61361,7 +61360,7 @@
       <c r="T280" s="30"/>
       <c r="U280" s="30"/>
     </row>
-    <row r="281" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="281" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A281" s="30"/>
       <c r="B281" s="30"/>
       <c r="C281" s="30"/>
@@ -61384,7 +61383,7 @@
       <c r="T281" s="30"/>
       <c r="U281" s="30"/>
     </row>
-    <row r="282" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="282" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A282" s="30"/>
       <c r="B282" s="30"/>
       <c r="C282" s="30"/>
@@ -61407,7 +61406,7 @@
       <c r="T282" s="30"/>
       <c r="U282" s="30"/>
     </row>
-    <row r="283" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="283" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A283" s="30"/>
       <c r="B283" s="30"/>
       <c r="C283" s="30"/>
@@ -61430,7 +61429,7 @@
       <c r="T283" s="30"/>
       <c r="U283" s="30"/>
     </row>
-    <row r="284" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="284" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A284" s="30"/>
       <c r="B284" s="30"/>
       <c r="C284" s="30"/>
@@ -61453,7 +61452,7 @@
       <c r="T284" s="30"/>
       <c r="U284" s="30"/>
     </row>
-    <row r="285" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="285" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A285" s="30"/>
       <c r="B285" s="30"/>
       <c r="C285" s="30"/>
@@ -61476,7 +61475,7 @@
       <c r="T285" s="30"/>
       <c r="U285" s="30"/>
     </row>
-    <row r="286" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="286" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A286" s="30"/>
       <c r="B286" s="30"/>
       <c r="C286" s="30"/>
@@ -61499,7 +61498,7 @@
       <c r="T286" s="30"/>
       <c r="U286" s="30"/>
     </row>
-    <row r="287" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="287" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A287" s="30"/>
       <c r="B287" s="30"/>
       <c r="C287" s="30"/>
@@ -61522,7 +61521,7 @@
       <c r="T287" s="30"/>
       <c r="U287" s="30"/>
     </row>
-    <row r="288" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="288" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A288" s="30"/>
       <c r="B288" s="30"/>
       <c r="C288" s="30"/>
@@ -61545,7 +61544,7 @@
       <c r="T288" s="30"/>
       <c r="U288" s="30"/>
     </row>
-    <row r="289" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="289" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A289" s="30"/>
       <c r="B289" s="30"/>
       <c r="C289" s="30"/>
@@ -61568,7 +61567,7 @@
       <c r="T289" s="30"/>
       <c r="U289" s="30"/>
     </row>
-    <row r="290" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="290" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A290" s="30"/>
       <c r="B290" s="30"/>
       <c r="C290" s="30"/>
@@ -61591,7 +61590,7 @@
       <c r="T290" s="30"/>
       <c r="U290" s="30"/>
     </row>
-    <row r="291" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="291" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A291" s="30"/>
       <c r="B291" s="30"/>
       <c r="C291" s="30"/>
@@ -61614,7 +61613,7 @@
       <c r="T291" s="30"/>
       <c r="U291" s="30"/>
     </row>
-    <row r="292" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="292" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A292" s="30"/>
       <c r="B292" s="30"/>
       <c r="C292" s="30"/>
@@ -61637,7 +61636,7 @@
       <c r="T292" s="30"/>
       <c r="U292" s="30"/>
     </row>
-    <row r="293" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="293" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A293" s="30"/>
       <c r="B293" s="30"/>
       <c r="C293" s="30"/>
@@ -61660,7 +61659,7 @@
       <c r="T293" s="30"/>
       <c r="U293" s="30"/>
     </row>
-    <row r="294" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="294" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A294" s="30"/>
       <c r="B294" s="30"/>
       <c r="C294" s="30"/>
@@ -61683,7 +61682,7 @@
       <c r="T294" s="30"/>
       <c r="U294" s="30"/>
     </row>
-    <row r="295" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="295" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A295" s="30"/>
       <c r="B295" s="30"/>
       <c r="C295" s="30"/>
@@ -61706,7 +61705,7 @@
       <c r="T295" s="30"/>
       <c r="U295" s="30"/>
     </row>
-    <row r="296" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="296" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A296" s="30"/>
       <c r="B296" s="30"/>
       <c r="C296" s="30"/>
@@ -61729,7 +61728,7 @@
       <c r="T296" s="30"/>
       <c r="U296" s="30"/>
     </row>
-    <row r="297" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="297" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A297" s="30"/>
       <c r="B297" s="30"/>
       <c r="C297" s="30"/>
@@ -61752,7 +61751,7 @@
       <c r="T297" s="30"/>
       <c r="U297" s="30"/>
     </row>
-    <row r="298" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="298" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A298" s="30"/>
       <c r="B298" s="30"/>
       <c r="C298" s="30"/>
@@ -61775,7 +61774,7 @@
       <c r="T298" s="30"/>
       <c r="U298" s="30"/>
     </row>
-    <row r="299" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="299" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A299" s="30"/>
       <c r="B299" s="30"/>
       <c r="C299" s="30"/>
@@ -61798,7 +61797,7 @@
       <c r="T299" s="30"/>
       <c r="U299" s="30"/>
     </row>
-    <row r="300" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="300" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A300" s="30"/>
       <c r="B300" s="30"/>
       <c r="C300" s="30"/>
@@ -61821,7 +61820,7 @@
       <c r="T300" s="30"/>
       <c r="U300" s="30"/>
     </row>
-    <row r="301" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="301" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A301" s="30"/>
       <c r="B301" s="30"/>
       <c r="C301" s="30"/>
@@ -61844,7 +61843,7 @@
       <c r="T301" s="30"/>
       <c r="U301" s="30"/>
     </row>
-    <row r="302" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="302" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A302" s="30"/>
       <c r="B302" s="30"/>
       <c r="C302" s="30"/>
@@ -61867,7 +61866,7 @@
       <c r="T302" s="30"/>
       <c r="U302" s="30"/>
     </row>
-    <row r="303" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="303" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A303" s="30"/>
       <c r="B303" s="30"/>
       <c r="C303" s="30"/>
@@ -61890,7 +61889,7 @@
       <c r="T303" s="30"/>
       <c r="U303" s="30"/>
     </row>
-    <row r="304" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="304" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A304" s="30"/>
       <c r="B304" s="30"/>
       <c r="C304" s="30"/>
@@ -61913,7 +61912,7 @@
       <c r="T304" s="30"/>
       <c r="U304" s="30"/>
     </row>
-    <row r="305" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="305" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A305" s="30"/>
       <c r="B305" s="30"/>
       <c r="C305" s="30"/>
@@ -61936,7 +61935,7 @@
       <c r="T305" s="30"/>
       <c r="U305" s="30"/>
     </row>
-    <row r="306" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="306" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A306" s="30"/>
       <c r="B306" s="30"/>
       <c r="C306" s="30"/>
@@ -61959,7 +61958,7 @@
       <c r="T306" s="30"/>
       <c r="U306" s="30"/>
     </row>
-    <row r="307" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="307" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A307" s="30"/>
       <c r="B307" s="30"/>
       <c r="C307" s="30"/>
@@ -61992,28 +61991,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Offline/BusinessManagement/ProfitabilitySheet.xlsx
+++ b/Offline/BusinessManagement/ProfitabilitySheet.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Anodiam\Docs\Offline\BusinessManagement\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Offline\BusinessManagement\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1DB1814-8176-4583-BCFF-52505E5D4E74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19395" windowHeight="10395" tabRatio="703"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Profitability" sheetId="5" r:id="rId1"/>
@@ -20,7 +21,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Profitability!$A$3:$AE$405</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -953,7 +954,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
@@ -1396,48 +1397,6 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="13" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="20" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1475,6 +1434,48 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="20" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="13" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1767,8 +1768,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN405"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="119" zoomScaleNormal="110" workbookViewId="0">
@@ -1778,217 +1778,217 @@
       <selection pane="bottomRight" activeCell="C348" sqref="C348"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.73046875" defaultRowHeight="13.5" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="31.28515625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="21.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="31.265625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="21.86328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.265625" style="1" customWidth="1"/>
     <col min="5" max="5" width="8" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="7.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="7.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.73046875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="7.265625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="6.73046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="7.73046875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="6.86328125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="6" style="1" customWidth="1"/>
-    <col min="14" max="14" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.85546875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="4.5703125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="7.7109375" style="1" customWidth="1"/>
-    <col min="18" max="18" width="8.28515625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="4.28515625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="7.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.86328125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="4.59765625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="7.73046875" style="1" customWidth="1"/>
+    <col min="18" max="18" width="8.265625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="4.265625" style="1" customWidth="1"/>
     <col min="20" max="20" width="9" style="1" customWidth="1"/>
-    <col min="21" max="21" width="8.140625" style="1" customWidth="1"/>
-    <col min="22" max="22" width="8.7109375" style="1" customWidth="1"/>
-    <col min="23" max="23" width="9.140625" style="1" customWidth="1"/>
-    <col min="24" max="24" width="8.7109375" style="1" customWidth="1"/>
-    <col min="25" max="25" width="8.5703125" style="1" customWidth="1"/>
-    <col min="26" max="26" width="6.42578125" style="1" customWidth="1"/>
-    <col min="27" max="27" width="8.7109375" style="1" customWidth="1"/>
-    <col min="28" max="28" width="9.140625" style="1" customWidth="1"/>
-    <col min="29" max="29" width="8.7109375" style="1" customWidth="1"/>
-    <col min="30" max="30" width="8.5703125" style="1" customWidth="1"/>
-    <col min="31" max="31" width="6.42578125" style="1" customWidth="1"/>
-    <col min="32" max="36" width="10.7109375" style="1"/>
-    <col min="37" max="37" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="38" max="16384" width="10.7109375" style="1"/>
+    <col min="21" max="21" width="8.1328125" style="1" customWidth="1"/>
+    <col min="22" max="22" width="8.73046875" style="1" customWidth="1"/>
+    <col min="23" max="23" width="9.1328125" style="1" customWidth="1"/>
+    <col min="24" max="24" width="8.73046875" style="1" customWidth="1"/>
+    <col min="25" max="25" width="8.59765625" style="1" customWidth="1"/>
+    <col min="26" max="26" width="6.3984375" style="1" customWidth="1"/>
+    <col min="27" max="27" width="8.73046875" style="1" customWidth="1"/>
+    <col min="28" max="28" width="9.1328125" style="1" customWidth="1"/>
+    <col min="29" max="29" width="8.73046875" style="1" customWidth="1"/>
+    <col min="30" max="30" width="8.59765625" style="1" customWidth="1"/>
+    <col min="31" max="31" width="6.3984375" style="1" customWidth="1"/>
+    <col min="32" max="36" width="10.73046875" style="1"/>
+    <col min="37" max="37" width="11.265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="38" max="16384" width="10.73046875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="F1" s="35" t="s">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.45">
+      <c r="F1" s="51" t="s">
         <v>273</v>
       </c>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="35"/>
-      <c r="T1" s="35"/>
-      <c r="U1" s="36"/>
-      <c r="V1" s="37" t="s">
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="51"/>
+      <c r="P1" s="51"/>
+      <c r="Q1" s="51"/>
+      <c r="R1" s="51"/>
+      <c r="S1" s="51"/>
+      <c r="T1" s="51"/>
+      <c r="U1" s="52"/>
+      <c r="V1" s="53" t="s">
         <v>293</v>
       </c>
-      <c r="W1" s="38"/>
-      <c r="X1" s="38"/>
-      <c r="Y1" s="38"/>
-      <c r="Z1" s="39"/>
-      <c r="AA1" s="40" t="s">
+      <c r="W1" s="54"/>
+      <c r="X1" s="54"/>
+      <c r="Y1" s="54"/>
+      <c r="Z1" s="55"/>
+      <c r="AA1" s="56" t="s">
         <v>292</v>
       </c>
-      <c r="AB1" s="41"/>
-      <c r="AC1" s="41"/>
-      <c r="AD1" s="41"/>
-      <c r="AE1" s="42"/>
-      <c r="AF1" s="49" t="s">
+      <c r="AB1" s="57"/>
+      <c r="AC1" s="57"/>
+      <c r="AD1" s="57"/>
+      <c r="AE1" s="58"/>
+      <c r="AF1" s="35" t="s">
         <v>300</v>
       </c>
-      <c r="AG1" s="50"/>
-      <c r="AH1" s="50"/>
-      <c r="AI1" s="50"/>
-      <c r="AJ1" s="51"/>
-      <c r="AK1" s="56" t="s">
+      <c r="AG1" s="36"/>
+      <c r="AH1" s="36"/>
+      <c r="AI1" s="36"/>
+      <c r="AJ1" s="37"/>
+      <c r="AK1" s="42" t="s">
         <v>294</v>
       </c>
-      <c r="AL1" s="57"/>
-      <c r="AM1" s="57"/>
-      <c r="AN1" s="57"/>
-    </row>
-    <row r="2" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="47" t="s">
+      <c r="AL1" s="43"/>
+      <c r="AM1" s="43"/>
+      <c r="AN1" s="43"/>
+    </row>
+    <row r="2" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="47" t="s">
+      <c r="C2" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="47" t="s">
+      <c r="D2" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="47" t="s">
+      <c r="E2" s="48" t="s">
         <v>129</v>
       </c>
-      <c r="F2" s="48" t="s">
+      <c r="F2" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="G2" s="48" t="s">
+      <c r="G2" s="49" t="s">
         <v>272</v>
       </c>
-      <c r="H2" s="47" t="s">
+      <c r="H2" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="47" t="s">
+      <c r="I2" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="47" t="s">
+      <c r="J2" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47" t="s">
+      <c r="K2" s="48"/>
+      <c r="L2" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="M2" s="47"/>
-      <c r="N2" s="47" t="s">
+      <c r="M2" s="48"/>
+      <c r="N2" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="47" t="s">
+      <c r="O2" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="P2" s="47" t="s">
+      <c r="P2" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="Q2" s="47" t="s">
+      <c r="Q2" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="R2" s="47" t="s">
+      <c r="R2" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="S2" s="47" t="s">
+      <c r="S2" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="T2" s="47" t="s">
+      <c r="T2" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="U2" s="47" t="s">
+      <c r="U2" s="48" t="s">
         <v>172</v>
       </c>
-      <c r="V2" s="46" t="s">
+      <c r="V2" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="W2" s="46" t="s">
+      <c r="W2" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="X2" s="45" t="s">
+      <c r="X2" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="Y2" s="46" t="s">
+      <c r="Y2" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="Z2" s="46" t="s">
+      <c r="Z2" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="AA2" s="43" t="s">
+      <c r="AA2" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="AB2" s="43" t="s">
+      <c r="AB2" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="AC2" s="44" t="s">
+      <c r="AC2" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="AD2" s="43" t="s">
+      <c r="AD2" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="AE2" s="43" t="s">
+      <c r="AE2" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="AF2" s="58" t="s">
+      <c r="AF2" s="44" t="s">
         <v>299</v>
       </c>
-      <c r="AG2" s="59" t="s">
+      <c r="AG2" s="45" t="s">
         <v>295</v>
       </c>
-      <c r="AH2" s="59" t="s">
+      <c r="AH2" s="45" t="s">
         <v>296</v>
       </c>
-      <c r="AI2" s="61" t="s">
+      <c r="AI2" s="47" t="s">
         <v>297</v>
       </c>
-      <c r="AJ2" s="58" t="s">
+      <c r="AJ2" s="44" t="s">
         <v>298</v>
       </c>
-      <c r="AK2" s="52" t="s">
+      <c r="AK2" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="AL2" s="52" t="s">
+      <c r="AL2" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="AM2" s="54" t="s">
+      <c r="AM2" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="AN2" s="55" t="s">
+      <c r="AN2" s="41" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:40" s="2" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="47"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
+    <row r="3" spans="1:40" s="2" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="48"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
       <c r="J3" s="11" t="s">
         <v>21</v>
       </c>
@@ -2001,35 +2001,35 @@
       <c r="M3" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="N3" s="47"/>
-      <c r="O3" s="47"/>
-      <c r="P3" s="47"/>
-      <c r="Q3" s="47"/>
-      <c r="R3" s="47"/>
-      <c r="S3" s="47"/>
-      <c r="T3" s="47"/>
-      <c r="U3" s="47"/>
-      <c r="V3" s="46"/>
-      <c r="W3" s="46"/>
-      <c r="X3" s="45"/>
-      <c r="Y3" s="46"/>
-      <c r="Z3" s="46"/>
-      <c r="AA3" s="43"/>
-      <c r="AB3" s="43"/>
-      <c r="AC3" s="44"/>
-      <c r="AD3" s="43"/>
-      <c r="AE3" s="43"/>
-      <c r="AF3" s="58"/>
-      <c r="AG3" s="60"/>
-      <c r="AH3" s="60"/>
-      <c r="AI3" s="61"/>
-      <c r="AJ3" s="58"/>
-      <c r="AK3" s="53"/>
-      <c r="AL3" s="53"/>
-      <c r="AM3" s="54"/>
-      <c r="AN3" s="55"/>
-    </row>
-    <row r="4" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N3" s="48"/>
+      <c r="O3" s="48"/>
+      <c r="P3" s="48"/>
+      <c r="Q3" s="48"/>
+      <c r="R3" s="48"/>
+      <c r="S3" s="48"/>
+      <c r="T3" s="48"/>
+      <c r="U3" s="48"/>
+      <c r="V3" s="50"/>
+      <c r="W3" s="50"/>
+      <c r="X3" s="61"/>
+      <c r="Y3" s="50"/>
+      <c r="Z3" s="50"/>
+      <c r="AA3" s="59"/>
+      <c r="AB3" s="59"/>
+      <c r="AC3" s="60"/>
+      <c r="AD3" s="59"/>
+      <c r="AE3" s="59"/>
+      <c r="AF3" s="44"/>
+      <c r="AG3" s="46"/>
+      <c r="AH3" s="46"/>
+      <c r="AI3" s="47"/>
+      <c r="AJ3" s="44"/>
+      <c r="AK3" s="39"/>
+      <c r="AL3" s="39"/>
+      <c r="AM3" s="40"/>
+      <c r="AN3" s="41"/>
+    </row>
+    <row r="4" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="12" t="str">
         <f>"NEET &amp; IIT Crash Course "&amp;" " &amp; B4</f>
         <v>NEET &amp; IIT Crash Course  Physics</v>
@@ -2172,7 +2172,7 @@
         <v>142.85714183673468</v>
       </c>
     </row>
-    <row r="5" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="12" t="str">
         <f t="shared" ref="A5:A7" si="5">"NEET &amp; IIT Crash Course "&amp;" " &amp; B5</f>
         <v>NEET &amp; IIT Crash Course  Chemistry</v>
@@ -2315,7 +2315,7 @@
         <v>142.85719387756922</v>
       </c>
     </row>
-    <row r="6" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="12" t="str">
         <f>"IIT Crash Course "&amp;" " &amp; B6</f>
         <v>IIT Crash Course  Maths</v>
@@ -2458,7 +2458,7 @@
         <v>107.1428954081769</v>
       </c>
     </row>
-    <row r="7" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="12" t="str">
         <f t="shared" si="5"/>
         <v>NEET &amp; IIT Crash Course  Biology</v>
@@ -2601,7 +2601,7 @@
         <v>107.1428954081769</v>
       </c>
     </row>
-    <row r="8" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="12" t="str">
         <f>C8&amp;" - All Boards - "&amp;B8</f>
         <v>XII - All Boards - Physics</v>
@@ -2744,7 +2744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="12" t="str">
         <f t="shared" ref="A9:A15" si="16">C9&amp;" - All Boards - "&amp;B9</f>
         <v>XII - All Boards - Chemistry</v>
@@ -2887,7 +2887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="12" t="str">
         <f t="shared" si="16"/>
         <v>XII - All Boards - Maths</v>
@@ -3030,7 +3030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="12" t="str">
         <f t="shared" si="16"/>
         <v>XII - All Boards - Biology</v>
@@ -3173,7 +3173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="12" t="str">
         <f t="shared" si="16"/>
         <v>XI - All Boards - Physics</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="12" t="str">
         <f t="shared" si="16"/>
         <v>XI - All Boards - Chemistry</v>
@@ -3459,7 +3459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="12" t="str">
         <f t="shared" si="16"/>
         <v>XI - All Boards - Maths</v>
@@ -3602,7 +3602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="12" t="str">
         <f t="shared" si="16"/>
         <v>XI - All Boards - Biology</v>
@@ -3745,7 +3745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="23" t="str">
         <f t="shared" ref="A16:A18" si="39">D16&amp;" - "&amp;C16&amp;" - "&amp;B16</f>
         <v>ISC - XII - English</v>
@@ -3888,7 +3888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="23" t="str">
         <f t="shared" si="39"/>
         <v>ISC - XII - Bengali</v>
@@ -4031,7 +4031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="23" t="str">
         <f t="shared" si="39"/>
         <v>ISC - XII - Hindi</v>
@@ -4174,7 +4174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="23" t="str">
         <f>D19&amp;" - "&amp;C19&amp;" - "&amp;B19</f>
         <v>ISC - XII - History</v>
@@ -4317,7 +4317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="23" t="str">
         <f>D20&amp;" - "&amp;C20&amp;" - "&amp;B20</f>
         <v>ISC - XII - Geography</v>
@@ -4460,7 +4460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="23" t="str">
         <f>D21&amp;" - "&amp;C21&amp;" - "&amp;B21</f>
         <v>ISC - XII - Political Science</v>
@@ -4603,7 +4603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="23" t="str">
         <f>D22&amp;" - "&amp;C22&amp;" - "&amp;B22</f>
         <v>ISC - XII - Sociology</v>
@@ -4746,7 +4746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="23" t="str">
         <f>D23&amp;" - "&amp;C23&amp;" - "&amp;B23</f>
         <v>ISC - XII - Philosophy</v>
@@ -4889,7 +4889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="23" t="str">
         <f t="shared" ref="A24:A43" si="52">D24&amp;" - "&amp;C24&amp;" - "&amp;B24</f>
         <v>ISC - XII - Accounting</v>
@@ -5032,7 +5032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="23" t="str">
         <f t="shared" si="52"/>
         <v>ISC - XII - Commercial Study</v>
@@ -5175,7 +5175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="23" t="str">
         <f t="shared" si="52"/>
         <v>ISC - XII - Economics</v>
@@ -5318,7 +5318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="23" t="str">
         <f t="shared" si="52"/>
         <v>ISC - XII - Business Studies</v>
@@ -5461,7 +5461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="23" t="str">
         <f t="shared" si="52"/>
         <v>ISC - XII - Maths (Comm)</v>
@@ -5604,7 +5604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="23" t="str">
         <f>D29&amp;" - "&amp;C29&amp;" - "&amp;B29</f>
         <v>ISC - XII - Computers</v>
@@ -5747,7 +5747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="23" t="str">
         <f>D30&amp;" - "&amp;C30&amp;" - "&amp;B30</f>
         <v>ISC - XII - AI</v>
@@ -5890,7 +5890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="23" t="str">
         <f t="shared" si="52"/>
         <v>ISC - XI - English</v>
@@ -6033,7 +6033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="23" t="str">
         <f t="shared" si="52"/>
         <v>ISC - XI - Bengali</v>
@@ -6176,7 +6176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="23" t="str">
         <f t="shared" si="52"/>
         <v>ISC - XI - Hindi</v>
@@ -6319,7 +6319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="23" t="str">
         <f>D34&amp;" - "&amp;C34&amp;" - "&amp;B34</f>
         <v>ISC - XI - History</v>
@@ -6462,7 +6462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="23" t="str">
         <f>D35&amp;" - "&amp;C35&amp;" - "&amp;B35</f>
         <v>ISC - XI - Geography</v>
@@ -6605,7 +6605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="23" t="str">
         <f>D36&amp;" - "&amp;C36&amp;" - "&amp;B36</f>
         <v>ISC - XI - Political Science</v>
@@ -6748,7 +6748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="23" t="str">
         <f>D37&amp;" - "&amp;C37&amp;" - "&amp;B37</f>
         <v>ISC - XI - Sociology</v>
@@ -6891,7 +6891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="23" t="str">
         <f>D38&amp;" - "&amp;C38&amp;" - "&amp;B38</f>
         <v>ISC - XI - Philosophy</v>
@@ -7034,7 +7034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="23" t="str">
         <f t="shared" si="52"/>
         <v>ISC - XI - Accounting</v>
@@ -7177,7 +7177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="23" t="str">
         <f t="shared" si="52"/>
         <v>ISC - XI - Commercial Study</v>
@@ -7320,7 +7320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41" s="23" t="str">
         <f t="shared" si="52"/>
         <v>ISC - XI - Economics</v>
@@ -7463,7 +7463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42" s="23" t="str">
         <f t="shared" si="52"/>
         <v>ISC - XI - Business Studies</v>
@@ -7606,7 +7606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A43" s="23" t="str">
         <f t="shared" si="52"/>
         <v>ISC - XI - Maths (Comm)</v>
@@ -7749,7 +7749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A44" s="23" t="str">
         <f>D44&amp;" - "&amp;C44&amp;" - "&amp;B44</f>
         <v>ISC - XI - Computers</v>
@@ -7892,7 +7892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A45" s="23" t="str">
         <f>D45&amp;" - "&amp;C45&amp;" - "&amp;B45</f>
         <v>ISC - XI - AI</v>
@@ -8035,7 +8035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A46" s="23" t="str">
         <f>D46&amp;" - "&amp;C46&amp;" - "&amp;B46</f>
         <v>ICSE - X - English</v>
@@ -8178,7 +8178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:40" ht="24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A47" s="23" t="str">
         <f t="shared" ref="A47:A165" si="95">D47&amp;" - "&amp;C47&amp;" - "&amp;B47</f>
         <v>ICSE - X - Bengali</v>
@@ -8321,7 +8321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A48" s="23" t="str">
         <f t="shared" si="95"/>
         <v>ICSE - X - Hindi</v>
@@ -8464,7 +8464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:40" ht="24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A49" s="23" t="str">
         <f>D49&amp;" - "&amp;C49&amp;" - "&amp;B49</f>
         <v>ICSE - X - Geography</v>
@@ -8607,7 +8607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A50" s="23" t="str">
         <f>D50&amp;" - "&amp;C50&amp;" - "&amp;B50</f>
         <v>ICSE - X - EVS</v>
@@ -8750,7 +8750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:40" ht="24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A51" s="23" t="str">
         <f>D51&amp;" - "&amp;C51&amp;" - "&amp;B51</f>
         <v>ICSE - X - Hist Civics</v>
@@ -8893,7 +8893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A52" s="23" t="str">
         <f>D52&amp;" - "&amp;C52&amp;" - "&amp;B52</f>
         <v>ICSE - X - Commercial Study</v>
@@ -9036,7 +9036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A53" s="23" t="str">
         <f>D53&amp;" - "&amp;C53&amp;" - "&amp;B53</f>
         <v>ICSE - X - Economics</v>
@@ -9179,7 +9179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A54" s="23" t="str">
         <f t="shared" si="95"/>
         <v>ICSE - X - Maths</v>
@@ -9322,7 +9322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A55" s="23" t="str">
         <f t="shared" si="95"/>
         <v>ICSE - X - Physics</v>
@@ -9465,7 +9465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A56" s="23" t="str">
         <f t="shared" si="95"/>
         <v>ICSE - X - Chemistry</v>
@@ -9608,7 +9608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A57" s="23" t="str">
         <f t="shared" si="95"/>
         <v>ICSE - X - Biology</v>
@@ -9751,7 +9751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A58" s="23" t="str">
         <f t="shared" si="95"/>
         <v>ICSE - X - Computers</v>
@@ -9894,7 +9894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A59" s="23" t="str">
         <f t="shared" si="95"/>
         <v>ICSE - X - AI</v>
@@ -10037,7 +10037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A60" s="23" t="str">
         <f t="shared" si="95"/>
         <v>ICSE - IX - English</v>
@@ -10180,7 +10180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:40" ht="24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A61" s="23" t="str">
         <f t="shared" si="95"/>
         <v>ICSE - IX - Bengali</v>
@@ -10323,7 +10323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A62" s="23" t="str">
         <f t="shared" si="95"/>
         <v>ICSE - IX - Hindi</v>
@@ -10466,7 +10466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:40" ht="24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A63" s="23" t="str">
         <f>D63&amp;" - "&amp;C63&amp;" - "&amp;B63</f>
         <v>ICSE - IX - Geography</v>
@@ -10609,7 +10609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A64" s="23" t="str">
         <f>D64&amp;" - "&amp;C64&amp;" - "&amp;B64</f>
         <v>ICSE - IX - EVS</v>
@@ -10752,7 +10752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:40" ht="24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A65" s="23" t="str">
         <f>D65&amp;" - "&amp;C65&amp;" - "&amp;B65</f>
         <v>ICSE - IX - Hist Civics</v>
@@ -10895,7 +10895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A66" s="23" t="str">
         <f>D66&amp;" - "&amp;C66&amp;" - "&amp;B66</f>
         <v>ICSE - IX - Commercial Study</v>
@@ -11038,7 +11038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A67" s="23" t="str">
         <f>D67&amp;" - "&amp;C67&amp;" - "&amp;B67</f>
         <v>ICSE - IX - Economics</v>
@@ -11181,7 +11181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A68" s="23" t="str">
         <f t="shared" si="95"/>
         <v>ICSE - IX - Maths</v>
@@ -11324,7 +11324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A69" s="23" t="str">
         <f t="shared" si="95"/>
         <v>ICSE - IX - Physics</v>
@@ -11467,7 +11467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A70" s="23" t="str">
         <f t="shared" si="95"/>
         <v>ICSE - IX - Chemistry</v>
@@ -11610,7 +11610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A71" s="23" t="str">
         <f t="shared" si="95"/>
         <v>ICSE - IX - Biology</v>
@@ -11753,7 +11753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A72" s="23" t="str">
         <f>D72&amp;" - "&amp;C72&amp;" - "&amp;B72</f>
         <v>ICSE - IX - Computers</v>
@@ -11896,7 +11896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A73" s="23" t="str">
         <f t="shared" si="95"/>
         <v>ICSE - IX - AI</v>
@@ -12039,7 +12039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A74" s="23" t="str">
         <f t="shared" si="95"/>
         <v>ICSE - VIII - English</v>
@@ -12182,7 +12182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:40" ht="24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A75" s="23" t="str">
         <f>D75&amp;" - "&amp;C75&amp;" - "&amp;B75</f>
         <v>ICSE - VIII - Bengali</v>
@@ -12325,7 +12325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A76" s="23" t="str">
         <f>D76&amp;" - "&amp;C76&amp;" - "&amp;B76</f>
         <v>ICSE - VIII - Hindi</v>
@@ -12468,7 +12468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:40" ht="24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A77" s="23" t="str">
         <f>D77&amp;" - "&amp;C77&amp;" - "&amp;B77</f>
         <v>ICSE - VIII - Geography</v>
@@ -12611,7 +12611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A78" s="23" t="str">
         <f>D78&amp;" - "&amp;C78&amp;" - "&amp;B78</f>
         <v>ICSE - VIII - EVS</v>
@@ -12754,7 +12754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:40" ht="24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A79" s="23" t="str">
         <f>D79&amp;" - "&amp;C79&amp;" - "&amp;B79</f>
         <v>ICSE - VIII - Hist Civics</v>
@@ -12897,7 +12897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A80" s="23" t="str">
         <f t="shared" si="95"/>
         <v>ICSE - VIII - Maths</v>
@@ -13040,7 +13040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A81" s="23" t="str">
         <f t="shared" si="95"/>
         <v>ICSE - VIII - Physics</v>
@@ -13183,7 +13183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A82" s="23" t="str">
         <f t="shared" si="95"/>
         <v>ICSE - VIII - Chemistry</v>
@@ -13326,7 +13326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A83" s="23" t="str">
         <f t="shared" si="95"/>
         <v>ICSE - VIII - Biology</v>
@@ -13469,7 +13469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A84" s="23" t="str">
         <f t="shared" si="95"/>
         <v>ICSE - VIII - Computers</v>
@@ -13612,7 +13612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A85" s="21" t="str">
         <f>D85&amp;" - "&amp;C85&amp;" - "&amp;B85</f>
         <v>WB - XII - English</v>
@@ -13755,7 +13755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A86" s="21" t="str">
         <f>D86&amp;" - "&amp;C86&amp;" - "&amp;B86</f>
         <v>WB - XII - Bengali</v>
@@ -13898,7 +13898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A87" s="21" t="str">
         <f>D87&amp;" - "&amp;C87&amp;" - "&amp;B87</f>
         <v>WB - XII - Hindi</v>
@@ -14041,7 +14041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A88" s="21" t="str">
         <f>D88&amp;" - "&amp;C88&amp;" - "&amp;B88</f>
         <v>WB - XII - History</v>
@@ -14184,7 +14184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A89" s="21" t="str">
         <f t="shared" ref="A89" si="140">D89&amp;" - "&amp;C89&amp;" - "&amp;B89</f>
         <v>WB - XII - Geography</v>
@@ -14327,7 +14327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A90" s="21" t="str">
         <f>D90&amp;" - "&amp;C90&amp;" - "&amp;B90</f>
         <v>WB - XII - Political Science</v>
@@ -14470,7 +14470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A91" s="21" t="str">
         <f>D91&amp;" - "&amp;C91&amp;" - "&amp;B91</f>
         <v>WB - XII - Sociology</v>
@@ -14613,7 +14613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A92" s="21" t="str">
         <f>D92&amp;" - "&amp;C92&amp;" - "&amp;B92</f>
         <v>WB - XII - Philosophy</v>
@@ -14756,7 +14756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A93" s="21" t="str">
         <f t="shared" ref="A93:A100" si="141">D93&amp;" - "&amp;C93&amp;" - "&amp;B93</f>
         <v>WB - XII - Accounting</v>
@@ -14899,7 +14899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A94" s="21" t="str">
         <f t="shared" si="141"/>
         <v>WB - XII - Business Studies</v>
@@ -15042,7 +15042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A95" s="21" t="str">
         <f t="shared" si="141"/>
         <v>WB - XII - Costing &amp; Taxation</v>
@@ -15185,7 +15185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A96" s="21" t="str">
         <f t="shared" si="141"/>
         <v>WB - XII - Business Law</v>
@@ -15328,7 +15328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A97" s="21" t="str">
         <f t="shared" si="141"/>
         <v>WB - XII - Maths (Comm)</v>
@@ -15471,7 +15471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A98" s="21" t="str">
         <f t="shared" si="141"/>
         <v>WB - XII - Stats</v>
@@ -15614,7 +15614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A99" s="21" t="str">
         <f t="shared" si="141"/>
         <v>WB - XII - Economics</v>
@@ -15757,7 +15757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A100" s="21" t="str">
         <f t="shared" si="141"/>
         <v>WB - XII - Eco Geography</v>
@@ -15900,7 +15900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A101" s="21" t="str">
         <f t="shared" ref="A101:A133" si="150">D101&amp;" - "&amp;C101&amp;" - "&amp;B101</f>
         <v>WB - XII - Computers</v>
@@ -16043,7 +16043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A102" s="21" t="str">
         <f t="shared" si="150"/>
         <v>WB - XII - AI</v>
@@ -16186,7 +16186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A103" s="21" t="str">
         <f t="shared" si="150"/>
         <v>WB - XI - English</v>
@@ -16329,7 +16329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A104" s="21" t="str">
         <f t="shared" si="150"/>
         <v>WB - XI - Bengali</v>
@@ -16472,7 +16472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A105" s="21" t="str">
         <f t="shared" si="150"/>
         <v>WB - XI - Hindi</v>
@@ -16615,7 +16615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A106" s="21" t="str">
         <f t="shared" si="150"/>
         <v>WB - XI - History</v>
@@ -16758,7 +16758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A107" s="21" t="str">
         <f t="shared" si="150"/>
         <v>WB - XI - Geography</v>
@@ -16901,7 +16901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A108" s="21" t="str">
         <f t="shared" si="150"/>
         <v>WB - XI - Political Science</v>
@@ -17044,7 +17044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A109" s="21" t="str">
         <f t="shared" si="150"/>
         <v>WB - XI - Sociology</v>
@@ -17187,7 +17187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A110" s="21" t="str">
         <f t="shared" si="150"/>
         <v>WB - XI - Philosophy</v>
@@ -17330,7 +17330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A111" s="21" t="str">
         <f t="shared" si="150"/>
         <v>WB - XI - Accounting</v>
@@ -17473,7 +17473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A112" s="21" t="str">
         <f t="shared" si="150"/>
         <v>WB - XI - Business Studies</v>
@@ -17616,7 +17616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A113" s="21" t="str">
         <f t="shared" si="150"/>
         <v>WB - XI - Costing &amp; Taxation</v>
@@ -17759,7 +17759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A114" s="21" t="str">
         <f t="shared" si="150"/>
         <v>WB - XI - Business Law</v>
@@ -17902,7 +17902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A115" s="21" t="str">
         <f t="shared" si="150"/>
         <v>WB - XI - Maths (Comm)</v>
@@ -18045,7 +18045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A116" s="21" t="str">
         <f t="shared" si="150"/>
         <v>WB - XI - Stats</v>
@@ -18188,7 +18188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A117" s="21" t="str">
         <f t="shared" si="150"/>
         <v>WB - XI - Economics</v>
@@ -18331,7 +18331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A118" s="21" t="str">
         <f t="shared" si="150"/>
         <v>WB - XI - Eco Geography</v>
@@ -18474,7 +18474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A119" s="21" t="str">
         <f t="shared" si="150"/>
         <v>WB - XI - Computers</v>
@@ -18617,7 +18617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A120" s="21" t="str">
         <f t="shared" si="150"/>
         <v>WB - XI - AI</v>
@@ -18760,7 +18760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A121" s="21" t="str">
         <f t="shared" si="150"/>
         <v>WB - X - English</v>
@@ -18903,7 +18903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A122" s="21" t="str">
         <f t="shared" si="150"/>
         <v>WB - X - Bengali</v>
@@ -19046,7 +19046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A123" s="21" t="str">
         <f t="shared" ref="A123" si="175">D123&amp;" - "&amp;C123&amp;" - "&amp;B123</f>
         <v>WB - X - History</v>
@@ -19189,7 +19189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A124" s="21" t="str">
         <f t="shared" si="150"/>
         <v>WB - X - Hindi</v>
@@ -19332,7 +19332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A125" s="21" t="str">
         <f t="shared" si="150"/>
         <v>WB - X - Geography</v>
@@ -19475,7 +19475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A126" s="21" t="str">
         <f t="shared" si="150"/>
         <v>WB - X - Physical Science</v>
@@ -19618,7 +19618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A127" s="21" t="str">
         <f t="shared" si="150"/>
         <v>WB - X - Life Science</v>
@@ -19761,7 +19761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A128" s="21" t="str">
         <f t="shared" si="150"/>
         <v>WB - X - Maths</v>
@@ -19904,7 +19904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A129" s="21" t="str">
         <f t="shared" si="150"/>
         <v>WB - X - Book Keeping</v>
@@ -20047,7 +20047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A130" s="21" t="str">
         <f t="shared" si="150"/>
         <v>WB - X - Business Studies</v>
@@ -20190,7 +20190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A131" s="21" t="str">
         <f t="shared" si="150"/>
         <v>WB - X - Computers</v>
@@ -20333,7 +20333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A132" s="21" t="str">
         <f t="shared" si="150"/>
         <v>WB - X - AI</v>
@@ -20476,7 +20476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A133" s="21" t="str">
         <f t="shared" si="150"/>
         <v>WB - IX - English</v>
@@ -20619,7 +20619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A134" s="21" t="str">
         <f t="shared" ref="A134:A151" si="226">D134&amp;" - "&amp;C134&amp;" - "&amp;B134</f>
         <v>WB - IX - Bengali</v>
@@ -20762,7 +20762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A135" s="21" t="str">
         <f t="shared" si="226"/>
         <v>WB - IX - Hindi</v>
@@ -20905,7 +20905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A136" s="21" t="str">
         <f t="shared" si="226"/>
         <v>WB - IX - History</v>
@@ -21048,7 +21048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A137" s="21" t="str">
         <f t="shared" si="226"/>
         <v>WB - IX - Geography</v>
@@ -21191,7 +21191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A138" s="21" t="str">
         <f t="shared" si="226"/>
         <v>WB - IX - Physical Science</v>
@@ -21334,7 +21334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A139" s="21" t="str">
         <f t="shared" si="226"/>
         <v>WB - IX - Life Science</v>
@@ -21477,7 +21477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A140" s="21" t="str">
         <f t="shared" si="226"/>
         <v>WB - IX - Maths</v>
@@ -21620,7 +21620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A141" s="21" t="str">
         <f t="shared" si="226"/>
         <v>WB - IX - Book Keeping</v>
@@ -21763,7 +21763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A142" s="21" t="str">
         <f t="shared" si="226"/>
         <v>WB - IX - Business Studies</v>
@@ -21906,7 +21906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A143" s="21" t="str">
         <f t="shared" si="226"/>
         <v>WB - IX - Computers</v>
@@ -22049,7 +22049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A144" s="21" t="str">
         <f t="shared" si="226"/>
         <v>WB - IX - AI</v>
@@ -22192,7 +22192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A145" s="21" t="str">
         <f t="shared" si="226"/>
         <v>WB - VIII - English</v>
@@ -22335,7 +22335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A146" s="21" t="str">
         <f t="shared" si="226"/>
         <v>WB - VIII - Bengali</v>
@@ -22478,7 +22478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A147" s="21" t="str">
         <f t="shared" si="226"/>
         <v>WB - VIII - Hindi</v>
@@ -22621,7 +22621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A148" s="21" t="str">
         <f t="shared" si="226"/>
         <v>WB - VIII - History</v>
@@ -22764,7 +22764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A149" s="21" t="str">
         <f t="shared" si="226"/>
         <v>WB - VIII - Geography</v>
@@ -22907,7 +22907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A150" s="21" t="str">
         <f t="shared" si="226"/>
         <v>WB - VIII - Physical Science</v>
@@ -23050,7 +23050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A151" s="21" t="str">
         <f t="shared" si="226"/>
         <v>WB - VIII - Maths</v>
@@ -23193,7 +23193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A152" s="24" t="str">
         <f t="shared" si="95"/>
         <v>CBSE - XII - English</v>
@@ -23336,7 +23336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A153" s="24" t="str">
         <f t="shared" si="95"/>
         <v>CBSE - XII - Bengali</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A154" s="24" t="str">
         <f t="shared" si="95"/>
         <v>CBSE - XII - Hindi</v>
@@ -23622,7 +23622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A155" s="24" t="str">
         <f t="shared" si="95"/>
         <v>CBSE - XII - History</v>
@@ -23765,7 +23765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A156" s="24" t="str">
         <f t="shared" si="95"/>
         <v>CBSE - XII - Geography</v>
@@ -23908,7 +23908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A157" s="24" t="str">
         <f t="shared" si="95"/>
         <v>CBSE - XII - Political Science</v>
@@ -24051,7 +24051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A158" s="24" t="str">
         <f t="shared" si="95"/>
         <v>CBSE - XII - Sociology</v>
@@ -24194,7 +24194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A159" s="24" t="str">
         <f t="shared" si="95"/>
         <v>CBSE - XII - Philosophy</v>
@@ -24337,7 +24337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A160" s="24" t="str">
         <f t="shared" si="95"/>
         <v>CBSE - XII - Accounting</v>
@@ -24480,7 +24480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A161" s="24" t="str">
         <f t="shared" si="95"/>
         <v>CBSE - XII - Economics</v>
@@ -24623,7 +24623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A162" s="24" t="str">
         <f t="shared" si="95"/>
         <v>CBSE - XII - Business Studies</v>
@@ -24766,7 +24766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A163" s="24" t="str">
         <f t="shared" si="95"/>
         <v>CBSE - XII - Info Practices</v>
@@ -24909,7 +24909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A164" s="24" t="str">
         <f t="shared" si="95"/>
         <v>CBSE - XII - Legal Studies</v>
@@ -25052,7 +25052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A165" s="24" t="str">
         <f t="shared" si="95"/>
         <v>CBSE - XII - Maths (Comm)</v>
@@ -25195,7 +25195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A166" s="24" t="str">
         <f>D166&amp;" - "&amp;C166&amp;" - "&amp;B166</f>
         <v>CBSE - XII - Computers</v>
@@ -25338,7 +25338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A167" s="24" t="str">
         <f>D167&amp;" - "&amp;C167&amp;" - "&amp;B167</f>
         <v>CBSE - XII - AI</v>
@@ -25481,7 +25481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A168" s="24" t="str">
         <f t="shared" ref="A168:A181" si="276">D168&amp;" - "&amp;C168&amp;" - "&amp;B168</f>
         <v>CBSE - XI - English</v>
@@ -25624,7 +25624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A169" s="24" t="str">
         <f t="shared" si="276"/>
         <v>CBSE - XI - Bengali</v>
@@ -25767,7 +25767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A170" s="24" t="str">
         <f t="shared" si="276"/>
         <v>CBSE - XI - Hindi</v>
@@ -25910,7 +25910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A171" s="24" t="str">
         <f t="shared" si="276"/>
         <v>CBSE - XI - History</v>
@@ -26053,7 +26053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A172" s="24" t="str">
         <f t="shared" si="276"/>
         <v>CBSE - XI - Geography</v>
@@ -26196,7 +26196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A173" s="24" t="str">
         <f t="shared" si="276"/>
         <v>CBSE - XI - Political Science</v>
@@ -26339,7 +26339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A174" s="24" t="str">
         <f t="shared" si="276"/>
         <v>CBSE - XI - Sociology</v>
@@ -26482,7 +26482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A175" s="24" t="str">
         <f t="shared" si="276"/>
         <v>CBSE - XI - Philosophy</v>
@@ -26625,7 +26625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A176" s="24" t="str">
         <f t="shared" si="276"/>
         <v>CBSE - XI - Accounting</v>
@@ -26768,7 +26768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A177" s="24" t="str">
         <f t="shared" si="276"/>
         <v>CBSE - XI - Economics</v>
@@ -26911,7 +26911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A178" s="24" t="str">
         <f t="shared" si="276"/>
         <v>CBSE - XI - Business Studies</v>
@@ -27054,7 +27054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A179" s="24" t="str">
         <f t="shared" si="276"/>
         <v>CBSE - XI - Info Practices</v>
@@ -27197,7 +27197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A180" s="24" t="str">
         <f t="shared" si="276"/>
         <v>CBSE - XI - Legal Studies</v>
@@ -27340,7 +27340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A181" s="24" t="str">
         <f t="shared" si="276"/>
         <v>CBSE - XI - Maths (Comm)</v>
@@ -27483,7 +27483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A182" s="24" t="str">
         <f>D182&amp;" - "&amp;C182&amp;" - "&amp;B182</f>
         <v>CBSE - XI - Computers</v>
@@ -27626,7 +27626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A183" s="24" t="str">
         <f>D183&amp;" - "&amp;C183&amp;" - "&amp;B183</f>
         <v>CBSE - XI - AI</v>
@@ -27769,7 +27769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A184" s="24" t="str">
         <f>D184&amp;" - "&amp;C184&amp;" - "&amp;B184</f>
         <v>CBSE - X - English</v>
@@ -27912,7 +27912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A185" s="24" t="str">
         <f t="shared" ref="A185:A211" si="304">D185&amp;" - "&amp;C185&amp;" - "&amp;B185</f>
         <v>CBSE - X - Bengali</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A186" s="24" t="str">
         <f t="shared" si="304"/>
         <v>CBSE - X - Hindi</v>
@@ -28198,7 +28198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A187" s="24" t="str">
         <f>D187&amp;" - "&amp;C187&amp;" - "&amp;B187</f>
         <v>CBSE - X - SST, Hist, Geog, Eco, Civics</v>
@@ -28341,7 +28341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A188" s="24" t="str">
         <f>D188&amp;" - "&amp;C188&amp;" - "&amp;B188</f>
         <v>CBSE - X - Maths</v>
@@ -28484,7 +28484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A189" s="24" t="str">
         <f t="shared" si="304"/>
         <v>CBSE - X - Science, Physics</v>
@@ -28627,7 +28627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A190" s="24" t="str">
         <f t="shared" si="304"/>
         <v>CBSE - X - Science, Chemistry</v>
@@ -28770,7 +28770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A191" s="24" t="str">
         <f t="shared" si="304"/>
         <v>CBSE - X - Science, Biology</v>
@@ -28913,7 +28913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A192" s="24" t="str">
         <f t="shared" si="304"/>
         <v>CBSE - X - Computers</v>
@@ -29056,7 +29056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A193" s="24" t="str">
         <f t="shared" si="304"/>
         <v>CBSE - X - AI</v>
@@ -29199,7 +29199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A194" s="24" t="str">
         <f>D194&amp;" - "&amp;C194&amp;" - "&amp;B194</f>
         <v>CBSE - IX - English</v>
@@ -29342,7 +29342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A195" s="24" t="str">
         <f t="shared" ref="A195:A196" si="334">D195&amp;" - "&amp;C195&amp;" - "&amp;B195</f>
         <v>CBSE - IX - Bengali</v>
@@ -29485,7 +29485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A196" s="24" t="str">
         <f t="shared" si="334"/>
         <v>CBSE - IX - Hindi</v>
@@ -29628,7 +29628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A197" s="24" t="str">
         <f>D197&amp;" - "&amp;C197&amp;" - "&amp;B197</f>
         <v>CBSE - IX - SST, Hist, Geog, Eco, Civics</v>
@@ -29771,7 +29771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A198" s="24" t="str">
         <f>D198&amp;" - "&amp;C198&amp;" - "&amp;B198</f>
         <v>CBSE - IX - Maths</v>
@@ -29914,7 +29914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A199" s="24" t="str">
         <f t="shared" ref="A199:A203" si="342">D199&amp;" - "&amp;C199&amp;" - "&amp;B199</f>
         <v>CBSE - IX - Science, Physics</v>
@@ -30057,7 +30057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A200" s="24" t="str">
         <f t="shared" si="342"/>
         <v>CBSE - IX - Science, Chemistry</v>
@@ -30200,7 +30200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A201" s="24" t="str">
         <f t="shared" si="342"/>
         <v>CBSE - IX - Science, Biology</v>
@@ -30343,7 +30343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A202" s="24" t="str">
         <f t="shared" si="342"/>
         <v>CBSE - IX - Computers</v>
@@ -30486,7 +30486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A203" s="24" t="str">
         <f t="shared" si="342"/>
         <v>CBSE - IX - AI</v>
@@ -30629,7 +30629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A204" s="24" t="str">
         <f t="shared" si="304"/>
         <v>CBSE - VIII - English</v>
@@ -30772,7 +30772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A205" s="24" t="str">
         <f t="shared" si="304"/>
         <v>CBSE - VIII - Bengali</v>
@@ -30915,7 +30915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A206" s="24" t="str">
         <f t="shared" si="304"/>
         <v>CBSE - VIII - Hindi</v>
@@ -31058,7 +31058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A207" s="24" t="str">
         <f>D207&amp;" - "&amp;C207&amp;" - "&amp;B207</f>
         <v>CBSE - VIII - Social Science</v>
@@ -31201,7 +31201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A208" s="24" t="str">
         <f t="shared" si="304"/>
         <v>CBSE - VIII - Maths</v>
@@ -31344,7 +31344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A209" s="24" t="str">
         <f t="shared" si="304"/>
         <v>CBSE - VIII - Science - Physics, Chem</v>
@@ -31487,7 +31487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A210" s="24" t="str">
         <f t="shared" ref="A210" si="368">D210&amp;" - "&amp;C210&amp;" - "&amp;B210</f>
         <v>CBSE - VIII - Science - Bio</v>
@@ -31630,7 +31630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A211" s="24" t="str">
         <f t="shared" si="304"/>
         <v>CBSE - VIII - Computers</v>
@@ -31773,7 +31773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A212" s="12" t="str">
         <f>C212&amp;" - "&amp;B212</f>
         <v>B.Com. (H) - Adv Accounting I</v>
@@ -31916,7 +31916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A213" s="12" t="str">
         <f t="shared" ref="A213:A221" si="376">C213&amp;" - "&amp;B213</f>
         <v>B.Com. (H) - Adv Accounting II</v>
@@ -32059,7 +32059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A214" s="12" t="str">
         <f t="shared" si="376"/>
         <v>B.Com. (H) - Adv Accounting III</v>
@@ -32202,7 +32202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A215" s="12" t="str">
         <f t="shared" si="376"/>
         <v>B.Com. (H) - Cost &amp; Mgmt Ac I</v>
@@ -32345,7 +32345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A216" s="12" t="str">
         <f t="shared" si="376"/>
         <v>B.Com. (H) - Cost &amp; Mgmt Ac II</v>
@@ -32488,7 +32488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A217" s="12" t="str">
         <f t="shared" si="376"/>
         <v>B.Com. (H) - In/Direct Tax I</v>
@@ -32631,7 +32631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A218" s="12" t="str">
         <f t="shared" si="376"/>
         <v>B.Com. (H) - In/Direct Tax II</v>
@@ -32774,7 +32774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A219" s="12" t="str">
         <f t="shared" si="376"/>
         <v>B.Com. (H) - Financial Mgmt</v>
@@ -32917,7 +32917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A220" s="12" t="str">
         <f t="shared" si="376"/>
         <v>B.Com. (H) - Fin Rpt &amp; Stmt Anlys</v>
@@ -33060,7 +33060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A221" s="12" t="str">
         <f t="shared" si="376"/>
         <v>B.Com. (H) - Audit &amp; Assurance</v>
@@ -33203,7 +33203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A222" s="12" t="str">
         <f>C222&amp;" - "&amp;B222</f>
         <v>B.Com. - Micro Economics</v>
@@ -33346,7 +33346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A223" s="12" t="str">
         <f t="shared" ref="A223:A267" si="400">C223&amp;" - "&amp;B223</f>
         <v>B.Com. - Macro Economics</v>
@@ -33489,7 +33489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A224" s="12" t="str">
         <f t="shared" si="400"/>
         <v>B.Com. - Development Eco</v>
@@ -33632,7 +33632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A225" s="12" t="str">
         <f t="shared" si="400"/>
         <v>B.Com. - Business Management I</v>
@@ -33775,7 +33775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A226" s="12" t="str">
         <f t="shared" si="400"/>
         <v>B.Com. - Business Management II</v>
@@ -33918,7 +33918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A227" s="12" t="str">
         <f t="shared" si="400"/>
         <v>B.Com. - HRM</v>
@@ -34061,7 +34061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A228" s="12" t="str">
         <f t="shared" si="400"/>
         <v>B.Com. - Business Mathematics</v>
@@ -34204,7 +34204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A229" s="12" t="str">
         <f t="shared" si="400"/>
         <v>B.Com. - Business Statistics</v>
@@ -34347,7 +34347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A230" s="12" t="str">
         <f t="shared" si="400"/>
         <v>B.Com. - Business Law</v>
@@ -34490,7 +34490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A231" s="12" t="str">
         <f t="shared" si="400"/>
         <v>B.Com. - Company Law</v>
@@ -34633,7 +34633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A232" s="12" t="str">
         <f t="shared" si="400"/>
         <v>B.Com. - Enterpreneurship</v>
@@ -34776,7 +34776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A233" s="12" t="str">
         <f t="shared" si="400"/>
         <v>B.Com. - Environmantal Studies</v>
@@ -34919,7 +34919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A234" s="12" t="str">
         <f t="shared" si="400"/>
         <v>B.Com. - Business Comm</v>
@@ -35062,7 +35062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A235" s="12" t="str">
         <f t="shared" si="400"/>
         <v>B.Com. - E-Commerce</v>
@@ -35205,7 +35205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A236" s="12" t="str">
         <f t="shared" si="400"/>
         <v>B.Com. - IT App in Business</v>
@@ -35348,7 +35348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A237" s="12" t="str">
         <f t="shared" si="400"/>
         <v>B.Com. - Comp Ac &amp; Tax eFiling</v>
@@ -35491,7 +35491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A238" s="12" t="str">
         <f t="shared" si="400"/>
         <v>B.B.A. - English</v>
@@ -35634,7 +35634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A239" s="12" t="str">
         <f t="shared" si="400"/>
         <v>B.B.A. - Business Comm</v>
@@ -35777,7 +35777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A240" s="12" t="str">
         <f t="shared" si="400"/>
         <v>B.B.A. - Essentials of Math</v>
@@ -35920,7 +35920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A241" s="12" t="str">
         <f t="shared" si="400"/>
         <v>B.B.A. - Essentials of Stats</v>
@@ -36063,7 +36063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A242" s="12" t="str">
         <f t="shared" si="400"/>
         <v>B.B.A. - Advanced Math &amp; Stats</v>
@@ -36206,7 +36206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A243" s="12" t="str">
         <f t="shared" si="400"/>
         <v>B.B.A. - Computer Applications</v>
@@ -36349,7 +36349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A244" s="12" t="str">
         <f t="shared" si="400"/>
         <v>B.B.A. - Micro Economics</v>
@@ -36492,7 +36492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A245" s="12" t="str">
         <f t="shared" si="400"/>
         <v>B.B.A. - Macro Economics</v>
@@ -36635,7 +36635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A246" s="12" t="str">
         <f t="shared" si="400"/>
         <v>B.B.A. - Organizational Behavior</v>
@@ -36778,7 +36778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A247" s="12" t="str">
         <f t="shared" si="400"/>
         <v>B.B.A. - Social Structure &amp; Ethics</v>
@@ -36921,7 +36921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A248" s="12" t="str">
         <f t="shared" si="400"/>
         <v>B.B.A. - Principles of Mgmt</v>
@@ -37064,7 +37064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A249" s="12" t="str">
         <f t="shared" si="400"/>
         <v>B.B.A. - Managerial Economics</v>
@@ -37207,7 +37207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A250" s="12" t="str">
         <f t="shared" si="400"/>
         <v>B.B.A. - Business Laws</v>
@@ -37350,7 +37350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A251" s="12" t="str">
         <f t="shared" si="400"/>
         <v>B.B.A. - Financial Accounting</v>
@@ -37493,7 +37493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A252" s="12" t="str">
         <f t="shared" si="400"/>
         <v>B.B.A. - Environment Studies</v>
@@ -37636,7 +37636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A253" s="12" t="str">
         <f t="shared" si="400"/>
         <v>B.B.A. - Prod &amp; Materials Mgmt</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A254" s="12" t="str">
         <f t="shared" si="400"/>
         <v>B.B.A. - Mgmt Info System</v>
@@ -37922,7 +37922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A255" s="12" t="str">
         <f t="shared" si="400"/>
         <v>B.B.A. - Cost Accounting</v>
@@ -38065,7 +38065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A256" s="12" t="str">
         <f t="shared" si="400"/>
         <v>B.B.A. - Marketing Management</v>
@@ -38208,7 +38208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A257" s="12" t="str">
         <f t="shared" si="400"/>
         <v>B.B.A. - HRM</v>
@@ -38351,7 +38351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A258" s="12" t="str">
         <f t="shared" si="400"/>
         <v>B.B.A. - Financial Management</v>
@@ -38494,7 +38494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A259" s="12" t="str">
         <f t="shared" si="400"/>
         <v>B.B.A. - Sales &amp; Distribn Mgmt</v>
@@ -38637,7 +38637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A260" s="12" t="str">
         <f t="shared" si="400"/>
         <v>B.B.A. - HR Development</v>
@@ -38780,7 +38780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A261" s="12" t="str">
         <f t="shared" si="400"/>
         <v>B.B.A. - Enterpreneurship Dev</v>
@@ -38923,7 +38923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A262" s="12" t="str">
         <f t="shared" si="400"/>
         <v>B.B.A. - Research Methodology</v>
@@ -39066,7 +39066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A263" s="12" t="str">
         <f t="shared" si="400"/>
         <v>B.B.A. - Mgmt Accounting</v>
@@ -39209,7 +39209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A264" s="12" t="str">
         <f t="shared" si="400"/>
         <v>B.B.A. - Ad &amp; Sales Promotion</v>
@@ -39352,7 +39352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A265" s="12" t="str">
         <f t="shared" si="400"/>
         <v>B.B.A. - Industrial Relations</v>
@@ -39495,7 +39495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A266" s="12" t="str">
         <f t="shared" si="400"/>
         <v>B.B.A. - Public Service Mgmt</v>
@@ -39638,7 +39638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A267" s="12" t="str">
         <f t="shared" si="400"/>
         <v>B.B.A. - Project and Viva</v>
@@ -39781,7 +39781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A268" s="20" t="str">
         <f>D268&amp;" - "&amp;C268&amp;" - "&amp;B268</f>
         <v>C.A. - Found - Accountancy</v>
@@ -39924,7 +39924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A269" s="20" t="str">
         <f t="shared" ref="A269:A332" si="426">D269&amp;" - "&amp;C269&amp;" - "&amp;B269</f>
         <v>C.A. - Found - Biz laws &amp; Corspndnce</v>
@@ -40021,7 +40021,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="270" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A270" s="20" t="str">
         <f t="shared" si="426"/>
         <v>C.A. - Found - Biz Math &amp; Stat</v>
@@ -40118,7 +40118,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="271" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A271" s="20" t="str">
         <f t="shared" si="426"/>
         <v>C.A. - Found - Eco &amp; Comm Knwldge</v>
@@ -40213,7 +40213,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="272" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A272" s="20" t="str">
         <f t="shared" si="426"/>
         <v>C.A. - Inter - Accountancy</v>
@@ -40356,7 +40356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A273" s="20" t="str">
         <f t="shared" si="426"/>
         <v>C.A. - Inter - Corp &amp; other Laws</v>
@@ -40443,7 +40443,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="274" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A274" s="20" t="str">
         <f t="shared" si="426"/>
         <v>C.A. - Inter - Cost &amp; Mgmt Ac</v>
@@ -40530,7 +40530,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="275" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A275" s="20" t="str">
         <f t="shared" si="426"/>
         <v>C.A. - Inter - Tax</v>
@@ -40615,7 +40615,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="276" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A276" s="20" t="str">
         <f t="shared" si="426"/>
         <v>C.A. - Inter - Audit</v>
@@ -40700,7 +40700,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="277" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A277" s="20" t="str">
         <f t="shared" si="426"/>
         <v>C.A. - Inter - Adv Ac</v>
@@ -40787,7 +40787,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="278" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A278" s="20" t="str">
         <f t="shared" si="426"/>
         <v>C.A. - Inter - EIS &amp; Strategic Mgmt</v>
@@ -40874,7 +40874,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="279" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A279" s="20" t="str">
         <f t="shared" si="426"/>
         <v>C.A. - Inter - Fin Mgmt &amp; Eco</v>
@@ -40959,7 +40959,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="280" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A280" s="20" t="str">
         <f t="shared" si="426"/>
         <v>C.A. - Final - Fin Reporting</v>
@@ -41102,7 +41102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A281" s="20" t="str">
         <f t="shared" si="426"/>
         <v>C.A. - Final - Strategic Fin Mgmt</v>
@@ -41189,7 +41189,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="282" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A282" s="20" t="str">
         <f t="shared" si="426"/>
         <v>C.A. - Final - Audit &amp; Ethics</v>
@@ -41274,7 +41274,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="283" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A283" s="20" t="str">
         <f t="shared" si="426"/>
         <v>C.A. - Final - Corporate &amp; Eco Laws</v>
@@ -41361,7 +41361,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="284" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A284" s="20" t="str">
         <f t="shared" si="426"/>
         <v>C.A. - Final - Strategic Cost &amp; Perf Eval</v>
@@ -41448,7 +41448,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="285" spans="1:40" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:40" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A285" s="20" t="str">
         <f t="shared" si="426"/>
         <v>C.A. - Final - Risk, Cptl Mkt, Glbl FnRpt</v>
@@ -41533,7 +41533,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="286" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A286" s="20" t="str">
         <f t="shared" si="426"/>
         <v>C.A. - Final - Direct Tax &amp; Intrtnl Tax</v>
@@ -41620,7 +41620,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="287" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A287" s="20" t="str">
         <f t="shared" si="426"/>
         <v>C.A. - Final - Indirect Tax laws</v>
@@ -41707,7 +41707,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="288" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A288" s="32" t="str">
         <f t="shared" si="426"/>
         <v>C.M.A. - Found - Bizz laws &amp; comm</v>
@@ -41848,7 +41848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A289" s="32" t="str">
         <f t="shared" si="426"/>
         <v>C.M.A. - Found - Fin &amp; Cost Ac</v>
@@ -41933,7 +41933,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="290" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A290" s="32" t="str">
         <f t="shared" si="426"/>
         <v>C.M.A. - Found - Bizz math &amp; Stat</v>
@@ -42018,7 +42018,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="291" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A291" s="32" t="str">
         <f t="shared" si="426"/>
         <v>C.M.A. - Found - Bizz Eco &amp; Math</v>
@@ -42103,7 +42103,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="292" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A292" s="32" t="str">
         <f t="shared" si="426"/>
         <v>C.M.A. - Inter - Biz Law &amp; Ethics</v>
@@ -42244,7 +42244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A293" s="32" t="str">
         <f t="shared" si="426"/>
         <v>C.M.A. - Inter - Fin Ac</v>
@@ -42329,7 +42329,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="294" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A294" s="32" t="str">
         <f t="shared" si="426"/>
         <v>C.M.A. - Inter - Direct Indirect Tax</v>
@@ -42414,7 +42414,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="295" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A295" s="32" t="str">
         <f t="shared" si="426"/>
         <v>C.M.A. - Inter - Cost AC</v>
@@ -42499,7 +42499,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="296" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A296" s="32" t="str">
         <f t="shared" si="426"/>
         <v>C.M.A. - Inter - Ops &amp; Mgmt Strategic</v>
@@ -42584,7 +42584,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="297" spans="1:40" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:40" ht="24" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A297" s="32" t="str">
         <f t="shared" si="426"/>
         <v>C.M.A. - Inter - Corporate AC &amp; Auditing</v>
@@ -42669,7 +42669,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="298" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A298" s="32" t="str">
         <f t="shared" si="426"/>
         <v>C.M.A. - Inter - Fin Mgmt-Data Anltcs</v>
@@ -42754,7 +42754,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="299" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A299" s="32" t="str">
         <f t="shared" si="426"/>
         <v>C.M.A. - Inter - Mgmt AC</v>
@@ -42839,7 +42839,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="300" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A300" s="32" t="str">
         <f t="shared" si="426"/>
         <v>C.M.A. - Final - Corporate &amp; Eco Laws</v>
@@ -42980,7 +42980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A301" s="32" t="str">
         <f t="shared" si="426"/>
         <v>C.M.A. - Final - Strategic Fin Mgmt</v>
@@ -43065,7 +43065,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="302" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A302" s="32" t="str">
         <f t="shared" si="426"/>
         <v>C.M.A. - Final - Direct &amp; Intrntnl Tax</v>
@@ -43150,7 +43150,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="303" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A303" s="32" t="str">
         <f t="shared" si="426"/>
         <v>C.M.A. - Final - Strategic Cost Mgmt</v>
@@ -43235,7 +43235,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="304" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A304" s="32" t="str">
         <f t="shared" si="426"/>
         <v>C.M.A. - Final - Cost &amp; Mgmt Audit</v>
@@ -43320,7 +43320,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="305" spans="1:40" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:40" ht="24" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A305" s="32" t="str">
         <f t="shared" si="426"/>
         <v>C.M.A. - Final - Corporate Fin Reporting</v>
@@ -43405,7 +43405,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="306" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A306" s="32" t="str">
         <f t="shared" si="426"/>
         <v>C.M.A. - Final - Indirect Tax</v>
@@ -43490,7 +43490,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="307" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A307" s="32" t="str">
         <f t="shared" si="426"/>
         <v>C.M.A. - Final - Strt Perf Mgmt &amp; Eval</v>
@@ -43575,7 +43575,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="308" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A308" s="20" t="str">
         <f t="shared" si="426"/>
         <v>C.S. - Found - Biz Env &amp; Law</v>
@@ -43716,7 +43716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A309" s="20" t="str">
         <f t="shared" si="426"/>
         <v>C.S. - Found - Biz Mgmt, Ethics, Entsp</v>
@@ -43797,7 +43797,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="310" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A310" s="20" t="str">
         <f t="shared" si="426"/>
         <v>C.S. - Found - Biz Eco</v>
@@ -43878,7 +43878,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="311" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A311" s="20" t="str">
         <f t="shared" si="426"/>
         <v>C.S. - Found - Ac &amp; Audit</v>
@@ -43959,7 +43959,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="312" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A312" s="20" t="str">
         <f t="shared" si="426"/>
         <v>C.S. - Inter - General Law</v>
@@ -44100,7 +44100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A313" s="20" t="str">
         <f t="shared" si="426"/>
         <v>C.S. - Inter - Company Law</v>
@@ -44181,7 +44181,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="314" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A314" s="20" t="str">
         <f t="shared" si="426"/>
         <v>C.S. - Inter - Set up of Biz &amp; Closure</v>
@@ -44262,7 +44262,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="315" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A315" s="20" t="str">
         <f t="shared" si="426"/>
         <v>C.S. - Inter - Tax Law</v>
@@ -44343,7 +44343,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="316" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A316" s="20" t="str">
         <f t="shared" si="426"/>
         <v>C.S. - Inter - Corporate &amp; Mgmt AC</v>
@@ -44424,7 +44424,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="317" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A317" s="20" t="str">
         <f t="shared" si="426"/>
         <v>C.S. - Inter - Securities Law &amp; Cptl Mkt</v>
@@ -44505,7 +44505,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="318" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A318" s="20" t="str">
         <f t="shared" si="426"/>
         <v>C.S. - Inter - Eco, Biz &amp; Comm Law</v>
@@ -44586,7 +44586,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="319" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A319" s="20" t="str">
         <f t="shared" si="426"/>
         <v>C.S. - Inter - Fin &amp; Strategic Mgmt</v>
@@ -44667,7 +44667,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="320" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A320" s="20" t="str">
         <f t="shared" si="426"/>
         <v>C.S. - Final - Govrnc, Risk Mgmt, Ethics</v>
@@ -44808,7 +44808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A321" s="20" t="str">
         <f t="shared" si="426"/>
         <v>C.S. - Final - Adv Tax laws</v>
@@ -44889,7 +44889,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="322" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A322" s="20" t="str">
         <f t="shared" si="426"/>
         <v>C.S. - Final - Draft, Pleed &amp; Apprncs</v>
@@ -44970,7 +44970,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="323" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A323" s="20" t="str">
         <f t="shared" si="426"/>
         <v>C.S. - Final - Secretl Audit, Due Delgnc</v>
@@ -45051,7 +45051,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="324" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A324" s="20" t="str">
         <f t="shared" si="426"/>
         <v>C.S. - Final - Corp Restrct, Winding Up</v>
@@ -45132,7 +45132,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="325" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A325" s="20" t="str">
         <f t="shared" si="426"/>
         <v>C.S. - Final - Resln of Corp Disputes</v>
@@ -45213,7 +45213,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="326" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A326" s="20" t="str">
         <f t="shared" si="426"/>
         <v>C.S. - Final - Corp Fund &amp; Stock Listing</v>
@@ -45294,7 +45294,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="327" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A327" s="20" t="str">
         <f t="shared" si="426"/>
         <v>C.S. - Final - Multi Discp Case Studies</v>
@@ -45375,7 +45375,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="328" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A328" s="20" t="str">
         <f t="shared" si="426"/>
         <v>C.S. - Final - Intellectual Prpt Rights</v>
@@ -45456,7 +45456,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="329" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A329" s="32" t="str">
         <f t="shared" si="426"/>
         <v>C.F.A. - L-1 - Ethical &amp; Prof Standards</v>
@@ -45597,7 +45597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A330" s="32" t="str">
         <f t="shared" si="426"/>
         <v>C.F.A. - L-1 - Quantitive Methods</v>
@@ -45678,7 +45678,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="331" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A331" s="32" t="str">
         <f t="shared" si="426"/>
         <v>C.F.A. - L-1 - Economics</v>
@@ -45759,7 +45759,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="332" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A332" s="32" t="str">
         <f t="shared" si="426"/>
         <v>C.F.A. - L-1 - Fin Statement Analysis</v>
@@ -45840,7 +45840,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="333" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A333" s="32" t="str">
         <f t="shared" ref="A333:A358" si="445">D333&amp;" - "&amp;C333&amp;" - "&amp;B333</f>
         <v>C.F.A. - L-1 - Corporate Issuers</v>
@@ -45921,7 +45921,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="334" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A334" s="32" t="str">
         <f t="shared" si="445"/>
         <v>C.F.A. - L-1 - Equity Investments</v>
@@ -46002,7 +46002,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="335" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A335" s="32" t="str">
         <f t="shared" si="445"/>
         <v>C.F.A. - L-1 - Fixed Income</v>
@@ -46083,7 +46083,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="336" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A336" s="32" t="str">
         <f t="shared" si="445"/>
         <v>C.F.A. - L-1 - Derivatives</v>
@@ -46164,7 +46164,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="337" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A337" s="32" t="str">
         <f t="shared" si="445"/>
         <v>C.F.A. - L-1 - Alternative Investments</v>
@@ -46245,7 +46245,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="338" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A338" s="32" t="str">
         <f t="shared" si="445"/>
         <v>C.F.A. - L-1 - Portrfolio Mgmt &amp; Wealth</v>
@@ -46326,7 +46326,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="339" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A339" s="32" t="str">
         <f t="shared" si="445"/>
         <v>C.F.A. - L-2 - Ethical &amp; Prof Standards</v>
@@ -46467,7 +46467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A340" s="32" t="str">
         <f t="shared" si="445"/>
         <v>C.F.A. - L-2 - Quantitive Methods</v>
@@ -46548,7 +46548,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="341" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A341" s="32" t="str">
         <f t="shared" si="445"/>
         <v>C.F.A. - L-2 - Economics</v>
@@ -46629,7 +46629,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="342" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A342" s="32" t="str">
         <f t="shared" si="445"/>
         <v>C.F.A. - L-2 - Fin Statement Analysis</v>
@@ -46710,7 +46710,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="343" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A343" s="32" t="str">
         <f t="shared" si="445"/>
         <v>C.F.A. - L-2 - Corporate Issuers</v>
@@ -46791,7 +46791,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="344" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A344" s="32" t="str">
         <f t="shared" si="445"/>
         <v>C.F.A. - L-2 - Equity Investments</v>
@@ -46872,7 +46872,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="345" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A345" s="32" t="str">
         <f t="shared" si="445"/>
         <v>C.F.A. - L-2 - Fixed Income</v>
@@ -46953,7 +46953,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="346" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A346" s="32" t="str">
         <f t="shared" si="445"/>
         <v>C.F.A. - L-2 - Derivatives</v>
@@ -47034,7 +47034,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="347" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A347" s="32" t="str">
         <f t="shared" si="445"/>
         <v>C.F.A. - L-2 - Alternative Investments</v>
@@ -47115,7 +47115,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="348" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A348" s="32" t="str">
         <f t="shared" si="445"/>
         <v>C.F.A. - L-2 - Portrfolio Mgmt-Wealth</v>
@@ -47196,7 +47196,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="349" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A349" s="32" t="str">
         <f t="shared" si="445"/>
         <v>C.F.A. - L-3 - Ethical &amp; Prof Standards</v>
@@ -47337,7 +47337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A350" s="32" t="str">
         <f t="shared" si="445"/>
         <v>C.F.A. - L-3 - Quantitive Methods</v>
@@ -47418,7 +47418,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="351" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A351" s="32" t="str">
         <f t="shared" si="445"/>
         <v>C.F.A. - L-3 - Economics</v>
@@ -47499,7 +47499,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="352" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A352" s="32" t="str">
         <f t="shared" si="445"/>
         <v>C.F.A. - L-3 - Fin Statement Analysis</v>
@@ -47580,7 +47580,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="353" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A353" s="32" t="str">
         <f t="shared" si="445"/>
         <v>C.F.A. - L-3 - Corporate Issuers</v>
@@ -47661,7 +47661,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="354" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A354" s="32" t="str">
         <f t="shared" si="445"/>
         <v>C.F.A. - L-3 - Equity Investments</v>
@@ -47742,7 +47742,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="355" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A355" s="32" t="str">
         <f t="shared" si="445"/>
         <v>C.F.A. - L-3 - Fixed Income</v>
@@ -47823,7 +47823,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="356" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A356" s="32" t="str">
         <f t="shared" si="445"/>
         <v>C.F.A. - L-3 - Derivatives</v>
@@ -47904,7 +47904,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="357" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A357" s="32" t="str">
         <f t="shared" si="445"/>
         <v>C.F.A. - L-3 - Alternative Investments</v>
@@ -47985,7 +47985,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="358" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A358" s="32" t="str">
         <f t="shared" si="445"/>
         <v>C.F.A. - L-3 - Portrfolio Mgmt-Wealth</v>
@@ -48066,7 +48066,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="359" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A359" s="19" t="str">
         <f>B359</f>
         <v>Spoken English</v>
@@ -48211,7 +48211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A360" s="19" t="str">
         <f>B360</f>
         <v>Advanced Grooming</v>
@@ -48356,7 +48356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A361" s="19" t="str">
         <f t="shared" ref="A361:A364" si="455">B361</f>
         <v>IELTS</v>
@@ -48499,7 +48499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A362" s="19" t="str">
         <f t="shared" si="455"/>
         <v>TOEFL</v>
@@ -48642,7 +48642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A363" s="19" t="str">
         <f t="shared" si="455"/>
         <v>PTE</v>
@@ -48785,7 +48785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A364" s="19" t="str">
         <f t="shared" si="455"/>
         <v>GRE</v>
@@ -48928,7 +48928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A365" s="19" t="str">
         <f>B365</f>
         <v>Classroom2Boardroom</v>
@@ -49071,7 +49071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A366" s="19" t="str">
         <f t="shared" ref="A366:A367" si="456">B366</f>
         <v>Employee to Manager</v>
@@ -49214,7 +49214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A367" s="19" t="str">
         <f t="shared" si="456"/>
         <v>Executive Training</v>
@@ -49357,7 +49357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A368" s="13" t="str">
         <f t="shared" ref="A368:A394" si="457">B368</f>
         <v>MS Office</v>
@@ -49502,7 +49502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A369" s="13" t="str">
         <f t="shared" si="457"/>
         <v>Advanced Excel (VBA)</v>
@@ -49647,7 +49647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A370" s="13" t="str">
         <f t="shared" si="457"/>
         <v>C</v>
@@ -49792,7 +49792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A371" s="13" t="str">
         <f t="shared" si="457"/>
         <v>C++</v>
@@ -49937,7 +49937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A372" s="13" t="str">
         <f t="shared" si="457"/>
         <v>HTML, CSS, JavaScript</v>
@@ -50082,7 +50082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A373" s="13" t="str">
         <f t="shared" si="457"/>
         <v>Java</v>
@@ -50227,7 +50227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A374" s="13" t="str">
         <f t="shared" si="457"/>
         <v>Advanced Java</v>
@@ -50372,7 +50372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A375" s="13" t="str">
         <f t="shared" si="457"/>
         <v>.Net (C#, VB.Net)</v>
@@ -50517,7 +50517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A376" s="13" t="str">
         <f t="shared" si="457"/>
         <v>Advanced .Net</v>
@@ -50662,7 +50662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A377" s="13" t="str">
         <f t="shared" si="457"/>
         <v>Microsoft Azure Cloud</v>
@@ -50805,7 +50805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A378" s="13" t="str">
         <f t="shared" si="457"/>
         <v>React, MUI</v>
@@ -50950,7 +50950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A379" s="13" t="str">
         <f t="shared" si="457"/>
         <v>React Native</v>
@@ -51095,7 +51095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A380" s="13" t="str">
         <f t="shared" si="457"/>
         <v>PHP, Wordpress</v>
@@ -51240,7 +51240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A381" s="13" t="str">
         <f t="shared" si="457"/>
         <v>Linux, Shell Script</v>
@@ -51385,7 +51385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A382" s="13" t="str">
         <f t="shared" si="457"/>
         <v>Networking &amp; CCNA</v>
@@ -51528,7 +51528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A383" s="13" t="str">
         <f t="shared" si="457"/>
         <v>Hands-on Network H/W</v>
@@ -51673,7 +51673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A384" s="13" t="str">
         <f t="shared" si="457"/>
         <v>Devops</v>
@@ -51816,7 +51816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A385" s="13" t="str">
         <f t="shared" si="457"/>
         <v>Docker &amp; Kubernetes</v>
@@ -51959,7 +51959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A386" s="13" t="str">
         <f t="shared" si="457"/>
         <v>Cloud, AWS, GCP</v>
@@ -52102,7 +52102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A387" s="13" t="str">
         <f t="shared" si="457"/>
         <v>Cyber security Basics</v>
@@ -52245,7 +52245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A388" s="13" t="str">
         <f t="shared" si="457"/>
         <v>Cyber security Advanced</v>
@@ -52388,7 +52388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A389" s="13" t="str">
         <f t="shared" si="457"/>
         <v>Test Automtn Selenium</v>
@@ -52531,7 +52531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A390" s="13" t="s">
         <v>173</v>
       </c>
@@ -52675,7 +52675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A391" s="13" t="s">
         <v>174</v>
       </c>
@@ -52819,7 +52819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A392" s="13" t="s">
         <v>175</v>
       </c>
@@ -52963,7 +52963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A393" s="13" t="s">
         <v>176</v>
       </c>
@@ -53106,7 +53106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A394" s="13" t="str">
         <f t="shared" si="457"/>
         <v>Tally</v>
@@ -53249,7 +53249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A395" s="13" t="str">
         <f>B395</f>
         <v>Advanced Comme Pkg</v>
@@ -53392,7 +53392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A396" s="13" t="str">
         <f>B396</f>
         <v>Prince2</v>
@@ -53537,7 +53537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A397" s="13" t="str">
         <f>B397</f>
         <v>Agile Scrum</v>
@@ -53682,7 +53682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A398" s="13" t="str">
         <f t="shared" ref="A398:A405" si="509">B398</f>
         <v>Python</v>
@@ -53827,7 +53827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A399" s="13" t="str">
         <f t="shared" si="509"/>
         <v>Data Analytics</v>
@@ -53972,7 +53972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A400" s="13" t="str">
         <f t="shared" si="509"/>
         <v>Data Science &amp; AI</v>
@@ -54117,7 +54117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A401" s="13" t="str">
         <f t="shared" si="509"/>
         <v>AI - DSP</v>
@@ -54262,7 +54262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A402" s="13" t="str">
         <f t="shared" si="509"/>
         <v>AI - NLP</v>
@@ -54407,7 +54407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A403" s="13" t="str">
         <f t="shared" si="509"/>
         <v>AI - Comp Vision (CNN)</v>
@@ -54552,7 +54552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A404" s="13" t="str">
         <f t="shared" si="509"/>
         <v>IoT, Robotics</v>
@@ -54697,7 +54697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A405" s="13" t="str">
         <f t="shared" si="509"/>
         <v>Advanced IoT, Robotics</v>
@@ -54843,41 +54843,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:AE405">
-    <filterColumn colId="4">
-      <filters>
-        <filter val="Comm"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A3:AE405" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="43">
-    <mergeCell ref="AF1:AJ1"/>
-    <mergeCell ref="AK2:AK3"/>
-    <mergeCell ref="AL2:AL3"/>
-    <mergeCell ref="AM2:AM3"/>
-    <mergeCell ref="AN2:AN3"/>
-    <mergeCell ref="AK1:AN1"/>
-    <mergeCell ref="AF2:AF3"/>
-    <mergeCell ref="AG2:AG3"/>
-    <mergeCell ref="AH2:AH3"/>
-    <mergeCell ref="AI2:AI3"/>
-    <mergeCell ref="AJ2:AJ3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="U2:U3"/>
-    <mergeCell ref="V2:V3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="R2:R3"/>
     <mergeCell ref="F1:U1"/>
     <mergeCell ref="V1:Z1"/>
     <mergeCell ref="AA1:AE1"/>
@@ -54894,6 +54861,33 @@
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="I2:I3"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="V2:V3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="AF1:AJ1"/>
+    <mergeCell ref="AK2:AK3"/>
+    <mergeCell ref="AL2:AL3"/>
+    <mergeCell ref="AM2:AM3"/>
+    <mergeCell ref="AN2:AN3"/>
+    <mergeCell ref="AK1:AN1"/>
+    <mergeCell ref="AF2:AF3"/>
+    <mergeCell ref="AG2:AG3"/>
+    <mergeCell ref="AH2:AH3"/>
+    <mergeCell ref="AI2:AI3"/>
+    <mergeCell ref="AJ2:AJ3"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -54902,20 +54896,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V307"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="6.73046875" defaultRowHeight="13.5" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" style="2"/>
-    <col min="2" max="16384" width="6.7109375" style="1"/>
+    <col min="1" max="1" width="6.73046875" style="2"/>
+    <col min="2" max="16384" width="6.73046875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A1" s="30"/>
       <c r="B1" s="30"/>
       <c r="C1" s="30"/>
@@ -54939,7 +54933,7 @@
       <c r="U1" s="30"/>
       <c r="V1" s="62"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A2" s="30"/>
       <c r="B2" s="30"/>
       <c r="C2" s="30"/>
@@ -54963,7 +54957,7 @@
       <c r="U2" s="30"/>
       <c r="V2" s="62"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A3" s="30"/>
       <c r="B3" s="30"/>
       <c r="C3" s="30"/>
@@ -54987,7 +54981,7 @@
       <c r="U3" s="30"/>
       <c r="V3" s="62"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A4" s="30"/>
       <c r="B4" s="30"/>
       <c r="C4" s="30"/>
@@ -55011,7 +55005,7 @@
       <c r="U4" s="30"/>
       <c r="V4" s="62"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A5" s="30"/>
       <c r="B5" s="30"/>
       <c r="C5" s="30"/>
@@ -55035,7 +55029,7 @@
       <c r="U5" s="30"/>
       <c r="V5" s="62"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A6" s="30"/>
       <c r="B6" s="30"/>
       <c r="C6" s="30"/>
@@ -55058,7 +55052,7 @@
       <c r="T6" s="30"/>
       <c r="U6" s="30"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A7" s="30"/>
       <c r="B7" s="30"/>
       <c r="C7" s="30"/>
@@ -55081,7 +55075,7 @@
       <c r="T7" s="30"/>
       <c r="U7" s="30"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A8" s="30"/>
       <c r="B8" s="30"/>
       <c r="C8" s="30"/>
@@ -55104,7 +55098,7 @@
       <c r="T8" s="30"/>
       <c r="U8" s="30"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A9" s="30"/>
       <c r="B9" s="30"/>
       <c r="C9" s="30"/>
@@ -55127,7 +55121,7 @@
       <c r="T9" s="30"/>
       <c r="U9" s="30"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A10" s="30"/>
       <c r="B10" s="30"/>
       <c r="C10" s="30"/>
@@ -55150,7 +55144,7 @@
       <c r="T10" s="30"/>
       <c r="U10" s="30"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A11" s="30"/>
       <c r="B11" s="30"/>
       <c r="C11" s="30"/>
@@ -55173,7 +55167,7 @@
       <c r="T11" s="30"/>
       <c r="U11" s="30"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A12" s="30"/>
       <c r="B12" s="30"/>
       <c r="C12" s="30"/>
@@ -55196,7 +55190,7 @@
       <c r="T12" s="30"/>
       <c r="U12" s="30"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A13" s="30"/>
       <c r="B13" s="30"/>
       <c r="C13" s="30"/>
@@ -55219,7 +55213,7 @@
       <c r="T13" s="30"/>
       <c r="U13" s="30"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A14" s="30"/>
       <c r="B14" s="30"/>
       <c r="C14" s="30"/>
@@ -55242,7 +55236,7 @@
       <c r="T14" s="30"/>
       <c r="U14" s="30"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A15" s="30"/>
       <c r="B15" s="30"/>
       <c r="C15" s="30"/>
@@ -55265,7 +55259,7 @@
       <c r="T15" s="30"/>
       <c r="U15" s="30"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A16" s="30"/>
       <c r="B16" s="30"/>
       <c r="C16" s="30"/>
@@ -55288,7 +55282,7 @@
       <c r="T16" s="30"/>
       <c r="U16" s="30"/>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A17" s="30"/>
       <c r="B17" s="30"/>
       <c r="C17" s="30"/>
@@ -55311,7 +55305,7 @@
       <c r="T17" s="30"/>
       <c r="U17" s="30"/>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A18" s="30"/>
       <c r="B18" s="30"/>
       <c r="C18" s="30"/>
@@ -55334,7 +55328,7 @@
       <c r="T18" s="30"/>
       <c r="U18" s="30"/>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A19" s="30"/>
       <c r="B19" s="30"/>
       <c r="C19" s="30"/>
@@ -55357,7 +55351,7 @@
       <c r="T19" s="30"/>
       <c r="U19" s="30"/>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A20" s="30"/>
       <c r="B20" s="30"/>
       <c r="C20" s="30"/>
@@ -55380,7 +55374,7 @@
       <c r="T20" s="30"/>
       <c r="U20" s="30"/>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A21" s="30"/>
       <c r="B21" s="30"/>
       <c r="C21" s="30"/>
@@ -55403,7 +55397,7 @@
       <c r="T21" s="30"/>
       <c r="U21" s="30"/>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A22" s="30"/>
       <c r="B22" s="30"/>
       <c r="C22" s="30"/>
@@ -55426,7 +55420,7 @@
       <c r="T22" s="30"/>
       <c r="U22" s="30"/>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A23" s="30"/>
       <c r="B23" s="30"/>
       <c r="C23" s="30"/>
@@ -55449,7 +55443,7 @@
       <c r="T23" s="30"/>
       <c r="U23" s="30"/>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A24" s="30"/>
       <c r="B24" s="30"/>
       <c r="C24" s="30"/>
@@ -55472,7 +55466,7 @@
       <c r="T24" s="30"/>
       <c r="U24" s="30"/>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A25" s="30"/>
       <c r="B25" s="30"/>
       <c r="C25" s="30"/>
@@ -55495,7 +55489,7 @@
       <c r="T25" s="30"/>
       <c r="U25" s="30"/>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A26" s="30"/>
       <c r="B26" s="30"/>
       <c r="C26" s="30"/>
@@ -55518,7 +55512,7 @@
       <c r="T26" s="30"/>
       <c r="U26" s="30"/>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A27" s="30"/>
       <c r="B27" s="30"/>
       <c r="C27" s="30"/>
@@ -55541,7 +55535,7 @@
       <c r="T27" s="30"/>
       <c r="U27" s="30"/>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A28" s="30"/>
       <c r="B28" s="30"/>
       <c r="C28" s="30"/>
@@ -55564,7 +55558,7 @@
       <c r="T28" s="30"/>
       <c r="U28" s="30"/>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A29" s="30"/>
       <c r="B29" s="30"/>
       <c r="C29" s="30"/>
@@ -55587,7 +55581,7 @@
       <c r="T29" s="30"/>
       <c r="U29" s="30"/>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A30" s="30"/>
       <c r="B30" s="30"/>
       <c r="C30" s="30"/>
@@ -55610,7 +55604,7 @@
       <c r="T30" s="30"/>
       <c r="U30" s="30"/>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A31" s="30"/>
       <c r="B31" s="30"/>
       <c r="C31" s="30"/>
@@ -55633,7 +55627,7 @@
       <c r="T31" s="30"/>
       <c r="U31" s="30"/>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A32" s="30"/>
       <c r="B32" s="30"/>
       <c r="C32" s="30"/>
@@ -55656,7 +55650,7 @@
       <c r="T32" s="30"/>
       <c r="U32" s="30"/>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A33" s="30"/>
       <c r="B33" s="30"/>
       <c r="C33" s="30"/>
@@ -55679,7 +55673,7 @@
       <c r="T33" s="30"/>
       <c r="U33" s="30"/>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A34" s="30"/>
       <c r="B34" s="30"/>
       <c r="C34" s="30"/>
@@ -55702,7 +55696,7 @@
       <c r="T34" s="30"/>
       <c r="U34" s="30"/>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A35" s="30"/>
       <c r="B35" s="30"/>
       <c r="C35" s="30"/>
@@ -55725,7 +55719,7 @@
       <c r="T35" s="30"/>
       <c r="U35" s="30"/>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A36" s="30"/>
       <c r="B36" s="30"/>
       <c r="C36" s="30"/>
@@ -55748,7 +55742,7 @@
       <c r="T36" s="30"/>
       <c r="U36" s="30"/>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A37" s="30"/>
       <c r="B37" s="30"/>
       <c r="C37" s="30"/>
@@ -55771,7 +55765,7 @@
       <c r="T37" s="30"/>
       <c r="U37" s="30"/>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A38" s="30"/>
       <c r="B38" s="30"/>
       <c r="C38" s="30"/>
@@ -55794,7 +55788,7 @@
       <c r="T38" s="30"/>
       <c r="U38" s="30"/>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A39" s="30"/>
       <c r="B39" s="30"/>
       <c r="C39" s="30"/>
@@ -55817,7 +55811,7 @@
       <c r="T39" s="30"/>
       <c r="U39" s="30"/>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A40" s="30"/>
       <c r="B40" s="30"/>
       <c r="C40" s="30"/>
@@ -55840,7 +55834,7 @@
       <c r="T40" s="30"/>
       <c r="U40" s="30"/>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A41" s="30"/>
       <c r="B41" s="30"/>
       <c r="C41" s="30"/>
@@ -55863,7 +55857,7 @@
       <c r="T41" s="30"/>
       <c r="U41" s="30"/>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A42" s="30"/>
       <c r="B42" s="30"/>
       <c r="C42" s="30"/>
@@ -55886,7 +55880,7 @@
       <c r="T42" s="30"/>
       <c r="U42" s="30"/>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A43" s="30"/>
       <c r="B43" s="30"/>
       <c r="C43" s="30"/>
@@ -55909,7 +55903,7 @@
       <c r="T43" s="30"/>
       <c r="U43" s="30"/>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A44" s="30"/>
       <c r="B44" s="30"/>
       <c r="C44" s="30"/>
@@ -55932,7 +55926,7 @@
       <c r="T44" s="30"/>
       <c r="U44" s="30"/>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A45" s="30"/>
       <c r="B45" s="30"/>
       <c r="C45" s="30"/>
@@ -55955,7 +55949,7 @@
       <c r="T45" s="30"/>
       <c r="U45" s="30"/>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A46" s="30"/>
       <c r="B46" s="30"/>
       <c r="C46" s="30"/>
@@ -55978,7 +55972,7 @@
       <c r="T46" s="30"/>
       <c r="U46" s="30"/>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A47" s="30"/>
       <c r="B47" s="30"/>
       <c r="C47" s="30"/>
@@ -56001,7 +55995,7 @@
       <c r="T47" s="30"/>
       <c r="U47" s="30"/>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A48" s="30"/>
       <c r="B48" s="30"/>
       <c r="C48" s="30"/>
@@ -56024,7 +56018,7 @@
       <c r="T48" s="30"/>
       <c r="U48" s="30"/>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A49" s="30"/>
       <c r="B49" s="30"/>
       <c r="C49" s="30"/>
@@ -56047,7 +56041,7 @@
       <c r="T49" s="30"/>
       <c r="U49" s="30"/>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A50" s="30"/>
       <c r="B50" s="30"/>
       <c r="C50" s="30"/>
@@ -56070,7 +56064,7 @@
       <c r="T50" s="30"/>
       <c r="U50" s="30"/>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A51" s="30"/>
       <c r="B51" s="30"/>
       <c r="C51" s="30"/>
@@ -56093,7 +56087,7 @@
       <c r="T51" s="30"/>
       <c r="U51" s="30"/>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A52" s="30"/>
       <c r="B52" s="30"/>
       <c r="C52" s="30"/>
@@ -56116,7 +56110,7 @@
       <c r="T52" s="30"/>
       <c r="U52" s="30"/>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A53" s="30"/>
       <c r="B53" s="30"/>
       <c r="C53" s="30"/>
@@ -56139,7 +56133,7 @@
       <c r="T53" s="30"/>
       <c r="U53" s="30"/>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A54" s="30"/>
       <c r="B54" s="30"/>
       <c r="C54" s="30"/>
@@ -56162,7 +56156,7 @@
       <c r="T54" s="30"/>
       <c r="U54" s="30"/>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A55" s="30"/>
       <c r="B55" s="30"/>
       <c r="C55" s="30"/>
@@ -56185,7 +56179,7 @@
       <c r="T55" s="30"/>
       <c r="U55" s="30"/>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A56" s="30"/>
       <c r="B56" s="30"/>
       <c r="C56" s="30"/>
@@ -56208,7 +56202,7 @@
       <c r="T56" s="30"/>
       <c r="U56" s="30"/>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A57" s="30"/>
       <c r="B57" s="30"/>
       <c r="C57" s="30"/>
@@ -56231,7 +56225,7 @@
       <c r="T57" s="30"/>
       <c r="U57" s="30"/>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A58" s="30"/>
       <c r="B58" s="30"/>
       <c r="C58" s="30"/>
@@ -56254,7 +56248,7 @@
       <c r="T58" s="30"/>
       <c r="U58" s="30"/>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A59" s="30"/>
       <c r="B59" s="30"/>
       <c r="C59" s="30"/>
@@ -56277,7 +56271,7 @@
       <c r="T59" s="30"/>
       <c r="U59" s="30"/>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A60" s="30"/>
       <c r="B60" s="30"/>
       <c r="C60" s="30"/>
@@ -56300,7 +56294,7 @@
       <c r="T60" s="30"/>
       <c r="U60" s="30"/>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A61" s="30"/>
       <c r="B61" s="30"/>
       <c r="C61" s="30"/>
@@ -56323,7 +56317,7 @@
       <c r="T61" s="30"/>
       <c r="U61" s="30"/>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A62" s="30"/>
       <c r="B62" s="30"/>
       <c r="C62" s="30"/>
@@ -56346,7 +56340,7 @@
       <c r="T62" s="30"/>
       <c r="U62" s="30"/>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A63" s="30"/>
       <c r="B63" s="30"/>
       <c r="C63" s="30"/>
@@ -56369,7 +56363,7 @@
       <c r="T63" s="30"/>
       <c r="U63" s="30"/>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A64" s="30"/>
       <c r="B64" s="30"/>
       <c r="C64" s="30"/>
@@ -56392,7 +56386,7 @@
       <c r="T64" s="30"/>
       <c r="U64" s="30"/>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A65" s="30"/>
       <c r="B65" s="30"/>
       <c r="C65" s="30"/>
@@ -56415,7 +56409,7 @@
       <c r="T65" s="30"/>
       <c r="U65" s="30"/>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A66" s="30"/>
       <c r="B66" s="30"/>
       <c r="C66" s="30"/>
@@ -56438,7 +56432,7 @@
       <c r="T66" s="30"/>
       <c r="U66" s="30"/>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A67" s="30"/>
       <c r="B67" s="30"/>
       <c r="C67" s="30"/>
@@ -56461,7 +56455,7 @@
       <c r="T67" s="30"/>
       <c r="U67" s="30"/>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A68" s="30"/>
       <c r="B68" s="30"/>
       <c r="C68" s="30"/>
@@ -56484,7 +56478,7 @@
       <c r="T68" s="30"/>
       <c r="U68" s="30"/>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A69" s="30"/>
       <c r="B69" s="30"/>
       <c r="C69" s="30"/>
@@ -56507,7 +56501,7 @@
       <c r="T69" s="30"/>
       <c r="U69" s="30"/>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A70" s="30"/>
       <c r="B70" s="30"/>
       <c r="C70" s="30"/>
@@ -56530,7 +56524,7 @@
       <c r="T70" s="30"/>
       <c r="U70" s="30"/>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A71" s="30"/>
       <c r="B71" s="30"/>
       <c r="C71" s="30"/>
@@ -56553,7 +56547,7 @@
       <c r="T71" s="30"/>
       <c r="U71" s="30"/>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A72" s="30"/>
       <c r="B72" s="30"/>
       <c r="C72" s="30"/>
@@ -56576,7 +56570,7 @@
       <c r="T72" s="30"/>
       <c r="U72" s="30"/>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A73" s="30"/>
       <c r="B73" s="30"/>
       <c r="C73" s="30"/>
@@ -56599,7 +56593,7 @@
       <c r="T73" s="30"/>
       <c r="U73" s="30"/>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A74" s="30"/>
       <c r="B74" s="30"/>
       <c r="C74" s="30"/>
@@ -56622,7 +56616,7 @@
       <c r="T74" s="30"/>
       <c r="U74" s="30"/>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A75" s="30"/>
       <c r="B75" s="30"/>
       <c r="C75" s="30"/>
@@ -56645,7 +56639,7 @@
       <c r="T75" s="30"/>
       <c r="U75" s="30"/>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A76" s="30"/>
       <c r="B76" s="30"/>
       <c r="C76" s="30"/>
@@ -56668,7 +56662,7 @@
       <c r="T76" s="30"/>
       <c r="U76" s="30"/>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A77" s="30"/>
       <c r="B77" s="30"/>
       <c r="C77" s="30"/>
@@ -56691,7 +56685,7 @@
       <c r="T77" s="30"/>
       <c r="U77" s="30"/>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A78" s="30"/>
       <c r="B78" s="30"/>
       <c r="C78" s="30"/>
@@ -56714,7 +56708,7 @@
       <c r="T78" s="30"/>
       <c r="U78" s="30"/>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A79" s="30"/>
       <c r="B79" s="30"/>
       <c r="C79" s="30"/>
@@ -56737,7 +56731,7 @@
       <c r="T79" s="30"/>
       <c r="U79" s="30"/>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A80" s="30"/>
       <c r="B80" s="30"/>
       <c r="C80" s="30"/>
@@ -56760,7 +56754,7 @@
       <c r="T80" s="30"/>
       <c r="U80" s="30"/>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A81" s="30"/>
       <c r="B81" s="30"/>
       <c r="C81" s="30"/>
@@ -56783,7 +56777,7 @@
       <c r="T81" s="30"/>
       <c r="U81" s="30"/>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A82" s="30"/>
       <c r="B82" s="30"/>
       <c r="C82" s="30"/>
@@ -56806,7 +56800,7 @@
       <c r="T82" s="30"/>
       <c r="U82" s="30"/>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A83" s="30"/>
       <c r="B83" s="30"/>
       <c r="C83" s="30"/>
@@ -56829,7 +56823,7 @@
       <c r="T83" s="30"/>
       <c r="U83" s="30"/>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A84" s="30"/>
       <c r="B84" s="30"/>
       <c r="C84" s="30"/>
@@ -56852,7 +56846,7 @@
       <c r="T84" s="30"/>
       <c r="U84" s="30"/>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A85" s="30"/>
       <c r="B85" s="30"/>
       <c r="C85" s="30"/>
@@ -56875,7 +56869,7 @@
       <c r="T85" s="30"/>
       <c r="U85" s="30"/>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A86" s="30"/>
       <c r="B86" s="30"/>
       <c r="C86" s="30"/>
@@ -56898,7 +56892,7 @@
       <c r="T86" s="30"/>
       <c r="U86" s="30"/>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A87" s="30"/>
       <c r="B87" s="30"/>
       <c r="C87" s="30"/>
@@ -56921,7 +56915,7 @@
       <c r="T87" s="30"/>
       <c r="U87" s="30"/>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A88" s="30"/>
       <c r="B88" s="30"/>
       <c r="C88" s="30"/>
@@ -56944,7 +56938,7 @@
       <c r="T88" s="30"/>
       <c r="U88" s="30"/>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A89" s="30"/>
       <c r="B89" s="30"/>
       <c r="C89" s="30"/>
@@ -56967,7 +56961,7 @@
       <c r="T89" s="30"/>
       <c r="U89" s="30"/>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A90" s="30"/>
       <c r="B90" s="30"/>
       <c r="C90" s="30"/>
@@ -56990,7 +56984,7 @@
       <c r="T90" s="30"/>
       <c r="U90" s="30"/>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A91" s="30"/>
       <c r="B91" s="30"/>
       <c r="C91" s="30"/>
@@ -57013,7 +57007,7 @@
       <c r="T91" s="30"/>
       <c r="U91" s="30"/>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A92" s="30"/>
       <c r="B92" s="30"/>
       <c r="C92" s="30"/>
@@ -57036,7 +57030,7 @@
       <c r="T92" s="30"/>
       <c r="U92" s="30"/>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A93" s="30"/>
       <c r="B93" s="30"/>
       <c r="C93" s="30"/>
@@ -57059,7 +57053,7 @@
       <c r="T93" s="30"/>
       <c r="U93" s="30"/>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A94" s="30"/>
       <c r="B94" s="30"/>
       <c r="C94" s="30"/>
@@ -57082,7 +57076,7 @@
       <c r="T94" s="30"/>
       <c r="U94" s="30"/>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A95" s="30"/>
       <c r="B95" s="30"/>
       <c r="C95" s="30"/>
@@ -57105,7 +57099,7 @@
       <c r="T95" s="30"/>
       <c r="U95" s="30"/>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A96" s="30"/>
       <c r="B96" s="30"/>
       <c r="C96" s="30"/>
@@ -57128,7 +57122,7 @@
       <c r="T96" s="30"/>
       <c r="U96" s="30"/>
     </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A97" s="30"/>
       <c r="B97" s="30"/>
       <c r="C97" s="30"/>
@@ -57151,7 +57145,7 @@
       <c r="T97" s="30"/>
       <c r="U97" s="30"/>
     </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A98" s="30"/>
       <c r="B98" s="30"/>
       <c r="C98" s="30"/>
@@ -57174,7 +57168,7 @@
       <c r="T98" s="30"/>
       <c r="U98" s="30"/>
     </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A99" s="30"/>
       <c r="B99" s="30"/>
       <c r="C99" s="30"/>
@@ -57197,7 +57191,7 @@
       <c r="T99" s="30"/>
       <c r="U99" s="30"/>
     </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A100" s="30"/>
       <c r="B100" s="30"/>
       <c r="C100" s="30"/>
@@ -57220,7 +57214,7 @@
       <c r="T100" s="30"/>
       <c r="U100" s="30"/>
     </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A101" s="30"/>
       <c r="B101" s="30"/>
       <c r="C101" s="30"/>
@@ -57243,7 +57237,7 @@
       <c r="T101" s="30"/>
       <c r="U101" s="30"/>
     </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A102" s="30"/>
       <c r="B102" s="30"/>
       <c r="C102" s="30"/>
@@ -57266,7 +57260,7 @@
       <c r="T102" s="30"/>
       <c r="U102" s="30"/>
     </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A103" s="30"/>
       <c r="B103" s="30"/>
       <c r="C103" s="30"/>
@@ -57289,7 +57283,7 @@
       <c r="T103" s="30"/>
       <c r="U103" s="30"/>
     </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A104" s="30"/>
       <c r="B104" s="30"/>
       <c r="C104" s="30"/>
@@ -57312,7 +57306,7 @@
       <c r="T104" s="30"/>
       <c r="U104" s="30"/>
     </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A105" s="30"/>
       <c r="B105" s="30"/>
       <c r="C105" s="30"/>
@@ -57335,7 +57329,7 @@
       <c r="T105" s="30"/>
       <c r="U105" s="30"/>
     </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A106" s="30"/>
       <c r="B106" s="30"/>
       <c r="C106" s="30"/>
@@ -57358,7 +57352,7 @@
       <c r="T106" s="30"/>
       <c r="U106" s="30"/>
     </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A107" s="30"/>
       <c r="B107" s="30"/>
       <c r="C107" s="30"/>
@@ -57381,7 +57375,7 @@
       <c r="T107" s="30"/>
       <c r="U107" s="30"/>
     </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A108" s="30"/>
       <c r="B108" s="30"/>
       <c r="C108" s="30"/>
@@ -57404,7 +57398,7 @@
       <c r="T108" s="30"/>
       <c r="U108" s="30"/>
     </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A109" s="30"/>
       <c r="B109" s="30"/>
       <c r="C109" s="30"/>
@@ -57427,7 +57421,7 @@
       <c r="T109" s="30"/>
       <c r="U109" s="30"/>
     </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A110" s="30"/>
       <c r="B110" s="30"/>
       <c r="C110" s="30"/>
@@ -57450,7 +57444,7 @@
       <c r="T110" s="30"/>
       <c r="U110" s="30"/>
     </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A111" s="30"/>
       <c r="B111" s="30"/>
       <c r="C111" s="30"/>
@@ -57473,7 +57467,7 @@
       <c r="T111" s="30"/>
       <c r="U111" s="30"/>
     </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A112" s="30"/>
       <c r="B112" s="30"/>
       <c r="C112" s="30"/>
@@ -57496,7 +57490,7 @@
       <c r="T112" s="30"/>
       <c r="U112" s="30"/>
     </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A113" s="30"/>
       <c r="B113" s="30"/>
       <c r="C113" s="30"/>
@@ -57519,7 +57513,7 @@
       <c r="T113" s="30"/>
       <c r="U113" s="30"/>
     </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A114" s="30"/>
       <c r="B114" s="30"/>
       <c r="C114" s="30"/>
@@ -57542,7 +57536,7 @@
       <c r="T114" s="30"/>
       <c r="U114" s="30"/>
     </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A115" s="30"/>
       <c r="B115" s="30"/>
       <c r="C115" s="30"/>
@@ -57565,7 +57559,7 @@
       <c r="T115" s="30"/>
       <c r="U115" s="30"/>
     </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A116" s="30"/>
       <c r="B116" s="30"/>
       <c r="C116" s="30"/>
@@ -57588,7 +57582,7 @@
       <c r="T116" s="30"/>
       <c r="U116" s="30"/>
     </row>
-    <row r="117" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A117" s="30"/>
       <c r="B117" s="30"/>
       <c r="C117" s="30"/>
@@ -57611,7 +57605,7 @@
       <c r="T117" s="30"/>
       <c r="U117" s="30"/>
     </row>
-    <row r="118" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A118" s="30"/>
       <c r="B118" s="30"/>
       <c r="C118" s="30"/>
@@ -57634,7 +57628,7 @@
       <c r="T118" s="30"/>
       <c r="U118" s="30"/>
     </row>
-    <row r="119" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A119" s="30"/>
       <c r="B119" s="30"/>
       <c r="C119" s="30"/>
@@ -57657,7 +57651,7 @@
       <c r="T119" s="30"/>
       <c r="U119" s="30"/>
     </row>
-    <row r="120" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A120" s="30"/>
       <c r="B120" s="30"/>
       <c r="C120" s="30"/>
@@ -57680,7 +57674,7 @@
       <c r="T120" s="30"/>
       <c r="U120" s="30"/>
     </row>
-    <row r="121" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A121" s="30"/>
       <c r="B121" s="30"/>
       <c r="C121" s="30"/>
@@ -57703,7 +57697,7 @@
       <c r="T121" s="30"/>
       <c r="U121" s="30"/>
     </row>
-    <row r="122" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A122" s="30"/>
       <c r="B122" s="30"/>
       <c r="C122" s="30"/>
@@ -57726,7 +57720,7 @@
       <c r="T122" s="30"/>
       <c r="U122" s="30"/>
     </row>
-    <row r="123" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A123" s="30"/>
       <c r="B123" s="30"/>
       <c r="C123" s="30"/>
@@ -57749,7 +57743,7 @@
       <c r="T123" s="30"/>
       <c r="U123" s="30"/>
     </row>
-    <row r="124" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A124" s="30"/>
       <c r="B124" s="30"/>
       <c r="C124" s="30"/>
@@ -57772,7 +57766,7 @@
       <c r="T124" s="30"/>
       <c r="U124" s="30"/>
     </row>
-    <row r="125" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A125" s="30"/>
       <c r="B125" s="30"/>
       <c r="C125" s="30"/>
@@ -57795,7 +57789,7 @@
       <c r="T125" s="30"/>
       <c r="U125" s="30"/>
     </row>
-    <row r="126" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A126" s="30"/>
       <c r="B126" s="30"/>
       <c r="C126" s="30"/>
@@ -57818,7 +57812,7 @@
       <c r="T126" s="30"/>
       <c r="U126" s="30"/>
     </row>
-    <row r="127" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A127" s="30"/>
       <c r="B127" s="30"/>
       <c r="C127" s="30"/>
@@ -57841,7 +57835,7 @@
       <c r="T127" s="30"/>
       <c r="U127" s="30"/>
     </row>
-    <row r="128" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A128" s="30"/>
       <c r="B128" s="30"/>
       <c r="C128" s="30"/>
@@ -57864,7 +57858,7 @@
       <c r="T128" s="30"/>
       <c r="U128" s="30"/>
     </row>
-    <row r="129" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A129" s="30"/>
       <c r="B129" s="30"/>
       <c r="C129" s="30"/>
@@ -57887,7 +57881,7 @@
       <c r="T129" s="30"/>
       <c r="U129" s="30"/>
     </row>
-    <row r="130" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A130" s="30"/>
       <c r="B130" s="30"/>
       <c r="C130" s="30"/>
@@ -57910,7 +57904,7 @@
       <c r="T130" s="30"/>
       <c r="U130" s="30"/>
     </row>
-    <row r="131" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A131" s="30"/>
       <c r="B131" s="30"/>
       <c r="C131" s="30"/>
@@ -57933,7 +57927,7 @@
       <c r="T131" s="30"/>
       <c r="U131" s="30"/>
     </row>
-    <row r="132" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A132" s="30"/>
       <c r="B132" s="30"/>
       <c r="C132" s="30"/>
@@ -57956,7 +57950,7 @@
       <c r="T132" s="30"/>
       <c r="U132" s="30"/>
     </row>
-    <row r="133" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A133" s="30"/>
       <c r="B133" s="30"/>
       <c r="C133" s="30"/>
@@ -57979,7 +57973,7 @@
       <c r="T133" s="30"/>
       <c r="U133" s="30"/>
     </row>
-    <row r="134" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A134" s="30"/>
       <c r="B134" s="30"/>
       <c r="C134" s="30"/>
@@ -58002,7 +57996,7 @@
       <c r="T134" s="30"/>
       <c r="U134" s="30"/>
     </row>
-    <row r="135" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A135" s="30"/>
       <c r="B135" s="30"/>
       <c r="C135" s="30"/>
@@ -58025,7 +58019,7 @@
       <c r="T135" s="30"/>
       <c r="U135" s="30"/>
     </row>
-    <row r="136" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A136" s="30"/>
       <c r="B136" s="30"/>
       <c r="C136" s="30"/>
@@ -58048,7 +58042,7 @@
       <c r="T136" s="30"/>
       <c r="U136" s="30"/>
     </row>
-    <row r="137" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A137" s="30"/>
       <c r="B137" s="30"/>
       <c r="C137" s="30"/>
@@ -58071,7 +58065,7 @@
       <c r="T137" s="30"/>
       <c r="U137" s="30"/>
     </row>
-    <row r="138" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A138" s="30"/>
       <c r="B138" s="30"/>
       <c r="C138" s="30"/>
@@ -58094,7 +58088,7 @@
       <c r="T138" s="30"/>
       <c r="U138" s="30"/>
     </row>
-    <row r="139" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A139" s="30"/>
       <c r="B139" s="30"/>
       <c r="C139" s="30"/>
@@ -58117,7 +58111,7 @@
       <c r="T139" s="30"/>
       <c r="U139" s="30"/>
     </row>
-    <row r="140" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A140" s="30"/>
       <c r="B140" s="30"/>
       <c r="C140" s="30"/>
@@ -58140,7 +58134,7 @@
       <c r="T140" s="30"/>
       <c r="U140" s="30"/>
     </row>
-    <row r="141" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A141" s="30"/>
       <c r="B141" s="30"/>
       <c r="C141" s="30"/>
@@ -58163,7 +58157,7 @@
       <c r="T141" s="30"/>
       <c r="U141" s="30"/>
     </row>
-    <row r="142" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A142" s="30"/>
       <c r="B142" s="30"/>
       <c r="C142" s="30"/>
@@ -58186,7 +58180,7 @@
       <c r="T142" s="30"/>
       <c r="U142" s="30"/>
     </row>
-    <row r="143" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A143" s="30"/>
       <c r="B143" s="30"/>
       <c r="C143" s="30"/>
@@ -58209,7 +58203,7 @@
       <c r="T143" s="30"/>
       <c r="U143" s="30"/>
     </row>
-    <row r="144" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A144" s="30"/>
       <c r="B144" s="30"/>
       <c r="C144" s="30"/>
@@ -58232,7 +58226,7 @@
       <c r="T144" s="30"/>
       <c r="U144" s="30"/>
     </row>
-    <row r="145" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A145" s="30"/>
       <c r="B145" s="30"/>
       <c r="C145" s="30"/>
@@ -58255,7 +58249,7 @@
       <c r="T145" s="30"/>
       <c r="U145" s="30"/>
     </row>
-    <row r="146" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A146" s="30"/>
       <c r="B146" s="30"/>
       <c r="C146" s="30"/>
@@ -58278,7 +58272,7 @@
       <c r="T146" s="30"/>
       <c r="U146" s="30"/>
     </row>
-    <row r="147" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A147" s="30"/>
       <c r="B147" s="30"/>
       <c r="C147" s="30"/>
@@ -58301,7 +58295,7 @@
       <c r="T147" s="30"/>
       <c r="U147" s="30"/>
     </row>
-    <row r="148" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A148" s="30"/>
       <c r="B148" s="30"/>
       <c r="C148" s="30"/>
@@ -58324,7 +58318,7 @@
       <c r="T148" s="30"/>
       <c r="U148" s="30"/>
     </row>
-    <row r="149" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A149" s="30"/>
       <c r="B149" s="30"/>
       <c r="C149" s="30"/>
@@ -58347,7 +58341,7 @@
       <c r="T149" s="30"/>
       <c r="U149" s="30"/>
     </row>
-    <row r="150" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A150" s="30"/>
       <c r="B150" s="30"/>
       <c r="C150" s="30"/>
@@ -58370,7 +58364,7 @@
       <c r="T150" s="30"/>
       <c r="U150" s="30"/>
     </row>
-    <row r="151" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A151" s="30"/>
       <c r="B151" s="30"/>
       <c r="C151" s="30"/>
@@ -58393,7 +58387,7 @@
       <c r="T151" s="30"/>
       <c r="U151" s="30"/>
     </row>
-    <row r="152" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A152" s="30"/>
       <c r="B152" s="30"/>
       <c r="C152" s="30"/>
@@ -58416,7 +58410,7 @@
       <c r="T152" s="30"/>
       <c r="U152" s="30"/>
     </row>
-    <row r="153" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A153" s="30"/>
       <c r="B153" s="30"/>
       <c r="C153" s="30"/>
@@ -58439,7 +58433,7 @@
       <c r="T153" s="30"/>
       <c r="U153" s="30"/>
     </row>
-    <row r="154" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A154" s="30"/>
       <c r="B154" s="30"/>
       <c r="C154" s="30"/>
@@ -58462,7 +58456,7 @@
       <c r="T154" s="30"/>
       <c r="U154" s="30"/>
     </row>
-    <row r="155" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A155" s="30"/>
       <c r="B155" s="30"/>
       <c r="C155" s="30"/>
@@ -58485,7 +58479,7 @@
       <c r="T155" s="30"/>
       <c r="U155" s="30"/>
     </row>
-    <row r="156" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A156" s="30"/>
       <c r="B156" s="30"/>
       <c r="C156" s="30"/>
@@ -58508,7 +58502,7 @@
       <c r="T156" s="30"/>
       <c r="U156" s="30"/>
     </row>
-    <row r="157" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A157" s="30"/>
       <c r="B157" s="30"/>
       <c r="C157" s="30"/>
@@ -58531,7 +58525,7 @@
       <c r="T157" s="30"/>
       <c r="U157" s="30"/>
     </row>
-    <row r="158" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A158" s="30"/>
       <c r="B158" s="30"/>
       <c r="C158" s="30"/>
@@ -58554,7 +58548,7 @@
       <c r="T158" s="30"/>
       <c r="U158" s="30"/>
     </row>
-    <row r="159" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A159" s="30"/>
       <c r="B159" s="30"/>
       <c r="C159" s="30"/>
@@ -58577,7 +58571,7 @@
       <c r="T159" s="30"/>
       <c r="U159" s="30"/>
     </row>
-    <row r="160" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A160" s="30"/>
       <c r="B160" s="30"/>
       <c r="C160" s="30"/>
@@ -58600,7 +58594,7 @@
       <c r="T160" s="30"/>
       <c r="U160" s="30"/>
     </row>
-    <row r="161" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A161" s="30"/>
       <c r="B161" s="30"/>
       <c r="C161" s="30"/>
@@ -58623,7 +58617,7 @@
       <c r="T161" s="30"/>
       <c r="U161" s="30"/>
     </row>
-    <row r="162" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A162" s="30"/>
       <c r="B162" s="30"/>
       <c r="C162" s="30"/>
@@ -58646,7 +58640,7 @@
       <c r="T162" s="30"/>
       <c r="U162" s="30"/>
     </row>
-    <row r="163" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A163" s="30"/>
       <c r="B163" s="30"/>
       <c r="C163" s="30"/>
@@ -58669,7 +58663,7 @@
       <c r="T163" s="30"/>
       <c r="U163" s="30"/>
     </row>
-    <row r="164" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A164" s="30"/>
       <c r="B164" s="30"/>
       <c r="C164" s="30"/>
@@ -58692,7 +58686,7 @@
       <c r="T164" s="30"/>
       <c r="U164" s="30"/>
     </row>
-    <row r="165" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A165" s="30"/>
       <c r="B165" s="30"/>
       <c r="C165" s="30"/>
@@ -58715,7 +58709,7 @@
       <c r="T165" s="30"/>
       <c r="U165" s="30"/>
     </row>
-    <row r="166" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A166" s="30"/>
       <c r="B166" s="30"/>
       <c r="C166" s="30"/>
@@ -58738,7 +58732,7 @@
       <c r="T166" s="30"/>
       <c r="U166" s="30"/>
     </row>
-    <row r="167" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A167" s="30"/>
       <c r="B167" s="30"/>
       <c r="C167" s="30"/>
@@ -58761,7 +58755,7 @@
       <c r="T167" s="30"/>
       <c r="U167" s="30"/>
     </row>
-    <row r="168" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A168" s="30"/>
       <c r="B168" s="30"/>
       <c r="C168" s="30"/>
@@ -58784,7 +58778,7 @@
       <c r="T168" s="30"/>
       <c r="U168" s="30"/>
     </row>
-    <row r="169" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A169" s="30"/>
       <c r="B169" s="30"/>
       <c r="C169" s="30"/>
@@ -58807,7 +58801,7 @@
       <c r="T169" s="30"/>
       <c r="U169" s="30"/>
     </row>
-    <row r="170" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A170" s="30"/>
       <c r="B170" s="30"/>
       <c r="C170" s="30"/>
@@ -58830,7 +58824,7 @@
       <c r="T170" s="30"/>
       <c r="U170" s="30"/>
     </row>
-    <row r="171" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A171" s="30"/>
       <c r="B171" s="30"/>
       <c r="C171" s="30"/>
@@ -58853,7 +58847,7 @@
       <c r="T171" s="30"/>
       <c r="U171" s="30"/>
     </row>
-    <row r="172" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A172" s="30"/>
       <c r="B172" s="30"/>
       <c r="C172" s="30"/>
@@ -58876,7 +58870,7 @@
       <c r="T172" s="30"/>
       <c r="U172" s="30"/>
     </row>
-    <row r="173" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A173" s="30"/>
       <c r="B173" s="30"/>
       <c r="C173" s="30"/>
@@ -58899,7 +58893,7 @@
       <c r="T173" s="30"/>
       <c r="U173" s="30"/>
     </row>
-    <row r="174" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A174" s="30"/>
       <c r="B174" s="30"/>
       <c r="C174" s="30"/>
@@ -58922,7 +58916,7 @@
       <c r="T174" s="30"/>
       <c r="U174" s="30"/>
     </row>
-    <row r="175" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A175" s="30"/>
       <c r="B175" s="30"/>
       <c r="C175" s="30"/>
@@ -58945,7 +58939,7 @@
       <c r="T175" s="30"/>
       <c r="U175" s="30"/>
     </row>
-    <row r="176" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A176" s="30"/>
       <c r="B176" s="30"/>
       <c r="C176" s="30"/>
@@ -58968,7 +58962,7 @@
       <c r="T176" s="30"/>
       <c r="U176" s="30"/>
     </row>
-    <row r="177" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A177" s="30"/>
       <c r="B177" s="30"/>
       <c r="C177" s="30"/>
@@ -58991,7 +58985,7 @@
       <c r="T177" s="30"/>
       <c r="U177" s="30"/>
     </row>
-    <row r="178" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A178" s="30"/>
       <c r="B178" s="30"/>
       <c r="C178" s="30"/>
@@ -59014,7 +59008,7 @@
       <c r="T178" s="30"/>
       <c r="U178" s="30"/>
     </row>
-    <row r="179" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A179" s="30"/>
       <c r="B179" s="30"/>
       <c r="C179" s="30"/>
@@ -59037,7 +59031,7 @@
       <c r="T179" s="30"/>
       <c r="U179" s="30"/>
     </row>
-    <row r="180" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A180" s="30"/>
       <c r="B180" s="30"/>
       <c r="C180" s="30"/>
@@ -59060,7 +59054,7 @@
       <c r="T180" s="30"/>
       <c r="U180" s="30"/>
     </row>
-    <row r="181" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A181" s="30"/>
       <c r="B181" s="30"/>
       <c r="C181" s="30"/>
@@ -59083,7 +59077,7 @@
       <c r="T181" s="30"/>
       <c r="U181" s="30"/>
     </row>
-    <row r="182" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A182" s="30"/>
       <c r="B182" s="30"/>
       <c r="C182" s="30"/>
@@ -59106,7 +59100,7 @@
       <c r="T182" s="30"/>
       <c r="U182" s="30"/>
     </row>
-    <row r="183" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A183" s="30"/>
       <c r="B183" s="30"/>
       <c r="C183" s="30"/>
@@ -59129,7 +59123,7 @@
       <c r="T183" s="30"/>
       <c r="U183" s="30"/>
     </row>
-    <row r="184" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A184" s="30"/>
       <c r="B184" s="30"/>
       <c r="C184" s="30"/>
@@ -59152,7 +59146,7 @@
       <c r="T184" s="30"/>
       <c r="U184" s="30"/>
     </row>
-    <row r="185" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A185" s="30"/>
       <c r="B185" s="30"/>
       <c r="C185" s="30"/>
@@ -59175,7 +59169,7 @@
       <c r="T185" s="30"/>
       <c r="U185" s="30"/>
     </row>
-    <row r="186" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A186" s="30"/>
       <c r="B186" s="30"/>
       <c r="C186" s="30"/>
@@ -59198,7 +59192,7 @@
       <c r="T186" s="30"/>
       <c r="U186" s="30"/>
     </row>
-    <row r="187" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A187" s="30"/>
       <c r="B187" s="30"/>
       <c r="C187" s="30"/>
@@ -59221,7 +59215,7 @@
       <c r="T187" s="30"/>
       <c r="U187" s="30"/>
     </row>
-    <row r="188" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A188" s="30"/>
       <c r="B188" s="30"/>
       <c r="C188" s="30"/>
@@ -59244,7 +59238,7 @@
       <c r="T188" s="30"/>
       <c r="U188" s="30"/>
     </row>
-    <row r="189" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A189" s="30"/>
       <c r="B189" s="30"/>
       <c r="C189" s="30"/>
@@ -59267,7 +59261,7 @@
       <c r="T189" s="30"/>
       <c r="U189" s="30"/>
     </row>
-    <row r="190" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A190" s="30"/>
       <c r="B190" s="30"/>
       <c r="C190" s="30"/>
@@ -59290,7 +59284,7 @@
       <c r="T190" s="30"/>
       <c r="U190" s="30"/>
     </row>
-    <row r="191" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A191" s="30"/>
       <c r="B191" s="30"/>
       <c r="C191" s="30"/>
@@ -59313,7 +59307,7 @@
       <c r="T191" s="30"/>
       <c r="U191" s="30"/>
     </row>
-    <row r="192" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A192" s="30"/>
       <c r="B192" s="30"/>
       <c r="C192" s="30"/>
@@ -59336,7 +59330,7 @@
       <c r="T192" s="30"/>
       <c r="U192" s="30"/>
     </row>
-    <row r="193" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A193" s="30"/>
       <c r="B193" s="30"/>
       <c r="C193" s="30"/>
@@ -59359,7 +59353,7 @@
       <c r="T193" s="30"/>
       <c r="U193" s="30"/>
     </row>
-    <row r="194" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A194" s="30"/>
       <c r="B194" s="30"/>
       <c r="C194" s="30"/>
@@ -59382,7 +59376,7 @@
       <c r="T194" s="30"/>
       <c r="U194" s="30"/>
     </row>
-    <row r="195" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A195" s="30"/>
       <c r="B195" s="30"/>
       <c r="C195" s="30"/>
@@ -59405,7 +59399,7 @@
       <c r="T195" s="30"/>
       <c r="U195" s="30"/>
     </row>
-    <row r="196" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A196" s="30"/>
       <c r="B196" s="30"/>
       <c r="C196" s="30"/>
@@ -59428,7 +59422,7 @@
       <c r="T196" s="30"/>
       <c r="U196" s="30"/>
     </row>
-    <row r="197" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A197" s="30"/>
       <c r="B197" s="30"/>
       <c r="C197" s="30"/>
@@ -59451,7 +59445,7 @@
       <c r="T197" s="30"/>
       <c r="U197" s="30"/>
     </row>
-    <row r="198" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A198" s="30"/>
       <c r="B198" s="30"/>
       <c r="C198" s="30"/>
@@ -59474,7 +59468,7 @@
       <c r="T198" s="30"/>
       <c r="U198" s="30"/>
     </row>
-    <row r="199" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A199" s="30"/>
       <c r="B199" s="30"/>
       <c r="C199" s="30"/>
@@ -59497,7 +59491,7 @@
       <c r="T199" s="30"/>
       <c r="U199" s="30"/>
     </row>
-    <row r="200" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A200" s="30"/>
       <c r="B200" s="30"/>
       <c r="C200" s="30"/>
@@ -59520,7 +59514,7 @@
       <c r="T200" s="30"/>
       <c r="U200" s="30"/>
     </row>
-    <row r="201" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A201" s="30"/>
       <c r="B201" s="30"/>
       <c r="C201" s="30"/>
@@ -59543,7 +59537,7 @@
       <c r="T201" s="30"/>
       <c r="U201" s="30"/>
     </row>
-    <row r="202" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A202" s="30"/>
       <c r="B202" s="30"/>
       <c r="C202" s="30"/>
@@ -59566,7 +59560,7 @@
       <c r="T202" s="30"/>
       <c r="U202" s="30"/>
     </row>
-    <row r="203" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A203" s="30"/>
       <c r="B203" s="30"/>
       <c r="C203" s="30"/>
@@ -59589,7 +59583,7 @@
       <c r="T203" s="30"/>
       <c r="U203" s="30"/>
     </row>
-    <row r="204" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A204" s="30"/>
       <c r="B204" s="30"/>
       <c r="C204" s="30"/>
@@ -59612,7 +59606,7 @@
       <c r="T204" s="30"/>
       <c r="U204" s="30"/>
     </row>
-    <row r="205" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A205" s="30"/>
       <c r="B205" s="30"/>
       <c r="C205" s="30"/>
@@ -59635,7 +59629,7 @@
       <c r="T205" s="30"/>
       <c r="U205" s="30"/>
     </row>
-    <row r="206" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A206" s="30"/>
       <c r="B206" s="30"/>
       <c r="C206" s="30"/>
@@ -59658,7 +59652,7 @@
       <c r="T206" s="30"/>
       <c r="U206" s="30"/>
     </row>
-    <row r="207" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A207" s="30"/>
       <c r="B207" s="30"/>
       <c r="C207" s="30"/>
@@ -59681,7 +59675,7 @@
       <c r="T207" s="30"/>
       <c r="U207" s="30"/>
     </row>
-    <row r="208" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A208" s="30"/>
       <c r="B208" s="30"/>
       <c r="C208" s="30"/>
@@ -59704,7 +59698,7 @@
       <c r="T208" s="30"/>
       <c r="U208" s="30"/>
     </row>
-    <row r="209" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A209" s="30"/>
       <c r="B209" s="30"/>
       <c r="C209" s="30"/>
@@ -59727,7 +59721,7 @@
       <c r="T209" s="30"/>
       <c r="U209" s="30"/>
     </row>
-    <row r="210" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A210" s="30"/>
       <c r="B210" s="30"/>
       <c r="C210" s="30"/>
@@ -59750,7 +59744,7 @@
       <c r="T210" s="30"/>
       <c r="U210" s="30"/>
     </row>
-    <row r="211" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A211" s="30"/>
       <c r="B211" s="30"/>
       <c r="C211" s="30"/>
@@ -59773,7 +59767,7 @@
       <c r="T211" s="30"/>
       <c r="U211" s="30"/>
     </row>
-    <row r="212" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A212" s="30"/>
       <c r="B212" s="30"/>
       <c r="C212" s="30"/>
@@ -59796,7 +59790,7 @@
       <c r="T212" s="30"/>
       <c r="U212" s="30"/>
     </row>
-    <row r="213" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A213" s="30"/>
       <c r="B213" s="30"/>
       <c r="C213" s="30"/>
@@ -59819,7 +59813,7 @@
       <c r="T213" s="30"/>
       <c r="U213" s="30"/>
     </row>
-    <row r="214" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A214" s="30"/>
       <c r="B214" s="30"/>
       <c r="C214" s="30"/>
@@ -59842,7 +59836,7 @@
       <c r="T214" s="30"/>
       <c r="U214" s="30"/>
     </row>
-    <row r="215" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A215" s="30"/>
       <c r="B215" s="30"/>
       <c r="C215" s="30"/>
@@ -59865,7 +59859,7 @@
       <c r="T215" s="30"/>
       <c r="U215" s="30"/>
     </row>
-    <row r="216" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A216" s="30"/>
       <c r="B216" s="30"/>
       <c r="C216" s="30"/>
@@ -59888,7 +59882,7 @@
       <c r="T216" s="30"/>
       <c r="U216" s="30"/>
     </row>
-    <row r="217" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A217" s="30"/>
       <c r="B217" s="30"/>
       <c r="C217" s="30"/>
@@ -59911,7 +59905,7 @@
       <c r="T217" s="30"/>
       <c r="U217" s="30"/>
     </row>
-    <row r="218" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A218" s="30"/>
       <c r="B218" s="30"/>
       <c r="C218" s="30"/>
@@ -59934,7 +59928,7 @@
       <c r="T218" s="30"/>
       <c r="U218" s="30"/>
     </row>
-    <row r="219" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A219" s="30"/>
       <c r="B219" s="30"/>
       <c r="C219" s="30"/>
@@ -59957,7 +59951,7 @@
       <c r="T219" s="30"/>
       <c r="U219" s="30"/>
     </row>
-    <row r="220" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A220" s="30"/>
       <c r="B220" s="30"/>
       <c r="C220" s="30"/>
@@ -59980,7 +59974,7 @@
       <c r="T220" s="30"/>
       <c r="U220" s="30"/>
     </row>
-    <row r="221" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A221" s="30"/>
       <c r="B221" s="30"/>
       <c r="C221" s="30"/>
@@ -60003,7 +59997,7 @@
       <c r="T221" s="30"/>
       <c r="U221" s="30"/>
     </row>
-    <row r="222" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A222" s="30"/>
       <c r="B222" s="30"/>
       <c r="C222" s="30"/>
@@ -60026,7 +60020,7 @@
       <c r="T222" s="30"/>
       <c r="U222" s="30"/>
     </row>
-    <row r="223" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A223" s="30"/>
       <c r="B223" s="30"/>
       <c r="C223" s="30"/>
@@ -60049,7 +60043,7 @@
       <c r="T223" s="30"/>
       <c r="U223" s="30"/>
     </row>
-    <row r="224" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A224" s="30"/>
       <c r="B224" s="30"/>
       <c r="C224" s="30"/>
@@ -60072,7 +60066,7 @@
       <c r="T224" s="30"/>
       <c r="U224" s="30"/>
     </row>
-    <row r="225" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A225" s="30"/>
       <c r="B225" s="30"/>
       <c r="C225" s="30"/>
@@ -60095,7 +60089,7 @@
       <c r="T225" s="30"/>
       <c r="U225" s="30"/>
     </row>
-    <row r="226" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A226" s="30"/>
       <c r="B226" s="30"/>
       <c r="C226" s="30"/>
@@ -60118,7 +60112,7 @@
       <c r="T226" s="30"/>
       <c r="U226" s="30"/>
     </row>
-    <row r="227" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A227" s="30"/>
       <c r="B227" s="30"/>
       <c r="C227" s="30"/>
@@ -60141,7 +60135,7 @@
       <c r="T227" s="30"/>
       <c r="U227" s="30"/>
     </row>
-    <row r="228" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A228" s="30"/>
       <c r="B228" s="30"/>
       <c r="C228" s="30"/>
@@ -60164,7 +60158,7 @@
       <c r="T228" s="30"/>
       <c r="U228" s="30"/>
     </row>
-    <row r="229" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A229" s="30"/>
       <c r="B229" s="30"/>
       <c r="C229" s="30"/>
@@ -60187,7 +60181,7 @@
       <c r="T229" s="30"/>
       <c r="U229" s="30"/>
     </row>
-    <row r="230" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A230" s="30"/>
       <c r="B230" s="30"/>
       <c r="C230" s="30"/>
@@ -60210,7 +60204,7 @@
       <c r="T230" s="30"/>
       <c r="U230" s="30"/>
     </row>
-    <row r="231" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A231" s="30"/>
       <c r="B231" s="30"/>
       <c r="C231" s="30"/>
@@ -60233,7 +60227,7 @@
       <c r="T231" s="30"/>
       <c r="U231" s="30"/>
     </row>
-    <row r="232" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A232" s="30"/>
       <c r="B232" s="30"/>
       <c r="C232" s="30"/>
@@ -60256,7 +60250,7 @@
       <c r="T232" s="30"/>
       <c r="U232" s="30"/>
     </row>
-    <row r="233" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A233" s="30"/>
       <c r="B233" s="30"/>
       <c r="C233" s="30"/>
@@ -60279,7 +60273,7 @@
       <c r="T233" s="30"/>
       <c r="U233" s="30"/>
     </row>
-    <row r="234" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A234" s="30"/>
       <c r="B234" s="30"/>
       <c r="C234" s="30"/>
@@ -60302,7 +60296,7 @@
       <c r="T234" s="30"/>
       <c r="U234" s="30"/>
     </row>
-    <row r="235" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A235" s="30"/>
       <c r="B235" s="30"/>
       <c r="C235" s="30"/>
@@ -60325,7 +60319,7 @@
       <c r="T235" s="30"/>
       <c r="U235" s="30"/>
     </row>
-    <row r="236" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A236" s="30"/>
       <c r="B236" s="30"/>
       <c r="C236" s="30"/>
@@ -60348,7 +60342,7 @@
       <c r="T236" s="30"/>
       <c r="U236" s="30"/>
     </row>
-    <row r="237" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A237" s="30"/>
       <c r="B237" s="30"/>
       <c r="C237" s="30"/>
@@ -60371,7 +60365,7 @@
       <c r="T237" s="30"/>
       <c r="U237" s="30"/>
     </row>
-    <row r="238" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A238" s="30"/>
       <c r="B238" s="30"/>
       <c r="C238" s="30"/>
@@ -60394,7 +60388,7 @@
       <c r="T238" s="30"/>
       <c r="U238" s="30"/>
     </row>
-    <row r="239" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A239" s="30"/>
       <c r="B239" s="30"/>
       <c r="C239" s="30"/>
@@ -60417,7 +60411,7 @@
       <c r="T239" s="30"/>
       <c r="U239" s="30"/>
     </row>
-    <row r="240" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A240" s="30"/>
       <c r="B240" s="30"/>
       <c r="C240" s="30"/>
@@ -60440,7 +60434,7 @@
       <c r="T240" s="30"/>
       <c r="U240" s="30"/>
     </row>
-    <row r="241" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A241" s="30"/>
       <c r="B241" s="30"/>
       <c r="C241" s="30"/>
@@ -60463,7 +60457,7 @@
       <c r="T241" s="30"/>
       <c r="U241" s="30"/>
     </row>
-    <row r="242" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A242" s="30"/>
       <c r="B242" s="30"/>
       <c r="C242" s="30"/>
@@ -60486,7 +60480,7 @@
       <c r="T242" s="30"/>
       <c r="U242" s="30"/>
     </row>
-    <row r="243" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A243" s="30"/>
       <c r="B243" s="30"/>
       <c r="C243" s="30"/>
@@ -60509,7 +60503,7 @@
       <c r="T243" s="30"/>
       <c r="U243" s="30"/>
     </row>
-    <row r="244" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A244" s="30"/>
       <c r="B244" s="30"/>
       <c r="C244" s="30"/>
@@ -60532,7 +60526,7 @@
       <c r="T244" s="30"/>
       <c r="U244" s="30"/>
     </row>
-    <row r="245" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A245" s="30"/>
       <c r="B245" s="30"/>
       <c r="C245" s="30"/>
@@ -60555,7 +60549,7 @@
       <c r="T245" s="30"/>
       <c r="U245" s="30"/>
     </row>
-    <row r="246" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A246" s="30"/>
       <c r="B246" s="30"/>
       <c r="C246" s="30"/>
@@ -60578,7 +60572,7 @@
       <c r="T246" s="30"/>
       <c r="U246" s="30"/>
     </row>
-    <row r="247" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A247" s="30"/>
       <c r="B247" s="30"/>
       <c r="C247" s="30"/>
@@ -60601,7 +60595,7 @@
       <c r="T247" s="30"/>
       <c r="U247" s="30"/>
     </row>
-    <row r="248" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A248" s="30"/>
       <c r="B248" s="30"/>
       <c r="C248" s="30"/>
@@ -60624,7 +60618,7 @@
       <c r="T248" s="30"/>
       <c r="U248" s="30"/>
     </row>
-    <row r="249" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A249" s="30"/>
       <c r="B249" s="30"/>
       <c r="C249" s="30"/>
@@ -60647,7 +60641,7 @@
       <c r="T249" s="30"/>
       <c r="U249" s="30"/>
     </row>
-    <row r="250" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A250" s="30"/>
       <c r="B250" s="30"/>
       <c r="C250" s="30"/>
@@ -60670,7 +60664,7 @@
       <c r="T250" s="30"/>
       <c r="U250" s="30"/>
     </row>
-    <row r="251" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A251" s="30"/>
       <c r="B251" s="30"/>
       <c r="C251" s="30"/>
@@ -60693,7 +60687,7 @@
       <c r="T251" s="30"/>
       <c r="U251" s="30"/>
     </row>
-    <row r="252" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A252" s="30"/>
       <c r="B252" s="30"/>
       <c r="C252" s="30"/>
@@ -60716,7 +60710,7 @@
       <c r="T252" s="30"/>
       <c r="U252" s="30"/>
     </row>
-    <row r="253" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A253" s="30"/>
       <c r="B253" s="30"/>
       <c r="C253" s="30"/>
@@ -60739,7 +60733,7 @@
       <c r="T253" s="30"/>
       <c r="U253" s="30"/>
     </row>
-    <row r="254" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A254" s="30"/>
       <c r="B254" s="30"/>
       <c r="C254" s="30"/>
@@ -60762,7 +60756,7 @@
       <c r="T254" s="30"/>
       <c r="U254" s="30"/>
     </row>
-    <row r="255" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A255" s="30"/>
       <c r="B255" s="30"/>
       <c r="C255" s="30"/>
@@ -60785,7 +60779,7 @@
       <c r="T255" s="30"/>
       <c r="U255" s="30"/>
     </row>
-    <row r="256" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A256" s="30"/>
       <c r="B256" s="30"/>
       <c r="C256" s="30"/>
@@ -60808,7 +60802,7 @@
       <c r="T256" s="30"/>
       <c r="U256" s="30"/>
     </row>
-    <row r="257" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A257" s="30"/>
       <c r="B257" s="30"/>
       <c r="C257" s="30"/>
@@ -60831,7 +60825,7 @@
       <c r="T257" s="30"/>
       <c r="U257" s="30"/>
     </row>
-    <row r="258" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A258" s="30"/>
       <c r="B258" s="30"/>
       <c r="C258" s="30"/>
@@ -60854,7 +60848,7 @@
       <c r="T258" s="30"/>
       <c r="U258" s="30"/>
     </row>
-    <row r="259" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A259" s="30"/>
       <c r="B259" s="30"/>
       <c r="C259" s="30"/>
@@ -60877,7 +60871,7 @@
       <c r="T259" s="30"/>
       <c r="U259" s="30"/>
     </row>
-    <row r="260" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A260" s="30"/>
       <c r="B260" s="30"/>
       <c r="C260" s="30"/>
@@ -60900,7 +60894,7 @@
       <c r="T260" s="30"/>
       <c r="U260" s="30"/>
     </row>
-    <row r="261" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A261" s="30"/>
       <c r="B261" s="30"/>
       <c r="C261" s="30"/>
@@ -60923,7 +60917,7 @@
       <c r="T261" s="30"/>
       <c r="U261" s="30"/>
     </row>
-    <row r="262" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A262" s="30"/>
       <c r="B262" s="30"/>
       <c r="C262" s="30"/>
@@ -60946,7 +60940,7 @@
       <c r="T262" s="30"/>
       <c r="U262" s="30"/>
     </row>
-    <row r="263" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A263" s="30"/>
       <c r="B263" s="30"/>
       <c r="C263" s="30"/>
@@ -60969,7 +60963,7 @@
       <c r="T263" s="30"/>
       <c r="U263" s="30"/>
     </row>
-    <row r="264" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A264" s="30"/>
       <c r="B264" s="30"/>
       <c r="C264" s="30"/>
@@ -60992,7 +60986,7 @@
       <c r="T264" s="30"/>
       <c r="U264" s="30"/>
     </row>
-    <row r="265" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A265" s="30"/>
       <c r="B265" s="30"/>
       <c r="C265" s="30"/>
@@ -61015,7 +61009,7 @@
       <c r="T265" s="30"/>
       <c r="U265" s="30"/>
     </row>
-    <row r="266" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A266" s="30"/>
       <c r="B266" s="30"/>
       <c r="C266" s="30"/>
@@ -61038,7 +61032,7 @@
       <c r="T266" s="30"/>
       <c r="U266" s="30"/>
     </row>
-    <row r="267" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A267" s="30"/>
       <c r="B267" s="30"/>
       <c r="C267" s="30"/>
@@ -61061,7 +61055,7 @@
       <c r="T267" s="30"/>
       <c r="U267" s="30"/>
     </row>
-    <row r="268" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A268" s="30"/>
       <c r="B268" s="30"/>
       <c r="C268" s="30"/>
@@ -61084,7 +61078,7 @@
       <c r="T268" s="30"/>
       <c r="U268" s="30"/>
     </row>
-    <row r="269" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A269" s="30"/>
       <c r="B269" s="30"/>
       <c r="C269" s="30"/>
@@ -61107,7 +61101,7 @@
       <c r="T269" s="30"/>
       <c r="U269" s="30"/>
     </row>
-    <row r="270" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A270" s="30"/>
       <c r="B270" s="30"/>
       <c r="C270" s="30"/>
@@ -61130,7 +61124,7 @@
       <c r="T270" s="30"/>
       <c r="U270" s="30"/>
     </row>
-    <row r="271" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A271" s="30"/>
       <c r="B271" s="30"/>
       <c r="C271" s="30"/>
@@ -61153,7 +61147,7 @@
       <c r="T271" s="30"/>
       <c r="U271" s="30"/>
     </row>
-    <row r="272" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A272" s="30"/>
       <c r="B272" s="30"/>
       <c r="C272" s="30"/>
@@ -61176,7 +61170,7 @@
       <c r="T272" s="30"/>
       <c r="U272" s="30"/>
     </row>
-    <row r="273" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A273" s="30"/>
       <c r="B273" s="30"/>
       <c r="C273" s="30"/>
@@ -61199,7 +61193,7 @@
       <c r="T273" s="30"/>
       <c r="U273" s="30"/>
     </row>
-    <row r="274" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A274" s="30"/>
       <c r="B274" s="30"/>
       <c r="C274" s="30"/>
@@ -61222,7 +61216,7 @@
       <c r="T274" s="30"/>
       <c r="U274" s="30"/>
     </row>
-    <row r="275" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A275" s="30"/>
       <c r="B275" s="30"/>
       <c r="C275" s="30"/>
@@ -61245,7 +61239,7 @@
       <c r="T275" s="30"/>
       <c r="U275" s="30"/>
     </row>
-    <row r="276" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A276" s="30"/>
       <c r="B276" s="30"/>
       <c r="C276" s="30"/>
@@ -61268,7 +61262,7 @@
       <c r="T276" s="30"/>
       <c r="U276" s="30"/>
     </row>
-    <row r="277" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A277" s="30"/>
       <c r="B277" s="30"/>
       <c r="C277" s="30"/>
@@ -61291,7 +61285,7 @@
       <c r="T277" s="30"/>
       <c r="U277" s="30"/>
     </row>
-    <row r="278" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A278" s="30"/>
       <c r="B278" s="30"/>
       <c r="C278" s="30"/>
@@ -61314,7 +61308,7 @@
       <c r="T278" s="30"/>
       <c r="U278" s="30"/>
     </row>
-    <row r="279" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A279" s="30"/>
       <c r="B279" s="30"/>
       <c r="C279" s="30"/>
@@ -61337,7 +61331,7 @@
       <c r="T279" s="30"/>
       <c r="U279" s="30"/>
     </row>
-    <row r="280" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A280" s="30"/>
       <c r="B280" s="30"/>
       <c r="C280" s="30"/>
@@ -61360,7 +61354,7 @@
       <c r="T280" s="30"/>
       <c r="U280" s="30"/>
     </row>
-    <row r="281" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A281" s="30"/>
       <c r="B281" s="30"/>
       <c r="C281" s="30"/>
@@ -61383,7 +61377,7 @@
       <c r="T281" s="30"/>
       <c r="U281" s="30"/>
     </row>
-    <row r="282" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A282" s="30"/>
       <c r="B282" s="30"/>
       <c r="C282" s="30"/>
@@ -61406,7 +61400,7 @@
       <c r="T282" s="30"/>
       <c r="U282" s="30"/>
     </row>
-    <row r="283" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A283" s="30"/>
       <c r="B283" s="30"/>
       <c r="C283" s="30"/>
@@ -61429,7 +61423,7 @@
       <c r="T283" s="30"/>
       <c r="U283" s="30"/>
     </row>
-    <row r="284" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A284" s="30"/>
       <c r="B284" s="30"/>
       <c r="C284" s="30"/>
@@ -61452,7 +61446,7 @@
       <c r="T284" s="30"/>
       <c r="U284" s="30"/>
     </row>
-    <row r="285" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A285" s="30"/>
       <c r="B285" s="30"/>
       <c r="C285" s="30"/>
@@ -61475,7 +61469,7 @@
       <c r="T285" s="30"/>
       <c r="U285" s="30"/>
     </row>
-    <row r="286" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A286" s="30"/>
       <c r="B286" s="30"/>
       <c r="C286" s="30"/>
@@ -61498,7 +61492,7 @@
       <c r="T286" s="30"/>
       <c r="U286" s="30"/>
     </row>
-    <row r="287" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A287" s="30"/>
       <c r="B287" s="30"/>
       <c r="C287" s="30"/>
@@ -61521,7 +61515,7 @@
       <c r="T287" s="30"/>
       <c r="U287" s="30"/>
     </row>
-    <row r="288" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A288" s="30"/>
       <c r="B288" s="30"/>
       <c r="C288" s="30"/>
@@ -61544,7 +61538,7 @@
       <c r="T288" s="30"/>
       <c r="U288" s="30"/>
     </row>
-    <row r="289" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A289" s="30"/>
       <c r="B289" s="30"/>
       <c r="C289" s="30"/>
@@ -61567,7 +61561,7 @@
       <c r="T289" s="30"/>
       <c r="U289" s="30"/>
     </row>
-    <row r="290" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A290" s="30"/>
       <c r="B290" s="30"/>
       <c r="C290" s="30"/>
@@ -61590,7 +61584,7 @@
       <c r="T290" s="30"/>
       <c r="U290" s="30"/>
     </row>
-    <row r="291" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A291" s="30"/>
       <c r="B291" s="30"/>
       <c r="C291" s="30"/>
@@ -61613,7 +61607,7 @@
       <c r="T291" s="30"/>
       <c r="U291" s="30"/>
     </row>
-    <row r="292" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A292" s="30"/>
       <c r="B292" s="30"/>
       <c r="C292" s="30"/>
@@ -61636,7 +61630,7 @@
       <c r="T292" s="30"/>
       <c r="U292" s="30"/>
     </row>
-    <row r="293" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A293" s="30"/>
       <c r="B293" s="30"/>
       <c r="C293" s="30"/>
@@ -61659,7 +61653,7 @@
       <c r="T293" s="30"/>
       <c r="U293" s="30"/>
     </row>
-    <row r="294" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A294" s="30"/>
       <c r="B294" s="30"/>
       <c r="C294" s="30"/>
@@ -61682,7 +61676,7 @@
       <c r="T294" s="30"/>
       <c r="U294" s="30"/>
     </row>
-    <row r="295" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A295" s="30"/>
       <c r="B295" s="30"/>
       <c r="C295" s="30"/>
@@ -61705,7 +61699,7 @@
       <c r="T295" s="30"/>
       <c r="U295" s="30"/>
     </row>
-    <row r="296" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A296" s="30"/>
       <c r="B296" s="30"/>
       <c r="C296" s="30"/>
@@ -61728,7 +61722,7 @@
       <c r="T296" s="30"/>
       <c r="U296" s="30"/>
     </row>
-    <row r="297" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A297" s="30"/>
       <c r="B297" s="30"/>
       <c r="C297" s="30"/>
@@ -61751,7 +61745,7 @@
       <c r="T297" s="30"/>
       <c r="U297" s="30"/>
     </row>
-    <row r="298" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A298" s="30"/>
       <c r="B298" s="30"/>
       <c r="C298" s="30"/>
@@ -61774,7 +61768,7 @@
       <c r="T298" s="30"/>
       <c r="U298" s="30"/>
     </row>
-    <row r="299" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A299" s="30"/>
       <c r="B299" s="30"/>
       <c r="C299" s="30"/>
@@ -61797,7 +61791,7 @@
       <c r="T299" s="30"/>
       <c r="U299" s="30"/>
     </row>
-    <row r="300" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A300" s="30"/>
       <c r="B300" s="30"/>
       <c r="C300" s="30"/>
@@ -61820,7 +61814,7 @@
       <c r="T300" s="30"/>
       <c r="U300" s="30"/>
     </row>
-    <row r="301" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A301" s="30"/>
       <c r="B301" s="30"/>
       <c r="C301" s="30"/>
@@ -61843,7 +61837,7 @@
       <c r="T301" s="30"/>
       <c r="U301" s="30"/>
     </row>
-    <row r="302" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A302" s="30"/>
       <c r="B302" s="30"/>
       <c r="C302" s="30"/>
@@ -61866,7 +61860,7 @@
       <c r="T302" s="30"/>
       <c r="U302" s="30"/>
     </row>
-    <row r="303" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A303" s="30"/>
       <c r="B303" s="30"/>
       <c r="C303" s="30"/>
@@ -61889,7 +61883,7 @@
       <c r="T303" s="30"/>
       <c r="U303" s="30"/>
     </row>
-    <row r="304" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A304" s="30"/>
       <c r="B304" s="30"/>
       <c r="C304" s="30"/>
@@ -61912,7 +61906,7 @@
       <c r="T304" s="30"/>
       <c r="U304" s="30"/>
     </row>
-    <row r="305" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A305" s="30"/>
       <c r="B305" s="30"/>
       <c r="C305" s="30"/>
@@ -61935,7 +61929,7 @@
       <c r="T305" s="30"/>
       <c r="U305" s="30"/>
     </row>
-    <row r="306" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A306" s="30"/>
       <c r="B306" s="30"/>
       <c r="C306" s="30"/>
@@ -61958,7 +61952,7 @@
       <c r="T306" s="30"/>
       <c r="U306" s="30"/>
     </row>
-    <row r="307" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A307" s="30"/>
       <c r="B307" s="30"/>
       <c r="C307" s="30"/>
@@ -61991,28 +61985,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Offline/BusinessManagement/ProfitabilitySheet.xlsx
+++ b/Offline/BusinessManagement/ProfitabilitySheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Offline\BusinessManagement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1DB1814-8176-4583-BCFF-52505E5D4E74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BE893F0-8021-4833-B0E5-B3FBF31BFB2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -642,9 +642,6 @@
     <t>Science - Physics, Chem</t>
   </si>
   <si>
-    <t>Science - Bio</t>
-  </si>
-  <si>
     <t>Pradipta</t>
   </si>
   <si>
@@ -949,6 +946,9 @@
   </si>
   <si>
     <t>AI - NLP</t>
+  </si>
+  <si>
+    <t>Dr Partha Sarathi</t>
   </si>
 </sst>
 </file>
@@ -1397,6 +1397,48 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="13" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="20" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1434,48 +1476,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="20" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="13" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1769,13 +1769,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AN405"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="119" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B93" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C348" sqref="C348"/>
+      <selection pane="bottomRight" activeCell="E409" sqref="E409"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.73046875" defaultRowHeight="13.5" x14ac:dyDescent="0.45"/>
@@ -1815,180 +1816,180 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="F1" s="51" t="s">
-        <v>273</v>
-      </c>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
-      <c r="O1" s="51"/>
-      <c r="P1" s="51"/>
-      <c r="Q1" s="51"/>
-      <c r="R1" s="51"/>
-      <c r="S1" s="51"/>
-      <c r="T1" s="51"/>
-      <c r="U1" s="52"/>
-      <c r="V1" s="53" t="s">
+      <c r="F1" s="35" t="s">
+        <v>272</v>
+      </c>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="35"/>
+      <c r="T1" s="35"/>
+      <c r="U1" s="36"/>
+      <c r="V1" s="37" t="s">
+        <v>292</v>
+      </c>
+      <c r="W1" s="38"/>
+      <c r="X1" s="38"/>
+      <c r="Y1" s="38"/>
+      <c r="Z1" s="39"/>
+      <c r="AA1" s="40" t="s">
+        <v>291</v>
+      </c>
+      <c r="AB1" s="41"/>
+      <c r="AC1" s="41"/>
+      <c r="AD1" s="41"/>
+      <c r="AE1" s="42"/>
+      <c r="AF1" s="49" t="s">
+        <v>299</v>
+      </c>
+      <c r="AG1" s="50"/>
+      <c r="AH1" s="50"/>
+      <c r="AI1" s="50"/>
+      <c r="AJ1" s="51"/>
+      <c r="AK1" s="56" t="s">
         <v>293</v>
       </c>
-      <c r="W1" s="54"/>
-      <c r="X1" s="54"/>
-      <c r="Y1" s="54"/>
-      <c r="Z1" s="55"/>
-      <c r="AA1" s="56" t="s">
-        <v>292</v>
-      </c>
-      <c r="AB1" s="57"/>
-      <c r="AC1" s="57"/>
-      <c r="AD1" s="57"/>
-      <c r="AE1" s="58"/>
-      <c r="AF1" s="35" t="s">
-        <v>300</v>
-      </c>
-      <c r="AG1" s="36"/>
-      <c r="AH1" s="36"/>
-      <c r="AI1" s="36"/>
-      <c r="AJ1" s="37"/>
-      <c r="AK1" s="42" t="s">
+      <c r="AL1" s="57"/>
+      <c r="AM1" s="57"/>
+      <c r="AN1" s="57"/>
+    </row>
+    <row r="2" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="47" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2" s="48" t="s">
+        <v>271</v>
+      </c>
+      <c r="H2" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" s="47"/>
+      <c r="N2" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="P2" s="47" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q2" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="R2" s="47" t="s">
+        <v>75</v>
+      </c>
+      <c r="S2" s="47" t="s">
+        <v>65</v>
+      </c>
+      <c r="T2" s="47" t="s">
+        <v>76</v>
+      </c>
+      <c r="U2" s="47" t="s">
+        <v>172</v>
+      </c>
+      <c r="V2" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="W2" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="X2" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y2" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z2" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA2" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB2" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC2" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD2" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE2" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF2" s="58" t="s">
+        <v>298</v>
+      </c>
+      <c r="AG2" s="59" t="s">
         <v>294</v>
       </c>
-      <c r="AL1" s="43"/>
-      <c r="AM1" s="43"/>
-      <c r="AN1" s="43"/>
-    </row>
-    <row r="2" spans="1:40" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="48" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="48" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="48" t="s">
-        <v>129</v>
-      </c>
-      <c r="F2" s="49" t="s">
-        <v>72</v>
-      </c>
-      <c r="G2" s="49" t="s">
-        <v>272</v>
-      </c>
-      <c r="H2" s="48" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="48" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="48" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48" t="s">
-        <v>19</v>
-      </c>
-      <c r="M2" s="48"/>
-      <c r="N2" s="48" t="s">
-        <v>16</v>
-      </c>
-      <c r="O2" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="P2" s="48" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q2" s="48" t="s">
-        <v>70</v>
-      </c>
-      <c r="R2" s="48" t="s">
-        <v>75</v>
-      </c>
-      <c r="S2" s="48" t="s">
-        <v>65</v>
-      </c>
-      <c r="T2" s="48" t="s">
-        <v>76</v>
-      </c>
-      <c r="U2" s="48" t="s">
-        <v>172</v>
-      </c>
-      <c r="V2" s="50" t="s">
+      <c r="AH2" s="59" t="s">
+        <v>295</v>
+      </c>
+      <c r="AI2" s="61" t="s">
+        <v>296</v>
+      </c>
+      <c r="AJ2" s="58" t="s">
+        <v>297</v>
+      </c>
+      <c r="AK2" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="W2" s="50" t="s">
+      <c r="AL2" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="X2" s="61" t="s">
+      <c r="AM2" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="Y2" s="50" t="s">
+      <c r="AN2" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="Z2" s="50" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA2" s="59" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB2" s="59" t="s">
-        <v>10</v>
-      </c>
-      <c r="AC2" s="60" t="s">
-        <v>11</v>
-      </c>
-      <c r="AD2" s="59" t="s">
-        <v>12</v>
-      </c>
-      <c r="AE2" s="59" t="s">
-        <v>13</v>
-      </c>
-      <c r="AF2" s="44" t="s">
-        <v>299</v>
-      </c>
-      <c r="AG2" s="45" t="s">
-        <v>295</v>
-      </c>
-      <c r="AH2" s="45" t="s">
-        <v>296</v>
-      </c>
-      <c r="AI2" s="47" t="s">
-        <v>297</v>
-      </c>
-      <c r="AJ2" s="44" t="s">
-        <v>298</v>
-      </c>
-      <c r="AK2" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="AL2" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="AM2" s="40" t="s">
-        <v>11</v>
-      </c>
-      <c r="AN2" s="41" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="3" spans="1:40" s="2" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="48"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
+      <c r="A3" s="47"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
       <c r="J3" s="11" t="s">
         <v>21</v>
       </c>
@@ -2001,35 +2002,35 @@
       <c r="M3" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="N3" s="48"/>
-      <c r="O3" s="48"/>
-      <c r="P3" s="48"/>
-      <c r="Q3" s="48"/>
-      <c r="R3" s="48"/>
-      <c r="S3" s="48"/>
-      <c r="T3" s="48"/>
-      <c r="U3" s="48"/>
-      <c r="V3" s="50"/>
-      <c r="W3" s="50"/>
-      <c r="X3" s="61"/>
-      <c r="Y3" s="50"/>
-      <c r="Z3" s="50"/>
-      <c r="AA3" s="59"/>
-      <c r="AB3" s="59"/>
-      <c r="AC3" s="60"/>
-      <c r="AD3" s="59"/>
-      <c r="AE3" s="59"/>
-      <c r="AF3" s="44"/>
-      <c r="AG3" s="46"/>
-      <c r="AH3" s="46"/>
-      <c r="AI3" s="47"/>
-      <c r="AJ3" s="44"/>
-      <c r="AK3" s="39"/>
-      <c r="AL3" s="39"/>
-      <c r="AM3" s="40"/>
-      <c r="AN3" s="41"/>
-    </row>
-    <row r="4" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N3" s="47"/>
+      <c r="O3" s="47"/>
+      <c r="P3" s="47"/>
+      <c r="Q3" s="47"/>
+      <c r="R3" s="47"/>
+      <c r="S3" s="47"/>
+      <c r="T3" s="47"/>
+      <c r="U3" s="47"/>
+      <c r="V3" s="46"/>
+      <c r="W3" s="46"/>
+      <c r="X3" s="45"/>
+      <c r="Y3" s="46"/>
+      <c r="Z3" s="46"/>
+      <c r="AA3" s="43"/>
+      <c r="AB3" s="43"/>
+      <c r="AC3" s="44"/>
+      <c r="AD3" s="43"/>
+      <c r="AE3" s="43"/>
+      <c r="AF3" s="58"/>
+      <c r="AG3" s="60"/>
+      <c r="AH3" s="60"/>
+      <c r="AI3" s="61"/>
+      <c r="AJ3" s="58"/>
+      <c r="AK3" s="53"/>
+      <c r="AL3" s="53"/>
+      <c r="AM3" s="54"/>
+      <c r="AN3" s="55"/>
+    </row>
+    <row r="4" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="12" t="str">
         <f>"NEET &amp; IIT Crash Course "&amp;" " &amp; B4</f>
         <v>NEET &amp; IIT Crash Course  Physics</v>
@@ -2172,7 +2173,7 @@
         <v>142.85714183673468</v>
       </c>
     </row>
-    <row r="5" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="12" t="str">
         <f t="shared" ref="A5:A7" si="5">"NEET &amp; IIT Crash Course "&amp;" " &amp; B5</f>
         <v>NEET &amp; IIT Crash Course  Chemistry</v>
@@ -2193,7 +2194,7 @@
         <v>187</v>
       </c>
       <c r="G5" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H5" s="7" t="s">
         <v>71</v>
@@ -2315,7 +2316,7 @@
         <v>142.85719387756922</v>
       </c>
     </row>
-    <row r="6" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="12" t="str">
         <f>"IIT Crash Course "&amp;" " &amp; B6</f>
         <v>IIT Crash Course  Maths</v>
@@ -2476,10 +2477,10 @@
         <v>130</v>
       </c>
       <c r="F7" s="33" t="s">
-        <v>187</v>
+        <v>304</v>
       </c>
       <c r="G7" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>71</v>
@@ -2601,7 +2602,7 @@
         <v>107.1428954081769</v>
       </c>
     </row>
-    <row r="8" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="12" t="str">
         <f>C8&amp;" - All Boards - "&amp;B8</f>
         <v>XII - All Boards - Physics</v>
@@ -2616,7 +2617,7 @@
         <v>26</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>189</v>
@@ -2744,7 +2745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="12" t="str">
         <f t="shared" ref="A9:A15" si="16">C9&amp;" - All Boards - "&amp;B9</f>
         <v>XII - All Boards - Chemistry</v>
@@ -2759,7 +2760,7 @@
         <v>26</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>190</v>
@@ -2887,7 +2888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="12" t="str">
         <f t="shared" si="16"/>
         <v>XII - All Boards - Maths</v>
@@ -2902,13 +2903,13 @@
         <v>26</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F10" s="33" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G10" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H10" s="7" t="s">
         <v>71</v>
@@ -3045,7 +3046,7 @@
         <v>26</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F11" s="22" t="s">
         <v>29</v>
@@ -3173,7 +3174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="12" t="str">
         <f t="shared" si="16"/>
         <v>XI - All Boards - Physics</v>
@@ -3188,7 +3189,7 @@
         <v>26</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>189</v>
@@ -3316,7 +3317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="12" t="str">
         <f t="shared" si="16"/>
         <v>XI - All Boards - Chemistry</v>
@@ -3331,7 +3332,7 @@
         <v>26</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>190</v>
@@ -3459,7 +3460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="12" t="str">
         <f t="shared" si="16"/>
         <v>XI - All Boards - Maths</v>
@@ -3474,13 +3475,13 @@
         <v>26</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F14" s="33" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G14" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H14" s="7" t="s">
         <v>71</v>
@@ -3617,7 +3618,7 @@
         <v>26</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F15" s="22" t="s">
         <v>29</v>
@@ -3745,7 +3746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="23" t="str">
         <f t="shared" ref="A16:A18" si="39">D16&amp;" - "&amp;C16&amp;" - "&amp;B16</f>
         <v>ISC - XII - English</v>
@@ -3760,13 +3761,13 @@
         <v>41</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F16" s="33" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G16" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H16" s="7" t="s">
         <v>71</v>
@@ -3888,7 +3889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="23" t="str">
         <f t="shared" si="39"/>
         <v>ISC - XII - Bengali</v>
@@ -3903,7 +3904,7 @@
         <v>41</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F17" s="22" t="s">
         <v>29</v>
@@ -4031,7 +4032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="23" t="str">
         <f t="shared" si="39"/>
         <v>ISC - XII - Hindi</v>
@@ -4046,13 +4047,13 @@
         <v>41</v>
       </c>
       <c r="E18" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="F18" s="33" t="s">
         <v>302</v>
       </c>
-      <c r="F18" s="33" t="s">
-        <v>303</v>
-      </c>
       <c r="G18" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H18" s="7" t="s">
         <v>71</v>
@@ -4174,7 +4175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="23" t="str">
         <f>D19&amp;" - "&amp;C19&amp;" - "&amp;B19</f>
         <v>ISC - XII - History</v>
@@ -4189,13 +4190,13 @@
         <v>41</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F19" s="33" t="s">
         <v>193</v>
       </c>
       <c r="G19" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H19" s="7" t="s">
         <v>71</v>
@@ -4317,7 +4318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="23" t="str">
         <f>D20&amp;" - "&amp;C20&amp;" - "&amp;B20</f>
         <v>ISC - XII - Geography</v>
@@ -4332,10 +4333,10 @@
         <v>41</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F20" s="22" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G20" s="22" t="s">
         <v>184</v>
@@ -4460,7 +4461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="23" t="str">
         <f>D21&amp;" - "&amp;C21&amp;" - "&amp;B21</f>
         <v>ISC - XII - Political Science</v>
@@ -4475,13 +4476,13 @@
         <v>41</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F21" s="33" t="s">
         <v>193</v>
       </c>
       <c r="G21" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H21" s="7" t="s">
         <v>71</v>
@@ -4603,7 +4604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="23" t="str">
         <f>D22&amp;" - "&amp;C22&amp;" - "&amp;B22</f>
         <v>ISC - XII - Sociology</v>
@@ -4618,13 +4619,13 @@
         <v>41</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F22" s="33" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G22" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H22" s="7" t="s">
         <v>71</v>
@@ -4746,7 +4747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="23" t="str">
         <f>D23&amp;" - "&amp;C23&amp;" - "&amp;B23</f>
         <v>ISC - XII - Philosophy</v>
@@ -4761,7 +4762,7 @@
         <v>41</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F23" s="22" t="s">
         <v>29</v>
@@ -4889,7 +4890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="23" t="str">
         <f t="shared" ref="A24:A43" si="52">D24&amp;" - "&amp;C24&amp;" - "&amp;B24</f>
         <v>ISC - XII - Accounting</v>
@@ -4910,7 +4911,7 @@
         <v>180</v>
       </c>
       <c r="G24" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H24" s="7" t="s">
         <v>71</v>
@@ -5032,7 +5033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="23" t="str">
         <f t="shared" si="52"/>
         <v>ISC - XII - Commercial Study</v>
@@ -5053,7 +5054,7 @@
         <v>178</v>
       </c>
       <c r="G25" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H25" s="7" t="s">
         <v>71</v>
@@ -5175,7 +5176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="23" t="str">
         <f t="shared" si="52"/>
         <v>ISC - XII - Economics</v>
@@ -5196,7 +5197,7 @@
         <v>179</v>
       </c>
       <c r="G26" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H26" s="7" t="s">
         <v>71</v>
@@ -5318,7 +5319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="23" t="str">
         <f t="shared" si="52"/>
         <v>ISC - XII - Business Studies</v>
@@ -5339,7 +5340,7 @@
         <v>178</v>
       </c>
       <c r="G27" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H27" s="7" t="s">
         <v>71</v>
@@ -5461,7 +5462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="23" t="str">
         <f t="shared" si="52"/>
         <v>ISC - XII - Maths (Comm)</v>
@@ -5482,7 +5483,7 @@
         <v>191</v>
       </c>
       <c r="G28" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H28" s="7" t="s">
         <v>71</v>
@@ -5604,7 +5605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="23" t="str">
         <f>D29&amp;" - "&amp;C29&amp;" - "&amp;B29</f>
         <v>ISC - XII - Computers</v>
@@ -5747,7 +5748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="23" t="str">
         <f>D30&amp;" - "&amp;C30&amp;" - "&amp;B30</f>
         <v>ISC - XII - AI</v>
@@ -5768,7 +5769,7 @@
         <v>63</v>
       </c>
       <c r="G30" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H30" s="7" t="s">
         <v>71</v>
@@ -5890,7 +5891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="23" t="str">
         <f t="shared" si="52"/>
         <v>ISC - XI - English</v>
@@ -5905,13 +5906,13 @@
         <v>41</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F31" s="33" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G31" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H31" s="7" t="s">
         <v>71</v>
@@ -6033,7 +6034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="23" t="str">
         <f t="shared" si="52"/>
         <v>ISC - XI - Bengali</v>
@@ -6048,7 +6049,7 @@
         <v>41</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F32" s="22" t="s">
         <v>29</v>
@@ -6176,7 +6177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="23" t="str">
         <f t="shared" si="52"/>
         <v>ISC - XI - Hindi</v>
@@ -6191,13 +6192,13 @@
         <v>41</v>
       </c>
       <c r="E33" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="F33" s="33" t="s">
         <v>302</v>
       </c>
-      <c r="F33" s="33" t="s">
-        <v>303</v>
-      </c>
       <c r="G33" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H33" s="7" t="s">
         <v>71</v>
@@ -6319,7 +6320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="23" t="str">
         <f>D34&amp;" - "&amp;C34&amp;" - "&amp;B34</f>
         <v>ISC - XI - History</v>
@@ -6334,13 +6335,13 @@
         <v>41</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F34" s="33" t="s">
         <v>193</v>
       </c>
       <c r="G34" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H34" s="7" t="s">
         <v>71</v>
@@ -6462,7 +6463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="23" t="str">
         <f>D35&amp;" - "&amp;C35&amp;" - "&amp;B35</f>
         <v>ISC - XI - Geography</v>
@@ -6477,10 +6478,10 @@
         <v>41</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F35" s="22" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G35" s="22" t="s">
         <v>184</v>
@@ -6605,7 +6606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="23" t="str">
         <f>D36&amp;" - "&amp;C36&amp;" - "&amp;B36</f>
         <v>ISC - XI - Political Science</v>
@@ -6620,13 +6621,13 @@
         <v>41</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F36" s="33" t="s">
         <v>193</v>
       </c>
       <c r="G36" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H36" s="7" t="s">
         <v>71</v>
@@ -6748,7 +6749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="23" t="str">
         <f>D37&amp;" - "&amp;C37&amp;" - "&amp;B37</f>
         <v>ISC - XI - Sociology</v>
@@ -6763,13 +6764,13 @@
         <v>41</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F37" s="33" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G37" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H37" s="7" t="s">
         <v>71</v>
@@ -6891,7 +6892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="23" t="str">
         <f>D38&amp;" - "&amp;C38&amp;" - "&amp;B38</f>
         <v>ISC - XI - Philosophy</v>
@@ -6906,7 +6907,7 @@
         <v>41</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F38" s="22" t="s">
         <v>29</v>
@@ -7034,7 +7035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="23" t="str">
         <f t="shared" si="52"/>
         <v>ISC - XI - Accounting</v>
@@ -7055,7 +7056,7 @@
         <v>180</v>
       </c>
       <c r="G39" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H39" s="7" t="s">
         <v>71</v>
@@ -7177,7 +7178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="23" t="str">
         <f t="shared" si="52"/>
         <v>ISC - XI - Commercial Study</v>
@@ -7198,7 +7199,7 @@
         <v>178</v>
       </c>
       <c r="G40" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H40" s="7" t="s">
         <v>71</v>
@@ -7320,7 +7321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41" s="23" t="str">
         <f t="shared" si="52"/>
         <v>ISC - XI - Economics</v>
@@ -7341,7 +7342,7 @@
         <v>179</v>
       </c>
       <c r="G41" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H41" s="7" t="s">
         <v>71</v>
@@ -7463,7 +7464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42" s="23" t="str">
         <f t="shared" si="52"/>
         <v>ISC - XI - Business Studies</v>
@@ -7484,7 +7485,7 @@
         <v>178</v>
       </c>
       <c r="G42" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H42" s="7" t="s">
         <v>71</v>
@@ -7606,7 +7607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A43" s="23" t="str">
         <f t="shared" si="52"/>
         <v>ISC - XI - Maths (Comm)</v>
@@ -7627,7 +7628,7 @@
         <v>191</v>
       </c>
       <c r="G43" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H43" s="7" t="s">
         <v>71</v>
@@ -7749,7 +7750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A44" s="23" t="str">
         <f>D44&amp;" - "&amp;C44&amp;" - "&amp;B44</f>
         <v>ISC - XI - Computers</v>
@@ -7892,7 +7893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A45" s="23" t="str">
         <f>D45&amp;" - "&amp;C45&amp;" - "&amp;B45</f>
         <v>ISC - XI - AI</v>
@@ -7913,7 +7914,7 @@
         <v>63</v>
       </c>
       <c r="G45" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H45" s="7" t="s">
         <v>71</v>
@@ -8035,7 +8036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A46" s="23" t="str">
         <f>D46&amp;" - "&amp;C46&amp;" - "&amp;B46</f>
         <v>ICSE - X - English</v>
@@ -8050,13 +8051,13 @@
         <v>47</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F46" s="33" t="s">
         <v>196</v>
       </c>
       <c r="G46" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H46" s="7" t="s">
         <v>71</v>
@@ -8178,7 +8179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:40" hidden="1" x14ac:dyDescent="0.45">
       <c r="A47" s="23" t="str">
         <f t="shared" ref="A47:A165" si="95">D47&amp;" - "&amp;C47&amp;" - "&amp;B47</f>
         <v>ICSE - X - Bengali</v>
@@ -8193,7 +8194,7 @@
         <v>47</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F47" s="22" t="s">
         <v>29</v>
@@ -8321,7 +8322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A48" s="23" t="str">
         <f t="shared" si="95"/>
         <v>ICSE - X - Hindi</v>
@@ -8336,13 +8337,13 @@
         <v>47</v>
       </c>
       <c r="E48" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="F48" s="33" t="s">
         <v>302</v>
       </c>
-      <c r="F48" s="33" t="s">
-        <v>303</v>
-      </c>
       <c r="G48" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H48" s="7" t="s">
         <v>71</v>
@@ -8464,7 +8465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:40" hidden="1" x14ac:dyDescent="0.45">
       <c r="A49" s="23" t="str">
         <f>D49&amp;" - "&amp;C49&amp;" - "&amp;B49</f>
         <v>ICSE - X - Geography</v>
@@ -8479,13 +8480,13 @@
         <v>47</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F49" s="33" t="s">
         <v>178</v>
       </c>
       <c r="G49" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H49" s="7" t="s">
         <v>71</v>
@@ -8607,7 +8608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A50" s="23" t="str">
         <f>D50&amp;" - "&amp;C50&amp;" - "&amp;B50</f>
         <v>ICSE - X - EVS</v>
@@ -8622,13 +8623,13 @@
         <v>47</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F50" s="33" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G50" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H50" s="7" t="s">
         <v>71</v>
@@ -8750,7 +8751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:40" hidden="1" x14ac:dyDescent="0.45">
       <c r="A51" s="23" t="str">
         <f>D51&amp;" - "&amp;C51&amp;" - "&amp;B51</f>
         <v>ICSE - X - Hist Civics</v>
@@ -8765,13 +8766,13 @@
         <v>47</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F51" s="33" t="s">
         <v>193</v>
       </c>
       <c r="G51" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H51" s="7" t="s">
         <v>71</v>
@@ -8893,7 +8894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A52" s="23" t="str">
         <f>D52&amp;" - "&amp;C52&amp;" - "&amp;B52</f>
         <v>ICSE - X - Commercial Study</v>
@@ -8914,7 +8915,7 @@
         <v>178</v>
       </c>
       <c r="G52" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H52" s="7" t="s">
         <v>71</v>
@@ -9036,7 +9037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A53" s="23" t="str">
         <f>D53&amp;" - "&amp;C53&amp;" - "&amp;B53</f>
         <v>ICSE - X - Economics</v>
@@ -9057,7 +9058,7 @@
         <v>179</v>
       </c>
       <c r="G53" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H53" s="7" t="s">
         <v>71</v>
@@ -9179,7 +9180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A54" s="23" t="str">
         <f t="shared" si="95"/>
         <v>ICSE - X - Maths</v>
@@ -9194,13 +9195,13 @@
         <v>47</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F54" s="33" t="s">
         <v>191</v>
       </c>
       <c r="G54" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H54" s="7" t="s">
         <v>71</v>
@@ -9322,7 +9323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A55" s="23" t="str">
         <f t="shared" si="95"/>
         <v>ICSE - X - Physics</v>
@@ -9337,7 +9338,7 @@
         <v>47</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F55" s="7" t="s">
         <v>189</v>
@@ -9465,7 +9466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A56" s="23" t="str">
         <f t="shared" si="95"/>
         <v>ICSE - X - Chemistry</v>
@@ -9480,7 +9481,7 @@
         <v>47</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F56" s="7" t="s">
         <v>190</v>
@@ -9623,7 +9624,7 @@
         <v>47</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F57" s="22" t="s">
         <v>29</v>
@@ -9751,7 +9752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A58" s="23" t="str">
         <f t="shared" si="95"/>
         <v>ICSE - X - Computers</v>
@@ -9894,7 +9895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A59" s="23" t="str">
         <f t="shared" si="95"/>
         <v>ICSE - X - AI</v>
@@ -9915,7 +9916,7 @@
         <v>63</v>
       </c>
       <c r="G59" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H59" s="7" t="s">
         <v>71</v>
@@ -10037,7 +10038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A60" s="23" t="str">
         <f t="shared" si="95"/>
         <v>ICSE - IX - English</v>
@@ -10052,13 +10053,13 @@
         <v>47</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F60" s="33" t="s">
         <v>196</v>
       </c>
       <c r="G60" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H60" s="7" t="s">
         <v>71</v>
@@ -10180,7 +10181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:40" hidden="1" x14ac:dyDescent="0.45">
       <c r="A61" s="23" t="str">
         <f t="shared" si="95"/>
         <v>ICSE - IX - Bengali</v>
@@ -10195,7 +10196,7 @@
         <v>47</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F61" s="22" t="s">
         <v>29</v>
@@ -10323,7 +10324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A62" s="23" t="str">
         <f t="shared" si="95"/>
         <v>ICSE - IX - Hindi</v>
@@ -10338,13 +10339,13 @@
         <v>47</v>
       </c>
       <c r="E62" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="F62" s="33" t="s">
         <v>302</v>
       </c>
-      <c r="F62" s="33" t="s">
-        <v>303</v>
-      </c>
       <c r="G62" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H62" s="7" t="s">
         <v>71</v>
@@ -10466,7 +10467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:40" hidden="1" x14ac:dyDescent="0.45">
       <c r="A63" s="23" t="str">
         <f>D63&amp;" - "&amp;C63&amp;" - "&amp;B63</f>
         <v>ICSE - IX - Geography</v>
@@ -10481,13 +10482,13 @@
         <v>47</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F63" s="33" t="s">
         <v>178</v>
       </c>
       <c r="G63" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H63" s="7" t="s">
         <v>71</v>
@@ -10609,7 +10610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A64" s="23" t="str">
         <f>D64&amp;" - "&amp;C64&amp;" - "&amp;B64</f>
         <v>ICSE - IX - EVS</v>
@@ -10624,13 +10625,13 @@
         <v>47</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F64" s="33" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G64" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H64" s="7" t="s">
         <v>71</v>
@@ -10752,7 +10753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:40" hidden="1" x14ac:dyDescent="0.45">
       <c r="A65" s="23" t="str">
         <f>D65&amp;" - "&amp;C65&amp;" - "&amp;B65</f>
         <v>ICSE - IX - Hist Civics</v>
@@ -10767,13 +10768,13 @@
         <v>47</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F65" s="33" t="s">
         <v>193</v>
       </c>
       <c r="G65" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H65" s="7" t="s">
         <v>71</v>
@@ -10895,7 +10896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A66" s="23" t="str">
         <f>D66&amp;" - "&amp;C66&amp;" - "&amp;B66</f>
         <v>ICSE - IX - Commercial Study</v>
@@ -10916,7 +10917,7 @@
         <v>178</v>
       </c>
       <c r="G66" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H66" s="7" t="s">
         <v>71</v>
@@ -11038,7 +11039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A67" s="23" t="str">
         <f>D67&amp;" - "&amp;C67&amp;" - "&amp;B67</f>
         <v>ICSE - IX - Economics</v>
@@ -11059,7 +11060,7 @@
         <v>179</v>
       </c>
       <c r="G67" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H67" s="7" t="s">
         <v>71</v>
@@ -11181,7 +11182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A68" s="23" t="str">
         <f t="shared" si="95"/>
         <v>ICSE - IX - Maths</v>
@@ -11196,13 +11197,13 @@
         <v>47</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F68" s="33" t="s">
         <v>191</v>
       </c>
       <c r="G68" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H68" s="7" t="s">
         <v>71</v>
@@ -11324,7 +11325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A69" s="23" t="str">
         <f t="shared" si="95"/>
         <v>ICSE - IX - Physics</v>
@@ -11339,7 +11340,7 @@
         <v>47</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F69" s="7" t="s">
         <v>189</v>
@@ -11467,7 +11468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A70" s="23" t="str">
         <f t="shared" si="95"/>
         <v>ICSE - IX - Chemistry</v>
@@ -11482,7 +11483,7 @@
         <v>47</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F70" s="7" t="s">
         <v>190</v>
@@ -11625,7 +11626,7 @@
         <v>47</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F71" s="22" t="s">
         <v>29</v>
@@ -11753,7 +11754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A72" s="23" t="str">
         <f>D72&amp;" - "&amp;C72&amp;" - "&amp;B72</f>
         <v>ICSE - IX - Computers</v>
@@ -11896,7 +11897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A73" s="23" t="str">
         <f t="shared" si="95"/>
         <v>ICSE - IX - AI</v>
@@ -11917,7 +11918,7 @@
         <v>63</v>
       </c>
       <c r="G73" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H73" s="7" t="s">
         <v>71</v>
@@ -12039,7 +12040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A74" s="23" t="str">
         <f t="shared" si="95"/>
         <v>ICSE - VIII - English</v>
@@ -12054,13 +12055,13 @@
         <v>47</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F74" s="33" t="s">
         <v>196</v>
       </c>
       <c r="G74" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H74" s="7" t="s">
         <v>71</v>
@@ -12182,7 +12183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:40" hidden="1" x14ac:dyDescent="0.45">
       <c r="A75" s="23" t="str">
         <f>D75&amp;" - "&amp;C75&amp;" - "&amp;B75</f>
         <v>ICSE - VIII - Bengali</v>
@@ -12197,7 +12198,7 @@
         <v>47</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F75" s="22" t="s">
         <v>29</v>
@@ -12325,7 +12326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A76" s="23" t="str">
         <f>D76&amp;" - "&amp;C76&amp;" - "&amp;B76</f>
         <v>ICSE - VIII - Hindi</v>
@@ -12340,13 +12341,13 @@
         <v>47</v>
       </c>
       <c r="E76" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="F76" s="33" t="s">
         <v>302</v>
       </c>
-      <c r="F76" s="33" t="s">
-        <v>303</v>
-      </c>
       <c r="G76" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H76" s="7" t="s">
         <v>71</v>
@@ -12468,7 +12469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:40" hidden="1" x14ac:dyDescent="0.45">
       <c r="A77" s="23" t="str">
         <f>D77&amp;" - "&amp;C77&amp;" - "&amp;B77</f>
         <v>ICSE - VIII - Geography</v>
@@ -12483,13 +12484,13 @@
         <v>47</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F77" s="33" t="s">
         <v>178</v>
       </c>
       <c r="G77" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H77" s="7" t="s">
         <v>71</v>
@@ -12611,7 +12612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A78" s="23" t="str">
         <f>D78&amp;" - "&amp;C78&amp;" - "&amp;B78</f>
         <v>ICSE - VIII - EVS</v>
@@ -12626,13 +12627,13 @@
         <v>47</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F78" s="33" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G78" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H78" s="7" t="s">
         <v>71</v>
@@ -12754,7 +12755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:40" hidden="1" x14ac:dyDescent="0.45">
       <c r="A79" s="23" t="str">
         <f>D79&amp;" - "&amp;C79&amp;" - "&amp;B79</f>
         <v>ICSE - VIII - Hist Civics</v>
@@ -12769,13 +12770,13 @@
         <v>47</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F79" s="33" t="s">
         <v>193</v>
       </c>
       <c r="G79" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H79" s="7" t="s">
         <v>71</v>
@@ -12897,7 +12898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A80" s="23" t="str">
         <f t="shared" si="95"/>
         <v>ICSE - VIII - Maths</v>
@@ -12912,13 +12913,13 @@
         <v>47</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F80" s="33" t="s">
         <v>191</v>
       </c>
       <c r="G80" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H80" s="7" t="s">
         <v>71</v>
@@ -13040,7 +13041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A81" s="23" t="str">
         <f t="shared" si="95"/>
         <v>ICSE - VIII - Physics</v>
@@ -13055,7 +13056,7 @@
         <v>47</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F81" s="7" t="s">
         <v>189</v>
@@ -13183,7 +13184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A82" s="23" t="str">
         <f t="shared" si="95"/>
         <v>ICSE - VIII - Chemistry</v>
@@ -13198,7 +13199,7 @@
         <v>47</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F82" s="7" t="s">
         <v>190</v>
@@ -13341,7 +13342,7 @@
         <v>47</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F83" s="22" t="s">
         <v>29</v>
@@ -13469,7 +13470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A84" s="23" t="str">
         <f t="shared" si="95"/>
         <v>ICSE - VIII - Computers</v>
@@ -13612,7 +13613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A85" s="21" t="str">
         <f>D85&amp;" - "&amp;C85&amp;" - "&amp;B85</f>
         <v>WB - XII - English</v>
@@ -13627,13 +13628,13 @@
         <v>46</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F85" s="33" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G85" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H85" s="7" t="s">
         <v>71</v>
@@ -13755,7 +13756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A86" s="21" t="str">
         <f>D86&amp;" - "&amp;C86&amp;" - "&amp;B86</f>
         <v>WB - XII - Bengali</v>
@@ -13770,7 +13771,7 @@
         <v>46</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F86" s="22" t="s">
         <v>29</v>
@@ -13898,7 +13899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A87" s="21" t="str">
         <f>D87&amp;" - "&amp;C87&amp;" - "&amp;B87</f>
         <v>WB - XII - Hindi</v>
@@ -13913,13 +13914,13 @@
         <v>46</v>
       </c>
       <c r="E87" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="F87" s="33" t="s">
         <v>302</v>
       </c>
-      <c r="F87" s="33" t="s">
-        <v>303</v>
-      </c>
       <c r="G87" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H87" s="7" t="s">
         <v>71</v>
@@ -14041,7 +14042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A88" s="21" t="str">
         <f>D88&amp;" - "&amp;C88&amp;" - "&amp;B88</f>
         <v>WB - XII - History</v>
@@ -14056,13 +14057,13 @@
         <v>46</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F88" s="33" t="s">
         <v>193</v>
       </c>
       <c r="G88" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H88" s="7" t="s">
         <v>71</v>
@@ -14184,7 +14185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A89" s="21" t="str">
         <f t="shared" ref="A89" si="140">D89&amp;" - "&amp;C89&amp;" - "&amp;B89</f>
         <v>WB - XII - Geography</v>
@@ -14199,10 +14200,10 @@
         <v>46</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F89" s="22" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G89" s="22" t="s">
         <v>184</v>
@@ -14327,7 +14328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A90" s="21" t="str">
         <f>D90&amp;" - "&amp;C90&amp;" - "&amp;B90</f>
         <v>WB - XII - Political Science</v>
@@ -14342,13 +14343,13 @@
         <v>46</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F90" s="33" t="s">
         <v>193</v>
       </c>
       <c r="G90" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H90" s="7" t="s">
         <v>71</v>
@@ -14470,7 +14471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A91" s="21" t="str">
         <f>D91&amp;" - "&amp;C91&amp;" - "&amp;B91</f>
         <v>WB - XII - Sociology</v>
@@ -14485,13 +14486,13 @@
         <v>46</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F91" s="33" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G91" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H91" s="7" t="s">
         <v>71</v>
@@ -14613,7 +14614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A92" s="21" t="str">
         <f>D92&amp;" - "&amp;C92&amp;" - "&amp;B92</f>
         <v>WB - XII - Philosophy</v>
@@ -14628,7 +14629,7 @@
         <v>46</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F92" s="22" t="s">
         <v>29</v>
@@ -14756,7 +14757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A93" s="21" t="str">
         <f t="shared" ref="A93:A100" si="141">D93&amp;" - "&amp;C93&amp;" - "&amp;B93</f>
         <v>WB - XII - Accounting</v>
@@ -14777,7 +14778,7 @@
         <v>180</v>
       </c>
       <c r="G93" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H93" s="7" t="s">
         <v>71</v>
@@ -14899,7 +14900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A94" s="21" t="str">
         <f t="shared" si="141"/>
         <v>WB - XII - Business Studies</v>
@@ -14920,7 +14921,7 @@
         <v>178</v>
       </c>
       <c r="G94" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H94" s="7" t="s">
         <v>71</v>
@@ -15042,7 +15043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A95" s="21" t="str">
         <f t="shared" si="141"/>
         <v>WB - XII - Costing &amp; Taxation</v>
@@ -15063,7 +15064,7 @@
         <v>182</v>
       </c>
       <c r="G95" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H95" s="7" t="s">
         <v>71</v>
@@ -15185,7 +15186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A96" s="21" t="str">
         <f t="shared" si="141"/>
         <v>WB - XII - Business Law</v>
@@ -15203,7 +15204,7 @@
         <v>4</v>
       </c>
       <c r="F96" s="22" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G96" s="22" t="s">
         <v>184</v>
@@ -15328,7 +15329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A97" s="21" t="str">
         <f t="shared" si="141"/>
         <v>WB - XII - Maths (Comm)</v>
@@ -15349,7 +15350,7 @@
         <v>191</v>
       </c>
       <c r="G97" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H97" s="7" t="s">
         <v>71</v>
@@ -15471,7 +15472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A98" s="21" t="str">
         <f t="shared" si="141"/>
         <v>WB - XII - Stats</v>
@@ -15489,7 +15490,7 @@
         <v>4</v>
       </c>
       <c r="F98" s="22" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G98" s="22" t="s">
         <v>184</v>
@@ -15614,7 +15615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A99" s="21" t="str">
         <f t="shared" si="141"/>
         <v>WB - XII - Economics</v>
@@ -15635,7 +15636,7 @@
         <v>179</v>
       </c>
       <c r="G99" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H99" s="7" t="s">
         <v>71</v>
@@ -15757,7 +15758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A100" s="21" t="str">
         <f t="shared" si="141"/>
         <v>WB - XII - Eco Geography</v>
@@ -15778,7 +15779,7 @@
         <v>178</v>
       </c>
       <c r="G100" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H100" s="7" t="s">
         <v>71</v>
@@ -15900,7 +15901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A101" s="21" t="str">
         <f t="shared" ref="A101:A133" si="150">D101&amp;" - "&amp;C101&amp;" - "&amp;B101</f>
         <v>WB - XII - Computers</v>
@@ -16043,7 +16044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A102" s="21" t="str">
         <f t="shared" si="150"/>
         <v>WB - XII - AI</v>
@@ -16064,7 +16065,7 @@
         <v>63</v>
       </c>
       <c r="G102" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H102" s="7" t="s">
         <v>71</v>
@@ -16186,7 +16187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A103" s="21" t="str">
         <f t="shared" si="150"/>
         <v>WB - XI - English</v>
@@ -16201,13 +16202,13 @@
         <v>46</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F103" s="33" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G103" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H103" s="7" t="s">
         <v>71</v>
@@ -16329,7 +16330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A104" s="21" t="str">
         <f t="shared" si="150"/>
         <v>WB - XI - Bengali</v>
@@ -16344,7 +16345,7 @@
         <v>46</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F104" s="22" t="s">
         <v>29</v>
@@ -16472,7 +16473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A105" s="21" t="str">
         <f t="shared" si="150"/>
         <v>WB - XI - Hindi</v>
@@ -16487,13 +16488,13 @@
         <v>46</v>
       </c>
       <c r="E105" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="F105" s="33" t="s">
         <v>302</v>
       </c>
-      <c r="F105" s="33" t="s">
-        <v>303</v>
-      </c>
       <c r="G105" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H105" s="7" t="s">
         <v>71</v>
@@ -16615,7 +16616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A106" s="21" t="str">
         <f t="shared" si="150"/>
         <v>WB - XI - History</v>
@@ -16630,13 +16631,13 @@
         <v>46</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F106" s="33" t="s">
         <v>193</v>
       </c>
       <c r="G106" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H106" s="7" t="s">
         <v>71</v>
@@ -16758,7 +16759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A107" s="21" t="str">
         <f t="shared" si="150"/>
         <v>WB - XI - Geography</v>
@@ -16773,10 +16774,10 @@
         <v>46</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F107" s="22" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G107" s="22" t="s">
         <v>184</v>
@@ -16901,7 +16902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A108" s="21" t="str">
         <f t="shared" si="150"/>
         <v>WB - XI - Political Science</v>
@@ -16916,13 +16917,13 @@
         <v>46</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F108" s="33" t="s">
         <v>193</v>
       </c>
       <c r="G108" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H108" s="7" t="s">
         <v>71</v>
@@ -17044,7 +17045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A109" s="21" t="str">
         <f t="shared" si="150"/>
         <v>WB - XI - Sociology</v>
@@ -17059,13 +17060,13 @@
         <v>46</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F109" s="33" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G109" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H109" s="7" t="s">
         <v>71</v>
@@ -17187,7 +17188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A110" s="21" t="str">
         <f t="shared" si="150"/>
         <v>WB - XI - Philosophy</v>
@@ -17202,7 +17203,7 @@
         <v>46</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F110" s="22" t="s">
         <v>29</v>
@@ -17330,7 +17331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A111" s="21" t="str">
         <f t="shared" si="150"/>
         <v>WB - XI - Accounting</v>
@@ -17351,7 +17352,7 @@
         <v>180</v>
       </c>
       <c r="G111" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H111" s="7" t="s">
         <v>71</v>
@@ -17473,7 +17474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A112" s="21" t="str">
         <f t="shared" si="150"/>
         <v>WB - XI - Business Studies</v>
@@ -17494,7 +17495,7 @@
         <v>178</v>
       </c>
       <c r="G112" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H112" s="7" t="s">
         <v>71</v>
@@ -17616,7 +17617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A113" s="21" t="str">
         <f t="shared" si="150"/>
         <v>WB - XI - Costing &amp; Taxation</v>
@@ -17637,7 +17638,7 @@
         <v>182</v>
       </c>
       <c r="G113" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H113" s="7" t="s">
         <v>71</v>
@@ -17759,7 +17760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A114" s="21" t="str">
         <f t="shared" si="150"/>
         <v>WB - XI - Business Law</v>
@@ -17777,7 +17778,7 @@
         <v>4</v>
       </c>
       <c r="F114" s="22" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G114" s="22" t="s">
         <v>184</v>
@@ -17902,7 +17903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A115" s="21" t="str">
         <f t="shared" si="150"/>
         <v>WB - XI - Maths (Comm)</v>
@@ -17923,7 +17924,7 @@
         <v>191</v>
       </c>
       <c r="G115" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H115" s="7" t="s">
         <v>71</v>
@@ -18045,7 +18046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A116" s="21" t="str">
         <f t="shared" si="150"/>
         <v>WB - XI - Stats</v>
@@ -18063,7 +18064,7 @@
         <v>4</v>
       </c>
       <c r="F116" s="22" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G116" s="22" t="s">
         <v>184</v>
@@ -18188,7 +18189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A117" s="21" t="str">
         <f t="shared" si="150"/>
         <v>WB - XI - Economics</v>
@@ -18209,7 +18210,7 @@
         <v>179</v>
       </c>
       <c r="G117" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H117" s="7" t="s">
         <v>71</v>
@@ -18331,7 +18332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A118" s="21" t="str">
         <f t="shared" si="150"/>
         <v>WB - XI - Eco Geography</v>
@@ -18352,7 +18353,7 @@
         <v>178</v>
       </c>
       <c r="G118" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H118" s="7" t="s">
         <v>71</v>
@@ -18474,7 +18475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A119" s="21" t="str">
         <f t="shared" si="150"/>
         <v>WB - XI - Computers</v>
@@ -18617,7 +18618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A120" s="21" t="str">
         <f t="shared" si="150"/>
         <v>WB - XI - AI</v>
@@ -18638,7 +18639,7 @@
         <v>63</v>
       </c>
       <c r="G120" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H120" s="7" t="s">
         <v>71</v>
@@ -18760,7 +18761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A121" s="21" t="str">
         <f t="shared" si="150"/>
         <v>WB - X - English</v>
@@ -18775,13 +18776,13 @@
         <v>46</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F121" s="33" t="s">
         <v>196</v>
       </c>
       <c r="G121" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H121" s="7" t="s">
         <v>71</v>
@@ -18903,7 +18904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A122" s="21" t="str">
         <f t="shared" si="150"/>
         <v>WB - X - Bengali</v>
@@ -18918,7 +18919,7 @@
         <v>46</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F122" s="22" t="s">
         <v>29</v>
@@ -19046,7 +19047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A123" s="21" t="str">
         <f t="shared" ref="A123" si="175">D123&amp;" - "&amp;C123&amp;" - "&amp;B123</f>
         <v>WB - X - History</v>
@@ -19061,13 +19062,13 @@
         <v>46</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F123" s="33" t="s">
         <v>178</v>
       </c>
       <c r="G123" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H123" s="7" t="s">
         <v>71</v>
@@ -19189,7 +19190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A124" s="21" t="str">
         <f t="shared" si="150"/>
         <v>WB - X - Hindi</v>
@@ -19204,13 +19205,13 @@
         <v>46</v>
       </c>
       <c r="E124" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="F124" s="33" t="s">
         <v>302</v>
       </c>
-      <c r="F124" s="33" t="s">
-        <v>303</v>
-      </c>
       <c r="G124" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H124" s="7" t="s">
         <v>71</v>
@@ -19332,7 +19333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A125" s="21" t="str">
         <f t="shared" si="150"/>
         <v>WB - X - Geography</v>
@@ -19347,13 +19348,13 @@
         <v>46</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F125" s="33" t="s">
         <v>178</v>
       </c>
       <c r="G125" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H125" s="7" t="s">
         <v>71</v>
@@ -19475,7 +19476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A126" s="21" t="str">
         <f t="shared" si="150"/>
         <v>WB - X - Physical Science</v>
@@ -19490,7 +19491,7 @@
         <v>46</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F126" s="7" t="s">
         <v>195</v>
@@ -19633,7 +19634,7 @@
         <v>46</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F127" s="22" t="s">
         <v>29</v>
@@ -19761,7 +19762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A128" s="21" t="str">
         <f t="shared" si="150"/>
         <v>WB - X - Maths</v>
@@ -19776,13 +19777,13 @@
         <v>46</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F128" s="33" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G128" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H128" s="7" t="s">
         <v>71</v>
@@ -19904,7 +19905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A129" s="21" t="str">
         <f t="shared" si="150"/>
         <v>WB - X - Book Keeping</v>
@@ -19925,7 +19926,7 @@
         <v>180</v>
       </c>
       <c r="G129" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H129" s="7" t="s">
         <v>71</v>
@@ -20047,7 +20048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A130" s="21" t="str">
         <f t="shared" si="150"/>
         <v>WB - X - Business Studies</v>
@@ -20068,7 +20069,7 @@
         <v>178</v>
       </c>
       <c r="G130" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H130" s="7" t="s">
         <v>71</v>
@@ -20190,7 +20191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A131" s="21" t="str">
         <f t="shared" si="150"/>
         <v>WB - X - Computers</v>
@@ -20333,7 +20334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A132" s="21" t="str">
         <f t="shared" si="150"/>
         <v>WB - X - AI</v>
@@ -20354,7 +20355,7 @@
         <v>63</v>
       </c>
       <c r="G132" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H132" s="7" t="s">
         <v>71</v>
@@ -20476,7 +20477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A133" s="21" t="str">
         <f t="shared" si="150"/>
         <v>WB - IX - English</v>
@@ -20491,13 +20492,13 @@
         <v>46</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F133" s="33" t="s">
         <v>196</v>
       </c>
       <c r="G133" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H133" s="7" t="s">
         <v>71</v>
@@ -20619,7 +20620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A134" s="21" t="str">
         <f t="shared" ref="A134:A151" si="226">D134&amp;" - "&amp;C134&amp;" - "&amp;B134</f>
         <v>WB - IX - Bengali</v>
@@ -20634,7 +20635,7 @@
         <v>46</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F134" s="22" t="s">
         <v>29</v>
@@ -20762,7 +20763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A135" s="21" t="str">
         <f t="shared" si="226"/>
         <v>WB - IX - Hindi</v>
@@ -20777,13 +20778,13 @@
         <v>46</v>
       </c>
       <c r="E135" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="F135" s="33" t="s">
         <v>302</v>
       </c>
-      <c r="F135" s="33" t="s">
-        <v>303</v>
-      </c>
       <c r="G135" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H135" s="7" t="s">
         <v>71</v>
@@ -20905,7 +20906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A136" s="21" t="str">
         <f t="shared" si="226"/>
         <v>WB - IX - History</v>
@@ -20920,13 +20921,13 @@
         <v>46</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F136" s="33" t="s">
         <v>178</v>
       </c>
       <c r="G136" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H136" s="7" t="s">
         <v>71</v>
@@ -21048,7 +21049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A137" s="21" t="str">
         <f t="shared" si="226"/>
         <v>WB - IX - Geography</v>
@@ -21063,13 +21064,13 @@
         <v>46</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F137" s="33" t="s">
         <v>178</v>
       </c>
       <c r="G137" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H137" s="7" t="s">
         <v>71</v>
@@ -21191,7 +21192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A138" s="21" t="str">
         <f t="shared" si="226"/>
         <v>WB - IX - Physical Science</v>
@@ -21206,7 +21207,7 @@
         <v>46</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F138" s="7" t="s">
         <v>195</v>
@@ -21349,7 +21350,7 @@
         <v>46</v>
       </c>
       <c r="E139" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F139" s="22" t="s">
         <v>29</v>
@@ -21477,7 +21478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A140" s="21" t="str">
         <f t="shared" si="226"/>
         <v>WB - IX - Maths</v>
@@ -21492,13 +21493,13 @@
         <v>46</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F140" s="33" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G140" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H140" s="7" t="s">
         <v>71</v>
@@ -21620,7 +21621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A141" s="21" t="str">
         <f t="shared" si="226"/>
         <v>WB - IX - Book Keeping</v>
@@ -21641,7 +21642,7 @@
         <v>180</v>
       </c>
       <c r="G141" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H141" s="7" t="s">
         <v>71</v>
@@ -21763,7 +21764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A142" s="21" t="str">
         <f t="shared" si="226"/>
         <v>WB - IX - Business Studies</v>
@@ -21784,7 +21785,7 @@
         <v>178</v>
       </c>
       <c r="G142" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H142" s="7" t="s">
         <v>71</v>
@@ -21906,7 +21907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A143" s="21" t="str">
         <f t="shared" si="226"/>
         <v>WB - IX - Computers</v>
@@ -22049,7 +22050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A144" s="21" t="str">
         <f t="shared" si="226"/>
         <v>WB - IX - AI</v>
@@ -22070,7 +22071,7 @@
         <v>63</v>
       </c>
       <c r="G144" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H144" s="7" t="s">
         <v>71</v>
@@ -22192,7 +22193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A145" s="21" t="str">
         <f t="shared" si="226"/>
         <v>WB - VIII - English</v>
@@ -22207,13 +22208,13 @@
         <v>46</v>
       </c>
       <c r="E145" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F145" s="33" t="s">
         <v>196</v>
       </c>
       <c r="G145" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H145" s="7" t="s">
         <v>71</v>
@@ -22335,7 +22336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A146" s="21" t="str">
         <f t="shared" si="226"/>
         <v>WB - VIII - Bengali</v>
@@ -22350,7 +22351,7 @@
         <v>46</v>
       </c>
       <c r="E146" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F146" s="22" t="s">
         <v>29</v>
@@ -22478,7 +22479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A147" s="21" t="str">
         <f t="shared" si="226"/>
         <v>WB - VIII - Hindi</v>
@@ -22493,13 +22494,13 @@
         <v>46</v>
       </c>
       <c r="E147" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="F147" s="33" t="s">
         <v>302</v>
       </c>
-      <c r="F147" s="33" t="s">
-        <v>303</v>
-      </c>
       <c r="G147" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H147" s="7" t="s">
         <v>71</v>
@@ -22621,7 +22622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A148" s="21" t="str">
         <f t="shared" si="226"/>
         <v>WB - VIII - History</v>
@@ -22636,13 +22637,13 @@
         <v>46</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F148" s="33" t="s">
         <v>178</v>
       </c>
       <c r="G148" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H148" s="7" t="s">
         <v>71</v>
@@ -22764,7 +22765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A149" s="21" t="str">
         <f t="shared" si="226"/>
         <v>WB - VIII - Geography</v>
@@ -22779,13 +22780,13 @@
         <v>46</v>
       </c>
       <c r="E149" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F149" s="33" t="s">
         <v>178</v>
       </c>
       <c r="G149" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H149" s="7" t="s">
         <v>71</v>
@@ -22907,7 +22908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A150" s="21" t="str">
         <f t="shared" si="226"/>
         <v>WB - VIII - Physical Science</v>
@@ -22922,7 +22923,7 @@
         <v>46</v>
       </c>
       <c r="E150" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F150" s="7" t="s">
         <v>195</v>
@@ -23050,7 +23051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A151" s="21" t="str">
         <f t="shared" si="226"/>
         <v>WB - VIII - Maths</v>
@@ -23065,13 +23066,13 @@
         <v>46</v>
       </c>
       <c r="E151" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F151" s="33" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G151" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H151" s="7" t="s">
         <v>71</v>
@@ -23193,7 +23194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A152" s="24" t="str">
         <f t="shared" si="95"/>
         <v>CBSE - XII - English</v>
@@ -23208,13 +23209,13 @@
         <v>45</v>
       </c>
       <c r="E152" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F152" s="33" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G152" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H152" s="7" t="s">
         <v>71</v>
@@ -23336,7 +23337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A153" s="24" t="str">
         <f t="shared" si="95"/>
         <v>CBSE - XII - Bengali</v>
@@ -23351,7 +23352,7 @@
         <v>45</v>
       </c>
       <c r="E153" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F153" s="22" t="s">
         <v>29</v>
@@ -23479,7 +23480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A154" s="24" t="str">
         <f t="shared" si="95"/>
         <v>CBSE - XII - Hindi</v>
@@ -23494,13 +23495,13 @@
         <v>45</v>
       </c>
       <c r="E154" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="F154" s="33" t="s">
         <v>302</v>
       </c>
-      <c r="F154" s="33" t="s">
-        <v>303</v>
-      </c>
       <c r="G154" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H154" s="7" t="s">
         <v>71</v>
@@ -23622,7 +23623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A155" s="24" t="str">
         <f t="shared" si="95"/>
         <v>CBSE - XII - History</v>
@@ -23637,13 +23638,13 @@
         <v>45</v>
       </c>
       <c r="E155" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F155" s="33" t="s">
         <v>193</v>
       </c>
       <c r="G155" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H155" s="7" t="s">
         <v>71</v>
@@ -23765,7 +23766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A156" s="24" t="str">
         <f t="shared" si="95"/>
         <v>CBSE - XII - Geography</v>
@@ -23780,10 +23781,10 @@
         <v>45</v>
       </c>
       <c r="E156" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F156" s="22" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G156" s="22" t="s">
         <v>184</v>
@@ -23908,7 +23909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A157" s="24" t="str">
         <f t="shared" si="95"/>
         <v>CBSE - XII - Political Science</v>
@@ -23923,13 +23924,13 @@
         <v>45</v>
       </c>
       <c r="E157" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F157" s="33" t="s">
         <v>193</v>
       </c>
       <c r="G157" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H157" s="7" t="s">
         <v>71</v>
@@ -24051,7 +24052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A158" s="24" t="str">
         <f t="shared" si="95"/>
         <v>CBSE - XII - Sociology</v>
@@ -24066,13 +24067,13 @@
         <v>45</v>
       </c>
       <c r="E158" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F158" s="33" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G158" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H158" s="7" t="s">
         <v>71</v>
@@ -24194,7 +24195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A159" s="24" t="str">
         <f t="shared" si="95"/>
         <v>CBSE - XII - Philosophy</v>
@@ -24209,7 +24210,7 @@
         <v>45</v>
       </c>
       <c r="E159" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F159" s="22" t="s">
         <v>29</v>
@@ -24337,7 +24338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A160" s="24" t="str">
         <f t="shared" si="95"/>
         <v>CBSE - XII - Accounting</v>
@@ -24358,7 +24359,7 @@
         <v>180</v>
       </c>
       <c r="G160" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H160" s="7" t="s">
         <v>71</v>
@@ -24480,7 +24481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A161" s="24" t="str">
         <f t="shared" si="95"/>
         <v>CBSE - XII - Economics</v>
@@ -24501,7 +24502,7 @@
         <v>179</v>
       </c>
       <c r="G161" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H161" s="7" t="s">
         <v>71</v>
@@ -24623,7 +24624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A162" s="24" t="str">
         <f t="shared" si="95"/>
         <v>CBSE - XII - Business Studies</v>
@@ -24644,7 +24645,7 @@
         <v>178</v>
       </c>
       <c r="G162" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H162" s="7" t="s">
         <v>71</v>
@@ -24766,7 +24767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A163" s="24" t="str">
         <f t="shared" si="95"/>
         <v>CBSE - XII - Info Practices</v>
@@ -24784,10 +24785,10 @@
         <v>4</v>
       </c>
       <c r="F163" s="33" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G163" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H163" s="7" t="s">
         <v>71</v>
@@ -24909,7 +24910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A164" s="24" t="str">
         <f t="shared" si="95"/>
         <v>CBSE - XII - Legal Studies</v>
@@ -24927,7 +24928,7 @@
         <v>4</v>
       </c>
       <c r="F164" s="22" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G164" s="22" t="s">
         <v>184</v>
@@ -25052,7 +25053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A165" s="24" t="str">
         <f t="shared" si="95"/>
         <v>CBSE - XII - Maths (Comm)</v>
@@ -25073,7 +25074,7 @@
         <v>191</v>
       </c>
       <c r="G165" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H165" s="7" t="s">
         <v>71</v>
@@ -25195,7 +25196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A166" s="24" t="str">
         <f>D166&amp;" - "&amp;C166&amp;" - "&amp;B166</f>
         <v>CBSE - XII - Computers</v>
@@ -25338,7 +25339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A167" s="24" t="str">
         <f>D167&amp;" - "&amp;C167&amp;" - "&amp;B167</f>
         <v>CBSE - XII - AI</v>
@@ -25359,7 +25360,7 @@
         <v>63</v>
       </c>
       <c r="G167" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H167" s="7" t="s">
         <v>71</v>
@@ -25481,7 +25482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A168" s="24" t="str">
         <f t="shared" ref="A168:A181" si="276">D168&amp;" - "&amp;C168&amp;" - "&amp;B168</f>
         <v>CBSE - XI - English</v>
@@ -25496,13 +25497,13 @@
         <v>45</v>
       </c>
       <c r="E168" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F168" s="33" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G168" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H168" s="7" t="s">
         <v>71</v>
@@ -25624,7 +25625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A169" s="24" t="str">
         <f t="shared" si="276"/>
         <v>CBSE - XI - Bengali</v>
@@ -25639,7 +25640,7 @@
         <v>45</v>
       </c>
       <c r="E169" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F169" s="22" t="s">
         <v>29</v>
@@ -25767,7 +25768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A170" s="24" t="str">
         <f t="shared" si="276"/>
         <v>CBSE - XI - Hindi</v>
@@ -25782,13 +25783,13 @@
         <v>45</v>
       </c>
       <c r="E170" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="F170" s="33" t="s">
         <v>302</v>
       </c>
-      <c r="F170" s="33" t="s">
-        <v>303</v>
-      </c>
       <c r="G170" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H170" s="7" t="s">
         <v>71</v>
@@ -25910,7 +25911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A171" s="24" t="str">
         <f t="shared" si="276"/>
         <v>CBSE - XI - History</v>
@@ -25925,13 +25926,13 @@
         <v>45</v>
       </c>
       <c r="E171" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F171" s="33" t="s">
         <v>193</v>
       </c>
       <c r="G171" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H171" s="7" t="s">
         <v>71</v>
@@ -26053,7 +26054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A172" s="24" t="str">
         <f t="shared" si="276"/>
         <v>CBSE - XI - Geography</v>
@@ -26068,10 +26069,10 @@
         <v>45</v>
       </c>
       <c r="E172" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F172" s="22" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G172" s="22" t="s">
         <v>184</v>
@@ -26196,7 +26197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A173" s="24" t="str">
         <f t="shared" si="276"/>
         <v>CBSE - XI - Political Science</v>
@@ -26211,13 +26212,13 @@
         <v>45</v>
       </c>
       <c r="E173" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F173" s="33" t="s">
         <v>193</v>
       </c>
       <c r="G173" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H173" s="7" t="s">
         <v>71</v>
@@ -26339,7 +26340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A174" s="24" t="str">
         <f t="shared" si="276"/>
         <v>CBSE - XI - Sociology</v>
@@ -26354,13 +26355,13 @@
         <v>45</v>
       </c>
       <c r="E174" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F174" s="33" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G174" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H174" s="7" t="s">
         <v>71</v>
@@ -26482,7 +26483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A175" s="24" t="str">
         <f t="shared" si="276"/>
         <v>CBSE - XI - Philosophy</v>
@@ -26497,7 +26498,7 @@
         <v>45</v>
       </c>
       <c r="E175" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F175" s="22" t="s">
         <v>29</v>
@@ -26625,7 +26626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A176" s="24" t="str">
         <f t="shared" si="276"/>
         <v>CBSE - XI - Accounting</v>
@@ -26646,7 +26647,7 @@
         <v>180</v>
       </c>
       <c r="G176" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H176" s="7" t="s">
         <v>71</v>
@@ -26768,7 +26769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A177" s="24" t="str">
         <f t="shared" si="276"/>
         <v>CBSE - XI - Economics</v>
@@ -26789,7 +26790,7 @@
         <v>179</v>
       </c>
       <c r="G177" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H177" s="7" t="s">
         <v>71</v>
@@ -26911,7 +26912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A178" s="24" t="str">
         <f t="shared" si="276"/>
         <v>CBSE - XI - Business Studies</v>
@@ -26932,7 +26933,7 @@
         <v>178</v>
       </c>
       <c r="G178" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H178" s="7" t="s">
         <v>71</v>
@@ -27054,7 +27055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A179" s="24" t="str">
         <f t="shared" si="276"/>
         <v>CBSE - XI - Info Practices</v>
@@ -27072,10 +27073,10 @@
         <v>4</v>
       </c>
       <c r="F179" s="33" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G179" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H179" s="7" t="s">
         <v>71</v>
@@ -27197,7 +27198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A180" s="24" t="str">
         <f t="shared" si="276"/>
         <v>CBSE - XI - Legal Studies</v>
@@ -27215,7 +27216,7 @@
         <v>4</v>
       </c>
       <c r="F180" s="22" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G180" s="22" t="s">
         <v>184</v>
@@ -27340,7 +27341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A181" s="24" t="str">
         <f t="shared" si="276"/>
         <v>CBSE - XI - Maths (Comm)</v>
@@ -27361,7 +27362,7 @@
         <v>191</v>
       </c>
       <c r="G181" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H181" s="7" t="s">
         <v>71</v>
@@ -27483,7 +27484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A182" s="24" t="str">
         <f>D182&amp;" - "&amp;C182&amp;" - "&amp;B182</f>
         <v>CBSE - XI - Computers</v>
@@ -27626,7 +27627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A183" s="24" t="str">
         <f>D183&amp;" - "&amp;C183&amp;" - "&amp;B183</f>
         <v>CBSE - XI - AI</v>
@@ -27647,7 +27648,7 @@
         <v>63</v>
       </c>
       <c r="G183" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H183" s="7" t="s">
         <v>71</v>
@@ -27769,7 +27770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A184" s="24" t="str">
         <f>D184&amp;" - "&amp;C184&amp;" - "&amp;B184</f>
         <v>CBSE - X - English</v>
@@ -27784,13 +27785,13 @@
         <v>45</v>
       </c>
       <c r="E184" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F184" s="33" t="s">
         <v>196</v>
       </c>
       <c r="G184" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H184" s="7" t="s">
         <v>71</v>
@@ -27912,7 +27913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A185" s="24" t="str">
         <f t="shared" ref="A185:A211" si="304">D185&amp;" - "&amp;C185&amp;" - "&amp;B185</f>
         <v>CBSE - X - Bengali</v>
@@ -27927,7 +27928,7 @@
         <v>45</v>
       </c>
       <c r="E185" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F185" s="22" t="s">
         <v>29</v>
@@ -28055,7 +28056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A186" s="24" t="str">
         <f t="shared" si="304"/>
         <v>CBSE - X - Hindi</v>
@@ -28070,13 +28071,13 @@
         <v>45</v>
       </c>
       <c r="E186" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="F186" s="33" t="s">
         <v>302</v>
       </c>
-      <c r="F186" s="33" t="s">
-        <v>303</v>
-      </c>
       <c r="G186" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H186" s="7" t="s">
         <v>71</v>
@@ -28198,13 +28199,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A187" s="24" t="str">
         <f>D187&amp;" - "&amp;C187&amp;" - "&amp;B187</f>
         <v>CBSE - X - SST, Hist, Geog, Eco, Civics</v>
       </c>
       <c r="B187" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C187" s="3" t="s">
         <v>54</v>
@@ -28213,13 +28214,13 @@
         <v>45</v>
       </c>
       <c r="E187" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F187" s="33" t="s">
         <v>178</v>
       </c>
       <c r="G187" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H187" s="7" t="s">
         <v>71</v>
@@ -28341,7 +28342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A188" s="24" t="str">
         <f>D188&amp;" - "&amp;C188&amp;" - "&amp;B188</f>
         <v>CBSE - X - Maths</v>
@@ -28356,13 +28357,13 @@
         <v>45</v>
       </c>
       <c r="E188" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F188" s="33" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G188" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H188" s="7" t="s">
         <v>71</v>
@@ -28484,7 +28485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A189" s="24" t="str">
         <f t="shared" si="304"/>
         <v>CBSE - X - Science, Physics</v>
@@ -28499,7 +28500,7 @@
         <v>45</v>
       </c>
       <c r="E189" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F189" s="7" t="s">
         <v>195</v>
@@ -28627,7 +28628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A190" s="24" t="str">
         <f t="shared" si="304"/>
         <v>CBSE - X - Science, Chemistry</v>
@@ -28642,7 +28643,7 @@
         <v>45</v>
       </c>
       <c r="E190" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F190" s="7" t="s">
         <v>190</v>
@@ -28785,7 +28786,7 @@
         <v>45</v>
       </c>
       <c r="E191" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F191" s="22" t="s">
         <v>29</v>
@@ -28913,7 +28914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A192" s="24" t="str">
         <f t="shared" si="304"/>
         <v>CBSE - X - Computers</v>
@@ -29056,7 +29057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A193" s="24" t="str">
         <f t="shared" si="304"/>
         <v>CBSE - X - AI</v>
@@ -29077,7 +29078,7 @@
         <v>63</v>
       </c>
       <c r="G193" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H193" s="7" t="s">
         <v>71</v>
@@ -29199,7 +29200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A194" s="24" t="str">
         <f>D194&amp;" - "&amp;C194&amp;" - "&amp;B194</f>
         <v>CBSE - IX - English</v>
@@ -29214,13 +29215,13 @@
         <v>45</v>
       </c>
       <c r="E194" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F194" s="33" t="s">
         <v>196</v>
       </c>
       <c r="G194" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H194" s="7" t="s">
         <v>71</v>
@@ -29342,7 +29343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A195" s="24" t="str">
         <f t="shared" ref="A195:A196" si="334">D195&amp;" - "&amp;C195&amp;" - "&amp;B195</f>
         <v>CBSE - IX - Bengali</v>
@@ -29357,7 +29358,7 @@
         <v>45</v>
       </c>
       <c r="E195" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F195" s="22" t="s">
         <v>29</v>
@@ -29485,7 +29486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A196" s="24" t="str">
         <f t="shared" si="334"/>
         <v>CBSE - IX - Hindi</v>
@@ -29500,13 +29501,13 @@
         <v>45</v>
       </c>
       <c r="E196" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="F196" s="33" t="s">
         <v>302</v>
       </c>
-      <c r="F196" s="33" t="s">
-        <v>303</v>
-      </c>
       <c r="G196" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H196" s="7" t="s">
         <v>71</v>
@@ -29628,13 +29629,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A197" s="24" t="str">
         <f>D197&amp;" - "&amp;C197&amp;" - "&amp;B197</f>
         <v>CBSE - IX - SST, Hist, Geog, Eco, Civics</v>
       </c>
       <c r="B197" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C197" s="3" t="s">
         <v>55</v>
@@ -29643,13 +29644,13 @@
         <v>45</v>
       </c>
       <c r="E197" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F197" s="33" t="s">
         <v>178</v>
       </c>
       <c r="G197" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H197" s="7" t="s">
         <v>71</v>
@@ -29771,7 +29772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A198" s="24" t="str">
         <f>D198&amp;" - "&amp;C198&amp;" - "&amp;B198</f>
         <v>CBSE - IX - Maths</v>
@@ -29786,13 +29787,13 @@
         <v>45</v>
       </c>
       <c r="E198" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F198" s="33" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G198" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H198" s="7" t="s">
         <v>71</v>
@@ -29914,7 +29915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A199" s="24" t="str">
         <f t="shared" ref="A199:A203" si="342">D199&amp;" - "&amp;C199&amp;" - "&amp;B199</f>
         <v>CBSE - IX - Science, Physics</v>
@@ -29929,7 +29930,7 @@
         <v>45</v>
       </c>
       <c r="E199" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F199" s="7" t="s">
         <v>195</v>
@@ -30057,7 +30058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A200" s="24" t="str">
         <f t="shared" si="342"/>
         <v>CBSE - IX - Science, Chemistry</v>
@@ -30072,7 +30073,7 @@
         <v>45</v>
       </c>
       <c r="E200" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F200" s="7" t="s">
         <v>190</v>
@@ -30215,7 +30216,7 @@
         <v>45</v>
       </c>
       <c r="E201" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F201" s="22" t="s">
         <v>29</v>
@@ -30343,7 +30344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A202" s="24" t="str">
         <f t="shared" si="342"/>
         <v>CBSE - IX - Computers</v>
@@ -30486,7 +30487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A203" s="24" t="str">
         <f t="shared" si="342"/>
         <v>CBSE - IX - AI</v>
@@ -30507,7 +30508,7 @@
         <v>63</v>
       </c>
       <c r="G203" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H203" s="7" t="s">
         <v>71</v>
@@ -30629,7 +30630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A204" s="24" t="str">
         <f t="shared" si="304"/>
         <v>CBSE - VIII - English</v>
@@ -30644,13 +30645,13 @@
         <v>45</v>
       </c>
       <c r="E204" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F204" s="33" t="s">
         <v>196</v>
       </c>
       <c r="G204" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H204" s="7" t="s">
         <v>71</v>
@@ -30772,7 +30773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A205" s="24" t="str">
         <f t="shared" si="304"/>
         <v>CBSE - VIII - Bengali</v>
@@ -30787,7 +30788,7 @@
         <v>45</v>
       </c>
       <c r="E205" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F205" s="22" t="s">
         <v>29</v>
@@ -30915,7 +30916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A206" s="24" t="str">
         <f t="shared" si="304"/>
         <v>CBSE - VIII - Hindi</v>
@@ -30930,13 +30931,13 @@
         <v>45</v>
       </c>
       <c r="E206" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="F206" s="33" t="s">
         <v>302</v>
       </c>
-      <c r="F206" s="33" t="s">
-        <v>303</v>
-      </c>
       <c r="G206" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H206" s="7" t="s">
         <v>71</v>
@@ -31058,7 +31059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A207" s="24" t="str">
         <f>D207&amp;" - "&amp;C207&amp;" - "&amp;B207</f>
         <v>CBSE - VIII - Social Science</v>
@@ -31073,7 +31074,7 @@
         <v>45</v>
       </c>
       <c r="E207" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F207" s="22" t="s">
         <v>29</v>
@@ -31201,7 +31202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A208" s="24" t="str">
         <f t="shared" si="304"/>
         <v>CBSE - VIII - Maths</v>
@@ -31216,13 +31217,13 @@
         <v>45</v>
       </c>
       <c r="E208" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F208" s="33" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G208" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H208" s="7" t="s">
         <v>71</v>
@@ -31344,7 +31345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A209" s="24" t="str">
         <f t="shared" si="304"/>
         <v>CBSE - VIII - Science - Physics, Chem</v>
@@ -31359,7 +31360,7 @@
         <v>45</v>
       </c>
       <c r="E209" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F209" s="7" t="s">
         <v>195</v>
@@ -31490,10 +31491,10 @@
     <row r="210" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A210" s="24" t="str">
         <f t="shared" ref="A210" si="368">D210&amp;" - "&amp;C210&amp;" - "&amp;B210</f>
-        <v>CBSE - VIII - Science - Bio</v>
+        <v>CBSE - VIII - Science, Biology</v>
       </c>
       <c r="B210" s="29" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C210" s="3" t="s">
         <v>52</v>
@@ -31502,7 +31503,7 @@
         <v>45</v>
       </c>
       <c r="E210" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F210" s="22" t="s">
         <v>29</v>
@@ -31630,7 +31631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A211" s="24" t="str">
         <f t="shared" si="304"/>
         <v>CBSE - VIII - Computers</v>
@@ -31773,7 +31774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A212" s="12" t="str">
         <f>C212&amp;" - "&amp;B212</f>
         <v>B.Com. (H) - Adv Accounting I</v>
@@ -31782,7 +31783,7 @@
         <v>78</v>
       </c>
       <c r="C212" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D212" s="3" t="s">
         <v>4</v>
@@ -31794,7 +31795,7 @@
         <v>180</v>
       </c>
       <c r="G212" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H212" s="7" t="s">
         <v>103</v>
@@ -31916,7 +31917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A213" s="12" t="str">
         <f t="shared" ref="A213:A221" si="376">C213&amp;" - "&amp;B213</f>
         <v>B.Com. (H) - Adv Accounting II</v>
@@ -31925,7 +31926,7 @@
         <v>79</v>
       </c>
       <c r="C213" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D213" s="3" t="s">
         <v>4</v>
@@ -31937,7 +31938,7 @@
         <v>180</v>
       </c>
       <c r="G213" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H213" s="7" t="s">
         <v>103</v>
@@ -32059,7 +32060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A214" s="12" t="str">
         <f t="shared" si="376"/>
         <v>B.Com. (H) - Adv Accounting III</v>
@@ -32068,7 +32069,7 @@
         <v>80</v>
       </c>
       <c r="C214" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D214" s="3" t="s">
         <v>4</v>
@@ -32080,7 +32081,7 @@
         <v>180</v>
       </c>
       <c r="G214" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H214" s="7" t="s">
         <v>103</v>
@@ -32202,7 +32203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A215" s="12" t="str">
         <f t="shared" si="376"/>
         <v>B.Com. (H) - Cost &amp; Mgmt Ac I</v>
@@ -32211,7 +32212,7 @@
         <v>93</v>
       </c>
       <c r="C215" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D215" s="3" t="s">
         <v>4</v>
@@ -32223,7 +32224,7 @@
         <v>180</v>
       </c>
       <c r="G215" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H215" s="7" t="s">
         <v>103</v>
@@ -32345,7 +32346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A216" s="12" t="str">
         <f t="shared" si="376"/>
         <v>B.Com. (H) - Cost &amp; Mgmt Ac II</v>
@@ -32354,7 +32355,7 @@
         <v>94</v>
       </c>
       <c r="C216" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D216" s="3" t="s">
         <v>4</v>
@@ -32366,7 +32367,7 @@
         <v>180</v>
       </c>
       <c r="G216" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H216" s="7" t="s">
         <v>103</v>
@@ -32488,7 +32489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A217" s="12" t="str">
         <f t="shared" si="376"/>
         <v>B.Com. (H) - In/Direct Tax I</v>
@@ -32497,7 +32498,7 @@
         <v>95</v>
       </c>
       <c r="C217" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D217" s="3" t="s">
         <v>4</v>
@@ -32509,7 +32510,7 @@
         <v>182</v>
       </c>
       <c r="G217" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H217" s="7" t="s">
         <v>103</v>
@@ -32631,7 +32632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A218" s="12" t="str">
         <f t="shared" si="376"/>
         <v>B.Com. (H) - In/Direct Tax II</v>
@@ -32640,7 +32641,7 @@
         <v>96</v>
       </c>
       <c r="C218" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D218" s="3" t="s">
         <v>4</v>
@@ -32652,7 +32653,7 @@
         <v>182</v>
       </c>
       <c r="G218" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H218" s="7" t="s">
         <v>103</v>
@@ -32774,7 +32775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A219" s="12" t="str">
         <f t="shared" si="376"/>
         <v>B.Com. (H) - Financial Mgmt</v>
@@ -32783,7 +32784,7 @@
         <v>97</v>
       </c>
       <c r="C219" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D219" s="3" t="s">
         <v>4</v>
@@ -32795,7 +32796,7 @@
         <v>180</v>
       </c>
       <c r="G219" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H219" s="7" t="s">
         <v>103</v>
@@ -32917,16 +32918,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A220" s="12" t="str">
         <f t="shared" si="376"/>
         <v>B.Com. (H) - Fin Rpt &amp; Stmt Anlys</v>
       </c>
       <c r="B220" s="9" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C220" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D220" s="3" t="s">
         <v>4</v>
@@ -32938,7 +32939,7 @@
         <v>180</v>
       </c>
       <c r="G220" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H220" s="7" t="s">
         <v>103</v>
@@ -33060,7 +33061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A221" s="12" t="str">
         <f t="shared" si="376"/>
         <v>B.Com. (H) - Audit &amp; Assurance</v>
@@ -33069,7 +33070,7 @@
         <v>82</v>
       </c>
       <c r="C221" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D221" s="3" t="s">
         <v>4</v>
@@ -33081,7 +33082,7 @@
         <v>180</v>
       </c>
       <c r="G221" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H221" s="7" t="s">
         <v>103</v>
@@ -33203,7 +33204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A222" s="12" t="str">
         <f>C222&amp;" - "&amp;B222</f>
         <v>B.Com. - Micro Economics</v>
@@ -33224,7 +33225,7 @@
         <v>179</v>
       </c>
       <c r="G222" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H222" s="7" t="s">
         <v>103</v>
@@ -33346,7 +33347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A223" s="12" t="str">
         <f t="shared" ref="A223:A267" si="400">C223&amp;" - "&amp;B223</f>
         <v>B.Com. - Macro Economics</v>
@@ -33367,7 +33368,7 @@
         <v>179</v>
       </c>
       <c r="G223" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H223" s="7" t="s">
         <v>103</v>
@@ -33489,7 +33490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A224" s="12" t="str">
         <f t="shared" si="400"/>
         <v>B.Com. - Development Eco</v>
@@ -33510,7 +33511,7 @@
         <v>179</v>
       </c>
       <c r="G224" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H224" s="7" t="s">
         <v>103</v>
@@ -33632,7 +33633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A225" s="12" t="str">
         <f t="shared" si="400"/>
         <v>B.Com. - Business Management I</v>
@@ -33653,7 +33654,7 @@
         <v>182</v>
       </c>
       <c r="G225" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H225" s="7" t="s">
         <v>103</v>
@@ -33775,7 +33776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A226" s="12" t="str">
         <f t="shared" si="400"/>
         <v>B.Com. - Business Management II</v>
@@ -33796,7 +33797,7 @@
         <v>182</v>
       </c>
       <c r="G226" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H226" s="7" t="s">
         <v>103</v>
@@ -33918,7 +33919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A227" s="12" t="str">
         <f t="shared" si="400"/>
         <v>B.Com. - HRM</v>
@@ -33939,7 +33940,7 @@
         <v>182</v>
       </c>
       <c r="G227" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H227" s="7" t="s">
         <v>103</v>
@@ -34061,7 +34062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A228" s="12" t="str">
         <f t="shared" si="400"/>
         <v>B.Com. - Business Mathematics</v>
@@ -34079,7 +34080,7 @@
         <v>4</v>
       </c>
       <c r="F228" s="22" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G228" s="22" t="s">
         <v>184</v>
@@ -34204,7 +34205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A229" s="12" t="str">
         <f t="shared" si="400"/>
         <v>B.Com. - Business Statistics</v>
@@ -34222,7 +34223,7 @@
         <v>4</v>
       </c>
       <c r="F229" s="22" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G229" s="22" t="s">
         <v>184</v>
@@ -34347,7 +34348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A230" s="12" t="str">
         <f t="shared" si="400"/>
         <v>B.Com. - Business Law</v>
@@ -34365,7 +34366,7 @@
         <v>4</v>
       </c>
       <c r="F230" s="22" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G230" s="22" t="s">
         <v>184</v>
@@ -34490,7 +34491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A231" s="12" t="str">
         <f t="shared" si="400"/>
         <v>B.Com. - Company Law</v>
@@ -34508,7 +34509,7 @@
         <v>4</v>
       </c>
       <c r="F231" s="22" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G231" s="22" t="s">
         <v>184</v>
@@ -34633,7 +34634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A232" s="12" t="str">
         <f t="shared" si="400"/>
         <v>B.Com. - Enterpreneurship</v>
@@ -34654,7 +34655,7 @@
         <v>180</v>
       </c>
       <c r="G232" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H232" s="7" t="s">
         <v>103</v>
@@ -34776,7 +34777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A233" s="12" t="str">
         <f t="shared" si="400"/>
         <v>B.Com. - Environmantal Studies</v>
@@ -34794,10 +34795,10 @@
         <v>4</v>
       </c>
       <c r="F233" s="33" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G233" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H233" s="7" t="s">
         <v>103</v>
@@ -34919,7 +34920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="234" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A234" s="12" t="str">
         <f t="shared" si="400"/>
         <v>B.Com. - Business Comm</v>
@@ -34937,10 +34938,10 @@
         <v>4</v>
       </c>
       <c r="F234" s="33" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G234" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H234" s="7" t="s">
         <v>103</v>
@@ -35062,7 +35063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A235" s="12" t="str">
         <f t="shared" si="400"/>
         <v>B.Com. - E-Commerce</v>
@@ -35080,10 +35081,10 @@
         <v>4</v>
       </c>
       <c r="F235" s="33" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G235" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H235" s="7" t="s">
         <v>103</v>
@@ -35205,7 +35206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A236" s="12" t="str">
         <f t="shared" si="400"/>
         <v>B.Com. - IT App in Business</v>
@@ -35223,10 +35224,10 @@
         <v>4</v>
       </c>
       <c r="F236" s="33" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G236" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H236" s="7" t="s">
         <v>103</v>
@@ -35348,7 +35349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A237" s="12" t="str">
         <f t="shared" si="400"/>
         <v>B.Com. - Comp Ac &amp; Tax eFiling</v>
@@ -35369,7 +35370,7 @@
         <v>180</v>
       </c>
       <c r="G237" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H237" s="7" t="s">
         <v>103</v>
@@ -35491,7 +35492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A238" s="12" t="str">
         <f t="shared" si="400"/>
         <v>B.B.A. - English</v>
@@ -35509,10 +35510,10 @@
         <v>4</v>
       </c>
       <c r="F238" s="33" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G238" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H238" s="7" t="s">
         <v>103</v>
@@ -35634,7 +35635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A239" s="12" t="str">
         <f t="shared" si="400"/>
         <v>B.B.A. - Business Comm</v>
@@ -35652,10 +35653,10 @@
         <v>4</v>
       </c>
       <c r="F239" s="33" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G239" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H239" s="7" t="s">
         <v>103</v>
@@ -35777,7 +35778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="240" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A240" s="12" t="str">
         <f t="shared" si="400"/>
         <v>B.B.A. - Essentials of Math</v>
@@ -35795,7 +35796,7 @@
         <v>4</v>
       </c>
       <c r="F240" s="22" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G240" s="22" t="s">
         <v>184</v>
@@ -35920,7 +35921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A241" s="12" t="str">
         <f t="shared" si="400"/>
         <v>B.B.A. - Essentials of Stats</v>
@@ -35938,7 +35939,7 @@
         <v>4</v>
       </c>
       <c r="F241" s="22" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G241" s="22" t="s">
         <v>184</v>
@@ -36063,7 +36064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A242" s="12" t="str">
         <f t="shared" si="400"/>
         <v>B.B.A. - Advanced Math &amp; Stats</v>
@@ -36081,7 +36082,7 @@
         <v>4</v>
       </c>
       <c r="F242" s="22" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G242" s="22" t="s">
         <v>184</v>
@@ -36206,7 +36207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A243" s="12" t="str">
         <f t="shared" si="400"/>
         <v>B.B.A. - Computer Applications</v>
@@ -36224,10 +36225,10 @@
         <v>4</v>
       </c>
       <c r="F243" s="33" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G243" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H243" s="7" t="s">
         <v>103</v>
@@ -36349,7 +36350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="244" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A244" s="12" t="str">
         <f t="shared" si="400"/>
         <v>B.B.A. - Micro Economics</v>
@@ -36370,7 +36371,7 @@
         <v>179</v>
       </c>
       <c r="G244" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H244" s="7" t="s">
         <v>103</v>
@@ -36492,7 +36493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A245" s="12" t="str">
         <f t="shared" si="400"/>
         <v>B.B.A. - Macro Economics</v>
@@ -36513,7 +36514,7 @@
         <v>179</v>
       </c>
       <c r="G245" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H245" s="7" t="s">
         <v>103</v>
@@ -36635,7 +36636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="246" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A246" s="12" t="str">
         <f t="shared" si="400"/>
         <v>B.B.A. - Organizational Behavior</v>
@@ -36656,7 +36657,7 @@
         <v>182</v>
       </c>
       <c r="G246" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H246" s="7" t="s">
         <v>103</v>
@@ -36778,7 +36779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A247" s="12" t="str">
         <f t="shared" si="400"/>
         <v>B.B.A. - Social Structure &amp; Ethics</v>
@@ -36796,10 +36797,10 @@
         <v>4</v>
       </c>
       <c r="F247" s="33" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G247" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H247" s="7" t="s">
         <v>103</v>
@@ -36921,7 +36922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A248" s="12" t="str">
         <f t="shared" si="400"/>
         <v>B.B.A. - Principles of Mgmt</v>
@@ -36942,7 +36943,7 @@
         <v>182</v>
       </c>
       <c r="G248" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H248" s="7" t="s">
         <v>103</v>
@@ -37064,7 +37065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="249" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A249" s="12" t="str">
         <f t="shared" si="400"/>
         <v>B.B.A. - Managerial Economics</v>
@@ -37085,7 +37086,7 @@
         <v>179</v>
       </c>
       <c r="G249" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H249" s="7" t="s">
         <v>103</v>
@@ -37207,7 +37208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A250" s="12" t="str">
         <f t="shared" si="400"/>
         <v>B.B.A. - Business Laws</v>
@@ -37225,7 +37226,7 @@
         <v>4</v>
       </c>
       <c r="F250" s="22" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G250" s="22" t="s">
         <v>184</v>
@@ -37350,7 +37351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A251" s="12" t="str">
         <f t="shared" si="400"/>
         <v>B.B.A. - Financial Accounting</v>
@@ -37371,7 +37372,7 @@
         <v>180</v>
       </c>
       <c r="G251" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H251" s="7" t="s">
         <v>103</v>
@@ -37493,7 +37494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A252" s="12" t="str">
         <f t="shared" si="400"/>
         <v>B.B.A. - Environment Studies</v>
@@ -37511,10 +37512,10 @@
         <v>4</v>
       </c>
       <c r="F252" s="33" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G252" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H252" s="7" t="s">
         <v>103</v>
@@ -37636,7 +37637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A253" s="12" t="str">
         <f t="shared" si="400"/>
         <v>B.B.A. - Prod &amp; Materials Mgmt</v>
@@ -37657,7 +37658,7 @@
         <v>182</v>
       </c>
       <c r="G253" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H253" s="7" t="s">
         <v>103</v>
@@ -37779,7 +37780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="254" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A254" s="12" t="str">
         <f t="shared" si="400"/>
         <v>B.B.A. - Mgmt Info System</v>
@@ -37797,10 +37798,10 @@
         <v>4</v>
       </c>
       <c r="F254" s="33" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G254" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H254" s="7" t="s">
         <v>103</v>
@@ -37922,7 +37923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="255" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A255" s="12" t="str">
         <f t="shared" si="400"/>
         <v>B.B.A. - Cost Accounting</v>
@@ -37943,7 +37944,7 @@
         <v>180</v>
       </c>
       <c r="G255" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H255" s="7" t="s">
         <v>103</v>
@@ -38065,7 +38066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="256" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A256" s="12" t="str">
         <f t="shared" si="400"/>
         <v>B.B.A. - Marketing Management</v>
@@ -38086,7 +38087,7 @@
         <v>182</v>
       </c>
       <c r="G256" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H256" s="7" t="s">
         <v>103</v>
@@ -38208,7 +38209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="257" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A257" s="12" t="str">
         <f t="shared" si="400"/>
         <v>B.B.A. - HRM</v>
@@ -38229,7 +38230,7 @@
         <v>182</v>
       </c>
       <c r="G257" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H257" s="7" t="s">
         <v>103</v>
@@ -38351,7 +38352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="258" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A258" s="12" t="str">
         <f t="shared" si="400"/>
         <v>B.B.A. - Financial Management</v>
@@ -38372,7 +38373,7 @@
         <v>180</v>
       </c>
       <c r="G258" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H258" s="7" t="s">
         <v>103</v>
@@ -38494,7 +38495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="259" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A259" s="12" t="str">
         <f t="shared" si="400"/>
         <v>B.B.A. - Sales &amp; Distribn Mgmt</v>
@@ -38515,7 +38516,7 @@
         <v>182</v>
       </c>
       <c r="G259" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H259" s="7" t="s">
         <v>103</v>
@@ -38637,7 +38638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="260" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A260" s="12" t="str">
         <f t="shared" si="400"/>
         <v>B.B.A. - HR Development</v>
@@ -38658,7 +38659,7 @@
         <v>182</v>
       </c>
       <c r="G260" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H260" s="7" t="s">
         <v>103</v>
@@ -38780,7 +38781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="261" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A261" s="12" t="str">
         <f t="shared" si="400"/>
         <v>B.B.A. - Enterpreneurship Dev</v>
@@ -38801,7 +38802,7 @@
         <v>180</v>
       </c>
       <c r="G261" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H261" s="7" t="s">
         <v>103</v>
@@ -38923,7 +38924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="262" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A262" s="12" t="str">
         <f t="shared" si="400"/>
         <v>B.B.A. - Research Methodology</v>
@@ -38944,7 +38945,7 @@
         <v>180</v>
       </c>
       <c r="G262" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H262" s="7" t="s">
         <v>103</v>
@@ -39066,7 +39067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="263" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A263" s="12" t="str">
         <f t="shared" si="400"/>
         <v>B.B.A. - Mgmt Accounting</v>
@@ -39087,7 +39088,7 @@
         <v>180</v>
       </c>
       <c r="G263" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H263" s="7" t="s">
         <v>103</v>
@@ -39209,7 +39210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="264" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A264" s="12" t="str">
         <f t="shared" si="400"/>
         <v>B.B.A. - Ad &amp; Sales Promotion</v>
@@ -39230,7 +39231,7 @@
         <v>182</v>
       </c>
       <c r="G264" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H264" s="7" t="s">
         <v>103</v>
@@ -39352,7 +39353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="265" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A265" s="12" t="str">
         <f t="shared" si="400"/>
         <v>B.B.A. - Industrial Relations</v>
@@ -39373,7 +39374,7 @@
         <v>182</v>
       </c>
       <c r="G265" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H265" s="7" t="s">
         <v>103</v>
@@ -39495,7 +39496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="266" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A266" s="12" t="str">
         <f t="shared" si="400"/>
         <v>B.B.A. - Public Service Mgmt</v>
@@ -39516,7 +39517,7 @@
         <v>182</v>
       </c>
       <c r="G266" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H266" s="7" t="s">
         <v>103</v>
@@ -39638,7 +39639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="267" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A267" s="12" t="str">
         <f t="shared" si="400"/>
         <v>B.B.A. - Project and Viva</v>
@@ -39659,7 +39660,7 @@
         <v>180</v>
       </c>
       <c r="G267" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H267" s="7" t="s">
         <v>103</v>
@@ -39781,16 +39782,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="268" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A268" s="20" t="str">
         <f>D268&amp;" - "&amp;C268&amp;" - "&amp;B268</f>
         <v>C.A. - Found - Accountancy</v>
       </c>
       <c r="B268" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C268" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D268" s="3" t="s">
         <v>168</v>
@@ -39924,16 +39925,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="269" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A269" s="20" t="str">
         <f t="shared" ref="A269:A332" si="426">D269&amp;" - "&amp;C269&amp;" - "&amp;B269</f>
         <v>C.A. - Found - Biz laws &amp; Corspndnce</v>
       </c>
       <c r="B269" s="9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C269" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D269" s="3" t="s">
         <v>168</v>
@@ -39942,7 +39943,7 @@
         <v>4</v>
       </c>
       <c r="F269" s="22" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G269" s="22" t="s">
         <v>184</v>
@@ -40021,16 +40022,16 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="270" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="270" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A270" s="20" t="str">
         <f t="shared" si="426"/>
         <v>C.A. - Found - Biz Math &amp; Stat</v>
       </c>
       <c r="B270" s="9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C270" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D270" s="3" t="s">
         <v>168</v>
@@ -40039,7 +40040,7 @@
         <v>4</v>
       </c>
       <c r="F270" s="22" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G270" s="22" t="s">
         <v>184</v>
@@ -40118,16 +40119,16 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="271" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="271" spans="1:40" hidden="1" x14ac:dyDescent="0.45">
       <c r="A271" s="20" t="str">
         <f t="shared" si="426"/>
         <v>C.A. - Found - Eco &amp; Comm Knwldge</v>
       </c>
       <c r="B271" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C271" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D271" s="3" t="s">
         <v>168</v>
@@ -40213,16 +40214,16 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="272" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="272" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A272" s="20" t="str">
         <f t="shared" si="426"/>
         <v>C.A. - Inter - Accountancy</v>
       </c>
       <c r="B272" s="27" t="s">
+        <v>204</v>
+      </c>
+      <c r="C272" s="3" t="s">
         <v>205</v>
-      </c>
-      <c r="C272" s="3" t="s">
-        <v>206</v>
       </c>
       <c r="D272" s="3" t="s">
         <v>168</v>
@@ -40356,16 +40357,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="273" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A273" s="20" t="str">
         <f t="shared" si="426"/>
         <v>C.A. - Inter - Corp &amp; other Laws</v>
       </c>
       <c r="B273" s="27" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C273" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D273" s="3" t="s">
         <v>168</v>
@@ -40374,7 +40375,7 @@
         <v>4</v>
       </c>
       <c r="F273" s="22" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G273" s="22" t="s">
         <v>184</v>
@@ -40443,16 +40444,16 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="274" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="274" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A274" s="20" t="str">
         <f t="shared" si="426"/>
         <v>C.A. - Inter - Cost &amp; Mgmt Ac</v>
       </c>
       <c r="B274" s="27" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C274" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D274" s="3" t="s">
         <v>168</v>
@@ -40530,16 +40531,16 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="275" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="275" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A275" s="20" t="str">
         <f t="shared" si="426"/>
         <v>C.A. - Inter - Tax</v>
       </c>
       <c r="B275" s="27" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C275" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D275" s="3" t="s">
         <v>168</v>
@@ -40615,16 +40616,16 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="276" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="276" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A276" s="20" t="str">
         <f t="shared" si="426"/>
         <v>C.A. - Inter - Audit</v>
       </c>
       <c r="B276" s="27" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C276" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D276" s="3" t="s">
         <v>168</v>
@@ -40700,16 +40701,16 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="277" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="277" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A277" s="20" t="str">
         <f t="shared" si="426"/>
         <v>C.A. - Inter - Adv Ac</v>
       </c>
       <c r="B277" s="27" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C277" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D277" s="3" t="s">
         <v>168</v>
@@ -40787,16 +40788,16 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="278" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="278" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A278" s="20" t="str">
         <f t="shared" si="426"/>
         <v>C.A. - Inter - EIS &amp; Strategic Mgmt</v>
       </c>
       <c r="B278" s="27" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C278" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D278" s="3" t="s">
         <v>168</v>
@@ -40805,10 +40806,10 @@
         <v>4</v>
       </c>
       <c r="F278" s="33" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G278" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H278" s="7" t="s">
         <v>103</v>
@@ -40874,16 +40875,16 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="279" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="279" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A279" s="20" t="str">
         <f t="shared" si="426"/>
         <v>C.A. - Inter - Fin Mgmt &amp; Eco</v>
       </c>
       <c r="B279" s="27" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C279" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D279" s="3" t="s">
         <v>168</v>
@@ -40959,13 +40960,13 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="280" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="280" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A280" s="20" t="str">
         <f t="shared" si="426"/>
         <v>C.A. - Final - Fin Reporting</v>
       </c>
       <c r="B280" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C280" s="3" t="s">
         <v>167</v>
@@ -41102,13 +41103,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="281" spans="1:40" hidden="1" x14ac:dyDescent="0.45">
       <c r="A281" s="20" t="str">
         <f t="shared" si="426"/>
         <v>C.A. - Final - Strategic Fin Mgmt</v>
       </c>
       <c r="B281" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C281" s="3" t="s">
         <v>167</v>
@@ -41189,13 +41190,13 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="282" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="282" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A282" s="20" t="str">
         <f t="shared" si="426"/>
         <v>C.A. - Final - Audit &amp; Ethics</v>
       </c>
       <c r="B282" s="9" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C282" s="3" t="s">
         <v>167</v>
@@ -41274,13 +41275,13 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="283" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="283" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A283" s="20" t="str">
         <f t="shared" si="426"/>
         <v>C.A. - Final - Corporate &amp; Eco Laws</v>
       </c>
       <c r="B283" s="9" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C283" s="3" t="s">
         <v>167</v>
@@ -41292,7 +41293,7 @@
         <v>4</v>
       </c>
       <c r="F283" s="22" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G283" s="22" t="s">
         <v>184</v>
@@ -41361,13 +41362,13 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="284" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="284" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A284" s="20" t="str">
         <f t="shared" si="426"/>
         <v>C.A. - Final - Strategic Cost &amp; Perf Eval</v>
       </c>
       <c r="B284" s="9" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C284" s="3" t="s">
         <v>167</v>
@@ -41448,13 +41449,13 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="285" spans="1:40" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="285" spans="1:40" ht="17.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A285" s="20" t="str">
         <f t="shared" si="426"/>
         <v>C.A. - Final - Risk, Cptl Mkt, Glbl FnRpt</v>
       </c>
       <c r="B285" s="9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C285" s="3" t="s">
         <v>167</v>
@@ -41533,13 +41534,13 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="286" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="286" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A286" s="20" t="str">
         <f t="shared" si="426"/>
         <v>C.A. - Final - Direct Tax &amp; Intrtnl Tax</v>
       </c>
       <c r="B286" s="9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C286" s="3" t="s">
         <v>167</v>
@@ -41551,7 +41552,7 @@
         <v>4</v>
       </c>
       <c r="F286" s="22" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G286" s="22" t="s">
         <v>184</v>
@@ -41620,13 +41621,13 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="287" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="287" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A287" s="20" t="str">
         <f t="shared" si="426"/>
         <v>C.A. - Final - Indirect Tax laws</v>
       </c>
       <c r="B287" s="9" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C287" s="3" t="s">
         <v>167</v>
@@ -41638,7 +41639,7 @@
         <v>4</v>
       </c>
       <c r="F287" s="22" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G287" s="22" t="s">
         <v>184</v>
@@ -41707,16 +41708,16 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="288" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="288" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A288" s="32" t="str">
         <f t="shared" si="426"/>
         <v>C.M.A. - Found - Bizz laws &amp; comm</v>
       </c>
       <c r="B288" s="27" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C288" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D288" s="3" t="s">
         <v>169</v>
@@ -41848,16 +41849,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="289" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A289" s="32" t="str">
         <f t="shared" si="426"/>
         <v>C.M.A. - Found - Fin &amp; Cost Ac</v>
       </c>
       <c r="B289" s="27" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C289" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D289" s="3" t="s">
         <v>169</v>
@@ -41933,16 +41934,16 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="290" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="290" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A290" s="32" t="str">
         <f t="shared" si="426"/>
         <v>C.M.A. - Found - Bizz math &amp; Stat</v>
       </c>
       <c r="B290" s="27" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C290" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D290" s="3" t="s">
         <v>169</v>
@@ -42018,16 +42019,16 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="291" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="291" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A291" s="32" t="str">
         <f t="shared" si="426"/>
         <v>C.M.A. - Found - Bizz Eco &amp; Math</v>
       </c>
       <c r="B291" s="27" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C291" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D291" s="3" t="s">
         <v>169</v>
@@ -42103,16 +42104,16 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="292" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="292" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A292" s="32" t="str">
         <f t="shared" si="426"/>
         <v>C.M.A. - Inter - Biz Law &amp; Ethics</v>
       </c>
       <c r="B292" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C292" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D292" s="3" t="s">
         <v>169</v>
@@ -42244,16 +42245,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="293" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A293" s="32" t="str">
         <f t="shared" si="426"/>
         <v>C.M.A. - Inter - Fin Ac</v>
       </c>
       <c r="B293" s="9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C293" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D293" s="3" t="s">
         <v>169</v>
@@ -42329,16 +42330,16 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="294" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="294" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A294" s="32" t="str">
         <f t="shared" si="426"/>
         <v>C.M.A. - Inter - Direct Indirect Tax</v>
       </c>
       <c r="B294" s="9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C294" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D294" s="3" t="s">
         <v>169</v>
@@ -42414,16 +42415,16 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="295" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="295" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A295" s="32" t="str">
         <f t="shared" si="426"/>
         <v>C.M.A. - Inter - Cost AC</v>
       </c>
       <c r="B295" s="9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C295" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D295" s="3" t="s">
         <v>169</v>
@@ -42499,16 +42500,16 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="296" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="296" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A296" s="32" t="str">
         <f t="shared" si="426"/>
         <v>C.M.A. - Inter - Ops &amp; Mgmt Strategic</v>
       </c>
       <c r="B296" s="9" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C296" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D296" s="3" t="s">
         <v>169</v>
@@ -42584,16 +42585,16 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="297" spans="1:40" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="297" spans="1:40" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A297" s="32" t="str">
         <f t="shared" si="426"/>
         <v>C.M.A. - Inter - Corporate AC &amp; Auditing</v>
       </c>
       <c r="B297" s="9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C297" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D297" s="3" t="s">
         <v>169</v>
@@ -42669,16 +42670,16 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="298" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="298" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A298" s="32" t="str">
         <f t="shared" si="426"/>
         <v>C.M.A. - Inter - Fin Mgmt-Data Anltcs</v>
       </c>
       <c r="B298" s="9" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C298" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D298" s="3" t="s">
         <v>169</v>
@@ -42754,16 +42755,16 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="299" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="299" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A299" s="32" t="str">
         <f t="shared" si="426"/>
         <v>C.M.A. - Inter - Mgmt AC</v>
       </c>
       <c r="B299" s="9" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C299" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D299" s="3" t="s">
         <v>169</v>
@@ -42839,13 +42840,13 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="300" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="300" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A300" s="32" t="str">
         <f t="shared" si="426"/>
         <v>C.M.A. - Final - Corporate &amp; Eco Laws</v>
       </c>
       <c r="B300" s="27" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C300" s="3" t="s">
         <v>167</v>
@@ -42980,13 +42981,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="301" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A301" s="32" t="str">
         <f t="shared" si="426"/>
         <v>C.M.A. - Final - Strategic Fin Mgmt</v>
       </c>
       <c r="B301" s="27" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C301" s="3" t="s">
         <v>167</v>
@@ -43065,13 +43066,13 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="302" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="302" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A302" s="32" t="str">
         <f t="shared" si="426"/>
         <v>C.M.A. - Final - Direct &amp; Intrntnl Tax</v>
       </c>
       <c r="B302" s="27" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C302" s="3" t="s">
         <v>167</v>
@@ -43150,13 +43151,13 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="303" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="303" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A303" s="32" t="str">
         <f t="shared" si="426"/>
         <v>C.M.A. - Final - Strategic Cost Mgmt</v>
       </c>
       <c r="B303" s="27" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C303" s="3" t="s">
         <v>167</v>
@@ -43235,13 +43236,13 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="304" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="304" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A304" s="32" t="str">
         <f t="shared" si="426"/>
         <v>C.M.A. - Final - Cost &amp; Mgmt Audit</v>
       </c>
       <c r="B304" s="27" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C304" s="3" t="s">
         <v>167</v>
@@ -43320,13 +43321,13 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="305" spans="1:40" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="305" spans="1:40" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A305" s="32" t="str">
         <f t="shared" si="426"/>
         <v>C.M.A. - Final - Corporate Fin Reporting</v>
       </c>
       <c r="B305" s="27" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C305" s="3" t="s">
         <v>167</v>
@@ -43405,13 +43406,13 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="306" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="306" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A306" s="32" t="str">
         <f t="shared" si="426"/>
         <v>C.M.A. - Final - Indirect Tax</v>
       </c>
       <c r="B306" s="27" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C306" s="3" t="s">
         <v>167</v>
@@ -43490,13 +43491,13 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="307" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="307" spans="1:40" hidden="1" x14ac:dyDescent="0.45">
       <c r="A307" s="32" t="str">
         <f t="shared" si="426"/>
         <v>C.M.A. - Final - Strt Perf Mgmt &amp; Eval</v>
       </c>
       <c r="B307" s="27" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C307" s="3" t="s">
         <v>167</v>
@@ -43575,16 +43576,16 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="308" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="308" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A308" s="20" t="str">
         <f t="shared" si="426"/>
         <v>C.S. - Found - Biz Env &amp; Law</v>
       </c>
       <c r="B308" s="9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C308" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D308" s="3" t="s">
         <v>170</v>
@@ -43716,16 +43717,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="309" spans="1:40" hidden="1" x14ac:dyDescent="0.45">
       <c r="A309" s="20" t="str">
         <f t="shared" si="426"/>
         <v>C.S. - Found - Biz Mgmt, Ethics, Entsp</v>
       </c>
       <c r="B309" s="9" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C309" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D309" s="3" t="s">
         <v>170</v>
@@ -43797,16 +43798,16 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="310" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="310" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A310" s="20" t="str">
         <f t="shared" si="426"/>
         <v>C.S. - Found - Biz Eco</v>
       </c>
       <c r="B310" s="9" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C310" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D310" s="3" t="s">
         <v>170</v>
@@ -43878,16 +43879,16 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="311" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="311" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A311" s="20" t="str">
         <f t="shared" si="426"/>
         <v>C.S. - Found - Ac &amp; Audit</v>
       </c>
       <c r="B311" s="9" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C311" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D311" s="3" t="s">
         <v>170</v>
@@ -43959,16 +43960,16 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="312" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="312" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A312" s="20" t="str">
         <f t="shared" si="426"/>
         <v>C.S. - Inter - General Law</v>
       </c>
       <c r="B312" s="27" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C312" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D312" s="3" t="s">
         <v>170</v>
@@ -44100,7 +44101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="313" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A313" s="20" t="str">
         <f t="shared" si="426"/>
         <v>C.S. - Inter - Company Law</v>
@@ -44109,7 +44110,7 @@
         <v>89</v>
       </c>
       <c r="C313" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D313" s="3" t="s">
         <v>170</v>
@@ -44181,16 +44182,16 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="314" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="314" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A314" s="20" t="str">
         <f t="shared" si="426"/>
         <v>C.S. - Inter - Set up of Biz &amp; Closure</v>
       </c>
       <c r="B314" s="27" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C314" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D314" s="3" t="s">
         <v>170</v>
@@ -44262,16 +44263,16 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="315" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="315" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A315" s="20" t="str">
         <f t="shared" si="426"/>
         <v>C.S. - Inter - Tax Law</v>
       </c>
       <c r="B315" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C315" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D315" s="3" t="s">
         <v>170</v>
@@ -44343,16 +44344,16 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="316" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="316" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A316" s="20" t="str">
         <f t="shared" si="426"/>
         <v>C.S. - Inter - Corporate &amp; Mgmt AC</v>
       </c>
       <c r="B316" s="27" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C316" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D316" s="3" t="s">
         <v>170</v>
@@ -44424,16 +44425,16 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="317" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="317" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A317" s="20" t="str">
         <f t="shared" si="426"/>
         <v>C.S. - Inter - Securities Law &amp; Cptl Mkt</v>
       </c>
       <c r="B317" s="27" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C317" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D317" s="3" t="s">
         <v>170</v>
@@ -44505,16 +44506,16 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="318" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="318" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A318" s="20" t="str">
         <f t="shared" si="426"/>
         <v>C.S. - Inter - Eco, Biz &amp; Comm Law</v>
       </c>
       <c r="B318" s="27" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C318" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D318" s="3" t="s">
         <v>170</v>
@@ -44586,16 +44587,16 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="319" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="319" spans="1:40" hidden="1" x14ac:dyDescent="0.45">
       <c r="A319" s="20" t="str">
         <f t="shared" si="426"/>
         <v>C.S. - Inter - Fin &amp; Strategic Mgmt</v>
       </c>
       <c r="B319" s="27" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C319" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D319" s="3" t="s">
         <v>170</v>
@@ -44667,13 +44668,13 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="320" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="320" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A320" s="20" t="str">
         <f t="shared" si="426"/>
         <v>C.S. - Final - Govrnc, Risk Mgmt, Ethics</v>
       </c>
       <c r="B320" s="9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C320" s="3" t="s">
         <v>167</v>
@@ -44808,13 +44809,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="321" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A321" s="20" t="str">
         <f t="shared" si="426"/>
         <v>C.S. - Final - Adv Tax laws</v>
       </c>
       <c r="B321" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C321" s="3" t="s">
         <v>167</v>
@@ -44889,13 +44890,13 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="322" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="322" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A322" s="20" t="str">
         <f t="shared" si="426"/>
         <v>C.S. - Final - Draft, Pleed &amp; Apprncs</v>
       </c>
       <c r="B322" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C322" s="3" t="s">
         <v>167</v>
@@ -44970,13 +44971,13 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="323" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="323" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A323" s="20" t="str">
         <f t="shared" si="426"/>
         <v>C.S. - Final - Secretl Audit, Due Delgnc</v>
       </c>
       <c r="B323" s="9" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C323" s="3" t="s">
         <v>167</v>
@@ -45051,13 +45052,13 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="324" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="324" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A324" s="20" t="str">
         <f t="shared" si="426"/>
         <v>C.S. - Final - Corp Restrct, Winding Up</v>
       </c>
       <c r="B324" s="9" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C324" s="3" t="s">
         <v>167</v>
@@ -45132,13 +45133,13 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="325" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="325" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A325" s="20" t="str">
         <f t="shared" si="426"/>
         <v>C.S. - Final - Resln of Corp Disputes</v>
       </c>
       <c r="B325" s="9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C325" s="3" t="s">
         <v>167</v>
@@ -45213,13 +45214,13 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="326" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="326" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A326" s="20" t="str">
         <f t="shared" si="426"/>
         <v>C.S. - Final - Corp Fund &amp; Stock Listing</v>
       </c>
       <c r="B326" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C326" s="3" t="s">
         <v>167</v>
@@ -45294,13 +45295,13 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="327" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="327" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A327" s="20" t="str">
         <f t="shared" si="426"/>
         <v>C.S. - Final - Multi Discp Case Studies</v>
       </c>
       <c r="B327" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C327" s="3" t="s">
         <v>167</v>
@@ -45375,13 +45376,13 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="328" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="328" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A328" s="20" t="str">
         <f t="shared" si="426"/>
         <v>C.S. - Final - Intellectual Prpt Rights</v>
       </c>
       <c r="B328" s="9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C328" s="3" t="s">
         <v>167</v>
@@ -45456,16 +45457,16 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="329" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="329" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A329" s="32" t="str">
         <f t="shared" si="426"/>
         <v>C.F.A. - L-1 - Ethical &amp; Prof Standards</v>
       </c>
       <c r="B329" s="27" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C329" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D329" s="3" t="s">
         <v>171</v>
@@ -45597,16 +45598,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="330" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A330" s="32" t="str">
         <f t="shared" si="426"/>
         <v>C.F.A. - L-1 - Quantitive Methods</v>
       </c>
       <c r="B330" s="27" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C330" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D330" s="3" t="s">
         <v>171</v>
@@ -45678,7 +45679,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="331" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="331" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A331" s="32" t="str">
         <f t="shared" si="426"/>
         <v>C.F.A. - L-1 - Economics</v>
@@ -45687,7 +45688,7 @@
         <v>31</v>
       </c>
       <c r="C331" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D331" s="3" t="s">
         <v>171</v>
@@ -45759,16 +45760,16 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="332" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="332" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A332" s="32" t="str">
         <f t="shared" si="426"/>
         <v>C.F.A. - L-1 - Fin Statement Analysis</v>
       </c>
       <c r="B332" s="27" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C332" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D332" s="3" t="s">
         <v>171</v>
@@ -45840,16 +45841,16 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="333" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="333" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A333" s="32" t="str">
         <f t="shared" ref="A333:A358" si="445">D333&amp;" - "&amp;C333&amp;" - "&amp;B333</f>
         <v>C.F.A. - L-1 - Corporate Issuers</v>
       </c>
       <c r="B333" s="27" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C333" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D333" s="3" t="s">
         <v>171</v>
@@ -45921,16 +45922,16 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="334" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="334" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A334" s="32" t="str">
         <f t="shared" si="445"/>
         <v>C.F.A. - L-1 - Equity Investments</v>
       </c>
       <c r="B334" s="27" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C334" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D334" s="3" t="s">
         <v>171</v>
@@ -46002,16 +46003,16 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="335" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="335" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A335" s="32" t="str">
         <f t="shared" si="445"/>
         <v>C.F.A. - L-1 - Fixed Income</v>
       </c>
       <c r="B335" s="27" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C335" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D335" s="3" t="s">
         <v>171</v>
@@ -46083,16 +46084,16 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="336" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="336" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A336" s="32" t="str">
         <f t="shared" si="445"/>
         <v>C.F.A. - L-1 - Derivatives</v>
       </c>
       <c r="B336" s="27" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C336" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D336" s="3" t="s">
         <v>171</v>
@@ -46164,16 +46165,16 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="337" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="337" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A337" s="32" t="str">
         <f t="shared" si="445"/>
         <v>C.F.A. - L-1 - Alternative Investments</v>
       </c>
       <c r="B337" s="27" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C337" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D337" s="3" t="s">
         <v>171</v>
@@ -46245,16 +46246,16 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="338" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="338" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A338" s="32" t="str">
         <f t="shared" si="445"/>
         <v>C.F.A. - L-1 - Portrfolio Mgmt &amp; Wealth</v>
       </c>
       <c r="B338" s="27" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C338" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D338" s="3" t="s">
         <v>171</v>
@@ -46326,16 +46327,16 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="339" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="339" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A339" s="32" t="str">
         <f t="shared" si="445"/>
         <v>C.F.A. - L-2 - Ethical &amp; Prof Standards</v>
       </c>
       <c r="B339" s="9" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C339" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D339" s="3" t="s">
         <v>171</v>
@@ -46467,16 +46468,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="340" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A340" s="32" t="str">
         <f t="shared" si="445"/>
         <v>C.F.A. - L-2 - Quantitive Methods</v>
       </c>
       <c r="B340" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C340" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D340" s="3" t="s">
         <v>171</v>
@@ -46548,7 +46549,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="341" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="341" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A341" s="32" t="str">
         <f t="shared" si="445"/>
         <v>C.F.A. - L-2 - Economics</v>
@@ -46557,7 +46558,7 @@
         <v>31</v>
       </c>
       <c r="C341" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D341" s="3" t="s">
         <v>171</v>
@@ -46629,16 +46630,16 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="342" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="342" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A342" s="32" t="str">
         <f t="shared" si="445"/>
         <v>C.F.A. - L-2 - Fin Statement Analysis</v>
       </c>
       <c r="B342" s="9" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C342" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D342" s="3" t="s">
         <v>171</v>
@@ -46710,16 +46711,16 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="343" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="343" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A343" s="32" t="str">
         <f t="shared" si="445"/>
         <v>C.F.A. - L-2 - Corporate Issuers</v>
       </c>
       <c r="B343" s="9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C343" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D343" s="3" t="s">
         <v>171</v>
@@ -46791,16 +46792,16 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="344" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="344" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A344" s="32" t="str">
         <f t="shared" si="445"/>
         <v>C.F.A. - L-2 - Equity Investments</v>
       </c>
       <c r="B344" s="9" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C344" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D344" s="3" t="s">
         <v>171</v>
@@ -46872,16 +46873,16 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="345" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="345" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A345" s="32" t="str">
         <f t="shared" si="445"/>
         <v>C.F.A. - L-2 - Fixed Income</v>
       </c>
       <c r="B345" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C345" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D345" s="3" t="s">
         <v>171</v>
@@ -46953,16 +46954,16 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="346" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="346" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A346" s="32" t="str">
         <f t="shared" si="445"/>
         <v>C.F.A. - L-2 - Derivatives</v>
       </c>
       <c r="B346" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C346" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D346" s="3" t="s">
         <v>171</v>
@@ -47034,16 +47035,16 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="347" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="347" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A347" s="32" t="str">
         <f t="shared" si="445"/>
         <v>C.F.A. - L-2 - Alternative Investments</v>
       </c>
       <c r="B347" s="9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C347" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D347" s="3" t="s">
         <v>171</v>
@@ -47115,16 +47116,16 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="348" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="348" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A348" s="32" t="str">
         <f t="shared" si="445"/>
         <v>C.F.A. - L-2 - Portrfolio Mgmt-Wealth</v>
       </c>
       <c r="B348" s="9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C348" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D348" s="3" t="s">
         <v>171</v>
@@ -47196,16 +47197,16 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="349" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="349" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A349" s="32" t="str">
         <f t="shared" si="445"/>
         <v>C.F.A. - L-3 - Ethical &amp; Prof Standards</v>
       </c>
       <c r="B349" s="27" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C349" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D349" s="3" t="s">
         <v>171</v>
@@ -47337,16 +47338,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="350" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A350" s="32" t="str">
         <f t="shared" si="445"/>
         <v>C.F.A. - L-3 - Quantitive Methods</v>
       </c>
       <c r="B350" s="27" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C350" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D350" s="3" t="s">
         <v>171</v>
@@ -47418,7 +47419,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="351" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="351" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A351" s="32" t="str">
         <f t="shared" si="445"/>
         <v>C.F.A. - L-3 - Economics</v>
@@ -47427,7 +47428,7 @@
         <v>31</v>
       </c>
       <c r="C351" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D351" s="3" t="s">
         <v>171</v>
@@ -47499,16 +47500,16 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="352" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="352" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A352" s="32" t="str">
         <f t="shared" si="445"/>
         <v>C.F.A. - L-3 - Fin Statement Analysis</v>
       </c>
       <c r="B352" s="27" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C352" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D352" s="3" t="s">
         <v>171</v>
@@ -47580,16 +47581,16 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="353" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="353" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A353" s="32" t="str">
         <f t="shared" si="445"/>
         <v>C.F.A. - L-3 - Corporate Issuers</v>
       </c>
       <c r="B353" s="27" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C353" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D353" s="3" t="s">
         <v>171</v>
@@ -47661,16 +47662,16 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="354" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="354" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A354" s="32" t="str">
         <f t="shared" si="445"/>
         <v>C.F.A. - L-3 - Equity Investments</v>
       </c>
       <c r="B354" s="27" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C354" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D354" s="3" t="s">
         <v>171</v>
@@ -47742,16 +47743,16 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="355" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="355" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A355" s="32" t="str">
         <f t="shared" si="445"/>
         <v>C.F.A. - L-3 - Fixed Income</v>
       </c>
       <c r="B355" s="27" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C355" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D355" s="3" t="s">
         <v>171</v>
@@ -47823,16 +47824,16 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="356" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="356" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A356" s="32" t="str">
         <f t="shared" si="445"/>
         <v>C.F.A. - L-3 - Derivatives</v>
       </c>
       <c r="B356" s="27" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C356" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D356" s="3" t="s">
         <v>171</v>
@@ -47904,16 +47905,16 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="357" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="357" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A357" s="32" t="str">
         <f t="shared" si="445"/>
         <v>C.F.A. - L-3 - Alternative Investments</v>
       </c>
       <c r="B357" s="27" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C357" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D357" s="3" t="s">
         <v>171</v>
@@ -47985,16 +47986,16 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="358" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="358" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A358" s="32" t="str">
         <f t="shared" si="445"/>
         <v>C.F.A. - L-3 - Portrfolio Mgmt-Wealth</v>
       </c>
       <c r="B358" s="27" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C358" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D358" s="3" t="s">
         <v>171</v>
@@ -48066,7 +48067,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="359" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="359" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A359" s="19" t="str">
         <f>B359</f>
         <v>Spoken English</v>
@@ -48087,7 +48088,7 @@
         <v>196</v>
       </c>
       <c r="G359" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H359" s="7" t="s">
         <v>138</v>
@@ -48211,7 +48212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="360" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A360" s="19" t="str">
         <f>B360</f>
         <v>Advanced Grooming</v>
@@ -48229,10 +48230,10 @@
         <v>135</v>
       </c>
       <c r="F360" s="33" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G360" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H360" s="7" t="s">
         <v>138</v>
@@ -48356,7 +48357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="361" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A361" s="19" t="str">
         <f t="shared" ref="A361:A364" si="455">B361</f>
         <v>IELTS</v>
@@ -48499,7 +48500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="362" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A362" s="19" t="str">
         <f t="shared" si="455"/>
         <v>TOEFL</v>
@@ -48642,7 +48643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="363" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A363" s="19" t="str">
         <f t="shared" si="455"/>
         <v>PTE</v>
@@ -48785,7 +48786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="364" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A364" s="19" t="str">
         <f t="shared" si="455"/>
         <v>GRE</v>
@@ -48928,7 +48929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="365" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A365" s="19" t="str">
         <f>B365</f>
         <v>Classroom2Boardroom</v>
@@ -49071,7 +49072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="366" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A366" s="19" t="str">
         <f t="shared" ref="A366:A367" si="456">B366</f>
         <v>Employee to Manager</v>
@@ -49214,7 +49215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="367" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A367" s="19" t="str">
         <f t="shared" si="456"/>
         <v>Executive Training</v>
@@ -49357,7 +49358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="368" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A368" s="13" t="str">
         <f t="shared" ref="A368:A394" si="457">B368</f>
         <v>MS Office</v>
@@ -49375,10 +49376,10 @@
         <v>131</v>
       </c>
       <c r="F368" s="33" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G368" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H368" s="7" t="s">
         <v>138</v>
@@ -49390,7 +49391,7 @@
         <v>1</v>
       </c>
       <c r="K368" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="L368" s="7">
         <v>1</v>
@@ -49502,7 +49503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="369" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A369" s="13" t="str">
         <f t="shared" si="457"/>
         <v>Advanced Excel (VBA)</v>
@@ -49520,10 +49521,10 @@
         <v>131</v>
       </c>
       <c r="F369" s="33" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G369" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H369" s="7" t="s">
         <v>138</v>
@@ -49647,7 +49648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="370" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A370" s="13" t="str">
         <f t="shared" si="457"/>
         <v>C</v>
@@ -49665,10 +49666,10 @@
         <v>131</v>
       </c>
       <c r="F370" s="33" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G370" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H370" s="7" t="s">
         <v>138</v>
@@ -49792,7 +49793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="371" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A371" s="13" t="str">
         <f t="shared" si="457"/>
         <v>C++</v>
@@ -49810,10 +49811,10 @@
         <v>131</v>
       </c>
       <c r="F371" s="33" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G371" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H371" s="7" t="s">
         <v>138</v>
@@ -49937,7 +49938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="372" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A372" s="13" t="str">
         <f t="shared" si="457"/>
         <v>HTML, CSS, JavaScript</v>
@@ -49955,10 +49956,10 @@
         <v>131</v>
       </c>
       <c r="F372" s="33" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G372" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H372" s="7" t="s">
         <v>138</v>
@@ -50082,7 +50083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="373" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A373" s="13" t="str">
         <f t="shared" si="457"/>
         <v>Java</v>
@@ -50100,10 +50101,10 @@
         <v>131</v>
       </c>
       <c r="F373" s="33" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G373" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H373" s="7" t="s">
         <v>138</v>
@@ -50227,7 +50228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="374" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A374" s="13" t="str">
         <f t="shared" si="457"/>
         <v>Advanced Java</v>
@@ -50245,10 +50246,10 @@
         <v>131</v>
       </c>
       <c r="F374" s="33" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G374" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H374" s="7" t="s">
         <v>138</v>
@@ -50372,7 +50373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="375" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A375" s="13" t="str">
         <f t="shared" si="457"/>
         <v>.Net (C#, VB.Net)</v>
@@ -50390,10 +50391,10 @@
         <v>131</v>
       </c>
       <c r="F375" s="33" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G375" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H375" s="7" t="s">
         <v>138</v>
@@ -50517,7 +50518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="376" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A376" s="13" t="str">
         <f t="shared" si="457"/>
         <v>Advanced .Net</v>
@@ -50535,10 +50536,10 @@
         <v>131</v>
       </c>
       <c r="F376" s="33" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G376" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H376" s="7" t="s">
         <v>138</v>
@@ -50662,7 +50663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="377" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A377" s="13" t="str">
         <f t="shared" si="457"/>
         <v>Microsoft Azure Cloud</v>
@@ -50805,7 +50806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="378" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A378" s="13" t="str">
         <f t="shared" si="457"/>
         <v>React, MUI</v>
@@ -50823,10 +50824,10 @@
         <v>131</v>
       </c>
       <c r="F378" s="33" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G378" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H378" s="7" t="s">
         <v>138</v>
@@ -50950,7 +50951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="379" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A379" s="13" t="str">
         <f t="shared" si="457"/>
         <v>React Native</v>
@@ -50968,10 +50969,10 @@
         <v>131</v>
       </c>
       <c r="F379" s="33" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G379" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H379" s="7" t="s">
         <v>138</v>
@@ -51095,7 +51096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="380" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A380" s="13" t="str">
         <f t="shared" si="457"/>
         <v>PHP, Wordpress</v>
@@ -51113,10 +51114,10 @@
         <v>131</v>
       </c>
       <c r="F380" s="33" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G380" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H380" s="7" t="s">
         <v>138</v>
@@ -51240,7 +51241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="381" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A381" s="13" t="str">
         <f t="shared" si="457"/>
         <v>Linux, Shell Script</v>
@@ -51258,10 +51259,10 @@
         <v>131</v>
       </c>
       <c r="F381" s="33" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G381" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H381" s="7" t="s">
         <v>138</v>
@@ -51385,7 +51386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="382" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A382" s="13" t="str">
         <f t="shared" si="457"/>
         <v>Networking &amp; CCNA</v>
@@ -51528,7 +51529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="383" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A383" s="13" t="str">
         <f t="shared" si="457"/>
         <v>Hands-on Network H/W</v>
@@ -51549,7 +51550,7 @@
         <v>185</v>
       </c>
       <c r="G383" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H383" s="7" t="s">
         <v>138</v>
@@ -51673,7 +51674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="384" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A384" s="13" t="str">
         <f t="shared" si="457"/>
         <v>Devops</v>
@@ -51816,7 +51817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="385" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A385" s="13" t="str">
         <f t="shared" si="457"/>
         <v>Docker &amp; Kubernetes</v>
@@ -51959,7 +51960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="386" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A386" s="13" t="str">
         <f t="shared" si="457"/>
         <v>Cloud, AWS, GCP</v>
@@ -52102,7 +52103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="387" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A387" s="13" t="str">
         <f t="shared" si="457"/>
         <v>Cyber security Basics</v>
@@ -52245,7 +52246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="388" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A388" s="13" t="str">
         <f t="shared" si="457"/>
         <v>Cyber security Advanced</v>
@@ -52388,13 +52389,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="389" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A389" s="13" t="str">
         <f t="shared" si="457"/>
         <v>Test Automtn Selenium</v>
       </c>
       <c r="B389" s="8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C389" s="3" t="s">
         <v>69</v>
@@ -52531,7 +52532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="390" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A390" s="13" t="s">
         <v>173</v>
       </c>
@@ -52548,10 +52549,10 @@
         <v>131</v>
       </c>
       <c r="F390" s="33" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G390" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H390" s="7" t="s">
         <v>138</v>
@@ -52675,7 +52676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="391" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A391" s="13" t="s">
         <v>174</v>
       </c>
@@ -52692,10 +52693,10 @@
         <v>131</v>
       </c>
       <c r="F391" s="33" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G391" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H391" s="7" t="s">
         <v>138</v>
@@ -52819,7 +52820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="392" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A392" s="13" t="s">
         <v>175</v>
       </c>
@@ -52836,10 +52837,10 @@
         <v>131</v>
       </c>
       <c r="F392" s="33" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G392" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H392" s="7" t="s">
         <v>138</v>
@@ -52963,7 +52964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="393" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A393" s="13" t="s">
         <v>176</v>
       </c>
@@ -52980,10 +52981,10 @@
         <v>131</v>
       </c>
       <c r="F393" s="33" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G393" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H393" s="7" t="s">
         <v>138</v>
@@ -53106,7 +53107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="394" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A394" s="13" t="str">
         <f t="shared" si="457"/>
         <v>Tally</v>
@@ -53249,13 +53250,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="395" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A395" s="13" t="str">
         <f>B395</f>
         <v>Advanced Comme Pkg</v>
       </c>
       <c r="B395" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C395" s="3" t="s">
         <v>69</v>
@@ -53392,7 +53393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="396" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A396" s="13" t="str">
         <f>B396</f>
         <v>Prince2</v>
@@ -53410,10 +53411,10 @@
         <v>131</v>
       </c>
       <c r="F396" s="33" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G396" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H396" s="7" t="s">
         <v>139</v>
@@ -53537,7 +53538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="397" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A397" s="13" t="str">
         <f>B397</f>
         <v>Agile Scrum</v>
@@ -53558,7 +53559,7 @@
         <v>63</v>
       </c>
       <c r="G397" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H397" s="7" t="s">
         <v>139</v>
@@ -53682,7 +53683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="398" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A398" s="13" t="str">
         <f t="shared" ref="A398:A405" si="509">B398</f>
         <v>Python</v>
@@ -53703,7 +53704,7 @@
         <v>63</v>
       </c>
       <c r="G398" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H398" s="7" t="s">
         <v>138</v>
@@ -53827,7 +53828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="399" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A399" s="13" t="str">
         <f t="shared" si="509"/>
         <v>Data Analytics</v>
@@ -53848,7 +53849,7 @@
         <v>63</v>
       </c>
       <c r="G399" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H399" s="7" t="s">
         <v>138</v>
@@ -53972,7 +53973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="400" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A400" s="13" t="str">
         <f t="shared" si="509"/>
         <v>Data Science &amp; AI</v>
@@ -53993,7 +53994,7 @@
         <v>63</v>
       </c>
       <c r="G400" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H400" s="7" t="s">
         <v>138</v>
@@ -54117,7 +54118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="401" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A401" s="13" t="str">
         <f t="shared" si="509"/>
         <v>AI - DSP</v>
@@ -54138,7 +54139,7 @@
         <v>63</v>
       </c>
       <c r="G401" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H401" s="7" t="s">
         <v>138</v>
@@ -54262,13 +54263,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="402" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A402" s="13" t="str">
         <f t="shared" si="509"/>
         <v>AI - NLP</v>
       </c>
       <c r="B402" s="8" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C402" s="3" t="s">
         <v>69</v>
@@ -54283,7 +54284,7 @@
         <v>63</v>
       </c>
       <c r="G402" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H402" s="7" t="s">
         <v>138</v>
@@ -54407,13 +54408,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="403" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A403" s="13" t="str">
         <f t="shared" si="509"/>
         <v>AI - Comp Vision (CNN)</v>
       </c>
       <c r="B403" s="8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C403" s="3" t="s">
         <v>69</v>
@@ -54428,7 +54429,7 @@
         <v>63</v>
       </c>
       <c r="G403" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H403" s="7" t="s">
         <v>138</v>
@@ -54552,7 +54553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="404" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A404" s="13" t="str">
         <f t="shared" si="509"/>
         <v>IoT, Robotics</v>
@@ -54573,7 +54574,7 @@
         <v>64</v>
       </c>
       <c r="G404" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H404" s="7" t="s">
         <v>138</v>
@@ -54697,7 +54698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:40" ht="13.35" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="405" spans="1:40" ht="13.35" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A405" s="13" t="str">
         <f t="shared" si="509"/>
         <v>Advanced IoT, Robotics</v>
@@ -54718,7 +54719,7 @@
         <v>64</v>
       </c>
       <c r="G405" s="33" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H405" s="7" t="s">
         <v>138</v>
@@ -54843,8 +54844,51 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:AE405" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A3:AE405" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Biology"/>
+        <filter val="Life Science"/>
+        <filter val="Science - Bio"/>
+        <filter val="Science, Biology"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="4">
+      <filters>
+        <filter val="NEET/IIT"/>
+        <filter val="VIII-XII Art"/>
+        <filter val="VIII-XII Sci"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="43">
+    <mergeCell ref="AF1:AJ1"/>
+    <mergeCell ref="AK2:AK3"/>
+    <mergeCell ref="AL2:AL3"/>
+    <mergeCell ref="AM2:AM3"/>
+    <mergeCell ref="AN2:AN3"/>
+    <mergeCell ref="AK1:AN1"/>
+    <mergeCell ref="AF2:AF3"/>
+    <mergeCell ref="AG2:AG3"/>
+    <mergeCell ref="AH2:AH3"/>
+    <mergeCell ref="AI2:AI3"/>
+    <mergeCell ref="AJ2:AJ3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="V2:V3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="R2:R3"/>
     <mergeCell ref="F1:U1"/>
     <mergeCell ref="V1:Z1"/>
     <mergeCell ref="AA1:AE1"/>
@@ -54861,33 +54905,6 @@
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="I2:I3"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="U2:U3"/>
-    <mergeCell ref="V2:V3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="AF1:AJ1"/>
-    <mergeCell ref="AK2:AK3"/>
-    <mergeCell ref="AL2:AL3"/>
-    <mergeCell ref="AM2:AM3"/>
-    <mergeCell ref="AN2:AN3"/>
-    <mergeCell ref="AK1:AN1"/>
-    <mergeCell ref="AF2:AF3"/>
-    <mergeCell ref="AG2:AG3"/>
-    <mergeCell ref="AH2:AH3"/>
-    <mergeCell ref="AI2:AI3"/>
-    <mergeCell ref="AJ2:AJ3"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
